--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554460671951520529', 'createTime': 1758909958, 'createTimeISO': '2025-09-26T18:05:58.000Z', 'text': 'Vuelvan los originales porfa😭', 'diggCount': 202, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7499982161161585680', 'uniqueId': 'lcv.xox', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/598c6e494574f43d995207087f02276a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=23bc3af5&amp;x-expires=1759593600&amp;x-signature=oDHQ0OxhLNtcsBVbusbc2yYbm30%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554460671951520529', 'createTime': 1758909958, 'createTimeISO': '2025-09-26T18:05:58.000Z', 'text': 'Vuelvan los originales porfa😭', 'diggCount': 255, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7499982161161585680', 'uniqueId': 'lcv.xox', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/598c6e494574f43d995207087f02276a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2a53e9f8&amp;x-expires=1760619600&amp;x-signature=cO6vGikRyGRT4GJH4QZF1%2BcPSwA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -591,25 +591,25 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>saquen mochis en forma de looney toons 😁</t>
+          <t>y si soy de Colombia acá no hay Oxxo😭</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>45929.73829861111</v>
+        <v>45927.01857638889</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>45929</v>
+        <v>45927</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>17:43:09</t>
+          <t>00:26:45</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -621,7 +621,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555568041485681424', 'createTime': 1759167789, 'createTimeISO': '2025-09-29T17:43:09.000Z', 'text': 'saquen mochis en forma de looney toons 😁', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6826404277322974214', 'uniqueId': 'carolinapr145', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/01f5729aadb40e0a6938515cce68a8d9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fb81a883&amp;x-expires=1759593600&amp;x-signature=gFwOxDt%2FNJNg%2F3YoE4EzQy0uIxQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554558807096722184', 'createTime': 1758932805, 'createTimeISO': '2025-09-27T00:26:45.000Z', 'text': 'y si soy de Colombia acá no hay Oxxo😭', 'diggCount': 189, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 62, 'uid': '7539632392610726919', 'uniqueId': 'samu07354', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/62b7de782c00747584315652ae6d84c0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7b13ac86&amp;x-expires=1760619600&amp;x-signature=gFvTr6hzjm3B7oX3mYldMgCEeAA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -647,25 +647,25 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>y si soy de Colombia acá no hay Oxxo😭</t>
+          <t>yo con mis 14 mochisaurios: 👁️👄👁</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45927.01857638889</v>
+        <v>45943.24204861111</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>45927</v>
+        <v>45943</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>00:26:45</t>
+          <t>05:48:33</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -677,7 +677,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554558807096722184', 'createTime': 1758932805, 'createTimeISO': '2025-09-27T00:26:45.000Z', 'text': 'y si soy de Colombia acá no hay Oxxo😭', 'diggCount': 120, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 39, 'uid': '7539632392610726919', 'uniqueId': 'samu07354', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/62b7de782c00747584315652ae6d84c0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=efffe56d&amp;x-expires=1759593600&amp;x-signature=MdErwAfBBwUuIE3A0vg2U90b3Lk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7560579124269777672', 'createTime': 1760334513, 'createTimeISO': '2025-10-13T05:48:33.000Z', 'text': 'yo con mis 14 mochisaurios: 👁️👄👁', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7535556501164065799', 'uniqueId': 'flutershy46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5e5abe1cd68cf25fc519fc9b297b0c48~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=705f4834&amp;x-expires=1760619600&amp;x-signature=hSM6WLrtP6U1JJvqwxll6LlsjZs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -703,25 +703,25 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Paso 1 compran un yogo yogo premio de tarrito y ya viene uno dentro.</t>
+          <t>mucho trabajo para un muñeco</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45932.67648148148</v>
+        <v>45928.12261574074</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>45932</v>
+        <v>45928</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>16:14:08</t>
+          <t>02:56:34</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -733,7 +733,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556658397476963090', 'createTime': 1759421648, 'createTimeISO': '2025-10-02T16:14:08.000Z', 'text': 'Paso 1 compran un yogo yogo premio de tarrito y ya viene uno dentro.', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7070376833845543941', 'uniqueId': 'yohanrojas85', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0dc2488051a97fe07b1ff4157648948c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4fafc5ae&amp;x-expires=1759593600&amp;x-signature=8DcXmhxjxzxz5D2NCeQjJ9c94ek%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554968530820268818', 'createTime': 1759028194, 'createTimeISO': '2025-09-28T02:56:34.000Z', 'text': 'mucho trabajo para un muñeco', 'diggCount': 178, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 8, 'uid': '6900093665232208898', 'uniqueId': 'alonsocastaeda4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/656e080d9831aeebef39b67358dbf496~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a766fb9a&amp;x-expires=1760619600&amp;x-signature=8G%2FEU3VEKd1u9Sy8r6E9NBUdU6g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -759,25 +759,25 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>pero están en todos los países ?</t>
+          <t>muy lindos pero huelen horrible🥺</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>45926.73320601852</v>
+        <v>45934.07570601852</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>45926</v>
+        <v>45934</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>17:35:49</t>
+          <t>01:49:01</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -789,7 +789,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554452916247216913', 'createTime': 1758908149, 'createTimeISO': '2025-09-26T17:35:49.000Z', 'text': 'pero están en todos los países ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7531534159044887568', 'uniqueId': 'nicolevargas2545', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b5f68ad1a85740ea080fbebad18c2fbd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b9b3cb5b&amp;x-expires=1759593600&amp;x-signature=2IeS3kUwinITAOyUB2OQ%2F%2BHddvk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7557177612487262984', 'createTime': 1759542541, 'createTimeISO': '2025-10-04T01:49:01.000Z', 'text': 'muy lindos pero huelen horrible🥺', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7306290978125005830', 'uniqueId': 'tinta.prpura', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/325aa1206343248d1f45735372a84c0b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2ae1cb69&amp;x-expires=1760619600&amp;x-signature=lkg1639gdPlhe6x4G6HNNSmRI34%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -815,25 +815,25 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>los originales plissss</t>
+          <t>Mas fácil conseguirlos en el yogo premio</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>45929.86050925926</v>
+        <v>45927.99311342592</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>45929</v>
+        <v>45927</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>20:39:08</t>
+          <t>23:50:05</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -845,7 +845,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555613367218963217', 'createTime': 1759178348, 'createTimeISO': '2025-09-29T20:39:08.000Z', 'text': 'los originales plissss', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7394864626544559109', 'uniqueId': 'user67670860120347', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c0de0e4bb0938ad83a79077f7f67770d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=287bb97f&amp;x-expires=1759593600&amp;x-signature=8BluVRzHyw1y4ZlNRBvbGESSg9s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554920371642204949', 'createTime': 1759017005, 'createTimeISO': '2025-09-27T23:50:05.000Z', 'text': 'Mas fácil conseguirlos en el yogo premio', 'diggCount': 38, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '6517042462509241359', 'uniqueId': 'milenar96', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/65a89a7d9be3781e3c799109d941b1d0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e2a554a2&amp;x-expires=1760619600&amp;x-signature=wPsBBL4hf8xYatZYjduPth3qD4M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -871,22 +871,22 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Alpina me mandan la caja Porfavor y les subo un video abriéndola</t>
+          <t>que triste que ya no salga las verdaderas figuritas de antes como lo era los Dioses del olimpo o los del futuro y los de goku y los futbolistas y los transformers y muchos mas, lo de hoy en dia ya me da pereza coleccionar esas cosas tan aburridas</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45931.93680555555</v>
+        <v>45945.17697916667</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>45931</v>
+        <v>45945</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>22:29:00</t>
+          <t>04:14:51</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556383835371717396', 'createTime': 1759357740, 'createTimeISO': '2025-10-01T22:29:00.000Z', 'text': 'Alpina me mandan la caja Porfavor y les subo un video abriéndola', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452119185666720773', 'uniqueId': 'juanjose192592', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4cd1c36ecc1e938a7fbeb49be5a0bb2d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2891cc67&amp;x-expires=1759593600&amp;x-signature=rqch48b1JEiazidtz4MbUteSg60%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7561297143858135816', 'createTime': 1760501691, 'createTimeISO': '2025-10-15T04:14:51.000Z', 'text': 'que triste que ya no salga las verdaderas figuritas de antes como lo era los Dioses del olimpo o los del futuro y los de goku y los futbolistas y los transformers y muchos mas, lo de hoy en dia ya me da pereza coleccionar esas cosas tan aburridas', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7530133168200975368', 'uniqueId': 'figuritas07', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=24e7ff38&amp;x-expires=1760619600&amp;x-signature=XcSDitOFZeEIWYaP6SnNYkRGn58%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -927,22 +927,22 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>en San Andrés no hay oxxo</t>
+          <t>saquen mochis en forma de looney toons 😁</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>45933.62440972222</v>
+        <v>45929.73829861111</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>45933</v>
+        <v>45929</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>14:59:09</t>
+          <t>17:43:09</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -957,7 +957,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7557010184049443602', 'createTime': 1759503549, 'createTimeISO': '2025-10-03T14:59:09.000Z', 'text': 'en San Andrés no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7521449685388248071', 'uniqueId': 'lili0202028', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/dd40d81546424fd2fcea2ed3358909ad~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=088e250d&amp;x-expires=1759593600&amp;x-signature=GkzD4mK1MwLyBCxGHe0U16hVPBc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555568041485681424', 'createTime': 1759167789, 'createTimeISO': '2025-09-29T17:43:09.000Z', 'text': 'saquen mochis en forma de looney toons 😁', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6826404277322974214', 'uniqueId': 'carolinapr145', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/01f5729aadb40e0a6938515cce68a8d9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4b0faafd&amp;x-expires=1760619600&amp;x-signature=EMlrXv7omx9HsYYm2JfyaVFOP4Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -983,25 +983,25 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>en Colombia no hay OXXO</t>
+          <t>Alpina me mandan la caja Porfavor y les subo un video abriéndola</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>45928.81866898148</v>
+        <v>45931.93680555555</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>45928</v>
+        <v>45931</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>19:38:53</t>
+          <t>22:29:00</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555226815825003282', 'createTime': 1759088333, 'createTimeISO': '2025-09-28T19:38:53.000Z', 'text': 'en Colombia no hay OXXO', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 6, 'uid': '7239017294855767045', 'uniqueId': 'basspublicidadymediossas', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/27521fedb51ceea61f70eec021541ed1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=97ac5676&amp;x-expires=1759593600&amp;x-signature=E4%2FFa%2BErgF%2BxC7BIYhE2bFZA4MI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556383835371717396', 'createTime': 1759357740, 'createTimeISO': '2025-10-01T22:29:00.000Z', 'text': 'Alpina me mandan la caja Porfavor y les subo un video abriéndola', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452119185666720773', 'uniqueId': 'juanjose192592', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4cd1c36ecc1e938a7fbeb49be5a0bb2d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=df4b8a7d&amp;x-expires=1760619600&amp;x-signature=YN6SjtIkM5wzdkSTDl5z7dzxGac%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1039,25 +1039,25 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>mucho trabajo para un muñeco</t>
+          <t>Una pregunta yo fui y lleve todas los logos de yogurt de vasito y me dijeron que esos no se ponían?</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>45928.12261574074</v>
+        <v>45940.24515046296</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>45928</v>
+        <v>45940</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>02:56:34</t>
+          <t>05:53:01</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554968530820268818', 'createTime': 1759028194, 'createTimeISO': '2025-09-28T02:56:34.000Z', 'text': 'mucho trabajo para un muñeco', 'diggCount': 65, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 5, 'uid': '6900093665232208898', 'uniqueId': 'alonsocastaeda4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/656e080d9831aeebef39b67358dbf496~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fe9ef00d&amp;x-expires=1759593600&amp;x-signature=Kdt%2FMlWSwRKxhW0IhduTyT0MmBo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559467019110204168', 'createTime': 1760075581, 'createTimeISO': '2025-10-10T05:53:01.000Z', 'text': 'Una pregunta yo fui y lleve todas los logos de yogurt de vasito y me dijeron que esos no se ponían?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7546710335559959559', 'uniqueId': 'alexandrapardocaj', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8cec9d771e97df3f8fa5b79f45eb0965~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6a278b7e&amp;x-expires=1760619600&amp;x-signature=A73aV%2B7sePfhmb3pjVZwrjA09go%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1095,25 +1095,25 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ya we déjenlo pasar🥀</t>
+          <t>en Colombia no hay OXXO</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>45928.95833333334</v>
+        <v>45928.81866898148</v>
       </c>
       <c r="H12" s="3" t="n">
         <v>45928</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>23:00:00</t>
+          <t>19:38:53</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555278564566205204', 'createTime': 1759100400, 'createTimeISO': '2025-09-28T23:00:00.000Z', 'text': 'ya we déjenlo pasar🥀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7442938390251717687', 'uniqueId': 'solicituddeempleo0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/778e7bf52d21ffd041c8cf4f95bc31e4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6e15c38c&amp;x-expires=1759593600&amp;x-signature=7%2BUMyanpyLNnRZdIxQBchKBALlc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555226815825003282', 'createTime': 1759088333, 'createTimeISO': '2025-09-28T19:38:53.000Z', 'text': 'en Colombia no hay OXXO', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 10, 'uid': '7239017294855767045', 'uniqueId': 'basspublicidadymediossas', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/27521fedb51ceea61f70eec021541ed1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=df755315&amp;x-expires=1760619600&amp;x-signature=8yoSk2uAqJ%2BUysTAf7ttqusjD%2BY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1151,18 +1151,18 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>es mejor la paleta Drácula</t>
+          <t>nesecitoo la lista de los cuarenta muchis y nombrees</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>45929.09761574074</v>
+        <v>45929.73436342592</v>
       </c>
       <c r="H13" s="3" t="n">
         <v>45929</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>02:20:34</t>
+          <t>17:37:29</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555330316220629781', 'createTime': 1759112434, 'createTimeISO': '2025-09-29T02:20:34.000Z', 'text': 'es mejor la paleta Drácula', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7470243338898408456', 'uniqueId': 'schneidermurchz', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6def76385b3a465895b9c63a18974e36~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=594ab2c4&amp;x-expires=1759593600&amp;x-signature=9XjLmO6YdFbHHj9j1AEC4WId8x0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555566632794702599', 'createTime': 1759167449, 'createTimeISO': '2025-09-29T17:37:29.000Z', 'text': 'nesecitoo la lista de los cuarenta muchis y nombrees', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7476832145886741524', 'uniqueId': 'eli491676', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/de51a904dddc57525965d4639f48e5d4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=529d76aa&amp;x-expires=1760619600&amp;x-signature=Bwf%2FNfTHwIZpo1hiyqJyjUfSSKY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1207,22 +1207,22 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>nena voy mal con la paleta Drácula y ya me pides que complete la de Mochis 🤣🤣</t>
+          <t>Que pereza tan vuelta!! y aquí estamos en Colombia porque una tienda de otra parte que no tiene presencia en toda Colombia.</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>45930.3165625</v>
+        <v>45927.66452546296</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>45930</v>
+        <v>45927</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>07:35:51</t>
+          <t>15:56:55</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555782650826031873', 'createTime': 1759217751, 'createTimeISO': '2025-09-30T07:35:51.000Z', 'text': 'nena voy mal con la paleta Drácula y ya me pides que complete la de Mochis 🤣🤣', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6944546725642798085', 'uniqueId': 'juanluna5778', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37c22dadb60b0803d8feaf140ff63274~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fcabe48f&amp;x-expires=1759593600&amp;x-signature=GCd2O46sbQgJShvfiMEcKHx4uy0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554798543229666055', 'createTime': 1758988615, 'createTimeISO': '2025-09-27T15:56:55.000Z', 'text': 'Que pereza tan vuelta!! y aquí estamos en Colombia porque una tienda de otra parte que no tiene presencia en toda Colombia.', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7054390199678141445', 'uniqueId': 'monicakairos', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/00af4b97638212b23062f8a0c25de5cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3eb1a4c7&amp;x-expires=1760619600&amp;x-signature=fDSePp2rs0BHA5vgq3hGIilGHEo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1263,22 +1263,22 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>pasa lo mismo que con los Mochis anteriores va uno a reclamar y que no hay</t>
+          <t>Los Amooo pero Uyy un montón de cosas para el recambio!</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>45926.8086574074</v>
+        <v>45927.14011574074</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>45926</v>
+        <v>45927</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>19:24:28</t>
+          <t>03:21:46</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554480920402084629', 'createTime': 1758914668, 'createTimeISO': '2025-09-26T19:24:28.000Z', 'text': 'pasa lo mismo que con los Mochis anteriores va uno a reclamar y que no hay', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7051306038071723013', 'uniqueId': '0604tn56mz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/fe694ef60fa664d93b3af32ef8266baf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4ce06ed6&amp;x-expires=1759593600&amp;x-signature=%2FuP0AXzlJdEq%2B%2FuzX%2BqYD7XgDUU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554603916571640577', 'createTime': 1758943306, 'createTimeISO': '2025-09-27T03:21:46.000Z', 'text': 'Los Amooo pero Uyy un montón de cosas para el recambio!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7496003126047851521', 'uniqueId': 'caroprietog', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/193fc58d2631016bab3ea768e8d11296~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ba55ccfe&amp;x-expires=1760619600&amp;x-signature=vI%2BRCZZFHZwX8zDuYYCE7qD9rxU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1319,22 +1319,22 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Que pereza tan vuelta!! y aquí estamos en Colombia porque una tienda de otra parte que no tiene presencia en toda Colombia.</t>
+          <t>los originales plissss</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>45927.66452546296</v>
+        <v>45929.86050925926</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>45927</v>
+        <v>45929</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>15:56:55</t>
+          <t>20:39:08</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554798543229666055', 'createTime': 1758988615, 'createTimeISO': '2025-09-27T15:56:55.000Z', 'text': 'Que pereza tan vuelta!! y aquí estamos en Colombia porque una tienda de otra parte que no tiene presencia en toda Colombia.', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7054390199678141445', 'uniqueId': 'monicakairos', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/00af4b97638212b23062f8a0c25de5cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b54882f2&amp;x-expires=1759593600&amp;x-signature=cZP8fAylHazyFXhmkf%2Bs%2BrK8Pqo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555613367218963217', 'createTime': 1759178348, 'createTimeISO': '2025-09-29T20:39:08.000Z', 'text': 'los originales plissss', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7394864626544559109', 'uniqueId': 'user67670860120347', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c0de0e4bb0938ad83a79077f7f67770d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fcf0593f&amp;x-expires=1760619600&amp;x-signature=4jbzzCwlVbifjPW2j6osJRc6sv4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1375,25 +1375,25 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>y si tengo repetidos no me los cambian 😂😂</t>
+          <t>pero están en todos los países ?</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>45926.88744212963</v>
+        <v>45926.73320601852</v>
       </c>
       <c r="H17" s="3" t="n">
         <v>45926</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21:17:55</t>
+          <t>17:35:49</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554510104642650896', 'createTime': 1758921475, 'createTimeISO': '2025-09-26T21:17:55.000Z', 'text': 'y si tengo repetidos no me los cambian 😂😂', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6835450069409514502', 'uniqueId': 'ailatanollirum', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/474f3a22808ad684a516e4b07cab2a37~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=68854907&amp;x-expires=1759593600&amp;x-signature=%2BKldojfQKQy2E7gCKFKZz0xjWig%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554452916247216913', 'createTime': 1758908149, 'createTimeISO': '2025-09-26T17:35:49.000Z', 'text': 'pero están en todos los países ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7531534159044887568', 'uniqueId': 'nicolevargas2545', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b5f68ad1a85740ea080fbebad18c2fbd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fa741d76&amp;x-expires=1760619600&amp;x-signature=46Fvyg%2F2esJieGafpx7ZBE3nV4Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1431,25 +1431,25 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mas fácil conseguirlos en el yogo premio</t>
+          <t>en Montería no hay OXXO pero si un todo a 1000 hay los entran</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>45927.99311342592</v>
+        <v>45939.0350925926</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>45927</v>
+        <v>45939</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>23:50:05</t>
+          <t>00:50:32</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554920371642204949', 'createTime': 1759017005, 'createTimeISO': '2025-09-27T23:50:05.000Z', 'text': 'Mas fácil conseguirlos en el yogo premio', 'diggCount': 23, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '6517042462509241359', 'uniqueId': 'milenar96', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/65a89a7d9be3781e3c799109d941b1d0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5478023f&amp;x-expires=1759593600&amp;x-signature=4q63AXeCJAejdeCWqigZBUkEz9I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559017957411767047', 'createTime': 1759971032, 'createTimeISO': '2025-10-09T00:50:32.000Z', 'text': 'en Montería no hay OXXO pero si un todo a 1000 hay los entran', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7547836898510832661', 'uniqueId': 'liss05695', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/72682b59d508342205ec99b1085f60fa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b3362ad2&amp;x-expires=1760619600&amp;x-signature=kNb9V8fvrFxgnHj2pTkyeb2snd8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1487,25 +1487,25 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>tengo un montón de Mochis de la primera colección, valdrá mucho?</t>
+          <t>y si no hay en mi ciudad Oxxo?</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>45926.67013888889</v>
+        <v>45926.70601851852</v>
       </c>
       <c r="H19" s="3" t="n">
         <v>45926</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>16:05:00</t>
+          <t>16:56:40</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554429537663386376', 'createTime': 1758902700, 'createTimeISO': '2025-09-26T16:05:00.000Z', 'text': 'tengo un montón de Mochis de la primera colección, valdrá mucho?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7116292147141166086', 'uniqueId': 'trades_fenix', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9270efdc513746d459737e05d9dccbee~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bbc3cf6d&amp;x-expires=1759593600&amp;x-signature=fTEnjFdeXObf%2F%2BnFzHn1Kv0KVCc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554442837019116305', 'createTime': 1758905800, 'createTimeISO': '2025-09-26T16:56:40.000Z', 'text': 'y si no hay en mi ciudad Oxxo?', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7051817529568986117', 'uniqueId': 'mariana_priv.cs', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7255c70c6e94d569e6bdbbdf98f98049~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fd727aa2&amp;x-expires=1760619600&amp;x-signature=djSd9pPG21fgmu1LzrQV%2BueTvPk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1543,22 +1543,22 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>de cuánto se pueden reclamar</t>
+          <t>Paso 1 compran un yogo yogo premio de tarrito y ya viene uno dentro.</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>45927.0343287037</v>
+        <v>45932.67648148148</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>45927</v>
+        <v>45932</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>00:49:26</t>
+          <t>16:14:08</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554564660893696776', 'createTime': 1758934166, 'createTimeISO': '2025-09-27T00:49:26.000Z', 'text': 'de cuánto se pueden reclamar', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7197504067588178949', 'uniqueId': 'angelina.rodrguez432', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7309230945578516485~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=366665d5&amp;x-expires=1759593600&amp;x-signature=luxQYiidg5iafdEty2Fyl7QWP0s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556658397476963090', 'createTime': 1759421648, 'createTimeISO': '2025-10-02T16:14:08.000Z', 'text': 'Paso 1 compran un yogo yogo premio de tarrito y ya viene uno dentro.', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7070376833845543941', 'uniqueId': 'yohanrojas85', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0dc2488051a97fe07b1ff4157648948c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=74fdd8d5&amp;x-expires=1760619600&amp;x-signature=5vRdluKrTJs2xug2LFp1KqRdhjQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1599,25 +1599,25 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>y si no hay en mi ciudad Oxxo?</t>
+          <t>nena voy mal con la paleta Drácula y ya me pides que complete la de Mochis 🤣🤣</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>45926.70601851852</v>
+        <v>45930.3165625</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>16:56:40</t>
+          <t>07:35:51</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554442837019116305', 'createTime': 1758905800, 'createTimeISO': '2025-09-26T16:56:40.000Z', 'text': 'y si no hay en mi ciudad Oxxo?', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7051817529568986117', 'uniqueId': 'mariana_priv.cs', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7255c70c6e94d569e6bdbbdf98f98049~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=34fae1cc&amp;x-expires=1759593600&amp;x-signature=SNT%2BVEwDwv26qDGGBzyPkefhpKc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555782650826031873', 'createTime': 1759217751, 'createTimeISO': '2025-09-30T07:35:51.000Z', 'text': 'nena voy mal con la paleta Drácula y ya me pides que complete la de Mochis 🤣🤣', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6944546725642798085', 'uniqueId': 'juanluna5778', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37c22dadb60b0803d8feaf140ff63274~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=77fe576d&amp;x-expires=1760619600&amp;x-signature=oc04DXNk4%2FjsfBHpCl4dxt8DHQI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1655,25 +1655,25 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>y si ya corte los logos y no dice mochi saurios y ya vote el empaque con el qr</t>
+          <t>Tanta cosa para uno</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>45927.05542824074</v>
+        <v>45929.00190972222</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>45927</v>
+        <v>45929</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>01:19:49</t>
+          <t>00:02:45</t>
         </is>
       </c>
       <c r="J22" t="n">
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554572506653803272', 'createTime': 1758935989, 'createTimeISO': '2025-09-27T01:19:49.000Z', 'text': 'y si ya corte los logos y no dice mochi saurios y ya vote el empaque con el qr', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6887020420505109509', 'uniqueId': 'mari_a0131', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/52b610568365088bb8157c0e968fb5e0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ee5f368a&amp;x-expires=1759593600&amp;x-signature=XEgGeN9RITIpTX%2BwiIUeHw0u2GA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555294742864954119', 'createTime': 1759104165, 'createTimeISO': '2025-09-29T00:02:45.000Z', 'text': 'Tanta cosa para uno', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7243912158169465862', 'uniqueId': 'aguiilarpaolita', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/28050a045b8ba65347a8d82eb886b7be~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=61160427&amp;x-expires=1760619600&amp;x-signature=3s2CzClHdcTcIZRqbqmEbNDoXoc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1711,25 +1711,25 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>saquen ya otra colección 😕</t>
+          <t>pasa lo mismo que con los Mochis anteriores va uno a reclamar y que no hay</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>45926.96346064815</v>
+        <v>45926.8086574074</v>
       </c>
       <c r="H23" s="3" t="n">
         <v>45926</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>23:07:23</t>
+          <t>19:24:28</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554538366990189319', 'createTime': 1758928043, 'createTimeISO': '2025-09-26T23:07:23.000Z', 'text': 'saquen ya otra colección 😕', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 6, 'uid': '7430556660474758150', 'uniqueId': 'esobrad_1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/496be0dadae6d46720222260f6036998~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=12f47ba7&amp;x-expires=1759593600&amp;x-signature=JL%2Fr%2BsBzcpFekBVMcYSvefonIlE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554480920402084629', 'createTime': 1758914668, 'createTimeISO': '2025-09-26T19:24:28.000Z', 'text': 'pasa lo mismo que con los Mochis anteriores va uno a reclamar y que no hay', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7051306038071723013', 'uniqueId': '0604tn56mz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/fe694ef60fa664d93b3af32ef8266baf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d0f8cedf&amp;x-expires=1760619600&amp;x-signature=RAIlD%2B4TMgI2xVr4BaoQ5Mg7SOI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1767,18 +1767,18 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>yo lo consigo en una papelera sin comprar el yogur</t>
+          <t>Soy de Colombia y vivo alado de un oxxo!! Yeii qué bien 😭💓💓</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>45930.02420138889</v>
+        <v>45928.69695601852</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>45930</v>
+        <v>45928</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>00:34:51</t>
+          <t>16:43:37</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555674134270001927', 'createTime': 1759192491, 'createTimeISO': '2025-09-30T00:34:51.000Z', 'text': 'yo lo consigo en una papelera sin comprar el yogur', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7384092541786014725', 'uniqueId': 'estrellita_alien', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e38c298456b8a03417d891b1539c5b57~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=42a59fd2&amp;x-expires=1759593600&amp;x-signature=%2BoPyosacdc8ERTPJgLp1r5GOWEA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555181660511683346', 'createTime': 1759077817, 'createTimeISO': '2025-09-28T16:43:37.000Z', 'text': 'Soy de Colombia y vivo alado de un oxxo!! Yeii qué bien 😭💓💓', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7468722166260876295', 'uniqueId': 'honey.mimi7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b82704ac6df483016e5b03a909c6379e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2f6d7b48&amp;x-expires=1760619600&amp;x-signature=kMP3CWMv%2BXHmjmG4P6l7ofZ1EJk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1823,22 +1823,22 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>pero si no tengo un OXXO cerca 😃</t>
+          <t>ya we déjenlo pasar🥀</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>45926.88136574074</v>
+        <v>45928.95833333334</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>21:09:10</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554507901999022866', 'createTime': 1758920950, 'createTimeISO': '2025-09-26T21:09:10.000Z', 'text': 'pero si no tengo un OXXO cerca 😃', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541548984452891666', 'uniqueId': 'jesu_7146', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d4e69f45d9727cf6af8705941b8c64ea~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e8f13fa6&amp;x-expires=1759593600&amp;x-signature=s4dV%2FhFeeYOj4qBAE7CJHxKyENw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555278564566205204', 'createTime': 1759100400, 'createTimeISO': '2025-09-28T23:00:00.000Z', 'text': 'ya we déjenlo pasar🥀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7442938390251717687', 'uniqueId': 'solicituddeempleo0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/778e7bf52d21ffd041c8cf4f95bc31e4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=65bd0805&amp;x-expires=1760619600&amp;x-signature=e0An34XRXmZZjF%2FrpNSc6mNULe0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1879,25 +1879,25 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Y si no hay Oxxo en la ciudad?</t>
+          <t>Mucha vaina pa eso</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>45926.98476851852</v>
+        <v>45928.76012731482</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>23:38:04</t>
+          <t>18:14:35</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554546221059883796', 'createTime': 1758929884, 'createTimeISO': '2025-09-26T23:38:04.000Z', 'text': 'Y si no hay Oxxo en la ciudad?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6960146577365419014', 'uniqueId': 'sebas_20114', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/35fcab65e640a5b27c092124d8b2047e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6c5e656e&amp;x-expires=1759593600&amp;x-signature=%2FXoYwIsqMHp8z%2FljjuCCr6ZTnJA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555205113074369287', 'createTime': 1759083275, 'createTimeISO': '2025-09-28T18:14:35.000Z', 'text': 'Mucha vaina pa eso', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6936408559421850630', 'uniqueId': 'drea._.00', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bcf053ea8caaedad5bd9faac784342b9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=367a5692&amp;x-expires=1760619600&amp;x-signature=fwF33MZmgOo43M%2FBiKQ%2BenYcRTg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1935,25 +1935,25 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Y si en Neiva no hay Oxxo 😐</t>
+          <t>es mejor la paleta Drácula</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>45927.88842592593</v>
+        <v>45929.09761574074</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>45927</v>
+        <v>45929</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>21:19:20</t>
+          <t>02:20:34</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554881592553718535', 'createTime': 1759007960, 'createTimeISO': '2025-09-27T21:19:20.000Z', 'text': 'Y si en Neiva no hay Oxxo 😐', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7525546550606758919', 'uniqueId': 'julianavanegas312', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7bbf565d8eb052ba174287777f6a6684~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ffe5c33f&amp;x-expires=1759593600&amp;x-signature=f%2FviKegr02o4AWmfx4o1anNxT7I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555330316220629781', 'createTime': 1759112434, 'createTimeISO': '2025-09-29T02:20:34.000Z', 'text': 'es mejor la paleta Drácula', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7470243338898408456', 'uniqueId': 'schneidermurchz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e38e7ec35870b748223e8cb22c6d237a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a00cacf9&amp;x-expires=1760619600&amp;x-signature=PANpEqFbA7g0FPKTfFY9GHwArUs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1991,25 +1991,25 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>yo los compré y cuando lo abrí me salió una pa pegar en el bolso</t>
+          <t>en Colombia no hay OXXO y venden los yogo premio muy caros ):</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>45928.13539351852</v>
+        <v>45941.73184027777</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>45928</v>
+        <v>45941</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>03:14:58</t>
+          <t>17:33:51</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554973274371982100', 'createTime': 1759029298, 'createTimeISO': '2025-09-28T03:14:58.000Z', 'text': 'yo los compré y cuando lo abrí me salió una pa pegar en el bolso', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7364179204911137798', 'uniqueId': 'zephyts_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c86a63fa4fb27a6057c14957a56b9a1d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4159aa22&amp;x-expires=1759593600&amp;x-signature=WlWWgzKbaOE2w1ArPcnU%2BXcXtmU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7560018722665284360', 'createTime': 1760204031, 'createTimeISO': '2025-10-11T17:33:51.000Z', 'text': 'en Colombia no hay OXXO y venden los yogo premio muy caros ):', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7517389511912424455', 'uniqueId': 'tokito_team_black', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/afa29d1e92a17252e840cfdca3edbe82~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b827bf04&amp;x-expires=1760619600&amp;x-signature=w%2B8B6RKdulJJsuyVzZ6jIw6DIhg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2047,22 +2047,22 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Yo el otro día compré uno de esos y los derretí para hacer uno mega.</t>
+          <t>de cuánto se pueden reclamar</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>45927.61450231481</v>
+        <v>45927.0343287037</v>
       </c>
       <c r="H29" s="3" t="n">
         <v>45927</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>14:44:53</t>
+          <t>00:49:26</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554779983777989383', 'createTime': 1758984293, 'createTimeISO': '2025-09-27T14:44:53.000Z', 'text': 'Yo el otro día compré uno de esos y los derretí para hacer uno mega.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7390881053177955334', 'uniqueId': 'elpanamiguel7528', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0dbaa0de347c3ac93474b7346f4d9ff6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1236a833&amp;x-expires=1759593600&amp;x-signature=5Ulql%2FlfyaVDnCK0VcybUf9aYuU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554564660893696776', 'createTime': 1758934166, 'createTimeISO': '2025-09-27T00:49:26.000Z', 'text': 'de cuánto se pueden reclamar', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7197504067588178949', 'uniqueId': 'angelina.rodrguez432', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7309230945578516485~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ee59d39a&amp;x-expires=1760619600&amp;x-signature=%2Fo8nNsfV7ULP2NA9Y398O0%2F4rTY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2103,25 +2103,25 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Siempre me toca el mismo caracol amarillo 🥺</t>
+          <t>he ido al los OXXO que aparecen y nunca los dan dicen que no tiene idea de que se trata</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>45929.96003472222</v>
+        <v>45934.87288194444</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>45929</v>
+        <v>45934</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>23:02:27</t>
+          <t>20:56:57</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555650338171339527', 'createTime': 1759186947, 'createTimeISO': '2025-09-29T23:02:27.000Z', 'text': 'Siempre me toca el mismo caracol amarillo 🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7524391539830948872', 'uniqueId': 'nataliavall', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4f090b395f31d1fc53fc8a1d40867af3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c3e56102&amp;x-expires=1759593600&amp;x-signature=7d%2BkJ3qQQ6bgTgoos3A1dYFNjXI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7557473388605375233', 'createTime': 1759611417, 'createTimeISO': '2025-10-04T20:56:57.000Z', 'text': 'he ido al los OXXO que aparecen y nunca los dan dicen que no tiene idea de que se trata', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7216783190328181765', 'uniqueId': 'leocambell10', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6010b651447b2c3934e2d7ede50948f0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b0ead81c&amp;x-expires=1760619600&amp;x-signature=24KqBsXeOTBYzFcvQ27VPIpkFf4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2159,22 +2159,22 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>pero si ya corte los logos y no corte lo que dice mochisaurios y tampoco tengo el código??</t>
+          <t>todos los lugares no tiene esa tienda entonces para que hacen eso</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>45929.11127314815</v>
+        <v>45929.98554398148</v>
       </c>
       <c r="H31" s="3" t="n">
         <v>45929</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>02:40:14</t>
+          <t>23:39:11</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555335413934981895', 'createTime': 1759113614, 'createTimeISO': '2025-09-29T02:40:14.000Z', 'text': 'pero si ya corte los logos y no corte lo que dice mochisaurios y tampoco tengo el código??', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6887020420505109509', 'uniqueId': 'mari_a0131', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/52b610568365088bb8157c0e968fb5e0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ee5f368a&amp;x-expires=1759593600&amp;x-signature=XEgGeN9RITIpTX%2BwiIUeHw0u2GA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555659801544475400', 'createTime': 1759189151, 'createTimeISO': '2025-09-29T23:39:11.000Z', 'text': 'todos los lugares no tiene esa tienda entonces para que hacen eso', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6817635812092937221', 'uniqueId': 'd.a.n.y.y.20', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/2de29fc766d1e8cb0e09c7aa6f907237~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8587adca&amp;x-expires=1760619600&amp;x-signature=Jf94b0NnIZ0VUVPeGUu0wNIt72Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2215,25 +2215,26 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>todos los lugares no tiene esa tienda entonces para que hacen eso</t>
+          <t>me encantan estos mochis pero quisiera saber el nombre de 5
+los muñequitos 🥰</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>45929.98554398148</v>
+        <v>45932.51024305556</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>45929</v>
+        <v>45932</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>23:39:11</t>
+          <t>12:14:45</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -2245,7 +2246,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555659801544475400', 'createTime': 1759189151, 'createTimeISO': '2025-09-29T23:39:11.000Z', 'text': 'todos los lugares no tiene esa tienda entonces para que hacen eso', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6817635812092937221', 'uniqueId': 'd.a.n.y.y.20', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/2de29fc766d1e8cb0e09c7aa6f907237~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=865f634d&amp;x-expires=1759593600&amp;x-signature=CXrFzHbvCgpOVlDIpghjuhKYrs0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556596683191681808', 'createTime': 1759407285, 'createTimeISO': '2025-10-02T12:14:45.000Z', 'text': 'me encantan estos mochis pero quisiera saber el nombre de 5\nlos muñequitos 🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '6958943464231011333', 'uniqueId': 'jsa_4567', 'avatarThumbnail': 'https://p77-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/68932c07b5db5c7e5aba191de5535be2~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=f465fd1e&amp;x-expires=1760619600&amp;x-signature=etInJAJZp6%2F%2F2rm0URs%2BTToPxdg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2271,18 +2272,18 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>en todas las tiendas</t>
+          <t>Que yo sepa que en Colombia no ay oxoxo</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>45929.71753472222</v>
+        <v>45935.77436342592</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>45929</v>
+        <v>45935</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>17:13:15</t>
+          <t>18:35:05</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -2301,7 +2302,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555560366673462037', 'createTime': 1759165995, 'createTimeISO': '2025-09-29T17:13:15.000Z', 'text': 'en todas las tiendas', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7285382001250141189', 'uniqueId': 'rosycastellanos86', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7321737955369582597~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=83335183&amp;x-expires=1759593600&amp;x-signature=uh%2FvrCmVF2TkHmqmWuC%2B69C49fk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7557807940859937554', 'createTime': 1759689305, 'createTimeISO': '2025-10-05T18:35:05.000Z', 'text': 'Que yo sepa que en Colombia no ay oxoxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7543462359529440276', 'uniqueId': 'annie.carolina7', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/d2456170bcdac850e36cf4089df9b648~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ed5c0cb1&amp;x-expires=1760619600&amp;x-signature=ouVG3d%2Bufr0GGoAmeWdbW9Xm0iE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2327,25 +2328,25 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>pero en mi ciudad no hay oxxo</t>
+          <t>yo ya tengo uno MUEJEJEJEJJE</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>45926.83740740741</v>
+        <v>45943.88428240741</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>45926</v>
+        <v>45943</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>20:05:52</t>
+          <t>21:13:22</t>
         </is>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -2357,7 +2358,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554491584386548498', 'createTime': 1758917152, 'createTimeISO': '2025-09-26T20:05:52.000Z', 'text': 'pero en mi ciudad no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7260695820469830662', 'uniqueId': 'sara.belen10', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/3d27eeec13984e1bfdd89a0226103589~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=48bc7712&amp;x-expires=1759593600&amp;x-signature=g2ShFs02LLhpkbR9QbEzP3qx3I8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7560817334177645328', 'createTime': 1760390002, 'createTimeISO': '2025-10-13T21:13:22.000Z', 'text': 'yo ya tengo uno MUEJEJEJEJJE', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7531534159044887568', 'uniqueId': 'nicolevargas2545', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/b5f68ad1a85740ea080fbebad18c2fbd~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=77ddfe70&amp;x-expires=1760619600&amp;x-signature=P%2FrabsgEQvpMRxgyPGJ8rcpw1qo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2383,26 +2384,25 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>me encantan estos mochis pero quisiera saber el nombre de 5
-los muñequitos 🥰</t>
+          <t>a poco hay OXXO en colombia</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>45932.51024305556</v>
+        <v>45937.70814814815</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>45932</v>
+        <v>45937</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>12:14:45</t>
+          <t>16:59:44</t>
         </is>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556596683191681808', 'createTime': 1759407285, 'createTimeISO': '2025-10-02T12:14:45.000Z', 'text': 'me encantan estos mochis pero quisiera saber el nombre de 5\nlos muñequitos 🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '6958943464231011333', 'uniqueId': 'jsa_4567', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/68932c07b5db5c7e5aba191de5535be2~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=5101edd0&amp;x-expires=1759593600&amp;x-signature=CSmOWWGwC3%2B0zazrSRw0h8OoLbI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7558525593814467336', 'createTime': 1759856384, 'createTimeISO': '2025-10-07T16:59:44.000Z', 'text': 'a poco hay OXXO en colombia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7300666454697362438', 'uniqueId': 'cristiancardona16', 'avatarThumbnail': 'https://p77-sign-va.tiktokcdn.com/tos-maliva-avt-0068/1169cb00c9709b98aa7a2c6299d6372c~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=3f03b978&amp;x-expires=1760619600&amp;x-signature=2NOhy3LHNjwrquQ4h1B1dAcG6HM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2440,25 +2440,25 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>los dan todos</t>
+          <t>pero en mi ciudad no hay oxxo</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>45932.8313425926</v>
+        <v>45926.83740740741</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>45932</v>
+        <v>45926</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>19:57:08</t>
+          <t>20:05:52</t>
         </is>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556715834195788562', 'createTime': 1759435028, 'createTimeISO': '2025-10-02T19:57:08.000Z', 'text': 'los dan todos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7193838219199251461', 'uniqueId': 'emmanuel.monte', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/def659400c8d341d374792bc4c83b7a8~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=8efb5d60&amp;x-expires=1759593600&amp;x-signature=Z63nnfXVcaWFSYLl6tKJ3tDCvAo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554491584386548498', 'createTime': 1758917152, 'createTimeISO': '2025-09-26T20:05:52.000Z', 'text': 'pero en mi ciudad no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7260695820469830662', 'uniqueId': 'sara.belen10', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/3d27eeec13984e1bfdd89a0226103589~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=618a330d&amp;x-expires=1760619600&amp;x-signature=CGM7EpncQE8tdcX8k7vHJTYK8pk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2496,18 +2496,18 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>no hay en Neiva 😓</t>
+          <t>en todas las tiendas</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>45929.74864583334</v>
+        <v>45929.71753472222</v>
       </c>
       <c r="H37" s="3" t="n">
         <v>45929</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>17:58:03</t>
+          <t>17:13:15</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555571926753313544', 'createTime': 1759168683, 'createTimeISO': '2025-09-29T17:58:03.000Z', 'text': 'no hay en Neiva 😓', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7182010915348857861', 'uniqueId': 'jerzxz1', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7fda5e90141d8eb3debf58517b07cfb3~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=08189add&amp;x-expires=1759593600&amp;x-signature=6yC%2FqGMtQ%2F7cPfkzNhCyrjXgLeI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555560366673462037', 'createTime': 1759165995, 'createTimeISO': '2025-09-29T17:13:15.000Z', 'text': 'en todas las tiendas', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7285382001250141189', 'uniqueId': 'rosycastellanos86', 'avatarThumbnail': 'https://p77-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7321737955369582597~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=14c7b6c5&amp;x-expires=1760619600&amp;x-signature=52lATCW8RPxyXtyejSevw8D6hJ0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2552,25 +2552,25 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Yo tengo el Oxxo a la esquina</t>
+          <t>Ya tengo 8</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>45929.82648148148</v>
+        <v>45942.84155092593</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>45929</v>
+        <v>45942</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>19:50:08</t>
+          <t>20:11:50</t>
         </is>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -2582,7 +2582,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555600732201698064', 'createTime': 1759175408, 'createTimeISO': '2025-09-29T19:50:08.000Z', 'text': 'Yo tengo el Oxxo a la esquina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6998604116167656453', 'uniqueId': 'estrellita_7291', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/1f013694362e5b7acf25ef66d2a1224c~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=5fc0dd9e&amp;x-expires=1759593600&amp;x-signature=u72Yyqd4%2BV%2B0KvbGhQ%2BLrepyPaA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7560430479338930962', 'createTime': 1760299910, 'createTimeISO': '2025-10-12T20:11:50.000Z', 'text': 'Ya tengo 8', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7420101536925713413', 'uniqueId': 'creeper_705', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/b2e2db3ec04397fe9ef4b7153c635707~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=001c5b95&amp;x-expires=1760619600&amp;x-signature=BLDxEMcFlFlvLhae9zavoaVuKbU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2608,18 +2608,18 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>oiga mano lastima que todavía no salen los mochisaurios en los yogopremios</t>
+          <t>Y si en Neiva no hay Oxxo 😐</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>45930.30774305556</v>
+        <v>45927.88842592593</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>45930</v>
+        <v>45927</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>07:23:09</t>
+          <t>21:19:20</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555779391944016647', 'createTime': 1759216989, 'createTimeISO': '2025-09-30T07:23:09.000Z', 'text': 'oiga mano lastima que todavía no salen los mochisaurios en los yogopremios', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7112525176407737350', 'uniqueId': 'esteban_castillo.220', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/8331a286f4c2f1e0d41f74df6a541951~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c122a87c&amp;x-expires=1759593600&amp;x-signature=lvAKmiShDXDnOYkVBBukoUtvKkE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554881592553718535', 'createTime': 1759007960, 'createTimeISO': '2025-09-27T21:19:20.000Z', 'text': 'Y si en Neiva no hay Oxxo 😐', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7525546550606758919', 'uniqueId': 'julianavanegas312', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7bbf565d8eb052ba174287777f6a6684~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=35321f4b&amp;x-expires=1760619600&amp;x-signature=w72eyw74AU%2FR3tbHfKoaEL4Za94%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2664,25 +2664,25 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Aquí en Cartagena no ha Oxxos 🥺🥺🥺</t>
+          <t>no me salió el mochi en el yogurt</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>45927.68152777778</v>
+        <v>45944.93458333334</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>45927</v>
+        <v>45944</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>16:21:24</t>
+          <t>22:25:48</t>
         </is>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554804848962847506', 'createTime': 1758990084, 'createTimeISO': '2025-09-27T16:21:24.000Z', 'text': 'Aquí en Cartagena no ha Oxxos 🥺🥺🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6737168611750626309', 'uniqueId': 'idangeral', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/3efcd03d865b92dfa9ffd78e82854da1~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=21ecf9c1&amp;x-expires=1759593600&amp;x-signature=DO%2BTNmAsxCQImYRBLVZiMhTo8VQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7561207129513509650', 'createTime': 1760480748, 'createTimeISO': '2025-10-14T22:25:48.000Z', 'text': 'no me salió el mochi en el yogurt', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7446973923780641797', 'uniqueId': 'storytime_de_terror18', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/3bf4c3dd2c2cd49f7beb82132f8bf73a~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=5cb60514&amp;x-expires=1760619600&amp;x-signature=0cW8eNhVeoNhBVieOzCMYBl8zcw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2720,25 +2720,25 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>eso pa que</t>
+          <t>Aquí en Cartagena no ha Oxxos 🥺🥺🥺</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>45928.22596064815</v>
+        <v>45927.68152777778</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>45928</v>
+        <v>45927</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>05:25:23</t>
+          <t>16:21:24</t>
         </is>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555006889290826503', 'createTime': 1759037123, 'createTimeISO': '2025-09-28T05:25:23.000Z', 'text': 'eso pa que', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7542870679370417160', 'uniqueId': 'x_xxx660', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/baad79b549774584b1a67ebfc08f5a67~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a164f4bf&amp;x-expires=1759593600&amp;x-signature=mfUwT7ynHRct8asHaTUskhD4v%2BY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554804848962847506', 'createTime': 1758990084, 'createTimeISO': '2025-09-27T16:21:24.000Z', 'text': 'Aquí en Cartagena no ha Oxxos 🥺🥺🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6737168611750626309', 'uniqueId': 'idangeral', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/3efcd03d865b92dfa9ffd78e82854da1~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=89f6ef23&amp;x-expires=1760619600&amp;x-signature=pg7opzAPgGM0aX6RUIE3kMDY2HE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2776,25 +2776,25 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Clarion esq en todos los países hay OXXO 🌚🌝</t>
+          <t>oiga mano lastima que todavía no salen los mochisaurios en los yogopremios</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>45932.87021990741</v>
+        <v>45930.30774305556</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>45932</v>
+        <v>45930</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>20:53:07</t>
+          <t>07:23:09</t>
         </is>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556730178652275472', 'createTime': 1759438387, 'createTimeISO': '2025-10-02T20:53:07.000Z', 'text': 'Clarion esq en todos los países hay OXXO 🌚🌝', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7396657590753100805', 'uniqueId': 'ariadnna.muoz', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/9279bed9092f96fb07b2504a5c7ed70d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=fa6bf3ca&amp;x-expires=1759593600&amp;x-signature=i9%2BebeGVvoDMH5qmYDkF6UPZUF4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555779391944016647', 'createTime': 1759216989, 'createTimeISO': '2025-09-30T07:23:09.000Z', 'text': 'oiga mano lastima que todavía no salen los mochisaurios en los yogopremios', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7112525176407737350', 'uniqueId': 'esteban_castillo.220', 'avatarThumbnail': 'https://p77-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/8331a286f4c2f1e0d41f74df6a541951~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=30f54cae&amp;x-expires=1760619600&amp;x-signature=%2Fdcuv1pf1SCqHDYVzuGGdhcZfuk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2832,18 +2832,18 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>me encantan</t>
+          <t>A QUIEN SIGOOOO❓ TEAM NEGRO[wicked]</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>45932.03704861111</v>
+        <v>45934.12070601852</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>45932</v>
+        <v>45934</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>00:53:21</t>
+          <t>02:53:49</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556421084930458375', 'createTime': 1759366401, 'createTimeISO': '2025-10-02T00:53:21.000Z', 'text': 'me encantan', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7321905632369361926', 'uniqueId': 'peluchero0', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/c3dcf3f4636b10f771ee500678138dfb~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=10e188d6&amp;x-expires=1759593600&amp;x-signature=LkYDF32WzE%2BUARMKqE6zRU%2BUMjE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7557194342633718546', 'createTime': 1759546429, 'createTimeISO': '2025-10-04T02:53:49.000Z', 'text': '𝘼 𝙌𝙐𝙄𝙀𝙉 𝙎𝙄𝙂𝙊𝙊𝙊𝙊❓ TEAM NEGRO[wicked]', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7428462608468853765', 'uniqueId': 'freestyle11.4', 'avatarThumbnail': 'https://p77-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/d77e4d9d34078046d77184cafe9499c3~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6445304e&amp;x-expires=1760619600&amp;x-signature=aUuY9DcmD03bSU2UvHnAoDdfr24%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2888,18 +2888,18 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>como</t>
+          <t>Pensé que crecían en el agua 😁😂</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>45932.00744212963</v>
+        <v>45945.00143518519</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>45932</v>
+        <v>45945</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>00:10:43</t>
+          <t>00:02:04</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556410076190638855', 'createTime': 1759363843, 'createTimeISO': '2025-10-02T00:10:43.000Z', 'text': 'como', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7529699467920409601', 'uniqueId': 'diego.chacon.ruiz', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/0ec5d98d45bb80659e129294e7556e6b~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=d810592c&amp;x-expires=1759593600&amp;x-signature=f4fgfjGEDai%2FcpJnu38tx2aCylc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7561231968739656466', 'createTime': 1760486524, 'createTimeISO': '2025-10-15T00:02:04.000Z', 'text': 'Pensé que crecían en el agua 😁😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7095002096173368325', 'uniqueId': 'camiloserna.8173', 'avatarThumbnail': 'https://p77-sign-va.tiktokcdn.com/tos-maliva-avt-0068/4f82b1d4beaab8b506d3f312e534a68f~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=0f78718a&amp;x-expires=1760619600&amp;x-signature=k0DDjoBao6HdCHi0EbWmWr5AECE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2944,25 +2944,25 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>part 2</t>
+          <t>no hay en Neiva 😓</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>45929.57021990741</v>
+        <v>45929.74864583334</v>
       </c>
       <c r="H45" s="3" t="n">
         <v>45929</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>13:41:07</t>
+          <t>17:58:03</t>
         </is>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555505705790538514', 'createTime': 1759153267, 'createTimeISO': '2025-09-29T13:41:07.000Z', 'text': 'part 2', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7518189866266526728', 'uniqueId': 'jenny.loango', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/0aa7aaecbe34f7dd94d1887fac659dec~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=92d62253&amp;x-expires=1759593600&amp;x-signature=58p2PlUCCd%2B8B4%2BCLc6j4r6pZAs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555571926753313544', 'createTime': 1759168683, 'createTimeISO': '2025-09-29T17:58:03.000Z', 'text': 'no hay en Neiva 😓', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7182010915348857861', 'uniqueId': 'jerzxz1', 'avatarThumbnail': 'https://p77-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7fda5e90141d8eb3debf58517b07cfb3~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=1913fef9&amp;x-expires=1760619600&amp;x-signature=W8EkiAcgcoL3zZpkzfC2WKHeJfo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3000,18 +3000,18 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>amooo los mochiss</t>
+          <t>en colombia no ay oxxo</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>45930.14606481481</v>
+        <v>45941.11943287037</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>45930</v>
+        <v>45941</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>03:30:20</t>
+          <t>02:51:59</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555719396933829377', 'createTime': 1759203020, 'createTimeISO': '2025-09-30T03:30:20.000Z', 'text': 'amooo los mochiss', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7367208908349621253', 'uniqueId': 'temasammy', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/653ff6c74910183d0e2794469e78393f~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c9d23517&amp;x-expires=1759593600&amp;x-signature=UrdndgdkaCwRIktGRyAF0PFnVTA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559791437481788178', 'createTime': 1760151119, 'createTimeISO': '2025-10-11T02:51:59.000Z', 'text': 'en colombia no ay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7478455047338214418', 'uniqueId': 'xddelosxd', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/c20bfec948f7f0b66cab624ba8ed05e8~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6f5855fc&amp;x-expires=1760619600&amp;x-signature=gLZIHwQiqJjv2RD%2BUKE%2FTcNaTgw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3056,25 +3056,25 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>ya los tengo</t>
+          <t>18,4</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>45930.06351851852</v>
+        <v>45942.79722222222</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>45930</v>
+        <v>45942</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>01:31:28</t>
+          <t>19:08:00</t>
         </is>
       </c>
       <c r="J47" t="n">
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555688754276303624', 'createTime': 1759195888, 'createTimeISO': '2025-09-30T01:31:28.000Z', 'text': 'ya los tengo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7506596631263200262', 'uniqueId': 'mi.princesa.divin', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/c158a0051a2d172e45e96e5273f348d8~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=16b91f19&amp;x-expires=1759593600&amp;x-signature=%2FBRermlmFUha%2BdfPHbvfTM07W%2FE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7560414054448366354', 'createTime': 1760296080, 'createTimeISO': '2025-10-12T19:08:00.000Z', 'text': '18,4', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7381118081303659525', 'uniqueId': 'jose.augusto.palo3', 'avatarThumbnail': 'https://p77-sign-va.tiktokcdn.com/tos-maliva-avt-0068/69ab084a6c804d04957ca1b46da752e7~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c4deac63&amp;x-expires=1760619600&amp;x-signature=tBjBOiPBcsdiaUQLgI0V1R3xtwQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3112,18 +3112,18 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>yo tengo el azul 🥹🥹🥹</t>
+          <t>En cucuta no hay</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45927.73127314815</v>
+        <v>45938.6677662037</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>45927</v>
+        <v>45938</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>17:33:02</t>
+          <t>16:01:35</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554823300175905544', 'createTime': 1758994382, 'createTimeISO': '2025-09-27T17:33:02.000Z', 'text': 'yo tengo el azul \U0001f979\U0001f979\U0001f979', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7357836616147059717', 'uniqueId': 'kako.hemilio', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/1760399f4c117a473725b3bb20f7bf21~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=3148a253&amp;x-expires=1759593600&amp;x-signature=newLH70ZekNand6GTZVaSP338hc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7558881690249396999', 'createTime': 1759939295, 'createTimeISO': '2025-10-08T16:01:35.000Z', 'text': 'En cucuta no hay', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7209509026618950662', 'uniqueId': 'user924075672', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/dc5cae3865198f457d7af8926610de21~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=2ff94603&amp;x-expires=1760619600&amp;x-signature=B%2BkGgPblEe44%2BSKF%2Bt4wZEef5oQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3168,25 +3168,25 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>a qui no hay</t>
+          <t>saquen ya otra colección 😕</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>45929.99042824074</v>
+        <v>45926.96346064815</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>45929</v>
+        <v>45926</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>23:46:13</t>
+          <t>23:07:23</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555661409931330305', 'createTime': 1759189573, 'createTimeISO': '2025-09-29T23:46:13.000Z', 'text': 'a qui no hay', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7142647410137138181', 'uniqueId': 'arsel9324', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/5120f48c75061dc7b3c9c01722658d71~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=46eb09da&amp;x-expires=1759593600&amp;x-signature=RPVu0oXRnEm1Gxrj9OUcBof4hKw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554538366990189319', 'createTime': 1758928043, 'createTimeISO': '2025-09-26T23:07:23.000Z', 'text': 'saquen ya otra colección 😕', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 6, 'uid': '7430556660474758150', 'uniqueId': 'esobrad_1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/496be0dadae6d46720222260f6036998~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4de75e78&amp;x-expires=1760619600&amp;x-signature=m%2Ffa9GB1DhFhrAOslsYL0%2BBUM4U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3224,22 +3224,22 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>yo los tengo tengo el rosado y el azul</t>
+          <t>y si tengo repetidos no me los cambian 😂😂</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>45928.95548611111</v>
+        <v>45926.88744212963</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>45928</v>
+        <v>45926</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>22:55:54</t>
+          <t>21:17:55</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555277557701575431', 'createTime': 1759100154, 'createTimeISO': '2025-09-28T22:55:54.000Z', 'text': 'yo los tengo tengo el rosado y el azul', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541992424257324053', 'uniqueId': 'lamasquedoradora', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/29368d9813b06794e313abee8fbbb2d1~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=0b3d479b&amp;x-expires=1759593600&amp;x-signature=A5p%2BBJ29DX2PLJEP9yWspQio4sM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554510104642650896', 'createTime': 1758921475, 'createTimeISO': '2025-09-26T21:17:55.000Z', 'text': 'y si tengo repetidos no me los cambian 😂😂', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6835450069409514502', 'uniqueId': 'ailatanollirum', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/474f3a22808ad684a516e4b07cab2a37~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5bd3d40b&amp;x-expires=1760619600&amp;x-signature=gFmEFs4NEyN8TRgN7fRFkyCTtHs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3280,22 +3280,22 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>yo ya tengo esa m</t>
+          <t>tengo un montón de Mochis de la primera colección, valdrá mucho?</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>45929.65525462963</v>
+        <v>45926.67013888889</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>45929</v>
+        <v>45926</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>15:43:34</t>
+          <t>16:05:00</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555537273380815623', 'createTime': 1759160614, 'createTimeISO': '2025-09-29T15:43:34.000Z', 'text': 'yo ya tengo esa m', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7470382147061777409', 'uniqueId': 'thaly1772', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/71e85da6987e62511391075c6d6674c0~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=e122dbe5&amp;x-expires=1759593600&amp;x-signature=gxLDjAHbEGYidQPyFuvswX3BReU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554429537663386376', 'createTime': 1758902700, 'createTimeISO': '2025-09-26T16:05:00.000Z', 'text': 'tengo un montón de Mochis de la primera colección, valdrá mucho?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7116292147141166086', 'uniqueId': 'just_fenix67', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9270efdc513746d459737e05d9dccbee~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3ad418fa&amp;x-expires=1760619600&amp;x-signature=I3FASPimihdwxr84fHBdxfdmMzs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3336,25 +3336,25 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>En Neiva no hay oxxo 😭</t>
+          <t>y si ya corte los logos y no dice mochi saurios y ya vote el empaque con el qr</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>45927.72614583333</v>
+        <v>45927.05542824074</v>
       </c>
       <c r="H52" s="3" t="n">
         <v>45927</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>17:25:39</t>
+          <t>01:19:49</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554821395772867335', 'createTime': 1758993939, 'createTimeISO': '2025-09-27T17:25:39.000Z', 'text': 'En Neiva no hay oxxo 😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7119701816863065094', 'uniqueId': 'lucy_kitty115', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/28e44ab8ed2a9fc54365bb88cdd438e4~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=8cdfa3b5&amp;x-expires=1759593600&amp;x-signature=mRIERMgLS3IBX40VsJ6V4rwofBo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554572506653803272', 'createTime': 1758935989, 'createTimeISO': '2025-09-27T01:19:49.000Z', 'text': 'y si ya corte los logos y no dice mochi saurios y ya vote el empaque con el qr', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6887020420505109509', 'uniqueId': 'mari_a0131', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/52b610568365088bb8157c0e968fb5e0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e0711180&amp;x-expires=1760619600&amp;x-signature=NeeBDtvo2RrlmPS7IYZg6k42kgc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3392,25 +3392,26 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>en santander no hay oxxo😭😭😭😭😭😭</t>
+          <t>Por que en oxxo por que e
+En Colombia no hay tantos oxxos</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>45927.72530092593</v>
+        <v>45930.00252314815</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>45927</v>
+        <v>45930</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>17:24:26</t>
+          <t>00:03:38</t>
         </is>
       </c>
       <c r="J53" t="n">
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
@@ -3422,7 +3423,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554821062325453584', 'createTime': 1758993866, 'createTimeISO': '2025-09-27T17:24:26.000Z', 'text': 'en santander no hay oxxo😭😭😭😭😭😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7378516455367279622', 'uniqueId': 'pablo.andres.grij', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/be54fa419e20e6530484a6289699c5e3~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=b5dbe348&amp;x-expires=1759593600&amp;x-signature=g0reZhJGwlWUUmc7H3tPYIjf5a0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555666073921553160', 'createTime': 1759190618, 'createTimeISO': '2025-09-30T00:03:38.000Z', 'text': 'Por que en oxxo por que e\nEn Colombia no hay tantos oxxos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7433071984395338758', 'uniqueId': 'viky1234836', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f814e9b802ec7cd1d5d09a202afca7a9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3e1568c8&amp;x-expires=1760619600&amp;x-signature=NZ8T6fe9stxxeX2UGhgEcqrHH6g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3448,25 +3449,25 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>en pasto no ay oxxo</t>
+          <t>en muchos lugares no hay Oxxo no pensaron en nosotros</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>45927.67798611111</v>
+        <v>45929.99023148148</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>45927</v>
+        <v>45929</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>16:16:18</t>
+          <t>23:45:56</t>
         </is>
       </c>
       <c r="J54" t="n">
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
@@ -3478,7 +3479,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554803546690077447', 'createTime': 1758989778, 'createTimeISO': '2025-09-27T16:16:18.000Z', 'text': 'en pasto no ay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7478455047338214418', 'uniqueId': 'xddelosxd', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/522f653962a9c5f393bbac9e902ed8d8~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=1798c426&amp;x-expires=1759593600&amp;x-signature=8tmHisc5uSF2QdqnUVxmc8mo6XA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555661460748206849', 'createTime': 1759189556, 'createTimeISO': '2025-09-29T23:45:56.000Z', 'text': 'en muchos lugares no hay Oxxo no pensaron en nosotros', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7142647410137138181', 'uniqueId': 'arsel9324', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/50fc02d856bc86dadfa85351b5eebcde~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3ec46f77&amp;x-expires=1760619600&amp;x-signature=bc2ui9k%2FpKLOUdvXx39v7r15AhY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3504,25 +3505,25 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Los quieroooooo</t>
+          <t>en colombia noa ah</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>45929.49574074074</v>
+        <v>45926.84263888889</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>45929</v>
+        <v>45926</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>11:53:52</t>
+          <t>20:13:24</t>
         </is>
       </c>
       <c r="J55" t="n">
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
@@ -3534,7 +3535,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555478087270515477', 'createTime': 1759146832, 'createTimeISO': '2025-09-29T11:53:52.000Z', 'text': 'Los quieroooooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6886209614263403522', 'uniqueId': 'mariajose.jr0214', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/fa89b236738521d8d51d425df266db3b~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=1c0da65c&amp;x-expires=1759593600&amp;x-signature=78h1OzcVZD8rneI%2F8ybr1mWRgxs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554493529289638664', 'createTime': 1758917604, 'createTimeISO': '2025-09-26T20:13:24.000Z', 'text': 'en colombia noa ah', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7503310884556309511', 'uniqueId': 'alba_hernandez21', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3081f3280dc30ced6c73649afc9e82b1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b8419c34&amp;x-expires=1760619600&amp;x-signature=%2B4CF6ZJwvXwPBXhPx0XoSHlKpMc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3560,18 +3561,18 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Va uno al Oxxo y qué no han llegado. No todas las tiendas tienen ese empaque marcado, tanto misterio para un muñeco, antes eran 3 logos ahora 4. Mejor me compro una Drácula</t>
+          <t>part 2</t>
         </is>
       </c>
       <c r="G56" s="2" t="n">
-        <v>45933.15829861111</v>
+        <v>45929.57021990741</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>45933</v>
+        <v>45929</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>03:47:57</t>
+          <t>13:41:07</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -3590,7 +3591,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556837188043227905', 'createTime': 1759463277, 'createTimeISO': '2025-10-03T03:47:57.000Z', 'text': 'Va uno al Oxxo y qué no han llegado. No todas las tiendas tienen ese empaque marcado, tanto misterio para un muñeco, antes eran 3 logos ahora 4. Mejor me compro una Drácula', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6798221952290964486', 'uniqueId': 'pizpir_', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7331755100833644549~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=6c9a8094&amp;x-expires=1759593600&amp;x-signature=MgvSjjxdng3lAL5qMpVcCa0MGE0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555505705790538514', 'createTime': 1759153267, 'createTimeISO': '2025-09-29T13:41:07.000Z', 'text': 'part 2', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7518189866266526728', 'uniqueId': 'jenny.loango', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0aa7aaecbe34f7dd94d1887fac659dec~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=774ddd4b&amp;x-expires=1760619600&amp;x-signature=yLnrAheaWHXl%2FP2t6K5mkKCJgBg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3616,18 +3617,18 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>yo tengo el moradoro y el verde y otro morado que es igual al verde Pero morado y voy a ir al Oxxo que queda cerca de mi casa y reclamo varios ksjsjsjs</t>
+          <t>Ay yo pensaba que ya se avía acabado y tambien pensaba que ya no tenía oportunidad de reclamar mis 12 tarjetas y como 7 logos 😭😭😭😔</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>45933.44353009259</v>
+        <v>45935.67759259259</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>45933</v>
+        <v>45935</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>10:38:41</t>
+          <t>16:15:44</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -3646,7 +3647,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556943055979332372', 'createTime': 1759487921, 'createTimeISO': '2025-10-03T10:38:41.000Z', 'text': 'yo tengo el moradoro y el verde y otro morado que es igual al verde Pero morado y voy a ir al Oxxo que queda cerca de mi casa y reclamo varios ksjsjsjs', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7529200266735715346', 'uniqueId': 'gabriela__gomez_valencia', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/e22b97238fcbe193cfd4126cef752c6d~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=483edc42&amp;x-expires=1759593600&amp;x-signature=2dCsXdsu%2BwI8hKgp8x0keOfjkl4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7557772077760742152', 'createTime': 1759680944, 'createTimeISO': '2025-10-05T16:15:44.000Z', 'text': 'Ay yo pensaba que ya se avía acabado y tambien pensaba que ya no tenía oportunidad de reclamar mis 12 tarjetas y como 7 logos 😭😭😭😔', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7538082276980737029', 'uniqueId': 'mariiladiva0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8ede218c4c09353a38122ea601611b79~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=31cb7408&amp;x-expires=1760619600&amp;x-signature=1hsNYLQnM0OD%2BXKjhibdnpYx1l0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3672,18 +3673,18 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>y para que sirve eso, que beneficios tiene 😳</t>
+          <t>Yo ya los tengo los logos</t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>45933.05707175926</v>
+        <v>45934.66412037037</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>45933</v>
+        <v>45934</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>01:22:11</t>
+          <t>15:56:20</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -3702,7 +3703,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556799608577458951', 'createTime': 1759454531, 'createTimeISO': '2025-10-03T01:22:11.000Z', 'text': 'y para que sirve eso, que beneficios tiene 😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6935601595720860678', 'uniqueId': 'monica_lenis1980', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/fce7942c402b7371d210f51cf61e58d9~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=b8b54604&amp;x-expires=1759593600&amp;x-signature=rbDOJQKkh4KdQyG7YEaDALYqAW8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7557395985225335570', 'createTime': 1759593380, 'createTimeISO': '2025-10-04T15:56:20.000Z', 'text': 'Yo ya los tengo los logos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7364207363702047750', 'uniqueId': 'lady.insuasti', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/567cb1b8e1d71f6af4d01946884814a5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6aed58c4&amp;x-expires=1760619600&amp;x-signature=lqXKFpKo3OkC4RkMsUrlhySr6jE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3728,22 +3729,22 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>oigan pero no encuentro mochisaurios solo ilumimochis</t>
+          <t>yo lo consigo en una papelera sin comprar el yogur</t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
-        <v>45932.81353009259</v>
+        <v>45930.02420138889</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>45932</v>
+        <v>45930</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>19:31:29</t>
+          <t>00:34:51</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -3758,7 +3759,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556709242481722130', 'createTime': 1759433489, 'createTimeISO': '2025-10-02T19:31:29.000Z', 'text': 'oigan pero no encuentro mochisaurios solo ilumimochis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7121425545787868165', 'uniqueId': 'filosofia.gatuna', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/611472f8abb9c3c4e66c407a80c4ee1b~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=83c0e8e3&amp;x-expires=1759593600&amp;x-signature=mWo16yzRG4TOkkujvdiwZi2tY%2Bo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555674134270001927', 'createTime': 1759192491, 'createTimeISO': '2025-09-30T00:34:51.000Z', 'text': 'yo lo consigo en una papelera sin comprar el yogur', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7384092541786014725', 'uniqueId': 'estrellita_alien', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e38c298456b8a03417d891b1539c5b57~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4752d593&amp;x-expires=1760619600&amp;x-signature=v5chIa6fC%2F8UKQt%2Fnu4OQh67QJY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3784,18 +3785,18 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>mano me compré uno y me salió un unicornio</t>
+          <t>Va uno al Oxxo y qué no han llegado. No todas las tiendas tienen ese empaque marcado, tanto misterio para un muñeco, antes eran 3 logos ahora 4. Mejor me compro una Drácula</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
-        <v>45933.02133101852</v>
+        <v>45933.15829861111</v>
       </c>
       <c r="H60" s="3" t="n">
         <v>45933</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>00:30:43</t>
+          <t>03:47:57</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -3814,7 +3815,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556786291250725633', 'createTime': 1759451443, 'createTimeISO': '2025-10-03T00:30:43.000Z', 'text': 'mano me compré uno y me salió un unicornio', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7076201709093749765', 'uniqueId': 'bloom_xs01', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7841c743cce7ed0aeb6a326261626994~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=0f5e04c5&amp;x-expires=1759593600&amp;x-signature=8jIw9LLwJrwn5zlZRntxz3SrO8A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556837188043227905', 'createTime': 1759463277, 'createTimeISO': '2025-10-03T03:47:57.000Z', 'text': 'Va uno al Oxxo y qué no han llegado. No todas las tiendas tienen ese empaque marcado, tanto misterio para un muñeco, antes eran 3 logos ahora 4. Mejor me compro una Drácula', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6798221952290964486', 'uniqueId': 'pizpir_', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7331755100833644549~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d4d1f41f&amp;x-expires=1760619600&amp;x-signature=E5kP34mziAd0zcs7mO5Rcx%2B4rfQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3840,18 +3841,18 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>ayer compré el yogo premio con la etiqueta de mochisaurios mi hijo con ilusión lo abrió y va y le sale de la coleccion pasada....Nooo así si nooo al menos quiten los de la coleccion pasada para que no pase esto</t>
         </is>
       </c>
       <c r="G61" s="2" t="n">
-        <v>45928.80891203704</v>
+        <v>45929.88107638889</v>
       </c>
       <c r="H61" s="3" t="n">
-        <v>45928</v>
+        <v>45929</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>19:24:50</t>
+          <t>21:08:45</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -3870,7 +3871,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555223199790154503', 'createTime': 1759087490, 'createTimeISO': '2025-09-28T19:24:50.000Z', 'text': 'ok', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6987105799349847046', 'uniqueId': 'dahyun_mi_esposa033', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b2f50854382d6b9422d13f90900f75a2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=78a579ca&amp;x-expires=1759593600&amp;x-signature=GjYy1ASDIYAH7PfB6nSC9qeZaLw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555620990967153409', 'createTime': 1759180125, 'createTimeISO': '2025-09-29T21:08:45.000Z', 'text': 'ayer compré el yogo premio con la etiqueta de mochisaurios mi hijo con ilusión lo abrió y va y le sale de la coleccion pasada....Nooo así si nooo al menos quiten los de la coleccion pasada para que no pase esto', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6846492796284470277', 'uniqueId': 'linamariahernan4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/b8c84acbfe31152b7111b26ebbb541b5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b9f8bdf6&amp;x-expires=1760619600&amp;x-signature=pfQeFe3JOjhTpmxwnJxKnu3EHsI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3896,18 +3897,18 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tanta cosa para uno</t>
+          <t>eran mejor los gogos</t>
         </is>
       </c>
       <c r="G62" s="2" t="n">
-        <v>45929.00190972222</v>
+        <v>45929.47387731481</v>
       </c>
       <c r="H62" s="3" t="n">
         <v>45929</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>00:02:45</t>
+          <t>11:22:23</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -3926,7 +3927,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555294742864954119', 'createTime': 1759104165, 'createTimeISO': '2025-09-29T00:02:45.000Z', 'text': 'Tanta cosa para uno', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7243912158169465862', 'uniqueId': 'aguiilarpaolita', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/28050a045b8ba65347a8d82eb886b7be~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4346e872&amp;x-expires=1759593600&amp;x-signature=5DkD2YxvDbU5odzhlVCeIkiJd7k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555469953446052609', 'createTime': 1759144943, 'createTimeISO': '2025-09-29T11:22:23.000Z', 'text': 'eran mejor los gogos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7228579787227350022', 'uniqueId': 'diazsergio448', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/61df6591ddc0252c4f89c7801a873c3c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ef7233fd&amp;x-expires=1760619600&amp;x-signature=IM6jnH7FW%2FlK0X4Vstlk%2B9IK9Vg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3952,18 +3953,18 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>y las ciudades donde no hay Oxxo 😅😅</t>
+          <t>QUE CALIDAD🗣️🗣️🗣</t>
         </is>
       </c>
       <c r="G63" s="2" t="n">
-        <v>45927.13207175926</v>
+        <v>45929.74858796296</v>
       </c>
       <c r="H63" s="3" t="n">
-        <v>45927</v>
+        <v>45929</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>03:10:11</t>
+          <t>17:57:58</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -3982,7 +3983,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554600954244678407', 'createTime': 1758942611, 'createTimeISO': '2025-09-27T03:10:11.000Z', 'text': 'y las ciudades donde no hay Oxxo 😅😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6783394257204282373', 'uniqueId': 'yunior.18', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b9b4e3df13da81e5d8bd40873e3374d1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4ec8d068&amp;x-expires=1759593600&amp;x-signature=0fnUVWhf0wNsaEKewxF2eM8s3gE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555571878653592340', 'createTime': 1759168678, 'createTimeISO': '2025-09-29T17:57:58.000Z', 'text': 'QUE CALIDAD🗣️🗣️🗣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7458314603111613446', 'uniqueId': 'como.quieran.quie', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9fb7f4d59fb4cd488465c38f8b999208~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a41528b4&amp;x-expires=1760619600&amp;x-signature=QN3a%2F%2BaN%2BkC%2BvaZxPlqx0uxk634%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4008,18 +4009,18 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>me puede regalar la cámara</t>
+          <t>eso pa que</t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
-        <v>45927.25508101852</v>
+        <v>45928.22596064815</v>
       </c>
       <c r="H64" s="3" t="n">
-        <v>45927</v>
+        <v>45928</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>06:07:19</t>
+          <t>05:25:23</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -4038,7 +4039,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554646606097629960', 'createTime': 1758953239, 'createTimeISO': '2025-09-27T06:07:19.000Z', 'text': 'me puede regalar la cámara', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7359244510582670341', 'uniqueId': 'fernando.bertho', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7359244971364319238~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9bdd8bdf&amp;x-expires=1759593600&amp;x-signature=UaThl4fOZHF%2Fb5HdkgdJi4ZT7nk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555006889290826503', 'createTime': 1759037123, 'createTimeISO': '2025-09-28T05:25:23.000Z', 'text': 'eso pa que', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7542870679370417160', 'uniqueId': 'x_xxx660', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/baad79b549774584b1a67ebfc08f5a67~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e29e0891&amp;x-expires=1760619600&amp;x-signature=6sXvI1XTtEDbwtXpLSnjXPSWsbQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4064,18 +4065,18 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Los Amooo pero Uyy un montón de cosas para el recambio!</t>
+          <t>yo los tengo tengo el rosado y el azul</t>
         </is>
       </c>
       <c r="G65" s="2" t="n">
-        <v>45927.14011574074</v>
+        <v>45928.95548611111</v>
       </c>
       <c r="H65" s="3" t="n">
-        <v>45927</v>
+        <v>45928</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>03:21:46</t>
+          <t>22:55:54</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -4094,7 +4095,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554603916571640577', 'createTime': 1758943306, 'createTimeISO': '2025-09-27T03:21:46.000Z', 'text': 'Los Amooo pero Uyy un montón de cosas para el recambio!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7496003126047851521', 'uniqueId': 'caroprietog', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2a832b79f12188da997912c7d49288a5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0a7d49dc&amp;x-expires=1759593600&amp;x-signature=7swUn2mleuHXHUgbLUz6rSgpRVM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555277557701575431', 'createTime': 1759100154, 'createTimeISO': '2025-09-28T22:55:54.000Z', 'text': 'yo los tengo tengo el rosado y el azul', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541992424257324053', 'uniqueId': 'lamasquedoradora', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/29368d9813b06794e313abee8fbbb2d1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=41244ad2&amp;x-expires=1760619600&amp;x-signature=gZ%2Fik1ZEQc%2Bq6ciT67m2IYVQ76w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4120,18 +4121,18 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ayer compré el yogo premio con la etiqueta de mochisaurios mi hijo con ilusión lo abrió y va y le sale de la coleccion pasada....Nooo así si nooo al menos quiten los de la coleccion pasada para que no pase esto</t>
+          <t>si claro si yo vivo en colomb</t>
         </is>
       </c>
       <c r="G66" s="2" t="n">
-        <v>45929.88107638889</v>
+        <v>45930.02231481481</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>45929</v>
+        <v>45930</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>21:08:45</t>
+          <t>00:32:08</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -4150,7 +4151,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555620990967153409', 'createTime': 1759180125, 'createTimeISO': '2025-09-29T21:08:45.000Z', 'text': 'ayer compré el yogo premio con la etiqueta de mochisaurios mi hijo con ilusión lo abrió y va y le sale de la coleccion pasada....Nooo así si nooo al menos quiten los de la coleccion pasada para que no pase esto', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6846492796284470277', 'uniqueId': 'linamariahernan4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/b8c84acbfe31152b7111b26ebbb541b5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=512bf77d&amp;x-expires=1759593600&amp;x-signature=xX7e33oEx1QtyVAuRhbxGCANd20%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555673462803694343', 'createTime': 1759192328, 'createTimeISO': '2025-09-30T00:32:08.000Z', 'text': 'si claro si yo vivo en colomb', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7552728943149810705', 'uniqueId': 'dannasofi6899', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/865736a245746c0e4f5e41bb7590a553~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fcb4408f&amp;x-expires=1760619600&amp;x-signature=AsnCa1SW58CsnRbl1FwmMbxkYB8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554575152081535765', 'createTime': 1758936609, 'createTimeISO': '2025-09-27T01:30:09.000Z', 'text': 'ami me salió un cocodrilo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6882570284298142721', 'uniqueId': 'cubides08', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/55f4e79659fb01bed4bf116832dd843d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9c38d185&amp;x-expires=1759593600&amp;x-signature=o1kMZPa3Z0an7GNWv%2BLc53XFlqo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554575152081535765', 'createTime': 1758936609, 'createTimeISO': '2025-09-27T01:30:09.000Z', 'text': 'ami me salió un cocodrilo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6882570284298142721', 'uniqueId': 'cubides08', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/55f4e79659fb01bed4bf116832dd843d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d289249c&amp;x-expires=1760619600&amp;x-signature=H1CdHqE1dOUp7oMPrA6hTYJiGNg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4232,18 +4233,18 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>y las lavadoras?</t>
+          <t>una pregunta soy de Colombia pero vivo en un lugar un poco lejos 🥺 cuando llegan es Arauca</t>
         </is>
       </c>
       <c r="G68" s="2" t="n">
-        <v>45926.92902777778</v>
+        <v>45928.79006944445</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>22:17:48</t>
+          <t>18:57:42</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -4262,7 +4263,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554525489421386516', 'createTime': 1758925068, 'createTimeISO': '2025-09-26T22:17:48.000Z', 'text': 'y las lavadoras?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7390524142800667653', 'uniqueId': 'trululxx', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/efcb9ba983ceef1f1798cb089ff26aa8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0109ecd5&amp;x-expires=1759593600&amp;x-signature=mcius3P7IGwAUScDihCz8rnlnMQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555216216953078536', 'createTime': 1759085862, 'createTimeISO': '2025-09-28T18:57:42.000Z', 'text': 'una pregunta soy de Colombia pero vivo en un lugar un poco lejos 🥺 cuando llegan es Arauca', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7514280435070927873', 'uniqueId': 'fresa.com.crema', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/eaa3b275b74194b2e13fc3266612bc49~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f3263ab8&amp;x-expires=1760619600&amp;x-signature=KnPU9CErD%2FcTZYaJ6ZdbJOwcZ8A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4288,18 +4289,18 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>son mejores los de colanta</t>
+          <t>do</t>
         </is>
       </c>
       <c r="G69" s="2" t="n">
-        <v>45928.76954861111</v>
+        <v>45936.66792824074</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>45928</v>
+        <v>45936</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>18:28:09</t>
+          <t>16:01:49</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -4318,7 +4319,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555208572725822228', 'createTime': 1759084089, 'createTimeISO': '2025-09-28T18:28:09.000Z', 'text': 'son mejores los de colanta', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6970094734828438533', 'uniqueId': 'videosdehumornegro', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3d43f03cc0c977cda48bd3640cc5246a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2a88e569&amp;x-expires=1759593600&amp;x-signature=2CeDShrAgfmB3jryls18vK8U3Xs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7558139554667299585', 'createTime': 1759766509, 'createTimeISO': '2025-10-06T16:01:49.000Z', 'text': 'do', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7347759303850460166', 'uniqueId': 'daniel.medina9402', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d827ef96dbb9538e76ca4c0a1031de75~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6d689b7d&amp;x-expires=1760619600&amp;x-signature=wUzyOig0YQcBHe1a%2FA5mb3ZJpRM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4344,18 +4345,18 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>una pregunta soy de Colombia pero vivo en un lugar un poco lejos 🥺 cuando llegan es Arauca</t>
+          <t>Amooo</t>
         </is>
       </c>
       <c r="G70" s="2" t="n">
-        <v>45928.79006944445</v>
+        <v>45928.79438657407</v>
       </c>
       <c r="H70" s="3" t="n">
         <v>45928</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>18:57:42</t>
+          <t>19:03:55</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -4374,7 +4375,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555216216953078536', 'createTime': 1759085862, 'createTimeISO': '2025-09-28T18:57:42.000Z', 'text': 'una pregunta soy de Colombia pero vivo en un lugar un poco lejos 🥺 cuando llegan es Arauca', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7514280435070927873', 'uniqueId': 'fresa.com.crema', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/eaa3b275b74194b2e13fc3266612bc49~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ad885e61&amp;x-expires=1759593600&amp;x-signature=tc0mwzUbT9JqWSR5%2FCwhl%2FFnYr0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555217811128615687', 'createTime': 1759086235, 'createTimeISO': '2025-09-28T19:03:55.000Z', 'text': 'Amooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7284419691349607430', 'uniqueId': 'kdruiz22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7300345897722839046~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e66026c4&amp;x-expires=1760619600&amp;x-signature=lPpueY4D39QKi7BZTOG96veKUac%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4400,19 +4401,18 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Por que en oxxo por que e
-En Colombia no hay tantos oxxos</t>
+          <t>mi mala suerte, tenía dos abri un yogurt y me salió repetido</t>
         </is>
       </c>
       <c r="G71" s="2" t="n">
-        <v>45930.00252314815</v>
+        <v>45928.00234953704</v>
       </c>
       <c r="H71" s="3" t="n">
-        <v>45930</v>
+        <v>45928</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>00:03:38</t>
+          <t>00:03:23</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555666073921553160', 'createTime': 1759190618, 'createTimeISO': '2025-09-30T00:03:38.000Z', 'text': 'Por que en oxxo por que e\nEn Colombia no hay tantos oxxos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7433071984395338758', 'uniqueId': 'viky1234836', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d5790da85f33c83b665c0f5cdae82ee1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7eb79533&amp;x-expires=1759593600&amp;x-signature=YU8IEn82b605XKLDcxzzDUexwes%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554923850959422215', 'createTime': 1759017803, 'createTimeISO': '2025-09-28T00:03:23.000Z', 'text': 'mi mala suerte, tenía dos abri un yogurt y me salió repetido', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7540478701881164818', 'uniqueId': 'cib_1252', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c44cc5b4ca1d9f823d88604b1f5d3cfd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=21c58c91&amp;x-expires=1760619600&amp;x-signature=uPXR7yaqtQa%2BwIViex8Hz1dxel4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4457,18 +4457,18 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ya se dieron cuenta que Coca-Cola trajo nuevamente los hielocos.</t>
+          <t>no los venden? saldría más económico.</t>
         </is>
       </c>
       <c r="G72" s="2" t="n">
-        <v>45928.82883101852</v>
+        <v>45942.93608796296</v>
       </c>
       <c r="H72" s="3" t="n">
-        <v>45928</v>
+        <v>45942</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>19:53:31</t>
+          <t>22:27:58</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555230564963648264', 'createTime': 1759089211, 'createTimeISO': '2025-09-28T19:53:31.000Z', 'text': 'ya se dieron cuenta que Coca-Cola trajo nuevamente los hielocos.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7311721551714796549', 'uniqueId': 'junior.xd.velez', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7311721679486386181~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b437b32a&amp;x-expires=1759593600&amp;x-signature=js0MP0HUQZ8rh%2BFKcmvsRQiHU2o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7560465563730920199', 'createTime': 1760308078, 'createTimeISO': '2025-10-12T22:27:58.000Z', 'text': 'no los venden? saldría más económico.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6900093665232208898', 'uniqueId': 'alonsocastaeda4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/656e080d9831aeebef39b67358dbf496~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a766fb9a&amp;x-expires=1760619600&amp;x-signature=8G%2FEU3VEKd1u9Sy8r6E9NBUdU6g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4513,25 +4513,25 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>en muchos lugares no hay Oxxo no pensaron en nosotros</t>
+          <t>y si estoy en Colombia</t>
         </is>
       </c>
       <c r="G73" s="2" t="n">
-        <v>45929.99023148148</v>
+        <v>45930.03666666667</v>
       </c>
       <c r="H73" s="3" t="n">
-        <v>45929</v>
+        <v>45930</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>23:45:56</t>
+          <t>00:52:48</t>
         </is>
       </c>
       <c r="J73" t="n">
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" t="b">
         <v>0</v>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555661460748206849', 'createTime': 1759189556, 'createTimeISO': '2025-09-29T23:45:56.000Z', 'text': 'en muchos lugares no hay Oxxo no pensaron en nosotros', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7142647410137138181', 'uniqueId': 'arsel9324', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5120f48c75061dc7b3c9c01722658d71~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=753b8b84&amp;x-expires=1759593600&amp;x-signature=%2BwOL3I77ZpqVBCcLvsgra6O8U3E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555678757781422856', 'createTime': 1759193568, 'createTimeISO': '2025-09-30T00:52:48.000Z', 'text': 'y si estoy en Colombia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7511370345698526228', 'uniqueId': 'eslendy121', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/12ff77457a3980c682406f9a561bcfdc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d48f7f70&amp;x-expires=1760619600&amp;x-signature=VDEwGFxmlWgTBLgfx0sNu9fSmnc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4569,25 +4569,25 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>yo tengo ya dos a quien en riohacha en sao venden</t>
+          <t>ya se dieron cuenta que Coca-Cola trajo nuevamente los hielocos.</t>
         </is>
       </c>
       <c r="G74" s="2" t="n">
-        <v>45928.95106481481</v>
+        <v>45928.82883101852</v>
       </c>
       <c r="H74" s="3" t="n">
         <v>45928</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>22:49:32</t>
+          <t>19:53:31</t>
         </is>
       </c>
       <c r="J74" t="n">
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" t="b">
         <v>0</v>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555275859973767956', 'createTime': 1759099772, 'createTimeISO': '2025-09-28T22:49:32.000Z', 'text': 'yo tengo ya dos a quien en riohacha en sao venden', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7424964499378504710', 'uniqueId': 'belkis.palmezano', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/4bf65fc92b7418231543d485d5032734~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d0d80cc6&amp;x-expires=1759593600&amp;x-signature=XYoo%2BHAwnTC6sV9dvvFc6YdE1Z8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555230564963648264', 'createTime': 1759089211, 'createTimeISO': '2025-09-28T19:53:31.000Z', 'text': 'ya se dieron cuenta que Coca-Cola trajo nuevamente los hielocos.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7311721551714796549', 'uniqueId': 'junior.xd.velez', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7311721679486386181~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=309b0e06&amp;x-expires=1760619600&amp;x-signature=eoxLw6h%2FzD2ULwnd%2BM6nzrmHGW4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4625,18 +4625,18 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>si claro si yo vivo en colomb</t>
+          <t>si algo eso cuántos Mochis me dan</t>
         </is>
       </c>
       <c r="G75" s="2" t="n">
-        <v>45930.02231481481</v>
+        <v>45942.7344212963</v>
       </c>
       <c r="H75" s="3" t="n">
-        <v>45930</v>
+        <v>45942</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>00:32:08</t>
+          <t>17:37:34</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555673462803694343', 'createTime': 1759192328, 'createTimeISO': '2025-09-30T00:32:08.000Z', 'text': 'si claro si yo vivo en colomb', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7552728943149810705', 'uniqueId': 'dannasofi6899', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/865736a245746c0e4f5e41bb7590a553~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ec2344a9&amp;x-expires=1759593600&amp;x-signature=Xhmqj2cjeqniOn25TYus7VTN4B0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7560390745014960912', 'createTime': 1760290654, 'createTimeISO': '2025-10-12T17:37:34.000Z', 'text': 'si algo eso cuántos Mochis me dan', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7454562571774018566', 'uniqueId': 'mariposas6818', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/e9a766a7989642f5f3b2b8341519efa8~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=63413d82&amp;x-expires=1760619600&amp;x-signature=z1syxgCV%2BK9%2Fz6OUEPsvbcIFQfk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4681,18 +4681,18 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>eran mejor los gogos</t>
+          <t>Yo quiero</t>
         </is>
       </c>
       <c r="G76" s="2" t="n">
-        <v>45929.47387731481</v>
+        <v>45935.77395833333</v>
       </c>
       <c r="H76" s="3" t="n">
-        <v>45929</v>
+        <v>45935</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>11:22:23</t>
+          <t>18:34:30</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555469953446052609', 'createTime': 1759144943, 'createTimeISO': '2025-09-29T11:22:23.000Z', 'text': 'eran mejor los gogos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7228579787227350022', 'uniqueId': 'diazsergio448', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/61df6591ddc0252c4f89c7801a873c3c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=01f44597&amp;x-expires=1759593600&amp;x-signature=p6JMc76ZWNlw9jusuaMI6pJDIps%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7557807836890645255', 'createTime': 1759689270, 'createTimeISO': '2025-10-05T18:34:30.000Z', 'text': 'Yo quiero', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7543462359529440276', 'uniqueId': 'annie.carolina7', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/d2456170bcdac850e36cf4089df9b648~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=ed5c0cb1&amp;x-expires=1760619600&amp;x-signature=ouVG3d%2Bufr0GGoAmeWdbW9Xm0iE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4737,18 +4737,18 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ahora si lo pusieron más costosos JAAJJAA</t>
+          <t>menos mal, porque esos mini Mochis nada que ver</t>
         </is>
       </c>
       <c r="G77" s="2" t="n">
-        <v>45926.97465277778</v>
+        <v>45927.03719907408</v>
       </c>
       <c r="H77" s="3" t="n">
-        <v>45926</v>
+        <v>45927</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>23:23:30</t>
+          <t>00:53:34</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554542515267437332', 'createTime': 1758929010, 'createTimeISO': '2025-09-26T23:23:30.000Z', 'text': 'Ahora si lo pusieron más costosos JAAJJAA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7195421632918782981', 'uniqueId': 'catefe14', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3b04b15a99963776fbad8b9ebe9edbe8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d7d0f635&amp;x-expires=1759593600&amp;x-signature=HtbYTdV3RZ5v2vSAfqaaXBB281M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554565731141354248', 'createTime': 1758934414, 'createTimeISO': '2025-09-27T00:53:34.000Z', 'text': 'menos mal, porque esos mini Mochis nada que ver', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '306200608217440256', 'uniqueId': 'adrianacontajaram', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/3ca1721c854ebb7d5a1c458fad6e8110~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=af12a055&amp;x-expires=1760619600&amp;x-signature=Oy%2BFwE0OR78ZERf1J4%2Foexqiz84%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4793,18 +4793,18 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Ahhh soy fan suyos y tengo la colección de los chicitos y los grandes y los de bolso ya los 40 😌</t>
+          <t>don hermosos</t>
         </is>
       </c>
       <c r="G78" s="2" t="n">
-        <v>45927.60967592592</v>
+        <v>45940.69850694444</v>
       </c>
       <c r="H78" s="3" t="n">
-        <v>45927</v>
+        <v>45940</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>14:37:56</t>
+          <t>16:45:51</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554778199965123335', 'createTime': 1758983876, 'createTimeISO': '2025-09-27T14:37:56.000Z', 'text': 'Ahhh soy fan suyos y tengo la colección de los chicitos y los grandes y los de bolso ya los 40 😌', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7427943544844190726', 'uniqueId': 'luci_123461', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/22c7a80abcc4d081e648ea0fbef7e176~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=38abd7b9&amp;x-expires=1759593600&amp;x-signature=P4eEtNkm0XJKYkQFm%2BAOCCbx7rs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559635269188829959', 'createTime': 1760114751, 'createTimeISO': '2025-10-10T16:45:51.000Z', 'text': 'don hermosos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7462015983667545094', 'uniqueId': 'yura2495', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/745aa78c04c60c9088a11c6f996f3307~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=0f023d57&amp;x-expires=1760619600&amp;x-signature=ALieX%2B0azC%2FIMyng2J4rXeJ8kzU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4849,25 +4849,25 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>pueden quitar los mochis y volver a poner los muñequitos de gokuuuu por favor</t>
+          <t>pero si ya corte los logos y no corte lo que dice mochisaurios y tampoco tengo el código??</t>
         </is>
       </c>
       <c r="G79" s="2" t="n">
-        <v>45930.20326388889</v>
+        <v>45929.11127314815</v>
       </c>
       <c r="H79" s="3" t="n">
-        <v>45930</v>
+        <v>45929</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>04:52:42</t>
+          <t>02:40:14</t>
         </is>
       </c>
       <c r="J79" t="n">
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" t="b">
         <v>0</v>
@@ -4879,7 +4879,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555740607941067527', 'createTime': 1759207962, 'createTimeISO': '2025-09-30T04:52:42.000Z', 'text': 'pueden quitar los mochis y volver a poner los muñequitos de gokuuuu por favor', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7414501088697861126', 'uniqueId': 'samu__777a_', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/758a25c5c7f3a69b27a4c51c3756f1f3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=61d07ae3&amp;x-expires=1759593600&amp;x-signature=p6oH4To8jwnjmCXXEDTcwaNQ58Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555335413934981895', 'createTime': 1759113614, 'createTimeISO': '2025-09-29T02:40:14.000Z', 'text': 'pero si ya corte los logos y no corte lo que dice mochisaurios y tampoco tengo el código??', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6887020420505109509', 'uniqueId': 'mari_a0131', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/52b610568365088bb8157c0e968fb5e0~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=adbdee11&amp;x-expires=1760619600&amp;x-signature=d%2FWev7ARz%2FoTxIa3Z9xy6iqXRoM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4905,18 +4905,18 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>esta vez está más facil conseguirlos en alkosto pasto , más barato , los encuentras de varios sabores el yogo premio 🥰</t>
+          <t>amooo los mochiss</t>
         </is>
       </c>
       <c r="G80" s="2" t="n">
-        <v>45933.06369212963</v>
+        <v>45930.14606481481</v>
       </c>
       <c r="H80" s="3" t="n">
-        <v>45933</v>
+        <v>45930</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>01:31:43</t>
+          <t>03:30:20</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556802057828451090', 'createTime': 1759455103, 'createTimeISO': '2025-10-03T01:31:43.000Z', 'text': 'esta vez está más facil conseguirlos en alkosto pasto , más barato , los encuentras de varios sabores el yogo premio 🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6871021709530334214', 'uniqueId': 'dianajs20', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d1b80594f31b301f5b7d2a17f8ebf07a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5b994380&amp;x-expires=1759593600&amp;x-signature=vL6yzocbuZ0ldwjIDISfwzWYKNY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555719396933829377', 'createTime': 1759203020, 'createTimeISO': '2025-09-30T03:30:20.000Z', 'text': 'amooo los mochiss', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7367208908349621253', 'uniqueId': 'temasammy', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/1710e3752cd7ef1d903ec79c90068b53~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=6b24fd9b&amp;x-expires=1760619600&amp;x-signature=DxSQlgjAnmocCEsE9Tf7zMrF%2BRY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4961,18 +4961,18 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Vivo al frente del Oxxo 🫦</t>
+          <t>oigan pero no encuentro mochisaurios solo ilumimochis</t>
         </is>
       </c>
       <c r="G81" s="2" t="n">
-        <v>45927.91778935185</v>
+        <v>45932.81353009259</v>
       </c>
       <c r="H81" s="3" t="n">
-        <v>45927</v>
+        <v>45932</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>22:01:37</t>
+          <t>19:31:29</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554892480945357575', 'createTime': 1759010497, 'createTimeISO': '2025-09-27T22:01:37.000Z', 'text': 'Vivo al frente del Oxxo \U0001fae6', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7364587532505613318', 'uniqueId': 'its_valerytt', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/fa3a6ffbfa7cac32480206d4dfcc4155~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dfb36516&amp;x-expires=1759593600&amp;x-signature=BK29lp5QGK4OyvI%2Bvsha%2FmFp11s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556709242481722130', 'createTime': 1759433489, 'createTimeISO': '2025-10-02T19:31:29.000Z', 'text': 'oigan pero no encuentro mochisaurios solo ilumimochis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7121425545787868165', 'uniqueId': 'filosofia.gatuna', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/611472f8abb9c3c4e66c407a80c4ee1b~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=5ab0f595&amp;x-expires=1760619600&amp;x-signature=PAUY2twnwg7KdYqIHYml6x0h%2FaM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5017,18 +5017,18 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>yo vivo en sincelejo</t>
+          <t>Y para cuándo los YoYos de YogoYogo !!</t>
         </is>
       </c>
       <c r="G82" s="2" t="n">
-        <v>45927.42297453704</v>
+        <v>45937.61719907408</v>
       </c>
       <c r="H82" s="3" t="n">
-        <v>45927</v>
+        <v>45937</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>10:09:05</t>
+          <t>14:48:46</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554708918883107605', 'createTime': 1758967745, 'createTimeISO': '2025-09-27T10:09:05.000Z', 'text': 'yo vivo en sincelejo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7528863782614778887', 'uniqueId': 'maria.del.mar609', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bd1608f690c965c3486708670f3bfd79~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4199551d&amp;x-expires=1759593600&amp;x-signature=0APgfvGPZmzxtPvr178fL29OfuU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7558491815541441281', 'createTime': 1759848526, 'createTimeISO': '2025-10-07T14:48:46.000Z', 'text': 'Y para cuándo los YoYos de YogoYogo !!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7464018882559804434', 'uniqueId': 'mastervelas10', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=bc9f0393&amp;x-expires=1760619600&amp;x-signature=RzCGUMv6hD3iDnmfkXd8UVKMMgE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5073,18 +5073,18 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Yo ese muñeco me lo encontré en el baño de la escuela y nuevo estaba</t>
+          <t>Yo y los que reclamamos todos los que tenían en la tienda porque soy una adicta al yogo yogo (porfis déjenme patrocinar o regálenme algo tengo el peluche de la máquina y todas las colecciones incompletas pero las tengo)</t>
         </is>
       </c>
       <c r="G83" s="2" t="n">
-        <v>45932.80388888889</v>
+        <v>45935.07732638889</v>
       </c>
       <c r="H83" s="3" t="n">
-        <v>45932</v>
+        <v>45935</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>19:17:36</t>
+          <t>01:51:21</t>
         </is>
       </c>
       <c r="J83" t="n">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556705655765648146', 'createTime': 1759432656, 'createTimeISO': '2025-10-02T19:17:36.000Z', 'text': 'Yo ese muñeco me lo encontré en el baño de la escuela y nuevo estaba', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7510321373261202450', 'uniqueId': 'bri_p2014', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b2e1273161d281818edc50c3450cfdcb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=371a4451&amp;x-expires=1759593600&amp;x-signature=0vXPbdNXdTLYSCvH8EAA7F5ZuNk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7557549302736208647', 'createTime': 1759629081, 'createTimeISO': '2025-10-05T01:51:21.000Z', 'text': 'Yo y los que reclamamos todos los que tenían en la tienda porque soy una adicta al yogo yogo (porfis déjenme patrocinar o regálenme algo tengo el peluche de la máquina y todas las colecciones incompletas pero las tengo)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6844340518231802886', 'uniqueId': 'bingobaby89newaccount', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/03318f67407fffda8cd02378e395034e~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=a3210cb1&amp;x-expires=1760619600&amp;x-signature=i7LsJoumPOVHZE49hBRByqhIVZ4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555661675728044807', 'createTime': 1759189595, 'createTimeISO': '2025-09-29T23:46:35.000Z', 'text': 'el otro año mochisauros q iluminan\nte dio hambre yogo yogo [sticker]', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7229492920381899781', 'uniqueId': 'ortiz.1400', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/de36f59531a8946d7c3c30cab3c29c87~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=16325c4f&amp;x-expires=1759593600&amp;x-signature=xclQaNOEvA9gpCdh9PAnPONQPM0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555661675728044807', 'createTime': 1759189595, 'createTimeISO': '2025-09-29T23:46:35.000Z', 'text': 'el otro año mochisauros q iluminan\nte dio hambre yogo yogo [sticker]', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7229492920381899781', 'uniqueId': 'ortiz.1400', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/de36f59531a8946d7c3c30cab3c29c87~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=22a4401a&amp;x-expires=1760619600&amp;x-signature=w1sztTSNZBo7Or0cz8r2AQe%2BL4U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5186,18 +5186,18 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Ami me salió un unicornio en uno</t>
+          <t>me encantan los mochis mi mamá nunca me compra ninguno creo que me dejes hacer ⭐😍</t>
         </is>
       </c>
       <c r="G85" s="2" t="n">
-        <v>45932.92136574074</v>
+        <v>45939.96612268518</v>
       </c>
       <c r="H85" s="3" t="n">
-        <v>45932</v>
+        <v>45939</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>22:06:46</t>
+          <t>23:11:13</t>
         </is>
       </c>
       <c r="J85" t="n">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556749197270991637', 'createTime': 1759442806, 'createTimeISO': '2025-10-02T22:06:46.000Z', 'text': 'Ami me salió un unicornio en uno', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7316406165842740230', 'uniqueId': 'michirobloxfnafcolombia', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/811b5143a6b4c89721b77c47d0f3a4cf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=acc609a4&amp;x-expires=1759593600&amp;x-signature=O%2BKAoPKZklrjLIe3FqFefDAnePE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559363418022249224', 'createTime': 1760051473, 'createTimeISO': '2025-10-09T23:11:13.000Z', 'text': 'me encantan los mochis mi mamá nunca me compra ninguno creo que me dejes hacer ⭐😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7381557792702153734', 'uniqueId': 'luchiii4155', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/25933fce4e672e9823eb77161e1bdb88~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=fd3ca8f5&amp;x-expires=1760619600&amp;x-signature=4y195K9EuU9RG7T4DlRNw3wOAFA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5242,18 +5242,18 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>ya tengo muchooosss</t>
+          <t>esta vez está más facil conseguirlos en alkosto pasto , más barato , los encuentras de varios sabores el yogo premio 🥰</t>
         </is>
       </c>
       <c r="G86" s="2" t="n">
-        <v>45929.9649074074</v>
+        <v>45933.06369212963</v>
       </c>
       <c r="H86" s="3" t="n">
-        <v>45929</v>
+        <v>45933</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>23:09:28</t>
+          <t>01:31:43</t>
         </is>
       </c>
       <c r="J86" t="n">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555652136999453447', 'createTime': 1759187368, 'createTimeISO': '2025-09-29T23:09:28.000Z', 'text': 'ya tengo muchooosss', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452352762484507654', 'uniqueId': 'glxsyy_gaby', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f640f746bac5eb67f15e4c8ed375d287~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fb061a4d&amp;x-expires=1759593600&amp;x-signature=oOisdud%2FMniOIfDStW13xgDC10o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556802057828451090', 'createTime': 1759455103, 'createTimeISO': '2025-10-03T01:31:43.000Z', 'text': 'esta vez está más facil conseguirlos en alkosto pasto , más barato , los encuentras de varios sabores el yogo premio 🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6871021709530334214', 'uniqueId': 'dianajs20', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/d1b80594f31b301f5b7d2a17f8ebf07a~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=54658a86&amp;x-expires=1760619600&amp;x-signature=XKAlh%2BLgUs6ZAyg%2Fdu3IqRBibEo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5298,18 +5298,18 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>GRQCIASS. ME DIOO UNOO😭💜</t>
+          <t>ya no es lo mismo</t>
         </is>
       </c>
       <c r="G87" s="2" t="n">
-        <v>45927.89190972222</v>
+        <v>45940.20726851852</v>
       </c>
       <c r="H87" s="3" t="n">
-        <v>45927</v>
+        <v>45940</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>21:24:21</t>
+          <t>04:58:28</t>
         </is>
       </c>
       <c r="J87" t="n">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554882846906811137', 'createTime': 1759008261, 'createTimeISO': '2025-09-27T21:24:21.000Z', 'text': 'GRQCIASS. ME DIOO UNOO😭💜', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7306695570843550725', 'uniqueId': 'astro_shelly5', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a97d6db6bc7fbe92e2a5c87ec99db37b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c66246d1&amp;x-expires=1759593600&amp;x-signature=PM0EfFI4pgYiBP%2BQYfLZD%2Ft9DC8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559452964297917200', 'createTime': 1760072308, 'createTimeISO': '2025-10-10T04:58:28.000Z', 'text': 'ya no es lo mismo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7440309516846367800', 'uniqueId': 'user3866547831001', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/c5d23423bddcf59c497bd0d1bdeea6ad~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=7b87d8c0&amp;x-expires=1760619600&amp;x-signature=nuKVlZmlGCVaT2H8QToUmWkfp14%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5354,18 +5354,18 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>y si estoy en Colombia</t>
+          <t>ami me sale pura cagada un día me salió un unicornio y hoy me salió un cocodrilo (T_T)</t>
         </is>
       </c>
       <c r="G88" s="2" t="n">
-        <v>45930.03666666667</v>
+        <v>45935.94721064815</v>
       </c>
       <c r="H88" s="3" t="n">
-        <v>45930</v>
+        <v>45935</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>00:52:48</t>
+          <t>22:43:59</t>
         </is>
       </c>
       <c r="J88" t="n">
@@ -5384,7 +5384,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555678757781422856', 'createTime': 1759193568, 'createTimeISO': '2025-09-30T00:52:48.000Z', 'text': 'y si estoy en Colombia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7511370345698526228', 'uniqueId': 'eslendy121', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/17b0bce09c224ef4b7b58274a200d715~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=356c618a&amp;x-expires=1759593600&amp;x-signature=N%2Fsjeh8JSyb7XjWBdDt3rzX5AVc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7557872085788656392', 'createTime': 1759704239, 'createTimeISO': '2025-10-05T22:43:59.000Z', 'text': '𝚊𝚖𝚒 𝚖𝚎 𝚜𝚊𝚕𝚎 𝚙𝚞𝚛𝚊 𝚌𝚊𝚐𝚊𝚍𝚊 𝚞𝚗 𝚍𝚒́𝚊 𝚖𝚎 𝚜𝚊𝚕𝚒𝚘́ 𝚞𝚗 𝚞𝚗𝚒𝚌𝚘𝚛𝚗𝚒𝚘 𝚢 𝚑𝚘𝚢 𝚖𝚎 𝚜𝚊𝚕𝚒𝚘́ 𝚞𝚗 𝚌𝚘𝚌𝚘𝚍𝚛𝚒𝚕𝚘 (T_T)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7398980026529760262', 'uniqueId': 'salome.murcia.lop', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/340cd1e87c2a55967180747c200950a3~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=3c85bbd0&amp;x-expires=1760619600&amp;x-signature=BwbCSl%2BpLOyXsvA%2FBctToxmyObk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5410,18 +5410,18 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Excelente. Hacen falta estas promociones en los productos y que mejoren la calidad de la leche en bolsa</t>
+          <t>Ami me salió un unicornio en uno</t>
         </is>
       </c>
       <c r="G89" s="2" t="n">
-        <v>45929.1794212963</v>
+        <v>45932.92136574074</v>
       </c>
       <c r="H89" s="3" t="n">
-        <v>45929</v>
+        <v>45932</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>04:18:22</t>
+          <t>22:06:46</t>
         </is>
       </c>
       <c r="J89" t="n">
@@ -5440,7 +5440,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555360657135682321', 'createTime': 1759119502, 'createTimeISO': '2025-09-29T04:18:22.000Z', 'text': 'Excelente. Hacen falta estas promociones en los productos y que mejoren la calidad de la leche en bolsa', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6816660881625465862', 'uniqueId': 'gatusso88.88', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/d08015a0ec17b31fabb0d96423b6fbd1~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=2b66b5ce&amp;x-expires=1759593600&amp;x-signature=JAxucPECS2ZXLGzh0owPgL8vdTY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556749197270991637', 'createTime': 1759442806, 'createTimeISO': '2025-10-02T22:06:46.000Z', 'text': 'Ami me salió un unicornio en uno', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7316406165842740230', 'uniqueId': 'michirobloxfnafcolombia', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/811b5143a6b4c89721b77c47d0f3a4cf~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=b8cdaff5&amp;x-expires=1760619600&amp;x-signature=3bCL0Ha2kVVD5N3RWsiQXX%2Buee0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5466,18 +5466,18 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>por favor vuelve a los muñequitos de antes ya no quiero más mochis</t>
+          <t>y para que sirve eso, que beneficios tiene 😳</t>
         </is>
       </c>
       <c r="G90" s="2" t="n">
-        <v>45929.88721064815</v>
+        <v>45933.05707175926</v>
       </c>
       <c r="H90" s="3" t="n">
-        <v>45929</v>
+        <v>45933</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>21:17:35</t>
+          <t>01:22:11</t>
         </is>
       </c>
       <c r="J90" t="n">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555623204544824080', 'createTime': 1759180655, 'createTimeISO': '2025-09-29T21:17:35.000Z', 'text': 'por favor vuelve a los muñequitos de antes ya no quiero más mochis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7181553216034079750', 'uniqueId': 'emanuelmeza1976', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/c6ce45f84f08573022367e687a3e5e79~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=df2d9025&amp;x-expires=1759593600&amp;x-signature=EcQfrfP5rXMnw3eEz4k5jUvit4Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556799608577458951', 'createTime': 1759454531, 'createTimeISO': '2025-10-03T01:22:11.000Z', 'text': 'y para que sirve eso, que beneficios tiene 😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6935601595720860678', 'uniqueId': 'monica_lenis1980', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/fce7942c402b7371d210f51cf61e58d9~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a50d12db&amp;x-expires=1760619600&amp;x-signature=MCcb9ozEueitSEvOcSoZ6YQGMNU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5522,18 +5522,18 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>yo soy de pitalito huila y no hay oxxo</t>
+          <t>no hay plata 💔</t>
         </is>
       </c>
       <c r="G91" s="2" t="n">
-        <v>45928.77608796296</v>
+        <v>45943.12447916667</v>
       </c>
       <c r="H91" s="3" t="n">
-        <v>45928</v>
+        <v>45943</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>18:37:34</t>
+          <t>02:59:15</t>
         </is>
       </c>
       <c r="J91" t="n">
@@ -5552,7 +5552,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555211031862461191', 'createTime': 1759084654, 'createTimeISO': '2025-09-28T18:37:34.000Z', 'text': 'yo soy de pitalito huila y no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7271470368271188998', 'uniqueId': 'luisferneysilvago', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7360438781521821701~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=95dbe266&amp;x-expires=1759593600&amp;x-signature=lIoyASAo9G2Ylqt8Ia6nbDREumA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7560535489130300168', 'createTime': 1760324355, 'createTimeISO': '2025-10-13T02:59:15.000Z', 'text': 'no hay plata 💔', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7455861170257249300', 'uniqueId': 'eminemxd19', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/81a571f9081a325ea0b63e6179cc5948~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ebb5d862&amp;x-expires=1760619600&amp;x-signature=Nz16ZTZe8CO0LyNDQ3JJRxRXjQM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5578,18 +5578,18 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>pero sola mente sonos logos que disen todo yogo</t>
+          <t>pensándolo bien se ven hermosos 😻💗</t>
         </is>
       </c>
       <c r="G92" s="2" t="n">
-        <v>45930.0090162037</v>
+        <v>45940.70783564815</v>
       </c>
       <c r="H92" s="3" t="n">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>00:12:59</t>
+          <t>16:59:17</t>
         </is>
       </c>
       <c r="J92" t="n">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555668487608582928', 'createTime': 1759191179, 'createTimeISO': '2025-09-30T00:12:59.000Z', 'text': 'pero sola mente sonos logos que disen todo yogo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7352935562129802246', 'uniqueId': 'titta4841', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=181da6bc&amp;x-expires=1759593600&amp;x-signature=eHva4112j2iAr0GG0X%2F2bTiXJFA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559638710619226881', 'createTime': 1760115557, 'createTimeISO': '2025-10-10T16:59:17.000Z', 'text': 'pensándolo bien se ven hermosos 😻💗', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6893194958128972801', 'uniqueId': 'nicollesofiaram98', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/66383e9c8e505f28006c4cbf3c42e837~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=9d26c530&amp;x-expires=1760619600&amp;x-signature=FERpRMa76c5wHXOsluY%2FrRvXwh4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5634,18 +5634,18 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>alguien sabe si aceptan los mismos paquetes de los yogopremio? 🥹 los logos</t>
+          <t>alpinaa eres el mejor me gustan tus productos❤</t>
         </is>
       </c>
       <c r="G93" s="2" t="n">
-        <v>45928.79943287037</v>
+        <v>45939.82650462963</v>
       </c>
       <c r="H93" s="3" t="n">
-        <v>45928</v>
+        <v>45939</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>19:11:11</t>
+          <t>19:50:10</t>
         </is>
       </c>
       <c r="J93" t="n">
@@ -5664,7 +5664,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555219507196871441', 'createTime': 1759086671, 'createTimeISO': '2025-09-28T19:11:11.000Z', 'text': 'alguien sabe si aceptan los mismos paquetes de los yogopremio? \U0001f979 los logos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7248270860224578565', 'uniqueId': 'bangchanmegustas', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/93a2007f320c35921254108bfb01e853~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=ea669c34&amp;x-expires=1759593600&amp;x-signature=rDfOQky0JOQrXbrZ%2BScYr45EyX0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559311644069757697', 'createTime': 1760039410, 'createTimeISO': '2025-10-09T19:50:10.000Z', 'text': 'alpinaa eres el mejor me gustan tus productos❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7066510018199585798', 'uniqueId': 'dianalozanomorera', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/95486b2edc8f09f2d015ae33f705fe3f~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=00e6f386&amp;x-expires=1760619600&amp;x-signature=fJnB93V9fVBb6JeE8zFDMMP0JgM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5690,18 +5690,18 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>nesecitoo la lista de los cuarenta muchis y nombrees</t>
+          <t>tengo 14 en total ajaja</t>
         </is>
       </c>
       <c r="G94" s="2" t="n">
-        <v>45929.73436342592</v>
+        <v>45938.74841435185</v>
       </c>
       <c r="H94" s="3" t="n">
-        <v>45929</v>
+        <v>45938</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>17:37:29</t>
+          <t>17:57:43</t>
         </is>
       </c>
       <c r="J94" t="n">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555566632794702599', 'createTime': 1759167449, 'createTimeISO': '2025-09-29T17:37:29.000Z', 'text': 'nesecitoo la lista de los cuarenta muchis y nombrees', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7476832145886741524', 'uniqueId': 'eli491676', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/de51a904dddc57525965d4639f48e5d4~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=e9feb323&amp;x-expires=1759593600&amp;x-signature=U6%2FohNNYCFEgU7%2FTmLb%2BLKX6yuw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7558911601061217032', 'createTime': 1759946263, 'createTimeISO': '2025-10-08T17:57:43.000Z', 'text': 'tengo 14 en total ajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7290284449584514053', 'uniqueId': 'not.dnaa', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/c359f92f7ed83771ef9e0d8b18401862~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=d6a4f570&amp;x-expires=1760619600&amp;x-signature=dDY8L8kOw4vvJtIeJ7qpcwCaD4U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5746,18 +5746,18 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>en mi ciudad no hay OXXO 😭😭😭😭😭😭</t>
+          <t>YO LLEVO SOLO 10 😭😭🗣️🗣</t>
         </is>
       </c>
       <c r="G95" s="2" t="n">
-        <v>45931.94755787037</v>
+        <v>45945.12975694444</v>
       </c>
       <c r="H95" s="3" t="n">
-        <v>45931</v>
+        <v>45945</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>22:44:29</t>
+          <t>03:06:51</t>
         </is>
       </c>
       <c r="J95" t="n">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556387852227035922', 'createTime': 1759358669, 'createTimeISO': '2025-10-01T22:44:29.000Z', 'text': 'en mi ciudad no hay OXXO 😭😭😭😭😭😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7489833937218028562', 'uniqueId': 'alexa28070', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/e12e85635aa01b27ccab64c2b8145234~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=e6cbc643&amp;x-expires=1759593600&amp;x-signature=rPdVy06xoTfswFabRcSokXrbmaY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7561279629291111176', 'createTime': 1760497611, 'createTimeISO': '2025-10-15T03:06:51.000Z', 'text': 'YO LLEVO SOLO 10 😭😭🗣️🗣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7500744921117230081', 'uniqueId': 'l0veworld0', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/4de1e833be3b97b2d4fdf7b32557b65a~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=1b97e13b&amp;x-expires=1760619600&amp;x-signature=Y11zl8eQKH0JR7znvHii6Qae03c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5802,18 +5802,18 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>acá no hay oxo 😔🙃</t>
+          <t>Alpina me salió el t-rex morado pero me salió rojo</t>
         </is>
       </c>
       <c r="G96" s="2" t="n">
-        <v>45927.77946759259</v>
+        <v>45944.32868055555</v>
       </c>
       <c r="H96" s="3" t="n">
-        <v>45927</v>
+        <v>45944</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>18:42:26</t>
+          <t>07:53:18</t>
         </is>
       </c>
       <c r="J96" t="n">
@@ -5832,7 +5832,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554841186369929992', 'createTime': 1758998546, 'createTimeISO': '2025-09-27T18:42:26.000Z', 'text': 'acá no hay oxo 😔🙃', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7507809562712376327', 'uniqueId': 'isa_9714', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/45a4b910e03b88ae6bca9622a5dfb0f0~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=50d50f39&amp;x-expires=1759593600&amp;x-signature=SXui3QmWQjnPIIYFpk%2BiFAJQTco%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7560982374209880840', 'createTime': 1760428398, 'createTimeISO': '2025-10-14T07:53:18.000Z', 'text': 'Alpina me salió el t-rex morado pero me salió rojo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7550916854894576647', 'uniqueId': 'matis.leon3', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/5ea667be5045cfb8a1ae14f867516de8~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=5d0fd8f4&amp;x-expires=1760619600&amp;x-signature=k%2Fh5KqQXq4Po6GPMDIUeYapggOU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5858,18 +5858,18 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>menos mal, porque esos mini Mochis nada que ver</t>
+          <t>4!? me e comprado 3 y no me sabía está :(</t>
         </is>
       </c>
       <c r="G97" s="2" t="n">
-        <v>45927.03719907408</v>
+        <v>45941.94193287037</v>
       </c>
       <c r="H97" s="3" t="n">
-        <v>45927</v>
+        <v>45941</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>00:53:34</t>
+          <t>22:36:23</t>
         </is>
       </c>
       <c r="J97" t="n">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554565731141354248', 'createTime': 1758934414, 'createTimeISO': '2025-09-27T00:53:34.000Z', 'text': 'menos mal, porque esos mini Mochis nada que ver', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '306200608217440256', 'uniqueId': 'adrianacontajaram', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/3ca1721c854ebb7d5a1c458fad6e8110~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=dcc8c445&amp;x-expires=1759593600&amp;x-signature=bb8AA8iPMEd8FkY0zYcSGNTMdEw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7560096565530116881', 'createTime': 1760222183, 'createTimeISO': '2025-10-11T22:36:23.000Z', 'text': '4!? me e comprado 3 y no me sabía está :(', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7406050480903095302', 'uniqueId': 'baraka8861', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/3578f8d9ee7e8e3faedd8e33c2df1a1d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=d7b66de7&amp;x-expires=1760619600&amp;x-signature=MhKloIg1%2Fzdf%2BWCnQrVgeL0lSL4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5914,18 +5914,18 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>mi hijo tiene muchos ya</t>
+          <t>Mi hija estaba muy comprometida haciendo la recolección de logos recortados de YogoYogo los llevamos a OXXO y le dijeron que los recortó mal y no le dieron premio. Terrible me parece 0 estrellitas no vale la pena.</t>
         </is>
       </c>
       <c r="G98" s="2" t="n">
-        <v>45928.71826388889</v>
+        <v>45939.57203703704</v>
       </c>
       <c r="H98" s="3" t="n">
-        <v>45928</v>
+        <v>45939</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>17:14:18</t>
+          <t>13:43:44</t>
         </is>
       </c>
       <c r="J98" t="n">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555189568158171922', 'createTime': 1759079658, 'createTimeISO': '2025-09-28T17:14:18.000Z', 'text': 'mi hijo tiene muchos ya', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7198591704680023046', 'uniqueId': 'lpez.amarfy', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/94bc9caafe217bbfd6ce01b82c1f3779~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ed9692ca&amp;x-expires=1759593600&amp;x-signature=x3EIXsUTCWaCr69vc1hZS9dxiQA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559217240907399952', 'createTime': 1760017424, 'createTimeISO': '2025-10-09T13:43:44.000Z', 'text': 'Mi hija estaba muy comprometida haciendo la recolección de logos recortados de YogoYogo los llevamos a OXXO y le dijeron que los recortó mal y no le dieron premio. Terrible me parece 0 estrellitas no vale la pena.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6790690337766556677', 'uniqueId': 'natyzhurra8', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/2ec67cba7b200e2c6b2709b67daa84b1~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=77e91b13&amp;x-expires=1760619600&amp;x-signature=KcSwtxjJ11Q1Wc%2BMWx7hpF%2BEsm8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5970,18 +5970,18 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Instagram de la chica?</t>
+          <t>sale más fácil comprarles el yogo premio ahí vienen esos muñecos👌</t>
         </is>
       </c>
       <c r="G99" s="2" t="n">
-        <v>45929.91350694445</v>
+        <v>45937.1734375</v>
       </c>
       <c r="H99" s="3" t="n">
-        <v>45929</v>
+        <v>45937</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>21:55:27</t>
+          <t>04:09:45</t>
         </is>
       </c>
       <c r="J99" t="n">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555633048105779986', 'createTime': 1759182927, 'createTimeISO': '2025-09-29T21:55:27.000Z', 'text': 'Instagram de la chica?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6918025814152201222', 'uniqueId': 'erick_armando.3', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/754d99b04476871c7f12cbaf0d1f1743~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=224569d0&amp;x-expires=1759593600&amp;x-signature=C%2FiRH7eA5X10yu0jMSILVjG0dJc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7558327143747928848', 'createTime': 1759810185, 'createTimeISO': '2025-10-07T04:09:45.000Z', 'text': 'sale más fácil comprarles el yogo premio ahí vienen esos muñecos👌', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7270238153704342533', 'uniqueId': 'paola.rodriguez228', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/17617c83aeaf41558f9b9b48472d32af~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=0a20a60f&amp;x-expires=1760619600&amp;x-signature=sZsYu0LwLR7UBoRx7KkiMEbzwDM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6026,18 +6026,18 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Amooo</t>
+          <t>loooos amooooooo❤️❤️❤️❤️❤</t>
         </is>
       </c>
       <c r="G100" s="2" t="n">
-        <v>45928.79438657407</v>
+        <v>45936.85996527778</v>
       </c>
       <c r="H100" s="3" t="n">
-        <v>45928</v>
+        <v>45936</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>19:03:55</t>
+          <t>20:38:21</t>
         </is>
       </c>
       <c r="J100" t="n">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555217811128615687', 'createTime': 1759086235, 'createTimeISO': '2025-09-28T19:03:55.000Z', 'text': 'Amooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7284419691349607430', 'uniqueId': 'kdruiz22', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7300345897722839046~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=7fa1de1c&amp;x-expires=1759593600&amp;x-signature=shKaVC0CcxKTOqt4ZF%2F%2B2jOauq8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7558210750176805633', 'createTime': 1759783101, 'createTimeISO': '2025-10-06T20:38:21.000Z', 'text': 'loooos amooooooo❤️❤️❤️❤️❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7367208908349621253', 'uniqueId': 'temasammy', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/1710e3752cd7ef1d903ec79c90068b53~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6b24fd9b&amp;x-expires=1760619600&amp;x-signature=DxSQlgjAnmocCEsE9Tf7zMrF%2BRY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6082,18 +6082,18 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>mi mala suerte, tenía dos abri un yogurt y me salió repetido</t>
+          <t>Hola alpina yo tengo 16 mochi saurio soy su fan</t>
         </is>
       </c>
       <c r="G101" s="2" t="n">
-        <v>45928.00234953704</v>
+        <v>45940.97159722223</v>
       </c>
       <c r="H101" s="3" t="n">
-        <v>45928</v>
+        <v>45940</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>00:03:23</t>
+          <t>23:19:06</t>
         </is>
       </c>
       <c r="J101" t="n">
@@ -6112,7 +6112,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554923850959422215', 'createTime': 1759017803, 'createTimeISO': '2025-09-28T00:03:23.000Z', 'text': 'mi mala suerte, tenía dos abri un yogurt y me salió repetido', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7540478701881164818', 'uniqueId': 'cib_1252', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/72330b8c5396a956cc18b2d6d1f243e7~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=008625f1&amp;x-expires=1759593600&amp;x-signature=PC8ymdMs5nTkfSvYEuIWJcQ%2Bx5k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559736550297633544', 'createTime': 1760138346, 'createTimeISO': '2025-10-10T23:19:06.000Z', 'text': 'Hola alpina yo tengo 16 mochi saurio soy su fan', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6999062538463003654', 'uniqueId': 'viky34566', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/71919924a1b2f86ffc0e2a1190eabfbc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f6134e92&amp;x-expires=1760619600&amp;x-signature=Uh%2Bs9FtGSla0r6A5NePEaPwdgO0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6180,7 +6180,7 @@
         <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>449</v>
+        <v>724</v>
       </c>
     </row>
   </sheetData>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554460671951520529', 'createTime': 1758909958, 'createTimeISO': '2025-09-26T18:05:58.000Z', 'text': 'Vuelvan los originales porfa😭', 'diggCount': 255, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7499982161161585680', 'uniqueId': 'lcv.xox', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/598c6e494574f43d995207087f02276a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2a53e9f8&amp;x-expires=1760619600&amp;x-signature=cO6vGikRyGRT4GJH4QZF1%2BcPSwA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554460671951520529', 'createTime': 1758909958, 'createTimeISO': '2025-09-26T18:05:58.000Z', 'text': 'Vuelvan los originales porfa😭', 'diggCount': 256, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7499982161161585680', 'uniqueId': 'lcv.xox', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/598c6e494574f43d995207087f02276a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0d42a2e3&amp;x-expires=1760706000&amp;x-signature=DClQ1zMQOEjIGoNts5hjwRXmB3A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -591,25 +591,25 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>y si soy de Colombia acá no hay Oxxo😭</t>
+          <t>muy lindos pero huelen horrible🥺</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>45927.01857638889</v>
+        <v>45934.07570601852</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>45927</v>
+        <v>45934</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>00:26:45</t>
+          <t>01:49:01</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>189</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -621,7 +621,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554558807096722184', 'createTime': 1758932805, 'createTimeISO': '2025-09-27T00:26:45.000Z', 'text': 'y si soy de Colombia acá no hay Oxxo😭', 'diggCount': 189, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 62, 'uid': '7539632392610726919', 'uniqueId': 'samu07354', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/62b7de782c00747584315652ae6d84c0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7b13ac86&amp;x-expires=1760619600&amp;x-signature=gFvTr6hzjm3B7oX3mYldMgCEeAA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7557177612487262984', 'createTime': 1759542541, 'createTimeISO': '2025-10-04T01:49:01.000Z', 'text': 'muy lindos pero huelen horrible🥺', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7306290978125005830', 'uniqueId': 'tinta.prpura', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/325aa1206343248d1f45735372a84c0b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=23699d50&amp;x-expires=1760706000&amp;x-signature=jbsosn3UsaCx%2Fhr0p3mFon7Xcho%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -647,25 +647,25 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>yo con mis 14 mochisaurios: 👁️👄👁</t>
+          <t>y si soy de Colombia acá no hay Oxxo😭</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45943.24204861111</v>
+        <v>45927.01857638889</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>45943</v>
+        <v>45927</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>05:48:33</t>
+          <t>00:26:45</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -677,7 +677,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7560579124269777672', 'createTime': 1760334513, 'createTimeISO': '2025-10-13T05:48:33.000Z', 'text': 'yo con mis 14 mochisaurios: 👁️👄👁', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7535556501164065799', 'uniqueId': 'flutershy46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5e5abe1cd68cf25fc519fc9b297b0c48~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=705f4834&amp;x-expires=1760619600&amp;x-signature=hSM6WLrtP6U1JJvqwxll6LlsjZs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554558807096722184', 'createTime': 1758932805, 'createTimeISO': '2025-09-27T00:26:45.000Z', 'text': 'y si soy de Colombia acá no hay Oxxo😭', 'diggCount': 190, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 62, 'uid': '7539632392610726919', 'uniqueId': 'samu07354', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/62b7de782c00747584315652ae6d84c0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8d05ed31&amp;x-expires=1760706000&amp;x-signature=pquM5fPucTUFJ0NH2XXX95jeD28%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -703,25 +703,25 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>mucho trabajo para un muñeco</t>
+          <t>yo con mis 14 mochisaurios: 👁️👄👁</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45928.12261574074</v>
+        <v>45943.24204861111</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>45928</v>
+        <v>45943</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>02:56:34</t>
+          <t>05:48:33</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>178</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -733,7 +733,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554968530820268818', 'createTime': 1759028194, 'createTimeISO': '2025-09-28T02:56:34.000Z', 'text': 'mucho trabajo para un muñeco', 'diggCount': 178, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 8, 'uid': '6900093665232208898', 'uniqueId': 'alonsocastaeda4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/656e080d9831aeebef39b67358dbf496~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a766fb9a&amp;x-expires=1760619600&amp;x-signature=8G%2FEU3VEKd1u9Sy8r6E9NBUdU6g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7560579124269777672', 'createTime': 1760334513, 'createTimeISO': '2025-10-13T05:48:33.000Z', 'text': 'yo con mis 14 mochisaurios: 👁️👄👁', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7535556501164065799', 'uniqueId': 'flutershy46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5e5abe1cd68cf25fc519fc9b297b0c48~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=46aa144e&amp;x-expires=1760706000&amp;x-signature=L3ymVb0ssaybFHpiEESrPKGZSBM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -759,25 +759,25 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>muy lindos pero huelen horrible🥺</t>
+          <t>mucho trabajo para un muñeco</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>45934.07570601852</v>
+        <v>45928.12261574074</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>45934</v>
+        <v>45928</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>01:49:01</t>
+          <t>02:56:34</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -789,7 +789,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7557177612487262984', 'createTime': 1759542541, 'createTimeISO': '2025-10-04T01:49:01.000Z', 'text': 'muy lindos pero huelen horrible🥺', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7306290978125005830', 'uniqueId': 'tinta.prpura', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/325aa1206343248d1f45735372a84c0b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2ae1cb69&amp;x-expires=1760619600&amp;x-signature=lkg1639gdPlhe6x4G6HNNSmRI34%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554968530820268818', 'createTime': 1759028194, 'createTimeISO': '2025-09-28T02:56:34.000Z', 'text': 'mucho trabajo para un muñeco', 'diggCount': 178, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 8, 'uid': '6900093665232208898', 'uniqueId': 'alonsocastaeda4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/656e080d9831aeebef39b67358dbf496~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=63348e05&amp;x-expires=1760706000&amp;x-signature=r5QXf0YonMgSl0lf2cBGeVGSXUo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -815,25 +815,25 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mas fácil conseguirlos en el yogo premio</t>
+          <t>más fácil el baloto, un préstamo en el banco, una visa a EE UU</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>45927.99311342592</v>
+        <v>45944.94273148148</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>45927</v>
+        <v>45944</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>23:50:05</t>
+          <t>22:37:32</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -845,7 +845,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554920371642204949', 'createTime': 1759017005, 'createTimeISO': '2025-09-27T23:50:05.000Z', 'text': 'Mas fácil conseguirlos en el yogo premio', 'diggCount': 38, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '6517042462509241359', 'uniqueId': 'milenar96', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/65a89a7d9be3781e3c799109d941b1d0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e2a554a2&amp;x-expires=1760619600&amp;x-signature=wPsBBL4hf8xYatZYjduPth3qD4M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7561210138691977992', 'createTime': 1760481452, 'createTimeISO': '2025-10-14T22:37:32.000Z', 'text': 'más fácil el baloto, un préstamo en el banco, una visa a EE UU', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6918526756061463557', 'uniqueId': 'orlandocastro1209', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7335516669206331398~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2e07fd2c&amp;x-expires=1760706000&amp;x-signature=3G0%2Bhe371yWa0Ks5KZDZq%2F9Wy1M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7561297143858135816', 'createTime': 1760501691, 'createTimeISO': '2025-10-15T04:14:51.000Z', 'text': 'que triste que ya no salga las verdaderas figuritas de antes como lo era los Dioses del olimpo o los del futuro y los de goku y los futbolistas y los transformers y muchos mas, lo de hoy en dia ya me da pereza coleccionar esas cosas tan aburridas', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7530133168200975368', 'uniqueId': 'figuritas07', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=24e7ff38&amp;x-expires=1760619600&amp;x-signature=XcSDitOFZeEIWYaP6SnNYkRGn58%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7561297143858135816', 'createTime': 1760501691, 'createTimeISO': '2025-10-15T04:14:51.000Z', 'text': 'que triste que ya no salga las verdaderas figuritas de antes como lo era los Dioses del olimpo o los del futuro y los de goku y los futbolistas y los transformers y muchos mas, lo de hoy en dia ya me da pereza coleccionar esas cosas tan aburridas', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7530133168200975368', 'uniqueId': 'figuritas07', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=678f0c15&amp;x-expires=1760706000&amp;x-signature=XeD3biovpRyDHLmRXLFbZpWoZQI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555568041485681424', 'createTime': 1759167789, 'createTimeISO': '2025-09-29T17:43:09.000Z', 'text': 'saquen mochis en forma de looney toons 😁', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6826404277322974214', 'uniqueId': 'carolinapr145', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/01f5729aadb40e0a6938515cce68a8d9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4b0faafd&amp;x-expires=1760619600&amp;x-signature=EMlrXv7omx9HsYYm2JfyaVFOP4Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555568041485681424', 'createTime': 1759167789, 'createTimeISO': '2025-09-29T17:43:09.000Z', 'text': 'saquen mochis en forma de looney toons 😁', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6826404277322974214', 'uniqueId': 'carolinapr145', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/01f5729aadb40e0a6938515cce68a8d9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c96beea2&amp;x-expires=1760706000&amp;x-signature=96gzw8H%2F6dRf%2BtIwsJ8LrM0f%2Fm0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -983,22 +983,22 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Alpina me mandan la caja Porfavor y les subo un video abriéndola</t>
+          <t>YO LLEVO SOLO 10 😭😭🗣️🗣</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>45931.93680555555</v>
+        <v>45945.12975694444</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>45931</v>
+        <v>45945</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>22:29:00</t>
+          <t>03:06:51</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556383835371717396', 'createTime': 1759357740, 'createTimeISO': '2025-10-01T22:29:00.000Z', 'text': 'Alpina me mandan la caja Porfavor y les subo un video abriéndola', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452119185666720773', 'uniqueId': 'juanjose192592', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4cd1c36ecc1e938a7fbeb49be5a0bb2d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=df4b8a7d&amp;x-expires=1760619600&amp;x-signature=YN6SjtIkM5wzdkSTDl5z7dzxGac%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7561279629291111176', 'createTime': 1760497611, 'createTimeISO': '2025-10-15T03:06:51.000Z', 'text': 'YO LLEVO SOLO 10 😭😭🗣️🗣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7500744921117230081', 'uniqueId': 'l0veworld0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4de1e833be3b97b2d4fdf7b32557b65a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=08240e29&amp;x-expires=1760706000&amp;x-signature=PygcLoqMXAdwwQxzzKGpAiMjeIo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1039,22 +1039,22 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Una pregunta yo fui y lleve todas los logos de yogurt de vasito y me dijeron que esos no se ponían?</t>
+          <t>Pensé que crecían en el agua 😁😂</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>45940.24515046296</v>
+        <v>45945.00143518519</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>45940</v>
+        <v>45945</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>05:53:01</t>
+          <t>00:02:04</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559467019110204168', 'createTime': 1760075581, 'createTimeISO': '2025-10-10T05:53:01.000Z', 'text': 'Una pregunta yo fui y lleve todas los logos de yogurt de vasito y me dijeron que esos no se ponían?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7546710335559959559', 'uniqueId': 'alexandrapardocaj', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8cec9d771e97df3f8fa5b79f45eb0965~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6a278b7e&amp;x-expires=1760619600&amp;x-signature=A73aV%2B7sePfhmb3pjVZwrjA09go%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7561231968739656466', 'createTime': 1760486524, 'createTimeISO': '2025-10-15T00:02:04.000Z', 'text': 'Pensé que crecían en el agua 😁😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7095002096173368325', 'uniqueId': 'camiloserna.8173', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/4f82b1d4beaab8b506d3f312e534a68f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3ffc62a3&amp;x-expires=1760706000&amp;x-signature=qIkcmLi82Zna0qI%2FVrp4wwbQjPw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1095,25 +1095,25 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>en Colombia no hay OXXO</t>
+          <t>Mas fácil conseguirlos en el yogo premio</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>45928.81866898148</v>
+        <v>45927.99311342592</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>45928</v>
+        <v>45927</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>19:38:53</t>
+          <t>23:50:05</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555226815825003282', 'createTime': 1759088333, 'createTimeISO': '2025-09-28T19:38:53.000Z', 'text': 'en Colombia no hay OXXO', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 10, 'uid': '7239017294855767045', 'uniqueId': 'basspublicidadymediossas', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/27521fedb51ceea61f70eec021541ed1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=df755315&amp;x-expires=1760619600&amp;x-signature=8yoSk2uAqJ%2BUysTAf7ttqusjD%2BY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554920371642204949', 'createTime': 1759017005, 'createTimeISO': '2025-09-27T23:50:05.000Z', 'text': 'Mas fácil conseguirlos en el yogo premio', 'diggCount': 38, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '6517042462509241359', 'uniqueId': 'milenar96', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/65a89a7d9be3781e3c799109d941b1d0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ce8c98ef&amp;x-expires=1760706000&amp;x-signature=3Psh2kzjiwH9mpR4iSrzDXavQhA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1151,18 +1151,18 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>nesecitoo la lista de los cuarenta muchis y nombrees</t>
+          <t>Una pregunta yo fui y lleve todas los logos de yogurt de vasito y me dijeron que esos no se ponían?</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>45929.73436342592</v>
+        <v>45940.24515046296</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>45929</v>
+        <v>45940</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>17:37:29</t>
+          <t>05:53:01</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555566632794702599', 'createTime': 1759167449, 'createTimeISO': '2025-09-29T17:37:29.000Z', 'text': 'nesecitoo la lista de los cuarenta muchis y nombrees', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7476832145886741524', 'uniqueId': 'eli491676', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/de51a904dddc57525965d4639f48e5d4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=529d76aa&amp;x-expires=1760619600&amp;x-signature=Bwf%2FNfTHwIZpo1hiyqJyjUfSSKY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559467019110204168', 'createTime': 1760075581, 'createTimeISO': '2025-10-10T05:53:01.000Z', 'text': 'Una pregunta yo fui y lleve todas los logos de yogurt de vasito y me dijeron que esos no se ponían?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7546710335559959559', 'uniqueId': 'alexandrapardocaj', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8cec9d771e97df3f8fa5b79f45eb0965~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9076c230&amp;x-expires=1760706000&amp;x-signature=EHdhanhabKVgzVVIBrd2nlwE9gI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1207,22 +1207,22 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Que pereza tan vuelta!! y aquí estamos en Colombia porque una tienda de otra parte que no tiene presencia en toda Colombia.</t>
+          <t>Alpina me mandan la caja Porfavor y les subo un video abriéndola</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>45927.66452546296</v>
+        <v>45931.93680555555</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>45927</v>
+        <v>45931</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>15:56:55</t>
+          <t>22:29:00</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554798543229666055', 'createTime': 1758988615, 'createTimeISO': '2025-09-27T15:56:55.000Z', 'text': 'Que pereza tan vuelta!! y aquí estamos en Colombia porque una tienda de otra parte que no tiene presencia en toda Colombia.', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7054390199678141445', 'uniqueId': 'monicakairos', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/00af4b97638212b23062f8a0c25de5cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3eb1a4c7&amp;x-expires=1760619600&amp;x-signature=fDSePp2rs0BHA5vgq3hGIilGHEo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556383835371717396', 'createTime': 1759357740, 'createTimeISO': '2025-10-01T22:29:00.000Z', 'text': 'Alpina me mandan la caja Porfavor y les subo un video abriéndola', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452119185666720773', 'uniqueId': 'juanjose192592', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4cd1c36ecc1e938a7fbeb49be5a0bb2d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b6ef87a7&amp;x-expires=1760706000&amp;x-signature=uZUjTY8Woh4E5yHoszJltqCCymI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1263,18 +1263,18 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Los Amooo pero Uyy un montón de cosas para el recambio!</t>
+          <t>nena voy mal con la paleta Drácula y ya me pides que complete la de Mochis 🤣🤣</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>45927.14011574074</v>
+        <v>45930.3165625</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>45927</v>
+        <v>45930</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>03:21:46</t>
+          <t>07:35:51</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554603916571640577', 'createTime': 1758943306, 'createTimeISO': '2025-09-27T03:21:46.000Z', 'text': 'Los Amooo pero Uyy un montón de cosas para el recambio!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7496003126047851521', 'uniqueId': 'caroprietog', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/193fc58d2631016bab3ea768e8d11296~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ba55ccfe&amp;x-expires=1760619600&amp;x-signature=vI%2BRCZZFHZwX8zDuYYCE7qD9rxU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555782650826031873', 'createTime': 1759217751, 'createTimeISO': '2025-09-30T07:35:51.000Z', 'text': 'nena voy mal con la paleta Drácula y ya me pides que complete la de Mochis 🤣🤣', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6944546725642798085', 'uniqueId': 'juanluna5778', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37c22dadb60b0803d8feaf140ff63274~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=264bdb6d&amp;x-expires=1760706000&amp;x-signature=o4xWFxqFP1Lo8klRTipUo%2BvhQ8E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1319,18 +1319,18 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>los originales plissss</t>
+          <t>en Montería no hay OXXO pero si un todo a 1000 hay los entran</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>45929.86050925926</v>
+        <v>45939.0350925926</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>45929</v>
+        <v>45939</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>20:39:08</t>
+          <t>00:50:32</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555613367218963217', 'createTime': 1759178348, 'createTimeISO': '2025-09-29T20:39:08.000Z', 'text': 'los originales plissss', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7394864626544559109', 'uniqueId': 'user67670860120347', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c0de0e4bb0938ad83a79077f7f67770d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fcf0593f&amp;x-expires=1760619600&amp;x-signature=4jbzzCwlVbifjPW2j6osJRc6sv4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559017957411767047', 'createTime': 1759971032, 'createTimeISO': '2025-10-09T00:50:32.000Z', 'text': 'en Montería no hay OXXO pero si un todo a 1000 hay los entran', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7547836898510832661', 'uniqueId': 'liss05695', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/72682b59d508342205ec99b1085f60fa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e15362b6&amp;x-expires=1760706000&amp;x-signature=Aipo%2BOjxlG1scPuq4lQeOF4xJLA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1375,25 +1375,25 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>pero están en todos los países ?</t>
+          <t>en Colombia no hay OXXO</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>45926.73320601852</v>
+        <v>45928.81866898148</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>17:35:49</t>
+          <t>19:38:53</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554452916247216913', 'createTime': 1758908149, 'createTimeISO': '2025-09-26T17:35:49.000Z', 'text': 'pero están en todos los países ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7531534159044887568', 'uniqueId': 'nicolevargas2545', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b5f68ad1a85740ea080fbebad18c2fbd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fa741d76&amp;x-expires=1760619600&amp;x-signature=46Fvyg%2F2esJieGafpx7ZBE3nV4Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555226815825003282', 'createTime': 1759088333, 'createTimeISO': '2025-09-28T19:38:53.000Z', 'text': 'en Colombia no hay OXXO', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 10, 'uid': '7239017294855767045', 'uniqueId': 'basspublicidadymediossas', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/27521fedb51ceea61f70eec021541ed1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=208171f0&amp;x-expires=1760706000&amp;x-signature=AWE1xEycrP6ojE6wR1QEZ0EpIks%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1431,22 +1431,22 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>en Montería no hay OXXO pero si un todo a 1000 hay los entran</t>
+          <t>Que pereza tan vuelta!! y aquí estamos en Colombia porque una tienda de otra parte que no tiene presencia en toda Colombia.</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>45939.0350925926</v>
+        <v>45927.66452546296</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>45939</v>
+        <v>45927</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>00:50:32</t>
+          <t>15:56:55</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559017957411767047', 'createTime': 1759971032, 'createTimeISO': '2025-10-09T00:50:32.000Z', 'text': 'en Montería no hay OXXO pero si un todo a 1000 hay los entran', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7547836898510832661', 'uniqueId': 'liss05695', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/72682b59d508342205ec99b1085f60fa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b3362ad2&amp;x-expires=1760619600&amp;x-signature=kNb9V8fvrFxgnHj2pTkyeb2snd8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554798543229666055', 'createTime': 1758988615, 'createTimeISO': '2025-09-27T15:56:55.000Z', 'text': 'Que pereza tan vuelta!! y aquí estamos en Colombia porque una tienda de otra parte que no tiene presencia en toda Colombia.', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7054390199678141445', 'uniqueId': 'monicakairos', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/00af4b97638212b23062f8a0c25de5cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8d64ad11&amp;x-expires=1760706000&amp;x-signature=gYSNE2tLYZFX5LBDNwbSxrgdK5g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1487,25 +1487,25 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>y si no hay en mi ciudad Oxxo?</t>
+          <t>los originales plissss</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>45926.70601851852</v>
+        <v>45929.86050925926</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>16:56:40</t>
+          <t>20:39:08</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554442837019116305', 'createTime': 1758905800, 'createTimeISO': '2025-09-26T16:56:40.000Z', 'text': 'y si no hay en mi ciudad Oxxo?', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7051817529568986117', 'uniqueId': 'mariana_priv.cs', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7255c70c6e94d569e6bdbbdf98f98049~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fd727aa2&amp;x-expires=1760619600&amp;x-signature=djSd9pPG21fgmu1LzrQV%2BueTvPk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555613367218963217', 'createTime': 1759178348, 'createTimeISO': '2025-09-29T20:39:08.000Z', 'text': 'los originales plissss', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7394864626544559109', 'uniqueId': 'user67670860120347', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c0de0e4bb0938ad83a79077f7f67770d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=070990b2&amp;x-expires=1760706000&amp;x-signature=EfsG%2BArVkkiegdAGNbcGIHvuH94%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1543,25 +1543,25 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Paso 1 compran un yogo yogo premio de tarrito y ya viene uno dentro.</t>
+          <t>y si no hay en mi ciudad Oxxo?</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>45932.67648148148</v>
+        <v>45926.70601851852</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>45932</v>
+        <v>45926</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>16:14:08</t>
+          <t>16:56:40</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556658397476963090', 'createTime': 1759421648, 'createTimeISO': '2025-10-02T16:14:08.000Z', 'text': 'Paso 1 compran un yogo yogo premio de tarrito y ya viene uno dentro.', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7070376833845543941', 'uniqueId': 'yohanrojas85', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0dc2488051a97fe07b1ff4157648948c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=74fdd8d5&amp;x-expires=1760619600&amp;x-signature=5vRdluKrTJs2xug2LFp1KqRdhjQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554442837019116305', 'createTime': 1758905800, 'createTimeISO': '2025-09-26T16:56:40.000Z', 'text': 'y si no hay en mi ciudad Oxxo?', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7051817529568986117', 'uniqueId': 'mariana_priv.cs', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7255c70c6e94d569e6bdbbdf98f98049~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=54fd44a2&amp;x-expires=1760706000&amp;x-signature=LPjkq6FWvs20Gu%2BnMwWUgcR8KzM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1599,22 +1599,22 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>nena voy mal con la paleta Drácula y ya me pides que complete la de Mochis 🤣🤣</t>
+          <t>Y si me los regala😁😁</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>45930.3165625</v>
+        <v>45926.80078703703</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>45930</v>
+        <v>45926</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>07:35:51</t>
+          <t>19:13:08</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555782650826031873', 'createTime': 1759217751, 'createTimeISO': '2025-09-30T07:35:51.000Z', 'text': 'nena voy mal con la paleta Drácula y ya me pides que complete la de Mochis 🤣🤣', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6944546725642798085', 'uniqueId': 'juanluna5778', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37c22dadb60b0803d8feaf140ff63274~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=77fe576d&amp;x-expires=1760619600&amp;x-signature=oc04DXNk4%2FjsfBHpCl4dxt8DHQI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554477929469657857', 'createTime': 1758913988, 'createTimeISO': '2025-09-26T19:13:08.000Z', 'text': 'Y si me los regala😁😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7530760724257014785', 'uniqueId': 'xxjackxx740', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4b28bb92c094d1d1a1940a8f813b2c07~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=58fc0d21&amp;x-expires=1760706000&amp;x-signature=ZoGsn5NlOugs4z0RXT25xNFFfls%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1655,18 +1655,18 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tanta cosa para uno</t>
+          <t>nesecitoo la lista de los cuarenta muchis y nombrees</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>45929.00190972222</v>
+        <v>45929.73436342592</v>
       </c>
       <c r="H22" s="3" t="n">
         <v>45929</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>00:02:45</t>
+          <t>17:37:29</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555294742864954119', 'createTime': 1759104165, 'createTimeISO': '2025-09-29T00:02:45.000Z', 'text': 'Tanta cosa para uno', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7243912158169465862', 'uniqueId': 'aguiilarpaolita', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/28050a045b8ba65347a8d82eb886b7be~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=61160427&amp;x-expires=1760619600&amp;x-signature=3s2CzClHdcTcIZRqbqmEbNDoXoc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555566632794702599', 'createTime': 1759167449, 'createTimeISO': '2025-09-29T17:37:29.000Z', 'text': 'nesecitoo la lista de los cuarenta muchis y nombrees', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7476832145886741524', 'uniqueId': 'eli491676', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/de51a904dddc57525965d4639f48e5d4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ab3ae7d3&amp;x-expires=1760706000&amp;x-signature=5KCAopUd1snGnMjEZB%2FtrBTv2sc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1711,22 +1711,22 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>pasa lo mismo que con los Mochis anteriores va uno a reclamar y que no hay</t>
+          <t>Los Amooo pero Uyy un montón de cosas para el recambio!</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>45926.8086574074</v>
+        <v>45927.14011574074</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>45926</v>
+        <v>45927</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>19:24:28</t>
+          <t>03:21:46</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554480920402084629', 'createTime': 1758914668, 'createTimeISO': '2025-09-26T19:24:28.000Z', 'text': 'pasa lo mismo que con los Mochis anteriores va uno a reclamar y que no hay', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7051306038071723013', 'uniqueId': '0604tn56mz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/fe694ef60fa664d93b3af32ef8266baf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d0f8cedf&amp;x-expires=1760619600&amp;x-signature=RAIlD%2B4TMgI2xVr4BaoQ5Mg7SOI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554603916571640577', 'createTime': 1758943306, 'createTimeISO': '2025-09-27T03:21:46.000Z', 'text': 'Los Amooo pero Uyy un montón de cosas para el recambio!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7496003126047851521', 'uniqueId': 'caroprietog', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/193fc58d2631016bab3ea768e8d11296~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=699382b2&amp;x-expires=1760706000&amp;x-signature=oW3FrNi0OBt8hut4jRM8hGmzL%2BM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1767,18 +1767,18 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Soy de Colombia y vivo alado de un oxxo!! Yeii qué bien 😭💓💓</t>
+          <t>Tanta cosa para uno</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>45928.69695601852</v>
+        <v>45929.00190972222</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>45928</v>
+        <v>45929</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>16:43:37</t>
+          <t>00:02:45</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555181660511683346', 'createTime': 1759077817, 'createTimeISO': '2025-09-28T16:43:37.000Z', 'text': 'Soy de Colombia y vivo alado de un oxxo!! Yeii qué bien 😭💓💓', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7468722166260876295', 'uniqueId': 'honey.mimi7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b82704ac6df483016e5b03a909c6379e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2f6d7b48&amp;x-expires=1760619600&amp;x-signature=kMP3CWMv%2BXHmjmG4P6l7ofZ1EJk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555294742864954119', 'createTime': 1759104165, 'createTimeISO': '2025-09-29T00:02:45.000Z', 'text': 'Tanta cosa para uno', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7243912158169465862', 'uniqueId': 'aguiilarpaolita', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/28050a045b8ba65347a8d82eb886b7be~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e35fb2e7&amp;x-expires=1760706000&amp;x-signature=%2FQ94b5I%2FfBjzFTpSz4iwFSgi9rM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1823,25 +1823,25 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ya we déjenlo pasar🥀</t>
+          <t>pero si ya corte los logos y no corte lo que dice mochisaurios y tampoco tengo el código??</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>45928.95833333334</v>
+        <v>45929.11127314815</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>45928</v>
+        <v>45929</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>23:00:00</t>
+          <t>02:40:14</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555278564566205204', 'createTime': 1759100400, 'createTimeISO': '2025-09-28T23:00:00.000Z', 'text': 'ya we déjenlo pasar🥀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7442938390251717687', 'uniqueId': 'solicituddeempleo0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/778e7bf52d21ffd041c8cf4f95bc31e4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=65bd0805&amp;x-expires=1760619600&amp;x-signature=e0An34XRXmZZjF%2FrpNSc6mNULe0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555335413934981895', 'createTime': 1759113614, 'createTimeISO': '2025-09-29T02:40:14.000Z', 'text': 'pero si ya corte los logos y no corte lo que dice mochisaurios y tampoco tengo el código??', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6887020420505109509', 'uniqueId': 'mari_a0131', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/52b610568365088bb8157c0e968fb5e0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=88dc93b9&amp;x-expires=1760706000&amp;x-signature=WMph%2F69d2Collx1jx%2B9%2FEQofNXI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1879,22 +1879,22 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mucha vaina pa eso</t>
+          <t>pasa lo mismo que con los Mochis anteriores va uno a reclamar y que no hay</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>45928.76012731482</v>
+        <v>45926.8086574074</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>45928</v>
+        <v>45926</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>18:14:35</t>
+          <t>19:24:28</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555205113074369287', 'createTime': 1759083275, 'createTimeISO': '2025-09-28T18:14:35.000Z', 'text': 'Mucha vaina pa eso', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6936408559421850630', 'uniqueId': 'drea._.00', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bcf053ea8caaedad5bd9faac784342b9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=367a5692&amp;x-expires=1760619600&amp;x-signature=fwF33MZmgOo43M%2FBiKQ%2BenYcRTg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554480920402084629', 'createTime': 1758914668, 'createTimeISO': '2025-09-26T19:24:28.000Z', 'text': 'pasa lo mismo que con los Mochis anteriores va uno a reclamar y que no hay', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7051306038071723013', 'uniqueId': '0604tn56mz', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/fe694ef60fa664d93b3af32ef8266baf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3ed013d3&amp;x-expires=1760706000&amp;x-signature=aORbmUGid%2FT2zMY%2FrNF4QqD%2FaUs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1935,25 +1935,25 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>es mejor la paleta Drácula</t>
+          <t>en Colombia no hay OXXO y venden los yogo premio muy caros ):</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>45929.09761574074</v>
+        <v>45941.73184027777</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>45929</v>
+        <v>45941</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>02:20:34</t>
+          <t>17:33:51</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555330316220629781', 'createTime': 1759112434, 'createTimeISO': '2025-09-29T02:20:34.000Z', 'text': 'es mejor la paleta Drácula', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7470243338898408456', 'uniqueId': 'schneidermurchz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e38e7ec35870b748223e8cb22c6d237a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a00cacf9&amp;x-expires=1760619600&amp;x-signature=PANpEqFbA7g0FPKTfFY9GHwArUs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7560018722665284360', 'createTime': 1760204031, 'createTimeISO': '2025-10-11T17:33:51.000Z', 'text': 'en Colombia no hay OXXO y venden los yogo premio muy caros ):', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7517389511912424455', 'uniqueId': 'tokito_team_black', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/afa29d1e92a17252e840cfdca3edbe82~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e4f8c571&amp;x-expires=1760706000&amp;x-signature=3sclgFPbS44ZZxG1OtLUB7ubfDE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1991,25 +1991,25 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>en Colombia no hay OXXO y venden los yogo premio muy caros ):</t>
+          <t>es mejor la paleta Drácula</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>45941.73184027777</v>
+        <v>45929.09761574074</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>45941</v>
+        <v>45929</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>17:33:51</t>
+          <t>02:20:34</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7560018722665284360', 'createTime': 1760204031, 'createTimeISO': '2025-10-11T17:33:51.000Z', 'text': 'en Colombia no hay OXXO y venden los yogo premio muy caros ):', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7517389511912424455', 'uniqueId': 'tokito_team_black', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/afa29d1e92a17252e840cfdca3edbe82~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b827bf04&amp;x-expires=1760619600&amp;x-signature=w%2B8B6RKdulJJsuyVzZ6jIw6DIhg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555330316220629781', 'createTime': 1759112434, 'createTimeISO': '2025-09-29T02:20:34.000Z', 'text': 'es mejor la paleta Drácula', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7470243338898408456', 'uniqueId': 'schneidermurchz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e38e7ec35870b748223e8cb22c6d237a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3d2e80d2&amp;x-expires=1760706000&amp;x-signature=BOIggksEvobSPvWUeDWNXDnmXpU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2047,18 +2047,18 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>de cuánto se pueden reclamar</t>
+          <t>Mucha vaina pa eso</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>45927.0343287037</v>
+        <v>45928.76012731482</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>45927</v>
+        <v>45928</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>00:49:26</t>
+          <t>18:14:35</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554564660893696776', 'createTime': 1758934166, 'createTimeISO': '2025-09-27T00:49:26.000Z', 'text': 'de cuánto se pueden reclamar', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7197504067588178949', 'uniqueId': 'angelina.rodrguez432', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7309230945578516485~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ee59d39a&amp;x-expires=1760619600&amp;x-signature=%2Fo8nNsfV7ULP2NA9Y398O0%2F4rTY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555205113074369287', 'createTime': 1759083275, 'createTimeISO': '2025-09-28T18:14:35.000Z', 'text': 'Mucha vaina pa eso', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6936408559421850630', 'uniqueId': 'drea._.00', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bcf053ea8caaedad5bd9faac784342b9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2759b236&amp;x-expires=1760706000&amp;x-signature=%2FWlWzg43R%2BeUMYsI3wQzbpVrlsc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2103,25 +2103,25 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>he ido al los OXXO que aparecen y nunca los dan dicen que no tiene idea de que se trata</t>
+          <t>ya we déjenlo pasar🥀</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>45934.87288194444</v>
+        <v>45928.95833333334</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>45934</v>
+        <v>45928</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>20:56:57</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="J30" t="n">
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7557473388605375233', 'createTime': 1759611417, 'createTimeISO': '2025-10-04T20:56:57.000Z', 'text': 'he ido al los OXXO que aparecen y nunca los dan dicen que no tiene idea de que se trata', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7216783190328181765', 'uniqueId': 'leocambell10', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6010b651447b2c3934e2d7ede50948f0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b0ead81c&amp;x-expires=1760619600&amp;x-signature=24KqBsXeOTBYzFcvQ27VPIpkFf4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555278564566205204', 'createTime': 1759100400, 'createTimeISO': '2025-09-28T23:00:00.000Z', 'text': 'ya we déjenlo pasar🥀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7442938390251717687', 'uniqueId': 'solicituddeempleo0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/778e7bf52d21ffd041c8cf4f95bc31e4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7590af42&amp;x-expires=1760706000&amp;x-signature=LeiBuLvTtqZ6lxEVyc69YLVzJaA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2159,25 +2159,26 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>todos los lugares no tiene esa tienda entonces para que hacen eso</t>
+          <t>me encantan estos mochis pero quisiera saber el nombre de 5
+los muñequitos 🥰</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>45929.98554398148</v>
+        <v>45932.51024305556</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>45929</v>
+        <v>45932</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>23:39:11</t>
+          <t>12:14:45</t>
         </is>
       </c>
       <c r="J31" t="n">
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -2189,7 +2190,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555659801544475400', 'createTime': 1759189151, 'createTimeISO': '2025-09-29T23:39:11.000Z', 'text': 'todos los lugares no tiene esa tienda entonces para que hacen eso', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6817635812092937221', 'uniqueId': 'd.a.n.y.y.20', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/2de29fc766d1e8cb0e09c7aa6f907237~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8587adca&amp;x-expires=1760619600&amp;x-signature=Jf94b0NnIZ0VUVPeGUu0wNIt72Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556596683191681808', 'createTime': 1759407285, 'createTimeISO': '2025-10-02T12:14:45.000Z', 'text': 'me encantan estos mochis pero quisiera saber el nombre de 5\nlos muñequitos 🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '6958943464231011333', 'uniqueId': 'jsa_4567', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/68932c07b5db5c7e5aba191de5535be2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3be1cf23&amp;x-expires=1760706000&amp;x-signature=0eZu35sxqUUdt1iwY8uFUuxEX%2Bw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2215,26 +2216,25 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>me encantan estos mochis pero quisiera saber el nombre de 5
-los muñequitos 🥰</t>
+          <t>Que yo sepa que en Colombia no ay oxoxo</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>45932.51024305556</v>
+        <v>45935.77436342592</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>45932</v>
+        <v>45935</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>12:14:45</t>
+          <t>18:35:05</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556596683191681808', 'createTime': 1759407285, 'createTimeISO': '2025-10-02T12:14:45.000Z', 'text': 'me encantan estos mochis pero quisiera saber el nombre de 5\nlos muñequitos 🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '6958943464231011333', 'uniqueId': 'jsa_4567', 'avatarThumbnail': 'https://p77-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/68932c07b5db5c7e5aba191de5535be2~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=f465fd1e&amp;x-expires=1760619600&amp;x-signature=etInJAJZp6%2F%2F2rm0URs%2BTToPxdg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7557807940859937554', 'createTime': 1759689305, 'createTimeISO': '2025-10-05T18:35:05.000Z', 'text': 'Que yo sepa que en Colombia no ay oxoxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7543462359529440276', 'uniqueId': 'annie.carolina7', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/d2456170bcdac850e36cf4089df9b648~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=2837b2eb&amp;x-expires=1760706000&amp;x-signature=mxozwRf7%2BrpMcwtFF%2BRuextWwG4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2272,22 +2272,22 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Que yo sepa que en Colombia no ay oxoxo</t>
+          <t>he ido al los OXXO que aparecen y nunca los dan dicen que no tiene idea de que se trata</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>45935.77436342592</v>
+        <v>45934.87288194444</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>45935</v>
+        <v>45934</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>18:35:05</t>
+          <t>20:56:57</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7557807940859937554', 'createTime': 1759689305, 'createTimeISO': '2025-10-05T18:35:05.000Z', 'text': 'Que yo sepa que en Colombia no ay oxoxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7543462359529440276', 'uniqueId': 'annie.carolina7', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/d2456170bcdac850e36cf4089df9b648~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ed5c0cb1&amp;x-expires=1760619600&amp;x-signature=ouVG3d%2Bufr0GGoAmeWdbW9Xm0iE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7557473388605375233', 'createTime': 1759611417, 'createTimeISO': '2025-10-04T20:56:57.000Z', 'text': 'he ido al los OXXO que aparecen y nunca los dan dicen que no tiene idea de que se trata', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7216783190328181765', 'uniqueId': 'leocambell10', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/6010b651447b2c3934e2d7ede50948f0~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=577f8377&amp;x-expires=1760706000&amp;x-signature=c8SllkIezP%2FQAG5SvDenklsXcQ8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2328,25 +2328,25 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>yo ya tengo uno MUEJEJEJEJJE</t>
+          <t>a poco hay OXXO en colombia</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>45943.88428240741</v>
+        <v>45937.70814814815</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>45943</v>
+        <v>45937</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>21:13:22</t>
+          <t>16:59:44</t>
         </is>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7560817334177645328', 'createTime': 1760390002, 'createTimeISO': '2025-10-13T21:13:22.000Z', 'text': 'yo ya tengo uno MUEJEJEJEJJE', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7531534159044887568', 'uniqueId': 'nicolevargas2545', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/b5f68ad1a85740ea080fbebad18c2fbd~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=77ddfe70&amp;x-expires=1760619600&amp;x-signature=P%2FrabsgEQvpMRxgyPGJ8rcpw1qo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7558525593814467336', 'createTime': 1759856384, 'createTimeISO': '2025-10-07T16:59:44.000Z', 'text': 'a poco hay OXXO en colombia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7300666454697362438', 'uniqueId': 'cristiancardona16', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/1169cb00c9709b98aa7a2c6299d6372c~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=09f137a0&amp;x-expires=1760706000&amp;x-signature=rpka%2FXVQRTrDUGyPFMqwojHOlTE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2384,18 +2384,18 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>a poco hay OXXO en colombia</t>
+          <t>en todas las tiendas</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>45937.70814814815</v>
+        <v>45929.71753472222</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>45937</v>
+        <v>45929</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>16:59:44</t>
+          <t>17:13:15</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7558525593814467336', 'createTime': 1759856384, 'createTimeISO': '2025-10-07T16:59:44.000Z', 'text': 'a poco hay OXXO en colombia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7300666454697362438', 'uniqueId': 'cristiancardona16', 'avatarThumbnail': 'https://p77-sign-va.tiktokcdn.com/tos-maliva-avt-0068/1169cb00c9709b98aa7a2c6299d6372c~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=3f03b978&amp;x-expires=1760619600&amp;x-signature=2NOhy3LHNjwrquQ4h1B1dAcG6HM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555560366673462037', 'createTime': 1759165995, 'createTimeISO': '2025-09-29T17:13:15.000Z', 'text': 'en todas las tiendas', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7285382001250141189', 'uniqueId': 'rosycastellanos86', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7321737955369582597~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=0f9a0306&amp;x-expires=1760706000&amp;x-signature=xUapQ3cmwOFH6EElZ0BfudPwoKA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554491584386548498', 'createTime': 1758917152, 'createTimeISO': '2025-09-26T20:05:52.000Z', 'text': 'pero en mi ciudad no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7260695820469830662', 'uniqueId': 'sara.belen10', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/3d27eeec13984e1bfdd89a0226103589~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=618a330d&amp;x-expires=1760619600&amp;x-signature=CGM7EpncQE8tdcX8k7vHJTYK8pk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554491584386548498', 'createTime': 1758917152, 'createTimeISO': '2025-09-26T20:05:52.000Z', 'text': 'pero en mi ciudad no hay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7260695820469830662', 'uniqueId': 'sara.belen10', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/3d27eeec13984e1bfdd89a0226103589~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=13273d15&amp;x-expires=1760706000&amp;x-signature=MUifUeiQDAPUA6p%2B%2BEfDbV8XO%2FA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2496,18 +2496,18 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>en todas las tiendas</t>
+          <t>Y si en Neiva no hay Oxxo 😐</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>45929.71753472222</v>
+        <v>45927.88842592593</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>45929</v>
+        <v>45927</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>17:13:15</t>
+          <t>21:19:20</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555560366673462037', 'createTime': 1759165995, 'createTimeISO': '2025-09-29T17:13:15.000Z', 'text': 'en todas las tiendas', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7285382001250141189', 'uniqueId': 'rosycastellanos86', 'avatarThumbnail': 'https://p77-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7321737955369582597~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=14c7b6c5&amp;x-expires=1760619600&amp;x-signature=52lATCW8RPxyXtyejSevw8D6hJ0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554881592553718535', 'createTime': 1759007960, 'createTimeISO': '2025-09-27T21:19:20.000Z', 'text': 'Y si en Neiva no hay Oxxo 😐', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7525546550606758919', 'uniqueId': 'julianavanegas312', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7bbf565d8eb052ba174287777f6a6684~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=cedd69f8&amp;x-expires=1760706000&amp;x-signature=whEhu4flcD29Vu5PsAE1o%2Fe5TOE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2552,25 +2552,25 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ya tengo 8</t>
+          <t>oiga mano lastima que todavía no salen los mochisaurios en los yogopremios</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>45942.84155092593</v>
+        <v>45930.30774305556</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>45942</v>
+        <v>45930</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>20:11:50</t>
+          <t>07:23:09</t>
         </is>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -2582,7 +2582,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7560430479338930962', 'createTime': 1760299910, 'createTimeISO': '2025-10-12T20:11:50.000Z', 'text': 'Ya tengo 8', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7420101536925713413', 'uniqueId': 'creeper_705', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/b2e2db3ec04397fe9ef4b7153c635707~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=001c5b95&amp;x-expires=1760619600&amp;x-signature=BLDxEMcFlFlvLhae9zavoaVuKbU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555779391944016647', 'createTime': 1759216989, 'createTimeISO': '2025-09-30T07:23:09.000Z', 'text': 'oiga mano lastima que todavía no salen los mochisaurios en los yogopremios', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7112525176407737350', 'uniqueId': 'esteban_castillo.220', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/8331a286f4c2f1e0d41f74df6a541951~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=3197438d&amp;x-expires=1760706000&amp;x-signature=w%2Fo6d2iVE9xd2YWM8IKLwQCyDrY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2608,18 +2608,18 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Y si en Neiva no hay Oxxo 😐</t>
+          <t>no hay en Neiva 😓</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>45927.88842592593</v>
+        <v>45929.74864583334</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>45927</v>
+        <v>45929</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>21:19:20</t>
+          <t>17:58:03</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554881592553718535', 'createTime': 1759007960, 'createTimeISO': '2025-09-27T21:19:20.000Z', 'text': 'Y si en Neiva no hay Oxxo 😐', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7525546550606758919', 'uniqueId': 'julianavanegas312', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7bbf565d8eb052ba174287777f6a6684~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=35321f4b&amp;x-expires=1760619600&amp;x-signature=w72eyw74AU%2FR3tbHfKoaEL4Za94%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555571926753313544', 'createTime': 1759168683, 'createTimeISO': '2025-09-29T17:58:03.000Z', 'text': 'no hay en Neiva 😓', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7182010915348857861', 'uniqueId': 'jerzxz1', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7fda5e90141d8eb3debf58517b07cfb3~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=b3827c0a&amp;x-expires=1760706000&amp;x-signature=bRhZVRAuZWnfePBVywURSRsvmy4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2664,25 +2664,25 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>no me salió el mochi en el yogurt</t>
+          <t>Aquí en Cartagena no ha Oxxos 🥺🥺🥺</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>45944.93458333334</v>
+        <v>45927.68152777778</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>45944</v>
+        <v>45927</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>22:25:48</t>
+          <t>16:21:24</t>
         </is>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7561207129513509650', 'createTime': 1760480748, 'createTimeISO': '2025-10-14T22:25:48.000Z', 'text': 'no me salió el mochi en el yogurt', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7446973923780641797', 'uniqueId': 'storytime_de_terror18', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/3bf4c3dd2c2cd49f7beb82132f8bf73a~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=5cb60514&amp;x-expires=1760619600&amp;x-signature=0cW8eNhVeoNhBVieOzCMYBl8zcw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554804848962847506', 'createTime': 1758990084, 'createTimeISO': '2025-09-27T16:21:24.000Z', 'text': 'Aquí en Cartagena no ha Oxxos 🥺🥺🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6737168611750626309', 'uniqueId': 'idangeral', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/3efcd03d865b92dfa9ffd78e82854da1~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=adf0949a&amp;x-expires=1760706000&amp;x-signature=Z4%2BTfak81sI3E8DM%2B8x22qxmvJQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2720,25 +2720,25 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Aquí en Cartagena no ha Oxxos 🥺🥺🥺</t>
+          <t>saquen ya otra colección 😕</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>45927.68152777778</v>
+        <v>45926.96346064815</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>45927</v>
+        <v>45926</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>16:21:24</t>
+          <t>23:07:23</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554804848962847506', 'createTime': 1758990084, 'createTimeISO': '2025-09-27T16:21:24.000Z', 'text': 'Aquí en Cartagena no ha Oxxos 🥺🥺🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6737168611750626309', 'uniqueId': 'idangeral', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/3efcd03d865b92dfa9ffd78e82854da1~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=89f6ef23&amp;x-expires=1760619600&amp;x-signature=pg7opzAPgGM0aX6RUIE3kMDY2HE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554538366990189319', 'createTime': 1758928043, 'createTimeISO': '2025-09-26T23:07:23.000Z', 'text': 'saquen ya otra colección 😕', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 6, 'uid': '7430556660474758150', 'uniqueId': 'esobrad_1', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/496be0dadae6d46720222260f6036998~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=738be560&amp;x-expires=1760706000&amp;x-signature=k7LKWQH4LPAKHdFAQsjOWFleiM0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2776,25 +2776,25 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>oiga mano lastima que todavía no salen los mochisaurios en los yogopremios</t>
+          <t>y si ya corte los logos y no dice mochi saurios y ya vote el empaque con el qr</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>45930.30774305556</v>
+        <v>45927.05542824074</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>45930</v>
+        <v>45927</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>07:23:09</t>
+          <t>01:19:49</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555779391944016647', 'createTime': 1759216989, 'createTimeISO': '2025-09-30T07:23:09.000Z', 'text': 'oiga mano lastima que todavía no salen los mochisaurios en los yogopremios', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7112525176407737350', 'uniqueId': 'esteban_castillo.220', 'avatarThumbnail': 'https://p77-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/8331a286f4c2f1e0d41f74df6a541951~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=30f54cae&amp;x-expires=1760619600&amp;x-signature=%2Fdcuv1pf1SCqHDYVzuGGdhcZfuk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554572506653803272', 'createTime': 1758935989, 'createTimeISO': '2025-09-27T01:19:49.000Z', 'text': 'y si ya corte los logos y no dice mochi saurios y ya vote el empaque con el qr', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6887020420505109509', 'uniqueId': 'mari_a0131', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/52b610568365088bb8157c0e968fb5e0~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=e2c6505b&amp;x-expires=1760706000&amp;x-signature=F%2BfKCMqqw6kyCSry5suP4uG4xHY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2832,22 +2832,22 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>A QUIEN SIGOOOO❓ TEAM NEGRO[wicked]</t>
+          <t>Paso 1 compran un yogo yogo premio de tarrito y ya viene uno dentro.</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>45934.12070601852</v>
+        <v>45932.67648148148</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>45934</v>
+        <v>45932</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>02:53:49</t>
+          <t>16:14:08</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7557194342633718546', 'createTime': 1759546429, 'createTimeISO': '2025-10-04T02:53:49.000Z', 'text': '𝘼 𝙌𝙐𝙄𝙀𝙉 𝙎𝙄𝙂𝙊𝙊𝙊𝙊❓ TEAM NEGRO[wicked]', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7428462608468853765', 'uniqueId': 'freestyle11.4', 'avatarThumbnail': 'https://p77-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/d77e4d9d34078046d77184cafe9499c3~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6445304e&amp;x-expires=1760619600&amp;x-signature=aUuY9DcmD03bSU2UvHnAoDdfr24%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556658397476963090', 'createTime': 1759421648, 'createTimeISO': '2025-10-02T16:14:08.000Z', 'text': 'Paso 1 compran un yogo yogo premio de tarrito y ya viene uno dentro.', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7070376833845543941', 'uniqueId': 'yohanrojas85', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/0dc2488051a97fe07b1ff4157648948c~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=e32598aa&amp;x-expires=1760706000&amp;x-signature=%2FKP1MyTEw2A3Zyezf2uTPGE4l4E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2888,22 +2888,22 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Pensé que crecían en el agua 😁😂</t>
+          <t>yo lo consigo en una papelera sin comprar el yogur</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>45945.00143518519</v>
+        <v>45930.02420138889</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>45945</v>
+        <v>45930</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>00:02:04</t>
+          <t>00:34:51</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7561231968739656466', 'createTime': 1760486524, 'createTimeISO': '2025-10-15T00:02:04.000Z', 'text': 'Pensé que crecían en el agua 😁😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7095002096173368325', 'uniqueId': 'camiloserna.8173', 'avatarThumbnail': 'https://p77-sign-va.tiktokcdn.com/tos-maliva-avt-0068/4f82b1d4beaab8b506d3f312e534a68f~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=0f78718a&amp;x-expires=1760619600&amp;x-signature=k0DDjoBao6HdCHi0EbWmWr5AECE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555674134270001927', 'createTime': 1759192491, 'createTimeISO': '2025-09-30T00:34:51.000Z', 'text': 'yo lo consigo en una papelera sin comprar el yogur', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7384092541786014725', 'uniqueId': 'estrellita_alien', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/e38c298456b8a03417d891b1539c5b57~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=61e11de1&amp;x-expires=1760706000&amp;x-signature=yZut%2FGpuVxImiTYkXyeYQbFu%2FX0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2944,22 +2944,22 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>no hay en Neiva 😓</t>
+          <t>todos los lugares no tiene esa tienda entonces para que hacen eso</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>45929.74864583334</v>
+        <v>45929.98554398148</v>
       </c>
       <c r="H45" s="3" t="n">
         <v>45929</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>17:58:03</t>
+          <t>23:39:11</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
         <v>1</v>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555571926753313544', 'createTime': 1759168683, 'createTimeISO': '2025-09-29T17:58:03.000Z', 'text': 'no hay en Neiva 😓', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7182010915348857861', 'uniqueId': 'jerzxz1', 'avatarThumbnail': 'https://p77-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7fda5e90141d8eb3debf58517b07cfb3~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=1913fef9&amp;x-expires=1760619600&amp;x-signature=W8EkiAcgcoL3zZpkzfC2WKHeJfo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555659801544475400', 'createTime': 1759189151, 'createTimeISO': '2025-09-29T23:39:11.000Z', 'text': 'todos los lugares no tiene esa tienda entonces para que hacen eso', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6817635812092937221', 'uniqueId': 'd.a.n.y.y.20', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/2de29fc766d1e8cb0e09c7aa6f907237~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=736b488d&amp;x-expires=1760706000&amp;x-signature=O9Z2bZxCMIo5xKiPaSPPIGurCK4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3000,22 +3000,22 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>en colombia no ay oxxo</t>
+          <t>de cuánto se pueden reclamar</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>45941.11943287037</v>
+        <v>45927.0343287037</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>45941</v>
+        <v>45927</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>02:51:59</t>
+          <t>00:49:26</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559791437481788178', 'createTime': 1760151119, 'createTimeISO': '2025-10-11T02:51:59.000Z', 'text': 'en colombia no ay oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7478455047338214418', 'uniqueId': 'xddelosxd', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/c20bfec948f7f0b66cab624ba8ed05e8~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6f5855fc&amp;x-expires=1760619600&amp;x-signature=gLZIHwQiqJjv2RD%2BUKE%2FTcNaTgw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554564660893696776', 'createTime': 1758934166, 'createTimeISO': '2025-09-27T00:49:26.000Z', 'text': 'de cuánto se pueden reclamar', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7197504067588178949', 'uniqueId': 'angelina.rodrguez432', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7309230945578516485~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8a6d62f2&amp;x-expires=1760706000&amp;x-signature=TlVvZ1Jy%2BTWO5BSYUwsJ0RZTOZE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3056,22 +3056,22 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>18,4</t>
+          <t>y si tengo repetidos no me los cambian 😂😂</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>45942.79722222222</v>
+        <v>45926.88744212963</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>45942</v>
+        <v>45926</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>19:08:00</t>
+          <t>21:17:55</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7560414054448366354', 'createTime': 1760296080, 'createTimeISO': '2025-10-12T19:08:00.000Z', 'text': '18,4', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7381118081303659525', 'uniqueId': 'jose.augusto.palo3', 'avatarThumbnail': 'https://p77-sign-va.tiktokcdn.com/tos-maliva-avt-0068/69ab084a6c804d04957ca1b46da752e7~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c4deac63&amp;x-expires=1760619600&amp;x-signature=tBjBOiPBcsdiaUQLgI0V1R3xtwQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554510104642650896', 'createTime': 1758921475, 'createTimeISO': '2025-09-26T21:17:55.000Z', 'text': 'y si tengo repetidos no me los cambian 😂😂', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6835450069409514502', 'uniqueId': 'ailatanollirum', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/474f3a22808ad684a516e4b07cab2a37~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a161a853&amp;x-expires=1760706000&amp;x-signature=0O%2FIWefu%2BOQg6L1iedp56Nr117I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3112,22 +3112,22 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>En cucuta no hay</t>
+          <t>tengo un montón de Mochis de la primera colección, valdrá mucho?</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45938.6677662037</v>
+        <v>45926.67013888889</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>45938</v>
+        <v>45926</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>16:01:35</t>
+          <t>16:05:00</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7558881690249396999', 'createTime': 1759939295, 'createTimeISO': '2025-10-08T16:01:35.000Z', 'text': 'En cucuta no hay', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7209509026618950662', 'uniqueId': 'user924075672', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/dc5cae3865198f457d7af8926610de21~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=2ff94603&amp;x-expires=1760619600&amp;x-signature=B%2BkGgPblEe44%2BSKF%2Bt4wZEef5oQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my2', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554429537663386376', 'createTime': 1758902700, 'createTimeISO': '2025-09-26T16:05:00.000Z', 'text': 'tengo un montón de Mochis de la primera colección, valdrá mucho?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7116292147141166086', 'uniqueId': 'just_fenix67', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9270efdc513746d459737e05d9dccbee~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1d0acc87&amp;x-expires=1760706000&amp;x-signature=CKgwqpCAQsonjErOKG83u5s43nA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3168,25 +3168,25 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>saquen ya otra colección 😕</t>
+          <t>y si estoy en Colombia</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>45926.96346064815</v>
+        <v>45930.03666666667</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>23:07:23</t>
+          <t>00:52:48</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554538366990189319', 'createTime': 1758928043, 'createTimeISO': '2025-09-26T23:07:23.000Z', 'text': 'saquen ya otra colección 😕', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 6, 'uid': '7430556660474758150', 'uniqueId': 'esobrad_1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/496be0dadae6d46720222260f6036998~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4de75e78&amp;x-expires=1760619600&amp;x-signature=m%2Ffa9GB1DhFhrAOslsYL0%2BBUM4U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555678757781422856', 'createTime': 1759193568, 'createTimeISO': '2025-09-30T00:52:48.000Z', 'text': 'y si estoy en Colombia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7511370345698526228', 'uniqueId': 'eslendy121', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/12ff77457a3980c682406f9a561bcfdc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c7e83193&amp;x-expires=1760706000&amp;x-signature=t3zv1iRVX6tkbLv8bOGoEKzaV1Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3224,22 +3224,22 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>y si tengo repetidos no me los cambian 😂😂</t>
+          <t>Clarion esq en todos los países hay OXXO 🌚🌝</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>45926.88744212963</v>
+        <v>45932.87021990741</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>45926</v>
+        <v>45932</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>21:17:55</t>
+          <t>20:53:07</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554510104642650896', 'createTime': 1758921475, 'createTimeISO': '2025-09-26T21:17:55.000Z', 'text': 'y si tengo repetidos no me los cambian 😂😂', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6835450069409514502', 'uniqueId': 'ailatanollirum', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/474f3a22808ad684a516e4b07cab2a37~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5bd3d40b&amp;x-expires=1760619600&amp;x-signature=gFmEFs4NEyN8TRgN7fRFkyCTtHs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556730178652275472', 'createTime': 1759438387, 'createTimeISO': '2025-10-02T20:53:07.000Z', 'text': 'Clarion esq en todos los países hay OXXO 🌚🌝', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7396657590753100805', 'uniqueId': 'ariadnna.muoz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/138aaaeac5d895385a10e6f626201c42~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0fd26257&amp;x-expires=1760706000&amp;x-signature=TlBTbOAajFVXgSYwZc2rw%2FTvqBg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3280,22 +3280,22 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>tengo un montón de Mochis de la primera colección, valdrá mucho?</t>
+          <t>do</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>45926.67013888889</v>
+        <v>45936.66792824074</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>45926</v>
+        <v>45936</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>16:05:00</t>
+          <t>16:01:49</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554429537663386376', 'createTime': 1758902700, 'createTimeISO': '2025-09-26T16:05:00.000Z', 'text': 'tengo un montón de Mochis de la primera colección, valdrá mucho?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7116292147141166086', 'uniqueId': 'just_fenix67', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9270efdc513746d459737e05d9dccbee~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3ad418fa&amp;x-expires=1760619600&amp;x-signature=I3FASPimihdwxr84fHBdxfdmMzs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7558139554667299585', 'createTime': 1759766509, 'createTimeISO': '2025-10-06T16:01:49.000Z', 'text': 'do', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7347759303850460166', 'uniqueId': 'daniel.medina9402', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d827ef96dbb9538e76ca4c0a1031de75~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ccbd60ac&amp;x-expires=1760706000&amp;x-signature=fzEdCeqOBrG0NvLjRdLPAmmSb8o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3336,22 +3336,22 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>y si ya corte los logos y no dice mochi saurios y ya vote el empaque con el qr</t>
+          <t>Ami me salió un unicornio en uno</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>45927.05542824074</v>
+        <v>45932.92136574074</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>45927</v>
+        <v>45932</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>01:19:49</t>
+          <t>22:06:46</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554572506653803272', 'createTime': 1758935989, 'createTimeISO': '2025-09-27T01:19:49.000Z', 'text': 'y si ya corte los logos y no dice mochi saurios y ya vote el empaque con el qr', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6887020420505109509', 'uniqueId': 'mari_a0131', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/52b610568365088bb8157c0e968fb5e0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e0711180&amp;x-expires=1760619600&amp;x-signature=NeeBDtvo2RrlmPS7IYZg6k42kgc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556749197270991637', 'createTime': 1759442806, 'createTimeISO': '2025-10-02T22:06:46.000Z', 'text': 'Ami me salió un unicornio en uno', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7316406165842740230', 'uniqueId': 'michirobloxfnafcolombia', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/811b5143a6b4c89721b77c47d0f3a4cf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d1b262d4&amp;x-expires=1760706000&amp;x-signature=f%2F%2BZJOijd%2F1vmfKUQJtpfiKdC7E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3392,2598 +3392,2598 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
+          <t>ya los tengo</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>45930.06351851852</v>
+      </c>
+      <c r="H53" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>01:31:28</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555688754276303624', 'createTime': 1759195888, 'createTimeISO': '2025-09-30T01:31:28.000Z', 'text': 'ya los tengo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7506596631263200262', 'uniqueId': 'mi.princesa.divin', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c158a0051a2d172e45e96e5273f348d8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a6d9f782&amp;x-expires=1760706000&amp;x-signature=73Rp4vXbcvs6Djvf1ggKrlHytcc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>ya no es lo mismo</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>45940.20726851852</v>
+      </c>
+      <c r="H54" s="3" t="n">
+        <v>45940</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>04:58:28</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559452964297917200', 'createTime': 1760072308, 'createTimeISO': '2025-10-10T04:58:28.000Z', 'text': 'ya no es lo mismo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7440309516846367800', 'uniqueId': 'user3866547831001', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c5d23423bddcf59c497bd0d1bdeea6ad~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bd536088&amp;x-expires=1760706000&amp;x-signature=gq3%2BhYzMF7xPI%2FfrIeW5lBb8tus%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Yo tengo el Oxxo a la esquina</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>45929.82648148148</v>
+      </c>
+      <c r="H55" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>19:50:08</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555600732201698064', 'createTime': 1759175408, 'createTimeISO': '2025-09-29T19:50:08.000Z', 'text': 'Yo tengo el Oxxo a la esquina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6998604116167656453', 'uniqueId': 'estrellita_7291', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1f013694362e5b7acf25ef66d2a1224c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8c4df936&amp;x-expires=1760706000&amp;x-signature=2hSDwl5WuRqx2AOfDL6nbnVCzKg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>el otro año mochisauros q iluminan
+te dio hambre yogo yogo [sticker]</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>45929.99068287037</v>
+      </c>
+      <c r="H56" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>23:46:35</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555661675728044807', 'createTime': 1759189595, 'createTimeISO': '2025-09-29T23:46:35.000Z', 'text': 'el otro año mochisauros q iluminan\nte dio hambre yogo yogo [sticker]', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7229492920381899781', 'uniqueId': 'ortiz.1400', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/de36f59531a8946d7c3c30cab3c29c87~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=753ad90c&amp;x-expires=1760706000&amp;x-signature=NErrV2Wuq%2BzEd821UyHDiZpuL7k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>45928.80891203704</v>
+      </c>
+      <c r="H57" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>19:24:50</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555223199790154503', 'createTime': 1759087490, 'createTimeISO': '2025-09-28T19:24:50.000Z', 'text': 'ok', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6987105799349847046', 'uniqueId': 'dahyun_mi_esposa033', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/32239f5bfd81917c1c3c1f2e41ae1e8c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4d44462d&amp;x-expires=1760706000&amp;x-signature=V%2FA76edg5CufoO5%2BC6oS3j74hbo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Los quieroooooo</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>45929.49574074074</v>
+      </c>
+      <c r="H58" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>11:53:52</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555478087270515477', 'createTime': 1759146832, 'createTimeISO': '2025-09-29T11:53:52.000Z', 'text': 'Los quieroooooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6886209614263403522', 'uniqueId': 'mariajose.jr0214', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/fa89b236738521d8d51d425df266db3b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=016a1585&amp;x-expires=1760706000&amp;x-signature=zadbvB9cpIHIcb0EwYeZGA%2BCytc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Yo fuy a el oxxo y no estan</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>45934.72116898148</v>
+      </c>
+      <c r="H59" s="3" t="n">
+        <v>45934</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>17:18:29</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7557417149880009473', 'createTime': 1759598309, 'createTimeISO': '2025-10-04T17:18:29.000Z', 'text': 'Yo fuy a el oxxo y no estan', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7532264434975917077', 'uniqueId': 'user1610966192755', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=678f0c15&amp;x-expires=1760706000&amp;x-signature=XeD3biovpRyDHLmRXLFbZpWoZQI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>en mi ciudad no hay OXXO 😭😭😭😭😭😭</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>45931.94755787037</v>
+      </c>
+      <c r="H60" s="3" t="n">
+        <v>45931</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>22:44:29</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556387852227035922', 'createTime': 1759358669, 'createTimeISO': '2025-10-01T22:44:29.000Z', 'text': 'en mi ciudad no hay OXXO 😭😭😭😭😭😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7489833937218028562', 'uniqueId': 'alexa28070', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/375de520f8dda5e8d32ec593738b43fa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=caaa9619&amp;x-expires=1760706000&amp;x-signature=lVi0MM2ByafT47iii4BZCRafU3s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>yo tengo ya dos a quien en riohacha en sao venden</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>45928.95106481481</v>
+      </c>
+      <c r="H61" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>22:49:32</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555275859973767956', 'createTime': 1759099772, 'createTimeISO': '2025-09-28T22:49:32.000Z', 'text': 'yo tengo ya dos a quien en riohacha en sao venden', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7424964499378504710', 'uniqueId': 'belkis.palmezano', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/4bf65fc92b7418231543d485d5032734~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fb926e14&amp;x-expires=1760706000&amp;x-signature=ul4%2BosIqcldErXr%2FgLyKwlBSVTU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Ya tengo 2 de los yogo yogo sorpresa comprando en el oxxo aquí en Bogotá</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>45939.99555555556</v>
+      </c>
+      <c r="H62" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>23:53:36</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559374381328745234', 'createTime': 1760054016, 'createTimeISO': '2025-10-09T23:53:36.000Z', 'text': 'Ya tengo 2 de los yogo yogo sorpresa comprando en el oxxo aquí en Bogotá', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6928984704718013445', 'uniqueId': 'dani_bm_ma', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7a5305689918e20a2b7134a67c9f2dcb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2769a16a&amp;x-expires=1760706000&amp;x-signature=e0e5Ltvrqjyh1PlCtvJD1clDmhg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>en Villavicencio hay Oxxo?😭😭</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>45927.00363425926</v>
+      </c>
+      <c r="H63" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>00:05:14</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554553226990256904', 'createTime': 1758931514, 'createTimeISO': '2025-09-27T00:05:14.000Z', 'text': 'en Villavicencio hay Oxxo?😭😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6911445323727045637', 'uniqueId': 'frenchie_70', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/87b2f8a79de2a21e6aacff1d84983260~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e22e2386&amp;x-expires=1760706000&amp;x-signature=19SazM5TgbZH%2BkCzXn%2FXQlXthtQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>amooo los mochiss</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>45930.14606481481</v>
+      </c>
+      <c r="H64" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>03:30:20</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555719396933829377', 'createTime': 1759203020, 'createTimeISO': '2025-09-30T03:30:20.000Z', 'text': 'amooo los mochiss', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7367208908349621253', 'uniqueId': 'temasammy', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1710e3752cd7ef1d903ec79c90068b53~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=355d2728&amp;x-expires=1760706000&amp;x-signature=S7%2BWxf0GxQRyp7byUWfhGTmEUEM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Soy de Colombia y vivo alado de un oxxo!! Yeii qué bien 😭💓💓</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>45928.69695601852</v>
+      </c>
+      <c r="H65" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>16:43:37</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555181660511683346', 'createTime': 1759077817, 'createTimeISO': '2025-09-28T16:43:37.000Z', 'text': 'Soy de Colombia y vivo alado de un oxxo!! Yeii qué bien 😭💓💓', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7468722166260876295', 'uniqueId': 'honey.mimi7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b82704ac6df483016e5b03a909c6379e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2bf2b079&amp;x-expires=1760706000&amp;x-signature=sL4i%2F4JNBp%2BMFjmUbWBGeLbjXOM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Mi hija estaba muy comprometida haciendo la recolección de logos recortados de YogoYogo los llevamos a OXXO y le dijeron que los recortó mal y no le dieron premio. Terrible me parece 0 estrellitas no vale la pena.</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>45939.57203703704</v>
+      </c>
+      <c r="H66" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>13:43:44</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559217240907399952', 'createTime': 1760017424, 'createTimeISO': '2025-10-09T13:43:44.000Z', 'text': 'Mi hija estaba muy comprometida haciendo la recolección de logos recortados de YogoYogo los llevamos a OXXO y le dijeron que los recortó mal y no le dieron premio. Terrible me parece 0 estrellitas no vale la pena.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6790690337766556677', 'uniqueId': 'natyzhurra8', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2ec67cba7b200e2c6b2709b67daa84b1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bd66a233&amp;x-expires=1760706000&amp;x-signature=oqKmo69hX5h6wvQrOTilFQnqI3Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>ya me salio el morado</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>45926.97988425926</v>
+      </c>
+      <c r="H67" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>23:31:02</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554544444331328263', 'createTime': 1758929462, 'createTimeISO': '2025-09-26T23:31:02.000Z', 'text': 'ya me salio el morado', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7343027455776867333', 'uniqueId': 'isabella_merch', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e6e244f1af1a0806e21040d2d962d223~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1463c027&amp;x-expires=1760706000&amp;x-signature=tIAOWFHQN%2BEjLVaKXfg80EwP0iA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>sale más fácil comprarles el yogo premio ahí vienen esos muñecos👌</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>45937.1734375</v>
+      </c>
+      <c r="H68" s="3" t="n">
+        <v>45937</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>04:09:45</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7558327143747928848', 'createTime': 1759810185, 'createTimeISO': '2025-10-07T04:09:45.000Z', 'text': 'sale más fácil comprarles el yogo premio ahí vienen esos muñecos👌', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7270238153704342533', 'uniqueId': 'paola.rodriguez228', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/17617c83aeaf41558f9b9b48472d32af~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=534b8489&amp;x-expires=1760706000&amp;x-signature=Jm9Hvonjgo5lDQXSImxC5ypR0nM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>loooos amooooooo❤️❤️❤️❤️❤</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>45936.85996527778</v>
+      </c>
+      <c r="H69" s="3" t="n">
+        <v>45936</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>20:38:21</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7558210750176805633', 'createTime': 1759783101, 'createTimeISO': '2025-10-06T20:38:21.000Z', 'text': 'loooos amooooooo❤️❤️❤️❤️❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7367208908349621253', 'uniqueId': 'temasammy', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1710e3752cd7ef1d903ec79c90068b53~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=355d2728&amp;x-expires=1760706000&amp;x-signature=S7%2BWxf0GxQRyp7byUWfhGTmEUEM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>mi hijo tiene muchos ya</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>45928.71826388889</v>
+      </c>
+      <c r="H70" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>17:14:18</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555189568158171922', 'createTime': 1759079658, 'createTimeISO': '2025-09-28T17:14:18.000Z', 'text': 'mi hijo tiene muchos ya', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7198591704680023046', 'uniqueId': 'lpez.amarfy', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/94bc9caafe217bbfd6ce01b82c1f3779~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2f92efa3&amp;x-expires=1760706000&amp;x-signature=V6QWGd1OTR9kl0rduDuQRNSHNVo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>a qui no hay</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>45929.99042824074</v>
+      </c>
+      <c r="H71" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>23:46:13</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555661409931330305', 'createTime': 1759189573, 'createTimeISO': '2025-09-29T23:46:13.000Z', 'text': 'a qui no hay', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7142647410137138181', 'uniqueId': 'arsel9324', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/50fc02d856bc86dadfa85351b5eebcde~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6d79b8ee&amp;x-expires=1760706000&amp;x-signature=u7nBS4qtAkbTopJUHo9BQ%2BeDdAI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>que belleza el oxxo más sercano lo tengo a 2 horas</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>45936.15306712963</v>
+      </c>
+      <c r="H72" s="3" t="n">
+        <v>45936</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>03:40:25</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7557948494461846290', 'createTime': 1759722025, 'createTimeISO': '2025-10-06T03:40:25.000Z', 'text': 'que belleza el oxxo más sercano lo tengo a 2 horas', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7338634474744153093', 'uniqueId': 'mar1_tv', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/69cc4d25f3aa341a22dae7b8e86a4a61~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2ace86bd&amp;x-expires=1760706000&amp;x-signature=ZLHDFlL8v9J%2FDNGuMfm%2BJFYLLuw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>ami me sale pura cagada un día me salió un unicornio y hoy me salió un cocodrilo (T_T)</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>45935.94721064815</v>
+      </c>
+      <c r="H73" s="3" t="n">
+        <v>45935</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>22:43:59</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7557872085788656392', 'createTime': 1759704239, 'createTimeISO': '2025-10-05T22:43:59.000Z', 'text': '𝚊𝚖𝚒 𝚖𝚎 𝚜𝚊𝚕𝚎 𝚙𝚞𝚛𝚊 𝚌𝚊𝚐𝚊𝚍𝚊 𝚞𝚗 𝚍𝚒́𝚊 𝚖𝚎 𝚜𝚊𝚕𝚒𝚘́ 𝚞𝚗 𝚞𝚗𝚒𝚌𝚘𝚛𝚗𝚒𝚘 𝚢 𝚑𝚘𝚢 𝚖𝚎 𝚜𝚊𝚕𝚒𝚘́ 𝚞𝚗 𝚌𝚘𝚌𝚘𝚍𝚛𝚒𝚕𝚘 (T_T)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7398980026529760262', 'uniqueId': 'salome.murcia.lop', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/340cd1e87c2a55967180747c200950a3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=85c9537a&amp;x-expires=1760706000&amp;x-signature=UYDPGwqK%2BAaYD4whp4GEbAWxHQw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>la verdad es injusto donde vivo no hay ni un oxxo</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>45934.49726851852</v>
+      </c>
+      <c r="H74" s="3" t="n">
+        <v>45934</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>11:56:04</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7557334085366973202', 'createTime': 1759578964, 'createTimeISO': '2025-10-04T11:56:04.000Z', 'text': 'la verdad es injusto donde vivo no hay ni un oxxo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7047274379281253382', 'uniqueId': 'elgartiws63', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7316242178795044869~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d990bd14&amp;x-expires=1760706000&amp;x-signature=n8gldKCqRla9dTVF27tXgcauJuk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>part 2</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>45929.57021990741</v>
+      </c>
+      <c r="H75" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>13:41:07</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555505705790538514', 'createTime': 1759153267, 'createTimeISO': '2025-09-29T13:41:07.000Z', 'text': 'part 2', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7518189866266526728', 'uniqueId': 'jenny.loango', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0aa7aaecbe34f7dd94d1887fac659dec~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=089e46ad&amp;x-expires=1760706000&amp;x-signature=WZRnU%2BpmqDdCGjMpOt2oFpNrhMY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>don hermosos</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>45940.69850694444</v>
+      </c>
+      <c r="H76" s="3" t="n">
+        <v>45940</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>16:45:51</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559635269188829959', 'createTime': 1760114751, 'createTimeISO': '2025-10-10T16:45:51.000Z', 'text': 'don hermosos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7462015983667545094', 'uniqueId': 'yura2495', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/745aa78c04c60c9088a11c6f996f3307~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=edfcac82&amp;x-expires=1760706000&amp;x-signature=KJeRcV3a1mGZV8Xb06M7QNHrhyw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>tengo 14 en total ajaja</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>45938.74841435185</v>
+      </c>
+      <c r="H77" s="3" t="n">
+        <v>45938</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>17:57:43</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7558911601061217032', 'createTime': 1759946263, 'createTimeISO': '2025-10-08T17:57:43.000Z', 'text': 'tengo 14 en total ajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7290284449584514053', 'uniqueId': 'not.dnaa', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/c359f92f7ed83771ef9e0d8b18401862~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=5e68dfd8&amp;x-expires=1760706000&amp;x-signature=jKCUbCdvTYCNgvV3OvOq3Y2%2FX6g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4!? me e comprado 3 y no me sabía está :(</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>45941.94193287037</v>
+      </c>
+      <c r="H78" s="3" t="n">
+        <v>45941</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>22:36:23</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7560096565530116881', 'createTime': 1760222183, 'createTimeISO': '2025-10-11T22:36:23.000Z', 'text': '4!? me e comprado 3 y no me sabía está :(', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7406050480903095302', 'uniqueId': 'baraka8861', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/3578f8d9ee7e8e3faedd8e33c2df1a1d~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=a1b091b9&amp;x-expires=1760706000&amp;x-signature=mDn2GU3Tq9Nqgc2kqD8TXMQNZrc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Hola alpina yo tengo 16 mochi saurio soy su fan</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>45940.97159722223</v>
+      </c>
+      <c r="H79" s="3" t="n">
+        <v>45940</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>23:19:06</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559736550297633544', 'createTime': 1760138346, 'createTimeISO': '2025-10-10T23:19:06.000Z', 'text': 'Hola alpina yo tengo 16 mochi saurio soy su fan', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6999062538463003654', 'uniqueId': 'viky34566', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/71919924a1b2f86ffc0e2a1190eabfbc~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=f46c594d&amp;x-expires=1760706000&amp;x-signature=HjNvEy8OZgyi6qELJmEEXgOvE7E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>mucha gestion para unos muñecos</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>45941.74091435185</v>
+      </c>
+      <c r="H80" s="3" t="n">
+        <v>45941</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>17:46:55</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7560022082038956808', 'createTime': 1760204815, 'createTimeISO': '2025-10-11T17:46:55.000Z', 'text': 'mucha gestion para unos muñecos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6882817912156603397', 'uniqueId': 'davetheusual', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7354865790594023430~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=932ba631&amp;x-expires=1760706000&amp;x-signature=Q9HfLzWu0ro3ScCCldb0M0u2VaQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>no los venden? saldría más económico.</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>45942.93608796296</v>
+      </c>
+      <c r="H81" s="3" t="n">
+        <v>45942</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>22:27:58</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7560465563730920199', 'createTime': 1760308078, 'createTimeISO': '2025-10-12T22:27:58.000Z', 'text': 'no los venden? saldría más económico.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6900093665232208898', 'uniqueId': 'alonsocastaeda4', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/656e080d9831aeebef39b67358dbf496~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=7b54d33e&amp;x-expires=1760706000&amp;x-signature=BC87wpZb7R%2BStoUqdwpwb9TrN0w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>tuve una bolsa entera sin todo lo que piden JAJSJWJSJW</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>45940.22284722222</v>
+      </c>
+      <c r="H82" s="3" t="n">
+        <v>45940</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>05:20:54</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559458753733739282', 'createTime': 1760073654, 'createTimeISO': '2025-10-10T05:20:54.000Z', 'text': 'tuve una bolsa entera sin todo lo que piden JAJSJWJSJW', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7421675245097223174', 'uniqueId': 'howaminowbaddie', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2c9fa9a8c306b308bb8b205ad216db5b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3599feb0&amp;x-expires=1760706000&amp;x-signature=BRULPUpIlkyOi3KjDfG8j5KtkKU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>pero si no tengo un OXXO cerca 😃</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>45926.88136574074</v>
+      </c>
+      <c r="H83" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>21:09:10</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554507901999022866', 'createTime': 1758920950, 'createTimeISO': '2025-09-26T21:09:10.000Z', 'text': 'pero si no tengo un OXXO cerca 😃', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541548984452891666', 'uniqueId': 'puck_777', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/72496e7c0330ffb5ad2e030b3b59e52d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=adb8c3e8&amp;x-expires=1760706000&amp;x-signature=DGijffRNYKgJr%2BKYv8kDZfBriPU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>acá en mi ciudad no hay</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>45928.85714120371</v>
+      </c>
+      <c r="H84" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>20:34:17</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555241088127124242', 'createTime': 1759091657, 'createTimeISO': '2025-09-28T20:34:17.000Z', 'text': 'acá en mi ciudad no hay', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7547170167466296328', 'uniqueId': 'unboxin2025', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f6f706199631f523a305a35e3a9c95e9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=57c2d1df&amp;x-expires=1760706000&amp;x-signature=8moXlu7S3UqtIxYVY498BsSF6b0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>y las ciudades donde no hay Oxxo 😅😅</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>45927.13207175926</v>
+      </c>
+      <c r="H85" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>03:10:11</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554600954244678407', 'createTime': 1758942611, 'createTimeISO': '2025-09-27T03:10:11.000Z', 'text': 'y las ciudades donde no hay Oxxo 😅😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6783394257204282373', 'uniqueId': 'yunior.18', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b9b4e3df13da81e5d8bd40873e3374d1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=585b33ab&amp;x-expires=1760706000&amp;x-signature=Jq1DpBIuc6yO4F0%2FARecIIsfwRg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>una pregunta soy de Colombia pero vivo en un lugar un poco lejos 🥺 cuando llegan es Arauca</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>45928.79006944445</v>
+      </c>
+      <c r="H86" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>18:57:42</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555216216953078536', 'createTime': 1759085862, 'createTimeISO': '2025-09-28T18:57:42.000Z', 'text': 'una pregunta soy de Colombia pero vivo en un lugar un poco lejos 🥺 cuando llegan es Arauca', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7514280435070927873', 'uniqueId': 'fresa.com.crema', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/eaa3b275b74194b2e13fc3266612bc49~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=10676d51&amp;x-expires=1760706000&amp;x-signature=Rix%2BiBB34qiNYdYQIXVM1jZ1o9g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>y las lavadoras?</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>45926.92902777778</v>
+      </c>
+      <c r="H87" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>22:17:48</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554525489421386516', 'createTime': 1758925068, 'createTimeISO': '2025-09-26T22:17:48.000Z', 'text': 'y las lavadoras?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7390524142800667653', 'uniqueId': 'trululxx', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/efcb9ba983ceef1f1798cb089ff26aa8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a9ca4a57&amp;x-expires=1760706000&amp;x-signature=zfPV4sMsHYUiQdLSARFaoIAh6Do%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>me encantan los mochis mi mamá nunca me compra ninguno creo que me dejes hacer ⭐😍</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>45939.96612268518</v>
+      </c>
+      <c r="H88" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>23:11:13</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559363418022249224', 'createTime': 1760051473, 'createTimeISO': '2025-10-09T23:11:13.000Z', 'text': 'me encantan los mochis mi mamá nunca me compra ninguno creo que me dejes hacer ⭐😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7381557792702153734', 'uniqueId': 'luchiii4155', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/25933fce4e672e9823eb77161e1bdb88~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9b59012d&amp;x-expires=1760706000&amp;x-signature=CoJIge8ht1ICME%2F1TuuRsa%2BU90M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>ayer compré el yogo premio con la etiqueta de mochisaurios mi hijo con ilusión lo abrió y va y le sale de la coleccion pasada....Nooo así si nooo al menos quiten los de la coleccion pasada para que no pase esto</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>45929.88107638889</v>
+      </c>
+      <c r="H89" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>21:08:45</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555620990967153409', 'createTime': 1759180125, 'createTimeISO': '2025-09-29T21:08:45.000Z', 'text': 'ayer compré el yogo premio con la etiqueta de mochisaurios mi hijo con ilusión lo abrió y va y le sale de la coleccion pasada....Nooo así si nooo al menos quiten los de la coleccion pasada para que no pase esto', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6846492796284470277', 'uniqueId': 'linamariahernan4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/b8c84acbfe31152b7111b26ebbb541b5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5a6c3b31&amp;x-expires=1760706000&amp;x-signature=gO1ojmdVjlSNSyDWP67iBhwqC7c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Alpina me salió el t-rex morado pero me salió rojo</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>45944.32868055555</v>
+      </c>
+      <c r="H90" s="3" t="n">
+        <v>45944</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>07:53:18</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7560982374209880840', 'createTime': 1760428398, 'createTimeISO': '2025-10-14T07:53:18.000Z', 'text': 'Alpina me salió el t-rex morado pero me salió rojo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7550916854894576647', 'uniqueId': 'matis.leon3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5ea667be5045cfb8a1ae14f867516de8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=38eb713c&amp;x-expires=1760706000&amp;x-signature=jwHEf3F0LkjnuEi%2FbcBo4e%2FjfRM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>brooo</t>
+        </is>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>45937.10362268519</v>
+      </c>
+      <c r="H91" s="3" t="n">
+        <v>45937</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>02:29:13</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7558301251185115912', 'createTime': 1759804153, 'createTimeISO': '2025-10-07T02:29:13.000Z', 'text': 'brooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452245536629720070', 'uniqueId': 'rip_juan776eeo', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c4a58c9f1add3d3de9c9cec5a55fd642~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3b346ab3&amp;x-expires=1760706000&amp;x-signature=EBUK3V22eHAfqNRCN2WghLj%2FPDA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Va uno al Oxxo y qué no han llegado. No todas las tiendas tienen ese empaque marcado, tanto misterio para un muñeco, antes eran 3 logos ahora 4. Mejor me compro una Drácula</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>45933.15829861111</v>
+      </c>
+      <c r="H92" s="3" t="n">
+        <v>45933</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>03:47:57</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556837188043227905', 'createTime': 1759463277, 'createTimeISO': '2025-10-03T03:47:57.000Z', 'text': 'Va uno al Oxxo y qué no han llegado. No todas las tiendas tienen ese empaque marcado, tanto misterio para un muñeco, antes eran 3 logos ahora 4. Mejor me compro una Drácula', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6798221952290964486', 'uniqueId': 'pizpir_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7331755100833644549~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b2f29280&amp;x-expires=1760706000&amp;x-signature=pOE4LYrYq2bv8F80whM21sid4ZU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>si claro si yo vivo en colomb</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="n">
+        <v>45930.02231481481</v>
+      </c>
+      <c r="H93" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>00:32:08</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555673462803694343', 'createTime': 1759192328, 'createTimeISO': '2025-09-30T00:32:08.000Z', 'text': 'si claro si yo vivo en colomb', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7552728943149810705', 'uniqueId': 'dannasofi6899', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/865736a245746c0e4f5e41bb7590a553~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0adc56a1&amp;x-expires=1760706000&amp;x-signature=qWskMgElCLgOB6bmGApQtRk15TU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>mejor me compro un jugo premio y ya,aparte que esa vaina se ensucia re facil</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>45937.11123842592</v>
+      </c>
+      <c r="H94" s="3" t="n">
+        <v>45937</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>02:40:11</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7558304062015718152', 'createTime': 1759804811, 'createTimeISO': '2025-10-07T02:40:11.000Z', 'text': 'mejor me compro un jugo premio y ya,aparte que esa vaina se ensucia re facil', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7506216683972609042', 'uniqueId': '_elliot572', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ac59e6a973525e7c86440aced839ab14~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=75f74f89&amp;x-expires=1760706000&amp;x-signature=91HQVDbj7Zr1j97M01cbyj6AcFA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>pero sola mente sonos logos que disen todo yogo</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="n">
+        <v>45930.0090162037</v>
+      </c>
+      <c r="H95" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>00:12:59</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555668487608582928', 'createTime': 1759191179, 'createTimeISO': '2025-09-30T00:12:59.000Z', 'text': 'pero sola mente sonos logos que disen todo yogo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7352935562129802246', 'uniqueId': 'titta4841', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=678f0c15&amp;x-expires=1760706000&amp;x-signature=XeD3biovpRyDHLmRXLFbZpWoZQI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Y para cuándo los YoYos de YogoYogo !!</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="n">
+        <v>45937.61719907408</v>
+      </c>
+      <c r="H96" s="3" t="n">
+        <v>45937</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>14:48:46</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7558491815541441281', 'createTime': 1759848526, 'createTimeISO': '2025-10-07T14:48:46.000Z', 'text': 'Y para cuándo los YoYos de YogoYogo !!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7464018882559804434', 'uniqueId': 'mastervelas10', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=678f0c15&amp;x-expires=1760706000&amp;x-signature=XeD3biovpRyDHLmRXLFbZpWoZQI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Amooo</t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="n">
+        <v>45928.79438657407</v>
+      </c>
+      <c r="H97" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>19:03:55</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555217811128615687', 'createTime': 1759086235, 'createTimeISO': '2025-09-28T19:03:55.000Z', 'text': 'Amooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7284419691349607430', 'uniqueId': 'kdruiz22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7300345897722839046~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cf27cf55&amp;x-expires=1760706000&amp;x-signature=TMk69WF%2BoLvaMl3bicHYYV6D5Z4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>alguien sabe si aceptan los mismos paquetes de los yogopremio? 🥹 los logos</t>
+        </is>
+      </c>
+      <c r="G98" s="2" t="n">
+        <v>45928.79943287037</v>
+      </c>
+      <c r="H98" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>19:11:11</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555219507196871441', 'createTime': 1759086671, 'createTimeISO': '2025-09-28T19:11:11.000Z', 'text': 'alguien sabe si aceptan los mismos paquetes de los yogopremio? \U0001f979 los logos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7248270860224578565', 'uniqueId': 'bangchanmegustas', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/93a2007f320c35921254108bfb01e853~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5f14c003&amp;x-expires=1760706000&amp;x-signature=psn%2F60xX%2F78w4P6ouakyd3xVvfQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
           <t>Por que en oxxo por que e
 En Colombia no hay tantos oxxos</t>
         </is>
       </c>
-      <c r="G53" s="2" t="n">
+      <c r="G99" s="2" t="n">
         <v>45930.00252314815</v>
       </c>
-      <c r="H53" s="3" t="n">
+      <c r="H99" s="3" t="n">
         <v>45930</v>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>00:03:38</t>
         </is>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="b">
-        <v>0</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555666073921553160', 'createTime': 1759190618, 'createTimeISO': '2025-09-30T00:03:38.000Z', 'text': 'Por que en oxxo por que e\nEn Colombia no hay tantos oxxos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7433071984395338758', 'uniqueId': 'viky1234836', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f814e9b802ec7cd1d5d09a202afca7a9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3e1568c8&amp;x-expires=1760619600&amp;x-signature=NZ8T6fe9stxxeX2UGhgEcqrHH6g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>1</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>en muchos lugares no hay Oxxo no pensaron en nosotros</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="n">
-        <v>45929.99023148148</v>
-      </c>
-      <c r="H54" s="3" t="n">
-        <v>45929</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>23:45:56</t>
-        </is>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="b">
-        <v>0</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555661460748206849', 'createTime': 1759189556, 'createTimeISO': '2025-09-29T23:45:56.000Z', 'text': 'en muchos lugares no hay Oxxo no pensaron en nosotros', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7142647410137138181', 'uniqueId': 'arsel9324', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/50fc02d856bc86dadfa85351b5eebcde~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3ec46f77&amp;x-expires=1760619600&amp;x-signature=bc2ui9k%2FpKLOUdvXx39v7r15AhY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>1</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>en colombia noa ah</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="n">
-        <v>45926.84263888889</v>
-      </c>
-      <c r="H55" s="3" t="n">
-        <v>45926</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>20:13:24</t>
-        </is>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="b">
-        <v>0</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554493529289638664', 'createTime': 1758917604, 'createTimeISO': '2025-09-26T20:13:24.000Z', 'text': 'en colombia noa ah', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7503310884556309511', 'uniqueId': 'alba_hernandez21', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3081f3280dc30ced6c73649afc9e82b1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b8419c34&amp;x-expires=1760619600&amp;x-signature=%2B4CF6ZJwvXwPBXhPx0XoSHlKpMc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>1</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>part 2</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="n">
-        <v>45929.57021990741</v>
-      </c>
-      <c r="H56" s="3" t="n">
-        <v>45929</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>13:41:07</t>
-        </is>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="b">
-        <v>0</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555505705790538514', 'createTime': 1759153267, 'createTimeISO': '2025-09-29T13:41:07.000Z', 'text': 'part 2', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7518189866266526728', 'uniqueId': 'jenny.loango', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0aa7aaecbe34f7dd94d1887fac659dec~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=774ddd4b&amp;x-expires=1760619600&amp;x-signature=yLnrAheaWHXl%2FP2t6K5mkKCJgBg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>1</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Ay yo pensaba que ya se avía acabado y tambien pensaba que ya no tenía oportunidad de reclamar mis 12 tarjetas y como 7 logos 😭😭😭😔</t>
-        </is>
-      </c>
-      <c r="G57" s="2" t="n">
-        <v>45935.67759259259</v>
-      </c>
-      <c r="H57" s="3" t="n">
-        <v>45935</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>16:15:44</t>
-        </is>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="b">
-        <v>0</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7557772077760742152', 'createTime': 1759680944, 'createTimeISO': '2025-10-05T16:15:44.000Z', 'text': 'Ay yo pensaba que ya se avía acabado y tambien pensaba que ya no tenía oportunidad de reclamar mis 12 tarjetas y como 7 logos 😭😭😭😔', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7538082276980737029', 'uniqueId': 'mariiladiva0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8ede218c4c09353a38122ea601611b79~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=31cb7408&amp;x-expires=1760619600&amp;x-signature=1hsNYLQnM0OD%2BXKjhibdnpYx1l0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Yo ya los tengo los logos</t>
-        </is>
-      </c>
-      <c r="G58" s="2" t="n">
-        <v>45934.66412037037</v>
-      </c>
-      <c r="H58" s="3" t="n">
-        <v>45934</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>15:56:20</t>
-        </is>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="b">
-        <v>0</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7557395985225335570', 'createTime': 1759593380, 'createTimeISO': '2025-10-04T15:56:20.000Z', 'text': 'Yo ya los tengo los logos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7364207363702047750', 'uniqueId': 'lady.insuasti', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/567cb1b8e1d71f6af4d01946884814a5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6aed58c4&amp;x-expires=1760619600&amp;x-signature=lqXKFpKo3OkC4RkMsUrlhySr6jE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>yo lo consigo en una papelera sin comprar el yogur</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="n">
-        <v>45930.02420138889</v>
-      </c>
-      <c r="H59" s="3" t="n">
-        <v>45930</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>00:34:51</t>
-        </is>
-      </c>
-      <c r="J59" t="n">
-        <v>1</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="b">
-        <v>0</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555674134270001927', 'createTime': 1759192491, 'createTimeISO': '2025-09-30T00:34:51.000Z', 'text': 'yo lo consigo en una papelera sin comprar el yogur', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7384092541786014725', 'uniqueId': 'estrellita_alien', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e38c298456b8a03417d891b1539c5b57~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4752d593&amp;x-expires=1760619600&amp;x-signature=v5chIa6fC%2F8UKQt%2Fnu4OQh67QJY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Va uno al Oxxo y qué no han llegado. No todas las tiendas tienen ese empaque marcado, tanto misterio para un muñeco, antes eran 3 logos ahora 4. Mejor me compro una Drácula</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="n">
-        <v>45933.15829861111</v>
-      </c>
-      <c r="H60" s="3" t="n">
-        <v>45933</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>03:47:57</t>
-        </is>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="b">
-        <v>0</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556837188043227905', 'createTime': 1759463277, 'createTimeISO': '2025-10-03T03:47:57.000Z', 'text': 'Va uno al Oxxo y qué no han llegado. No todas las tiendas tienen ese empaque marcado, tanto misterio para un muñeco, antes eran 3 logos ahora 4. Mejor me compro una Drácula', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6798221952290964486', 'uniqueId': 'pizpir_', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7331755100833644549~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d4d1f41f&amp;x-expires=1760619600&amp;x-signature=E5kP34mziAd0zcs7mO5Rcx%2B4rfQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>1</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>ayer compré el yogo premio con la etiqueta de mochisaurios mi hijo con ilusión lo abrió y va y le sale de la coleccion pasada....Nooo así si nooo al menos quiten los de la coleccion pasada para que no pase esto</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="n">
-        <v>45929.88107638889</v>
-      </c>
-      <c r="H61" s="3" t="n">
-        <v>45929</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>21:08:45</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="b">
-        <v>0</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555620990967153409', 'createTime': 1759180125, 'createTimeISO': '2025-09-29T21:08:45.000Z', 'text': 'ayer compré el yogo premio con la etiqueta de mochisaurios mi hijo con ilusión lo abrió y va y le sale de la coleccion pasada....Nooo así si nooo al menos quiten los de la coleccion pasada para que no pase esto', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6846492796284470277', 'uniqueId': 'linamariahernan4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/b8c84acbfe31152b7111b26ebbb541b5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b9f8bdf6&amp;x-expires=1760619600&amp;x-signature=pfQeFe3JOjhTpmxwnJxKnu3EHsI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>1</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>eran mejor los gogos</t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="n">
-        <v>45929.47387731481</v>
-      </c>
-      <c r="H62" s="3" t="n">
-        <v>45929</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>11:22:23</t>
-        </is>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="b">
-        <v>0</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555469953446052609', 'createTime': 1759144943, 'createTimeISO': '2025-09-29T11:22:23.000Z', 'text': 'eran mejor los gogos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7228579787227350022', 'uniqueId': 'diazsergio448', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/61df6591ddc0252c4f89c7801a873c3c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ef7233fd&amp;x-expires=1760619600&amp;x-signature=IM6jnH7FW%2FlK0X4Vstlk%2B9IK9Vg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>1</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>QUE CALIDAD🗣️🗣️🗣</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="n">
-        <v>45929.74858796296</v>
-      </c>
-      <c r="H63" s="3" t="n">
-        <v>45929</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>17:57:58</t>
-        </is>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="b">
-        <v>0</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555571878653592340', 'createTime': 1759168678, 'createTimeISO': '2025-09-29T17:57:58.000Z', 'text': 'QUE CALIDAD🗣️🗣️🗣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7458314603111613446', 'uniqueId': 'como.quieran.quie', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9fb7f4d59fb4cd488465c38f8b999208~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a41528b4&amp;x-expires=1760619600&amp;x-signature=QN3a%2F%2BaN%2BkC%2BvaZxPlqx0uxk634%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>1</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>eso pa que</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="n">
-        <v>45928.22596064815</v>
-      </c>
-      <c r="H64" s="3" t="n">
-        <v>45928</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>05:25:23</t>
-        </is>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="b">
-        <v>0</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555006889290826503', 'createTime': 1759037123, 'createTimeISO': '2025-09-28T05:25:23.000Z', 'text': 'eso pa que', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7542870679370417160', 'uniqueId': 'x_xxx660', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/baad79b549774584b1a67ebfc08f5a67~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e29e0891&amp;x-expires=1760619600&amp;x-signature=6sXvI1XTtEDbwtXpLSnjXPSWsbQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>1</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>yo los tengo tengo el rosado y el azul</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="n">
-        <v>45928.95548611111</v>
-      </c>
-      <c r="H65" s="3" t="n">
-        <v>45928</v>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>22:55:54</t>
-        </is>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="b">
-        <v>0</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555277557701575431', 'createTime': 1759100154, 'createTimeISO': '2025-09-28T22:55:54.000Z', 'text': 'yo los tengo tengo el rosado y el azul', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541992424257324053', 'uniqueId': 'lamasquedoradora', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/29368d9813b06794e313abee8fbbb2d1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=41244ad2&amp;x-expires=1760619600&amp;x-signature=gZ%2Fik1ZEQc%2Bq6ciT67m2IYVQ76w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>1</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>si claro si yo vivo en colomb</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="n">
-        <v>45930.02231481481</v>
-      </c>
-      <c r="H66" s="3" t="n">
-        <v>45930</v>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>00:32:08</t>
-        </is>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="b">
-        <v>0</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555673462803694343', 'createTime': 1759192328, 'createTimeISO': '2025-09-30T00:32:08.000Z', 'text': 'si claro si yo vivo en colomb', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7552728943149810705', 'uniqueId': 'dannasofi6899', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/865736a245746c0e4f5e41bb7590a553~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fcb4408f&amp;x-expires=1760619600&amp;x-signature=AsnCa1SW58CsnRbl1FwmMbxkYB8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>1</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>ami me salió un cocodrilo</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="n">
-        <v>45927.06260416667</v>
-      </c>
-      <c r="H67" s="3" t="n">
-        <v>45927</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>01:30:09</t>
-        </is>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="b">
-        <v>0</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554575152081535765', 'createTime': 1758936609, 'createTimeISO': '2025-09-27T01:30:09.000Z', 'text': 'ami me salió un cocodrilo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6882570284298142721', 'uniqueId': 'cubides08', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/55f4e79659fb01bed4bf116832dd843d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d289249c&amp;x-expires=1760619600&amp;x-signature=H1CdHqE1dOUp7oMPrA6hTYJiGNg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>1</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>una pregunta soy de Colombia pero vivo en un lugar un poco lejos 🥺 cuando llegan es Arauca</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="n">
-        <v>45928.79006944445</v>
-      </c>
-      <c r="H68" s="3" t="n">
-        <v>45928</v>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>18:57:42</t>
-        </is>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="b">
-        <v>0</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555216216953078536', 'createTime': 1759085862, 'createTimeISO': '2025-09-28T18:57:42.000Z', 'text': 'una pregunta soy de Colombia pero vivo en un lugar un poco lejos 🥺 cuando llegan es Arauca', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7514280435070927873', 'uniqueId': 'fresa.com.crema', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/eaa3b275b74194b2e13fc3266612bc49~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f3263ab8&amp;x-expires=1760619600&amp;x-signature=KnPU9CErD%2FcTZYaJ6ZdbJOwcZ8A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>1</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>do</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="n">
-        <v>45936.66792824074</v>
-      </c>
-      <c r="H69" s="3" t="n">
-        <v>45936</v>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>16:01:49</t>
-        </is>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="b">
-        <v>0</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7558139554667299585', 'createTime': 1759766509, 'createTimeISO': '2025-10-06T16:01:49.000Z', 'text': 'do', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7347759303850460166', 'uniqueId': 'daniel.medina9402', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d827ef96dbb9538e76ca4c0a1031de75~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6d689b7d&amp;x-expires=1760619600&amp;x-signature=wUzyOig0YQcBHe1a%2FA5mb3ZJpRM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>1</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Amooo</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="n">
-        <v>45928.79438657407</v>
-      </c>
-      <c r="H70" s="3" t="n">
-        <v>45928</v>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>19:03:55</t>
-        </is>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="b">
-        <v>0</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555217811128615687', 'createTime': 1759086235, 'createTimeISO': '2025-09-28T19:03:55.000Z', 'text': 'Amooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7284419691349607430', 'uniqueId': 'kdruiz22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7300345897722839046~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e66026c4&amp;x-expires=1760619600&amp;x-signature=lPpueY4D39QKi7BZTOG96veKUac%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>1</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>mi mala suerte, tenía dos abri un yogurt y me salió repetido</t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="n">
-        <v>45928.00234953704</v>
-      </c>
-      <c r="H71" s="3" t="n">
-        <v>45928</v>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>00:03:23</t>
-        </is>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="b">
-        <v>0</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554923850959422215', 'createTime': 1759017803, 'createTimeISO': '2025-09-28T00:03:23.000Z', 'text': 'mi mala suerte, tenía dos abri un yogurt y me salió repetido', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7540478701881164818', 'uniqueId': 'cib_1252', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c44cc5b4ca1d9f823d88604b1f5d3cfd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=21c58c91&amp;x-expires=1760619600&amp;x-signature=uPXR7yaqtQa%2BwIViex8Hz1dxel4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>1</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>no los venden? saldría más económico.</t>
-        </is>
-      </c>
-      <c r="G72" s="2" t="n">
-        <v>45942.93608796296</v>
-      </c>
-      <c r="H72" s="3" t="n">
-        <v>45942</v>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>22:27:58</t>
-        </is>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="b">
-        <v>0</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7560465563730920199', 'createTime': 1760308078, 'createTimeISO': '2025-10-12T22:27:58.000Z', 'text': 'no los venden? saldría más económico.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6900093665232208898', 'uniqueId': 'alonsocastaeda4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/656e080d9831aeebef39b67358dbf496~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a766fb9a&amp;x-expires=1760619600&amp;x-signature=8G%2FEU3VEKd1u9Sy8r6E9NBUdU6g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>1</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>y si estoy en Colombia</t>
-        </is>
-      </c>
-      <c r="G73" s="2" t="n">
-        <v>45930.03666666667</v>
-      </c>
-      <c r="H73" s="3" t="n">
-        <v>45930</v>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>00:52:48</t>
-        </is>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>1</v>
-      </c>
-      <c r="L73" t="b">
-        <v>0</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555678757781422856', 'createTime': 1759193568, 'createTimeISO': '2025-09-30T00:52:48.000Z', 'text': 'y si estoy en Colombia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7511370345698526228', 'uniqueId': 'eslendy121', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/12ff77457a3980c682406f9a561bcfdc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d48f7f70&amp;x-expires=1760619600&amp;x-signature=VDEwGFxmlWgTBLgfx0sNu9fSmnc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>1</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>ya se dieron cuenta que Coca-Cola trajo nuevamente los hielocos.</t>
-        </is>
-      </c>
-      <c r="G74" s="2" t="n">
-        <v>45928.82883101852</v>
-      </c>
-      <c r="H74" s="3" t="n">
-        <v>45928</v>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>19:53:31</t>
-        </is>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="n">
-        <v>1</v>
-      </c>
-      <c r="L74" t="b">
-        <v>0</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555230564963648264', 'createTime': 1759089211, 'createTimeISO': '2025-09-28T19:53:31.000Z', 'text': 'ya se dieron cuenta que Coca-Cola trajo nuevamente los hielocos.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7311721551714796549', 'uniqueId': 'junior.xd.velez', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7311721679486386181~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=309b0e06&amp;x-expires=1760619600&amp;x-signature=eoxLw6h%2FzD2ULwnd%2BM6nzrmHGW4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>1</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>si algo eso cuántos Mochis me dan</t>
-        </is>
-      </c>
-      <c r="G75" s="2" t="n">
-        <v>45942.7344212963</v>
-      </c>
-      <c r="H75" s="3" t="n">
-        <v>45942</v>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>17:37:34</t>
-        </is>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="b">
-        <v>0</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7560390745014960912', 'createTime': 1760290654, 'createTimeISO': '2025-10-12T17:37:34.000Z', 'text': 'si algo eso cuántos Mochis me dan', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7454562571774018566', 'uniqueId': 'mariposas6818', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/e9a766a7989642f5f3b2b8341519efa8~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=63413d82&amp;x-expires=1760619600&amp;x-signature=z1syxgCV%2BK9%2Fz6OUEPsvbcIFQfk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>1</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Yo quiero</t>
-        </is>
-      </c>
-      <c r="G76" s="2" t="n">
-        <v>45935.77395833333</v>
-      </c>
-      <c r="H76" s="3" t="n">
-        <v>45935</v>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>18:34:30</t>
-        </is>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="b">
-        <v>0</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7557807836890645255', 'createTime': 1759689270, 'createTimeISO': '2025-10-05T18:34:30.000Z', 'text': 'Yo quiero', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7543462359529440276', 'uniqueId': 'annie.carolina7', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/d2456170bcdac850e36cf4089df9b648~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=ed5c0cb1&amp;x-expires=1760619600&amp;x-signature=ouVG3d%2Bufr0GGoAmeWdbW9Xm0iE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>1</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>menos mal, porque esos mini Mochis nada que ver</t>
-        </is>
-      </c>
-      <c r="G77" s="2" t="n">
-        <v>45927.03719907408</v>
-      </c>
-      <c r="H77" s="3" t="n">
-        <v>45927</v>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>00:53:34</t>
-        </is>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="b">
-        <v>0</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554565731141354248', 'createTime': 1758934414, 'createTimeISO': '2025-09-27T00:53:34.000Z', 'text': 'menos mal, porque esos mini Mochis nada que ver', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '306200608217440256', 'uniqueId': 'adrianacontajaram', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/3ca1721c854ebb7d5a1c458fad6e8110~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=af12a055&amp;x-expires=1760619600&amp;x-signature=Oy%2BFwE0OR78ZERf1J4%2Foexqiz84%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>1</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>don hermosos</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="n">
-        <v>45940.69850694444</v>
-      </c>
-      <c r="H78" s="3" t="n">
-        <v>45940</v>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>16:45:51</t>
-        </is>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="b">
-        <v>0</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559635269188829959', 'createTime': 1760114751, 'createTimeISO': '2025-10-10T16:45:51.000Z', 'text': 'don hermosos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7462015983667545094', 'uniqueId': 'yura2495', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/745aa78c04c60c9088a11c6f996f3307~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=0f023d57&amp;x-expires=1760619600&amp;x-signature=ALieX%2B0azC%2FIMyng2J4rXeJ8kzU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>1</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>pero si ya corte los logos y no corte lo que dice mochisaurios y tampoco tengo el código??</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="n">
-        <v>45929.11127314815</v>
-      </c>
-      <c r="H79" s="3" t="n">
-        <v>45929</v>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>02:40:14</t>
-        </is>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>1</v>
-      </c>
-      <c r="L79" t="b">
-        <v>0</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555335413934981895', 'createTime': 1759113614, 'createTimeISO': '2025-09-29T02:40:14.000Z', 'text': 'pero si ya corte los logos y no corte lo que dice mochisaurios y tampoco tengo el código??', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6887020420505109509', 'uniqueId': 'mari_a0131', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/52b610568365088bb8157c0e968fb5e0~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=adbdee11&amp;x-expires=1760619600&amp;x-signature=d%2FWev7ARz%2FoTxIa3Z9xy6iqXRoM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>1</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>amooo los mochiss</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="n">
-        <v>45930.14606481481</v>
-      </c>
-      <c r="H80" s="3" t="n">
-        <v>45930</v>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>03:30:20</t>
-        </is>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" t="b">
-        <v>0</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555719396933829377', 'createTime': 1759203020, 'createTimeISO': '2025-09-30T03:30:20.000Z', 'text': 'amooo los mochiss', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7367208908349621253', 'uniqueId': 'temasammy', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/1710e3752cd7ef1d903ec79c90068b53~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=6b24fd9b&amp;x-expires=1760619600&amp;x-signature=DxSQlgjAnmocCEsE9Tf7zMrF%2BRY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>1</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>oigan pero no encuentro mochisaurios solo ilumimochis</t>
-        </is>
-      </c>
-      <c r="G81" s="2" t="n">
-        <v>45932.81353009259</v>
-      </c>
-      <c r="H81" s="3" t="n">
-        <v>45932</v>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>19:31:29</t>
-        </is>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" t="b">
-        <v>0</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556709242481722130', 'createTime': 1759433489, 'createTimeISO': '2025-10-02T19:31:29.000Z', 'text': 'oigan pero no encuentro mochisaurios solo ilumimochis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7121425545787868165', 'uniqueId': 'filosofia.gatuna', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/611472f8abb9c3c4e66c407a80c4ee1b~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=5ab0f595&amp;x-expires=1760619600&amp;x-signature=PAUY2twnwg7KdYqIHYml6x0h%2FaM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>1</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Y para cuándo los YoYos de YogoYogo !!</t>
-        </is>
-      </c>
-      <c r="G82" s="2" t="n">
-        <v>45937.61719907408</v>
-      </c>
-      <c r="H82" s="3" t="n">
-        <v>45937</v>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>14:48:46</t>
-        </is>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="b">
-        <v>0</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7558491815541441281', 'createTime': 1759848526, 'createTimeISO': '2025-10-07T14:48:46.000Z', 'text': 'Y para cuándo los YoYos de YogoYogo !!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7464018882559804434', 'uniqueId': 'mastervelas10', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=bc9f0393&amp;x-expires=1760619600&amp;x-signature=RzCGUMv6hD3iDnmfkXd8UVKMMgE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>1</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Yo y los que reclamamos todos los que tenían en la tienda porque soy una adicta al yogo yogo (porfis déjenme patrocinar o regálenme algo tengo el peluche de la máquina y todas las colecciones incompletas pero las tengo)</t>
-        </is>
-      </c>
-      <c r="G83" s="2" t="n">
-        <v>45935.07732638889</v>
-      </c>
-      <c r="H83" s="3" t="n">
-        <v>45935</v>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>01:51:21</t>
-        </is>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="b">
-        <v>0</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7557549302736208647', 'createTime': 1759629081, 'createTimeISO': '2025-10-05T01:51:21.000Z', 'text': 'Yo y los que reclamamos todos los que tenían en la tienda porque soy una adicta al yogo yogo (porfis déjenme patrocinar o regálenme algo tengo el peluche de la máquina y todas las colecciones incompletas pero las tengo)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6844340518231802886', 'uniqueId': 'bingobaby89newaccount', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/03318f67407fffda8cd02378e395034e~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=a3210cb1&amp;x-expires=1760619600&amp;x-signature=i7LsJoumPOVHZE49hBRByqhIVZ4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>1</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>el otro año mochisauros q iluminan
-te dio hambre yogo yogo [sticker]</t>
-        </is>
-      </c>
-      <c r="G84" s="2" t="n">
-        <v>45929.99068287037</v>
-      </c>
-      <c r="H84" s="3" t="n">
-        <v>45929</v>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>23:46:35</t>
-        </is>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="b">
-        <v>0</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555661675728044807', 'createTime': 1759189595, 'createTimeISO': '2025-09-29T23:46:35.000Z', 'text': 'el otro año mochisauros q iluminan\nte dio hambre yogo yogo [sticker]', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7229492920381899781', 'uniqueId': 'ortiz.1400', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/de36f59531a8946d7c3c30cab3c29c87~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=22a4401a&amp;x-expires=1760619600&amp;x-signature=w1sztTSNZBo7Or0cz8r2AQe%2BL4U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>1</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>me encantan los mochis mi mamá nunca me compra ninguno creo que me dejes hacer ⭐😍</t>
-        </is>
-      </c>
-      <c r="G85" s="2" t="n">
-        <v>45939.96612268518</v>
-      </c>
-      <c r="H85" s="3" t="n">
-        <v>45939</v>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>23:11:13</t>
-        </is>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="b">
-        <v>0</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559363418022249224', 'createTime': 1760051473, 'createTimeISO': '2025-10-09T23:11:13.000Z', 'text': 'me encantan los mochis mi mamá nunca me compra ninguno creo que me dejes hacer ⭐😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7381557792702153734', 'uniqueId': 'luchiii4155', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/25933fce4e672e9823eb77161e1bdb88~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=fd3ca8f5&amp;x-expires=1760619600&amp;x-signature=4y195K9EuU9RG7T4DlRNw3wOAFA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>1</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>esta vez está más facil conseguirlos en alkosto pasto , más barato , los encuentras de varios sabores el yogo premio 🥰</t>
-        </is>
-      </c>
-      <c r="G86" s="2" t="n">
-        <v>45933.06369212963</v>
-      </c>
-      <c r="H86" s="3" t="n">
-        <v>45933</v>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>01:31:43</t>
-        </is>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0</v>
-      </c>
-      <c r="L86" t="b">
-        <v>0</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556802057828451090', 'createTime': 1759455103, 'createTimeISO': '2025-10-03T01:31:43.000Z', 'text': 'esta vez está más facil conseguirlos en alkosto pasto , más barato , los encuentras de varios sabores el yogo premio 🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6871021709530334214', 'uniqueId': 'dianajs20', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/d1b80594f31b301f5b7d2a17f8ebf07a~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=54658a86&amp;x-expires=1760619600&amp;x-signature=XKAlh%2BLgUs6ZAyg%2Fdu3IqRBibEo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>1</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>ya no es lo mismo</t>
-        </is>
-      </c>
-      <c r="G87" s="2" t="n">
-        <v>45940.20726851852</v>
-      </c>
-      <c r="H87" s="3" t="n">
-        <v>45940</v>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>04:58:28</t>
-        </is>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" t="b">
-        <v>0</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559452964297917200', 'createTime': 1760072308, 'createTimeISO': '2025-10-10T04:58:28.000Z', 'text': 'ya no es lo mismo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7440309516846367800', 'uniqueId': 'user3866547831001', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/c5d23423bddcf59c497bd0d1bdeea6ad~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=7b87d8c0&amp;x-expires=1760619600&amp;x-signature=nuKVlZmlGCVaT2H8QToUmWkfp14%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>1</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>ami me sale pura cagada un día me salió un unicornio y hoy me salió un cocodrilo (T_T)</t>
-        </is>
-      </c>
-      <c r="G88" s="2" t="n">
-        <v>45935.94721064815</v>
-      </c>
-      <c r="H88" s="3" t="n">
-        <v>45935</v>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>22:43:59</t>
-        </is>
-      </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0</v>
-      </c>
-      <c r="L88" t="b">
-        <v>0</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7557872085788656392', 'createTime': 1759704239, 'createTimeISO': '2025-10-05T22:43:59.000Z', 'text': '𝚊𝚖𝚒 𝚖𝚎 𝚜𝚊𝚕𝚎 𝚙𝚞𝚛𝚊 𝚌𝚊𝚐𝚊𝚍𝚊 𝚞𝚗 𝚍𝚒́𝚊 𝚖𝚎 𝚜𝚊𝚕𝚒𝚘́ 𝚞𝚗 𝚞𝚗𝚒𝚌𝚘𝚛𝚗𝚒𝚘 𝚢 𝚑𝚘𝚢 𝚖𝚎 𝚜𝚊𝚕𝚒𝚘́ 𝚞𝚗 𝚌𝚘𝚌𝚘𝚍𝚛𝚒𝚕𝚘 (T_T)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7398980026529760262', 'uniqueId': 'salome.murcia.lop', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/340cd1e87c2a55967180747c200950a3~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=3c85bbd0&amp;x-expires=1760619600&amp;x-signature=BwbCSl%2BpLOyXsvA%2FBctToxmyObk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>1</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Ami me salió un unicornio en uno</t>
-        </is>
-      </c>
-      <c r="G89" s="2" t="n">
-        <v>45932.92136574074</v>
-      </c>
-      <c r="H89" s="3" t="n">
-        <v>45932</v>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>22:06:46</t>
-        </is>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" t="b">
-        <v>0</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556749197270991637', 'createTime': 1759442806, 'createTimeISO': '2025-10-02T22:06:46.000Z', 'text': 'Ami me salió un unicornio en uno', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7316406165842740230', 'uniqueId': 'michirobloxfnafcolombia', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/811b5143a6b4c89721b77c47d0f3a4cf~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=b8cdaff5&amp;x-expires=1760619600&amp;x-signature=3bCL0Ha2kVVD5N3RWsiQXX%2Buee0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>1</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>y para que sirve eso, que beneficios tiene 😳</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="n">
-        <v>45933.05707175926</v>
-      </c>
-      <c r="H90" s="3" t="n">
-        <v>45933</v>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>01:22:11</t>
-        </is>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" t="b">
-        <v>0</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7556799608577458951', 'createTime': 1759454531, 'createTimeISO': '2025-10-03T01:22:11.000Z', 'text': 'y para que sirve eso, que beneficios tiene 😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6935601595720860678', 'uniqueId': 'monica_lenis1980', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/fce7942c402b7371d210f51cf61e58d9~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a50d12db&amp;x-expires=1760619600&amp;x-signature=MCcb9ozEueitSEvOcSoZ6YQGMNU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>1</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>no hay plata 💔</t>
-        </is>
-      </c>
-      <c r="G91" s="2" t="n">
-        <v>45943.12447916667</v>
-      </c>
-      <c r="H91" s="3" t="n">
-        <v>45943</v>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>02:59:15</t>
-        </is>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="b">
-        <v>0</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7560535489130300168', 'createTime': 1760324355, 'createTimeISO': '2025-10-13T02:59:15.000Z', 'text': 'no hay plata 💔', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7455861170257249300', 'uniqueId': 'eminemxd19', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/81a571f9081a325ea0b63e6179cc5948~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ebb5d862&amp;x-expires=1760619600&amp;x-signature=Nz16ZTZe8CO0LyNDQ3JJRxRXjQM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>1</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>pensándolo bien se ven hermosos 😻💗</t>
-        </is>
-      </c>
-      <c r="G92" s="2" t="n">
-        <v>45940.70783564815</v>
-      </c>
-      <c r="H92" s="3" t="n">
-        <v>45940</v>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>16:59:17</t>
-        </is>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" t="b">
-        <v>0</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559638710619226881', 'createTime': 1760115557, 'createTimeISO': '2025-10-10T16:59:17.000Z', 'text': 'pensándolo bien se ven hermosos 😻💗', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6893194958128972801', 'uniqueId': 'nicollesofiaram98', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/66383e9c8e505f28006c4cbf3c42e837~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=9d26c530&amp;x-expires=1760619600&amp;x-signature=FERpRMa76c5wHXOsluY%2FrRvXwh4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>1</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>alpinaa eres el mejor me gustan tus productos❤</t>
-        </is>
-      </c>
-      <c r="G93" s="2" t="n">
-        <v>45939.82650462963</v>
-      </c>
-      <c r="H93" s="3" t="n">
-        <v>45939</v>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>19:50:10</t>
-        </is>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="b">
-        <v>0</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559311644069757697', 'createTime': 1760039410, 'createTimeISO': '2025-10-09T19:50:10.000Z', 'text': 'alpinaa eres el mejor me gustan tus productos❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7066510018199585798', 'uniqueId': 'dianalozanomorera', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/95486b2edc8f09f2d015ae33f705fe3f~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=00e6f386&amp;x-expires=1760619600&amp;x-signature=fJnB93V9fVBb6JeE8zFDMMP0JgM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>1</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>tengo 14 en total ajaja</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="n">
-        <v>45938.74841435185</v>
-      </c>
-      <c r="H94" s="3" t="n">
-        <v>45938</v>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>17:57:43</t>
-        </is>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" t="b">
-        <v>0</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7558911601061217032', 'createTime': 1759946263, 'createTimeISO': '2025-10-08T17:57:43.000Z', 'text': 'tengo 14 en total ajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7290284449584514053', 'uniqueId': 'not.dnaa', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/c359f92f7ed83771ef9e0d8b18401862~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=d6a4f570&amp;x-expires=1760619600&amp;x-signature=dDY8L8kOw4vvJtIeJ7qpcwCaD4U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>1</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>YO LLEVO SOLO 10 😭😭🗣️🗣</t>
-        </is>
-      </c>
-      <c r="G95" s="2" t="n">
-        <v>45945.12975694444</v>
-      </c>
-      <c r="H95" s="3" t="n">
-        <v>45945</v>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>03:06:51</t>
-        </is>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0</v>
-      </c>
-      <c r="L95" t="b">
-        <v>0</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7561279629291111176', 'createTime': 1760497611, 'createTimeISO': '2025-10-15T03:06:51.000Z', 'text': 'YO LLEVO SOLO 10 😭😭🗣️🗣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7500744921117230081', 'uniqueId': 'l0veworld0', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/4de1e833be3b97b2d4fdf7b32557b65a~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=1b97e13b&amp;x-expires=1760619600&amp;x-signature=Y11zl8eQKH0JR7znvHii6Qae03c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>1</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Alpina me salió el t-rex morado pero me salió rojo</t>
-        </is>
-      </c>
-      <c r="G96" s="2" t="n">
-        <v>45944.32868055555</v>
-      </c>
-      <c r="H96" s="3" t="n">
-        <v>45944</v>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>07:53:18</t>
-        </is>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="b">
-        <v>0</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7560982374209880840', 'createTime': 1760428398, 'createTimeISO': '2025-10-14T07:53:18.000Z', 'text': 'Alpina me salió el t-rex morado pero me salió rojo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7550916854894576647', 'uniqueId': 'matis.leon3', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/5ea667be5045cfb8a1ae14f867516de8~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=5d0fd8f4&amp;x-expires=1760619600&amp;x-signature=k%2Fh5KqQXq4Po6GPMDIUeYapggOU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>1</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>4!? me e comprado 3 y no me sabía está :(</t>
-        </is>
-      </c>
-      <c r="G97" s="2" t="n">
-        <v>45941.94193287037</v>
-      </c>
-      <c r="H97" s="3" t="n">
-        <v>45941</v>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>22:36:23</t>
-        </is>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="b">
-        <v>0</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7560096565530116881', 'createTime': 1760222183, 'createTimeISO': '2025-10-11T22:36:23.000Z', 'text': '4!? me e comprado 3 y no me sabía está :(', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7406050480903095302', 'uniqueId': 'baraka8861', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/3578f8d9ee7e8e3faedd8e33c2df1a1d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=d7b66de7&amp;x-expires=1760619600&amp;x-signature=MhKloIg1%2Fzdf%2BWCnQrVgeL0lSL4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>1</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Mi hija estaba muy comprometida haciendo la recolección de logos recortados de YogoYogo los llevamos a OXXO y le dijeron que los recortó mal y no le dieron premio. Terrible me parece 0 estrellitas no vale la pena.</t>
-        </is>
-      </c>
-      <c r="G98" s="2" t="n">
-        <v>45939.57203703704</v>
-      </c>
-      <c r="H98" s="3" t="n">
-        <v>45939</v>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>13:43:44</t>
-        </is>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="b">
-        <v>0</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559217240907399952', 'createTime': 1760017424, 'createTimeISO': '2025-10-09T13:43:44.000Z', 'text': 'Mi hija estaba muy comprometida haciendo la recolección de logos recortados de YogoYogo los llevamos a OXXO y le dijeron que los recortó mal y no le dieron premio. Terrible me parece 0 estrellitas no vale la pena.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6790690337766556677', 'uniqueId': 'natyzhurra8', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/2ec67cba7b200e2c6b2709b67daa84b1~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=77e91b13&amp;x-expires=1760619600&amp;x-signature=KcSwtxjJ11Q1Wc%2BMWx7hpF%2BEsm8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>1</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSU1kKQGb/</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>sale más fácil comprarles el yogo premio ahí vienen esos muñecos👌</t>
-        </is>
-      </c>
-      <c r="G99" s="2" t="n">
-        <v>45937.1734375</v>
-      </c>
-      <c r="H99" s="3" t="n">
-        <v>45937</v>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>04:09:45</t>
-        </is>
-      </c>
       <c r="J99" t="n">
         <v>0</v>
       </c>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7558327143747928848', 'createTime': 1759810185, 'createTimeISO': '2025-10-07T04:09:45.000Z', 'text': 'sale más fácil comprarles el yogo premio ahí vienen esos muñecos👌', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7270238153704342533', 'uniqueId': 'paola.rodriguez228', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/17617c83aeaf41558f9b9b48472d32af~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=0a20a60f&amp;x-expires=1760619600&amp;x-signature=sZsYu0LwLR7UBoRx7KkiMEbzwDM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555666073921553160', 'createTime': 1759190618, 'createTimeISO': '2025-09-30T00:03:38.000Z', 'text': 'Por que en oxxo por que e\nEn Colombia no hay tantos oxxos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7433071984395338758', 'uniqueId': 'viky1234836', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f814e9b802ec7cd1d5d09a202afca7a9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a8ef585f&amp;x-expires=1760706000&amp;x-signature=k7qpPtezx3RNtN4FnW6Pg2ewUyw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6026,18 +6026,18 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>loooos amooooooo❤️❤️❤️❤️❤</t>
+          <t>en muchos lugares no hay Oxxo no pensaron en nosotros</t>
         </is>
       </c>
       <c r="G100" s="2" t="n">
-        <v>45936.85996527778</v>
+        <v>45929.99023148148</v>
       </c>
       <c r="H100" s="3" t="n">
-        <v>45936</v>
+        <v>45929</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>20:38:21</t>
+          <t>23:45:56</t>
         </is>
       </c>
       <c r="J100" t="n">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7558210750176805633', 'createTime': 1759783101, 'createTimeISO': '2025-10-06T20:38:21.000Z', 'text': 'loooos amooooooo❤️❤️❤️❤️❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7367208908349621253', 'uniqueId': 'temasammy', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/1710e3752cd7ef1d903ec79c90068b53~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6b24fd9b&amp;x-expires=1760619600&amp;x-signature=DxSQlgjAnmocCEsE9Tf7zMrF%2BRY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7555661460748206849', 'createTime': 1759189556, 'createTimeISO': '2025-09-29T23:45:56.000Z', 'text': 'en muchos lugares no hay Oxxo no pensaron en nosotros', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7142647410137138181', 'uniqueId': 'arsel9324', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/50fc02d856bc86dadfa85351b5eebcde~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6d79b8ee&amp;x-expires=1760706000&amp;x-signature=u7nBS4qtAkbTopJUHo9BQ%2BeDdAI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6082,18 +6082,18 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Hola alpina yo tengo 16 mochi saurio soy su fan</t>
+          <t>en colombia noa ah</t>
         </is>
       </c>
       <c r="G101" s="2" t="n">
-        <v>45940.97159722223</v>
+        <v>45926.84263888889</v>
       </c>
       <c r="H101" s="3" t="n">
-        <v>45940</v>
+        <v>45926</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>23:19:06</t>
+          <t>20:13:24</t>
         </is>
       </c>
       <c r="J101" t="n">
@@ -6112,7 +6112,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7559736550297633544', 'createTime': 1760138346, 'createTimeISO': '2025-10-10T23:19:06.000Z', 'text': 'Hola alpina yo tengo 16 mochi saurio soy su fan', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6999062538463003654', 'uniqueId': 'viky34566', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/71919924a1b2f86ffc0e2a1190eabfbc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f6134e92&amp;x-expires=1760619600&amp;x-signature=Uh%2Bs9FtGSla0r6A5NePEaPwdgO0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554409105977330965', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSU1kKQGb/', 'input': 'https://vt.tiktok.com/ZSU1kKQGb/', 'cid': '7554493529289638664', 'createTime': 1758917604, 'createTimeISO': '2025-09-26T20:13:24.000Z', 'text': 'en colombia noa ah', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7503310884556309511', 'uniqueId': 'alba_hernandez21', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3081f3280dc30ced6c73649afc9e82b1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a7c4d5cf&amp;x-expires=1760706000&amp;x-signature=maAgywqszaVqijphJZRsc9O8cAE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6180,7 +6180,7 @@
         <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
     </row>
   </sheetData>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -565,7 +565,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7545286715469792007', 'createTime': 1756773979, 'createTimeISO': '2025-09-02T00:46:19.000Z', 'text': 'Vaquita Kefir plus😊', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6686398605715244037', 'uniqueId': 'carolina_serrano', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/79be4af25ec17f747428b28ea34a0231~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fe77cfef&amp;x-expires=1760734800&amp;x-signature=uLcSoO5zytPLaZF8XHzbpaf8iv0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7545286715469792007', 'createTime': 1756773979, 'createTimeISO': '2025-09-02T00:46:19.000Z', 'text': 'Vaquita Kefir plus😊', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6686398605715244037', 'uniqueId': 'carolina_serrano', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/79be4af25ec17f747428b28ea34a0231~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=22f48931&amp;x-expires=1760792400&amp;x-signature=tkRT4F8kKqWbXp3weXE4nDTf08E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7545316874159293192', 'createTime': 1756780990, 'createTimeISO': '2025-09-02T02:43:10.000Z', 'text': 'Mas videos asiiiii🔥🔥🔥🔥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '178030697805189120', 'uniqueId': 'nico5box', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5a97c5c648a6246f815739afc2a4dd5b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c8e47c00&amp;x-expires=1760734800&amp;x-signature=wVbNemLMEXoPskJGdP%2BO7abyeSU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7545316874159293192', 'createTime': 1756780990, 'createTimeISO': '2025-09-02T02:43:10.000Z', 'text': 'Mas videos asiiiii🔥🔥🔥🔥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '178030697805189120', 'uniqueId': 'nico5box', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5a97c5c648a6246f815739afc2a4dd5b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=66552326&amp;x-expires=1760792400&amp;x-signature=oHUIdMhtfIaCcOW6PK7%2Fl4yYHKk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7545278675375244050', 'createTime': 1756772111, 'createTimeISO': '2025-09-02T00:15:11.000Z', 'text': 'primero\nya casi es octubre que colección de Mochis van a sacar para halloween ✨✨✨?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 10, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f54e6451&amp;x-expires=1760734800&amp;x-signature=9%2FeTN8CYRwFVAMLYCBNE4%2Fzt9bo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7545278675375244050', 'createTime': 1756772111, 'createTimeISO': '2025-09-02T00:15:11.000Z', 'text': 'primero\nya casi es octubre que colección de Mochis van a sacar para halloween ✨✨✨?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 10, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2bedf748&amp;x-expires=1760792400&amp;x-signature=Dm8VTvPq7YQd8fCIPrDZIrk5YWY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7550080571285816082', 'createTime': 1757890141, 'createTimeISO': '2025-09-14T22:49:01.000Z', 'text': '😁', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7469966561530430471', 'uniqueId': 'juangmgm84i', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6b8b1b77&amp;x-expires=1760734800&amp;x-signature=6I4pA%2FIDCOBA%2BZcjTCx9oDIHntE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7550080571285816082', 'createTime': 1757890141, 'createTimeISO': '2025-09-14T22:49:01.000Z', 'text': '😁', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7469966561530430471', 'uniqueId': 'juangmgm84i', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f1b330bd&amp;x-expires=1760792400&amp;x-signature=tpRRe0F49pqOeveDyRFCZVohWMA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -790,7 +790,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7555339654096388871', 'createTime': 1759114604, 'createTimeISO': '2025-09-29T02:56:44.000Z', 'text': 'YO SOY FAN NUMERO UNO DEL KEFIR PLUS DE ALPINA. REALMENTE ES EFECTIVO Y MUY BUENO PARA EL ORGANISMO. Quería escribirles y decirles que el producto es un Hit absoluto. Yo consumo desde hace dos semanas el kefir, y en mi familia ya quedó instalado también 🥰🥰🥰. Y la versión pequeña personal es una maravilla para consumidoras como yo🥰🥰🥰. Bravooooooooooo ALPINA\U0001fa77', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6892758040694359046', 'uniqueId': 'yeriname7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6c41967350ee22b8d1bcb851e47d28c2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4dbb587e&amp;x-expires=1760734800&amp;x-signature=2z1Afg347fApH8b24ZsnnqJglCE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7555339654096388871', 'createTime': 1759114604, 'createTimeISO': '2025-09-29T02:56:44.000Z', 'text': 'YO SOY FAN NUMERO UNO DEL KEFIR PLUS DE ALPINA. REALMENTE ES EFECTIVO Y MUY BUENO PARA EL ORGANISMO. Quería escribirles y decirles que el producto es un Hit absoluto. Yo consumo desde hace dos semanas el kefir, y en mi familia ya quedó instalado también 🥰🥰🥰. Y la versión pequeña personal es una maravilla para consumidoras como yo🥰🥰🥰. Bravooooooooooo ALPINA\U0001fa77', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6892758040694359046', 'uniqueId': 'yeriname7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6c41967350ee22b8d1bcb851e47d28c2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7d4ec7d6&amp;x-expires=1760792400&amp;x-signature=jf%2BcAYAkH5eG5%2BklOQMBG5Mhjtk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -847,7 +847,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547697455086404360', 'createTime': 1757335263, 'createTimeISO': '2025-09-08T12:41:03.000Z', 'text': 'QUEE?? 😭\nYO YA ESTABA EMOCIONADO SI AVISABAN NUEVOS MOCHIS O SUS VIDEOS QUE ME ENTRETIENEN😭😭😭', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f54e6451&amp;x-expires=1760734800&amp;x-signature=9%2FeTN8CYRwFVAMLYCBNE4%2Fzt9bo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547697455086404360', 'createTime': 1757335263, 'createTimeISO': '2025-09-08T12:41:03.000Z', 'text': 'QUEE?? 😭\nYO YA ESTABA EMOCIONADO SI AVISABAN NUEVOS MOCHIS O SUS VIDEOS QUE ME ENTRETIENEN😭😭😭', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2bedf748&amp;x-expires=1760792400&amp;x-signature=Dm8VTvPq7YQd8fCIPrDZIrk5YWY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -873,18 +873,18 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gaby alpinita que sucedio, vuelve vuelveeeeeeew💖</t>
+          <t>NOOO ALPINA XQQQ😭</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45920.12734953704</v>
+        <v>45932.70420138889</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>45920</v>
+        <v>45932</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>03:03:23</t>
+          <t>16:54:03</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -903,7 +903,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7552001614913356551', 'createTime': 1758337403, 'createTimeISO': '2025-09-20T03:03:23.000Z', 'text': 'Gaby alpinita que sucedio, vuelve vuelveeeeeeew💖', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e963de3b&amp;x-expires=1760734800&amp;x-signature=e88latekre8LmWd2X6CbcNHWJ7o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7556668683994727189', 'createTime': 1759424043, 'createTimeISO': '2025-10-02T16:54:03.000Z', 'text': 'NOOO ALPINA XQQQ😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7183010536447411205', 'uniqueId': 'isa._.325', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9df3fc21562bf9b98d25266752d554c8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cb492640&amp;x-expires=1760792400&amp;x-signature=T2A2Wqf9Nrs8L9RiTaYYrLpr3os%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -929,22 +929,22 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>porqueeee??😭😭😭😭</t>
+          <t>Gaby alpinita que sucedio, vuelve vuelveeeeeeew💖</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>45907.57980324074</v>
+        <v>45920.12734953704</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>45907</v>
+        <v>45920</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>13:54:55</t>
+          <t>03:03:23</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547344669736600338', 'createTime': 1757253295, 'createTimeISO': '2025-09-07T13:54:55.000Z', 'text': 'porqueeee??😭😭😭😭', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7467024639018468360', 'uniqueId': 'leidy_y22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/170467e038e889966ba7de820632ba9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a6362ce0&amp;x-expires=1760734800&amp;x-signature=LTsEbLT5MY590Pawdg%2FLgCdjWpQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7552001614913356551', 'createTime': 1758337403, 'createTimeISO': '2025-09-20T03:03:23.000Z', 'text': 'Gaby alpinita que sucedio, vuelve vuelveeeeeeew💖', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a0c7ceb2&amp;x-expires=1760792400&amp;x-signature=n8ULNXO7OSQPOUy1Ykxw4pMDmQc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -985,22 +985,22 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NOOO ALPINA XQQQ😭</t>
+          <t>porqueeee??😭😭😭😭</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>45932.70420138889</v>
+        <v>45907.57980324074</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>45932</v>
+        <v>45907</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>16:54:03</t>
+          <t>13:54:55</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7556668683994727189', 'createTime': 1759424043, 'createTimeISO': '2025-10-02T16:54:03.000Z', 'text': 'NOOO ALPINA XQQQ😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7183010536447411205', 'uniqueId': 'isa._.325', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9df3fc21562bf9b98d25266752d554c8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=24192165&amp;x-expires=1760734800&amp;x-signature=AZ9igho0uH%2BkTPryFgwrqog%2BtZk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547344669736600338', 'createTime': 1757253295, 'createTimeISO': '2025-09-07T13:54:55.000Z', 'text': 'porqueeee??😭😭😭😭', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7467024639018468360', 'uniqueId': 'leidy_y22', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/170467e038e889966ba7de820632ba9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=60691639&amp;x-expires=1760792400&amp;x-signature=hnb0U3n0Cbz%2BsWmERPY0gRJ2dYc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1041,18 +1041,18 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Qué? 😭</t>
+          <t>Queee ?</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>45905.7774074074</v>
+        <v>45905.84496527778</v>
       </c>
       <c r="H11" s="3" t="n">
         <v>45905</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>18:39:28</t>
+          <t>20:16:45</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546676538382746376', 'createTime': 1757097568, 'createTimeISO': '2025-09-05T18:39:28.000Z', 'text': 'Qué? 😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6823366905291965446', 'uniqueId': 'jfelipegomez1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7329628384854736902~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8d05f89d&amp;x-expires=1760734800&amp;x-signature=h9Cmqem85TwVByzApSe%2Fw%2B6xrZc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546701614498087688', 'createTime': 1757103405, 'createTimeISO': '2025-09-05T20:16:45.000Z', 'text': 'Queee ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781206829306807302', 'uniqueId': 'gaaaabs6', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/87a6fa6e1b0b9d03506eca068222ad5e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fe1edaff&amp;x-expires=1760792400&amp;x-signature=n1dKSJD%2FbQByiwKJja3MCj6V9Uc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1097,18 +1097,18 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Queee ?</t>
+          <t>Qué? 😭</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>45905.84496527778</v>
+        <v>45905.7774074074</v>
       </c>
       <c r="H12" s="3" t="n">
         <v>45905</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>20:16:45</t>
+          <t>18:39:28</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546701614498087688', 'createTime': 1757103405, 'createTimeISO': '2025-09-05T20:16:45.000Z', 'text': 'Queee ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781206829306807302', 'uniqueId': 'gaaaabs6', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/87a6fa6e1b0b9d03506eca068222ad5e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=42d18698&amp;x-expires=1760734800&amp;x-signature=5GAI0w1MN5VfpEqucJTxhEtfhp0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546676538382746376', 'createTime': 1757097568, 'createTimeISO': '2025-09-05T18:39:28.000Z', 'text': 'Qué? 😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6823366905291965446', 'uniqueId': 'jfelipegomez1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7329628384854736902~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2240b3fb&amp;x-expires=1760792400&amp;x-signature=ESbwrSxVjud27rTG%2FX3hUFAD018%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546705871947072276', 'createTime': 1757104397, 'createTimeISO': '2025-09-05T20:33:17.000Z', 'text': 'Wa hapen', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6786334206413177862', 'uniqueId': 'oscardavidaldana', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/bc48481fc572183ea9e26aa81964cf2b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bbe68c92&amp;x-expires=1760734800&amp;x-signature=LWNPJg3fVJLML2UMfWhSiYYfcC4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546705871947072276', 'createTime': 1757104397, 'createTimeISO': '2025-09-05T20:33:17.000Z', 'text': 'Wa hapen', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6786334206413177862', 'uniqueId': 'oscardavidaldana', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/bc48481fc572183ea9e26aa81964cf2b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c44e57d0&amp;x-expires=1760792400&amp;x-signature=QN7ykqX%2FZVm0mwhu9mTrpjeIwGk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547741547535500049', 'createTime': 1757345532, 'createTimeISO': '2025-09-08T15:32:12.000Z', 'text': 'por Dios ahora que pasó. y yo etiquetando Alpina 😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6830280708298343430', 'uniqueId': 'andreifyt2025_', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ca95b033b49845a0bbb72152f6a7fb22~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5e547a56&amp;x-expires=1760734800&amp;x-signature=DY5zTd3iK6ZOCqedsp4KQPSzXR4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547741547535500049', 'createTime': 1757345532, 'createTimeISO': '2025-09-08T15:32:12.000Z', 'text': 'por Dios ahora que pasó. y yo etiquetando Alpina 😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6830280708298343430', 'uniqueId': 'andreifyt2025_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ca95b033b49845a0bbb72152f6a7fb22~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=65e9b93d&amp;x-expires=1760792400&amp;x-signature=eePr6AFtY8OHQUiWoJlXuNaN8%2FQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547942977034617601', 'createTime': 1757392441, 'createTimeISO': '2025-09-09T04:34:01.000Z', 'text': 'volví, haber cuantos meses me fui, que??!!!, 4 meses 😱', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7eb63b58&amp;x-expires=1760734800&amp;x-signature=m4kFvV7S%2B0LcYMgsWRXzVyxEofY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547942977034617601', 'createTime': 1757392441, 'createTimeISO': '2025-09-09T04:34:01.000Z', 'text': 'volví, haber cuantos meses me fui, que??!!!, 4 meses 😱', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e7109759&amp;x-expires=1760792400&amp;x-signature=6np5PsSGRsgOWrfycwtS1A%2F9FUg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546693261533659922', 'createTime': 1757101461, 'createTimeISO': '2025-09-05T19:44:21.000Z', 'text': '👀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808331911279903750', 'uniqueId': 'aleja.cardenas', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ae26428fddeb4cb0c608c71af324941d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c7a33193&amp;x-expires=1760734800&amp;x-signature=Zf9wVjwL3o%2FO203SZ7GmS9JoaIE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546693261533659922', 'createTime': 1757101461, 'createTimeISO': '2025-09-05T19:44:21.000Z', 'text': '👀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808331911279903750', 'uniqueId': 'aleja.cardenas', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ae26428fddeb4cb0c608c71af324941d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8bfbd121&amp;x-expires=1760792400&amp;x-signature=NPTLyCYpUZV%2FfXTa0Q4nrd4p57c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1377,18 +1377,18 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>😭😰</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>45913.57261574074</v>
+        <v>45906.49487268519</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>45913</v>
+        <v>45906</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>13:44:34</t>
+          <t>11:52:37</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7549569237565211409', 'createTime': 1757771074, 'createTimeISO': '2025-09-13T13:44:34.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7186369712568189957', 'uniqueId': 'luzadrianacanooro', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ba9035ed44089efdd68ad1a325c0409b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a61cdba7&amp;x-expires=1760734800&amp;x-signature=AFXF7NJN5YBUzgjA3AnzxU9fZbY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546942799272411922', 'createTime': 1757159557, 'createTimeISO': '2025-09-06T11:52:37.000Z', 'text': '😭😰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7416452271041987590', 'uniqueId': 'saragutierrez9607', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2d50ff98a95e65e1155080427e14139e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=212a720d&amp;x-expires=1760792400&amp;x-signature=MsmPFkG7J55vw3qa3bRWcPSXie4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1433,18 +1433,18 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>😭😰</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>45906.49487268519</v>
+        <v>45913.57261574074</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>45906</v>
+        <v>45913</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>11:52:37</t>
+          <t>13:44:34</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546942799272411922', 'createTime': 1757159557, 'createTimeISO': '2025-09-06T11:52:37.000Z', 'text': '😭😰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7416452271041987590', 'uniqueId': 'saragutierrez9607', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2d50ff98a95e65e1155080427e14139e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a8f7c105&amp;x-expires=1760734800&amp;x-signature=4qBmvWGDZBZjy5dp78Td0nXm5TQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7549569237565211409', 'createTime': 1757771074, 'createTimeISO': '2025-09-13T13:44:34.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7186369712568189957', 'uniqueId': 'luzadrianacanooro', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ba9035ed44089efdd68ad1a325c0409b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=87412837&amp;x-expires=1760792400&amp;x-signature=A4dcKaadL%2BnhYP9qOnT2csETY08%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7557608767006114567', 'createTime': 1759642921, 'createTimeISO': '2025-10-05T05:42:01.000Z', 'text': 'Por qué están en problemas con el ministerio de trabajo @Ministerio de Trabajo -Bolivia por qué sus distribuidores en el país tienen a sus empleados con explotación laboral sobre carga laboral horarios que exceden las 15 horas y no les pagan extras ni recargos donde un empleado hace lo de 3 empleados', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6954818842602931205', 'uniqueId': 'fabiobedoya1504', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0533c8b2372d1c920dad7ae339c48a3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=521c41f3&amp;x-expires=1760734800&amp;x-signature=7XuYogUb6a%2BEHrFZga2sDdcueLE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@Ministerio de Trabajo -Bolivia'], 'detailedMentions': [{'userId': '6817567040930497541', 'nickName': 'Ministerio de Trabajo -Bolivia', 'profileUrl': 'https://www.tiktok.com/@6817567040930497541', 'secUid': 'MS4wLjABAAAAVga5B9Md-oI5XuH5Ruk5ES1IympOnnPUKuurL6hWMHXQ6hzxZPUYisB2cnA5aPyh'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7557608767006114567', 'createTime': 1759642921, 'createTimeISO': '2025-10-05T05:42:01.000Z', 'text': 'Por qué están en problemas con el ministerio de trabajo @Ministerio de Trabajo -Bolivia por qué sus distribuidores en el país tienen a sus empleados con explotación laboral sobre carga laboral horarios que exceden las 15 horas y no les pagan extras ni recargos donde un empleado hace lo de 3 empleados', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6954818842602931205', 'uniqueId': 'fabiobedoya1504', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0533c8b2372d1c920dad7ae339c48a3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=96e81418&amp;x-expires=1760792400&amp;x-signature=iICW99w82x689V4iCAFbIh%2BFx9k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@Ministerio de Trabajo -Bolivia'], 'detailedMentions': [{'userId': '6817567040930497541', 'nickName': 'Ministerio de Trabajo -Bolivia', 'profileUrl': 'https://www.tiktok.com/@6817567040930497541', 'secUid': 'MS4wLjABAAAAVga5B9Md-oI5XuH5Ruk5ES1IympOnnPUKuurL6hWMHXQ6hzxZPUYisB2cnA5aPyh'}]}</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546679584475349768', 'createTime': 1757098279, 'createTimeISO': '2025-09-05T18:51:19.000Z', 'text': 'ay y por que alpinita', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7389831937894843398', 'uniqueId': 'un_emo_amigable', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37bc4cd15dd442f352783fdcce05dfb8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=61bac868&amp;x-expires=1760734800&amp;x-signature=6%2BTuX2ZzSD1%2FOjSeESEN2DBLcK4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546679584475349768', 'createTime': 1757098279, 'createTimeISO': '2025-09-05T18:51:19.000Z', 'text': 'ay y por que alpinita', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7389831937894843398', 'uniqueId': 'un_emo_amigable', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37bc4cd15dd442f352783fdcce05dfb8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=628fb328&amp;x-expires=1760792400&amp;x-signature=koVSbMIf56iuhCAz61imCd3X41A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7560323939830924039', 'createTime': 1760275093, 'createTimeISO': '2025-10-12T13:18:13.000Z', 'text': 'para mí alpina no nesecita mucha publicidad,Alpina es un producto que se vende solo....solo con escuchar Alpina en mi mente automáticamente es calidad y muy rico..todo', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7278338689078658054', 'uniqueId': 'aydaconsuelobedoy', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/055c3a3a8db8013e7b0d2d1a496bf1ac~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=62df49c2&amp;x-expires=1760734800&amp;x-signature=7JPFBkPLZ0lEMnXDgQSNwNP01Iw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7560323939830924039', 'createTime': 1760275093, 'createTimeISO': '2025-10-12T13:18:13.000Z', 'text': 'para mí alpina no nesecita mucha publicidad,Alpina es un producto que se vende solo....solo con escuchar Alpina en mi mente automáticamente es calidad y muy rico..todo', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7278338689078658054', 'uniqueId': 'aydaconsuelobedoy', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/055c3a3a8db8013e7b0d2d1a496bf1ac~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=34ce6d9d&amp;x-expires=1760792400&amp;x-signature=%2BHLpthDSWaeic59ytA2g9Nc7bVY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1657,25 +1657,25 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>siiii ayudemosle!!!</t>
+          <t>Siiiii! Ya quiero ver la nueva practicante🎉🎉🎉</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>45912.8164699074</v>
+        <v>45912.6234375</v>
       </c>
       <c r="H22" s="3" t="n">
         <v>45912</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>19:35:43</t>
+          <t>14:57:45</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549288639830721301', 'createTime': 1757705743, 'createTimeISO': '2025-09-12T19:35:43.000Z', 'text': 'siiii ayudemosle!!!', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6770401168398386182', 'uniqueId': 'gabrielaguerrero70', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a36d643d0a9ecc0cdaafc93b6200aa8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e79317c8&amp;x-expires=1760734800&amp;x-signature=KCj2i2NJ2yEL3KK76HdmUAbUv%2FM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549217011010044692', 'createTime': 1757689065, 'createTimeISO': '2025-09-12T14:57:45.000Z', 'text': 'Siiiii! Ya quiero ver la nueva practicante🎉🎉🎉', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6819089554679940101', 'uniqueId': 'julianavivasr03', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f3051c41eba0cedcc184a155cdd5fe57~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=47a3e0c2&amp;x-expires=1760792400&amp;x-signature=nnFgS8Vz9hWDF6zItzTpy%2BwptJg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1713,22 +1713,22 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Siiiii! Ya quiero ver la nueva practicante🎉🎉🎉</t>
+          <t>jojojo</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>45912.6234375</v>
+        <v>45935.64364583333</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>45912</v>
+        <v>45935</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>14:57:45</t>
+          <t>15:26:51</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549217011010044692', 'createTime': 1757689065, 'createTimeISO': '2025-09-12T14:57:45.000Z', 'text': 'Siiiii! Ya quiero ver la nueva practicante🎉🎉🎉', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6819089554679940101', 'uniqueId': 'julianavivasr03', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f3051c41eba0cedcc184a155cdd5fe57~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e05f4a6f&amp;x-expires=1760734800&amp;x-signature=4ziVjxTb1nFBIPgceW49wc1DWUA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7557758733863387920', 'createTime': 1759678011, 'createTimeISO': '2025-10-05T15:26:51.000Z', 'text': 'jojojo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7554795739316306964', 'uniqueId': 'freydermurcia33', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/699d7f94c2d9a0694952663b219cc25f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bef44ae7&amp;x-expires=1760792400&amp;x-signature=lIZC7hAsA%2FJRt2lG8OhpF85hXr4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1769,18 +1769,18 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ay tan bonitaaaaa mañana nos vemos 🥺</t>
+          <t>siiii ayudemosle!!!</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>45912.17210648148</v>
+        <v>45912.8164699074</v>
       </c>
       <c r="H24" s="3" t="n">
         <v>45912</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>04:07:50</t>
+          <t>19:35:43</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549049533700277012', 'createTime': 1757650070, 'createTimeISO': '2025-09-12T04:07:50.000Z', 'text': 'Ay tan bonitaaaaa mañana nos vemos 🥺', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7355258637583844357', 'uniqueId': 'majitouuuuuu0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/dbc73978fd3f05b374910bef0e207b56~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d05c465b&amp;x-expires=1760734800&amp;x-signature=ea6f07iIYzhQC7sdC9mJDccZIiA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549288639830721301', 'createTime': 1757705743, 'createTimeISO': '2025-09-12T19:35:43.000Z', 'text': 'siiii ayudemosle!!!', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6770401168398386182', 'uniqueId': 'gabrielaguerrero70', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a36d643d0a9ecc0cdaafc93b6200aa8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=088e8889&amp;x-expires=1760792400&amp;x-signature=kXZ6J%2FIo6vgg6dTzoOCbRsammA8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1825,25 +1825,25 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>jojojo</t>
+          <t>Ay tan bonitaaaaa mañana nos vemos 🥺</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>45935.64364583333</v>
+        <v>45912.17210648148</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>45935</v>
+        <v>45912</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>15:26:51</t>
+          <t>04:07:50</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7557758733863387920', 'createTime': 1759678011, 'createTimeISO': '2025-10-05T15:26:51.000Z', 'text': 'jojojo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7554795739316306964', 'uniqueId': 'freydermurcia33', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/699d7f94c2d9a0694952663b219cc25f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8f0b02ef&amp;x-expires=1760734800&amp;x-signature=cIcmk%2B%2BsgOmbVZ6jaGmS0mT2wRA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549049533700277012', 'createTime': 1757650070, 'createTimeISO': '2025-09-12T04:07:50.000Z', 'text': 'Ay tan bonitaaaaa mañana nos vemos 🥺', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7355258637583844357', 'uniqueId': 'majitouuuuuu0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/dbc73978fd3f05b374910bef0e207b56~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f00bcce2&amp;x-expires=1760792400&amp;x-signature=IGmlFXZB4fgoduohHOngDpvtErs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549289149077979912', 'createTime': 1757705862, 'createTimeISO': '2025-09-12T19:37:42.000Z', 'text': 'Quien esssss ? 👀', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7255348886041691141', 'uniqueId': 'jholainec21', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/205ba05ede21686eb806965cb40fd502~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0310054a&amp;x-expires=1760734800&amp;x-signature=bZT81WK8DZJc2Qxqgfb6T29LzHs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549289149077979912', 'createTime': 1757705862, 'createTimeISO': '2025-09-12T19:37:42.000Z', 'text': 'Quien esssss ? 👀', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7255348886041691141', 'uniqueId': 'jholainec21', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/205ba05ede21686eb806965cb40fd502~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=82d4afdc&amp;x-expires=1760792400&amp;x-signature=u4t6bGTPiI%2FACBLRGXm4oNFSx1g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549004192569525000', 'createTime': 1757639515, 'createTimeISO': '2025-09-12T01:11:55.000Z', 'text': 'holitaaaa', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6982722979595863046', 'uniqueId': 'mrbrawl69', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/38c613c8f3cea66a0a3bfeab34f76e58~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b7abbb1d&amp;x-expires=1760734800&amp;x-signature=2Gs6pDqknh3vT0zLkusgyCXzIic%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549004192569525000', 'createTime': 1757639515, 'createTimeISO': '2025-09-12T01:11:55.000Z', 'text': 'holitaaaa', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6982722979595863046', 'uniqueId': 'mrbrawl69', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/38c613c8f3cea66a0a3bfeab34f76e58~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=050987eb&amp;x-expires=1760792400&amp;x-signature=QBA6iCV4L%2FCRPD6MoKKqL12qDTc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549596693055554311', 'createTime': 1757777462, 'createTimeISO': '2025-09-13T15:31:02.000Z', 'text': 'A AYUDAR A ALPINA\U0001fa77\U0001fa77\U0001fa77', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f54e6451&amp;x-expires=1760734800&amp;x-signature=9%2FeTN8CYRwFVAMLYCBNE4%2Fzt9bo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549596693055554311', 'createTime': 1757777462, 'createTimeISO': '2025-09-13T15:31:02.000Z', 'text': 'A AYUDAR A ALPINA\U0001fa77\U0001fa77\U0001fa77', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2bedf748&amp;x-expires=1760792400&amp;x-signature=Dm8VTvPq7YQd8fCIPrDZIrk5YWY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549015309047710471', 'createTime': 1757642105, 'createTimeISO': '2025-09-12T01:55:05.000Z', 'text': 'Un concurso de cocina ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6790480840596358149', 'uniqueId': 'vivianaospina67', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/34082dcda72461c00ba3d59eb0cda82a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dc647524&amp;x-expires=1760734800&amp;x-signature=7dCvYpZPW7I10X8T758yhZhexYQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549015309047710471', 'createTime': 1757642105, 'createTimeISO': '2025-09-12T01:55:05.000Z', 'text': 'Un concurso de cocina ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6790480840596358149', 'uniqueId': 'vivianaospina67', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/34082dcda72461c00ba3d59eb0cda82a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9fafae66&amp;x-expires=1760792400&amp;x-signature=JQyF27LD%2F6GLybHXYQEm0GYJCn8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549000273060233991', 'createTime': 1757638613, 'createTimeISO': '2025-09-12T00:56:53.000Z', 'text': '💙💙💙', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7046148050101109766', 'uniqueId': 'juanp846', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/cdf703b505ceb5a3cf5f7b216c352922~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9cc36c72&amp;x-expires=1760734800&amp;x-signature=oGUzVKrJPrkxUZVHLCiz1HKmSlA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549000273060233991', 'createTime': 1757638613, 'createTimeISO': '2025-09-12T00:56:53.000Z', 'text': '💙💙💙', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7046148050101109766', 'uniqueId': 'juanp846', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/cdf703b505ceb5a3cf5f7b216c352922~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=59c0ffbd&amp;x-expires=1760792400&amp;x-signature=%2FVTL6M5BXUFE0SOtprSegfVQx8w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549007617818559250', 'createTime': 1757640317, 'createTimeISO': '2025-09-12T01:25:17.000Z', 'text': '🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6710319884842337285', 'uniqueId': 'itssantiagocelis', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c17d4d00500c39eed015d9ab552b352a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8ecb341a&amp;x-expires=1760734800&amp;x-signature=zmp3aLgN61ZczXhlCB4Whswx04U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549007617818559250', 'createTime': 1757640317, 'createTimeISO': '2025-09-12T01:25:17.000Z', 'text': '🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6710319884842337285', 'uniqueId': 'itssantiagocelis', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c17d4d00500c39eed015d9ab552b352a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=583d9367&amp;x-expires=1760792400&amp;x-signature=vTtagZP9uNzAZ1jKnH0wy46G1RE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2217,18 +2217,18 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>🥰😳😁</t>
+          <t>😮😮😮</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>45912.87542824074</v>
+        <v>45912.68053240741</v>
       </c>
       <c r="H32" s="3" t="n">
         <v>45912</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>21:00:37</t>
+          <t>16:19:58</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549310477420708629', 'createTime': 1757710837, 'createTimeISO': '2025-09-12T21:00:37.000Z', 'text': '🥰😳😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7509769410816705544', 'uniqueId': 'user749076194246', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6b8b1b77&amp;x-expires=1760734800&amp;x-signature=6I4pA%2FIDCOBA%2BZcjTCx9oDIHntE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549238211336487681', 'createTime': 1757693998, 'createTimeISO': '2025-09-12T16:19:58.000Z', 'text': '😮😮😮', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6778152010580509702', 'uniqueId': 'esteban_ocampov', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6a63d386d387123e4d61df4e994bb26d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bb64c4fd&amp;x-expires=1760792400&amp;x-signature=6QzzpnPB9ExWfr%2Fr05HWaGfV9os%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2273,18 +2273,18 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>🗿🗿🗿</t>
+          <t>🥰😳😁</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>45912.03923611111</v>
+        <v>45912.87542824074</v>
       </c>
       <c r="H33" s="3" t="n">
         <v>45912</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>00:56:30</t>
+          <t>21:00:37</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549000221259399954', 'createTime': 1757638590, 'createTimeISO': '2025-09-12T00:56:30.000Z', 'text': '🗿🗿🗿', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7319745287890387973', 'uniqueId': 'matias_8595', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5f5971d5ab8daf18154e11b542557337~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0452ebbe&amp;x-expires=1760734800&amp;x-signature=YKUYfaBdPv7XmuoKzgmhnS%2F9%2F2k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549310477420708629', 'createTime': 1757710837, 'createTimeISO': '2025-09-12T21:00:37.000Z', 'text': '🥰😳😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7509769410816705544', 'uniqueId': 'user749076194246', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a3e15ef0&amp;x-expires=1760792400&amp;x-signature=5uahYyuif64MzJTage22%2FAJVWPI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2329,18 +2329,18 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>😮😮😮</t>
+          <t>🗿🗿🗿</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>45912.68053240741</v>
+        <v>45912.03923611111</v>
       </c>
       <c r="H34" s="3" t="n">
         <v>45912</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>16:19:58</t>
+          <t>00:56:30</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549238211336487681', 'createTime': 1757693998, 'createTimeISO': '2025-09-12T16:19:58.000Z', 'text': '😮😮😮', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6778152010580509702', 'uniqueId': 'esteban_ocampov', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6a63d386d387123e4d61df4e994bb26d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4ecf2718&amp;x-expires=1760734800&amp;x-signature=S8ohp834GvbUU15aqfIbIxWS4PI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549000221259399954', 'createTime': 1757638590, 'createTimeISO': '2025-09-12T00:56:30.000Z', 'text': '🗿🗿🗿', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7319745287890387973', 'uniqueId': 'matias_8595', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37f085e6cd1478b738e427953d05ecb8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8da6c750&amp;x-expires=1760792400&amp;x-signature=XRSrg27ri8jeslPMsVPY4Y3f2p8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7557895538470322945', 'createTime': 1759709708, 'createTimeISO': '2025-10-06T00:15:08.000Z', 'text': 'rgcuhif', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6975369451886593029', 'uniqueId': 'noraortegom', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6b8b1b77&amp;x-expires=1760734800&amp;x-signature=6I4pA%2FIDCOBA%2BZcjTCx9oDIHntE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7557895538470322945', 'createTime': 1759709708, 'createTimeISO': '2025-10-06T00:15:08.000Z', 'text': 'rgcuhif', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6975369451886593029', 'uniqueId': 'noraortegom', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f1b330bd&amp;x-expires=1760792400&amp;x-signature=tpRRe0F49pqOeveDyRFCZVohWMA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2441,25 +2441,25 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>que vuelvan los gatos porfiiii</t>
+          <t>alpina yo quiero saber si¿la nueva colección de yogo premio se llama mochi saurios????@Alpina 🐮</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>45940.73591435186</v>
+        <v>45912.55510416667</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>45940</v>
+        <v>45912</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>17:39:43</t>
+          <t>13:19:21</t>
         </is>
       </c>
       <c r="J36" t="n">
         <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7559649133477823253', 'createTime': 1760117983, 'createTimeISO': '2025-10-10T17:39:43.000Z', 'text': 'que vuelvan los gatos porfiiii', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541238264298357778', 'uniqueId': 'user3811220354277', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4f783bc015f5d5ce0924144651a5aee6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f58a988e&amp;x-expires=1760734800&amp;x-signature=iamiyd7ZSLFT%2FpdSpqbLQDj9yCY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549191179351474951', 'createTime': 1757683161, 'createTimeISO': '2025-09-12T13:19:21.000Z', 'text': 'alpina yo quiero saber si¿la nueva colección de yogo premio se llama mochi saurios????@Alpina 🐮', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7467024639018468360', 'uniqueId': 'leidy_y22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/170467e038e889966ba7de820632ba9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=369420ea&amp;x-expires=1760792400&amp;x-signature=24H%2Bhfue4LTrZJbrM88yHNhOPJM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
         </is>
       </c>
     </row>
@@ -2497,25 +2497,25 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>alpina yo quiero saber si¿la nueva colección de yogo premio se llama mochi saurios????@Alpina 🐮</t>
+          <t>que vuelvan los gatos porfiiii</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>45912.55510416667</v>
+        <v>45940.73591435186</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>45912</v>
+        <v>45940</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>13:19:21</t>
+          <t>17:39:43</t>
         </is>
       </c>
       <c r="J37" t="n">
         <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549191179351474951', 'createTime': 1757683161, 'createTimeISO': '2025-09-12T13:19:21.000Z', 'text': 'alpina yo quiero saber si¿la nueva colección de yogo premio se llama mochi saurios????@Alpina 🐮', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7467024639018468360', 'uniqueId': 'leidy_y22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/170467e038e889966ba7de820632ba9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a6362ce0&amp;x-expires=1760734800&amp;x-signature=LTsEbLT5MY590Pawdg%2FLgCdjWpQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7559649133477823253', 'createTime': 1760117983, 'createTimeISO': '2025-10-10T17:39:43.000Z', 'text': 'que vuelvan los gatos porfiiii', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541238264298357778', 'uniqueId': 'user3811220354277', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4f783bc015f5d5ce0924144651a5aee6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=106536bb&amp;x-expires=1760792400&amp;x-signature=jdj01Ftvvj2idVQ15jjMw1rXhqw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550838637400179464', 'createTime': 1758066634, 'createTimeISO': '2025-09-16T23:50:34.000Z', 'text': 'no soy practicante Pero quiero trabajar con ustedes 😭 soy admin, que puedo hacer? 😭', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6952624737991443462', 'uniqueId': 'valeria_noo2', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1a1431eb5fd2ec2b3db383b2b0e26ac9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d6c07e86&amp;x-expires=1760734800&amp;x-signature=47tC0D7KspmCVWBULmQnPeR59u8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550838637400179464', 'createTime': 1758066634, 'createTimeISO': '2025-09-16T23:50:34.000Z', 'text': 'no soy practicante Pero quiero trabajar con ustedes 😭 soy admin, que puedo hacer? 😭', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6952624737991443462', 'uniqueId': 'valeria_noo2', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1a1431eb5fd2ec2b3db383b2b0e26ac9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f190f776&amp;x-expires=1760792400&amp;x-signature=ZOFFJJxllq7ru62%2BqFAC0vikpxc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550850431720325905', 'createTime': 1758069395, 'createTimeISO': '2025-09-17T00:36:35.000Z', 'text': 'QUIERO MI MOCHISAURIOOOOO 😭🦕😩💗', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '282408726983028736', 'uniqueId': 'wanna_juana', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/17e1ad71c0265acba1716a4696601785~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d9ec39eb&amp;x-expires=1760734800&amp;x-signature=W2m5Ok0Ppk2Sq7JIgXzYu4TmMFI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550850431720325905', 'createTime': 1758069395, 'createTimeISO': '2025-09-17T00:36:35.000Z', 'text': 'QUIERO MI MOCHISAURIOOOOO 😭🦕😩💗', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '282408726983028736', 'uniqueId': 'wanna_juana', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/17e1ad71c0265acba1716a4696601785~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=47ccf626&amp;x-expires=1760792400&amp;x-signature=hzcDJbJb211bV74cnibmUvGVcm8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2665,18 +2665,18 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Buen día, aceptan pasantes en área administrativa?😳</t>
+          <t>Hola alpina cambien el vasito de yogo yogo mochisaurio por qué es muy duro y me corte cambienlo por el de premio yogo yogo que se quita fácil se que no es del tema</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>45924.54788194445</v>
+        <v>45936.70731481481</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>45924</v>
+        <v>45936</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>13:08:57</t>
+          <t>16:58:32</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7553641991944602386', 'createTime': 1758719337, 'createTimeISO': '2025-09-24T13:08:57.000Z', 'text': 'Buen día, aceptan pasantes en área administrativa?😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6819016661686453254', 'uniqueId': 'scatalina15', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/65616505ecd12a1b5dd469d79ec8a719~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d97ba8f1&amp;x-expires=1760734800&amp;x-signature=KiAfMOa21PXQQW8wOVg70FFD%2F8U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7558154185101247240', 'createTime': 1759769912, 'createTimeISO': '2025-10-06T16:58:32.000Z', 'text': 'Hola alpina cambien el vasito de yogo yogo mochisaurio por qué es muy duro y me corte cambienlo por el de premio yogo yogo que se quita fácil se que no es del tema', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7005260384655574022', 'uniqueId': 'diegoalejandropat3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7327286844337127429~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=de98b387&amp;x-expires=1760792400&amp;x-signature=NwDCAaN8pF5wBBy0qiwCkvcBWAI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551633311488082696', 'createTime': 1758251650, 'createTimeISO': '2025-09-19T03:14:10.000Z', 'text': 'Amò este Alpina', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6955254769972806662', 'uniqueId': 'santiwhosthat', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/72ed639d278a53a7ee891f25034e0d1a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c54b1212&amp;x-expires=1760734800&amp;x-signature=2QXItVy56fNrnzhFIRx36gqJ3EY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551633311488082696', 'createTime': 1758251650, 'createTimeISO': '2025-09-19T03:14:10.000Z', 'text': 'Amò este Alpina', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6955254769972806662', 'uniqueId': 'santiwhosthat', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/72ed639d278a53a7ee891f25034e0d1a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fcaeaea5&amp;x-expires=1760792400&amp;x-signature=Jkgu9GcC453f12lSeXzUn4dvUCw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2777,25 +2777,25 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lo emocionada que estoy por hacer parte del equipo no tiene nombre 😩</t>
+          <t>cuantos comentarios y reacciones para ganarme la nueva colección de Mochis de dinosaurios 🥺 (no me ignoren, ayuden personas a que lo vean🙏🏻)</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>45917.05436342592</v>
+        <v>45922.03340277778</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>45917</v>
+        <v>45922</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>01:18:17</t>
+          <t>00:48:06</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550861226680648468', 'createTime': 1758071897, 'createTimeISO': '2025-09-17T01:18:17.000Z', 'text': 'Lo emocionada que estoy por hacer parte del equipo no tiene nombre 😩', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6561143503132540934', 'uniqueId': 'maaaarirg', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7324826520122785798~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2f13f5b6&amp;x-expires=1760734800&amp;x-signature=L7d1NMJ6yymPcqvX9ggX6vdNxSU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7552707780533863189', 'createTime': 1758502086, 'createTimeISO': '2025-09-22T00:48:06.000Z', 'text': 'cuantos comentarios y reacciones para ganarme la nueva colección de Mochis de dinosaurios 🥺 (no me ignoren, ayuden personas a que lo vean🙏🏻)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6915493889098187782', 'uniqueId': 'angel18mendoza', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/68f808039457cd87fd4d7b94e867d357~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=428eab0b&amp;x-expires=1760792400&amp;x-signature=96Qy0NvAbx6SlAcsAOfGzGiF13Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2833,25 +2833,25 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Me encantaaaa✨</t>
+          <t>como se puede conseguir el álbum de mochis</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>45917.15711805555</v>
+        <v>45928.17954861111</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>45917</v>
+        <v>45928</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>03:46:15</t>
+          <t>04:18:33</t>
         </is>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550899370625254165', 'createTime': 1758080775, 'createTimeISO': '2025-09-17T03:46:15.000Z', 'text': 'Me encantaaaa✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '6636032545857355782', 'uniqueId': 'amygonzal_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bcf09f13282d39a21e796330dfd9b28d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3e2cebdf&amp;x-expires=1760734800&amp;x-signature=5gYw08limLGuxkWOBdaxeTI2WDc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7554989643563205384', 'createTime': 1759033113, 'createTimeISO': '2025-09-28T04:18:33.000Z', 'text': 'como se puede conseguir el álbum de mochis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7340762611166299142', 'uniqueId': 'wilson.piraquive5', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/376f70562283aeaeeb98265a1fe54ae8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c12c9645&amp;x-expires=1760792400&amp;x-signature=7Hb7KOzYiR9Ie3SleKDM1CxxTwU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2889,25 +2889,25 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Hola alpina cambien el vasito de yogo yogo mochisaurio por qué es muy duro y me corte cambienlo por el de premio yogo yogo que se quita fácil se que no es del tema</t>
+          <t>Me encantaaaa✨</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>45936.70731481481</v>
+        <v>45917.15711805555</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>45936</v>
+        <v>45917</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>16:58:32</t>
+          <t>03:46:15</t>
         </is>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7558154185101247240', 'createTime': 1759769912, 'createTimeISO': '2025-10-06T16:58:32.000Z', 'text': 'Hola alpina cambien el vasito de yogo yogo mochisaurio por qué es muy duro y me corte cambienlo por el de premio yogo yogo que se quita fácil se que no es del tema', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7005260384655574022', 'uniqueId': 'diegoalejandropat3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7327286844337127429~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c488abc1&amp;x-expires=1760734800&amp;x-signature=gucqNrtrx1jq5a4jeDXukwh9%2F64%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550899370625254165', 'createTime': 1758080775, 'createTimeISO': '2025-09-17T03:46:15.000Z', 'text': 'Me encantaaaa✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '6636032545857355782', 'uniqueId': 'amygonzal_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bcf09f13282d39a21e796330dfd9b28d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=669876e5&amp;x-expires=1760792400&amp;x-signature=Q8ATnI3mvTiKEPDJJa2rCwL6ksE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2945,25 +2945,25 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>AMAMOSSSS el contenido de Gabi</t>
+          <t>Buenisimo!!!!!</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>45917.09577546296</v>
+        <v>45919.87149305556</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>02:17:55</t>
+          <t>20:54:57</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550876642629944071', 'createTime': 1758075475, 'createTimeISO': '2025-09-17T02:17:55.000Z', 'text': 'AMAMOSSSS el contenido de Gabi', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7323823789984531462', 'uniqueId': 'chantal.thorin', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/5be5fbd7e28fb667d0d61e8de45fc752~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5783e09a&amp;x-expires=1760734800&amp;x-signature=3rH0YKMr%2FBeGQzOzHLn96GM0EMc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551906649611830023', 'createTime': 1758315297, 'createTimeISO': '2025-09-19T20:54:57.000Z', 'text': 'Buenisimo!!!!!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7068293195050877957', 'uniqueId': 'mfzamarriego', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5891c8d97d65891a135a4f898bbe9dc6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=534ef195&amp;x-expires=1760792400&amp;x-signature=Pn4fNu4pbgdl1vqvZMWcAYA%2FoEQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3001,25 +3001,25 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Gaby! Quiero ver cómo hacen el arequipe! Deberías hacer un tour por la planta!</t>
+          <t>estando en etapa lectiva puedo aplicar</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>45917.58866898148</v>
+        <v>45926.77971064814</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>45917</v>
+        <v>45926</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>14:07:41</t>
+          <t>18:42:47</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551059537588929298', 'createTime': 1758118061, 'createTimeISO': '2025-09-17T14:07:41.000Z', 'text': 'Gaby! Quiero ver cómo hacen el arequipe! Deberías hacer un tour por la planta!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6823366905291965446', 'uniqueId': 'jfelipegomez1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7329628384854736902~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8d05f89d&amp;x-expires=1760734800&amp;x-signature=h9Cmqem85TwVByzApSe%2Fw%2B6xrZc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7554470184620000018', 'createTime': 1758912167, 'createTimeISO': '2025-09-26T18:42:47.000Z', 'text': 'estando en etapa lectiva puedo aplicar', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6964937358190445574', 'uniqueId': 'daneicy8', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a6e6af884aceb8af9c72174f73167f68~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7995c2d7&amp;x-expires=1760792400&amp;x-signature=pPp8PdW%2Fs1LCbERJQyKBzSgEfus%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3057,25 +3057,25 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>pueden sacar en yogoyogolab lods puntos autorizados de oxxo para reclamar los mochisaurios plis</t>
+          <t>AMAMOSSSS el contenido de Gabi</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>45917.87722222223</v>
+        <v>45917.09577546296</v>
       </c>
       <c r="H47" s="3" t="n">
         <v>45917</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>21:03:12</t>
+          <t>02:17:55</t>
         </is>
       </c>
       <c r="J47" t="n">
         <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551166524197077767', 'createTime': 1758142992, 'createTimeISO': '2025-09-17T21:03:12.000Z', 'text': 'pueden sacar en yogoyogolab lods puntos autorizados de oxxo para reclamar los mochisaurios plis', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7283326063072642053', 'uniqueId': 'socorrito.lopez0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9007660a09caa09f7a749fc3a9a23c0e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bf53313f&amp;x-expires=1760734800&amp;x-signature=NO3wnZ5eLgGDWAEYS5WNLcqoISo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550876642629944071', 'createTime': 1758075475, 'createTimeISO': '2025-09-17T02:17:55.000Z', 'text': 'AMAMOSSSS el contenido de Gabi', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7323823789984531462', 'uniqueId': 'chantal.thorin', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/5be5fbd7e28fb667d0d61e8de45fc752~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e5ebe652&amp;x-expires=1760792400&amp;x-signature=LQynWkhiDU1Z6GOYLeXjdz%2BD1gU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3113,25 +3113,25 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>como se puede conseguir el álbum de mochis</t>
+          <t>Lo emocionada que estoy por hacer parte del equipo no tiene nombre 😩</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45928.17954861111</v>
+        <v>45917.05436342592</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>45928</v>
+        <v>45917</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>04:18:33</t>
+          <t>01:18:17</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7554989643563205384', 'createTime': 1759033113, 'createTimeISO': '2025-09-28T04:18:33.000Z', 'text': 'como se puede conseguir el álbum de mochis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7340762611166299142', 'uniqueId': 'wilson.piraquive5', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/376f70562283aeaeeb98265a1fe54ae8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c3a681b3&amp;x-expires=1760734800&amp;x-signature=DAngVvfXEJbK0ZGcOQl68ryIZ%2Fk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550861226680648468', 'createTime': 1758071897, 'createTimeISO': '2025-09-17T01:18:17.000Z', 'text': 'Lo emocionada que estoy por hacer parte del equipo no tiene nombre 😩', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6561143503132540934', 'uniqueId': 'maaaarirg', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7324826520122785798~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=202715fa&amp;x-expires=1760792400&amp;x-signature=%2Ftcy%2FBoNnWpm2e0brFs87eT8cZI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3169,22 +3169,22 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>cuantos comentarios y reacciones para ganarme la nueva colección de Mochis de dinosaurios 🥺 (no me ignoren, ayuden personas a que lo vean🙏🏻)</t>
+          <t>pueden sacar en yogoyogolab lods puntos autorizados de oxxo para reclamar los mochisaurios plis</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>45922.03340277778</v>
+        <v>45917.87722222223</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>45922</v>
+        <v>45917</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>00:48:06</t>
+          <t>21:03:12</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7552707780533863189', 'createTime': 1758502086, 'createTimeISO': '2025-09-22T00:48:06.000Z', 'text': 'cuantos comentarios y reacciones para ganarme la nueva colección de Mochis de dinosaurios 🥺 (no me ignoren, ayuden personas a que lo vean🙏🏻)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6915493889098187782', 'uniqueId': 'angel18mendoza', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/68f808039457cd87fd4d7b94e867d357~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=53a7f87f&amp;x-expires=1760734800&amp;x-signature=Def%2FHGMwE9g1bWbGXTe%2BG5Uhy54%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551166524197077767', 'createTime': 1758142992, 'createTimeISO': '2025-09-17T21:03:12.000Z', 'text': 'pueden sacar en yogoyogolab lods puntos autorizados de oxxo para reclamar los mochisaurios plis', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7283326063072642053', 'uniqueId': 'socorrito.lopez0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9007660a09caa09f7a749fc3a9a23c0e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=afa62f79&amp;x-expires=1760792400&amp;x-signature=3EFH80ImZ8k2JPNzAgF3PI0XFhE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3225,25 +3225,25 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Estoy por graduarme de ingeniería industrial. Me encantaría hacer mis prácticas o trabajar en un futuro con ustedes. Me encanta la familia Alpina, creen que pueda hacer parte algún día? 🥹</t>
+          <t>¿Qué tipo de contrato tienen?</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>45918.74025462963</v>
+        <v>45920.96097222222</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>45918</v>
+        <v>45920</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>17:45:58</t>
+          <t>23:03:48</t>
         </is>
       </c>
       <c r="J50" t="n">
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551486875396948744', 'createTime': 1758217558, 'createTimeISO': '2025-09-18T17:45:58.000Z', 'text': 'Estoy por graduarme de ingeniería industrial. Me encantaría hacer mis prácticas o trabajar en un futuro con ustedes. Me encanta la familia Alpina, creen que pueda hacer parte algún día? \U0001f979', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6817806087653164037', 'uniqueId': 'brandontarcila_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e6b11bf080b10cd0207666b99c05d31b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=30ef0796&amp;x-expires=1760734800&amp;x-signature=JL%2Bl2%2BABu393fCI6%2FjnXSy%2BVj20%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7552310929883448084', 'createTime': 1758409428, 'createTimeISO': '2025-09-20T23:03:48.000Z', 'text': '¿Qué tipo de contrato tienen?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6856891169080443909', 'uniqueId': 'lourdesbarragan_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/e377e28c29d509541307260e66fb275d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ec110498&amp;x-expires=1760792400&amp;x-signature=oRz0fL%2FjykqgBxZ7YosGAzuHHYs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3281,25 +3281,25 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>estando en etapa lectiva puedo aplicar</t>
+          <t>Gaby! Quiero ver cómo hacen el arequipe! Deberías hacer un tour por la planta!</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>45926.77971064814</v>
+        <v>45917.58866898148</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>45926</v>
+        <v>45917</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>18:42:47</t>
+          <t>14:07:41</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7554470184620000018', 'createTime': 1758912167, 'createTimeISO': '2025-09-26T18:42:47.000Z', 'text': 'estando en etapa lectiva puedo aplicar', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6964937358190445574', 'uniqueId': 'daneicy8', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a6e6af884aceb8af9c72174f73167f68~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9786c31a&amp;x-expires=1760734800&amp;x-signature=yBJxRqNLJ89LHa%2BWZR0tWd9gijc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551059537588929298', 'createTime': 1758118061, 'createTimeISO': '2025-09-17T14:07:41.000Z', 'text': 'Gaby! Quiero ver cómo hacen el arequipe! Deberías hacer un tour por la planta!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6823366905291965446', 'uniqueId': 'jfelipegomez1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7329628384854736902~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2240b3fb&amp;x-expires=1760792400&amp;x-signature=ESbwrSxVjud27rTG%2FX3hUFAD018%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3337,27 +3337,26 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1ro
-alpina te amo!!</t>
+          <t>Mi sueño haciéndose realidad 🥰🥺</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>45916.98658564815</v>
+        <v>45918.62016203703</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>23:40:41</t>
+          <t>14:53:02</t>
         </is>
       </c>
       <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
         <v>1</v>
       </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
       <c r="L52" t="b">
         <v>0</v>
       </c>
@@ -3368,7 +3367,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550836019215958805', 'createTime': 1758066041, 'createTimeISO': '2025-09-16T23:40:41.000Z', 'text': '1ro\nalpina te amo!!', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452218782174446597', 'uniqueId': 'shidouxsae0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/984fcf004307773a189a7c8e9f5197ba~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=21ac6384&amp;x-expires=1760734800&amp;x-signature=on%2FhHb%2F0lGKfP4ommPo6XIzEYrs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551442303657116436', 'createTime': 1758207182, 'createTimeISO': '2025-09-18T14:53:02.000Z', 'text': 'Mi sueño haciéndose realidad 🥰🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6788284872554497030', 'uniqueId': 'anirivera_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a6c6e77f0d746b65b48a78e1205c8c82~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f4d56309&amp;x-expires=1760792400&amp;x-signature=bMAnceZSWjyPexeHOtAg2im9vs4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3394,25 +3393,26 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Te amo me encanta Alpina 🥰</t>
+          <t>1ro
+alpina te amo!!</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>45917.01868055556</v>
+        <v>45916.98658564815</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>45917</v>
+        <v>45916</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>00:26:54</t>
+          <t>23:40:41</t>
         </is>
       </c>
       <c r="J53" t="n">
         <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550847978996859666', 'createTime': 1758068814, 'createTimeISO': '2025-09-17T00:26:54.000Z', 'text': 'Te amo me encanta Alpina 🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e963de3b&amp;x-expires=1760734800&amp;x-signature=e88latekre8LmWd2X6CbcNHWJ7o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550836019215958805', 'createTime': 1758066041, 'createTimeISO': '2025-09-16T23:40:41.000Z', 'text': '1ro\nalpina te amo!!', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452218782174446597', 'uniqueId': 'shidouxsae0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/984fcf004307773a189a7c8e9f5197ba~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=eb3953ea&amp;x-expires=1760792400&amp;x-signature=a%2BVJI%2FnLWIFvlAetRL4LN5eT6nU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3450,25 +3450,25 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Buenisimo!!!!!</t>
+          <t>Te amo me encanta Alpina 🥰</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>45919.87149305556</v>
+        <v>45917.01868055556</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>45919</v>
+        <v>45917</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>20:54:57</t>
+          <t>00:26:54</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551906649611830023', 'createTime': 1758315297, 'createTimeISO': '2025-09-19T20:54:57.000Z', 'text': 'Buenisimo!!!!!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7068293195050877957', 'uniqueId': 'mfzamarriego', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5891c8d97d65891a135a4f898bbe9dc6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3bb2f9f3&amp;x-expires=1760734800&amp;x-signature=Hei5BPev1gKRO9duK2MoJ%2FCcHaQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550847978996859666', 'createTime': 1758068814, 'createTimeISO': '2025-09-17T00:26:54.000Z', 'text': 'Te amo me encanta Alpina 🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a0c7ceb2&amp;x-expires=1760792400&amp;x-signature=n8ULNXO7OSQPOUy1Ykxw4pMDmQc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3506,25 +3506,25 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>¿Qué tipo de contrato tienen?</t>
+          <t>Estoy por graduarme de ingeniería industrial. Me encantaría hacer mis prácticas o trabajar en un futuro con ustedes. Me encanta la familia Alpina, creen que pueda hacer parte algún día? 🥹</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>45920.96097222222</v>
+        <v>45918.74025462963</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>45920</v>
+        <v>45918</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>23:03:48</t>
+          <t>17:45:58</t>
         </is>
       </c>
       <c r="J55" t="n">
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7552310929883448084', 'createTime': 1758409428, 'createTimeISO': '2025-09-20T23:03:48.000Z', 'text': '¿Qué tipo de contrato tienen?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6856891169080443909', 'uniqueId': 'lourdesbarragan_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/e377e28c29d509541307260e66fb275d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1a9a6bda&amp;x-expires=1760734800&amp;x-signature=kHPBVZeuMt1xLOI34DgEWVv3qmI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551486875396948744', 'createTime': 1758217558, 'createTimeISO': '2025-09-18T17:45:58.000Z', 'text': 'Estoy por graduarme de ingeniería industrial. Me encantaría hacer mis prácticas o trabajar en un futuro con ustedes. Me encanta la familia Alpina, creen que pueda hacer parte algún día? \U0001f979', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6817806087653164037', 'uniqueId': 'brandontarcila_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e6b11bf080b10cd0207666b99c05d31b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a8cb5b2c&amp;x-expires=1760792400&amp;x-signature=%2Byn26dVAJrxZ8yrVOnbiOR7lzA0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551840682764829458', 'createTime': 1758299933, 'createTimeISO': '2025-09-19T16:38:53.000Z', 'text': 'si estudio narrativas en medios digitales y audiovisuales puedo aplicar? 😭', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6885505605576377345', 'uniqueId': 'spaaaak_4.m', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7324800281223364610~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=613f1016&amp;x-expires=1760734800&amp;x-signature=dIPKuz5f8dnrES3KpxiqE63NOSE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551840682764829458', 'createTime': 1758299933, 'createTimeISO': '2025-09-19T16:38:53.000Z', 'text': 'si estudio narrativas en medios digitales y audiovisuales puedo aplicar? 😭', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6885505605576377345', 'uniqueId': 'spaaaak_4.m', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7324800281223364610~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=82a035d3&amp;x-expires=1760792400&amp;x-signature=P0PJPXbHWlGEemV0Ix7KwQ0X3ZA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3618,18 +3618,18 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Cuando comienzan a dar respuesta si ya apliqué?🥹</t>
+          <t>Yo quierooooo✨</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>45916.99778935185</v>
+        <v>45917.00403935185</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>23:56:49</t>
+          <t>00:05:49</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550840242002150162', 'createTime': 1758067009, 'createTimeISO': '2025-09-16T23:56:49.000Z', 'text': 'Cuando comienzan a dar respuesta si ya apliqué?\U0001f979', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6774446029552354309', 'uniqueId': 'its.bri_ugc', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/deedfc9225eba48258aac384e9dd65f4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d3ac9aba&amp;x-expires=1760734800&amp;x-signature=mY%2FQHLzvRP4bRoGRo%2FoJGc4K4nE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550842534529860370', 'createTime': 1758067549, 'createTimeISO': '2025-09-17T00:05:49.000Z', 'text': 'Yo quierooooo✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781227104677250053', 'uniqueId': 'lauraleguizamou', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/531608b6e17cc4fc3195774b040b1421~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2c9be332&amp;x-expires=1760792400&amp;x-signature=fgAT0SoYj3Ife03SVPOmLV%2BCICA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3674,18 +3674,18 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Mi sueño haciéndose realidad 🥰🥺</t>
+          <t>me enteré que ya subieron nuevo video 😍</t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>45918.62016203703</v>
+        <v>45917.08885416666</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>14:53:02</t>
+          <t>02:07:57</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -3704,7 +3704,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551442303657116436', 'createTime': 1758207182, 'createTimeISO': '2025-09-18T14:53:02.000Z', 'text': 'Mi sueño haciéndose realidad 🥰🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6788284872554497030', 'uniqueId': 'anirivera_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a6c6e77f0d746b65b48a78e1205c8c82~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a5b4579c&amp;x-expires=1760734800&amp;x-signature=6C4oAQpaxFI%2BpEe5mVQFao6APuc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550874055755203345', 'createTime': 1758074877, 'createTimeISO': '2025-09-17T02:07:57.000Z', 'text': 'me enteré que ya subieron nuevo video 😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e7109759&amp;x-expires=1760792400&amp;x-signature=6np5PsSGRsgOWrfycwtS1A%2F9FUg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3730,18 +3730,18 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Yo quierooooo✨</t>
+          <t>Cuando comienzan a dar respuesta si ya apliqué?🥹</t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
-        <v>45917.00403935185</v>
+        <v>45916.99778935185</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>45917</v>
+        <v>45916</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>00:05:49</t>
+          <t>23:56:49</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550842534529860370', 'createTime': 1758067549, 'createTimeISO': '2025-09-17T00:05:49.000Z', 'text': 'Yo quierooooo✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781227104677250053', 'uniqueId': 'lauraleguizamou', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/531608b6e17cc4fc3195774b040b1421~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4c3f4578&amp;x-expires=1760734800&amp;x-signature=YQcMMbS3OqvL39AxDF%2BPaaT%2FU1U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550840242002150162', 'createTime': 1758067009, 'createTimeISO': '2025-09-16T23:56:49.000Z', 'text': 'Cuando comienzan a dar respuesta si ya apliqué?\U0001f979', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6774446029552354309', 'uniqueId': 'its.bri_ugc', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/dfeff60de882b1c199e34cb77f9557be~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2fec3537&amp;x-expires=1760792400&amp;x-signature=IfMJS39vH9bsSIZ65ba3c4IxwFM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3786,25 +3786,25 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>me enteré que ya subieron nuevo video 😍</t>
+          <t>Me salió tarde el vídeo 😟 yo quiero 🥹🙏🏻</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
-        <v>45917.08885416666</v>
+        <v>45941.61577546296</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>45917</v>
+        <v>45941</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>02:07:57</t>
+          <t>14:46:43</t>
         </is>
       </c>
       <c r="J60" t="n">
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550874055755203345', 'createTime': 1758074877, 'createTimeISO': '2025-09-17T02:07:57.000Z', 'text': 'me enteré que ya subieron nuevo video 😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7eb63b58&amp;x-expires=1760734800&amp;x-signature=m4kFvV7S%2B0LcYMgsWRXzVyxEofY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7559975652176577288', 'createTime': 1760194003, 'createTimeISO': '2025-10-11T14:46:43.000Z', 'text': 'Me salió tarde el vídeo 😟 yo quiero \U0001f979🙏🏻', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6670638394765033478', 'uniqueId': 'lindanarino', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/873e52b20a774b09b73f0f0d565e6959~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ac712231&amp;x-expires=1760792400&amp;x-signature=IWlCTaeFz2MVP3THnWEuGLFhQx4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3842,18 +3842,18 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Me salió tarde el vídeo 😟 yo quiero 🥹🙏🏻</t>
+          <t>hola alpina esta es mi colección de Mochis no es mucha molestia si me envías una caja de Mochisaurios gracias 😃😉</t>
         </is>
       </c>
       <c r="G61" s="2" t="n">
-        <v>45941.61577546296</v>
+        <v>45931.97782407407</v>
       </c>
       <c r="H61" s="3" t="n">
-        <v>45941</v>
+        <v>45931</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>14:46:43</t>
+          <t>23:28:04</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7559975652176577288', 'createTime': 1760194003, 'createTimeISO': '2025-10-11T14:46:43.000Z', 'text': 'Me salió tarde el vídeo 😟 yo quiero \U0001f979🙏🏻', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6670638394765033478', 'uniqueId': 'lindanarino', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/873e52b20a774b09b73f0f0d565e6959~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0f6d51cd&amp;x-expires=1760734800&amp;x-signature=45GiekdjwnZqrAeGEF%2BtQdWj%2BG0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556399100905341703', 'createTime': 1759361284, 'createTimeISO': '2025-10-01T23:28:04.000Z', 'text': 'hola alpina esta es mi colección de Mochis no es mucha molestia si me envías una caja de Mochisaurios gracias 😃😉', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7531368579791438866', 'uniqueId': 'damian.smith.mora', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/162f5e8630c9e45cdeb3d8133dfd3630~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=94cbe052&amp;x-expires=1760792400&amp;x-signature=v9IJnQvpAskE5CuElo76Tgu6cJs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3898,18 +3898,18 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>hola alpina esta es mi colección de Mochis no es mucha molestia si me envías una caja de Mochisaurios gracias 😃😉</t>
+          <t>👍</t>
         </is>
       </c>
       <c r="G62" s="2" t="n">
-        <v>45931.97782407407</v>
+        <v>45936.8365625</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>45931</v>
+        <v>45936</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>23:28:04</t>
+          <t>20:04:39</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556399100905341703', 'createTime': 1759361284, 'createTimeISO': '2025-10-01T23:28:04.000Z', 'text': 'hola alpina esta es mi colección de Mochis no es mucha molestia si me envías una caja de Mochisaurios gracias 😃😉', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7531368579791438866', 'uniqueId': 'damian.smith.mora', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/162f5e8630c9e45cdeb3d8133dfd3630~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3347478e&amp;x-expires=1760734800&amp;x-signature=u%2B4OLZJVJEiLCra8ZUw1j%2FciKDM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7558202100607091476', 'createTime': 1759781079, 'createTimeISO': '2025-10-06T20:04:39.000Z', 'text': '👍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452056190890116114', 'uniqueId': 'sabeldani10', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4b19cfb39961d6a4eec67ddf6a71ac66~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8ece8cc4&amp;x-expires=1760792400&amp;x-signature=OI3gYE61RpDXV4qlRAjLskmsofE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3954,18 +3954,18 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>👍</t>
+          <t>🫡🫡🫡</t>
         </is>
       </c>
       <c r="G63" s="2" t="n">
-        <v>45936.8365625</v>
+        <v>45917.00991898148</v>
       </c>
       <c r="H63" s="3" t="n">
-        <v>45936</v>
+        <v>45917</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>20:04:39</t>
+          <t>00:14:17</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -3984,7 +3984,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7558202100607091476', 'createTime': 1759781079, 'createTimeISO': '2025-10-06T20:04:39.000Z', 'text': '👍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452056190890116114', 'uniqueId': 'sabeldani10', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4b19cfb39961d6a4eec67ddf6a71ac66~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2d387045&amp;x-expires=1760734800&amp;x-signature=QMsUGybv4v0t0O3SYiX9E89Q7es%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550844710467732242', 'createTime': 1758068057, 'createTimeISO': '2025-09-17T00:14:17.000Z', 'text': '\U0001fae1\U0001fae1\U0001fae1', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7323823789984531462', 'uniqueId': 'chantal.thorin', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/5be5fbd7e28fb667d0d61e8de45fc752~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e5ebe652&amp;x-expires=1760792400&amp;x-signature=LQynWkhiDU1Z6GOYLeXjdz%2BD1gU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4010,18 +4010,18 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>🫡🫡🫡</t>
+          <t>@Chantal Thorin 😂</t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
-        <v>45917.00991898148</v>
+        <v>45917.01428240741</v>
       </c>
       <c r="H64" s="3" t="n">
         <v>45917</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>00:14:17</t>
+          <t>00:20:34</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550844710467732242', 'createTime': 1758068057, 'createTimeISO': '2025-09-17T00:14:17.000Z', 'text': '\U0001fae1\U0001fae1\U0001fae1', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7323823789984531462', 'uniqueId': 'chantal.thorin', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/5be5fbd7e28fb667d0d61e8de45fc752~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5783e09a&amp;x-expires=1760734800&amp;x-signature=3rH0YKMr%2FBeGQzOzHLn96GM0EMc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550846347324130055', 'createTime': 1758068434, 'createTimeISO': '2025-09-17T00:20:34.000Z', 'text': '@Chantal Thorin 😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6788904373575074822', 'uniqueId': 'juanolmos023', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/715053c66c983c3c1c50e1eb7df0c471~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e7b904e0&amp;x-expires=1760792400&amp;x-signature=810ILbtviBzCJ63rEN%2FH7qamD7c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@Chantal Thorin'], 'detailedMentions': [{'userId': '7323823789984531462', 'nickName': 'Chantal Thorin', 'profileUrl': 'https://www.tiktok.com/@7323823789984531462', 'secUid': 'MS4wLjABAAAAeVzy1YXMwyrURUZkWFufcDOQpRrR-rZvvbSNYGZdeSPQL7wiKvQELMaPx312In6i'}]}</t>
         </is>
       </c>
     </row>
@@ -4066,18 +4066,18 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>Buen día, aceptan pasantes en área administrativa?😳</t>
         </is>
       </c>
       <c r="G65" s="2" t="n">
-        <v>45932.00375</v>
+        <v>45924.54788194445</v>
       </c>
       <c r="H65" s="3" t="n">
-        <v>45932</v>
+        <v>45924</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>00:05:24</t>
+          <t>13:08:57</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556408658076435218', 'createTime': 1759363524, 'createTimeISO': '2025-10-02T00:05:24.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7280259132014806022', 'uniqueId': 'matilde.guerrero3', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7280259483488665606~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d56235c1&amp;x-expires=1760734800&amp;x-signature=y8nmwd%2BZPM2AbkcUA%2Bf9DiaJnyI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7553641991944602386', 'createTime': 1758719337, 'createTimeISO': '2025-09-24T13:08:57.000Z', 'text': 'Buen día, aceptan pasantes en área administrativa?😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6819016661686453254', 'uniqueId': 'scatalina15', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/65616505ecd12a1b5dd469d79ec8a719~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0458f985&amp;x-expires=1760792400&amp;x-signature=L8kir7lRxg71g21TwYceQrxIbAs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4122,18 +4122,18 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>@mochis_yogoyogo💗 ya quiero mochisss aaaa está es mi cuenta donde haré unboxings de los dinomochis y más cosas de alpina</t>
         </is>
       </c>
       <c r="G66" s="2" t="n">
-        <v>45933.28815972222</v>
+        <v>45920.12986111111</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>45933</v>
+        <v>45920</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>06:54:57</t>
+          <t>03:07:00</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556885364948173586', 'createTime': 1759474497, 'createTimeISO': '2025-10-03T06:54:57.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7444383176737113144', 'uniqueId': 'lirasa91', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6b8b1b77&amp;x-expires=1760734800&amp;x-signature=6I4pA%2FIDCOBA%2BZcjTCx9oDIHntE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7552002528465699592', 'createTime': 1758337620, 'createTimeISO': '2025-09-20T03:07:00.000Z', 'text': '@mochis_yogoyogo💗 ya quiero mochisss aaaa está es mi cuenta donde haré unboxings de los dinomochis y más cosas de alpina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7382728939964548101', 'uniqueId': 'eve_watajai', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c9212056428da8609f48a989cd6e9170~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ee8eee68&amp;x-expires=1760792400&amp;x-signature=0v9AYHpUS%2FlbXDoZWrImMpYbTdg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@mochis_yogoyogo💗'], 'detailedMentions': [{'userId': '7469144855873651730', 'nickName': 'mochis_yogoyogo💗', 'profileUrl': 'https://www.tiktok.com/@7469144855873651730', 'secUid': 'MS4wLjABAAAAfnDzVmGgNedG0asJ6YoXVgPkaL-69fpJq_hPO_uLHcj8SYDqMhAidX6vu-pf-BmB'}]}</t>
         </is>
       </c>
     </row>
@@ -4178,18 +4178,18 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>@Chantal Thorin 😂</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G67" s="2" t="n">
-        <v>45917.01428240741</v>
+        <v>45932.00375</v>
       </c>
       <c r="H67" s="3" t="n">
-        <v>45917</v>
+        <v>45932</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>00:20:34</t>
+          <t>00:05:24</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550846347324130055', 'createTime': 1758068434, 'createTimeISO': '2025-09-17T00:20:34.000Z', 'text': '@Chantal Thorin 😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6788904373575074822', 'uniqueId': 'juanolmos023', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/715053c66c983c3c1c50e1eb7df0c471~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ed88e34f&amp;x-expires=1760734800&amp;x-signature=ZLhJ27wxVx79DaXM8k9FERLeWVE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@Chantal Thorin'], 'detailedMentions': [{'userId': '7323823789984531462', 'nickName': 'Chantal Thorin', 'profileUrl': 'https://www.tiktok.com/@7323823789984531462', 'secUid': 'MS4wLjABAAAAeVzy1YXMwyrURUZkWFufcDOQpRrR-rZvvbSNYGZdeSPQL7wiKvQELMaPx312In6i'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556408658076435218', 'createTime': 1759363524, 'createTimeISO': '2025-10-02T00:05:24.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7280259132014806022', 'uniqueId': 'matilde.guerrero3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7280259483488665606~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0efd75af&amp;x-expires=1760792400&amp;x-signature=MESPjNndnjUpdtDs0EuCglPflxQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4234,18 +4234,18 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>@mochis_yogoyogo💗 ya quiero mochisss aaaa está es mi cuenta donde haré unboxings de los dinomochis y más cosas de alpina</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G68" s="2" t="n">
-        <v>45920.12986111111</v>
+        <v>45933.28815972222</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>45920</v>
+        <v>45933</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>03:07:00</t>
+          <t>06:54:57</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7552002528465699592', 'createTime': 1758337620, 'createTimeISO': '2025-09-20T03:07:00.000Z', 'text': '@mochis_yogoyogo💗 ya quiero mochisss aaaa está es mi cuenta donde haré unboxings de los dinomochis y más cosas de alpina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7382728939964548101', 'uniqueId': 'eve_watajai', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c9212056428da8609f48a989cd6e9170~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=68640b98&amp;x-expires=1760734800&amp;x-signature=00Q7hxBTQNmeD%2FntEw8Xb0W8uBg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@mochis_yogoyogo💗'], 'detailedMentions': [{'userId': '7469144855873651730', 'nickName': 'mochis_yogoyogo💗', 'profileUrl': 'https://www.tiktok.com/@7469144855873651730', 'secUid': 'MS4wLjABAAAAfnDzVmGgNedG0asJ6YoXVgPkaL-69fpJq_hPO_uLHcj8SYDqMhAidX6vu-pf-BmB'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556885364948173586', 'createTime': 1759474497, 'createTimeISO': '2025-10-03T06:54:57.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7444383176737113144', 'uniqueId': 'lirasa91', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=12c8a874&amp;x-expires=1760792400&amp;x-signature=N2xDFlt5W4HYE8Yto6DmraBNX0s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4290,18 +4290,18 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Amooooo los mochisssssss</t>
+          <t>😳</t>
         </is>
       </c>
       <c r="G69" s="2" t="n">
-        <v>45919.10697916667</v>
+        <v>45928.70622685185</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>45919</v>
+        <v>45928</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>02:34:03</t>
+          <t>16:56:58</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551622936564073224', 'createTime': 1758249243, 'createTimeISO': '2025-09-19T02:34:03.000Z', 'text': 'Amooooo los mochisssssss', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6775204820329579525', 'uniqueId': 'danivalenciaa', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/16f06ae19c05a3c06f041a0a4078e97e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5d18564c&amp;x-expires=1760734800&amp;x-signature=qpBJn5bRBptW1Y1EzcrIwOys67U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7555185101043680018', 'createTime': 1759078618, 'createTimeISO': '2025-09-28T16:56:58.000Z', 'text': '😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7475879249447666705', 'uniqueId': 'al454329', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/00eba74212b2c117219704065444145b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=46b9c308&amp;x-expires=1760792400&amp;x-signature=VV7vBTEmOtkeHQlmceaPVVMtK1c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4346,18 +4346,18 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>😳</t>
+          <t>QUE VUELVA ALPILITRO 🙌🙏</t>
         </is>
       </c>
       <c r="G70" s="2" t="n">
-        <v>45928.70622685185</v>
+        <v>45923.78733796296</v>
       </c>
       <c r="H70" s="3" t="n">
-        <v>45928</v>
+        <v>45923</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>16:56:58</t>
+          <t>18:53:46</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -4376,7 +4376,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7555185101043680018', 'createTime': 1759078618, 'createTimeISO': '2025-09-28T16:56:58.000Z', 'text': '😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7475879249447666705', 'uniqueId': 'al454329', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/00eba74212b2c117219704065444145b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9e164347&amp;x-expires=1760734800&amp;x-signature=vrsmfWzQYe6hYOgluDHqI8UK7jo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7553359733933458194', 'createTime': 1758653626, 'createTimeISO': '2025-09-23T18:53:46.000Z', 'text': 'QUE VUELVA ALPILITRO 🙌🙏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7493133555746489351', 'uniqueId': 'andreykdy3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ffdb73d8f0b1bc3e2a3bf54e4492d457~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=09c3bad4&amp;x-expires=1760792400&amp;x-signature=L5liHKAwpI9qU5AOUXWUBca4VF4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4402,18 +4402,18 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>QUE VUELVA ALPILITRO 🙌🙏</t>
+          <t>vuelvan a poner a la banda de gatos de alpin</t>
         </is>
       </c>
       <c r="G71" s="2" t="n">
-        <v>45923.78733796296</v>
+        <v>45932.98778935185</v>
       </c>
       <c r="H71" s="3" t="n">
-        <v>45923</v>
+        <v>45932</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>18:53:46</t>
+          <t>23:42:25</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -4432,7 +4432,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7553359733933458194', 'createTime': 1758653626, 'createTimeISO': '2025-09-23T18:53:46.000Z', 'text': 'QUE VUELVA ALPILITRO 🙌🙏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7493133555746489351', 'uniqueId': 'andreykdy3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ffdb73d8f0b1bc3e2a3bf54e4492d457~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8b839ef5&amp;x-expires=1760734800&amp;x-signature=%2Br0HsfbULVLaCtPvgnc9VrDU46g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556773829139677960', 'createTime': 1759448545, 'createTimeISO': '2025-10-02T23:42:25.000Z', 'text': 'vuelvan a poner a la banda de gatos de alpin', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7338967674703905797', 'uniqueId': 'xa.m25', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f18aaf30609d233d93d48aaec98bdc23~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6ede95d4&amp;x-expires=1760792400&amp;x-signature=Wdx3xtMD6b0i6J9l%2FUThfAEBnL8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4458,18 +4458,18 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>vuelvan a poner a la banda de gatos de alpin</t>
+          <t>Amooooo los mochisssssss</t>
         </is>
       </c>
       <c r="G72" s="2" t="n">
-        <v>45932.98778935185</v>
+        <v>45919.10697916667</v>
       </c>
       <c r="H72" s="3" t="n">
-        <v>45932</v>
+        <v>45919</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>23:42:25</t>
+          <t>02:34:03</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556773829139677960', 'createTime': 1759448545, 'createTimeISO': '2025-10-02T23:42:25.000Z', 'text': 'vuelvan a poner a la banda de gatos de alpin', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7338967674703905797', 'uniqueId': 'xa.m25', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f18aaf30609d233d93d48aaec98bdc23~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=77d7154b&amp;x-expires=1760734800&amp;x-signature=dTtCyEDzO7RHMbRqYy72BzDsd4Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551622936564073224', 'createTime': 1758249243, 'createTimeISO': '2025-09-19T02:34:03.000Z', 'text': 'Amooooo los mochisssssss', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6775204820329579525', 'uniqueId': 'danivalenciaa', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/16f06ae19c05a3c06f041a0a4078e97e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=99a630ad&amp;x-expires=1760792400&amp;x-signature=VyegbNt3gT6wdDvUzH1QushHHDk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4544,7 +4544,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551229830001885973', 'createTime': 1758157724, 'createTimeISO': '2025-09-18T01:08:44.000Z', 'text': 'Hmmm avena saladaaa gabsss?', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6819089554679940101', 'uniqueId': 'julianavivasr03', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f3051c41eba0cedcc184a155cdd5fe57~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e05f4a6f&amp;x-expires=1760734800&amp;x-signature=4ziVjxTb1nFBIPgceW49wc1DWUA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551229830001885973', 'createTime': 1758157724, 'createTimeISO': '2025-09-18T01:08:44.000Z', 'text': 'Hmmm avena saladaaa gabsss?', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6819089554679940101', 'uniqueId': 'julianavivasr03', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f3051c41eba0cedcc184a155cdd5fe57~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=47a3e0c2&amp;x-expires=1760792400&amp;x-signature=nnFgS8Vz9hWDF6zItzTpy%2BwptJg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551220050720670471', 'createTime': 1758155608, 'createTimeISO': '2025-09-18T00:33:28.000Z', 'text': 'quiero parte 2💙💙💙', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7467024639018468360', 'uniqueId': 'leidy_y22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/170467e038e889966ba7de820632ba9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a6362ce0&amp;x-expires=1760734800&amp;x-signature=LTsEbLT5MY590Pawdg%2FLgCdjWpQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551220050720670471', 'createTime': 1758155608, 'createTimeISO': '2025-09-18T00:33:28.000Z', 'text': 'quiero parte 2💙💙💙', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7467024639018468360', 'uniqueId': 'leidy_y22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/170467e038e889966ba7de820632ba9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=369420ea&amp;x-expires=1760792400&amp;x-signature=24H%2Bhfue4LTrZJbrM88yHNhOPJM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551496749665649415', 'createTime': 1758219864, 'createTimeISO': '2025-09-18T18:24:24.000Z', 'text': 'jajajajajajajjajajajajajajaja eara miy bueno', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '7337124256608732166', 'uniqueId': 'nathalye.cruz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7337124473063407621~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f684fc33&amp;x-expires=1760734800&amp;x-signature=lQidZku2TXvCWMOmty0Y1TdYy5E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551496749665649415', 'createTime': 1758219864, 'createTimeISO': '2025-09-18T18:24:24.000Z', 'text': 'jajajajajajajjajajajajajajaja eara miy bueno', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '7337124256608732166', 'uniqueId': 'nathalye.cruz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7337124473063407621~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0dff0a18&amp;x-expires=1760792400&amp;x-signature=mEW%2FwGwD282cZlvOLnusM8j8l30%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551629960492106503', 'createTime': 1758250879, 'createTimeISO': '2025-09-19T03:01:19.000Z', 'text': 'chevre el juego', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7428447431131857925', 'uniqueId': 'dario.bermudez.me', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e3f68c187a5bb898072670c79697373f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5c3387ce&amp;x-expires=1760734800&amp;x-signature=%2F5RVCdKZgjylLhKo1iylBWDhST8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551629960492106503', 'createTime': 1758250879, 'createTimeISO': '2025-09-19T03:01:19.000Z', 'text': 'chevre el juego', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7428447431131857925', 'uniqueId': 'dario.bermudez.me', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e3f68c187a5bb898072670c79697373f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bfd7d2db&amp;x-expires=1760792400&amp;x-signature=zzP%2Faa9iSc4h%2BwObPEpsXoyoTm0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551259447134585631', 'createTime': 1758164610, 'createTimeISO': '2025-09-18T03:03:30.000Z', 'text': 'Viene en varios sabores?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '125087857735528448', 'uniqueId': 'camilocc3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-useast8-avt-0068-tx2/24fcb4fdd0b5e8275182d605c3f58355~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8c47927b&amp;x-expires=1760734800&amp;x-signature=GV0MCWWtZLMhRIMYUA4uajJXCWQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551259447134585631', 'createTime': 1758164610, 'createTimeISO': '2025-09-18T03:03:30.000Z', 'text': 'Viene en varios sabores?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '125087857735528448', 'uniqueId': 'camilocc3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-useast8-avt-0068-tx2/24fcb4fdd0b5e8275182d605c3f58355~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=81b6fb65&amp;x-expires=1760792400&amp;x-signature=iMorL0cywKdV59YHuOiQKX2uBKM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4824,7 +4824,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551229700225778453', 'createTime': 1758157689, 'createTimeISO': '2025-09-18T01:08:09.000Z', 'text': 'Jajajjaajajajjaa buenísimo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6819089554679940101', 'uniqueId': 'julianavivasr03', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f3051c41eba0cedcc184a155cdd5fe57~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e05f4a6f&amp;x-expires=1760734800&amp;x-signature=4ziVjxTb1nFBIPgceW49wc1DWUA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551229700225778453', 'createTime': 1758157689, 'createTimeISO': '2025-09-18T01:08:09.000Z', 'text': 'Jajajjaajajajjaa buenísimo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6819089554679940101', 'uniqueId': 'julianavivasr03', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f3051c41eba0cedcc184a155cdd5fe57~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=47a3e0c2&amp;x-expires=1760792400&amp;x-signature=nnFgS8Vz9hWDF6zItzTpy%2BwptJg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551227674766607120', 'createTime': 1758157221, 'createTimeISO': '2025-09-18T01:00:21.000Z', 'text': '', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7eb63b58&amp;x-expires=1760734800&amp;x-signature=m4kFvV7S%2B0LcYMgsWRXzVyxEofY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551227674766607120', 'createTime': 1758157221, 'createTimeISO': '2025-09-18T01:00:21.000Z', 'text': '', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bed7b7af&amp;x-expires=1760792400&amp;x-signature=f%2FNAfVih6%2FUkGAJ%2BorgUEfpId%2Bg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551217905787978504', 'createTime': 1758155356, 'createTimeISO': '2025-09-18T00:29:16.000Z', 'text': '✨✨', 'diggCount': 2, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6933232569349653510', 'uniqueId': 'mariangel_alzate01', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e6bab063f1c64d97abedc28d75951cd7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c0c5243f&amp;x-expires=1760734800&amp;x-signature=2bzLVD4RUbsit7d9HOomK8iHeRw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551217905787978504', 'createTime': 1758155356, 'createTimeISO': '2025-09-18T00:29:16.000Z', 'text': '✨✨', 'diggCount': 2, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6933232569349653510', 'uniqueId': 'mariangel_alzate01', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e6bab063f1c64d97abedc28d75951cd7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ec9392e4&amp;x-expires=1760792400&amp;x-signature=m5o7Db6F7EhN6KL8Eser82wEwAo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551220042781573895', 'createTime': 1758155443, 'createTimeISO': '2025-09-18T00:30:43.000Z', 'text': '💙💙💙', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7503357568275285010', 'uniqueId': 'mara.alejandra.va13', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b0e9c531aa12326c2c39b489de39faaf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6e7aef58&amp;x-expires=1760734800&amp;x-signature=7ptLaoMIH0vCFoMPrhar5F66X4k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551220042781573895', 'createTime': 1758155443, 'createTimeISO': '2025-09-18T00:30:43.000Z', 'text': '💙💙💙', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7503357568275285010', 'uniqueId': 'mara.alejandra.va13', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b0e9c531aa12326c2c39b489de39faaf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a1250133&amp;x-expires=1760792400&amp;x-signature=jGWJfLaVwL%2F62V%2FtDde43ZP4uU8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5014,18 +5014,18 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>💗</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G82" s="2" t="n">
-        <v>45928.03357638889</v>
+        <v>45933.99601851852</v>
       </c>
       <c r="H82" s="3" t="n">
-        <v>45928</v>
+        <v>45933</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>00:48:21</t>
+          <t>23:54:16</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7554935448256398088', 'createTime': 1759020501, 'createTimeISO': '2025-09-28T00:48:21.000Z', 'text': '💗', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452411908450108422', 'uniqueId': 'unatalgaby_17', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d31bb8b63795296e53c4901e56663b5d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fe72132a&amp;x-expires=1760734800&amp;x-signature=n%2FTUM55%2FGWKDNBvQ%2FVWiR6zUIMs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7557148031993807634', 'createTime': 1759535656, 'createTimeISO': '2025-10-03T23:54:16.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6927611184364356614', 'uniqueId': 'user0hhptpeva0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f1b330bd&amp;x-expires=1760792400&amp;x-signature=tpRRe0F49pqOeveDyRFCZVohWMA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7553402143257854727', 'createTime': 1758663504, 'createTimeISO': '2025-09-23T21:38:24.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6979791991334077446', 'uniqueId': 'lala_garzon0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/54f52760d8466c8575be7ac4ca3c5627~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=eba39efa&amp;x-expires=1760734800&amp;x-signature=XwfviF4gOY4V8yTYC20tc6%2Fc1HI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7553402143257854727', 'createTime': 1758663504, 'createTimeISO': '2025-09-23T21:38:24.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6979791991334077446', 'uniqueId': 'lala_garzon0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/54f52760d8466c8575be7ac4ca3c5627~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=af7df104&amp;x-expires=1760792400&amp;x-signature=j7pLbCq2SeKmunDQmp1TVCmSOGg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5126,18 +5126,18 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>☺️☺️☺</t>
+          <t>💗</t>
         </is>
       </c>
       <c r="G84" s="2" t="n">
-        <v>45933.62277777777</v>
+        <v>45928.03357638889</v>
       </c>
       <c r="H84" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>14:56:48</t>
+          <t>00:48:21</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -5156,7 +5156,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7557009575929938696', 'createTime': 1759503408, 'createTimeISO': '2025-10-03T14:56:48.000Z', 'text': '☺️☺️☺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808331911279903750', 'uniqueId': 'aleja.cardenas', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ae26428fddeb4cb0c608c71af324941d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c7a33193&amp;x-expires=1760734800&amp;x-signature=Zf9wVjwL3o%2FO203SZ7GmS9JoaIE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7554935448256398088', 'createTime': 1759020501, 'createTimeISO': '2025-09-28T00:48:21.000Z', 'text': '💗', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452411908450108422', 'uniqueId': 'unatalgaby_17', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d31bb8b63795296e53c4901e56663b5d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=76008fd3&amp;x-expires=1760792400&amp;x-signature=6M%2Bb6y2pdqmiZV1F%2F3xAmBNFGcY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5182,18 +5182,18 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>☺️☺️☺</t>
         </is>
       </c>
       <c r="G85" s="2" t="n">
-        <v>45933.99601851852</v>
+        <v>45933.62277777777</v>
       </c>
       <c r="H85" s="3" t="n">
         <v>45933</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>23:54:16</t>
+          <t>14:56:48</t>
         </is>
       </c>
       <c r="J85" t="n">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7557148031993807634', 'createTime': 1759535656, 'createTimeISO': '2025-10-03T23:54:16.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6927611184364356614', 'uniqueId': 'user0hhptpeva0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6b8b1b77&amp;x-expires=1760734800&amp;x-signature=6I4pA%2FIDCOBA%2BZcjTCx9oDIHntE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7557009575929938696', 'createTime': 1759503408, 'createTimeISO': '2025-10-03T14:56:48.000Z', 'text': '☺️☺️☺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808331911279903750', 'uniqueId': 'aleja.cardenas', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ae26428fddeb4cb0c608c71af324941d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8bfbd121&amp;x-expires=1760792400&amp;x-signature=NPTLyCYpUZV%2FfXTa0Q4nrd4p57c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7552707432578876180', 'createTime': 1758502001, 'createTimeISO': '2025-09-22T00:46:41.000Z', 'text': '@Alpina 🐮 cuantos comentarios y reacciones y me ayudan a completar la colección de Mochis e ilumimochis (ayuden gente a que lo vean🥺)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6915493889098187782', 'uniqueId': 'angel18mendoza', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/68f808039457cd87fd4d7b94e867d357~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f5b0a6b8&amp;x-expires=1760734800&amp;x-signature=iyiipv2kMJDjJdEBXADq7%2FcTnY8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7552707432578876180', 'createTime': 1758502001, 'createTimeISO': '2025-09-22T00:46:41.000Z', 'text': '@Alpina 🐮 cuantos comentarios y reacciones y me ayudan a completar la colección de Mochis e ilumimochis (ayuden gente a que lo vean🥺)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6915493889098187782', 'uniqueId': 'angel18mendoza', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/68f808039457cd87fd4d7b94e867d357~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=428eab0b&amp;x-expires=1760792400&amp;x-signature=96Qy0NvAbx6SlAcsAOfGzGiF13Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
         </is>
       </c>
     </row>
@@ -5294,25 +5294,25 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>hola</t>
+          <t>Súper aprobado jajajaja</t>
         </is>
       </c>
       <c r="G87" s="2" t="n">
-        <v>45919.99099537037</v>
+        <v>45920.00429398148</v>
       </c>
       <c r="H87" s="3" t="n">
-        <v>45919</v>
+        <v>45920</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>23:47:02</t>
+          <t>00:06:11</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="K87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L87" t="b">
         <v>0</v>
@@ -5324,7 +5324,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551950956708922130', 'createTime': 1758325622, 'createTimeISO': '2025-09-19T23:47:02.000Z', 'text': 'hola', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7416452271041987590', 'uniqueId': 'saragutierrez9607', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/2d50ff98a95e65e1155080427e14139e~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=bcba82cb&amp;x-expires=1760734800&amp;x-signature=%2FzZwbmABLwyyrTG7NO7amfP4gIg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551955913683682055', 'createTime': 1758326771, 'createTimeISO': '2025-09-20T00:06:11.000Z', 'text': 'Súper aprobado jajajaja', 'diggCount': 32, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6774446029552354309', 'uniqueId': 'its.bri_ugc', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/dfeff60de882b1c199e34cb77f9557be~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=f5099118&amp;x-expires=1760792400&amp;x-signature=%2FyDEOUuc8puxMUn4REBi0SXYni0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5380,7 +5380,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552550716473639700', 'createTime': 1758465250, 'createTimeISO': '2025-09-21T14:34:10.000Z', 'text': 'Mi primer mandato! Ajajjaa toda dictadora 😂😂', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7127494140724216838', 'uniqueId': 'marlinq23', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7127494903172923398~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=e0db0646&amp;x-expires=1760734800&amp;x-signature=nfcG6iyUvjybchbRgItyQWB6kAE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552550716473639700', 'createTime': 1758465250, 'createTimeISO': '2025-09-21T14:34:10.000Z', 'text': 'Mi primer mandato! Ajajjaa toda dictadora 😂😂', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7127494140724216838', 'uniqueId': 'marlinq23', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7127494903172923398~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=57c91993&amp;x-expires=1760792400&amp;x-signature=qL7MgpSVy%2BpvHLiyIByvtsL5Dzg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5406,22 +5406,22 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Súper aprobado jajajaja</t>
+          <t>amo este muuuuuuundoo😏</t>
         </is>
       </c>
       <c r="G89" s="2" t="n">
-        <v>45920.00429398148</v>
+        <v>45920.07972222222</v>
       </c>
       <c r="H89" s="3" t="n">
         <v>45920</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>00:06:11</t>
+          <t>01:54:48</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
         <v>1</v>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551955913683682055', 'createTime': 1758326771, 'createTimeISO': '2025-09-20T00:06:11.000Z', 'text': 'Súper aprobado jajajaja', 'diggCount': 32, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6774446029552354309', 'uniqueId': 'its.bri_ugc', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/deedfc9225eba48258aac384e9dd65f4~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=8bde4d5f&amp;x-expires=1760734800&amp;x-signature=uoXbhoLiYCacyLbVgTqUjv3Y1bw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551983930652689172', 'createTime': 1758333288, 'createTimeISO': '2025-09-20T01:54:48.000Z', 'text': 'amo este muuuuuuundoo😏', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6842674101811954693', 'uniqueId': 'lizz_fndz', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f5a7346c0b99528e0b975fc998230121~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=682a3bea&amp;x-expires=1760792400&amp;x-signature=ghHfFwSTjI7Ss7rdZCicROmgWCw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5462,22 +5462,22 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>ME ENCANTA✨✨</t>
+          <t>Empezó mi novela favorita😭😍</t>
         </is>
       </c>
       <c r="G90" s="2" t="n">
-        <v>45920.06896990741</v>
+        <v>45922.90943287037</v>
       </c>
       <c r="H90" s="3" t="n">
-        <v>45920</v>
+        <v>45922</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>01:39:19</t>
+          <t>21:49:35</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K90" t="n">
         <v>1</v>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551979924456211207', 'createTime': 1758332359, 'createTimeISO': '2025-09-20T01:39:19.000Z', 'text': 'ME ENCANTA✨✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=96584dab&amp;x-expires=1760734800&amp;x-signature=ldX%2Fu4yeKSxi6X0JOgWDpTsOgBE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7553033945219810055', 'createTime': 1758577775, 'createTimeISO': '2025-09-22T21:49:35.000Z', 'text': 'Empezó mi novela favorita😭😍', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6686398605715244037', 'uniqueId': 'carolina_serrano', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/79be4af25ec17f747428b28ea34a0231~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=24095790&amp;x-expires=1760792400&amp;x-signature=4gGIwdWfROstkBBMIdbXHa635T0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5548,7 +5548,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551983682992784136', 'createTime': 1758333239, 'createTimeISO': '2025-09-20T01:53:59.000Z', 'text': 'Apoyo muuuuuuuucho jajaja', 'diggCount': 5, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6577436033524727814', 'uniqueId': 'mafelovera', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7dea885196e9f4c245ffd2cb465a4c8a~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a180a8b3&amp;x-expires=1760734800&amp;x-signature=l%2Bo0PW6igCkOjgUtp7PRngcGDiQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551983682992784136', 'createTime': 1758333239, 'createTimeISO': '2025-09-20T01:53:59.000Z', 'text': 'Apoyo muuuuuuuucho jajaja', 'diggCount': 5, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6577436033524727814', 'uniqueId': 'mafelovera', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7dea885196e9f4c245ffd2cb465a4c8a~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=017cdedc&amp;x-expires=1760792400&amp;x-signature=l7Mmg1JZ4ehkrZLHKdA3oHqL6zY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5574,25 +5574,25 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Empezó mi novela favorita😭😍</t>
+          <t>hola</t>
         </is>
       </c>
       <c r="G92" s="2" t="n">
-        <v>45922.90943287037</v>
+        <v>45919.99099537037</v>
       </c>
       <c r="H92" s="3" t="n">
-        <v>45922</v>
+        <v>45919</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>21:49:35</t>
+          <t>23:47:02</t>
         </is>
       </c>
       <c r="J92" t="n">
         <v>3</v>
       </c>
       <c r="K92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L92" t="b">
         <v>0</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7553033945219810055', 'createTime': 1758577775, 'createTimeISO': '2025-09-22T21:49:35.000Z', 'text': 'Empezó mi novela favorita😭😍', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6686398605715244037', 'uniqueId': 'carolina_serrano', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/79be4af25ec17f747428b28ea34a0231~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=d97e2aaa&amp;x-expires=1760734800&amp;x-signature=W%2B2xk6diaxbWrIoa8kQF%2FOhPE2E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551950956708922130', 'createTime': 1758325622, 'createTimeISO': '2025-09-19T23:47:02.000Z', 'text': 'hola', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7416452271041987590', 'uniqueId': 'saragutierrez9607', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/2d50ff98a95e65e1155080427e14139e~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=52de8a1e&amp;x-expires=1760792400&amp;x-signature=80QK4s%2B7Nkun7zZyvYWD3NgfyRQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5630,22 +5630,22 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Me encantaaa!!!!! Aprobadooo</t>
+          <t>ME ENCANTA✨✨</t>
         </is>
       </c>
       <c r="G93" s="2" t="n">
-        <v>45919.99805555555</v>
+        <v>45920.06896990741</v>
       </c>
       <c r="H93" s="3" t="n">
-        <v>45919</v>
+        <v>45920</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>23:57:12</t>
+          <t>01:39:19</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
         <v>1</v>
@@ -5660,7 +5660,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551953579881202440', 'createTime': 1758326232, 'createTimeISO': '2025-09-19T23:57:12.000Z', 'text': 'Me encantaaa!!!!! Aprobadooo', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6806474480425796614', 'uniqueId': 'lrendon11', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/65f278fccdfba09731ee15dda4e3cb13~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=695b173e&amp;x-expires=1760734800&amp;x-signature=7JBzDKn48xcOoWZSkvIErJSJK2M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551979924456211207', 'createTime': 1758332359, 'createTimeISO': '2025-09-20T01:39:19.000Z', 'text': 'ME ENCANTA✨✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=f093e277&amp;x-expires=1760792400&amp;x-signature=lMmWr5ligWUr21%2BGBUsWfBbiNTs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5686,22 +5686,22 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>JAJAJAJAJA muuuuu</t>
+          <t>aprobadooo, amooo</t>
         </is>
       </c>
       <c r="G94" s="2" t="n">
-        <v>45920.71737268518</v>
+        <v>45920.64584490741</v>
       </c>
       <c r="H94" s="3" t="n">
         <v>45920</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>17:13:01</t>
+          <t>15:30:01</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
         <v>1</v>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552220543425413944', 'createTime': 1758388381, 'createTimeISO': '2025-09-20T17:13:01.000Z', 'text': 'JAJAJAJAJA muuuuu', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6808343868984345606', 'uniqueId': 'isaacalejandrorueda', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/9521fa11b07506edc233d485d7408f43~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=24b61663&amp;x-expires=1760734800&amp;x-signature=sI8OCaSW6NK3TEMcVbK82r7KeQA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552194010451477269', 'createTime': 1758382201, 'createTimeISO': '2025-09-20T15:30:01.000Z', 'text': 'aprobadooo, amooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6770401168398386182', 'uniqueId': 'gabrielaguerrero70', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/a36d643d0a9ecc0cdaafc93b6200aa8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=5e4e1bc1&amp;x-expires=1760792400&amp;x-signature=HkIcU8RXSKHxmbu0kkVMwEnPGaA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5742,22 +5742,22 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Wow! Que cracks</t>
+          <t>Tooooooop✨</t>
         </is>
       </c>
       <c r="G95" s="2" t="n">
-        <v>45920.13050925926</v>
+        <v>45920.0344675926</v>
       </c>
       <c r="H95" s="3" t="n">
         <v>45920</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>03:07:56</t>
+          <t>00:49:38</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K95" t="n">
         <v>1</v>
@@ -5772,7 +5772,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552002771790136071', 'createTime': 1758337676, 'createTimeISO': '2025-09-20T03:07:56.000Z', 'text': 'Wow! Que cracks', 'diggCount': 4, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6761789459468403717', 'uniqueId': 'mariajimenadiaz5', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7334740815043887110~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=cdea1df2&amp;x-expires=1760734800&amp;x-signature=TeC7LaC%2BgpuTVy9EmC4HTqagBfQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551967111200572161', 'createTime': 1758329378, 'createTimeISO': '2025-09-20T00:49:38.000Z', 'text': 'Tooooooop✨', 'diggCount': 2, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6636032545857355782', 'uniqueId': 'amygonzal_', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/bcf09f13282d39a21e796330dfd9b28d~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=a1407ccc&amp;x-expires=1760792400&amp;x-signature=HwoiRMiag2kQ%2BaOpt%2B2u7idVx4w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5798,25 +5798,25 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>aprobadooo, amooo</t>
+          <t>QUE VUELVA EL ALPILITRO 😭😭🙌🙌🙌🙏🙏</t>
         </is>
       </c>
       <c r="G96" s="2" t="n">
-        <v>45920.64584490741</v>
+        <v>45923.78701388889</v>
       </c>
       <c r="H96" s="3" t="n">
-        <v>45920</v>
+        <v>45923</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>15:30:01</t>
+          <t>18:53:18</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" t="b">
         <v>0</v>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552194010451477269', 'createTime': 1758382201, 'createTimeISO': '2025-09-20T15:30:01.000Z', 'text': 'aprobadooo, amooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6770401168398386182', 'uniqueId': 'gabrielaguerrero70', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/a36d643d0a9ecc0cdaafc93b6200aa8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=bae248dc&amp;x-expires=1760734800&amp;x-signature=ywzpxsu2Uw4Au%2BEQtZHvzxQmByI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7553359647815484167', 'createTime': 1758653598, 'createTimeISO': '2025-09-23T18:53:18.000Z', 'text': 'QUE VUELVA EL ALPILITRO 😭😭🙌🙌🙌🙏🙏', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7493133555746489351', 'uniqueId': 'andreykdy3', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/ffdb73d8f0b1bc3e2a3bf54e4492d457~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=0f8e8ca7&amp;x-expires=1760792400&amp;x-signature=%2FRo8LHFmpLWjw88To%2BBS9YHSC5g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5854,22 +5854,22 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>QUE VUELVA EL ALPILITRO 😭😭🙌🙌🙌🙏🙏</t>
+          <t>mi mami trabaja en alpina y me trajo Mochis 🥰</t>
         </is>
       </c>
       <c r="G97" s="2" t="n">
-        <v>45923.78701388889</v>
+        <v>45924.08138888889</v>
       </c>
       <c r="H97" s="3" t="n">
-        <v>45923</v>
+        <v>45924</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>18:53:18</t>
+          <t>01:57:12</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -5884,7 +5884,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7553359647815484167', 'createTime': 1758653598, 'createTimeISO': '2025-09-23T18:53:18.000Z', 'text': 'QUE VUELVA EL ALPILITRO 😭😭🙌🙌🙌🙏🙏', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7493133555746489351', 'uniqueId': 'andreykdy3', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/ffdb73d8f0b1bc3e2a3bf54e4492d457~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c4350c11&amp;x-expires=1760734800&amp;x-signature=7%2BzhaOKxrKmPQaGaNVy96CqIRis%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7553468863707759377', 'createTime': 1758679032, 'createTimeISO': '2025-09-24T01:57:12.000Z', 'text': 'mi mami trabaja en alpina y me trajo Mochis 🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6796362843291354118', 'uniqueId': 'sampreds', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/6ab46faa73ba2a267e5c627e7857a09a~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=1c9c8a10&amp;x-expires=1760792400&amp;x-signature=xb1lVRuiiHfz9pbBOahGnp%2B6Uq4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5910,22 +5910,22 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>mi mami trabaja en alpina y me trajo Mochis 🥰</t>
+          <t>Pero verídico</t>
         </is>
       </c>
       <c r="G98" s="2" t="n">
-        <v>45924.08138888889</v>
+        <v>45921.13072916667</v>
       </c>
       <c r="H98" s="3" t="n">
-        <v>45924</v>
+        <v>45921</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>01:57:12</t>
+          <t>03:08:15</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7553468863707759377', 'createTime': 1758679032, 'createTimeISO': '2025-09-24T01:57:12.000Z', 'text': 'mi mami trabaja en alpina y me trajo Mochis 🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6796362843291354118', 'uniqueId': 'sampreds', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/6ab46faa73ba2a267e5c627e7857a09a~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=49b55edb&amp;x-expires=1760734800&amp;x-signature=BKHnznjzSibPd%2F%2FHfTIedXoP6uk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552373947406664455', 'createTime': 1758424095, 'createTimeISO': '2025-09-21T03:08:15.000Z', 'text': 'Pero verídico', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6916307664519742470', 'uniqueId': 'daniel_rojas.4', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/1b1931cd030125ddc18f8e0cba099651~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=f8ce4988&amp;x-expires=1760792400&amp;x-signature=PAHJdoXYHX7d2dOnnM6FWoKIHdY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5966,25 +5966,25 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>está kiut</t>
+          <t>Increíbleeee</t>
         </is>
       </c>
       <c r="G99" s="2" t="n">
-        <v>45920.7575</v>
+        <v>45922.29777777778</v>
       </c>
       <c r="H99" s="3" t="n">
-        <v>45920</v>
+        <v>45922</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>18:10:48</t>
+          <t>07:08:48</t>
         </is>
       </c>
       <c r="J99" t="n">
         <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" t="b">
         <v>0</v>
@@ -5996,7 +5996,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552235435209802503', 'createTime': 1758391848, 'createTimeISO': '2025-09-20T18:10:48.000Z', 'text': 'está kiut', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7406595235524690950', 'uniqueId': 'tatiana.r.rocha021328', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/65263d812577fe31cc1016cb79e1e113~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a11ae0d0&amp;x-expires=1760734800&amp;x-signature=0JSdVC6Kl4v%2FfBm89yDaQp5ebQA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552806947365241622', 'createTime': 1758524928, 'createTimeISO': '2025-09-22T07:08:48.000Z', 'text': 'Increíbleeee', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7251571663123465243', 'uniqueId': 'barbaramayan', 'avatarThumbnail': 'https://p16-pu-sign-no.tiktokcdn-eu.com/tos-no1a-avt-0068c001-no/58ed5201d3060082de17047de0ec72f0~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=7b210e22&amp;x-expires=1760792400&amp;x-signature=pb3GXZLHpvxWhcmJ%2BnkFb47bmiM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6022,25 +6022,25 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>amo este muuuuuuundoo😏</t>
+          <t>Siiii</t>
         </is>
       </c>
       <c r="G100" s="2" t="n">
-        <v>45920.07972222222</v>
+        <v>45920.26096064815</v>
       </c>
       <c r="H100" s="3" t="n">
         <v>45920</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>01:54:48</t>
+          <t>06:15:47</t>
         </is>
       </c>
       <c r="J100" t="n">
         <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L100" t="b">
         <v>0</v>
@@ -6052,7 +6052,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551983930652689172', 'createTime': 1758333288, 'createTimeISO': '2025-09-20T01:54:48.000Z', 'text': 'amo este muuuuuuundoo😏', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6842674101811954693', 'uniqueId': 'lizz_fndz', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f5a7346c0b99528e0b975fc998230121~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=773ef06e&amp;x-expires=1760734800&amp;x-signature=r2G3hkXnFkTF9exAMXZAzTldkps%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552051172909024016', 'createTime': 1758348947, 'createTimeISO': '2025-09-20T06:15:47.000Z', 'text': 'Siiii', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781933506022491142', 'uniqueId': 'carovelez_9', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/9bafd1d600cb2409f94c1df9050c163d~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=8abefbf7&amp;x-expires=1760792400&amp;x-signature=Lu2t8VLgRwhhGhVSiNwhQT274JA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6078,25 +6078,25 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>hola 😘</t>
+          <t>Lindo</t>
         </is>
       </c>
       <c r="G101" s="2" t="n">
-        <v>45919.98998842593</v>
+        <v>45920.64417824074</v>
       </c>
       <c r="H101" s="3" t="n">
-        <v>45919</v>
+        <v>45920</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>23:45:35</t>
+          <t>15:27:37</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101" t="b">
         <v>0</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551950541917881104', 'createTime': 1758325535, 'createTimeISO': '2025-09-19T23:45:35.000Z', 'text': 'hola 😘', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=9b6e22f2&amp;x-expires=1760734800&amp;x-signature=JKJcSNjdr228gO%2BFkpEJGq2etD8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552193394950685448', 'createTime': 1758382057, 'createTimeISO': '2025-09-20T15:27:37.000Z', 'text': 'Lindo', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6747056373932590086', 'uniqueId': 'monimarpor', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7327496776705933318~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=07c87025&amp;x-expires=1760792400&amp;x-signature=otkwMK9hLrEfHSf5SK%2Bw8x3wN2A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6134,25 +6134,25 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Me encanta</t>
+          <t>JAJAJAJAJA muuuuu</t>
         </is>
       </c>
       <c r="G102" s="2" t="n">
-        <v>45925.74446759259</v>
+        <v>45920.71737268518</v>
       </c>
       <c r="H102" s="3" t="n">
-        <v>45925</v>
+        <v>45920</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>17:52:02</t>
+          <t>17:13:01</t>
         </is>
       </c>
       <c r="J102" t="n">
         <v>1</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" t="b">
         <v>0</v>
@@ -6164,7 +6164,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7554086009761415956', 'createTime': 1758822722, 'createTimeISO': '2025-09-25T17:52:02.000Z', 'text': 'Me encanta', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6824118381916079109', 'uniqueId': 'urg7348', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7333599963433140229~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=cdbc12e4&amp;x-expires=1760734800&amp;x-signature=WijP2Cj%2FLGuks0tGZFiKZ9jnGiE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552220543425413944', 'createTime': 1758388381, 'createTimeISO': '2025-09-20T17:13:01.000Z', 'text': 'JAJAJAJAJA muuuuu', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6808343868984345606', 'uniqueId': 'isaacalejandrorueda', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/9521fa11b07506edc233d485d7408f43~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=fc55e35a&amp;x-expires=1760792400&amp;x-signature=uqVYvEKZrsTofozRWozpjbQJD1Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6190,25 +6190,25 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Amooooooooo ✨❤</t>
+          <t>Me encanta!</t>
         </is>
       </c>
       <c r="G103" s="2" t="n">
-        <v>45920.63488425926</v>
+        <v>45927.95293981482</v>
       </c>
       <c r="H103" s="3" t="n">
-        <v>45920</v>
+        <v>45927</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>15:14:14</t>
+          <t>22:52:14</t>
         </is>
       </c>
       <c r="J103" t="n">
         <v>1</v>
       </c>
       <c r="K103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103" t="b">
         <v>0</v>
@@ -6220,7 +6220,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552189950164157202', 'createTime': 1758381254, 'createTimeISO': '2025-09-20T15:14:14.000Z', 'text': 'Amooooooooo ✨❤', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6775204820329579525', 'uniqueId': 'danivalenciaa', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/16f06ae19c05a3c06f041a0a4078e97e~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=0593c8f8&amp;x-expires=1760734800&amp;x-signature=MFk%2FKUqrTxnSwpGAF53dy%2FxY52U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7554905527273751314', 'createTime': 1759013534, 'createTimeISO': '2025-09-27T22:52:14.000Z', 'text': 'Me encanta!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6817121247644124166', 'uniqueId': 'marsd195', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/1afb497a92aa0ea23b48a8a687a97094~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=3d4f12c2&amp;x-expires=1760792400&amp;x-signature=Uecqc1IH2rZFJg1iGsigHt7YmOc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6276,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552191427935208203', 'createTime': 1758381610, 'createTimeISO': '2025-09-20T15:20:10.000Z', 'text': 'Me gusta MUUUUUcho', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6786345043017958405', 'uniqueId': 'rafaelladm_', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/73cfb3946b471a5575a9bd8db504145d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=41d1858b&amp;x-expires=1760734800&amp;x-signature=zgO9c8pPuaJhTYl%2BxKMJ7kj%2B%2BMQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552191427935208203', 'createTime': 1758381610, 'createTimeISO': '2025-09-20T15:20:10.000Z', 'text': 'Me gusta MUUUUUcho', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6786345043017958405', 'uniqueId': 'rafaelladm_', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/73cfb3946b471a5575a9bd8db504145d~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=950102fb&amp;x-expires=1760792400&amp;x-signature=oYLtXFRXBPmcEKleMlLxypleD1M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6302,22 +6302,22 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Me encantaaaa</t>
+          <t>Wow! Que cracks</t>
         </is>
       </c>
       <c r="G105" s="2" t="n">
-        <v>45920.30841435185</v>
+        <v>45920.13050925926</v>
       </c>
       <c r="H105" s="3" t="n">
         <v>45920</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>07:24:07</t>
+          <t>03:07:56</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K105" t="n">
         <v>1</v>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552068707821749048', 'createTime': 1758353047, 'createTimeISO': '2025-09-20T07:24:07.000Z', 'text': 'Me encantaaaa', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6572155711261966341', 'uniqueId': 'renata.garces', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/0e4e281eab3b0fe02f45e37f8562c901~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=7257b0ac&amp;x-expires=1760734800&amp;x-signature=c4achm1oOGsMIBxC6PuUh%2FLOdfo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552002771790136071', 'createTime': 1758337676, 'createTimeISO': '2025-09-20T03:07:56.000Z', 'text': 'Wow! Que cracks', 'diggCount': 4, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6761789459468403717', 'uniqueId': 'mariajimenadiaz5', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7334740815043887110~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=3f62bedf&amp;x-expires=1760792400&amp;x-signature=fC3RAeQ9QpmzJMlGKiTYIk3XGJE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6358,22 +6358,22 @@
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Tooooooop✨</t>
+          <t>Me encantaaaa</t>
         </is>
       </c>
       <c r="G106" s="2" t="n">
-        <v>45920.0344675926</v>
+        <v>45920.30841435185</v>
       </c>
       <c r="H106" s="3" t="n">
         <v>45920</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>00:49:38</t>
+          <t>07:24:07</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K106" t="n">
         <v>1</v>
@@ -6388,7 +6388,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551967111200572161', 'createTime': 1758329378, 'createTimeISO': '2025-09-20T00:49:38.000Z', 'text': 'Tooooooop✨', 'diggCount': 2, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6636032545857355782', 'uniqueId': 'amygonzal_', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/bcf09f13282d39a21e796330dfd9b28d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=0c2194ef&amp;x-expires=1760734800&amp;x-signature=BSMVtiTTA1eYuOhw3Dcs7ZR5Qos%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552068707821749048', 'createTime': 1758353047, 'createTimeISO': '2025-09-20T07:24:07.000Z', 'text': 'Me encantaaaa', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6572155711261966341', 'uniqueId': 'renata.garces', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/0e4e281eab3b0fe02f45e37f8562c901~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=076c3240&amp;x-expires=1760792400&amp;x-signature=Plrg0rY51D2JJ8Nd4tSopaIwnOA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6444,7 +6444,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7554108742757827346', 'createTime': 1758828012, 'createTimeISO': '2025-09-25T19:20:12.000Z', 'text': 'Si', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7472435716635902996', 'uniqueId': 'saraisabellamolin21', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/a143062aac046151f845e8a7d43027c0~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=1ab8c650&amp;x-expires=1760734800&amp;x-signature=IJfaXWgJU2GSdzVysmS91%2FnyXWA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7554108742757827346', 'createTime': 1758828012, 'createTimeISO': '2025-09-25T19:20:12.000Z', 'text': 'Si', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7472435716635902996', 'uniqueId': 'saraisabellamolin21', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/a143062aac046151f845e8a7d43027c0~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=57fdf99a&amp;x-expires=1760792400&amp;x-signature=7L31fvG1BjaFwVKBZ4V3ACCNZ74%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6470,18 +6470,18 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Me encanta el Muuuuuuu💖</t>
+          <t>Amooooooooo ✨❤</t>
         </is>
       </c>
       <c r="G108" s="2" t="n">
-        <v>45920.03078703704</v>
+        <v>45920.63488425926</v>
       </c>
       <c r="H108" s="3" t="n">
         <v>45920</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>00:44:20</t>
+          <t>15:14:14</t>
         </is>
       </c>
       <c r="J108" t="n">
@@ -6500,7 +6500,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551965699524461330', 'createTime': 1758329060, 'createTimeISO': '2025-09-20T00:44:20.000Z', 'text': 'Me encanta el Muuuuuuu💖', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=0d6cc069&amp;x-expires=1760734800&amp;x-signature=GgYjOTuTWo4DMJG63FP8AKLZPQM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552189950164157202', 'createTime': 1758381254, 'createTimeISO': '2025-09-20T15:14:14.000Z', 'text': 'Amooooooooo ✨❤', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6775204820329579525', 'uniqueId': 'danivalenciaa', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/16f06ae19c05a3c06f041a0a4078e97e~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=0f9c8a12&amp;x-expires=1760792400&amp;x-signature=G8vCloUJXluSYIfmzmMKP89Gvnc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6526,26 +6526,26 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Pero verídico</t>
+          <t>Me encantaaa!!!!! Aprobadooo</t>
         </is>
       </c>
       <c r="G109" s="2" t="n">
-        <v>45921.13072916667</v>
+        <v>45919.99805555555</v>
       </c>
       <c r="H109" s="3" t="n">
-        <v>45921</v>
+        <v>45919</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>03:08:15</t>
+          <t>23:57:12</t>
         </is>
       </c>
       <c r="J109" t="n">
+        <v>12</v>
+      </c>
+      <c r="K109" t="n">
         <v>1</v>
       </c>
-      <c r="K109" t="n">
-        <v>0</v>
-      </c>
       <c r="L109" t="b">
         <v>0</v>
       </c>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552373947406664455', 'createTime': 1758424095, 'createTimeISO': '2025-09-21T03:08:15.000Z', 'text': 'Pero verídico', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6916307664519742470', 'uniqueId': 'daniel_rojas.4', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/1b1931cd030125ddc18f8e0cba099651~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=afde0ed5&amp;x-expires=1760734800&amp;x-signature=3raeN6atMIqZM1bi2dFJMIALQF8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551953579881202440', 'createTime': 1758326232, 'createTimeISO': '2025-09-19T23:57:12.000Z', 'text': 'Me encantaaa!!!!! Aprobadooo', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6806474480425796614', 'uniqueId': 'lrendon11', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/65f278fccdfba09731ee15dda4e3cb13~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=3724ee93&amp;x-expires=1760792400&amp;x-signature=HYxiLT57pPYbk2Dizdw415sRZo8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6582,25 +6582,25 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Increíbleeee</t>
+          <t>está kiut</t>
         </is>
       </c>
       <c r="G110" s="2" t="n">
-        <v>45922.29777777778</v>
+        <v>45920.7575</v>
       </c>
       <c r="H110" s="3" t="n">
-        <v>45922</v>
+        <v>45920</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>07:08:48</t>
+          <t>18:10:48</t>
         </is>
       </c>
       <c r="J110" t="n">
         <v>1</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L110" t="b">
         <v>0</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552806947365241622', 'createTime': 1758524928, 'createTimeISO': '2025-09-22T07:08:48.000Z', 'text': 'Increíbleeee', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7251571663123465243', 'uniqueId': 'barbaramayan', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/58ed5201d3060082de17047de0ec72f0~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=42c53270&amp;x-expires=1760734800&amp;x-signature=SZ2gIx7%2B7f2Byjvn6pXOU7FjFvQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552235435209802503', 'createTime': 1758391848, 'createTimeISO': '2025-09-20T18:10:48.000Z', 'text': 'está kiut', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7406595235524690950', 'uniqueId': 'tatiana.r.rocha021328', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/65263d812577fe31cc1016cb79e1e113~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=92bb03a4&amp;x-expires=1760792400&amp;x-signature=wonnjOrw39qJM%2Fu3OzOFk07Q7oM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6638,25 +6638,25 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Siiii</t>
+          <t>Me encanta el Muuuuuuu💖</t>
         </is>
       </c>
       <c r="G111" s="2" t="n">
-        <v>45920.26096064815</v>
+        <v>45920.03078703704</v>
       </c>
       <c r="H111" s="3" t="n">
         <v>45920</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>06:15:47</t>
+          <t>00:44:20</t>
         </is>
       </c>
       <c r="J111" t="n">
         <v>1</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L111" t="b">
         <v>0</v>
@@ -6668,7 +6668,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552051172909024016', 'createTime': 1758348947, 'createTimeISO': '2025-09-20T06:15:47.000Z', 'text': 'Siiii', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781933506022491142', 'uniqueId': 'carovelez_9', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/9bafd1d600cb2409f94c1df9050c163d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=e8c1a069&amp;x-expires=1760734800&amp;x-signature=WoX%2BkdKKZqbDgGU%2FjGThcS55ubE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551965699524461330', 'createTime': 1758329060, 'createTimeISO': '2025-09-20T00:44:20.000Z', 'text': 'Me encanta el Muuuuuuu💖', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=ed09ccda&amp;x-expires=1760792400&amp;x-signature=rOgPSiHTGrBouKiOsjZiDF4olAA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6694,18 +6694,18 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Me encanta!</t>
+          <t>Me encanta</t>
         </is>
       </c>
       <c r="G112" s="2" t="n">
-        <v>45927.95293981482</v>
+        <v>45925.74446759259</v>
       </c>
       <c r="H112" s="3" t="n">
-        <v>45927</v>
+        <v>45925</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>22:52:14</t>
+          <t>17:52:02</t>
         </is>
       </c>
       <c r="J112" t="n">
@@ -6724,7 +6724,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7554905527273751314', 'createTime': 1759013534, 'createTimeISO': '2025-09-27T22:52:14.000Z', 'text': 'Me encanta!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6817121247644124166', 'uniqueId': 'marsd195', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/1afb497a92aa0ea23b48a8a687a97094~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=304733ec&amp;x-expires=1760734800&amp;x-signature=z5%2FaUXm0NtlbVp6jeuW%2BA9whWek%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7554086009761415956', 'createTime': 1758822722, 'createTimeISO': '2025-09-25T17:52:02.000Z', 'text': 'Me encanta', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6824118381916079109', 'uniqueId': 'urg7348', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7333599963433140229~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=70e7ebf2&amp;x-expires=1760792400&amp;x-signature=pT%2BCQehrjI8LBzgPKX23qg542Ec%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6750,25 +6750,25 @@
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Lindo</t>
+          <t>Califiquen mi nuevo mochi saurio!!!💗</t>
         </is>
       </c>
       <c r="G113" s="2" t="n">
-        <v>45920.64417824074</v>
+        <v>45922.05614583333</v>
       </c>
       <c r="H113" s="3" t="n">
-        <v>45920</v>
+        <v>45922</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>15:27:37</t>
+          <t>01:20:51</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L113" t="b">
         <v>0</v>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552193394950685448', 'createTime': 1758382057, 'createTimeISO': '2025-09-20T15:27:37.000Z', 'text': 'Lindo', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6747056373932590086', 'uniqueId': 'monimarpor', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7327496776705933318~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=4848a29c&amp;x-expires=1760734800&amp;x-signature=vgU1BBg5%2FDykqoxYo7moZ4jE6i8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552717306100761351', 'createTime': 1758504051, 'createTimeISO': '2025-09-22T01:20:51.000Z', 'text': 'Califiquen mi nuevo mochi saurio!!!💗', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7025228362498999301', 'uniqueId': 'krystelnavarrober', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/3da7823061496f0246300c1ee868876f~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=96d45ac5&amp;x-expires=1760792400&amp;x-signature=vwIKQbZRgOmpXRS9RBT3eN%2BH0Sk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6806,25 +6806,25 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Califiquen mi nuevo mochi saurio!!!💗</t>
+          <t>alpina q es esta hermosura</t>
         </is>
       </c>
       <c r="G114" s="2" t="n">
-        <v>45922.05614583333</v>
+        <v>45923.97987268519</v>
       </c>
       <c r="H114" s="3" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>01:20:51</t>
+          <t>23:31:01</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L114" t="b">
         <v>0</v>
@@ -6836,7 +6836,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552717306100761351', 'createTime': 1758504051, 'createTimeISO': '2025-09-22T01:20:51.000Z', 'text': 'Califiquen mi nuevo mochi saurio!!!💗', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7025228362498999301', 'uniqueId': 'krystelnavarrober', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/3da7823061496f0246300c1ee868876f~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=80ac664e&amp;x-expires=1760734800&amp;x-signature=wS%2BoHVYY9qrGBjMUpvURmn3EXuI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7553431107175662354', 'createTime': 1758670261, 'createTimeISO': '2025-09-23T23:31:01.000Z', 'text': 'alpina q es esta hermosura', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7246183829702034437', 'uniqueId': '2s_sarah', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/a9bc5c82ba1c64cdd2810f102faf0c8f~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=3de6d21e&amp;x-expires=1760792400&amp;x-signature=710nm%2Bjqu7uqsZPowA5%2Bz2iE8kE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6862,22 +6862,22 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr">
         <is>
-          <t>alpina q es esta hermosura</t>
+          <t>🥰🥰🥰</t>
         </is>
       </c>
       <c r="G115" s="2" t="n">
-        <v>45923.97987268519</v>
+        <v>45919.98965277777</v>
       </c>
       <c r="H115" s="3" t="n">
-        <v>45923</v>
+        <v>45919</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>23:31:01</t>
+          <t>23:45:06</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K115" t="n">
         <v>0</v>
@@ -6892,7 +6892,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7553431107175662354', 'createTime': 1758670261, 'createTimeISO': '2025-09-23T23:31:01.000Z', 'text': 'alpina q es esta hermosura', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7246183829702034437', 'uniqueId': '2s_sarah', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/a9bc5c82ba1c64cdd2810f102faf0c8f~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=fa011697&amp;x-expires=1760734800&amp;x-signature=FunExTvCc52RjtDEZUTNe8XOxXI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551950414629061394', 'createTime': 1758325506, 'createTimeISO': '2025-09-19T23:45:06.000Z', 'text': '🥰🥰🥰', 'diggCount': 2, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6830514363565278214', 'uniqueId': 'mariafernandasalc02', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/f48ef1c788191659fa2e09d032706b87~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=00ba2426&amp;x-expires=1760792400&amp;x-signature=H2KhV8EAC2SdZJyCBZDYFL5LV5Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6918,25 +6918,25 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
         <is>
-          <t>✅✅✅</t>
+          <t>hola 😘</t>
         </is>
       </c>
       <c r="G116" s="2" t="n">
-        <v>45920.11243055556</v>
+        <v>45919.98998842593</v>
       </c>
       <c r="H116" s="3" t="n">
-        <v>45920</v>
+        <v>45919</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>02:41:54</t>
+          <t>23:45:35</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L116" t="b">
         <v>0</v>
@@ -6948,7 +6948,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551996069400838930', 'createTime': 1758336114, 'createTimeISO': '2025-09-20T02:41:54.000Z', 'text': '✅✅✅', 'diggCount': 2, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6775228984448959493', 'uniqueId': 'francescalvarezr_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2e5e4150ee1705a086acc14bc21b08d4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e1aefd1f&amp;x-expires=1760734800&amp;x-signature=wH3iClxdxg73RraPFgljHTeT7DI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551950541917881104', 'createTime': 1758325535, 'createTimeISO': '2025-09-19T23:45:35.000Z', 'text': 'hola 😘', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e7109759&amp;x-expires=1760792400&amp;x-signature=6np5PsSGRsgOWrfycwtS1A%2F9FUg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6974,22 +6974,22 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>✅✅✅</t>
         </is>
       </c>
       <c r="G117" s="2" t="n">
-        <v>45920.60407407407</v>
+        <v>45920.11243055556</v>
       </c>
       <c r="H117" s="3" t="n">
         <v>45920</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>14:29:52</t>
+          <t>02:41:54</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K117" t="n">
         <v>0</v>
@@ -7004,7 +7004,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552178343107592961', 'createTime': 1758378592, 'createTimeISO': '2025-09-20T14:29:52.000Z', 'text': '🥰', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6806405540710351877', 'uniqueId': 'karenmarcelagarzo', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7326838454582460422~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=391946e9&amp;x-expires=1760734800&amp;x-signature=ORWOKsYzCOG7E2WGmJSVH75iJyU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551996069400838930', 'createTime': 1758336114, 'createTimeISO': '2025-09-20T02:41:54.000Z', 'text': '✅✅✅', 'diggCount': 2, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6775228984448959493', 'uniqueId': 'francescalvarezr_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2e5e4150ee1705a086acc14bc21b08d4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=787025da&amp;x-expires=1760792400&amp;x-signature=vTLzBgUeITwjIaaYZLh8ZLfdSbQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7030,22 +7030,22 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
         <is>
-          <t>🥰🥰🥰</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G118" s="2" t="n">
-        <v>45919.98965277777</v>
+        <v>45920.60407407407</v>
       </c>
       <c r="H118" s="3" t="n">
-        <v>45919</v>
+        <v>45920</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>23:45:06</t>
+          <t>14:29:52</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
@@ -7060,7 +7060,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551950414629061394', 'createTime': 1758325506, 'createTimeISO': '2025-09-19T23:45:06.000Z', 'text': '🥰🥰🥰', 'diggCount': 2, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6830514363565278214', 'uniqueId': 'mariafernandasalc02', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/f48ef1c788191659fa2e09d032706b87~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d3cf18e2&amp;x-expires=1760734800&amp;x-signature=MA1UXdcaZagcb7gODDJeh1HQfSw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552178343107592961', 'createTime': 1758378592, 'createTimeISO': '2025-09-20T14:29:52.000Z', 'text': '🥰', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6806405540710351877', 'uniqueId': 'karenmarcelagarzo', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7326838454582460422~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a70cf9e9&amp;x-expires=1760792400&amp;x-signature=sYOG2SW2E5BH5RCFhVAyItqjT7o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7557200531950256903', 'createTime': 1759547871, 'createTimeISO': '2025-10-04T03:17:51.000Z', 'text': '🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7368157374302946309', 'uniqueId': 'jeronimoo334', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4853e0d53cbeb9e2a1c9346cf5e1b179~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2f433cc0&amp;x-expires=1760734800&amp;x-signature=BW6lJOCJ0cMdRATKB9EiVZv3LGw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7557200531950256903', 'createTime': 1759547871, 'createTimeISO': '2025-10-04T03:17:51.000Z', 'text': '🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7368157374302946309', 'uniqueId': 'jeronimoo334', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4853e0d53cbeb9e2a1c9346cf5e1b179~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5b53bddf&amp;x-expires=1760792400&amp;x-signature=M4ZV%2FN9GBvMTtBxa1vHmIuANuiw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7172,7 +7172,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7558317759676121874', 'createTime': 1759807996, 'createTimeISO': '2025-10-07T03:33:16.000Z', 'text': '😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6842107016141751301', 'uniqueId': 'pandrea9610', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7325541937888952325~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9707a4b6&amp;x-expires=1760734800&amp;x-signature=irK6Z3c93aaEJuSV6%2BaCzKfcvhU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7558317759676121874', 'createTime': 1759807996, 'createTimeISO': '2025-10-07T03:33:16.000Z', 'text': '😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6842107016141751301', 'uniqueId': 'pandrea9610', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7325541937888952325~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2a01b9f1&amp;x-expires=1760792400&amp;x-signature=4oYmKNEcO14SBkZdAO92gS0u7Ro%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7228,7 +7228,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7558600728525275934', 'createTime': 1759873888, 'createTimeISO': '2025-10-07T21:51:28.000Z', 'text': 'Holaaa!! ¿Cuánto tiempo tarda en finalizar los filtros de la convocatoria? @Alpina 🐮 ✨✨✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '130977736172539904', 'uniqueId': 'giraldotogaby', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-useast5-avt-0068-tx/a2c5a1fbbbc85ff0c2c73bd1842eb1cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ced28767&amp;x-expires=1760734800&amp;x-signature=Js%2FQZRM8%2FISwcHM%2BrDwObxBi1s4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7558600728525275934', 'createTime': 1759873888, 'createTimeISO': '2025-10-07T21:51:28.000Z', 'text': 'Holaaa!! ¿Cuánto tiempo tarda en finalizar los filtros de la convocatoria? @Alpina 🐮 ✨✨✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '130977736172539904', 'uniqueId': 'giraldotogaby', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-useast5-avt-0068-tx/a2c5a1fbbbc85ff0c2c73bd1842eb1cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=52528094&amp;x-expires=1760792400&amp;x-signature=6X%2F88WeHrTSCPndxtX7kgw9abGw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
         </is>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7555150174504469266', 'createTime': 1759070484, 'createTimeISO': '2025-09-28T14:41:24.000Z', 'text': '🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6891441655778624518', 'uniqueId': 'kris_salazar23', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/76c1e9d5f762548bf55f86a2eeb72fa3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fb00ecc1&amp;x-expires=1760734800&amp;x-signature=3jwGs%2FrAWXZ6hbGz36v3g%2BlriHA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7555150174504469266', 'createTime': 1759070484, 'createTimeISO': '2025-09-28T14:41:24.000Z', 'text': '🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6891441655778624518', 'uniqueId': 'kris_salazar23', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/76c1e9d5f762548bf55f86a2eeb72fa3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e9963f07&amp;x-expires=1760792400&amp;x-signature=IsVHTOEdkkHCCjvYScpfCMo9l0Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7340,7 +7340,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552706319259435783', 'createTime': 1758501808, 'createTimeISO': '2025-09-22T00:43:28.000Z', 'text': '@Alpina 🐮 cuantos comentarios y reacciones acá en el vídeo y me mandasla nueva colección de los mochis dinosaurios (ayuden que lo vean🙊)', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6915493889098187782', 'uniqueId': 'angel18mendoza', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/68f808039457cd87fd4d7b94e867d357~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=53a7f87f&amp;x-expires=1760734800&amp;x-signature=Def%2FHGMwE9g1bWbGXTe%2BG5Uhy54%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552706319259435783', 'createTime': 1758501808, 'createTimeISO': '2025-09-22T00:43:28.000Z', 'text': '@Alpina 🐮 cuantos comentarios y reacciones acá en el vídeo y me mandasla nueva colección de los mochis dinosaurios (ayuden que lo vean🙊)', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6915493889098187782', 'uniqueId': 'angel18mendoza', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/68f808039457cd87fd4d7b94e867d357~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a3173526&amp;x-expires=1760792400&amp;x-signature=hnPswd0cMamOiaHEljb7wqoj1Io%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
         </is>
       </c>
     </row>
@@ -7396,7 +7396,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553840238716945153', 'createTime': 1758765496, 'createTimeISO': '2025-09-25T01:58:16.000Z', 'text': 'Mi sueñoooo 😩 ya quiero hacer parte de ustedes', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '6561143503132540934', 'uniqueId': 'maaaarirg', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7324826520122785798~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2f13f5b6&amp;x-expires=1760734800&amp;x-signature=L7d1NMJ6yymPcqvX9ggX6vdNxSU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553840238716945153', 'createTime': 1758765496, 'createTimeISO': '2025-09-25T01:58:16.000Z', 'text': 'Mi sueñoooo 😩 ya quiero hacer parte de ustedes', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '6561143503132540934', 'uniqueId': 'maaaarirg', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7324826520122785798~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=202715fa&amp;x-expires=1760792400&amp;x-signature=%2Ftcy%2FBoNnWpm2e0brFs87eT8cZI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7452,7 +7452,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7556072986438107912', 'createTime': 1759285348, 'createTimeISO': '2025-10-01T02:22:28.000Z', 'text': 'alpina por favor me puedes mandar la lavadora de mochis pls🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7555531729910694930', 'uniqueId': 'danna.isabella.sa2', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/33f27490f5d982fb6410362608e53e39~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5a2fd0bf&amp;x-expires=1760734800&amp;x-signature=mSyydeagbL8YGYBB9VOGpmpuSEQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7556072986438107912', 'createTime': 1759285348, 'createTimeISO': '2025-10-01T02:22:28.000Z', 'text': 'alpina por favor me puedes mandar la lavadora de mochis pls🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7555531729910694930', 'uniqueId': 'danna.isabella.sa2', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/33f27490f5d982fb6410362608e53e39~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=025e33cb&amp;x-expires=1760792400&amp;x-signature=8YFGGOjdoOIAuy87Rz6X01z1Q9M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7478,18 +7478,18 @@
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Alpina que paso con los gatos de la leche alpina?, si me contestas me voy a la cabaña alpina👀</t>
+          <t>estando en etapa lectiva puedo aplicar gracias</t>
         </is>
       </c>
       <c r="G126" s="2" t="n">
-        <v>45926.65694444445</v>
+        <v>45926.77866898148</v>
       </c>
       <c r="H126" s="3" t="n">
         <v>45926</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>15:46:00</t>
+          <t>18:41:17</t>
         </is>
       </c>
       <c r="J126" t="n">
@@ -7508,7 +7508,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554424648151941905', 'createTime': 1758901560, 'createTimeISO': '2025-09-26T15:46:00.000Z', 'text': 'Alpina que paso con los gatos de la leche alpina?, si me contestas me voy a la cabaña alpina👀', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7436539205088396344', 'uniqueId': 'isaac_mora1903', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bd074fbf9f61ee99fcea8ef5f350b2bf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a294001d&amp;x-expires=1760734800&amp;x-signature=DzcxhqoKFjDszFVAFDxC3PWlRLk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554469785704645384', 'createTime': 1758912077, 'createTimeISO': '2025-09-26T18:41:17.000Z', 'text': 'estando en etapa lectiva puedo aplicar gracias', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6964937358190445574', 'uniqueId': 'daneicy8', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a6e6af884aceb8af9c72174f73167f68~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=185bdc01&amp;x-expires=1760792400&amp;x-signature=74H%2Bgl0hCEbrKEoXP47MnrdN5Lk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7534,22 +7534,22 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Gran historia jajajaja 🥳</t>
+          <t>Alpinaa salúdame</t>
         </is>
       </c>
       <c r="G127" s="2" t="n">
-        <v>45925.03746527778</v>
+        <v>45932.13111111111</v>
       </c>
       <c r="H127" s="3" t="n">
-        <v>45925</v>
+        <v>45932</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>00:53:57</t>
+          <t>03:08:48</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553823647435178770', 'createTime': 1758761637, 'createTimeISO': '2025-09-25T00:53:57.000Z', 'text': 'Gran historia jajajaja 🥳', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781206829306807302', 'uniqueId': 'gaaaabs6', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/87a6fa6e1b0b9d03506eca068222ad5e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=42d18698&amp;x-expires=1760734800&amp;x-signature=5GAI0w1MN5VfpEqucJTxhEtfhp0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7556456003958588178', 'createTime': 1759374528, 'createTimeISO': '2025-10-02T03:08:48.000Z', 'text': 'Alpinaa salúdame', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6783863549585867782', 'uniqueId': 'ciro_492', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ba6e671d98bb7d6703462ff22e1c8081~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=24746580&amp;x-expires=1760792400&amp;x-signature=zmXDAWlIaeZeOcKaAPr4KfXY7WA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553827220982170386', 'createTime': 1758762474, 'createTimeISO': '2025-09-25T01:07:54.000Z', 'text': 'Yo abría amado que mis prácticas hubiesen sido en alpina ☹', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6760311129178735621', 'uniqueId': 'dosydosdoss', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4de63d002c8153b317e435b8b677488d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=abc196f9&amp;x-expires=1760734800&amp;x-signature=aACheP1TNrdupWS33OVcW5PASR8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553827220982170386', 'createTime': 1758762474, 'createTimeISO': '2025-09-25T01:07:54.000Z', 'text': 'Yo abría amado que mis prácticas hubiesen sido en alpina ☹', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6760311129178735621', 'uniqueId': 'dosydosdoss', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4de63d002c8153b317e435b8b677488d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5743fdbe&amp;x-expires=1760792400&amp;x-signature=oYr4r0ESrAAvLGMSVImOsQ1O2Hk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7646,18 +7646,18 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr">
         <is>
-          <t>estando en etapa lectiva puedo aplicar gracias</t>
+          <t>nueva presentación 😳!</t>
         </is>
       </c>
       <c r="G129" s="2" t="n">
-        <v>45926.77866898148</v>
+        <v>45925.20309027778</v>
       </c>
       <c r="H129" s="3" t="n">
-        <v>45926</v>
+        <v>45925</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>18:41:17</t>
+          <t>04:52:27</t>
         </is>
       </c>
       <c r="J129" t="n">
@@ -7676,7 +7676,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554469785704645384', 'createTime': 1758912077, 'createTimeISO': '2025-09-26T18:41:17.000Z', 'text': 'estando en etapa lectiva puedo aplicar gracias', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6964937358190445574', 'uniqueId': 'daneicy8', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a6e6af884aceb8af9c72174f73167f68~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9786c31a&amp;x-expires=1760734800&amp;x-signature=yBJxRqNLJ89LHa%2BWZR0tWd9gijc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553885128557478672', 'createTime': 1758775947, 'createTimeISO': '2025-09-25T04:52:27.000Z', 'text': 'nueva presentación 😳!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e7109759&amp;x-expires=1760792400&amp;x-signature=6np5PsSGRsgOWrfycwtS1A%2F9FUg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7702,18 +7702,18 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
         <is>
-          <t>nueva presentación 😳!</t>
+          <t>Porque es la mejor ❤️❤️✨✨</t>
         </is>
       </c>
       <c r="G130" s="2" t="n">
-        <v>45925.20309027778</v>
+        <v>45925.67758101852</v>
       </c>
       <c r="H130" s="3" t="n">
         <v>45925</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>04:52:27</t>
+          <t>16:15:43</t>
         </is>
       </c>
       <c r="J130" t="n">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553885128557478672', 'createTime': 1758775947, 'createTimeISO': '2025-09-25T04:52:27.000Z', 'text': 'nueva presentación 😳!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7eb63b58&amp;x-expires=1760734800&amp;x-signature=m4kFvV7S%2B0LcYMgsWRXzVyxEofY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554061217602994962', 'createTime': 1758816943, 'createTimeISO': '2025-09-25T16:15:43.000Z', 'text': 'Porque es la mejor ❤️❤️✨✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6532067139480715266', 'uniqueId': 'irodriguez9', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/8934653b245a2db9d7ce7c5499232dd9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8d2c0535&amp;x-expires=1760792400&amp;x-signature=u9F2PoFhdo0Lum9hvQszyvyDfzs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7758,25 +7758,25 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
         <is>
-          <t>una pregunta las personas del Sena pueden estar en Alpina</t>
+          <t>Es cierto que debajo de la cabaña hay un tunel secreto?👀</t>
         </is>
       </c>
       <c r="G131" s="2" t="n">
-        <v>45925.33574074074</v>
+        <v>45925.02155092593</v>
       </c>
       <c r="H131" s="3" t="n">
         <v>45925</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>08:03:28</t>
+          <t>00:31:02</t>
         </is>
       </c>
       <c r="J131" t="n">
         <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L131" t="b">
         <v>0</v>
@@ -7788,7 +7788,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553933847436772104', 'createTime': 1758787408, 'createTimeISO': '2025-09-25T08:03:28.000Z', 'text': 'una pregunta las personas del Sena pueden estar en Alpina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7378542037979644933', 'uniqueId': 'cristian.a_l', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a8d4f24a10c3ff1073ab57bc08de8478~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7ffb0ef2&amp;x-expires=1760734800&amp;x-signature=6QCyUAfpqto2sxTlYrMtlaFiVxo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553817757574349576', 'createTime': 1758760262, 'createTimeISO': '2025-09-25T00:31:02.000Z', 'text': 'Es cierto que debajo de la cabaña hay un tunel secreto?👀', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '6686398605715244037', 'uniqueId': 'carolina_serrano', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/79be4af25ec17f747428b28ea34a0231~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=78b09abf&amp;x-expires=1760792400&amp;x-signature=3CtOHc9t59kre6aiEHhUjxYxLKU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7814,25 +7814,25 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Alpinaa salúdame</t>
+          <t>una pregunta las personas del Sena pueden estar en Alpina</t>
         </is>
       </c>
       <c r="G132" s="2" t="n">
-        <v>45932.13111111111</v>
+        <v>45925.33574074074</v>
       </c>
       <c r="H132" s="3" t="n">
-        <v>45932</v>
+        <v>45925</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>03:08:48</t>
+          <t>08:03:28</t>
         </is>
       </c>
       <c r="J132" t="n">
         <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L132" t="b">
         <v>0</v>
@@ -7844,7 +7844,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7556456003958588178', 'createTime': 1759374528, 'createTimeISO': '2025-10-02T03:08:48.000Z', 'text': 'Alpinaa salúdame', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6783863549585867782', 'uniqueId': 'ciro_492', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ba6e671d98bb7d6703462ff22e1c8081~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c5fb0954&amp;x-expires=1760734800&amp;x-signature=be1Xfwt%2BL%2FTzVM3ZAhVCc95%2BAbA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553933847436772104', 'createTime': 1758787408, 'createTimeISO': '2025-09-25T08:03:28.000Z', 'text': 'una pregunta las personas del Sena pueden estar en Alpina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7378542037979644933', 'uniqueId': 'cristian.a_l', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a8d4f24a10c3ff1073ab57bc08de8478~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2d0fa576&amp;x-expires=1760792400&amp;x-signature=rCwXxVBrPRJyIOoIdpHGc7Sx0Gc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7870,25 +7870,25 @@
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
         <is>
-          <t>cuando llegan a Perú los Mochis 😭😭</t>
+          <t>Pregunta cuantos minimochis tienes 💖 quiero tenerlos todos</t>
         </is>
       </c>
       <c r="G133" s="2" t="n">
-        <v>45927.6415625</v>
+        <v>45925.06542824074</v>
       </c>
       <c r="H133" s="3" t="n">
-        <v>45927</v>
+        <v>45925</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>15:23:51</t>
+          <t>01:34:13</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L133" t="b">
         <v>0</v>
@@ -7900,7 +7900,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554790021015946005', 'createTime': 1758986631, 'createTimeISO': '2025-09-27T15:23:51.000Z', 'text': 'cuando llegan a Perú los Mochis 😭😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7093344759511532549', 'uniqueId': 'hanzel3075', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/e5fc427c21f18dd65a5d6366a919b2b8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cb0de311&amp;x-expires=1760734800&amp;x-signature=VLMQHWTgQFI6RD7wrhRTPSQJwnI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553834039527654152', 'createTime': 1758764053, 'createTimeISO': '2025-09-25T01:34:13.000Z', 'text': 'Pregunta cuantos minimochis tienes 💖 quiero tenerlos todos', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a0c7ceb2&amp;x-expires=1760792400&amp;x-signature=n8ULNXO7OSQPOUy1Ykxw4pMDmQc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7926,25 +7926,25 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Es cierto que debajo de la cabaña hay un tunel secreto?👀</t>
+          <t>Y los gatos de alpin?👀</t>
         </is>
       </c>
       <c r="G134" s="2" t="n">
-        <v>45925.02155092593</v>
+        <v>45926.9503587963</v>
       </c>
       <c r="H134" s="3" t="n">
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>00:31:02</t>
+          <t>22:48:31</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L134" t="b">
         <v>0</v>
@@ -7956,7 +7956,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553817757574349576', 'createTime': 1758760262, 'createTimeISO': '2025-09-25T00:31:02.000Z', 'text': 'Es cierto que debajo de la cabaña hay un tunel secreto?👀', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '6686398605715244037', 'uniqueId': 'carolina_serrano', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/79be4af25ec17f747428b28ea34a0231~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fe77cfef&amp;x-expires=1760734800&amp;x-signature=uLcSoO5zytPLaZF8XHzbpaf8iv0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554533498993148680', 'createTime': 1758926911, 'createTimeISO': '2025-09-26T22:48:31.000Z', 'text': 'Y los gatos de alpin?👀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7414647256178230277', 'uniqueId': 'acetaminofenxd', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/94659e73261c442ff86af031e43a41f6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b0985580&amp;x-expires=1760792400&amp;x-signature=jRt%2BsR5BwDp9qBkRSTuixD1Ld3A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7982,25 +7982,25 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Pregunta cuantos minimochis tienes 💖 quiero tenerlos todos</t>
+          <t>Alpina que pasó con los gatos de la leche alpina queremos que vuelvaaannnnnn</t>
         </is>
       </c>
       <c r="G135" s="2" t="n">
-        <v>45925.06542824074</v>
+        <v>45926.77142361111</v>
       </c>
       <c r="H135" s="3" t="n">
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>01:34:13</t>
+          <t>18:30:51</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L135" t="b">
         <v>0</v>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553834039527654152', 'createTime': 1758764053, 'createTimeISO': '2025-09-25T01:34:13.000Z', 'text': 'Pregunta cuantos minimochis tienes 💖 quiero tenerlos todos', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e963de3b&amp;x-expires=1760734800&amp;x-signature=e88latekre8LmWd2X6CbcNHWJ7o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554467116628640530', 'createTime': 1758911451, 'createTimeISO': '2025-09-26T18:30:51.000Z', 'text': 'Alpina que pasó con los gatos de la leche alpina queremos que vuelvaaannnnnn', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6865051063218439169', 'uniqueId': 'soy_sebass07', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d3ac239ee21a619bba014942d5f7587e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e31ff432&amp;x-expires=1760792400&amp;x-signature=CzE2cTpyIaYyNx8MSZDy%2FSC9Xes%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8038,22 +8038,22 @@
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Porque es la mejor ❤️❤️✨✨</t>
+          <t>💙💙💙</t>
         </is>
       </c>
       <c r="G136" s="2" t="n">
-        <v>45925.67758101852</v>
+        <v>45925.02996527778</v>
       </c>
       <c r="H136" s="3" t="n">
         <v>45925</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>16:15:43</t>
+          <t>00:43:09</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K136" t="n">
         <v>0</v>
@@ -8068,7 +8068,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554061217602994962', 'createTime': 1758816943, 'createTimeISO': '2025-09-25T16:15:43.000Z', 'text': 'Porque es la mejor ❤️❤️✨✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6532067139480715266', 'uniqueId': 'irodriguez9', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/8934653b245a2db9d7ce7c5499232dd9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9e24b64a&amp;x-expires=1760734800&amp;x-signature=Y4MVVflj9b56bdZyXBp9BVbKX60%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553820808625439495', 'createTime': 1758760989, 'createTimeISO': '2025-09-25T00:43:09.000Z', 'text': '💙💙💙', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7046148050101109766', 'uniqueId': 'juanp846', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/cdf703b505ceb5a3cf5f7b216c352922~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=59c0ffbd&amp;x-expires=1760792400&amp;x-signature=%2FVTL6M5BXUFE0SOtprSegfVQx8w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8094,22 +8094,22 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Y los gatos de alpin?👀</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G137" s="2" t="n">
-        <v>45926.9503587963</v>
+        <v>45940.88704861111</v>
       </c>
       <c r="H137" s="3" t="n">
-        <v>45926</v>
+        <v>45940</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>22:48:31</t>
+          <t>21:17:21</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K137" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554533498993148680', 'createTime': 1758926911, 'createTimeISO': '2025-09-26T22:48:31.000Z', 'text': 'Y los gatos de alpin?👀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7414647256178230277', 'uniqueId': 'acetaminofenxd', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/94659e73261c442ff86af031e43a41f6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1b20fa65&amp;x-expires=1760734800&amp;x-signature=Vw6POPWm%2FdX52izO3RoQ4Ci%2FhB8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7559705187091956488', 'createTime': 1760131041, 'createTimeISO': '2025-10-10T21:17:21.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7464357929971483649', 'uniqueId': 'aquiles.indriagol', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/72a6938f97ba8c0e50728d4cd7d182b4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=480d9d58&amp;x-expires=1760792400&amp;x-signature=daf%2F%2Fbrg0VNuDxpSxfEPyPh2f8s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8150,25 +8150,25 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Alpina que pasó con los gatos de la leche alpina queremos que vuelvaaannnnnn</t>
+          <t>Me encuentro en el departamento del Meta puedo hacer mis Pasantías del Sena Con Alpina?</t>
         </is>
       </c>
       <c r="G138" s="2" t="n">
-        <v>45926.77142361111</v>
+        <v>45928.8690625</v>
       </c>
       <c r="H138" s="3" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>18:30:51</t>
+          <t>20:51:27</t>
         </is>
       </c>
       <c r="J138" t="n">
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L138" t="b">
         <v>0</v>
@@ -8180,7 +8180,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554467116628640530', 'createTime': 1758911451, 'createTimeISO': '2025-09-26T18:30:51.000Z', 'text': 'Alpina que pasó con los gatos de la leche alpina queremos que vuelvaaannnnnn', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6865051063218439169', 'uniqueId': 'soy_sebass07', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d3ac239ee21a619bba014942d5f7587e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=050314e4&amp;x-expires=1760734800&amp;x-signature=lYm9dXWTT2o5%2BRej%2BERdY7yGbBQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7555245460417331986', 'createTime': 1759092687, 'createTimeISO': '2025-09-28T20:51:27.000Z', 'text': 'Me encuentro en el departamento del Meta puedo hacer mis Pasantías del Sena Con Alpina?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7400852594988827654', 'uniqueId': 'whoisandres37', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/317c580e71debf147810b74b93171a6f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8894cdba&amp;x-expires=1760792400&amp;x-signature=pHUGqdnTz1fbTg2lkGeMU09zqVk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8206,22 +8206,22 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>💙💙💙</t>
+          <t>Hola! Una pregunta ¿es normal qué los minis ilumimochis de conejito verde venga de a 2?</t>
         </is>
       </c>
       <c r="G139" s="2" t="n">
-        <v>45925.02996527778</v>
+        <v>45925.04067129629</v>
       </c>
       <c r="H139" s="3" t="n">
         <v>45925</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>00:43:09</t>
+          <t>00:58:34</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139" t="n">
         <v>0</v>
@@ -8236,7 +8236,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553820808625439495', 'createTime': 1758760989, 'createTimeISO': '2025-09-25T00:43:09.000Z', 'text': '💙💙💙', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7046148050101109766', 'uniqueId': 'juanp846', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/cdf703b505ceb5a3cf5f7b216c352922~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9cc36c72&amp;x-expires=1760734800&amp;x-signature=oGUzVKrJPrkxUZVHLCiz1HKmSlA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553824837010965266', 'createTime': 1758761914, 'createTimeISO': '2025-09-25T00:58:34.000Z', 'text': 'Hola! Una pregunta ¿es normal qué los minis ilumimochis de conejito verde venga de a 2?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7482894692960535570', 'uniqueId': 'eldiploo29', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e71b97d2782d93b9a10a9adec8349876~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3493dc3b&amp;x-expires=1760792400&amp;x-signature=bvQQCNzg8ehM%2FzC7MUBTnMMGRl4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8262,18 +8262,18 @@
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>Alpina que paso con los gatos de la leche alpina?, si me contestas me voy a la cabaña alpina👀</t>
         </is>
       </c>
       <c r="G140" s="2" t="n">
-        <v>45940.88704861111</v>
+        <v>45926.65694444445</v>
       </c>
       <c r="H140" s="3" t="n">
-        <v>45940</v>
+        <v>45926</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>21:17:21</t>
+          <t>15:46:00</t>
         </is>
       </c>
       <c r="J140" t="n">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7559705187091956488', 'createTime': 1760131041, 'createTimeISO': '2025-10-10T21:17:21.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7464357929971483649', 'uniqueId': 'aquiles.indriagol', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/72a6938f97ba8c0e50728d4cd7d182b4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=05ec2d40&amp;x-expires=1760734800&amp;x-signature=skkJXrKDmqlIrpj0%2B8Tj0vnSdiM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554424648151941905', 'createTime': 1758901560, 'createTimeISO': '2025-09-26T15:46:00.000Z', 'text': 'Alpina que paso con los gatos de la leche alpina?, si me contestas me voy a la cabaña alpina👀', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7436539205088396344', 'uniqueId': 'isaac_mora1903', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bd074fbf9f61ee99fcea8ef5f350b2bf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=14ed57fc&amp;x-expires=1760792400&amp;x-signature=j4Jcq3I5%2BblC29XcwrZAW6ZBSKI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8318,25 +8318,25 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Me encuentro en el departamento del Meta puedo hacer mis Pasantías del Sena Con Alpina?</t>
+          <t>cuando llegan a Perú los Mochis 😭😭</t>
         </is>
       </c>
       <c r="G141" s="2" t="n">
-        <v>45928.8690625</v>
+        <v>45927.6415625</v>
       </c>
       <c r="H141" s="3" t="n">
-        <v>45928</v>
+        <v>45927</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>20:51:27</t>
+          <t>15:23:51</t>
         </is>
       </c>
       <c r="J141" t="n">
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L141" t="b">
         <v>0</v>
@@ -8348,7 +8348,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7555245460417331986', 'createTime': 1759092687, 'createTimeISO': '2025-09-28T20:51:27.000Z', 'text': 'Me encuentro en el departamento del Meta puedo hacer mis Pasantías del Sena Con Alpina?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7400852594988827654', 'uniqueId': 'whoisandres37', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/317c580e71debf147810b74b93171a6f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6207d30f&amp;x-expires=1760734800&amp;x-signature=kVlrDGafyId61fQC0UVchW%2BGpns%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554790021015946005', 'createTime': 1758986631, 'createTimeISO': '2025-09-27T15:23:51.000Z', 'text': 'cuando llegan a Perú los Mochis 😭😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7093344759511532549', 'uniqueId': 'hanzel3075', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/e5fc427c21f18dd65a5d6366a919b2b8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0ea78ea1&amp;x-expires=1760792400&amp;x-signature=jmlV0rDD3drE0DtZM6UA15Re478%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8374,22 +8374,22 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Hola! Una pregunta ¿es normal qué los minis ilumimochis de conejito verde venga de a 2?</t>
+          <t>Gran historia jajajaja 🥳</t>
         </is>
       </c>
       <c r="G142" s="2" t="n">
-        <v>45925.04067129629</v>
+        <v>45925.03746527778</v>
       </c>
       <c r="H142" s="3" t="n">
         <v>45925</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>00:58:34</t>
+          <t>00:53:57</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K142" t="n">
         <v>0</v>
@@ -8404,7 +8404,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553824837010965266', 'createTime': 1758761914, 'createTimeISO': '2025-09-25T00:58:34.000Z', 'text': 'Hola! Una pregunta ¿es normal qué los minis ilumimochis de conejito verde venga de a 2?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7482894692960535570', 'uniqueId': 'eldiploo29', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e71b97d2782d93b9a10a9adec8349876~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=29a8e2aa&amp;x-expires=1760734800&amp;x-signature=Z6lakQFY4%2BmKDGHvalnPKLVfTDo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553823647435178770', 'createTime': 1758761637, 'createTimeISO': '2025-09-25T00:53:57.000Z', 'text': 'Gran historia jajajaja 🥳', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781206829306807302', 'uniqueId': 'gaaaabs6', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/87a6fa6e1b0b9d03506eca068222ad5e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fe1edaff&amp;x-expires=1760792400&amp;x-signature=n1dKSJD%2FbQByiwKJja3MCj6V9Uc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8430,25 +8430,25 @@
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Gabi sube la segunda parte de los Mochi saurios plis🙏🙏🙏</t>
+          <t>alpina cuando vas a mostras las familias ya tenemos Los nombres solo faltan las familias[happy][yummy]</t>
         </is>
       </c>
       <c r="G143" s="2" t="n">
-        <v>45927.79994212963</v>
+        <v>45927.49298611111</v>
       </c>
       <c r="H143" s="3" t="n">
         <v>45927</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>19:11:55</t>
+          <t>11:49:54</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L143" t="b">
         <v>0</v>
@@ -8460,7 +8460,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554848766027121426', 'createTime': 1759000315, 'createTimeISO': '2025-09-27T19:11:55.000Z', 'text': 'Gabi sube la segunda parte de los Mochi saurios plis🙏🙏🙏', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7505793601163674642', 'uniqueId': 'mariangel6169', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/399d2e2b90810396c3ec41de01efcf36~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=daee563a&amp;x-expires=1760734800&amp;x-signature=JdOIPKe%2Bp367LnoJ2KsgWnwary4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554734892081922823', 'createTime': 1758973794, 'createTimeISO': '2025-09-27T11:49:54.000Z', 'text': 'alpina cuando vas a mostras las familias ya tenemos Los nombres solo faltan las familias[happy][yummy]', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2bedf748&amp;x-expires=1760792400&amp;x-signature=Dm8VTvPq7YQd8fCIPrDZIrk5YWY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8486,25 +8486,25 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
         <is>
-          <t>nuevas familias 😳</t>
+          <t>Alpinaaaaa xq quitaste los gatooooooos</t>
         </is>
       </c>
       <c r="G144" s="2" t="n">
-        <v>45927.005</v>
+        <v>45927.06792824074</v>
       </c>
       <c r="H144" s="3" t="n">
         <v>45927</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>00:07:12</t>
+          <t>01:37:49</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L144" t="b">
         <v>0</v>
@@ -8516,7 +8516,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554553739177624336', 'createTime': 1758931632, 'createTimeISO': '2025-09-27T00:07:12.000Z', 'text': 'nuevas familias 😳', 'diggCount': 5, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=9b6e22f2&amp;x-expires=1760734800&amp;x-signature=JKJcSNjdr228gO%2BFkpEJGq2etD8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554577111799137025', 'createTime': 1758937069, 'createTimeISO': '2025-09-27T01:37:49.000Z', 'text': 'Alpinaaaaa xq quitaste los gatooooooos', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7414238685522199557', 'uniqueId': 'vxshly_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/955223d63991be75d91f367af8ee3962~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=06a9c1d5&amp;x-expires=1760792400&amp;x-signature=cSwNh2VfmfahrzQL5MCuA5%2BGN1k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8542,25 +8542,25 @@
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Que tarea esa endulzada 😳🥰 la mejor 😇💖</t>
+          <t>que paso con los gatos de alpin?</t>
         </is>
       </c>
       <c r="G145" s="2" t="n">
-        <v>45927.43773148148</v>
+        <v>45930.19638888889</v>
       </c>
       <c r="H145" s="3" t="n">
-        <v>45927</v>
+        <v>45930</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>10:30:20</t>
+          <t>04:42:48</t>
         </is>
       </c>
       <c r="J145" t="n">
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L145" t="b">
         <v>0</v>
@@ -8572,7 +8572,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554714387131745031', 'createTime': 1758969020, 'createTimeISO': '2025-09-27T10:30:20.000Z', 'text': 'Que tarea esa endulzada 😳🥰 la mejor 😇💖', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=0d6cc069&amp;x-expires=1760734800&amp;x-signature=GgYjOTuTWo4DMJG63FP8AKLZPQM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7555738077466821394', 'createTime': 1759207368, 'createTimeISO': '2025-09-30T04:42:48.000Z', 'text': 'que paso con los gatos de alpin?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6926927885060621317', 'uniqueId': 'josep3473', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7b4d804bf42cb385a0941a18bd8b1c5e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9a78157c&amp;x-expires=1760792400&amp;x-signature=7Lw3hyr0QOjL6HUkF7OmjwizCK4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8598,25 +8598,25 @@
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr">
         <is>
-          <t>sube otro video de mochiiss</t>
+          <t>Yo quiero arequipe vegano 🥺</t>
         </is>
       </c>
       <c r="G146" s="2" t="n">
-        <v>45927.45836805556</v>
+        <v>45933.83266203704</v>
       </c>
       <c r="H146" s="3" t="n">
-        <v>45927</v>
+        <v>45933</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>11:00:03</t>
+          <t>19:59:02</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L146" t="b">
         <v>0</v>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554722020870521616', 'createTime': 1758970803, 'createTimeISO': '2025-09-27T11:00:03.000Z', 'text': 'sube otro video de mochiiss', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7405734042824066054', 'uniqueId': 'emmanuel130816', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/a09b533779b756050279fc4f4ba0f5fc~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=67e1a6e4&amp;x-expires=1760734800&amp;x-signature=BpIIma7vMQ1UN8YSUi971OTB4Ik%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7557087381695890193', 'createTime': 1759521542, 'createTimeISO': '2025-10-03T19:59:02.000Z', 'text': 'Yo quiero arequipe vegano 🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6903626505060189189', 'uniqueId': 'mafeocampor', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bc55178240ac3f97ce30d333a28a48a5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=402b4891&amp;x-expires=1760792400&amp;x-signature=2GJHYvEsjNkJyXRD%2FO8KPcOfPFg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8654,25 +8654,25 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Alpinaaaaa xq quitaste los gatooooooos</t>
+          <t>sería super interesante que grabarán un vídeo de cómo alguien se convierte en un maestro quesero (soy fan del queso)</t>
         </is>
       </c>
       <c r="G147" s="2" t="n">
-        <v>45927.06792824074</v>
+        <v>45932.08685185185</v>
       </c>
       <c r="H147" s="3" t="n">
-        <v>45927</v>
+        <v>45932</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>01:37:49</t>
+          <t>02:05:04</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L147" t="b">
         <v>0</v>
@@ -8684,7 +8684,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554577111799137025', 'createTime': 1758937069, 'createTimeISO': '2025-09-27T01:37:49.000Z', 'text': 'Alpinaaaaa xq quitaste los gatooooooos', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7414238685522199557', 'uniqueId': 'vxshly_', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/955223d63991be75d91f367af8ee3962~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=59667e52&amp;x-expires=1760734800&amp;x-signature=3xWSy4O6WU1wVRXvpypREU8yZqY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7556439567764472596', 'createTime': 1759370704, 'createTimeISO': '2025-10-02T02:05:04.000Z', 'text': 'sería super interesante que grabarán un vídeo de cómo alguien se convierte en un maestro quesero (soy fan del queso)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6809345648602350598', 'uniqueId': 'ginapaolae.j', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7326882581663334405~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ae00d9f2&amp;x-expires=1760792400&amp;x-signature=QD6SyhNnIA6KsnrvW1dOBDE5nhs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8710,22 +8710,22 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr">
         <is>
-          <t>aquí esperando el video donde hablen de los gatos de alpin</t>
+          <t>¿alpina que paso con los gatos del alpin?</t>
         </is>
       </c>
       <c r="G148" s="2" t="n">
-        <v>45941.26355324074</v>
+        <v>45927.02045138889</v>
       </c>
       <c r="H148" s="3" t="n">
-        <v>45941</v>
+        <v>45927</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>06:19:31</t>
+          <t>00:29:27</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K148" t="n">
         <v>0</v>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7559844927899992849', 'createTime': 1760163571, 'createTimeISO': '2025-10-11T06:19:31.000Z', 'text': 'aquí esperando el video donde hablen de los gatos de alpin', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7001651876342055942', 'uniqueId': 'm1mundo_lu', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/1f167436074f22f5e92f6246fd53543d~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=b398aab5&amp;x-expires=1760734800&amp;x-signature=7i7E6frjJFedWioxbZuRVejN0YU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554559487220663058', 'createTime': 1758932967, 'createTimeISO': '2025-09-27T00:29:27.000Z', 'text': '¿alpina que paso con los gatos del alpin?', 'diggCount': 8, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7384592401019339781', 'uniqueId': 'el.pepe.joel', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/340ccdf36a548c49ba15c1f1d4f94a5a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8c946ab3&amp;x-expires=1760792400&amp;x-signature=bkHVxsUk5syvQUKNz%2Bp2LHYM4Dk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8766,22 +8766,22 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr">
         <is>
-          <t>sería super interesante que grabarán un vídeo de cómo alguien se convierte en un maestro quesero (soy fan del queso)</t>
+          <t>Alpinaaaa esos gatos son mi infancia porfavor regresalos</t>
         </is>
       </c>
       <c r="G149" s="2" t="n">
-        <v>45932.08685185185</v>
+        <v>45930.58837962963</v>
       </c>
       <c r="H149" s="3" t="n">
-        <v>45932</v>
+        <v>45930</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>02:05:04</t>
+          <t>14:07:16</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K149" t="n">
         <v>0</v>
@@ -8796,7 +8796,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7556439567764472596', 'createTime': 1759370704, 'createTimeISO': '2025-10-02T02:05:04.000Z', 'text': 'sería super interesante que grabarán un vídeo de cómo alguien se convierte en un maestro quesero (soy fan del queso)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6809345648602350598', 'uniqueId': 'ginapaolae.j', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7326882581663334405~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=5c888fe9&amp;x-expires=1760734800&amp;x-signature=kXO9Rm%2Bt%2FGVgf1IhUYVx%2FxC8KdU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7555883548419932948', 'createTime': 1759241236, 'createTimeISO': '2025-09-30T14:07:16.000Z', 'text': 'Alpinaaaa esos gatos son mi infancia porfavor regresalos', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7259921363220792325', 'uniqueId': 'migue_resurgido', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e6cea1ed6c965c8a6b67e0007f15f789~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=888e07c4&amp;x-expires=1760792400&amp;x-signature=swI7jyePw2MUCqKeRyQHYndS7Fo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8822,22 +8822,22 @@
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Alpinaaaa esos gatos son mi infancia porfavor regresalos</t>
+          <t>primerooo alpina me regalas mochisauros porfiss</t>
         </is>
       </c>
       <c r="G150" s="2" t="n">
-        <v>45930.58837962963</v>
+        <v>45926.99771990741</v>
       </c>
       <c r="H150" s="3" t="n">
-        <v>45930</v>
+        <v>45926</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>14:07:16</t>
+          <t>23:56:43</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K150" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7555883548419932948', 'createTime': 1759241236, 'createTimeISO': '2025-09-30T14:07:16.000Z', 'text': 'Alpinaaaa esos gatos son mi infancia porfavor regresalos', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7259921363220792325', 'uniqueId': 'migue_resurgido', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/e6cea1ed6c965c8a6b67e0007f15f789~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=fefc7b4e&amp;x-expires=1760734800&amp;x-signature=nP1UjSGtRivt%2FQOcn1meJ4w3K9I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554551041196770066', 'createTime': 1758931003, 'createTimeISO': '2025-09-26T23:56:43.000Z', 'text': 'primerooo alpina me regalas mochisauros porfiss', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7547457761526137864', 'uniqueId': 'camisetas.de.futbol1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a6c21b0befe49f100b71b7cf8f2e5652~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=49014bed&amp;x-expires=1760792400&amp;x-signature=a%2BLAVMFlLqXaosOPiUJyAywEKPY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8878,25 +8878,25 @@
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr">
         <is>
-          <t>que paso con los gatos de alpin?</t>
+          <t>sube otro video de mochiiss</t>
         </is>
       </c>
       <c r="G151" s="2" t="n">
-        <v>45930.19638888889</v>
+        <v>45927.45836805556</v>
       </c>
       <c r="H151" s="3" t="n">
-        <v>45930</v>
+        <v>45927</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>04:42:48</t>
+          <t>11:00:03</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L151" t="b">
         <v>0</v>
@@ -8908,7 +8908,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7555738077466821394', 'createTime': 1759207368, 'createTimeISO': '2025-09-30T04:42:48.000Z', 'text': 'que paso con los gatos de alpin?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6926927885060621317', 'uniqueId': 'josep3473', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7b4d804bf42cb385a0941a18bd8b1c5e~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=4cd8446c&amp;x-expires=1760734800&amp;x-signature=nt2PKnqYo7ar9SrGS3T78%2BpnTKE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554722020870521616', 'createTime': 1758970803, 'createTimeISO': '2025-09-27T11:00:03.000Z', 'text': 'sube otro video de mochiiss', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7405734042824066054', 'uniqueId': 'emmanuel130816', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a09b533779b756050279fc4f4ba0f5fc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1bd08103&amp;x-expires=1760792400&amp;x-signature=LmCRKGkw9s9Jk0WnCJzRh%2FbxsWo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8934,22 +8934,22 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Yo quiero arequipe vegano 🥺</t>
+          <t>ya se me antojo un yogo yogo mochisaurios</t>
         </is>
       </c>
       <c r="G152" s="2" t="n">
-        <v>45933.83266203704</v>
+        <v>45927.02165509259</v>
       </c>
       <c r="H152" s="3" t="n">
-        <v>45933</v>
+        <v>45927</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>19:59:02</t>
+          <t>00:31:11</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K152" t="n">
         <v>0</v>
@@ -8964,7 +8964,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7557087381695890193', 'createTime': 1759521542, 'createTimeISO': '2025-10-03T19:59:02.000Z', 'text': 'Yo quiero arequipe vegano 🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6903626505060189189', 'uniqueId': 'mafeocampor', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/bc55178240ac3f97ce30d333a28a48a5~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=3684762d&amp;x-expires=1760734800&amp;x-signature=ww5St%2FAszlF%2BdJcoRiQHF7%2FgeP0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554559943006864136', 'createTime': 1758933071, 'createTimeISO': '2025-09-27T00:31:11.000Z', 'text': 'ya se me antojo un yogo yogo mochisaurios', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7283326063072642053', 'uniqueId': 'socorrito.lopez0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9007660a09caa09f7a749fc3a9a23c0e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=afa62f79&amp;x-expires=1760792400&amp;x-signature=3EFH80ImZ8k2JPNzAgF3PI0XFhE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8990,26 +8990,26 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr">
         <is>
-          <t>ya se me antojo un yogo yogo mochisaurios</t>
+          <t>Gabi sube la segunda parte de los Mochi saurios plis🙏🙏🙏</t>
         </is>
       </c>
       <c r="G153" s="2" t="n">
-        <v>45927.02165509259</v>
+        <v>45927.79994212963</v>
       </c>
       <c r="H153" s="3" t="n">
         <v>45927</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>00:31:11</t>
+          <t>19:11:55</t>
         </is>
       </c>
       <c r="J153" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" t="n">
         <v>2</v>
       </c>
-      <c r="K153" t="n">
-        <v>0</v>
-      </c>
       <c r="L153" t="b">
         <v>0</v>
       </c>
@@ -9020,7 +9020,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554559943006864136', 'createTime': 1758933071, 'createTimeISO': '2025-09-27T00:31:11.000Z', 'text': 'ya se me antojo un yogo yogo mochisaurios', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7283326063072642053', 'uniqueId': 'socorrito.lopez0', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/9007660a09caa09f7a749fc3a9a23c0e~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=036b0f00&amp;x-expires=1760734800&amp;x-signature=zgugmRSZbXFvmdQLF0x5xjYcKKo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554848766027121426', 'createTime': 1759000315, 'createTimeISO': '2025-09-27T19:11:55.000Z', 'text': 'Gabi sube la segunda parte de los Mochi saurios plis🙏🙏🙏', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7505793601163674642', 'uniqueId': 'mariangel6169', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/399d2e2b90810396c3ec41de01efcf36~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b8a1e8e4&amp;x-expires=1760792400&amp;x-signature=qUOf1TyuzyxKp5mnSyEWD5dg%2FQg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9046,25 +9046,25 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr">
         <is>
-          <t>¿alpina que paso con los gatos del alpin?</t>
+          <t>Que tarea esa endulzada 😳🥰 la mejor 😇💖</t>
         </is>
       </c>
       <c r="G154" s="2" t="n">
-        <v>45927.02045138889</v>
+        <v>45927.43773148148</v>
       </c>
       <c r="H154" s="3" t="n">
         <v>45927</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>00:29:27</t>
+          <t>10:30:20</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L154" t="b">
         <v>0</v>
@@ -9076,7 +9076,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554559487220663058', 'createTime': 1758932967, 'createTimeISO': '2025-09-27T00:29:27.000Z', 'text': '¿alpina que paso con los gatos del alpin?', 'diggCount': 8, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7384592401019339781', 'uniqueId': 'el.pepe.joel', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/340ccdf36a548c49ba15c1f1d4f94a5a~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=f9994584&amp;x-expires=1760734800&amp;x-signature=A3HMfyuRPkCHCtqLkKtPqYUDEcY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554714387131745031', 'createTime': 1758969020, 'createTimeISO': '2025-09-27T10:30:20.000Z', 'text': 'Que tarea esa endulzada 😳🥰 la mejor 😇💖', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a0c7ceb2&amp;x-expires=1760792400&amp;x-signature=n8ULNXO7OSQPOUy1Ykxw4pMDmQc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9102,26 +9102,26 @@
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr">
         <is>
-          <t>😊😊😊</t>
+          <t>nuevas familias 😳</t>
         </is>
       </c>
       <c r="G155" s="2" t="n">
-        <v>45927.0005787037</v>
+        <v>45927.005</v>
       </c>
       <c r="H155" s="3" t="n">
         <v>45927</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>00:00:50</t>
+          <t>00:07:12</t>
         </is>
       </c>
       <c r="J155" t="n">
+        <v>5</v>
+      </c>
+      <c r="K155" t="n">
         <v>1</v>
       </c>
-      <c r="K155" t="n">
-        <v>0</v>
-      </c>
       <c r="L155" t="b">
         <v>0</v>
       </c>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554552119991829255', 'createTime': 1758931250, 'createTimeISO': '2025-09-27T00:00:50.000Z', 'text': '😊😊😊', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7263510507210245125', 'uniqueId': 'anyela1p', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/388bda02c957db9a4a0d8b463d9fb749~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=1de377c7&amp;x-expires=1760734800&amp;x-signature=1oTVh5WqxunTGhZwhSyhikKmUvc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554553739177624336', 'createTime': 1758931632, 'createTimeISO': '2025-09-27T00:07:12.000Z', 'text': 'nuevas familias 😳', 'diggCount': 5, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e7109759&amp;x-expires=1760792400&amp;x-signature=6np5PsSGRsgOWrfycwtS1A%2F9FUg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9158,18 +9158,18 @@
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
         <is>
-          <t>🔝</t>
+          <t>😊😊😊</t>
         </is>
       </c>
       <c r="G156" s="2" t="n">
-        <v>45927.01375</v>
+        <v>45927.0005787037</v>
       </c>
       <c r="H156" s="3" t="n">
         <v>45927</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>00:19:48</t>
+          <t>00:00:50</t>
         </is>
       </c>
       <c r="J156" t="n">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554556989701325580', 'createTime': 1758932388, 'createTimeISO': '2025-09-27T00:19:48.000Z', 'text': '🔝', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808343868984345606', 'uniqueId': 'isaacalejandrorueda', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/9521fa11b07506edc233d485d7408f43~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=24b61663&amp;x-expires=1760734800&amp;x-signature=sI8OCaSW6NK3TEMcVbK82r7KeQA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554552119991829255', 'createTime': 1758931250, 'createTimeISO': '2025-09-27T00:00:50.000Z', 'text': '😊😊😊', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7263510507210245125', 'uniqueId': 'anyela1p', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/388bda02c957db9a4a0d8b463d9fb749~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6afbbe5f&amp;x-expires=1760792400&amp;x-signature=QaO3r6uGdvV2aQYE%2FVjt5KlrvxQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9214,22 +9214,22 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr">
         <is>
-          <t>💚</t>
+          <t>🔝</t>
         </is>
       </c>
       <c r="G157" s="2" t="n">
-        <v>45946.82292824074</v>
+        <v>45927.01375</v>
       </c>
       <c r="H157" s="3" t="n">
-        <v>45946</v>
+        <v>45927</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>19:45:01</t>
+          <t>00:19:48</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K157" t="n">
         <v>0</v>
@@ -9244,7 +9244,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907925900821255', 'createTime': 1760643901, 'createTimeISO': '2025-10-16T19:45:01.000Z', 'text': '💚', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=f9fdd2e6&amp;x-expires=1760734800&amp;x-signature=clYCITDUu1F5Ggv%2BFbyalsKrMbY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554556989701325580', 'createTime': 1758932388, 'createTimeISO': '2025-09-27T00:19:48.000Z', 'text': '🔝', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808343868984345606', 'uniqueId': 'isaacalejandrorueda', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/9521fa11b07506edc233d485d7408f43~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a82d869b&amp;x-expires=1760792400&amp;x-signature=8HKYJ%2FKu2Csjq0aBKqI7GBL3RHE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9274,14 +9274,14 @@
         </is>
       </c>
       <c r="G158" s="2" t="n">
-        <v>45946.82295138889</v>
+        <v>45946.82292824074</v>
       </c>
       <c r="H158" s="3" t="n">
         <v>45946</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>19:45:03</t>
+          <t>19:45:01</t>
         </is>
       </c>
       <c r="J158" t="n">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907930460537607', 'createTime': 1760643903, 'createTimeISO': '2025-10-16T19:45:03.000Z', 'text': '♥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=f9fdd2e6&amp;x-expires=1760734800&amp;x-signature=clYCITDUu1F5Ggv%2BFbyalsKrMbY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907918385365768', 'createTime': 1760643901, 'createTimeISO': '2025-10-16T19:45:01.000Z', 'text': '♥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=45c58ff3&amp;x-expires=1760792400&amp;x-signature=6mXpdc7voc2by0N47YbD%2FQpj3zA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9330,14 +9330,14 @@
         </is>
       </c>
       <c r="G159" s="2" t="n">
-        <v>45946.82292824074</v>
+        <v>45946.82295138889</v>
       </c>
       <c r="H159" s="3" t="n">
         <v>45946</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>19:45:01</t>
+          <t>19:45:03</t>
         </is>
       </c>
       <c r="J159" t="n">
@@ -9356,7 +9356,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907918385365768', 'createTime': 1760643901, 'createTimeISO': '2025-10-16T19:45:01.000Z', 'text': '♥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=f9fdd2e6&amp;x-expires=1760734800&amp;x-signature=clYCITDUu1F5Ggv%2BFbyalsKrMbY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907930460537607', 'createTime': 1760643903, 'createTimeISO': '2025-10-16T19:45:03.000Z', 'text': '♥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=45c58ff3&amp;x-expires=1760792400&amp;x-signature=6mXpdc7voc2by0N47YbD%2FQpj3zA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9382,18 +9382,18 @@
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr">
         <is>
-          <t>❤</t>
+          <t>@Alpina 🐮 hola necesito un favor suyo 🙏</t>
         </is>
       </c>
       <c r="G160" s="2" t="n">
-        <v>45946.82293981482</v>
+        <v>45930.75880787037</v>
       </c>
       <c r="H160" s="3" t="n">
-        <v>45946</v>
+        <v>45930</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>19:45:02</t>
+          <t>18:12:41</t>
         </is>
       </c>
       <c r="J160" t="n">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907940182098696', 'createTime': 1760643902, 'createTimeISO': '2025-10-16T19:45:02.000Z', 'text': '❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=f9fdd2e6&amp;x-expires=1760734800&amp;x-signature=clYCITDUu1F5Ggv%2BFbyalsKrMbY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7555946787841164050', 'createTime': 1759255961, 'createTimeISO': '2025-09-30T18:12:41.000Z', 'text': '@Alpina 🐮 hola necesito un favor suyo 🙏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7314724628953121797', 'uniqueId': 'jan.cityzens', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5d6f3dd82f6da2bcac787ef22cb28684~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c40b0004&amp;x-expires=1760792400&amp;x-signature=zu9ZRiPI9MtJe6phV7wQaRngGCo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
         </is>
       </c>
     </row>
@@ -9442,14 +9442,14 @@
         </is>
       </c>
       <c r="G161" s="2" t="n">
-        <v>45946.82291666666</v>
+        <v>45946.82293981482</v>
       </c>
       <c r="H161" s="3" t="n">
         <v>45946</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45:02</t>
         </is>
       </c>
       <c r="J161" t="n">
@@ -9468,7 +9468,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907924650574600', 'createTime': 1760643900, 'createTimeISO': '2025-10-16T19:45:00.000Z', 'text': '❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=f9fdd2e6&amp;x-expires=1760734800&amp;x-signature=clYCITDUu1F5Ggv%2BFbyalsKrMbY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907940182098696', 'createTime': 1760643902, 'createTimeISO': '2025-10-16T19:45:02.000Z', 'text': '❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=45c58ff3&amp;x-expires=1760792400&amp;x-signature=6mXpdc7voc2by0N47YbD%2FQpj3zA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9494,18 +9494,18 @@
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr">
         <is>
-          <t>♥</t>
+          <t>💚</t>
         </is>
       </c>
       <c r="G162" s="2" t="n">
-        <v>45946.82293981482</v>
+        <v>45946.82292824074</v>
       </c>
       <c r="H162" s="3" t="n">
         <v>45946</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>19:45:02</t>
+          <t>19:45:01</t>
         </is>
       </c>
       <c r="J162" t="n">
@@ -9524,7 +9524,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907909032067847', 'createTime': 1760643902, 'createTimeISO': '2025-10-16T19:45:02.000Z', 'text': '♥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=f9fdd2e6&amp;x-expires=1760734800&amp;x-signature=clYCITDUu1F5Ggv%2BFbyalsKrMbY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907925900821255', 'createTime': 1760643901, 'createTimeISO': '2025-10-16T19:45:01.000Z', 'text': '💚', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=45c58ff3&amp;x-expires=1760792400&amp;x-signature=6mXpdc7voc2by0N47YbD%2FQpj3zA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9550,18 +9550,18 @@
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr">
         <is>
-          <t>@Alpina 🐮 hola necesito un favor suyo 🙏</t>
+          <t>♥</t>
         </is>
       </c>
       <c r="G163" s="2" t="n">
-        <v>45930.75880787037</v>
+        <v>45946.82293981482</v>
       </c>
       <c r="H163" s="3" t="n">
-        <v>45930</v>
+        <v>45946</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>18:12:41</t>
+          <t>19:45:02</t>
         </is>
       </c>
       <c r="J163" t="n">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7555946787841164050', 'createTime': 1759255961, 'createTimeISO': '2025-09-30T18:12:41.000Z', 'text': '@Alpina 🐮 hola necesito un favor suyo 🙏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7314724628953121797', 'uniqueId': 'jan.cityzens', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/5d6f3dd82f6da2bcac787ef22cb28684~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=018d6659&amp;x-expires=1760734800&amp;x-signature=lvQ7Ut%2FisQDeo9dHGxYOk%2BAM2m8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907909032067847', 'createTime': 1760643902, 'createTimeISO': '2025-10-16T19:45:02.000Z', 'text': '♥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=45c58ff3&amp;x-expires=1760792400&amp;x-signature=6mXpdc7voc2by0N47YbD%2FQpj3zA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9606,22 +9606,22 @@
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr">
         <is>
-          <t>alpina cuando vas a mostras las familias ya tenemos Los nombres solo faltan las familias[happy][yummy]</t>
+          <t>❤</t>
         </is>
       </c>
       <c r="G164" s="2" t="n">
-        <v>45927.49298611111</v>
+        <v>45946.82291666666</v>
       </c>
       <c r="H164" s="3" t="n">
-        <v>45927</v>
+        <v>45946</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>11:49:54</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K164" t="n">
         <v>0</v>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554734892081922823', 'createTime': 1758973794, 'createTimeISO': '2025-09-27T11:49:54.000Z', 'text': 'alpina cuando vas a mostras las familias ya tenemos Los nombres solo faltan las familias[happy][yummy]', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=96584dab&amp;x-expires=1760734800&amp;x-signature=ldX%2Fu4yeKSxi6X0JOgWDpTsOgBE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907924650574600', 'createTime': 1760643900, 'createTimeISO': '2025-10-16T19:45:00.000Z', 'text': '❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=45c58ff3&amp;x-expires=1760792400&amp;x-signature=6mXpdc7voc2by0N47YbD%2FQpj3zA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9662,22 +9662,22 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr">
         <is>
-          <t>primerooo alpina me regalas mochisauros porfiss</t>
+          <t>mochisssssss</t>
         </is>
       </c>
       <c r="G165" s="2" t="n">
-        <v>45926.99771990741</v>
+        <v>45934.81753472222</v>
       </c>
       <c r="H165" s="3" t="n">
-        <v>45926</v>
+        <v>45934</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>23:56:43</t>
+          <t>19:37:15</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K165" t="n">
         <v>0</v>
@@ -9692,7 +9692,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554551041196770066', 'createTime': 1758931003, 'createTimeISO': '2025-09-26T23:56:43.000Z', 'text': 'primerooo alpina me regalas mochisauros porfiss', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7547457761526137864', 'uniqueId': 'camisetas.de.futbol1', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/a6c21b0befe49f100b71b7cf8f2e5652~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=a33f44b6&amp;x-expires=1760734800&amp;x-signature=%2FlZ%2F7sDSDnlbYkWiGfRpDs3NdrQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7557452880204202770', 'createTime': 1759606635, 'createTimeISO': '2025-10-04T19:37:15.000Z', 'text': 'mochisssssss', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7329726761418753029', 'uniqueId': 'pipi.potato35', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0d01dfa969f5266b98420f02248fc885~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e2bf14d3&amp;x-expires=1760792400&amp;x-signature=WeraceBkzGVW6v88HrXjUC8bbYM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9718,18 +9718,18 @@
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr">
         <is>
-          <t>mochisssssss</t>
+          <t>aquí esperando el video donde hablen de los gatos de alpin</t>
         </is>
       </c>
       <c r="G166" s="2" t="n">
-        <v>45934.81753472222</v>
+        <v>45941.26355324074</v>
       </c>
       <c r="H166" s="3" t="n">
-        <v>45934</v>
+        <v>45941</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>19:37:15</t>
+          <t>06:19:31</t>
         </is>
       </c>
       <c r="J166" t="n">
@@ -9748,7 +9748,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7557452880204202770', 'createTime': 1759606635, 'createTimeISO': '2025-10-04T19:37:15.000Z', 'text': 'mochisssssss', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7329726761418753029', 'uniqueId': 'pipi.potato35', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/0d01dfa969f5266b98420f02248fc885~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=e1434f8b&amp;x-expires=1760734800&amp;x-signature=%2FiuI5Vf6J5avDcj2LUttDQgRIV4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7559844927899992849', 'createTime': 1760163571, 'createTimeISO': '2025-10-11T06:19:31.000Z', 'text': 'aquí esperando el video donde hablen de los gatos de alpin', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7001651876342055942', 'uniqueId': 'm1mundo_lu', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/1f167436074f22f5e92f6246fd53543d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=5ef33569&amp;x-expires=1760792400&amp;x-signature=Uj%2FWhleq0AeNhJ6NCCQMhhdw1xk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=sg1', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9837,7 +9837,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -565,7 +565,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7545286715469792007', 'createTime': 1756773979, 'createTimeISO': '2025-09-02T00:46:19.000Z', 'text': 'Vaquita Kefir plus😊', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6686398605715244037', 'uniqueId': 'carolina_serrano', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/79be4af25ec17f747428b28ea34a0231~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=22f48931&amp;x-expires=1760792400&amp;x-signature=tkRT4F8kKqWbXp3weXE4nDTf08E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7545286715469792007', 'createTime': 1756773979, 'createTimeISO': '2025-09-02T00:46:19.000Z', 'text': 'Vaquita Kefir plus😊', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6686398605715244037', 'uniqueId': 'carolina_serrano', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/79be4af25ec17f747428b28ea34a0231~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3d2de81b&amp;x-expires=1760878800&amp;x-signature=%2Fbp%2FlY2AnEKXLKWF3QvCHh%2FpL3Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -591,25 +591,26 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mas videos asiiiii🔥🔥🔥🔥</t>
+          <t>primero
+ya casi es octubre que colección de Mochis van a sacar para halloween ✨✨✨?</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>45902.11331018519</v>
+        <v>45902.01054398148</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>45902</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>02:43:10</t>
+          <t>00:15:11</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -621,7 +622,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7545316874159293192', 'createTime': 1756780990, 'createTimeISO': '2025-09-02T02:43:10.000Z', 'text': 'Mas videos asiiiii🔥🔥🔥🔥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '178030697805189120', 'uniqueId': 'nico5box', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5a97c5c648a6246f815739afc2a4dd5b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=66552326&amp;x-expires=1760792400&amp;x-signature=oHUIdMhtfIaCcOW6PK7%2Fl4yYHKk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7545278675375244050', 'createTime': 1756772111, 'createTimeISO': '2025-09-02T00:15:11.000Z', 'text': 'primero\nya casi es octubre que colección de Mochis van a sacar para halloween ✨✨✨?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 10, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7cb3e843&amp;x-expires=1760878800&amp;x-signature=mfjCwO7dn7AnyUgqOYQUsPIabeA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -647,27 +648,26 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>primero
-ya casi es octubre que colección de Mochis van a sacar para halloween ✨✨✨?</t>
+          <t>Mas videos asiiiii🔥🔥🔥🔥</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45902.01054398148</v>
+        <v>45902.11331018519</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>45902</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>00:15:11</t>
+          <t>02:43:10</t>
         </is>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>1</v>
       </c>
-      <c r="K4" t="n">
-        <v>10</v>
-      </c>
       <c r="L4" t="b">
         <v>0</v>
       </c>
@@ -678,7 +678,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7545278675375244050', 'createTime': 1756772111, 'createTimeISO': '2025-09-02T00:15:11.000Z', 'text': 'primero\nya casi es octubre que colección de Mochis van a sacar para halloween ✨✨✨?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 10, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2bedf748&amp;x-expires=1760792400&amp;x-signature=Dm8VTvPq7YQd8fCIPrDZIrk5YWY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7545316874159293192', 'createTime': 1756780990, 'createTimeISO': '2025-09-02T02:43:10.000Z', 'text': 'Mas videos asiiiii🔥🔥🔥🔥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '178030697805189120', 'uniqueId': 'nico5box', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5a97c5c648a6246f815739afc2a4dd5b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dff8ae2b&amp;x-expires=1760878800&amp;x-signature=NcWdZzR%2FkBVup7RnwVcaA9AWA5g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7550080571285816082', 'createTime': 1757890141, 'createTimeISO': '2025-09-14T22:49:01.000Z', 'text': '😁', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7469966561530430471', 'uniqueId': 'juangmgm84i', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f1b330bd&amp;x-expires=1760792400&amp;x-signature=tpRRe0F49pqOeveDyRFCZVohWMA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7550080571285816082', 'createTime': 1757890141, 'createTimeISO': '2025-09-14T22:49:01.000Z', 'text': '😁', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7469966561530430471', 'uniqueId': 'juangmgm84i', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6b580be8&amp;x-expires=1760878800&amp;x-signature=FnV432vZGdh15k9rP2O%2BKbRKess%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -790,7 +790,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7555339654096388871', 'createTime': 1759114604, 'createTimeISO': '2025-09-29T02:56:44.000Z', 'text': 'YO SOY FAN NUMERO UNO DEL KEFIR PLUS DE ALPINA. REALMENTE ES EFECTIVO Y MUY BUENO PARA EL ORGANISMO. Quería escribirles y decirles que el producto es un Hit absoluto. Yo consumo desde hace dos semanas el kefir, y en mi familia ya quedó instalado también 🥰🥰🥰. Y la versión pequeña personal es una maravilla para consumidoras como yo🥰🥰🥰. Bravooooooooooo ALPINA\U0001fa77', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6892758040694359046', 'uniqueId': 'yeriname7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6c41967350ee22b8d1bcb851e47d28c2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7d4ec7d6&amp;x-expires=1760792400&amp;x-signature=jf%2BcAYAkH5eG5%2BklOQMBG5Mhjtk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7555339654096388871', 'createTime': 1759114604, 'createTimeISO': '2025-09-29T02:56:44.000Z', 'text': 'YO SOY FAN NUMERO UNO DEL KEFIR PLUS DE ALPINA. REALMENTE ES EFECTIVO Y MUY BUENO PARA EL ORGANISMO. Quería escribirles y decirles que el producto es un Hit absoluto. Yo consumo desde hace dos semanas el kefir, y en mi familia ya quedó instalado también 🥰🥰🥰. Y la versión pequeña personal es una maravilla para consumidoras como yo🥰🥰🥰. Bravooooooooooo ALPINA\U0001fa77', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6892758040694359046', 'uniqueId': 'yeriname7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6c41967350ee22b8d1bcb851e47d28c2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=38410dec&amp;x-expires=1760878800&amp;x-signature=mxdujJDexj9XnS1%2FskgTvaet0PQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547697455086404360', 'createTime': 1757335263, 'createTimeISO': '2025-09-08T12:41:03.000Z', 'text': 'QUEE?? 😭\nYO YA ESTABA EMOCIONADO SI AVISABAN NUEVOS MOCHIS O SUS VIDEOS QUE ME ENTRETIENEN😭😭😭', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2bedf748&amp;x-expires=1760792400&amp;x-signature=Dm8VTvPq7YQd8fCIPrDZIrk5YWY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547697455086404360', 'createTime': 1757335263, 'createTimeISO': '2025-09-08T12:41:03.000Z', 'text': 'QUEE?? 😭\nYO YA ESTABA EMOCIONADO SI AVISABAN NUEVOS MOCHIS O SUS VIDEOS QUE ME ENTRETIENEN😭😭😭', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7cb3e843&amp;x-expires=1760878800&amp;x-signature=mfjCwO7dn7AnyUgqOYQUsPIabeA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7556668683994727189', 'createTime': 1759424043, 'createTimeISO': '2025-10-02T16:54:03.000Z', 'text': 'NOOO ALPINA XQQQ😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7183010536447411205', 'uniqueId': 'isa._.325', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9df3fc21562bf9b98d25266752d554c8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cb492640&amp;x-expires=1760792400&amp;x-signature=T2A2Wqf9Nrs8L9RiTaYYrLpr3os%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7556668683994727189', 'createTime': 1759424043, 'createTimeISO': '2025-10-02T16:54:03.000Z', 'text': 'NOOO ALPINA XQQQ😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7183010536447411205', 'uniqueId': 'isa._.325', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9df3fc21562bf9b98d25266752d554c8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3016841b&amp;x-expires=1760878800&amp;x-signature=%2ByOVfS4MGXBTL5%2FdDKHu3jqfg6A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7552001614913356551', 'createTime': 1758337403, 'createTimeISO': '2025-09-20T03:03:23.000Z', 'text': 'Gaby alpinita que sucedio, vuelve vuelveeeeeeew💖', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a0c7ceb2&amp;x-expires=1760792400&amp;x-signature=n8ULNXO7OSQPOUy1Ykxw4pMDmQc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7552001614913356551', 'createTime': 1758337403, 'createTimeISO': '2025-09-20T03:03:23.000Z', 'text': 'Gaby alpinita que sucedio, vuelve vuelveeeeeeew💖', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f3c8a5c7&amp;x-expires=1760878800&amp;x-signature=a%2FIWjCHEIyz2OrlNwCKg0zCFZCI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -985,22 +985,22 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>porqueeee??😭😭😭😭</t>
+          <t>Queee ?</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>45907.57980324074</v>
+        <v>45905.84496527778</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>45907</v>
+        <v>45905</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>13:54:55</t>
+          <t>20:16:45</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547344669736600338', 'createTime': 1757253295, 'createTimeISO': '2025-09-07T13:54:55.000Z', 'text': 'porqueeee??😭😭😭😭', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7467024639018468360', 'uniqueId': 'leidy_y22', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/170467e038e889966ba7de820632ba9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=60691639&amp;x-expires=1760792400&amp;x-signature=hnb0U3n0Cbz%2BsWmERPY0gRJ2dYc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546701614498087688', 'createTime': 1757103405, 'createTimeISO': '2025-09-05T20:16:45.000Z', 'text': 'Queee ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781206829306807302', 'uniqueId': 'gaaaabs6', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/87a6fa6e1b0b9d03506eca068222ad5e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e4b6997d&amp;x-expires=1760878800&amp;x-signature=nkSkGwDHuKcXWjhITM1Z1pvDhlo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1041,22 +1041,22 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Queee ?</t>
+          <t>volví, haber cuantos meses me fui, que??!!!, 4 meses 😱</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>45905.84496527778</v>
+        <v>45909.19028935185</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>20:16:45</t>
+          <t>04:34:01</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546701614498087688', 'createTime': 1757103405, 'createTimeISO': '2025-09-05T20:16:45.000Z', 'text': 'Queee ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781206829306807302', 'uniqueId': 'gaaaabs6', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/87a6fa6e1b0b9d03506eca068222ad5e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fe1edaff&amp;x-expires=1760792400&amp;x-signature=n1dKSJD%2FbQByiwKJja3MCj6V9Uc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547942977034617601', 'createTime': 1757392441, 'createTimeISO': '2025-09-09T04:34:01.000Z', 'text': 'volví, haber cuantos meses me fui, que??!!!, 4 meses 😱', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3c4d6890&amp;x-expires=1760878800&amp;x-signature=Ka8%2BkswozclbZ%2FKa4ibdrqreD18%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1097,22 +1097,22 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Qué? 😭</t>
+          <t>porqueeee??😭😭😭😭</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>45905.7774074074</v>
+        <v>45907.57980324074</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>18:39:28</t>
+          <t>13:54:55</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546676538382746376', 'createTime': 1757097568, 'createTimeISO': '2025-09-05T18:39:28.000Z', 'text': 'Qué? 😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6823366905291965446', 'uniqueId': 'jfelipegomez1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7329628384854736902~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2240b3fb&amp;x-expires=1760792400&amp;x-signature=ESbwrSxVjud27rTG%2FX3hUFAD018%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547344669736600338', 'createTime': 1757253295, 'createTimeISO': '2025-09-07T13:54:55.000Z', 'text': 'porqueeee??😭😭😭😭', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7467024639018468360', 'uniqueId': 'leidy_y22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/170467e038e889966ba7de820632ba9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7ae44a7a&amp;x-expires=1760878800&amp;x-signature=mLowcAa5O7IL19oxPbWYSXx5VMc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1153,18 +1153,18 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Wa hapen</t>
+          <t>Qué? 😭</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>45905.85644675926</v>
+        <v>45905.7774074074</v>
       </c>
       <c r="H13" s="3" t="n">
         <v>45905</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>20:33:17</t>
+          <t>18:39:28</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546705871947072276', 'createTime': 1757104397, 'createTimeISO': '2025-09-05T20:33:17.000Z', 'text': 'Wa hapen', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6786334206413177862', 'uniqueId': 'oscardavidaldana', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/bc48481fc572183ea9e26aa81964cf2b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c44e57d0&amp;x-expires=1760792400&amp;x-signature=QN7ykqX%2FZVm0mwhu9mTrpjeIwGk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546676538382746376', 'createTime': 1757097568, 'createTimeISO': '2025-09-05T18:39:28.000Z', 'text': 'Qué? 😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6823366905291965446', 'uniqueId': 'jfelipegomez1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7329628384854736902~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0de9949a&amp;x-expires=1760878800&amp;x-signature=eAyHnCXR3LjG5w2p5gpHFzhUabk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547741547535500049', 'createTime': 1757345532, 'createTimeISO': '2025-09-08T15:32:12.000Z', 'text': 'por Dios ahora que pasó. y yo etiquetando Alpina 😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6830280708298343430', 'uniqueId': 'andreifyt2025_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ca95b033b49845a0bbb72152f6a7fb22~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=65e9b93d&amp;x-expires=1760792400&amp;x-signature=eePr6AFtY8OHQUiWoJlXuNaN8%2FQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547741547535500049', 'createTime': 1757345532, 'createTimeISO': '2025-09-08T15:32:12.000Z', 'text': 'por Dios ahora que pasó. y yo etiquetando Alpina 😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6830280708298343430', 'uniqueId': 'andreifyt2025_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ca95b033b49845a0bbb72152f6a7fb22~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2ba9d54b&amp;x-expires=1760878800&amp;x-signature=CeBBclChUx9Iwwtz2%2Fa2UBimS4I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1265,22 +1265,22 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>volví, haber cuantos meses me fui, que??!!!, 4 meses 😱</t>
+          <t>Wa hapen</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>45909.19028935185</v>
+        <v>45905.85644675926</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>45909</v>
+        <v>45905</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>04:34:01</t>
+          <t>20:33:17</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547942977034617601', 'createTime': 1757392441, 'createTimeISO': '2025-09-09T04:34:01.000Z', 'text': 'volví, haber cuantos meses me fui, que??!!!, 4 meses 😱', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e7109759&amp;x-expires=1760792400&amp;x-signature=6np5PsSGRsgOWrfycwtS1A%2F9FUg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546705871947072276', 'createTime': 1757104397, 'createTimeISO': '2025-09-05T20:33:17.000Z', 'text': 'Wa hapen', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6786334206413177862', 'uniqueId': 'oscardavidaldana', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/bc48481fc572183ea9e26aa81964cf2b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8a74ccdc&amp;x-expires=1760878800&amp;x-signature=BP1%2FQucpVWUUZqosMyXCFKx3Dk4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546693261533659922', 'createTime': 1757101461, 'createTimeISO': '2025-09-05T19:44:21.000Z', 'text': '👀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808331911279903750', 'uniqueId': 'aleja.cardenas', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ae26428fddeb4cb0c608c71af324941d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8bfbd121&amp;x-expires=1760792400&amp;x-signature=NPTLyCYpUZV%2FfXTa0Q4nrd4p57c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546693261533659922', 'createTime': 1757101461, 'createTimeISO': '2025-09-05T19:44:21.000Z', 'text': '👀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808331911279903750', 'uniqueId': 'aleja.cardenas', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ae26428fddeb4cb0c608c71af324941d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b14c2970&amp;x-expires=1760878800&amp;x-signature=kxXNMe8jU2J4MyQENN%2BexqKiFKU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546942799272411922', 'createTime': 1757159557, 'createTimeISO': '2025-09-06T11:52:37.000Z', 'text': '😭😰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7416452271041987590', 'uniqueId': 'saragutierrez9607', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2d50ff98a95e65e1155080427e14139e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=212a720d&amp;x-expires=1760792400&amp;x-signature=MsmPFkG7J55vw3qa3bRWcPSXie4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546942799272411922', 'createTime': 1757159557, 'createTimeISO': '2025-09-06T11:52:37.000Z', 'text': '😭😰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7416452271041987590', 'uniqueId': 'saragutierrez9607', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2d50ff98a95e65e1155080427e14139e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7016b40c&amp;x-expires=1760878800&amp;x-signature=Lk1ycKGysOMCJzX9P5jKdiY6s1E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7549569237565211409', 'createTime': 1757771074, 'createTimeISO': '2025-09-13T13:44:34.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7186369712568189957', 'uniqueId': 'luzadrianacanooro', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ba9035ed44089efdd68ad1a325c0409b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=87412837&amp;x-expires=1760792400&amp;x-signature=A4dcKaadL%2BnhYP9qOnT2csETY08%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7549569237565211409', 'createTime': 1757771074, 'createTimeISO': '2025-09-13T13:44:34.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7186369712568189957', 'uniqueId': 'luzadrianacanooro', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ba9035ed44089efdd68ad1a325c0409b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a0818233&amp;x-expires=1760878800&amp;x-signature=sKW8rGRzKxT0dhl3P4oOhguH2X8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7557608767006114567', 'createTime': 1759642921, 'createTimeISO': '2025-10-05T05:42:01.000Z', 'text': 'Por qué están en problemas con el ministerio de trabajo @Ministerio de Trabajo -Bolivia por qué sus distribuidores en el país tienen a sus empleados con explotación laboral sobre carga laboral horarios que exceden las 15 horas y no les pagan extras ni recargos donde un empleado hace lo de 3 empleados', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6954818842602931205', 'uniqueId': 'fabiobedoya1504', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0533c8b2372d1c920dad7ae339c48a3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=96e81418&amp;x-expires=1760792400&amp;x-signature=iICW99w82x689V4iCAFbIh%2BFx9k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@Ministerio de Trabajo -Bolivia'], 'detailedMentions': [{'userId': '6817567040930497541', 'nickName': 'Ministerio de Trabajo -Bolivia', 'profileUrl': 'https://www.tiktok.com/@6817567040930497541', 'secUid': 'MS4wLjABAAAAVga5B9Md-oI5XuH5Ruk5ES1IympOnnPUKuurL6hWMHXQ6hzxZPUYisB2cnA5aPyh'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7557608767006114567', 'createTime': 1759642921, 'createTimeISO': '2025-10-05T05:42:01.000Z', 'text': 'Por qué están en problemas con el ministerio de trabajo @Ministerio de Trabajo -Bolivia por qué sus distribuidores en el país tienen a sus empleados con explotación laboral sobre carga laboral horarios que exceden las 15 horas y no les pagan extras ni recargos donde un empleado hace lo de 3 empleados', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6954818842602931205', 'uniqueId': 'fabiobedoya1504', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0533c8b2372d1c920dad7ae339c48a3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f6d70613&amp;x-expires=1760878800&amp;x-signature=aaHm7%2FRmx5Fuf8J9ZWg33ABF3pM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@Ministerio de Trabajo -Bolivia'], 'detailedMentions': [{'userId': '6817567040930497541', 'nickName': 'Ministerio de Trabajo -Bolivia', 'profileUrl': 'https://www.tiktok.com/@6817567040930497541', 'secUid': 'MS4wLjABAAAAVga5B9Md-oI5XuH5Ruk5ES1IympOnnPUKuurL6hWMHXQ6hzxZPUYisB2cnA5aPyh'}]}</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546679584475349768', 'createTime': 1757098279, 'createTimeISO': '2025-09-05T18:51:19.000Z', 'text': 'ay y por que alpinita', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7389831937894843398', 'uniqueId': 'un_emo_amigable', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37bc4cd15dd442f352783fdcce05dfb8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=628fb328&amp;x-expires=1760792400&amp;x-signature=koVSbMIf56iuhCAz61imCd3X41A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546679584475349768', 'createTime': 1757098279, 'createTimeISO': '2025-09-05T18:51:19.000Z', 'text': 'ay y por que alpinita', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7389831937894843398', 'uniqueId': 'un_emo_amigable', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37bc4cd15dd442f352783fdcce05dfb8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=765b86a9&amp;x-expires=1760878800&amp;x-signature=iAPgmntG7dFLx57jKPS9CpBKjxA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7560323939830924039', 'createTime': 1760275093, 'createTimeISO': '2025-10-12T13:18:13.000Z', 'text': 'para mí alpina no nesecita mucha publicidad,Alpina es un producto que se vende solo....solo con escuchar Alpina en mi mente automáticamente es calidad y muy rico..todo', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7278338689078658054', 'uniqueId': 'aydaconsuelobedoy', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/055c3a3a8db8013e7b0d2d1a496bf1ac~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=34ce6d9d&amp;x-expires=1760792400&amp;x-signature=%2BHLpthDSWaeic59ytA2g9Nc7bVY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7560323939830924039', 'createTime': 1760275093, 'createTimeISO': '2025-10-12T13:18:13.000Z', 'text': 'para mí alpina no nesecita mucha publicidad,Alpina es un producto que se vende solo....solo con escuchar Alpina en mi mente automáticamente es calidad y muy rico..todo', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7278338689078658054', 'uniqueId': 'aydaconsuelobedoy', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/055c3a3a8db8013e7b0d2d1a496bf1ac~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a2bb3004&amp;x-expires=1760878800&amp;x-signature=b89XV09HBSD3Na%2FMbZg9n1mp%2FtQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1657,25 +1657,25 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Siiiii! Ya quiero ver la nueva practicante🎉🎉🎉</t>
+          <t>siiii ayudemosle!!!</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>45912.6234375</v>
+        <v>45912.8164699074</v>
       </c>
       <c r="H22" s="3" t="n">
         <v>45912</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>14:57:45</t>
+          <t>19:35:43</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549217011010044692', 'createTime': 1757689065, 'createTimeISO': '2025-09-12T14:57:45.000Z', 'text': 'Siiiii! Ya quiero ver la nueva practicante🎉🎉🎉', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6819089554679940101', 'uniqueId': 'julianavivasr03', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f3051c41eba0cedcc184a155cdd5fe57~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=47a3e0c2&amp;x-expires=1760792400&amp;x-signature=nnFgS8Vz9hWDF6zItzTpy%2BwptJg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549288639830721301', 'createTime': 1757705743, 'createTimeISO': '2025-09-12T19:35:43.000Z', 'text': 'siiii ayudemosle!!!', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6770401168398386182', 'uniqueId': 'gabrielaguerrero70', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a36d643d0a9ecc0cdaafc93b6200aa8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f39f71a8&amp;x-expires=1760878800&amp;x-signature=CMxSSLGQ%2FmT%2B5DUct6tCUwPWv4g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1713,22 +1713,22 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>jojojo</t>
+          <t>Siiiii! Ya quiero ver la nueva practicante🎉🎉🎉</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>45935.64364583333</v>
+        <v>45912.6234375</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>45935</v>
+        <v>45912</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>15:26:51</t>
+          <t>14:57:45</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7557758733863387920', 'createTime': 1759678011, 'createTimeISO': '2025-10-05T15:26:51.000Z', 'text': 'jojojo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7554795739316306964', 'uniqueId': 'freydermurcia33', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/699d7f94c2d9a0694952663b219cc25f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bef44ae7&amp;x-expires=1760792400&amp;x-signature=lIZC7hAsA%2FJRt2lG8OhpF85hXr4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549217011010044692', 'createTime': 1757689065, 'createTimeISO': '2025-09-12T14:57:45.000Z', 'text': 'Siiiii! Ya quiero ver la nueva practicante🎉🎉🎉', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6819089554679940101', 'uniqueId': 'julianavivasr03', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f3051c41eba0cedcc184a155cdd5fe57~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1602472f&amp;x-expires=1760878800&amp;x-signature=t%2Bjs1IKdoN0%2FQW%2FTRGUT%2FbTtW5k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1769,18 +1769,18 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>siiii ayudemosle!!!</t>
+          <t>Ay tan bonitaaaaa mañana nos vemos 🥺</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>45912.8164699074</v>
+        <v>45912.17210648148</v>
       </c>
       <c r="H24" s="3" t="n">
         <v>45912</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>19:35:43</t>
+          <t>04:07:50</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549288639830721301', 'createTime': 1757705743, 'createTimeISO': '2025-09-12T19:35:43.000Z', 'text': 'siiii ayudemosle!!!', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6770401168398386182', 'uniqueId': 'gabrielaguerrero70', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a36d643d0a9ecc0cdaafc93b6200aa8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=088e8889&amp;x-expires=1760792400&amp;x-signature=kXZ6J%2FIo6vgg6dTzoOCbRsammA8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549049533700277012', 'createTime': 1757650070, 'createTimeISO': '2025-09-12T04:07:50.000Z', 'text': 'Ay tan bonitaaaaa mañana nos vemos 🥺', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7355258637583844357', 'uniqueId': 'majitouuuuuu0', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/dbc73978fd3f05b374910bef0e207b56~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e1803c57&amp;x-expires=1760878800&amp;x-signature=Nmh3YIspIsI0GTxCUO1va9garbg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1825,25 +1825,25 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ay tan bonitaaaaa mañana nos vemos 🥺</t>
+          <t>jojojo</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>45912.17210648148</v>
+        <v>45935.64364583333</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>45912</v>
+        <v>45935</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>04:07:50</t>
+          <t>15:26:51</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549049533700277012', 'createTime': 1757650070, 'createTimeISO': '2025-09-12T04:07:50.000Z', 'text': 'Ay tan bonitaaaaa mañana nos vemos 🥺', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7355258637583844357', 'uniqueId': 'majitouuuuuu0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/dbc73978fd3f05b374910bef0e207b56~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f00bcce2&amp;x-expires=1760792400&amp;x-signature=IGmlFXZB4fgoduohHOngDpvtErs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7557758733863387920', 'createTime': 1759678011, 'createTimeISO': '2025-10-05T15:26:51.000Z', 'text': 'jojojo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7554795739316306964', 'uniqueId': 'freydermurcia33', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/699d7f94c2d9a0694952663b219cc25f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1786b78c&amp;x-expires=1760878800&amp;x-signature=9OTAg%2FfSnTzH6wYyzdvw%2B5cKnxc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549289149077979912', 'createTime': 1757705862, 'createTimeISO': '2025-09-12T19:37:42.000Z', 'text': 'Quien esssss ? 👀', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7255348886041691141', 'uniqueId': 'jholainec21', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/205ba05ede21686eb806965cb40fd502~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=82d4afdc&amp;x-expires=1760792400&amp;x-signature=u4t6bGTPiI%2FACBLRGXm4oNFSx1g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549289149077979912', 'createTime': 1757705862, 'createTimeISO': '2025-09-12T19:37:42.000Z', 'text': 'Quien esssss ? 👀', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7255348886041691141', 'uniqueId': 'jholainec21', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/205ba05ede21686eb806965cb40fd502~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bf0e5232&amp;x-expires=1760878800&amp;x-signature=p%2ByZ3yAj4tYLCXW3Yz4%2BEuAo2sQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549004192569525000', 'createTime': 1757639515, 'createTimeISO': '2025-09-12T01:11:55.000Z', 'text': 'holitaaaa', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6982722979595863046', 'uniqueId': 'mrbrawl69', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/38c613c8f3cea66a0a3bfeab34f76e58~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=050987eb&amp;x-expires=1760792400&amp;x-signature=QBA6iCV4L%2FCRPD6MoKKqL12qDTc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549004192569525000', 'createTime': 1757639515, 'createTimeISO': '2025-09-12T01:11:55.000Z', 'text': 'holitaaaa', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6982722979595863046', 'uniqueId': 'mrbrawl69', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/38c613c8f3cea66a0a3bfeab34f76e58~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bbf62fab&amp;x-expires=1760878800&amp;x-signature=B7Zvaa9pEUQwwK4s53WQkReHc5Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549596693055554311', 'createTime': 1757777462, 'createTimeISO': '2025-09-13T15:31:02.000Z', 'text': 'A AYUDAR A ALPINA\U0001fa77\U0001fa77\U0001fa77', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2bedf748&amp;x-expires=1760792400&amp;x-signature=Dm8VTvPq7YQd8fCIPrDZIrk5YWY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549596693055554311', 'createTime': 1757777462, 'createTimeISO': '2025-09-13T15:31:02.000Z', 'text': 'A AYUDAR A ALPINA\U0001fa77\U0001fa77\U0001fa77', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7cb3e843&amp;x-expires=1760878800&amp;x-signature=mfjCwO7dn7AnyUgqOYQUsPIabeA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549015309047710471', 'createTime': 1757642105, 'createTimeISO': '2025-09-12T01:55:05.000Z', 'text': 'Un concurso de cocina ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6790480840596358149', 'uniqueId': 'vivianaospina67', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/34082dcda72461c00ba3d59eb0cda82a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9fafae66&amp;x-expires=1760792400&amp;x-signature=JQyF27LD%2F6GLybHXYQEm0GYJCn8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549015309047710471', 'createTime': 1757642105, 'createTimeISO': '2025-09-12T01:55:05.000Z', 'text': 'Un concurso de cocina ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6790480840596358149', 'uniqueId': 'vivianaospina67', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/34082dcda72461c00ba3d59eb0cda82a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9f65c14a&amp;x-expires=1760878800&amp;x-signature=91bs6WNXjkAEZvun3HU%2BfI9lgxA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549000273060233991', 'createTime': 1757638613, 'createTimeISO': '2025-09-12T00:56:53.000Z', 'text': '💙💙💙', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7046148050101109766', 'uniqueId': 'juanp846', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/cdf703b505ceb5a3cf5f7b216c352922~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=59c0ffbd&amp;x-expires=1760792400&amp;x-signature=%2FVTL6M5BXUFE0SOtprSegfVQx8w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549000273060233991', 'createTime': 1757638613, 'createTimeISO': '2025-09-12T00:56:53.000Z', 'text': '💙💙💙', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7046148050101109766', 'uniqueId': 'juanp846', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/cdf703b505ceb5a3cf5f7b216c352922~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=986afc3f&amp;x-expires=1760878800&amp;x-signature=I3IwzhqGHFFkEzx2RBtxdNtKLxE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549007617818559250', 'createTime': 1757640317, 'createTimeISO': '2025-09-12T01:25:17.000Z', 'text': '🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6710319884842337285', 'uniqueId': 'itssantiagocelis', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c17d4d00500c39eed015d9ab552b352a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=583d9367&amp;x-expires=1760792400&amp;x-signature=vTtagZP9uNzAZ1jKnH0wy46G1RE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549007617818559250', 'createTime': 1757640317, 'createTimeISO': '2025-09-12T01:25:17.000Z', 'text': '🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6710319884842337285', 'uniqueId': 'itssantiagocelis', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c17d4d00500c39eed015d9ab552b352a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=59ebec2e&amp;x-expires=1760878800&amp;x-signature=F4iVUpjmmuRW5jat10xaVPN%2FO%2F0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549238211336487681', 'createTime': 1757693998, 'createTimeISO': '2025-09-12T16:19:58.000Z', 'text': '😮😮😮', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6778152010580509702', 'uniqueId': 'esteban_ocampov', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6a63d386d387123e4d61df4e994bb26d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bb64c4fd&amp;x-expires=1760792400&amp;x-signature=6QzzpnPB9ExWfr%2Fr05HWaGfV9os%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549238211336487681', 'createTime': 1757693998, 'createTimeISO': '2025-09-12T16:19:58.000Z', 'text': '😮😮😮', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6778152010580509702', 'uniqueId': 'esteban_ocampov', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6a63d386d387123e4d61df4e994bb26d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=449fc35d&amp;x-expires=1760878800&amp;x-signature=xYiXo%2Fn8XrIsMY2QyDXDDRjVSHA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549310477420708629', 'createTime': 1757710837, 'createTimeISO': '2025-09-12T21:00:37.000Z', 'text': '🥰😳😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7509769410816705544', 'uniqueId': 'user749076194246', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a3e15ef0&amp;x-expires=1760792400&amp;x-signature=5uahYyuif64MzJTage22%2FAJVWPI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549310477420708629', 'createTime': 1757710837, 'createTimeISO': '2025-09-12T21:00:37.000Z', 'text': '🥰😳😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7509769410816705544', 'uniqueId': 'user749076194246', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6b580be8&amp;x-expires=1760878800&amp;x-signature=FnV432vZGdh15k9rP2O%2BKbRKess%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549000221259399954', 'createTime': 1757638590, 'createTimeISO': '2025-09-12T00:56:30.000Z', 'text': '🗿🗿🗿', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7319745287890387973', 'uniqueId': 'matias_8595', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37f085e6cd1478b738e427953d05ecb8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8da6c750&amp;x-expires=1760792400&amp;x-signature=XRSrg27ri8jeslPMsVPY4Y3f2p8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549000221259399954', 'createTime': 1757638590, 'createTimeISO': '2025-09-12T00:56:30.000Z', 'text': '🗿🗿🗿', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7319745287890387973', 'uniqueId': 'matias_8595', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37f085e6cd1478b738e427953d05ecb8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=70510c36&amp;x-expires=1760878800&amp;x-signature=qMupPJjgjuzgFYHB5qrHLQiLhN0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7557895538470322945', 'createTime': 1759709708, 'createTimeISO': '2025-10-06T00:15:08.000Z', 'text': 'rgcuhif', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6975369451886593029', 'uniqueId': 'noraortegom', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f1b330bd&amp;x-expires=1760792400&amp;x-signature=tpRRe0F49pqOeveDyRFCZVohWMA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7557895538470322945', 'createTime': 1759709708, 'createTimeISO': '2025-10-06T00:15:08.000Z', 'text': 'rgcuhif', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6975369451886593029', 'uniqueId': 'noraortegom', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6b580be8&amp;x-expires=1760878800&amp;x-signature=FnV432vZGdh15k9rP2O%2BKbRKess%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2441,25 +2441,25 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>alpina yo quiero saber si¿la nueva colección de yogo premio se llama mochi saurios????@Alpina 🐮</t>
+          <t>que vuelvan los gatos porfiiii</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>45912.55510416667</v>
+        <v>45940.73591435186</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>45912</v>
+        <v>45940</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>13:19:21</t>
+          <t>17:39:43</t>
         </is>
       </c>
       <c r="J36" t="n">
         <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549191179351474951', 'createTime': 1757683161, 'createTimeISO': '2025-09-12T13:19:21.000Z', 'text': 'alpina yo quiero saber si¿la nueva colección de yogo premio se llama mochi saurios????@Alpina 🐮', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7467024639018468360', 'uniqueId': 'leidy_y22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/170467e038e889966ba7de820632ba9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=369420ea&amp;x-expires=1760792400&amp;x-signature=24H%2Bhfue4LTrZJbrM88yHNhOPJM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7559649133477823253', 'createTime': 1760117983, 'createTimeISO': '2025-10-10T17:39:43.000Z', 'text': 'que vuelvan los gatos porfiiii', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541238264298357778', 'uniqueId': 'invencible799', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/41228f33689b86eba8bd2b23e2173644~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c02c6515&amp;x-expires=1760878800&amp;x-signature=Jp%2BjraFveYTBEfzyK3kLVdWTBH0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2497,25 +2497,25 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>que vuelvan los gatos porfiiii</t>
+          <t>alpina yo quiero saber si¿la nueva colección de yogo premio se llama mochi saurios????@Alpina 🐮</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>45940.73591435186</v>
+        <v>45912.55510416667</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>45940</v>
+        <v>45912</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>17:39:43</t>
+          <t>13:19:21</t>
         </is>
       </c>
       <c r="J37" t="n">
         <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7559649133477823253', 'createTime': 1760117983, 'createTimeISO': '2025-10-10T17:39:43.000Z', 'text': 'que vuelvan los gatos porfiiii', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541238264298357778', 'uniqueId': 'user3811220354277', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4f783bc015f5d5ce0924144651a5aee6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=106536bb&amp;x-expires=1760792400&amp;x-signature=jdj01Ftvvj2idVQ15jjMw1rXhqw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549191179351474951', 'createTime': 1757683161, 'createTimeISO': '2025-09-12T13:19:21.000Z', 'text': 'alpina yo quiero saber si¿la nueva colección de yogo premio se llama mochi saurios????@Alpina 🐮', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7467024639018468360', 'uniqueId': 'leidy_y22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/170467e038e889966ba7de820632ba9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7ae44a7a&amp;x-expires=1760878800&amp;x-signature=mLowcAa5O7IL19oxPbWYSXx5VMc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
         </is>
       </c>
     </row>
@@ -2553,22 +2553,22 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>no soy practicante Pero quiero trabajar con ustedes 😭 soy admin, que puedo hacer? 😭</t>
+          <t>QUIERO MI MOCHISAURIOOOOO 😭🦕😩💗</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>45916.99344907407</v>
+        <v>45917.02540509259</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>23:50:34</t>
+          <t>00:36:35</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K38" t="n">
         <v>1</v>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550838637400179464', 'createTime': 1758066634, 'createTimeISO': '2025-09-16T23:50:34.000Z', 'text': 'no soy practicante Pero quiero trabajar con ustedes 😭 soy admin, que puedo hacer? 😭', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6952624737991443462', 'uniqueId': 'valeria_noo2', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1a1431eb5fd2ec2b3db383b2b0e26ac9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f190f776&amp;x-expires=1760792400&amp;x-signature=ZOFFJJxllq7ru62%2BqFAC0vikpxc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550850431720325905', 'createTime': 1758069395, 'createTimeISO': '2025-09-17T00:36:35.000Z', 'text': 'QUIERO MI MOCHISAURIOOOOO 😭🦕😩💗', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '282408726983028736', 'uniqueId': 'wanna_juana', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/17e1ad71c0265acba1716a4696601785~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bd8b3aed&amp;x-expires=1760878800&amp;x-signature=a4qATpgGmYVAY5InY5v6C%2FFEVQQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2609,22 +2609,22 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>QUIERO MI MOCHISAURIOOOOO 😭🦕😩💗</t>
+          <t>no soy practicante Pero quiero trabajar con ustedes 😭 soy admin, que puedo hacer? 😭</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>45917.02540509259</v>
+        <v>45916.99344907407</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>45917</v>
+        <v>45916</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>00:36:35</t>
+          <t>23:50:34</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550850431720325905', 'createTime': 1758069395, 'createTimeISO': '2025-09-17T00:36:35.000Z', 'text': 'QUIERO MI MOCHISAURIOOOOO 😭🦕😩💗', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '282408726983028736', 'uniqueId': 'wanna_juana', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/17e1ad71c0265acba1716a4696601785~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=47ccf626&amp;x-expires=1760792400&amp;x-signature=hzcDJbJb211bV74cnibmUvGVcm8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550838637400179464', 'createTime': 1758066634, 'createTimeISO': '2025-09-16T23:50:34.000Z', 'text': 'no soy practicante Pero quiero trabajar con ustedes 😭 soy admin, que puedo hacer? 😭', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6952624737991443462', 'uniqueId': 'valeria_noo2', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1a1431eb5fd2ec2b3db383b2b0e26ac9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ebd8d24f&amp;x-expires=1760878800&amp;x-signature=z9TFBIuBgy1LYoXBla1Lqo57%2BU8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2665,25 +2665,25 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Hola alpina cambien el vasito de yogo yogo mochisaurio por qué es muy duro y me corte cambienlo por el de premio yogo yogo que se quita fácil se que no es del tema</t>
+          <t>Me encantaaaa✨</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>45936.70731481481</v>
+        <v>45917.15711805555</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>45936</v>
+        <v>45917</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>16:58:32</t>
+          <t>03:46:15</t>
         </is>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7558154185101247240', 'createTime': 1759769912, 'createTimeISO': '2025-10-06T16:58:32.000Z', 'text': 'Hola alpina cambien el vasito de yogo yogo mochisaurio por qué es muy duro y me corte cambienlo por el de premio yogo yogo que se quita fácil se que no es del tema', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7005260384655574022', 'uniqueId': 'diegoalejandropat3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7327286844337127429~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=de98b387&amp;x-expires=1760792400&amp;x-signature=NwDCAaN8pF5wBBy0qiwCkvcBWAI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550899370625254165', 'createTime': 1758080775, 'createTimeISO': '2025-09-17T03:46:15.000Z', 'text': 'Me encantaaaa✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '6636032545857355782', 'uniqueId': 'amygonzal_', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bcf09f13282d39a21e796330dfd9b28d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e10213e0&amp;x-expires=1760878800&amp;x-signature=6OubIa1wuoUjGb2w0XT9x5h%2B%2B1k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2721,25 +2721,25 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Amò este Alpina</t>
+          <t>Buen día, aceptan pasantes en área administrativa?😳</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>45919.13483796296</v>
+        <v>45924.54788194445</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>45919</v>
+        <v>45924</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>03:14:10</t>
+          <t>13:08:57</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551633311488082696', 'createTime': 1758251650, 'createTimeISO': '2025-09-19T03:14:10.000Z', 'text': 'Amò este Alpina', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6955254769972806662', 'uniqueId': 'santiwhosthat', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/72ed639d278a53a7ee891f25034e0d1a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fcaeaea5&amp;x-expires=1760792400&amp;x-signature=Jkgu9GcC453f12lSeXzUn4dvUCw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7553641991944602386', 'createTime': 1758719337, 'createTimeISO': '2025-09-24T13:08:57.000Z', 'text': 'Buen día, aceptan pasantes en área administrativa?😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6819016661686453254', 'uniqueId': 'scatalina15', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/65616505ecd12a1b5dd469d79ec8a719~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=25ff3a21&amp;x-expires=1760878800&amp;x-signature=02WdFTuL5%2FLKWDnJiwNYJ2n8MKE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2777,25 +2777,25 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>cuantos comentarios y reacciones para ganarme la nueva colección de Mochis de dinosaurios 🥺 (no me ignoren, ayuden personas a que lo vean🙏🏻)</t>
+          <t>Lo emocionada que estoy por hacer parte del equipo no tiene nombre 😩</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>45922.03340277778</v>
+        <v>45917.05436342592</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>45922</v>
+        <v>45917</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>00:48:06</t>
+          <t>01:18:17</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7552707780533863189', 'createTime': 1758502086, 'createTimeISO': '2025-09-22T00:48:06.000Z', 'text': 'cuantos comentarios y reacciones para ganarme la nueva colección de Mochis de dinosaurios 🥺 (no me ignoren, ayuden personas a que lo vean🙏🏻)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6915493889098187782', 'uniqueId': 'angel18mendoza', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/68f808039457cd87fd4d7b94e867d357~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=428eab0b&amp;x-expires=1760792400&amp;x-signature=96Qy0NvAbx6SlAcsAOfGzGiF13Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550861226680648468', 'createTime': 1758071897, 'createTimeISO': '2025-09-17T01:18:17.000Z', 'text': 'Lo emocionada que estoy por hacer parte del equipo no tiene nombre 😩', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6561143503132540934', 'uniqueId': 'maaaarirg', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7324826520122785798~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4a8a55c0&amp;x-expires=1760878800&amp;x-signature=XIuQZ0K%2BbE3doqtIKC3QYkvKmJs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7554989643563205384', 'createTime': 1759033113, 'createTimeISO': '2025-09-28T04:18:33.000Z', 'text': 'como se puede conseguir el álbum de mochis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7340762611166299142', 'uniqueId': 'wilson.piraquive5', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/376f70562283aeaeeb98265a1fe54ae8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c12c9645&amp;x-expires=1760792400&amp;x-signature=7Hb7KOzYiR9Ie3SleKDM1CxxTwU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7554989643563205384', 'createTime': 1759033113, 'createTimeISO': '2025-09-28T04:18:33.000Z', 'text': 'como se puede conseguir el álbum de mochis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7340762611166299142', 'uniqueId': 'wilson.piraquive5', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/376f70562283aeaeeb98265a1fe54ae8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7e061268&amp;x-expires=1760878800&amp;x-signature=cdIySYIgFafb6%2FFgDFxsPyDm%2BLM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2889,25 +2889,26 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Me encantaaaa✨</t>
+          <t>1ro
+alpina te amo!!</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>45917.15711805555</v>
+        <v>45916.98658564815</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>45917</v>
+        <v>45916</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>03:46:15</t>
+          <t>23:40:41</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
@@ -2919,7 +2920,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550899370625254165', 'createTime': 1758080775, 'createTimeISO': '2025-09-17T03:46:15.000Z', 'text': 'Me encantaaaa✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '6636032545857355782', 'uniqueId': 'amygonzal_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bcf09f13282d39a21e796330dfd9b28d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=669876e5&amp;x-expires=1760792400&amp;x-signature=Q8ATnI3mvTiKEPDJJa2rCwL6ksE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550836019215958805', 'createTime': 1758066041, 'createTimeISO': '2025-09-16T23:40:41.000Z', 'text': '1ro\nalpina te amo!!', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452218782174446597', 'uniqueId': 'shidouxsae0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2865ac893335cccef6405d3bf354fedb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=21ca6177&amp;x-expires=1760878800&amp;x-signature=nBGMlVMw0wOYu5kyZou8uFtn6OE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2945,25 +2946,25 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Buenisimo!!!!!</t>
+          <t>AMAMOSSSS el contenido de Gabi</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>45919.87149305556</v>
+        <v>45917.09577546296</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>45919</v>
+        <v>45917</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>20:54:57</t>
+          <t>02:17:55</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
@@ -2975,7 +2976,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551906649611830023', 'createTime': 1758315297, 'createTimeISO': '2025-09-19T20:54:57.000Z', 'text': 'Buenisimo!!!!!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7068293195050877957', 'uniqueId': 'mfzamarriego', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5891c8d97d65891a135a4f898bbe9dc6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=534ef195&amp;x-expires=1760792400&amp;x-signature=Pn4fNu4pbgdl1vqvZMWcAYA%2FoEQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550876642629944071', 'createTime': 1758075475, 'createTimeISO': '2025-09-17T02:17:55.000Z', 'text': 'AMAMOSSSS el contenido de Gabi', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7323823789984531462', 'uniqueId': 'chantal.thorin', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/5be5fbd7e28fb667d0d61e8de45fc752~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f8022896&amp;x-expires=1760878800&amp;x-signature=Gxcl54eYsW79hhltsu3oMk6Zajo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3001,18 +3002,18 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>estando en etapa lectiva puedo aplicar</t>
+          <t>Hola alpina cambien el vasito de yogo yogo mochisaurio por qué es muy duro y me corte cambienlo por el de premio yogo yogo que se quita fácil se que no es del tema</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>45926.77971064814</v>
+        <v>45936.70731481481</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>45926</v>
+        <v>45936</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>18:42:47</t>
+          <t>16:58:32</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -3031,7 +3032,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7554470184620000018', 'createTime': 1758912167, 'createTimeISO': '2025-09-26T18:42:47.000Z', 'text': 'estando en etapa lectiva puedo aplicar', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6964937358190445574', 'uniqueId': 'daneicy8', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a6e6af884aceb8af9c72174f73167f68~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7995c2d7&amp;x-expires=1760792400&amp;x-signature=pPp8PdW%2Fs1LCbERJQyKBzSgEfus%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7558154185101247240', 'createTime': 1759769912, 'createTimeISO': '2025-10-06T16:58:32.000Z', 'text': 'Hola alpina cambien el vasito de yogo yogo mochisaurio por qué es muy duro y me corte cambienlo por el de premio yogo yogo que se quita fácil se que no es del tema', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7005260384655574022', 'uniqueId': 'diegoalejandropat3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7327286844337127429~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d9db916d&amp;x-expires=1760878800&amp;x-signature=UTlzcYsUIl8eOz9z6t%2FdExb2BLc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3057,18 +3058,18 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>AMAMOSSSS el contenido de Gabi</t>
+          <t>Amò este Alpina</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>45917.09577546296</v>
+        <v>45919.13483796296</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>02:17:55</t>
+          <t>03:14:10</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -3087,7 +3088,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550876642629944071', 'createTime': 1758075475, 'createTimeISO': '2025-09-17T02:17:55.000Z', 'text': 'AMAMOSSSS el contenido de Gabi', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7323823789984531462', 'uniqueId': 'chantal.thorin', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/5be5fbd7e28fb667d0d61e8de45fc752~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e5ebe652&amp;x-expires=1760792400&amp;x-signature=LQynWkhiDU1Z6GOYLeXjdz%2BD1gU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551633311488082696', 'createTime': 1758251650, 'createTimeISO': '2025-09-19T03:14:10.000Z', 'text': 'Amò este Alpina', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6955254769972806662', 'uniqueId': 'santiwhosthat', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/72ed639d278a53a7ee891f25034e0d1a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a5417f56&amp;x-expires=1760878800&amp;x-signature=6AM%2FA7zXc%2FWLWZjtoWTxbSpeAHQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3113,25 +3114,25 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lo emocionada que estoy por hacer parte del equipo no tiene nombre 😩</t>
+          <t>cuantos comentarios y reacciones para ganarme la nueva colección de Mochis de dinosaurios 🥺 (no me ignoren, ayuden personas a que lo vean🙏🏻)</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45917.05436342592</v>
+        <v>45922.03340277778</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>45917</v>
+        <v>45922</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>01:18:17</t>
+          <t>00:48:06</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
@@ -3143,7 +3144,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550861226680648468', 'createTime': 1758071897, 'createTimeISO': '2025-09-17T01:18:17.000Z', 'text': 'Lo emocionada que estoy por hacer parte del equipo no tiene nombre 😩', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6561143503132540934', 'uniqueId': 'maaaarirg', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7324826520122785798~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=202715fa&amp;x-expires=1760792400&amp;x-signature=%2Ftcy%2FBoNnWpm2e0brFs87eT8cZI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7552707780533863189', 'createTime': 1758502086, 'createTimeISO': '2025-09-22T00:48:06.000Z', 'text': 'cuantos comentarios y reacciones para ganarme la nueva colección de Mochis de dinosaurios 🥺 (no me ignoren, ayuden personas a que lo vean🙏🏻)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6915493889098187782', 'uniqueId': 'angel18mendoza', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/68f808039457cd87fd4d7b94e867d357~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=46c1cb32&amp;x-expires=1760878800&amp;x-signature=Sx30Yw1V1Zi2z5YYfgRV2jwg1zM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3169,22 +3170,22 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>pueden sacar en yogoyogolab lods puntos autorizados de oxxo para reclamar los mochisaurios plis</t>
+          <t>Buenisimo!!!!!</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>45917.87722222223</v>
+        <v>45919.87149305556</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>21:03:12</t>
+          <t>20:54:57</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -3199,7 +3200,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551166524197077767', 'createTime': 1758142992, 'createTimeISO': '2025-09-17T21:03:12.000Z', 'text': 'pueden sacar en yogoyogolab lods puntos autorizados de oxxo para reclamar los mochisaurios plis', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7283326063072642053', 'uniqueId': 'socorrito.lopez0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9007660a09caa09f7a749fc3a9a23c0e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=afa62f79&amp;x-expires=1760792400&amp;x-signature=3EFH80ImZ8k2JPNzAgF3PI0XFhE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551906649611830023', 'createTime': 1758315297, 'createTimeISO': '2025-09-19T20:54:57.000Z', 'text': 'Buenisimo!!!!!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7068293195050877957', 'uniqueId': 'mfzamarriego', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5891c8d97d65891a135a4f898bbe9dc6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3f5584b6&amp;x-expires=1760878800&amp;x-signature=MWB6ocNPC45NPVLzC783SxBVxVQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3225,22 +3226,22 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>¿Qué tipo de contrato tienen?</t>
+          <t>pueden sacar en yogoyogolab lods puntos autorizados de oxxo para reclamar los mochisaurios plis</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>45920.96097222222</v>
+        <v>45917.87722222223</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>45920</v>
+        <v>45917</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>23:03:48</t>
+          <t>21:03:12</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -3255,7 +3256,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7552310929883448084', 'createTime': 1758409428, 'createTimeISO': '2025-09-20T23:03:48.000Z', 'text': '¿Qué tipo de contrato tienen?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6856891169080443909', 'uniqueId': 'lourdesbarragan_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/e377e28c29d509541307260e66fb275d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ec110498&amp;x-expires=1760792400&amp;x-signature=oRz0fL%2FjykqgBxZ7YosGAzuHHYs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551166524197077767', 'createTime': 1758142992, 'createTimeISO': '2025-09-17T21:03:12.000Z', 'text': 'pueden sacar en yogoyogolab lods puntos autorizados de oxxo para reclamar los mochisaurios plis', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7283326063072642053', 'uniqueId': 'socorrito.lopez0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9007660a09caa09f7a749fc3a9a23c0e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5019def7&amp;x-expires=1760878800&amp;x-signature=jKOP7h0HV6Z7KAsIBHwm8CFTTC8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3281,25 +3282,25 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Gaby! Quiero ver cómo hacen el arequipe! Deberías hacer un tour por la planta!</t>
+          <t>¿Qué tipo de contrato tienen?</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>45917.58866898148</v>
+        <v>45920.96097222222</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>45917</v>
+        <v>45920</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>14:07:41</t>
+          <t>23:03:48</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
@@ -3311,7 +3312,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551059537588929298', 'createTime': 1758118061, 'createTimeISO': '2025-09-17T14:07:41.000Z', 'text': 'Gaby! Quiero ver cómo hacen el arequipe! Deberías hacer un tour por la planta!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6823366905291965446', 'uniqueId': 'jfelipegomez1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7329628384854736902~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2240b3fb&amp;x-expires=1760792400&amp;x-signature=ESbwrSxVjud27rTG%2FX3hUFAD018%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7552310929883448084', 'createTime': 1758409428, 'createTimeISO': '2025-09-20T23:03:48.000Z', 'text': '¿Qué tipo de contrato tienen?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6856891169080443909', 'uniqueId': 'lourdesbarragan_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/e377e28c29d509541307260e66fb275d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=75e7c347&amp;x-expires=1760878800&amp;x-signature=s08vR%2FgKJLya1n8J0uczaVA85D0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3337,22 +3338,22 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Mi sueño haciéndose realidad 🥰🥺</t>
+          <t>Gaby! Quiero ver cómo hacen el arequipe! Deberías hacer un tour por la planta!</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>45918.62016203703</v>
+        <v>45917.58866898148</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>14:53:02</t>
+          <t>14:07:41</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
         <v>1</v>
@@ -3367,7 +3368,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551442303657116436', 'createTime': 1758207182, 'createTimeISO': '2025-09-18T14:53:02.000Z', 'text': 'Mi sueño haciéndose realidad 🥰🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6788284872554497030', 'uniqueId': 'anirivera_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a6c6e77f0d746b65b48a78e1205c8c82~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f4d56309&amp;x-expires=1760792400&amp;x-signature=bMAnceZSWjyPexeHOtAg2im9vs4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551059537588929298', 'createTime': 1758118061, 'createTimeISO': '2025-09-17T14:07:41.000Z', 'text': 'Gaby! Quiero ver cómo hacen el arequipe! Deberías hacer un tour por la planta!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6823366905291965446', 'uniqueId': 'jfelipegomez1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7329628384854736902~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0de9949a&amp;x-expires=1760878800&amp;x-signature=eAyHnCXR3LjG5w2p5gpHFzhUabk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3393,23 +3394,22 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1ro
-alpina te amo!!</t>
+          <t>estando en etapa lectiva puedo aplicar</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>45916.98658564815</v>
+        <v>45926.77971064814</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>45916</v>
+        <v>45926</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>23:40:41</t>
+          <t>18:42:47</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550836019215958805', 'createTime': 1758066041, 'createTimeISO': '2025-09-16T23:40:41.000Z', 'text': '1ro\nalpina te amo!!', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452218782174446597', 'uniqueId': 'shidouxsae0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/984fcf004307773a189a7c8e9f5197ba~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=eb3953ea&amp;x-expires=1760792400&amp;x-signature=a%2BVJI%2FnLWIFvlAetRL4LN5eT6nU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7554470184620000018', 'createTime': 1758912167, 'createTimeISO': '2025-09-26T18:42:47.000Z', 'text': 'estando en etapa lectiva puedo aplicar', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6964937358190445574', 'uniqueId': 'daneicy8', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a6e6af884aceb8af9c72174f73167f68~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=893bb551&amp;x-expires=1760878800&amp;x-signature=qOrHsN2cEyUqV4SNMflw2waqKVs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550847978996859666', 'createTime': 1758068814, 'createTimeISO': '2025-09-17T00:26:54.000Z', 'text': 'Te amo me encanta Alpina 🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a0c7ceb2&amp;x-expires=1760792400&amp;x-signature=n8ULNXO7OSQPOUy1Ykxw4pMDmQc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550847978996859666', 'createTime': 1758068814, 'createTimeISO': '2025-09-17T00:26:54.000Z', 'text': 'Te amo me encanta Alpina 🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f3c8a5c7&amp;x-expires=1760878800&amp;x-signature=a%2FIWjCHEIyz2OrlNwCKg0zCFZCI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551486875396948744', 'createTime': 1758217558, 'createTimeISO': '2025-09-18T17:45:58.000Z', 'text': 'Estoy por graduarme de ingeniería industrial. Me encantaría hacer mis prácticas o trabajar en un futuro con ustedes. Me encanta la familia Alpina, creen que pueda hacer parte algún día? \U0001f979', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6817806087653164037', 'uniqueId': 'brandontarcila_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e6b11bf080b10cd0207666b99c05d31b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a8cb5b2c&amp;x-expires=1760792400&amp;x-signature=%2Byn26dVAJrxZ8yrVOnbiOR7lzA0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551486875396948744', 'createTime': 1758217558, 'createTimeISO': '2025-09-18T17:45:58.000Z', 'text': 'Estoy por graduarme de ingeniería industrial. Me encantaría hacer mis prácticas o trabajar en un futuro con ustedes. Me encanta la familia Alpina, creen que pueda hacer parte algún día? \U0001f979', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6817806087653164037', 'uniqueId': 'brandontarcila_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e6b11bf080b10cd0207666b99c05d31b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=adab62bd&amp;x-expires=1760878800&amp;x-signature=gWcFDM9MFXxyEhyDRltj3Ob8bxg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551840682764829458', 'createTime': 1758299933, 'createTimeISO': '2025-09-19T16:38:53.000Z', 'text': 'si estudio narrativas en medios digitales y audiovisuales puedo aplicar? 😭', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6885505605576377345', 'uniqueId': 'spaaaak_4.m', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7324800281223364610~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=82a035d3&amp;x-expires=1760792400&amp;x-signature=P0PJPXbHWlGEemV0Ix7KwQ0X3ZA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551840682764829458', 'createTime': 1758299933, 'createTimeISO': '2025-09-19T16:38:53.000Z', 'text': 'si estudio narrativas en medios digitales y audiovisuales puedo aplicar? 😭', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6885505605576377345', 'uniqueId': 'spaaaak_4.m', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7324800281223364610~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=aaf75869&amp;x-expires=1760878800&amp;x-signature=0Ihk8m743fU8LHlxovanjiyBmZo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3618,18 +3618,18 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Yo quierooooo✨</t>
+          <t>Cuando comienzan a dar respuesta si ya apliqué?🥹</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>45917.00403935185</v>
+        <v>45916.99778935185</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>45917</v>
+        <v>45916</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>00:05:49</t>
+          <t>23:56:49</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550842534529860370', 'createTime': 1758067549, 'createTimeISO': '2025-09-17T00:05:49.000Z', 'text': 'Yo quierooooo✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781227104677250053', 'uniqueId': 'lauraleguizamou', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/531608b6e17cc4fc3195774b040b1421~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2c9be332&amp;x-expires=1760792400&amp;x-signature=fgAT0SoYj3Ife03SVPOmLV%2BCICA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550840242002150162', 'createTime': 1758067009, 'createTimeISO': '2025-09-16T23:56:49.000Z', 'text': 'Cuando comienzan a dar respuesta si ya apliqué?\U0001f979', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6774446029552354309', 'uniqueId': 'its.bri_ugc', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/dfeff60de882b1c199e34cb77f9557be~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6b325bad&amp;x-expires=1760878800&amp;x-signature=jlHKOrr0kMRcRgJQJXXs3%2Bc2d4o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3674,18 +3674,18 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>me enteré que ya subieron nuevo video 😍</t>
+          <t>Mi sueño haciéndose realidad 🥰🥺</t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>45917.08885416666</v>
+        <v>45918.62016203703</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>02:07:57</t>
+          <t>14:53:02</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -3704,7 +3704,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550874055755203345', 'createTime': 1758074877, 'createTimeISO': '2025-09-17T02:07:57.000Z', 'text': 'me enteré que ya subieron nuevo video 😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e7109759&amp;x-expires=1760792400&amp;x-signature=6np5PsSGRsgOWrfycwtS1A%2F9FUg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551442303657116436', 'createTime': 1758207182, 'createTimeISO': '2025-09-18T14:53:02.000Z', 'text': 'Mi sueño haciéndose realidad 🥰🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6788284872554497030', 'uniqueId': 'anirivera_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a6c6e77f0d746b65b48a78e1205c8c82~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0c22f29a&amp;x-expires=1760878800&amp;x-signature=%2BjWhqMhPBYtjh27pEcUddEvYkvk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3730,18 +3730,18 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Cuando comienzan a dar respuesta si ya apliqué?🥹</t>
+          <t>Yo quierooooo✨</t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
-        <v>45916.99778935185</v>
+        <v>45917.00403935185</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>23:56:49</t>
+          <t>00:05:49</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550840242002150162', 'createTime': 1758067009, 'createTimeISO': '2025-09-16T23:56:49.000Z', 'text': 'Cuando comienzan a dar respuesta si ya apliqué?\U0001f979', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6774446029552354309', 'uniqueId': 'its.bri_ugc', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/dfeff60de882b1c199e34cb77f9557be~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2fec3537&amp;x-expires=1760792400&amp;x-signature=IfMJS39vH9bsSIZ65ba3c4IxwFM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550842534529860370', 'createTime': 1758067549, 'createTimeISO': '2025-09-17T00:05:49.000Z', 'text': 'Yo quierooooo✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781227104677250053', 'uniqueId': 'lauraleguizamou', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/531608b6e17cc4fc3195774b040b1421~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b4a90358&amp;x-expires=1760878800&amp;x-signature=qptWO0M8vKELslagJXjI1g9s0dI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3786,25 +3786,25 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Me salió tarde el vídeo 😟 yo quiero 🥹🙏🏻</t>
+          <t>me enteré que ya subieron nuevo video 😍</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
-        <v>45941.61577546296</v>
+        <v>45917.08885416666</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>45941</v>
+        <v>45917</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>14:46:43</t>
+          <t>02:07:57</t>
         </is>
       </c>
       <c r="J60" t="n">
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7559975652176577288', 'createTime': 1760194003, 'createTimeISO': '2025-10-11T14:46:43.000Z', 'text': 'Me salió tarde el vídeo 😟 yo quiero \U0001f979🙏🏻', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6670638394765033478', 'uniqueId': 'lindanarino', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/873e52b20a774b09b73f0f0d565e6959~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ac712231&amp;x-expires=1760792400&amp;x-signature=IWlCTaeFz2MVP3THnWEuGLFhQx4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550874055755203345', 'createTime': 1758074877, 'createTimeISO': '2025-09-17T02:07:57.000Z', 'text': 'me enteré que ya subieron nuevo video 😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3c4d6890&amp;x-expires=1760878800&amp;x-signature=Ka8%2BkswozclbZ%2FKa4ibdrqreD18%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3842,18 +3842,18 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>hola alpina esta es mi colección de Mochis no es mucha molestia si me envías una caja de Mochisaurios gracias 😃😉</t>
+          <t>Me salió tarde el vídeo 😟 yo quiero 🥹🙏🏻</t>
         </is>
       </c>
       <c r="G61" s="2" t="n">
-        <v>45931.97782407407</v>
+        <v>45941.61577546296</v>
       </c>
       <c r="H61" s="3" t="n">
-        <v>45931</v>
+        <v>45941</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>23:28:04</t>
+          <t>14:46:43</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556399100905341703', 'createTime': 1759361284, 'createTimeISO': '2025-10-01T23:28:04.000Z', 'text': 'hola alpina esta es mi colección de Mochis no es mucha molestia si me envías una caja de Mochisaurios gracias 😃😉', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7531368579791438866', 'uniqueId': 'damian.smith.mora', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/162f5e8630c9e45cdeb3d8133dfd3630~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=94cbe052&amp;x-expires=1760792400&amp;x-signature=v9IJnQvpAskE5CuElo76Tgu6cJs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7559975652176577288', 'createTime': 1760194003, 'createTimeISO': '2025-10-11T14:46:43.000Z', 'text': 'Me salió tarde el vídeo 😟 yo quiero \U0001f979🙏🏻', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6670638394765033478', 'uniqueId': 'lindanarino', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/873e52b20a774b09b73f0f0d565e6959~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e1f8a8f7&amp;x-expires=1760878800&amp;x-signature=HnMbUMRHzgSxtybZLwciiUn16z0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3898,18 +3898,18 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>👍</t>
+          <t>hola alpina esta es mi colección de Mochis no es mucha molestia si me envías una caja de Mochisaurios gracias 😃😉</t>
         </is>
       </c>
       <c r="G62" s="2" t="n">
-        <v>45936.8365625</v>
+        <v>45931.97782407407</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>45936</v>
+        <v>45931</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>20:04:39</t>
+          <t>23:28:04</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7558202100607091476', 'createTime': 1759781079, 'createTimeISO': '2025-10-06T20:04:39.000Z', 'text': '👍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452056190890116114', 'uniqueId': 'sabeldani10', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4b19cfb39961d6a4eec67ddf6a71ac66~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8ece8cc4&amp;x-expires=1760792400&amp;x-signature=OI3gYE61RpDXV4qlRAjLskmsofE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556399100905341703', 'createTime': 1759361284, 'createTimeISO': '2025-10-01T23:28:04.000Z', 'text': 'hola alpina esta es mi colección de Mochis no es mucha molestia si me envías una caja de Mochisaurios gracias 😃😉', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7531368579791438866', 'uniqueId': 'damian.smith.mora', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/162f5e8630c9e45cdeb3d8133dfd3630~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5ef031c6&amp;x-expires=1760878800&amp;x-signature=zu6wIV%2FQYgw%2FqD61guTBk%2FrxohA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3954,18 +3954,18 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>🫡🫡🫡</t>
+          <t>👍</t>
         </is>
       </c>
       <c r="G63" s="2" t="n">
-        <v>45917.00991898148</v>
+        <v>45936.8365625</v>
       </c>
       <c r="H63" s="3" t="n">
-        <v>45917</v>
+        <v>45936</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>00:14:17</t>
+          <t>20:04:39</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -3984,7 +3984,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550844710467732242', 'createTime': 1758068057, 'createTimeISO': '2025-09-17T00:14:17.000Z', 'text': '\U0001fae1\U0001fae1\U0001fae1', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7323823789984531462', 'uniqueId': 'chantal.thorin', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/5be5fbd7e28fb667d0d61e8de45fc752~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e5ebe652&amp;x-expires=1760792400&amp;x-signature=LQynWkhiDU1Z6GOYLeXjdz%2BD1gU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7558202100607091476', 'createTime': 1759781079, 'createTimeISO': '2025-10-06T20:04:39.000Z', 'text': '👍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452056190890116114', 'uniqueId': 'sabeldani10', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4b19cfb39961d6a4eec67ddf6a71ac66~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=320d0e3f&amp;x-expires=1760878800&amp;x-signature=vwBs2ZIMFqLKGlPpDNrR%2F7mV6cY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4010,18 +4010,18 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>@Chantal Thorin 😂</t>
+          <t>🫡🫡🫡</t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
-        <v>45917.01428240741</v>
+        <v>45917.00991898148</v>
       </c>
       <c r="H64" s="3" t="n">
         <v>45917</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>00:20:34</t>
+          <t>00:14:17</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550846347324130055', 'createTime': 1758068434, 'createTimeISO': '2025-09-17T00:20:34.000Z', 'text': '@Chantal Thorin 😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6788904373575074822', 'uniqueId': 'juanolmos023', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/715053c66c983c3c1c50e1eb7df0c471~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e7b904e0&amp;x-expires=1760792400&amp;x-signature=810ILbtviBzCJ63rEN%2FH7qamD7c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@Chantal Thorin'], 'detailedMentions': [{'userId': '7323823789984531462', 'nickName': 'Chantal Thorin', 'profileUrl': 'https://www.tiktok.com/@7323823789984531462', 'secUid': 'MS4wLjABAAAAeVzy1YXMwyrURUZkWFufcDOQpRrR-rZvvbSNYGZdeSPQL7wiKvQELMaPx312In6i'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550844710467732242', 'createTime': 1758068057, 'createTimeISO': '2025-09-17T00:14:17.000Z', 'text': '\U0001fae1\U0001fae1\U0001fae1', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7323823789984531462', 'uniqueId': 'chantal.thorin', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/5be5fbd7e28fb667d0d61e8de45fc752~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f8022896&amp;x-expires=1760878800&amp;x-signature=Gxcl54eYsW79hhltsu3oMk6Zajo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4066,18 +4066,18 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Buen día, aceptan pasantes en área administrativa?😳</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G65" s="2" t="n">
-        <v>45924.54788194445</v>
+        <v>45932.00375</v>
       </c>
       <c r="H65" s="3" t="n">
-        <v>45924</v>
+        <v>45932</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>13:08:57</t>
+          <t>00:05:24</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7553641991944602386', 'createTime': 1758719337, 'createTimeISO': '2025-09-24T13:08:57.000Z', 'text': 'Buen día, aceptan pasantes en área administrativa?😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6819016661686453254', 'uniqueId': 'scatalina15', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/65616505ecd12a1b5dd469d79ec8a719~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0458f985&amp;x-expires=1760792400&amp;x-signature=L8kir7lRxg71g21TwYceQrxIbAs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556408658076435218', 'createTime': 1759363524, 'createTimeISO': '2025-10-02T00:05:24.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7280259132014806022', 'uniqueId': 'matilde.guerrero3', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7280259483488665606~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=009cac37&amp;x-expires=1760878800&amp;x-signature=VB9nxgB97jf9uuvvAw1Nbwir150%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4122,18 +4122,18 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>@mochis_yogoyogo💗 ya quiero mochisss aaaa está es mi cuenta donde haré unboxings de los dinomochis y más cosas de alpina</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G66" s="2" t="n">
-        <v>45920.12986111111</v>
+        <v>45933.28815972222</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>45920</v>
+        <v>45933</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>03:07:00</t>
+          <t>06:54:57</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7552002528465699592', 'createTime': 1758337620, 'createTimeISO': '2025-09-20T03:07:00.000Z', 'text': '@mochis_yogoyogo💗 ya quiero mochisss aaaa está es mi cuenta donde haré unboxings de los dinomochis y más cosas de alpina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7382728939964548101', 'uniqueId': 'eve_watajai', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c9212056428da8609f48a989cd6e9170~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ee8eee68&amp;x-expires=1760792400&amp;x-signature=0v9AYHpUS%2FlbXDoZWrImMpYbTdg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@mochis_yogoyogo💗'], 'detailedMentions': [{'userId': '7469144855873651730', 'nickName': 'mochis_yogoyogo💗', 'profileUrl': 'https://www.tiktok.com/@7469144855873651730', 'secUid': 'MS4wLjABAAAAfnDzVmGgNedG0asJ6YoXVgPkaL-69fpJq_hPO_uLHcj8SYDqMhAidX6vu-pf-BmB'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556885364948173586', 'createTime': 1759474497, 'createTimeISO': '2025-10-03T06:54:57.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7444383176737113144', 'uniqueId': 'lirasa91', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=e8a4f87c&amp;x-expires=1760878800&amp;x-signature=5qwlL0N72bHwShI4jCxYXbGPJe8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4178,18 +4178,18 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>@Chantal Thorin 😂</t>
         </is>
       </c>
       <c r="G67" s="2" t="n">
-        <v>45932.00375</v>
+        <v>45917.01428240741</v>
       </c>
       <c r="H67" s="3" t="n">
-        <v>45932</v>
+        <v>45917</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>00:05:24</t>
+          <t>00:20:34</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556408658076435218', 'createTime': 1759363524, 'createTimeISO': '2025-10-02T00:05:24.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7280259132014806022', 'uniqueId': 'matilde.guerrero3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7280259483488665606~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0efd75af&amp;x-expires=1760792400&amp;x-signature=MESPjNndnjUpdtDs0EuCglPflxQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550846347324130055', 'createTime': 1758068434, 'createTimeISO': '2025-09-17T00:20:34.000Z', 'text': '@Chantal Thorin 😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6788904373575074822', 'uniqueId': 'juanolmos023', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/715053c66c983c3c1c50e1eb7df0c471~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b8b1343f&amp;x-expires=1760878800&amp;x-signature=Oxwm3sZMTXA3NSCGoGgXNLt3aV0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@Chantal Thorin'], 'detailedMentions': [{'userId': '7323823789984531462', 'nickName': 'Chantal Thorin', 'profileUrl': 'https://www.tiktok.com/@7323823789984531462', 'secUid': 'MS4wLjABAAAAeVzy1YXMwyrURUZkWFufcDOQpRrR-rZvvbSNYGZdeSPQL7wiKvQELMaPx312In6i'}]}</t>
         </is>
       </c>
     </row>
@@ -4234,18 +4234,18 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>@mochis_yogoyogo💗 ya quiero mochisss aaaa está es mi cuenta donde haré unboxings de los dinomochis y más cosas de alpina</t>
         </is>
       </c>
       <c r="G68" s="2" t="n">
-        <v>45933.28815972222</v>
+        <v>45920.12986111111</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>45933</v>
+        <v>45920</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>06:54:57</t>
+          <t>03:07:00</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556885364948173586', 'createTime': 1759474497, 'createTimeISO': '2025-10-03T06:54:57.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7444383176737113144', 'uniqueId': 'lirasa91', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=12c8a874&amp;x-expires=1760792400&amp;x-signature=N2xDFlt5W4HYE8Yto6DmraBNX0s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=my', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7552002528465699592', 'createTime': 1758337620, 'createTimeISO': '2025-09-20T03:07:00.000Z', 'text': '@mochis_yogoyogo💗 ya quiero mochisss aaaa está es mi cuenta donde haré unboxings de los dinomochis y más cosas de alpina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7382728939964548101', 'uniqueId': 'eve_watajai', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c9212056428da8609f48a989cd6e9170~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=31fe8a17&amp;x-expires=1760878800&amp;x-signature=GDjFE5h3h8xqIPi6Nih2RU3fitc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@mochis_yogoyogo💗'], 'detailedMentions': [{'userId': '7469144855873651730', 'nickName': 'mochis_yogoyogo💗', 'profileUrl': 'https://www.tiktok.com/@7469144855873651730', 'secUid': 'MS4wLjABAAAAfnDzVmGgNedG0asJ6YoXVgPkaL-69fpJq_hPO_uLHcj8SYDqMhAidX6vu-pf-BmB'}]}</t>
         </is>
       </c>
     </row>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7555185101043680018', 'createTime': 1759078618, 'createTimeISO': '2025-09-28T16:56:58.000Z', 'text': '😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7475879249447666705', 'uniqueId': 'al454329', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/00eba74212b2c117219704065444145b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=46b9c308&amp;x-expires=1760792400&amp;x-signature=VV7vBTEmOtkeHQlmceaPVVMtK1c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7555185101043680018', 'createTime': 1759078618, 'createTimeISO': '2025-09-28T16:56:58.000Z', 'text': '😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7475879249447666705', 'uniqueId': 'al454329', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/00eba74212b2c117219704065444145b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b9c3e091&amp;x-expires=1760878800&amp;x-signature=tezKHvHaw3SuY9aP9hb5hRPR2CY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4346,18 +4346,18 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>QUE VUELVA ALPILITRO 🙌🙏</t>
+          <t>Amooooo los mochisssssss</t>
         </is>
       </c>
       <c r="G70" s="2" t="n">
-        <v>45923.78733796296</v>
+        <v>45919.10697916667</v>
       </c>
       <c r="H70" s="3" t="n">
-        <v>45923</v>
+        <v>45919</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>18:53:46</t>
+          <t>02:34:03</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -4376,7 +4376,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7553359733933458194', 'createTime': 1758653626, 'createTimeISO': '2025-09-23T18:53:46.000Z', 'text': 'QUE VUELVA ALPILITRO 🙌🙏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7493133555746489351', 'uniqueId': 'andreykdy3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ffdb73d8f0b1bc3e2a3bf54e4492d457~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=09c3bad4&amp;x-expires=1760792400&amp;x-signature=L5liHKAwpI9qU5AOUXWUBca4VF4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551622936564073224', 'createTime': 1758249243, 'createTimeISO': '2025-09-19T02:34:03.000Z', 'text': 'Amooooo los mochisssssss', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6775204820329579525', 'uniqueId': 'danivalenciaa', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/16f06ae19c05a3c06f041a0a4078e97e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8cd7a69d&amp;x-expires=1760878800&amp;x-signature=5147wTbFs6Zplg0g58xsv%2Fslfy0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4402,18 +4402,18 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>vuelvan a poner a la banda de gatos de alpin</t>
+          <t>QUE VUELVA ALPILITRO 🙌🙏</t>
         </is>
       </c>
       <c r="G71" s="2" t="n">
-        <v>45932.98778935185</v>
+        <v>45923.78733796296</v>
       </c>
       <c r="H71" s="3" t="n">
-        <v>45932</v>
+        <v>45923</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>23:42:25</t>
+          <t>18:53:46</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -4432,7 +4432,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556773829139677960', 'createTime': 1759448545, 'createTimeISO': '2025-10-02T23:42:25.000Z', 'text': 'vuelvan a poner a la banda de gatos de alpin', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7338967674703905797', 'uniqueId': 'xa.m25', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f18aaf30609d233d93d48aaec98bdc23~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6ede95d4&amp;x-expires=1760792400&amp;x-signature=Wdx3xtMD6b0i6J9l%2FUThfAEBnL8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7553359733933458194', 'createTime': 1758653626, 'createTimeISO': '2025-09-23T18:53:46.000Z', 'text': 'QUE VUELVA ALPILITRO 🙌🙏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7493133555746489351', 'uniqueId': 'andreykdy3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ffdb73d8f0b1bc3e2a3bf54e4492d457~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a3dbd3ac&amp;x-expires=1760878800&amp;x-signature=CqlZZ6330aCgchTthcffOb%2BcZ0s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4458,18 +4458,18 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Amooooo los mochisssssss</t>
+          <t>vuelvan a poner a la banda de gatos de alpin</t>
         </is>
       </c>
       <c r="G72" s="2" t="n">
-        <v>45919.10697916667</v>
+        <v>45932.98778935185</v>
       </c>
       <c r="H72" s="3" t="n">
-        <v>45919</v>
+        <v>45932</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>02:34:03</t>
+          <t>23:42:25</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551622936564073224', 'createTime': 1758249243, 'createTimeISO': '2025-09-19T02:34:03.000Z', 'text': 'Amooooo los mochisssssss', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6775204820329579525', 'uniqueId': 'danivalenciaa', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/16f06ae19c05a3c06f041a0a4078e97e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=99a630ad&amp;x-expires=1760792400&amp;x-signature=VyegbNt3gT6wdDvUzH1QushHHDk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556773829139677960', 'createTime': 1759448545, 'createTimeISO': '2025-10-02T23:42:25.000Z', 'text': 'vuelvan a poner a la banda de gatos de alpin', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7338967674703905797', 'uniqueId': 'xa.m25', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f18aaf30609d233d93d48aaec98bdc23~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=013336bc&amp;x-expires=1760878800&amp;x-signature=fQfTazprlcPjcpohTmizfdv3rbU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4544,7 +4544,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551229830001885973', 'createTime': 1758157724, 'createTimeISO': '2025-09-18T01:08:44.000Z', 'text': 'Hmmm avena saladaaa gabsss?', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6819089554679940101', 'uniqueId': 'julianavivasr03', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f3051c41eba0cedcc184a155cdd5fe57~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=47a3e0c2&amp;x-expires=1760792400&amp;x-signature=nnFgS8Vz9hWDF6zItzTpy%2BwptJg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551229830001885973', 'createTime': 1758157724, 'createTimeISO': '2025-09-18T01:08:44.000Z', 'text': 'Hmmm avena saladaaa gabsss?', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6819089554679940101', 'uniqueId': 'julianavivasr03', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f3051c41eba0cedcc184a155cdd5fe57~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1602472f&amp;x-expires=1760878800&amp;x-signature=t%2Bjs1IKdoN0%2FQW%2FTRGUT%2FbTtW5k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4570,25 +4570,25 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>quiero parte 2💙💙💙</t>
+          <t>jajajajajajajjajajajajajajaja eara miy bueno</t>
         </is>
       </c>
       <c r="G74" s="2" t="n">
-        <v>45918.02324074074</v>
+        <v>45918.76694444445</v>
       </c>
       <c r="H74" s="3" t="n">
         <v>45918</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>00:33:28</t>
+          <t>18:24:24</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L74" t="b">
         <v>0</v>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551220050720670471', 'createTime': 1758155608, 'createTimeISO': '2025-09-18T00:33:28.000Z', 'text': 'quiero parte 2💙💙💙', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7467024639018468360', 'uniqueId': 'leidy_y22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/170467e038e889966ba7de820632ba9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=369420ea&amp;x-expires=1760792400&amp;x-signature=24H%2Bhfue4LTrZJbrM88yHNhOPJM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551496749665649415', 'createTime': 1758219864, 'createTimeISO': '2025-09-18T18:24:24.000Z', 'text': 'jajajajajajajjajajajajajajaja eara miy bueno', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '7337124256608732166', 'uniqueId': 'nathalye.cruz', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7337124473063407621~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d65358ac&amp;x-expires=1760878800&amp;x-signature=TZBao0DYEHu6r7%2BMHNWGpT6mSo4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4626,25 +4626,25 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>jajajajajajajjajajajajajajaja eara miy bueno</t>
+          <t>quiero parte 2💙💙💙</t>
         </is>
       </c>
       <c r="G75" s="2" t="n">
-        <v>45918.76694444445</v>
+        <v>45918.02324074074</v>
       </c>
       <c r="H75" s="3" t="n">
         <v>45918</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>18:24:24</t>
+          <t>00:33:28</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K75" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L75" t="b">
         <v>0</v>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551496749665649415', 'createTime': 1758219864, 'createTimeISO': '2025-09-18T18:24:24.000Z', 'text': 'jajajajajajajjajajajajajajaja eara miy bueno', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '7337124256608732166', 'uniqueId': 'nathalye.cruz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7337124473063407621~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0dff0a18&amp;x-expires=1760792400&amp;x-signature=mEW%2FwGwD282cZlvOLnusM8j8l30%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551220050720670471', 'createTime': 1758155608, 'createTimeISO': '2025-09-18T00:33:28.000Z', 'text': 'quiero parte 2💙💙💙', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7467024639018468360', 'uniqueId': 'leidy_y22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/170467e038e889966ba7de820632ba9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7ae44a7a&amp;x-expires=1760878800&amp;x-signature=mLowcAa5O7IL19oxPbWYSXx5VMc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551629960492106503', 'createTime': 1758250879, 'createTimeISO': '2025-09-19T03:01:19.000Z', 'text': 'chevre el juego', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7428447431131857925', 'uniqueId': 'dario.bermudez.me', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e3f68c187a5bb898072670c79697373f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bfd7d2db&amp;x-expires=1760792400&amp;x-signature=zzP%2Faa9iSc4h%2BwObPEpsXoyoTm0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551629960492106503', 'createTime': 1758250879, 'createTimeISO': '2025-09-19T03:01:19.000Z', 'text': 'chevre el juego', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7428447431131857925', 'uniqueId': 'dario.bermudez.me', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e3f68c187a5bb898072670c79697373f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fb8da766&amp;x-expires=1760878800&amp;x-signature=59%2Blj3CBCcqsejs3W3qagJBzk0M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551259447134585631', 'createTime': 1758164610, 'createTimeISO': '2025-09-18T03:03:30.000Z', 'text': 'Viene en varios sabores?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '125087857735528448', 'uniqueId': 'camilocc3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-useast8-avt-0068-tx2/24fcb4fdd0b5e8275182d605c3f58355~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=81b6fb65&amp;x-expires=1760792400&amp;x-signature=iMorL0cywKdV59YHuOiQKX2uBKM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551259447134585631', 'createTime': 1758164610, 'createTimeISO': '2025-09-18T03:03:30.000Z', 'text': 'Viene en varios sabores?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '125087857735528448', 'uniqueId': 'camilocc3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-useast8-avt-0068-tx2/24fcb4fdd0b5e8275182d605c3f58355~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d69efb2f&amp;x-expires=1760878800&amp;x-signature=q70vMEtazV6QGHQECFfuH%2FCX6vE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4824,7 +4824,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551229700225778453', 'createTime': 1758157689, 'createTimeISO': '2025-09-18T01:08:09.000Z', 'text': 'Jajajjaajajajjaa buenísimo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6819089554679940101', 'uniqueId': 'julianavivasr03', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f3051c41eba0cedcc184a155cdd5fe57~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=47a3e0c2&amp;x-expires=1760792400&amp;x-signature=nnFgS8Vz9hWDF6zItzTpy%2BwptJg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551229700225778453', 'createTime': 1758157689, 'createTimeISO': '2025-09-18T01:08:09.000Z', 'text': 'Jajajjaajajajjaa buenísimo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6819089554679940101', 'uniqueId': 'julianavivasr03', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f3051c41eba0cedcc184a155cdd5fe57~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1602472f&amp;x-expires=1760878800&amp;x-signature=t%2Bjs1IKdoN0%2FQW%2FTRGUT%2FbTtW5k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551227674766607120', 'createTime': 1758157221, 'createTimeISO': '2025-09-18T01:00:21.000Z', 'text': '', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bed7b7af&amp;x-expires=1760792400&amp;x-signature=f%2FNAfVih6%2FUkGAJ%2BorgUEfpId%2Bg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551227674766607120', 'createTime': 1758157221, 'createTimeISO': '2025-09-18T01:00:21.000Z', 'text': '', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3c4d6890&amp;x-expires=1760878800&amp;x-signature=Ka8%2BkswozclbZ%2FKa4ibdrqreD18%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551217905787978504', 'createTime': 1758155356, 'createTimeISO': '2025-09-18T00:29:16.000Z', 'text': '✨✨', 'diggCount': 2, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6933232569349653510', 'uniqueId': 'mariangel_alzate01', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e6bab063f1c64d97abedc28d75951cd7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ec9392e4&amp;x-expires=1760792400&amp;x-signature=m5o7Db6F7EhN6KL8Eser82wEwAo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551217905787978504', 'createTime': 1758155356, 'createTimeISO': '2025-09-18T00:29:16.000Z', 'text': '✨✨', 'diggCount': 2, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6933232569349653510', 'uniqueId': 'mariangel_alzate01', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e6bab063f1c64d97abedc28d75951cd7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=840ca331&amp;x-expires=1760878800&amp;x-signature=eoArXo%2FvvN9E7QpHU1piQ9hOM7Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551220042781573895', 'createTime': 1758155443, 'createTimeISO': '2025-09-18T00:30:43.000Z', 'text': '💙💙💙', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7503357568275285010', 'uniqueId': 'mara.alejandra.va13', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b0e9c531aa12326c2c39b489de39faaf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a1250133&amp;x-expires=1760792400&amp;x-signature=jGWJfLaVwL%2F62V%2FtDde43ZP4uU8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551220042781573895', 'createTime': 1758155443, 'createTimeISO': '2025-09-18T00:30:43.000Z', 'text': '💙💙💙', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7503357568275285010', 'uniqueId': 'mara.alejandra.va13', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b0e9c531aa12326c2c39b489de39faaf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=36a6830b&amp;x-expires=1760878800&amp;x-signature=nJMvVydrPXu3NZ9DD79pL7m9Sjo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5014,18 +5014,18 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>💗</t>
         </is>
       </c>
       <c r="G82" s="2" t="n">
-        <v>45933.99601851852</v>
+        <v>45928.03357638889</v>
       </c>
       <c r="H82" s="3" t="n">
-        <v>45933</v>
+        <v>45928</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>23:54:16</t>
+          <t>00:48:21</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7557148031993807634', 'createTime': 1759535656, 'createTimeISO': '2025-10-03T23:54:16.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6927611184364356614', 'uniqueId': 'user0hhptpeva0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f1b330bd&amp;x-expires=1760792400&amp;x-signature=tpRRe0F49pqOeveDyRFCZVohWMA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7554935448256398088', 'createTime': 1759020501, 'createTimeISO': '2025-09-28T00:48:21.000Z', 'text': '💗', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452411908450108422', 'uniqueId': 'unatalgaby_17', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d31bb8b63795296e53c4901e56663b5d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2528b4fb&amp;x-expires=1760878800&amp;x-signature=NMlsI0JzGe0ifXsVX8Su%2B%2BD6N4s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7553402143257854727', 'createTime': 1758663504, 'createTimeISO': '2025-09-23T21:38:24.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6979791991334077446', 'uniqueId': 'lala_garzon0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/54f52760d8466c8575be7ac4ca3c5627~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=af7df104&amp;x-expires=1760792400&amp;x-signature=j7pLbCq2SeKmunDQmp1TVCmSOGg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7553402143257854727', 'createTime': 1758663504, 'createTimeISO': '2025-09-23T21:38:24.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6979791991334077446', 'uniqueId': 'lala_garzon0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/54f52760d8466c8575be7ac4ca3c5627~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4430c559&amp;x-expires=1760878800&amp;x-signature=cqNCjzRNfBAzaH8gZSEBfmTIFwg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5126,18 +5126,18 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>💗</t>
+          <t>☺️☺️☺</t>
         </is>
       </c>
       <c r="G84" s="2" t="n">
-        <v>45928.03357638889</v>
+        <v>45933.62277777777</v>
       </c>
       <c r="H84" s="3" t="n">
-        <v>45928</v>
+        <v>45933</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>00:48:21</t>
+          <t>14:56:48</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -5156,7 +5156,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7554935448256398088', 'createTime': 1759020501, 'createTimeISO': '2025-09-28T00:48:21.000Z', 'text': '💗', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452411908450108422', 'uniqueId': 'unatalgaby_17', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d31bb8b63795296e53c4901e56663b5d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=76008fd3&amp;x-expires=1760792400&amp;x-signature=6M%2Bb6y2pdqmiZV1F%2F3xAmBNFGcY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7557009575929938696', 'createTime': 1759503408, 'createTimeISO': '2025-10-03T14:56:48.000Z', 'text': '☺️☺️☺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808331911279903750', 'uniqueId': 'aleja.cardenas', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ae26428fddeb4cb0c608c71af324941d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b14c2970&amp;x-expires=1760878800&amp;x-signature=kxXNMe8jU2J4MyQENN%2BexqKiFKU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5182,18 +5182,18 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>☺️☺️☺</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G85" s="2" t="n">
-        <v>45933.62277777777</v>
+        <v>45933.99601851852</v>
       </c>
       <c r="H85" s="3" t="n">
         <v>45933</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>14:56:48</t>
+          <t>23:54:16</t>
         </is>
       </c>
       <c r="J85" t="n">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7557009575929938696', 'createTime': 1759503408, 'createTimeISO': '2025-10-03T14:56:48.000Z', 'text': '☺️☺️☺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808331911279903750', 'uniqueId': 'aleja.cardenas', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ae26428fddeb4cb0c608c71af324941d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8bfbd121&amp;x-expires=1760792400&amp;x-signature=NPTLyCYpUZV%2FfXTa0Q4nrd4p57c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7557148031993807634', 'createTime': 1759535656, 'createTimeISO': '2025-10-03T23:54:16.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6927611184364356614', 'uniqueId': 'user0hhptpeva0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6b580be8&amp;x-expires=1760878800&amp;x-signature=FnV432vZGdh15k9rP2O%2BKbRKess%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7552707432578876180', 'createTime': 1758502001, 'createTimeISO': '2025-09-22T00:46:41.000Z', 'text': '@Alpina 🐮 cuantos comentarios y reacciones y me ayudan a completar la colección de Mochis e ilumimochis (ayuden gente a que lo vean🥺)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6915493889098187782', 'uniqueId': 'angel18mendoza', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/68f808039457cd87fd4d7b94e867d357~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=428eab0b&amp;x-expires=1760792400&amp;x-signature=96Qy0NvAbx6SlAcsAOfGzGiF13Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7552707432578876180', 'createTime': 1758502001, 'createTimeISO': '2025-09-22T00:46:41.000Z', 'text': '@Alpina 🐮 cuantos comentarios y reacciones y me ayudan a completar la colección de Mochis e ilumimochis (ayuden gente a que lo vean🥺)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6915493889098187782', 'uniqueId': 'angel18mendoza', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/68f808039457cd87fd4d7b94e867d357~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=46c1cb32&amp;x-expires=1760878800&amp;x-signature=Sx30Yw1V1Zi2z5YYfgRV2jwg1zM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
         </is>
       </c>
     </row>
@@ -5324,7 +5324,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551955913683682055', 'createTime': 1758326771, 'createTimeISO': '2025-09-20T00:06:11.000Z', 'text': 'Súper aprobado jajajaja', 'diggCount': 32, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6774446029552354309', 'uniqueId': 'its.bri_ugc', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/dfeff60de882b1c199e34cb77f9557be~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=f5099118&amp;x-expires=1760792400&amp;x-signature=%2FyDEOUuc8puxMUn4REBi0SXYni0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551955913683682055', 'createTime': 1758326771, 'createTimeISO': '2025-09-20T00:06:11.000Z', 'text': 'Súper aprobado jajajaja', 'diggCount': 32, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6774446029552354309', 'uniqueId': 'its.bri_ugc', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/dfeff60de882b1c199e34cb77f9557be~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a00e437d&amp;x-expires=1760878800&amp;x-signature=E1PoS8%2BfyntPojYyrRhkT%2FyIj2Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5350,22 +5350,22 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Mi primer mandato! Ajajjaa toda dictadora 😂😂</t>
+          <t>ME ENCANTA✨✨</t>
         </is>
       </c>
       <c r="G88" s="2" t="n">
-        <v>45921.60706018518</v>
+        <v>45920.06896990741</v>
       </c>
       <c r="H88" s="3" t="n">
-        <v>45921</v>
+        <v>45920</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>14:34:10</t>
+          <t>01:39:19</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K88" t="n">
         <v>1</v>
@@ -5380,7 +5380,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552550716473639700', 'createTime': 1758465250, 'createTimeISO': '2025-09-21T14:34:10.000Z', 'text': 'Mi primer mandato! Ajajjaa toda dictadora 😂😂', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7127494140724216838', 'uniqueId': 'marlinq23', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7127494903172923398~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=57c91993&amp;x-expires=1760792400&amp;x-signature=qL7MgpSVy%2BpvHLiyIByvtsL5Dzg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551979924456211207', 'createTime': 1758332359, 'createTimeISO': '2025-09-20T01:39:19.000Z', 'text': 'ME ENCANTA✨✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=5fcd192d&amp;x-expires=1760878800&amp;x-signature=MhUGGBU6cnuL0ORA6CZLp%2B3VaxM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5406,22 +5406,22 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>amo este muuuuuuundoo😏</t>
+          <t>Mi primer mandato! Ajajjaa toda dictadora 😂😂</t>
         </is>
       </c>
       <c r="G89" s="2" t="n">
-        <v>45920.07972222222</v>
+        <v>45921.60706018518</v>
       </c>
       <c r="H89" s="3" t="n">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>01:54:48</t>
+          <t>14:34:10</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K89" t="n">
         <v>1</v>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551983930652689172', 'createTime': 1758333288, 'createTimeISO': '2025-09-20T01:54:48.000Z', 'text': 'amo este muuuuuuundoo😏', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6842674101811954693', 'uniqueId': 'lizz_fndz', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f5a7346c0b99528e0b975fc998230121~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=682a3bea&amp;x-expires=1760792400&amp;x-signature=ghHfFwSTjI7Ss7rdZCicROmgWCw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552550716473639700', 'createTime': 1758465250, 'createTimeISO': '2025-09-21T14:34:10.000Z', 'text': 'Mi primer mandato! Ajajjaa toda dictadora 😂😂', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7127494140724216838', 'uniqueId': 'marlinq23', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7127494903172923398~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=3f710cb9&amp;x-expires=1760878800&amp;x-signature=EFMO913DSRJt%2Fdivh82tnJzvwgo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5462,22 +5462,22 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Empezó mi novela favorita😭😍</t>
+          <t>Apoyo muuuuuuuucho jajaja</t>
         </is>
       </c>
       <c r="G90" s="2" t="n">
-        <v>45922.90943287037</v>
+        <v>45920.07915509259</v>
       </c>
       <c r="H90" s="3" t="n">
-        <v>45922</v>
+        <v>45920</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>21:49:35</t>
+          <t>01:53:59</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K90" t="n">
         <v>1</v>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7553033945219810055', 'createTime': 1758577775, 'createTimeISO': '2025-09-22T21:49:35.000Z', 'text': 'Empezó mi novela favorita😭😍', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6686398605715244037', 'uniqueId': 'carolina_serrano', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/79be4af25ec17f747428b28ea34a0231~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=24095790&amp;x-expires=1760792400&amp;x-signature=4gGIwdWfROstkBBMIdbXHa635T0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551983682992784136', 'createTime': 1758333239, 'createTimeISO': '2025-09-20T01:53:59.000Z', 'text': 'Apoyo muuuuuuuucho jajaja', 'diggCount': 5, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6577436033524727814', 'uniqueId': 'mafelovera', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7dea885196e9f4c245ffd2cb465a4c8a~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=3fe60701&amp;x-expires=1760878800&amp;x-signature=8akaquBammmndSObq1p330RWFMA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5518,22 +5518,22 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Apoyo muuuuuuuucho jajaja</t>
+          <t>Empezó mi novela favorita😭😍</t>
         </is>
       </c>
       <c r="G91" s="2" t="n">
-        <v>45920.07915509259</v>
+        <v>45922.90943287037</v>
       </c>
       <c r="H91" s="3" t="n">
-        <v>45920</v>
+        <v>45922</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>01:53:59</t>
+          <t>21:49:35</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K91" t="n">
         <v>1</v>
@@ -5548,7 +5548,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551983682992784136', 'createTime': 1758333239, 'createTimeISO': '2025-09-20T01:53:59.000Z', 'text': 'Apoyo muuuuuuuucho jajaja', 'diggCount': 5, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6577436033524727814', 'uniqueId': 'mafelovera', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7dea885196e9f4c245ffd2cb465a4c8a~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=017cdedc&amp;x-expires=1760792400&amp;x-signature=l7Mmg1JZ4ehkrZLHKdA3oHqL6zY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7553033945219810055', 'createTime': 1758577775, 'createTimeISO': '2025-09-22T21:49:35.000Z', 'text': 'Empezó mi novela favorita😭😍', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6686398605715244037', 'uniqueId': 'carolina_serrano', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/79be4af25ec17f747428b28ea34a0231~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=e9c7fb50&amp;x-expires=1760878800&amp;x-signature=XnWGQz4BCO21ImIP3BycTV5ZlkY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5574,25 +5574,25 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>hola</t>
+          <t>Me encantaaa!!!!! Aprobadooo</t>
         </is>
       </c>
       <c r="G92" s="2" t="n">
-        <v>45919.99099537037</v>
+        <v>45919.99805555555</v>
       </c>
       <c r="H92" s="3" t="n">
         <v>45919</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>23:47:02</t>
+          <t>23:57:12</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L92" t="b">
         <v>0</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551950956708922130', 'createTime': 1758325622, 'createTimeISO': '2025-09-19T23:47:02.000Z', 'text': 'hola', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7416452271041987590', 'uniqueId': 'saragutierrez9607', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/2d50ff98a95e65e1155080427e14139e~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=52de8a1e&amp;x-expires=1760792400&amp;x-signature=80QK4s%2B7Nkun7zZyvYWD3NgfyRQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551953579881202440', 'createTime': 1758326232, 'createTimeISO': '2025-09-19T23:57:12.000Z', 'text': 'Me encantaaa!!!!! Aprobadooo', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6806474480425796614', 'uniqueId': 'lrendon11', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/65f278fccdfba09731ee15dda4e3cb13~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=4226e5ea&amp;x-expires=1760878800&amp;x-signature=IN2qx0YuBLBhkWt%2F9QyhtSjGcWg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5630,22 +5630,22 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>ME ENCANTA✨✨</t>
+          <t>Wow! Que cracks</t>
         </is>
       </c>
       <c r="G93" s="2" t="n">
-        <v>45920.06896990741</v>
+        <v>45920.13050925926</v>
       </c>
       <c r="H93" s="3" t="n">
         <v>45920</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>01:39:19</t>
+          <t>03:07:56</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K93" t="n">
         <v>1</v>
@@ -5660,7 +5660,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551979924456211207', 'createTime': 1758332359, 'createTimeISO': '2025-09-20T01:39:19.000Z', 'text': 'ME ENCANTA✨✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=f093e277&amp;x-expires=1760792400&amp;x-signature=lMmWr5ligWUr21%2BGBUsWfBbiNTs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552002771790136071', 'createTime': 1758337676, 'createTimeISO': '2025-09-20T03:07:56.000Z', 'text': 'Wow! Que cracks', 'diggCount': 4, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6761789459468403717', 'uniqueId': 'mariajimenadiaz5', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7334740815043887110~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=06477724&amp;x-expires=1760878800&amp;x-signature=ghKi8Fp5INj2jtgrzQJTui698q4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552194010451477269', 'createTime': 1758382201, 'createTimeISO': '2025-09-20T15:30:01.000Z', 'text': 'aprobadooo, amooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6770401168398386182', 'uniqueId': 'gabrielaguerrero70', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/a36d643d0a9ecc0cdaafc93b6200aa8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=5e4e1bc1&amp;x-expires=1760792400&amp;x-signature=HkIcU8RXSKHxmbu0kkVMwEnPGaA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552194010451477269', 'createTime': 1758382201, 'createTimeISO': '2025-09-20T15:30:01.000Z', 'text': 'aprobadooo, amooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6770401168398386182', 'uniqueId': 'gabrielaguerrero70', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/a36d643d0a9ecc0cdaafc93b6200aa8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=3b1fa57a&amp;x-expires=1760878800&amp;x-signature=JppprwBmi4gCAjCxyoJ0uDfERwU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5742,22 +5742,22 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Tooooooop✨</t>
+          <t>JAJAJAJAJA muuuuu</t>
         </is>
       </c>
       <c r="G95" s="2" t="n">
-        <v>45920.0344675926</v>
+        <v>45920.71737268518</v>
       </c>
       <c r="H95" s="3" t="n">
         <v>45920</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>00:49:38</t>
+          <t>17:13:01</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K95" t="n">
         <v>1</v>
@@ -5772,7 +5772,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551967111200572161', 'createTime': 1758329378, 'createTimeISO': '2025-09-20T00:49:38.000Z', 'text': 'Tooooooop✨', 'diggCount': 2, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6636032545857355782', 'uniqueId': 'amygonzal_', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/bcf09f13282d39a21e796330dfd9b28d~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=a1407ccc&amp;x-expires=1760792400&amp;x-signature=HwoiRMiag2kQ%2BaOpt%2B2u7idVx4w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552220543425413944', 'createTime': 1758388381, 'createTimeISO': '2025-09-20T17:13:01.000Z', 'text': 'JAJAJAJAJA muuuuu', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6808343868984345606', 'uniqueId': 'isaacalejandrorueda', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/9521fa11b07506edc233d485d7408f43~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=e12a4413&amp;x-expires=1760878800&amp;x-signature=04Ml8W2K7l1VXGcPNBeV08FekOM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5798,25 +5798,25 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>QUE VUELVA EL ALPILITRO 😭😭🙌🙌🙌🙏🙏</t>
+          <t>hola 😘</t>
         </is>
       </c>
       <c r="G96" s="2" t="n">
-        <v>45923.78701388889</v>
+        <v>45919.98998842593</v>
       </c>
       <c r="H96" s="3" t="n">
-        <v>45923</v>
+        <v>45919</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>18:53:18</t>
+          <t>23:45:35</t>
         </is>
       </c>
       <c r="J96" t="n">
         <v>3</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" t="b">
         <v>0</v>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7553359647815484167', 'createTime': 1758653598, 'createTimeISO': '2025-09-23T18:53:18.000Z', 'text': 'QUE VUELVA EL ALPILITRO 😭😭🙌🙌🙌🙏🙏', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7493133555746489351', 'uniqueId': 'andreykdy3', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/ffdb73d8f0b1bc3e2a3bf54e4492d457~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=0f8e8ca7&amp;x-expires=1760792400&amp;x-signature=%2FRo8LHFmpLWjw88To%2BBS9YHSC5g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551950541917881104', 'createTime': 1758325535, 'createTimeISO': '2025-09-19T23:45:35.000Z', 'text': 'hola 😘', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=7cb55926&amp;x-expires=1760878800&amp;x-signature=9gafz5elhhn9U3JyaDbV0%2FvmZzI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5854,25 +5854,25 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>mi mami trabaja en alpina y me trajo Mochis 🥰</t>
+          <t>Me gusta MUUUUUcho</t>
         </is>
       </c>
       <c r="G97" s="2" t="n">
-        <v>45924.08138888889</v>
+        <v>45920.63900462963</v>
       </c>
       <c r="H97" s="3" t="n">
-        <v>45924</v>
+        <v>45920</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>01:57:12</t>
+          <t>15:20:10</t>
         </is>
       </c>
       <c r="J97" t="n">
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" t="b">
         <v>0</v>
@@ -5884,7 +5884,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7553468863707759377', 'createTime': 1758679032, 'createTimeISO': '2025-09-24T01:57:12.000Z', 'text': 'mi mami trabaja en alpina y me trajo Mochis 🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6796362843291354118', 'uniqueId': 'sampreds', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/6ab46faa73ba2a267e5c627e7857a09a~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=1c9c8a10&amp;x-expires=1760792400&amp;x-signature=xb1lVRuiiHfz9pbBOahGnp%2B6Uq4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552191427935208203', 'createTime': 1758381610, 'createTimeISO': '2025-09-20T15:20:10.000Z', 'text': 'Me gusta MUUUUUcho', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6786345043017958405', 'uniqueId': 'rafaelladm_', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/73cfb3946b471a5575a9bd8db504145d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a05d5aff&amp;x-expires=1760878800&amp;x-signature=%2FEGYSC43j9oUh1JHwCwt0XhA5qc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5910,25 +5910,25 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Pero verídico</t>
+          <t>amo este muuuuuuundoo😏</t>
         </is>
       </c>
       <c r="G98" s="2" t="n">
-        <v>45921.13072916667</v>
+        <v>45920.07972222222</v>
       </c>
       <c r="H98" s="3" t="n">
-        <v>45921</v>
+        <v>45920</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>03:08:15</t>
+          <t>01:54:48</t>
         </is>
       </c>
       <c r="J98" t="n">
         <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98" t="b">
         <v>0</v>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552373947406664455', 'createTime': 1758424095, 'createTimeISO': '2025-09-21T03:08:15.000Z', 'text': 'Pero verídico', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6916307664519742470', 'uniqueId': 'daniel_rojas.4', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/1b1931cd030125ddc18f8e0cba099651~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=f8ce4988&amp;x-expires=1760792400&amp;x-signature=PAHJdoXYHX7d2dOnnM6FWoKIHdY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551983930652689172', 'createTime': 1758333288, 'createTimeISO': '2025-09-20T01:54:48.000Z', 'text': 'amo este muuuuuuundoo😏', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6842674101811954693', 'uniqueId': 'lizz_fndz', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f5a7346c0b99528e0b975fc998230121~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=412494ff&amp;x-expires=1760878800&amp;x-signature=IuQ0UFI9viBpyMLCantbTYDgFnE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5966,25 +5966,25 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Increíbleeee</t>
+          <t>Amooooooooo ✨❤</t>
         </is>
       </c>
       <c r="G99" s="2" t="n">
-        <v>45922.29777777778</v>
+        <v>45920.63488425926</v>
       </c>
       <c r="H99" s="3" t="n">
-        <v>45922</v>
+        <v>45920</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>07:08:48</t>
+          <t>15:14:14</t>
         </is>
       </c>
       <c r="J99" t="n">
         <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" t="b">
         <v>0</v>
@@ -5996,7 +5996,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552806947365241622', 'createTime': 1758524928, 'createTimeISO': '2025-09-22T07:08:48.000Z', 'text': 'Increíbleeee', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7251571663123465243', 'uniqueId': 'barbaramayan', 'avatarThumbnail': 'https://p16-pu-sign-no.tiktokcdn-eu.com/tos-no1a-avt-0068c001-no/58ed5201d3060082de17047de0ec72f0~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=7b210e22&amp;x-expires=1760792400&amp;x-signature=pb3GXZLHpvxWhcmJ%2BnkFb47bmiM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552189950164157202', 'createTime': 1758381254, 'createTimeISO': '2025-09-20T15:14:14.000Z', 'text': 'Amooooooooo ✨❤', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6775204820329579525', 'uniqueId': 'danivalenciaa', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/16f06ae19c05a3c06f041a0a4078e97e~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=3dc162e4&amp;x-expires=1760878800&amp;x-signature=bVF3KelgpQzojOEgEBQW5gCTCi8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6022,25 +6022,25 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Siiii</t>
+          <t>Me encantaaaa</t>
         </is>
       </c>
       <c r="G100" s="2" t="n">
-        <v>45920.26096064815</v>
+        <v>45920.30841435185</v>
       </c>
       <c r="H100" s="3" t="n">
         <v>45920</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>06:15:47</t>
+          <t>07:24:07</t>
         </is>
       </c>
       <c r="J100" t="n">
         <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100" t="b">
         <v>0</v>
@@ -6052,7 +6052,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552051172909024016', 'createTime': 1758348947, 'createTimeISO': '2025-09-20T06:15:47.000Z', 'text': 'Siiii', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781933506022491142', 'uniqueId': 'carovelez_9', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/9bafd1d600cb2409f94c1df9050c163d~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=8abefbf7&amp;x-expires=1760792400&amp;x-signature=Lu2t8VLgRwhhGhVSiNwhQT274JA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552068707821749048', 'createTime': 1758353047, 'createTimeISO': '2025-09-20T07:24:07.000Z', 'text': 'Me encantaaaa', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6572155711261966341', 'uniqueId': 'renata.garces', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/0e4e281eab3b0fe02f45e37f8562c901~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=5f1d700c&amp;x-expires=1760878800&amp;x-signature=oI35IC%2BbbPfGXGk%2FDf7i%2Ftj3Mjo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6078,25 +6078,25 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Lindo</t>
+          <t>Me encanta el Muuuuuuu💖</t>
         </is>
       </c>
       <c r="G101" s="2" t="n">
-        <v>45920.64417824074</v>
+        <v>45920.03078703704</v>
       </c>
       <c r="H101" s="3" t="n">
         <v>45920</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>15:27:37</t>
+          <t>00:44:20</t>
         </is>
       </c>
       <c r="J101" t="n">
         <v>1</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L101" t="b">
         <v>0</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552193394950685448', 'createTime': 1758382057, 'createTimeISO': '2025-09-20T15:27:37.000Z', 'text': 'Lindo', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6747056373932590086', 'uniqueId': 'monimarpor', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7327496776705933318~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=07c87025&amp;x-expires=1760792400&amp;x-signature=otkwMK9hLrEfHSf5SK%2Bw8x3wN2A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551965699524461330', 'createTime': 1758329060, 'createTimeISO': '2025-09-20T00:44:20.000Z', 'text': 'Me encanta el Muuuuuuu💖', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=3d404a26&amp;x-expires=1760878800&amp;x-signature=GpbtTr5OXbWLGXCFmmWSrBIe7EA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6134,25 +6134,25 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
-          <t>JAJAJAJAJA muuuuu</t>
+          <t>QUE VUELVA EL ALPILITRO 😭😭🙌🙌🙌🙏🙏</t>
         </is>
       </c>
       <c r="G102" s="2" t="n">
-        <v>45920.71737268518</v>
+        <v>45923.78701388889</v>
       </c>
       <c r="H102" s="3" t="n">
-        <v>45920</v>
+        <v>45923</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>17:13:01</t>
+          <t>18:53:18</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102" t="b">
         <v>0</v>
@@ -6164,7 +6164,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552220543425413944', 'createTime': 1758388381, 'createTimeISO': '2025-09-20T17:13:01.000Z', 'text': 'JAJAJAJAJA muuuuu', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6808343868984345606', 'uniqueId': 'isaacalejandrorueda', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/9521fa11b07506edc233d485d7408f43~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=fc55e35a&amp;x-expires=1760792400&amp;x-signature=uqVYvEKZrsTofozRWozpjbQJD1Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7553359647815484167', 'createTime': 1758653598, 'createTimeISO': '2025-09-23T18:53:18.000Z', 'text': 'QUE VUELVA EL ALPILITRO 😭😭🙌🙌🙌🙏🙏', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7493133555746489351', 'uniqueId': 'andreykdy3', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/ffdb73d8f0b1bc3e2a3bf54e4492d457~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=2d6f8d54&amp;x-expires=1760878800&amp;x-signature=rrx%2FHVUQAsnGYKr8AOINBCPpvQ0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6190,18 +6190,18 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Me encanta!</t>
+          <t>Me encanta</t>
         </is>
       </c>
       <c r="G103" s="2" t="n">
-        <v>45927.95293981482</v>
+        <v>45925.74446759259</v>
       </c>
       <c r="H103" s="3" t="n">
-        <v>45927</v>
+        <v>45925</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>22:52:14</t>
+          <t>17:52:02</t>
         </is>
       </c>
       <c r="J103" t="n">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7554905527273751314', 'createTime': 1759013534, 'createTimeISO': '2025-09-27T22:52:14.000Z', 'text': 'Me encanta!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6817121247644124166', 'uniqueId': 'marsd195', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/1afb497a92aa0ea23b48a8a687a97094~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=3d4f12c2&amp;x-expires=1760792400&amp;x-signature=Uecqc1IH2rZFJg1iGsigHt7YmOc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7554086009761415956', 'createTime': 1758822722, 'createTimeISO': '2025-09-25T17:52:02.000Z', 'text': 'Me encanta', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6824118381916079109', 'uniqueId': 'urg7348', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7333599963433140229~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=7315c50f&amp;x-expires=1760878800&amp;x-signature=w6tVPbhXUMW11sLxtzvnlqFCnls%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6246,22 +6246,22 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Me gusta MUUUUUcho</t>
+          <t>Tooooooop✨</t>
         </is>
       </c>
       <c r="G104" s="2" t="n">
-        <v>45920.63900462963</v>
+        <v>45920.0344675926</v>
       </c>
       <c r="H104" s="3" t="n">
         <v>45920</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>15:20:10</t>
+          <t>00:49:38</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K104" t="n">
         <v>1</v>
@@ -6276,7 +6276,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552191427935208203', 'createTime': 1758381610, 'createTimeISO': '2025-09-20T15:20:10.000Z', 'text': 'Me gusta MUUUUUcho', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6786345043017958405', 'uniqueId': 'rafaelladm_', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/73cfb3946b471a5575a9bd8db504145d~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=950102fb&amp;x-expires=1760792400&amp;x-signature=oYLtXFRXBPmcEKleMlLxypleD1M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551967111200572161', 'createTime': 1758329378, 'createTimeISO': '2025-09-20T00:49:38.000Z', 'text': 'Tooooooop✨', 'diggCount': 2, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6636032545857355782', 'uniqueId': 'amygonzal_', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/bcf09f13282d39a21e796330dfd9b28d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=57533ef2&amp;x-expires=1760878800&amp;x-signature=ZnZjvH3A4Y7wgNCNuFU9ilYW1c0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6302,22 +6302,22 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Wow! Que cracks</t>
+          <t>está kiut</t>
         </is>
       </c>
       <c r="G105" s="2" t="n">
-        <v>45920.13050925926</v>
+        <v>45920.7575</v>
       </c>
       <c r="H105" s="3" t="n">
         <v>45920</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>03:07:56</t>
+          <t>18:10:48</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K105" t="n">
         <v>1</v>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552002771790136071', 'createTime': 1758337676, 'createTimeISO': '2025-09-20T03:07:56.000Z', 'text': 'Wow! Que cracks', 'diggCount': 4, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6761789459468403717', 'uniqueId': 'mariajimenadiaz5', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7334740815043887110~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=3f62bedf&amp;x-expires=1760792400&amp;x-signature=fC3RAeQ9QpmzJMlGKiTYIk3XGJE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552235435209802503', 'createTime': 1758391848, 'createTimeISO': '2025-09-20T18:10:48.000Z', 'text': 'está kiut', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7406595235524690950', 'uniqueId': 'tatiana.r.rocha021328', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/65263d812577fe31cc1016cb79e1e113~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c3ff3dea&amp;x-expires=1760878800&amp;x-signature=nh9KEfRdiF8Z4slOOEfLcnM5Y2k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6358,25 +6358,25 @@
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Me encantaaaa</t>
+          <t>hola</t>
         </is>
       </c>
       <c r="G106" s="2" t="n">
-        <v>45920.30841435185</v>
+        <v>45919.99099537037</v>
       </c>
       <c r="H106" s="3" t="n">
-        <v>45920</v>
+        <v>45919</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>07:24:07</t>
+          <t>23:47:02</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L106" t="b">
         <v>0</v>
@@ -6388,7 +6388,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552068707821749048', 'createTime': 1758353047, 'createTimeISO': '2025-09-20T07:24:07.000Z', 'text': 'Me encantaaaa', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6572155711261966341', 'uniqueId': 'renata.garces', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/0e4e281eab3b0fe02f45e37f8562c901~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=076c3240&amp;x-expires=1760792400&amp;x-signature=Plrg0rY51D2JJ8Nd4tSopaIwnOA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551950956708922130', 'createTime': 1758325622, 'createTimeISO': '2025-09-19T23:47:02.000Z', 'text': 'hola', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7416452271041987590', 'uniqueId': 'saragutierrez9607', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/2d50ff98a95e65e1155080427e14139e~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=dc77e0ec&amp;x-expires=1760878800&amp;x-signature=Q8dnv%2Fc8NUxlMn2CRaQ7yQIOwi4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6414,22 +6414,22 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Pero verídico</t>
         </is>
       </c>
       <c r="G107" s="2" t="n">
-        <v>45925.80569444445</v>
+        <v>45921.13072916667</v>
       </c>
       <c r="H107" s="3" t="n">
-        <v>45925</v>
+        <v>45921</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>19:20:12</t>
+          <t>03:08:15</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
@@ -6444,7 +6444,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7554108742757827346', 'createTime': 1758828012, 'createTimeISO': '2025-09-25T19:20:12.000Z', 'text': 'Si', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7472435716635902996', 'uniqueId': 'saraisabellamolin21', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/a143062aac046151f845e8a7d43027c0~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=57fdf99a&amp;x-expires=1760792400&amp;x-signature=7L31fvG1BjaFwVKBZ4V3ACCNZ74%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552373947406664455', 'createTime': 1758424095, 'createTimeISO': '2025-09-21T03:08:15.000Z', 'text': 'Pero verídico', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6916307664519742470', 'uniqueId': 'daniel_rojas.4', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/1b1931cd030125ddc18f8e0cba099651~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=d1aebeef&amp;x-expires=1760878800&amp;x-signature=9VY0IapySvr1%2BJZ3dEigyb1crTw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6470,25 +6470,25 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Amooooooooo ✨❤</t>
+          <t>Siiii</t>
         </is>
       </c>
       <c r="G108" s="2" t="n">
-        <v>45920.63488425926</v>
+        <v>45920.26096064815</v>
       </c>
       <c r="H108" s="3" t="n">
         <v>45920</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>15:14:14</t>
+          <t>06:15:47</t>
         </is>
       </c>
       <c r="J108" t="n">
         <v>1</v>
       </c>
       <c r="K108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L108" t="b">
         <v>0</v>
@@ -6500,7 +6500,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552189950164157202', 'createTime': 1758381254, 'createTimeISO': '2025-09-20T15:14:14.000Z', 'text': 'Amooooooooo ✨❤', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6775204820329579525', 'uniqueId': 'danivalenciaa', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/16f06ae19c05a3c06f041a0a4078e97e~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=0f9c8a12&amp;x-expires=1760792400&amp;x-signature=G8vCloUJXluSYIfmzmMKP89Gvnc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552051172909024016', 'createTime': 1758348947, 'createTimeISO': '2025-09-20T06:15:47.000Z', 'text': 'Siiii', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781933506022491142', 'uniqueId': 'carovelez_9', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/9bafd1d600cb2409f94c1df9050c163d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=9d00e658&amp;x-expires=1760878800&amp;x-signature=D1BuPjg16S5VTK6%2BdTePIFDeIRY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6526,25 +6526,25 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Me encantaaa!!!!! Aprobadooo</t>
+          <t>Increíbleeee</t>
         </is>
       </c>
       <c r="G109" s="2" t="n">
-        <v>45919.99805555555</v>
+        <v>45922.29777777778</v>
       </c>
       <c r="H109" s="3" t="n">
-        <v>45919</v>
+        <v>45922</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>23:57:12</t>
+          <t>07:08:48</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L109" t="b">
         <v>0</v>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551953579881202440', 'createTime': 1758326232, 'createTimeISO': '2025-09-19T23:57:12.000Z', 'text': 'Me encantaaa!!!!! Aprobadooo', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6806474480425796614', 'uniqueId': 'lrendon11', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/65f278fccdfba09731ee15dda4e3cb13~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=3724ee93&amp;x-expires=1760792400&amp;x-signature=HYxiLT57pPYbk2Dizdw415sRZo8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552806947365241622', 'createTime': 1758524928, 'createTimeISO': '2025-09-22T07:08:48.000Z', 'text': 'Increíbleeee', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7251571663123465243', 'uniqueId': 'barbaramayan', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/58ed5201d3060082de17047de0ec72f0~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6efc3d36&amp;x-expires=1760878800&amp;x-signature=qbt5BHgm2yLb6FsC9ej6qNeQL14%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6582,25 +6582,25 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
         <is>
-          <t>está kiut</t>
+          <t>Lindo</t>
         </is>
       </c>
       <c r="G110" s="2" t="n">
-        <v>45920.7575</v>
+        <v>45920.64417824074</v>
       </c>
       <c r="H110" s="3" t="n">
         <v>45920</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>18:10:48</t>
+          <t>15:27:37</t>
         </is>
       </c>
       <c r="J110" t="n">
         <v>1</v>
       </c>
       <c r="K110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110" t="b">
         <v>0</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552235435209802503', 'createTime': 1758391848, 'createTimeISO': '2025-09-20T18:10:48.000Z', 'text': 'está kiut', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7406595235524690950', 'uniqueId': 'tatiana.r.rocha021328', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/65263d812577fe31cc1016cb79e1e113~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=92bb03a4&amp;x-expires=1760792400&amp;x-signature=wonnjOrw39qJM%2Fu3OzOFk07Q7oM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552193394950685448', 'createTime': 1758382057, 'createTimeISO': '2025-09-20T15:27:37.000Z', 'text': 'Lindo', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6747056373932590086', 'uniqueId': 'monimarpor', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7327496776705933318~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6800b6ad&amp;x-expires=1760878800&amp;x-signature=5X1eG61WNL1DrcldyXR%2Buz%2BnIZw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6638,25 +6638,25 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Me encanta el Muuuuuuu💖</t>
+          <t>mi mami trabaja en alpina y me trajo Mochis 🥰</t>
         </is>
       </c>
       <c r="G111" s="2" t="n">
-        <v>45920.03078703704</v>
+        <v>45924.08138888889</v>
       </c>
       <c r="H111" s="3" t="n">
-        <v>45920</v>
+        <v>45924</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>00:44:20</t>
+          <t>01:57:12</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111" t="b">
         <v>0</v>
@@ -6668,7 +6668,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551965699524461330', 'createTime': 1758329060, 'createTimeISO': '2025-09-20T00:44:20.000Z', 'text': 'Me encanta el Muuuuuuu💖', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=ed09ccda&amp;x-expires=1760792400&amp;x-signature=rOgPSiHTGrBouKiOsjZiDF4olAA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7553468863707759377', 'createTime': 1758679032, 'createTimeISO': '2025-09-24T01:57:12.000Z', 'text': 'mi mami trabaja en alpina y me trajo Mochis 🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6796362843291354118', 'uniqueId': 'sampreds', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/6ab46faa73ba2a267e5c627e7857a09a~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=200b55e5&amp;x-expires=1760878800&amp;x-signature=nK9JGhFUUV5GaqbAb1Lh7OOkrbQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6694,22 +6694,22 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Me encanta</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="G112" s="2" t="n">
-        <v>45925.74446759259</v>
+        <v>45925.80569444445</v>
       </c>
       <c r="H112" s="3" t="n">
         <v>45925</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>17:52:02</t>
+          <t>19:20:12</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
@@ -6724,7 +6724,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7554086009761415956', 'createTime': 1758822722, 'createTimeISO': '2025-09-25T17:52:02.000Z', 'text': 'Me encanta', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6824118381916079109', 'uniqueId': 'urg7348', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7333599963433140229~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=70e7ebf2&amp;x-expires=1760792400&amp;x-signature=pT%2BCQehrjI8LBzgPKX23qg542Ec%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7554108742757827346', 'createTime': 1758828012, 'createTimeISO': '2025-09-25T19:20:12.000Z', 'text': 'Si', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7472435716635902996', 'uniqueId': 'saraisabellamolin21', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/a143062aac046151f845e8a7d43027c0~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=e9626a85&amp;x-expires=1760878800&amp;x-signature=aBY63eEEsemNPIwp8XxWcX2l7yk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6750,25 +6750,25 @@
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Califiquen mi nuevo mochi saurio!!!💗</t>
+          <t>Me encanta!</t>
         </is>
       </c>
       <c r="G113" s="2" t="n">
-        <v>45922.05614583333</v>
+        <v>45927.95293981482</v>
       </c>
       <c r="H113" s="3" t="n">
-        <v>45922</v>
+        <v>45927</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>01:20:51</t>
+          <t>22:52:14</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L113" t="b">
         <v>0</v>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552717306100761351', 'createTime': 1758504051, 'createTimeISO': '2025-09-22T01:20:51.000Z', 'text': 'Califiquen mi nuevo mochi saurio!!!💗', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7025228362498999301', 'uniqueId': 'krystelnavarrober', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/3da7823061496f0246300c1ee868876f~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=96d45ac5&amp;x-expires=1760792400&amp;x-signature=vwIKQbZRgOmpXRS9RBT3eN%2BH0Sk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7554905527273751314', 'createTime': 1759013534, 'createTimeISO': '2025-09-27T22:52:14.000Z', 'text': 'Me encanta!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6817121247644124166', 'uniqueId': 'marsd195', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/1afb497a92aa0ea23b48a8a687a97094~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ed58bb4d&amp;x-expires=1760878800&amp;x-signature=wzJQKygQLJM5avOBPZl%2B9EV%2B38U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6806,25 +6806,25 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
         <is>
-          <t>alpina q es esta hermosura</t>
+          <t>Califiquen mi nuevo mochi saurio!!!💗</t>
         </is>
       </c>
       <c r="G114" s="2" t="n">
-        <v>45923.97987268519</v>
+        <v>45922.05614583333</v>
       </c>
       <c r="H114" s="3" t="n">
-        <v>45923</v>
+        <v>45922</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>23:31:01</t>
+          <t>01:20:51</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L114" t="b">
         <v>0</v>
@@ -6836,7 +6836,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7553431107175662354', 'createTime': 1758670261, 'createTimeISO': '2025-09-23T23:31:01.000Z', 'text': 'alpina q es esta hermosura', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7246183829702034437', 'uniqueId': '2s_sarah', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/a9bc5c82ba1c64cdd2810f102faf0c8f~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=3de6d21e&amp;x-expires=1760792400&amp;x-signature=710nm%2Bjqu7uqsZPowA5%2Bz2iE8kE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552717306100761351', 'createTime': 1758504051, 'createTimeISO': '2025-09-22T01:20:51.000Z', 'text': 'Califiquen mi nuevo mochi saurio!!!💗', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7025228362498999301', 'uniqueId': 'krystelnavarrober', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/3da7823061496f0246300c1ee868876f~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=8f0646f3&amp;x-expires=1760878800&amp;x-signature=%2B1Mt8%2B6nEb6yEzOxdxfj6BCf%2FGA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6862,22 +6862,22 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr">
         <is>
-          <t>🥰🥰🥰</t>
+          <t>alpina q es esta hermosura</t>
         </is>
       </c>
       <c r="G115" s="2" t="n">
-        <v>45919.98965277777</v>
+        <v>45923.97987268519</v>
       </c>
       <c r="H115" s="3" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>23:45:06</t>
+          <t>23:31:01</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K115" t="n">
         <v>0</v>
@@ -6892,7 +6892,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551950414629061394', 'createTime': 1758325506, 'createTimeISO': '2025-09-19T23:45:06.000Z', 'text': '🥰🥰🥰', 'diggCount': 2, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6830514363565278214', 'uniqueId': 'mariafernandasalc02', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/f48ef1c788191659fa2e09d032706b87~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=00ba2426&amp;x-expires=1760792400&amp;x-signature=H2KhV8EAC2SdZJyCBZDYFL5LV5Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7553431107175662354', 'createTime': 1758670261, 'createTimeISO': '2025-09-23T23:31:01.000Z', 'text': 'alpina q es esta hermosura', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7246183829702034437', 'uniqueId': '2s_sarah', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/a9bc5c82ba1c64cdd2810f102faf0c8f~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=075aa7d1&amp;x-expires=1760878800&amp;x-signature=S8j4s3f3CM5lCT4CF4etgSr308w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6918,25 +6918,25 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
         <is>
-          <t>hola 😘</t>
+          <t>🥰🥰🥰</t>
         </is>
       </c>
       <c r="G116" s="2" t="n">
-        <v>45919.98998842593</v>
+        <v>45919.98965277777</v>
       </c>
       <c r="H116" s="3" t="n">
         <v>45919</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>23:45:35</t>
+          <t>23:45:06</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L116" t="b">
         <v>0</v>
@@ -6948,7 +6948,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551950541917881104', 'createTime': 1758325535, 'createTimeISO': '2025-09-19T23:45:35.000Z', 'text': 'hola 😘', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e7109759&amp;x-expires=1760792400&amp;x-signature=6np5PsSGRsgOWrfycwtS1A%2F9FUg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551950414629061394', 'createTime': 1758325506, 'createTimeISO': '2025-09-19T23:45:06.000Z', 'text': '🥰🥰🥰', 'diggCount': 2, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6830514363565278214', 'uniqueId': 'mariafernandasalc02', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/f48ef1c788191659fa2e09d032706b87~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=38adc9b9&amp;x-expires=1760878800&amp;x-signature=YSiRTykankKxBKnmKcgtbR8R17o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6974,26 +6974,26 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
-          <t>✅✅✅</t>
+          <t>Holaaa!! ¿Cuánto tiempo tarda en finalizar los filtros de la convocatoria? @Alpina 🐮 ✨✨✨</t>
         </is>
       </c>
       <c r="G117" s="2" t="n">
-        <v>45920.11243055556</v>
+        <v>45937.91074074074</v>
       </c>
       <c r="H117" s="3" t="n">
-        <v>45920</v>
+        <v>45937</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>02:41:54</t>
+          <t>21:51:28</t>
         </is>
       </c>
       <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
         <v>2</v>
       </c>
-      <c r="K117" t="n">
-        <v>0</v>
-      </c>
       <c r="L117" t="b">
         <v>0</v>
       </c>
@@ -7004,7 +7004,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551996069400838930', 'createTime': 1758336114, 'createTimeISO': '2025-09-20T02:41:54.000Z', 'text': '✅✅✅', 'diggCount': 2, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6775228984448959493', 'uniqueId': 'francescalvarezr_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2e5e4150ee1705a086acc14bc21b08d4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=787025da&amp;x-expires=1760792400&amp;x-signature=vTLzBgUeITwjIaaYZLh8ZLfdSbQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7558600728525275934', 'createTime': 1759873888, 'createTimeISO': '2025-10-07T21:51:28.000Z', 'text': 'Holaaa!! ¿Cuánto tiempo tarda en finalizar los filtros de la convocatoria? @Alpina 🐮 ✨✨✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '130977736172539904', 'uniqueId': 'giraldotogaby', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/a2c5a1fbbbc85ff0c2c73bd1842eb1cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=41dc96a8&amp;x-expires=1760878800&amp;x-signature=9BCmB4UbfkB4Ho42OPDOzTjhiSo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
         </is>
       </c>
     </row>
@@ -7030,22 +7030,22 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>✅✅✅</t>
         </is>
       </c>
       <c r="G118" s="2" t="n">
-        <v>45920.60407407407</v>
+        <v>45920.11243055556</v>
       </c>
       <c r="H118" s="3" t="n">
         <v>45920</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>14:29:52</t>
+          <t>02:41:54</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
@@ -7060,7 +7060,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552178343107592961', 'createTime': 1758378592, 'createTimeISO': '2025-09-20T14:29:52.000Z', 'text': '🥰', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6806405540710351877', 'uniqueId': 'karenmarcelagarzo', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7326838454582460422~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a70cf9e9&amp;x-expires=1760792400&amp;x-signature=sYOG2SW2E5BH5RCFhVAyItqjT7o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551996069400838930', 'createTime': 1758336114, 'createTimeISO': '2025-09-20T02:41:54.000Z', 'text': '✅✅✅', 'diggCount': 2, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6775228984448959493', 'uniqueId': 'francescalvarezr_', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/2e5e4150ee1705a086acc14bc21b08d4~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=5374d3e2&amp;x-expires=1760878800&amp;x-signature=Lff7suEsEDq6lSr%2BUlhLARpfGTM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7086,22 +7086,22 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
         <is>
-          <t>🥰🥰🥰</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G119" s="2" t="n">
-        <v>45934.13739583334</v>
+        <v>45920.60407407407</v>
       </c>
       <c r="H119" s="3" t="n">
-        <v>45934</v>
+        <v>45920</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>03:17:51</t>
+          <t>14:29:52</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119" t="n">
         <v>0</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7557200531950256903', 'createTime': 1759547871, 'createTimeISO': '2025-10-04T03:17:51.000Z', 'text': '🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7368157374302946309', 'uniqueId': 'jeronimoo334', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4853e0d53cbeb9e2a1c9346cf5e1b179~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5b53bddf&amp;x-expires=1760792400&amp;x-signature=M4ZV%2FN9GBvMTtBxa1vHmIuANuiw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552178343107592961', 'createTime': 1758378592, 'createTimeISO': '2025-09-20T14:29:52.000Z', 'text': '🥰', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6806405540710351877', 'uniqueId': 'karenmarcelagarzo', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7326838454582460422~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ae464569&amp;x-expires=1760878800&amp;x-signature=Lee5d6lQp4o6x9grwSx8ZmfJd28%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7172,7 +7172,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7558317759676121874', 'createTime': 1759807996, 'createTimeISO': '2025-10-07T03:33:16.000Z', 'text': '😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6842107016141751301', 'uniqueId': 'pandrea9610', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7325541937888952325~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2a01b9f1&amp;x-expires=1760792400&amp;x-signature=4oYmKNEcO14SBkZdAO92gS0u7Ro%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7558317759676121874', 'createTime': 1759807996, 'createTimeISO': '2025-10-07T03:33:16.000Z', 'text': '😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6842107016141751301', 'uniqueId': 'pandrea9610', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7325541937888952325~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c5342fe6&amp;x-expires=1760878800&amp;x-signature=q%2BsKeRU4AjQ%2FISdyZ1gRV757NeA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7198,25 +7198,25 @@
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Holaaa!! ¿Cuánto tiempo tarda en finalizar los filtros de la convocatoria? @Alpina 🐮 ✨✨✨</t>
+          <t>🥰🥰🥰</t>
         </is>
       </c>
       <c r="G121" s="2" t="n">
-        <v>45937.91074074074</v>
+        <v>45934.13739583334</v>
       </c>
       <c r="H121" s="3" t="n">
-        <v>45937</v>
+        <v>45934</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>21:51:28</t>
+          <t>03:17:51</t>
         </is>
       </c>
       <c r="J121" t="n">
         <v>0</v>
       </c>
       <c r="K121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L121" t="b">
         <v>0</v>
@@ -7228,7 +7228,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7558600728525275934', 'createTime': 1759873888, 'createTimeISO': '2025-10-07T21:51:28.000Z', 'text': 'Holaaa!! ¿Cuánto tiempo tarda en finalizar los filtros de la convocatoria? @Alpina 🐮 ✨✨✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '130977736172539904', 'uniqueId': 'giraldotogaby', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-useast5-avt-0068-tx/a2c5a1fbbbc85ff0c2c73bd1842eb1cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=52528094&amp;x-expires=1760792400&amp;x-signature=6X%2F88WeHrTSCPndxtX7kgw9abGw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7557200531950256903', 'createTime': 1759547871, 'createTimeISO': '2025-10-04T03:17:51.000Z', 'text': '🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7368157374302946309', 'uniqueId': 'jeronimoo334', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/4853e0d53cbeb9e2a1c9346cf5e1b179~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=5aae3b6a&amp;x-expires=1760878800&amp;x-signature=x2kzHZBb0U8U1v1rwq9aIKqe6Mg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7555150174504469266', 'createTime': 1759070484, 'createTimeISO': '2025-09-28T14:41:24.000Z', 'text': '🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6891441655778624518', 'uniqueId': 'kris_salazar23', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/76c1e9d5f762548bf55f86a2eeb72fa3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e9963f07&amp;x-expires=1760792400&amp;x-signature=IsVHTOEdkkHCCjvYScpfCMo9l0Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7555150174504469266', 'createTime': 1759070484, 'createTimeISO': '2025-09-28T14:41:24.000Z', 'text': '🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6891441655778624518', 'uniqueId': 'kris_salazar23', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/76c1e9d5f762548bf55f86a2eeb72fa3~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=1c04a7ff&amp;x-expires=1760878800&amp;x-signature=wiQ1C9sKgWy9egqsWMk2u2JzZmc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7340,7 +7340,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552706319259435783', 'createTime': 1758501808, 'createTimeISO': '2025-09-22T00:43:28.000Z', 'text': '@Alpina 🐮 cuantos comentarios y reacciones acá en el vídeo y me mandasla nueva colección de los mochis dinosaurios (ayuden que lo vean🙊)', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6915493889098187782', 'uniqueId': 'angel18mendoza', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/68f808039457cd87fd4d7b94e867d357~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a3173526&amp;x-expires=1760792400&amp;x-signature=hnPswd0cMamOiaHEljb7wqoj1Io%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552706319259435783', 'createTime': 1758501808, 'createTimeISO': '2025-09-22T00:43:28.000Z', 'text': '@Alpina 🐮 cuantos comentarios y reacciones acá en el vídeo y me mandasla nueva colección de los mochis dinosaurios (ayuden que lo vean🙊)', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6915493889098187782', 'uniqueId': 'angel18mendoza', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/68f808039457cd87fd4d7b94e867d357~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=9bf3e4fb&amp;x-expires=1760878800&amp;x-signature=l950QpCE2eUaQCckShZdLvf3mfA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
         </is>
       </c>
     </row>
@@ -7396,7 +7396,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553840238716945153', 'createTime': 1758765496, 'createTimeISO': '2025-09-25T01:58:16.000Z', 'text': 'Mi sueñoooo 😩 ya quiero hacer parte de ustedes', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '6561143503132540934', 'uniqueId': 'maaaarirg', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7324826520122785798~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=202715fa&amp;x-expires=1760792400&amp;x-signature=%2Ftcy%2FBoNnWpm2e0brFs87eT8cZI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553840238716945153', 'createTime': 1758765496, 'createTimeISO': '2025-09-25T01:58:16.000Z', 'text': 'Mi sueñoooo 😩 ya quiero hacer parte de ustedes', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '6561143503132540934', 'uniqueId': 'maaaarirg', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7324826520122785798~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=55786e37&amp;x-expires=1760878800&amp;x-signature=JnsyqYTnIIlF%2FYMIthamG5PUImM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7422,22 +7422,22 @@
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr">
         <is>
-          <t>alpina por favor me puedes mandar la lavadora de mochis pls🥰🥰🥰</t>
+          <t>Gran historia jajajaja 🥳</t>
         </is>
       </c>
       <c r="G125" s="2" t="n">
-        <v>45931.09893518518</v>
+        <v>45925.03746527778</v>
       </c>
       <c r="H125" s="3" t="n">
-        <v>45931</v>
+        <v>45925</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>02:22:28</t>
+          <t>00:53:57</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K125" t="n">
         <v>0</v>
@@ -7452,7 +7452,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7556072986438107912', 'createTime': 1759285348, 'createTimeISO': '2025-10-01T02:22:28.000Z', 'text': 'alpina por favor me puedes mandar la lavadora de mochis pls🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7555531729910694930', 'uniqueId': 'danna.isabella.sa2', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/33f27490f5d982fb6410362608e53e39~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=025e33cb&amp;x-expires=1760792400&amp;x-signature=8YFGGOjdoOIAuy87Rz6X01z1Q9M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553823647435178770', 'createTime': 1758761637, 'createTimeISO': '2025-09-25T00:53:57.000Z', 'text': 'Gran historia jajajaja 🥳', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781206829306807302', 'uniqueId': 'gaaaabs6', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/87a6fa6e1b0b9d03506eca068222ad5e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e4b6997d&amp;x-expires=1760878800&amp;x-signature=nkSkGwDHuKcXWjhITM1Z1pvDhlo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7478,18 +7478,18 @@
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
-          <t>estando en etapa lectiva puedo aplicar gracias</t>
+          <t>Alpina que paso con los gatos de la leche alpina?, si me contestas me voy a la cabaña alpina👀</t>
         </is>
       </c>
       <c r="G126" s="2" t="n">
-        <v>45926.77866898148</v>
+        <v>45926.65694444445</v>
       </c>
       <c r="H126" s="3" t="n">
         <v>45926</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>18:41:17</t>
+          <t>15:46:00</t>
         </is>
       </c>
       <c r="J126" t="n">
@@ -7508,7 +7508,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554469785704645384', 'createTime': 1758912077, 'createTimeISO': '2025-09-26T18:41:17.000Z', 'text': 'estando en etapa lectiva puedo aplicar gracias', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6964937358190445574', 'uniqueId': 'daneicy8', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a6e6af884aceb8af9c72174f73167f68~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=185bdc01&amp;x-expires=1760792400&amp;x-signature=74H%2Bgl0hCEbrKEoXP47MnrdN5Lk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554424648151941905', 'createTime': 1758901560, 'createTimeISO': '2025-09-26T15:46:00.000Z', 'text': 'Alpina que paso con los gatos de la leche alpina?, si me contestas me voy a la cabaña alpina👀', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7436539205088396344', 'uniqueId': 'isaac_mora1903', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bd074fbf9f61ee99fcea8ef5f350b2bf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=02a973fd&amp;x-expires=1760878800&amp;x-signature=ld1ZxGQcXJnZ7hZFsQhed1ntPNU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7534,18 +7534,18 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Alpinaa salúdame</t>
+          <t>alpina por favor me puedes mandar la lavadora de mochis pls🥰🥰🥰</t>
         </is>
       </c>
       <c r="G127" s="2" t="n">
-        <v>45932.13111111111</v>
+        <v>45931.09893518518</v>
       </c>
       <c r="H127" s="3" t="n">
-        <v>45932</v>
+        <v>45931</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>03:08:48</t>
+          <t>02:22:28</t>
         </is>
       </c>
       <c r="J127" t="n">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7556456003958588178', 'createTime': 1759374528, 'createTimeISO': '2025-10-02T03:08:48.000Z', 'text': 'Alpinaa salúdame', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6783863549585867782', 'uniqueId': 'ciro_492', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ba6e671d98bb7d6703462ff22e1c8081~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=24746580&amp;x-expires=1760792400&amp;x-signature=zmXDAWlIaeZeOcKaAPr4KfXY7WA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7556072986438107912', 'createTime': 1759285348, 'createTimeISO': '2025-10-01T02:22:28.000Z', 'text': 'alpina por favor me puedes mandar la lavadora de mochis pls🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7555531729910694930', 'uniqueId': 'danna.isabella.sa2', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/33f27490f5d982fb6410362608e53e39~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=96701966&amp;x-expires=1760878800&amp;x-signature=4yawIuZrkd8HabA6R5KrkHC80lI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7590,18 +7590,18 @@
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Yo abría amado que mis prácticas hubiesen sido en alpina ☹</t>
+          <t>nueva presentación 😳!</t>
         </is>
       </c>
       <c r="G128" s="2" t="n">
-        <v>45925.04715277778</v>
+        <v>45925.20309027778</v>
       </c>
       <c r="H128" s="3" t="n">
         <v>45925</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>01:07:54</t>
+          <t>04:52:27</t>
         </is>
       </c>
       <c r="J128" t="n">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553827220982170386', 'createTime': 1758762474, 'createTimeISO': '2025-09-25T01:07:54.000Z', 'text': 'Yo abría amado que mis prácticas hubiesen sido en alpina ☹', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6760311129178735621', 'uniqueId': 'dosydosdoss', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4de63d002c8153b317e435b8b677488d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5743fdbe&amp;x-expires=1760792400&amp;x-signature=oYr4r0ESrAAvLGMSVImOsQ1O2Hk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553885128557478672', 'createTime': 1758775947, 'createTimeISO': '2025-09-25T04:52:27.000Z', 'text': 'nueva presentación 😳!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3c4d6890&amp;x-expires=1760878800&amp;x-signature=Ka8%2BkswozclbZ%2FKa4ibdrqreD18%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7646,18 +7646,18 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr">
         <is>
-          <t>nueva presentación 😳!</t>
+          <t>Alpinaa salúdame</t>
         </is>
       </c>
       <c r="G129" s="2" t="n">
-        <v>45925.20309027778</v>
+        <v>45932.13111111111</v>
       </c>
       <c r="H129" s="3" t="n">
-        <v>45925</v>
+        <v>45932</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>04:52:27</t>
+          <t>03:08:48</t>
         </is>
       </c>
       <c r="J129" t="n">
@@ -7676,7 +7676,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553885128557478672', 'createTime': 1758775947, 'createTimeISO': '2025-09-25T04:52:27.000Z', 'text': 'nueva presentación 😳!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e7109759&amp;x-expires=1760792400&amp;x-signature=6np5PsSGRsgOWrfycwtS1A%2F9FUg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7556456003958588178', 'createTime': 1759374528, 'createTimeISO': '2025-10-02T03:08:48.000Z', 'text': 'Alpinaa salúdame', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6783863549585867782', 'uniqueId': 'ciro_492', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ba6e671d98bb7d6703462ff22e1c8081~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=46306278&amp;x-expires=1760878800&amp;x-signature=Oc2CexmGrgAGYRw%2BcwkDGZ0rxZg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7702,18 +7702,18 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Porque es la mejor ❤️❤️✨✨</t>
+          <t>Yo abría amado que mis prácticas hubiesen sido en alpina ☹</t>
         </is>
       </c>
       <c r="G130" s="2" t="n">
-        <v>45925.67758101852</v>
+        <v>45925.04715277778</v>
       </c>
       <c r="H130" s="3" t="n">
         <v>45925</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>16:15:43</t>
+          <t>01:07:54</t>
         </is>
       </c>
       <c r="J130" t="n">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554061217602994962', 'createTime': 1758816943, 'createTimeISO': '2025-09-25T16:15:43.000Z', 'text': 'Porque es la mejor ❤️❤️✨✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6532067139480715266', 'uniqueId': 'irodriguez9', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/8934653b245a2db9d7ce7c5499232dd9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8d2c0535&amp;x-expires=1760792400&amp;x-signature=u9F2PoFhdo0Lum9hvQszyvyDfzs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553827220982170386', 'createTime': 1758762474, 'createTimeISO': '2025-09-25T01:07:54.000Z', 'text': 'Yo abría amado que mis prácticas hubiesen sido en alpina ☹', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6760311129178735621', 'uniqueId': 'dosydosdoss', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4de63d002c8153b317e435b8b677488d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=19e30009&amp;x-expires=1760878800&amp;x-signature=%2Fcx%2BFxwCSiw%2Bjvyc4BILXoUukew%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7758,25 +7758,25 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Es cierto que debajo de la cabaña hay un tunel secreto?👀</t>
+          <t>estando en etapa lectiva puedo aplicar gracias</t>
         </is>
       </c>
       <c r="G131" s="2" t="n">
-        <v>45925.02155092593</v>
+        <v>45926.77866898148</v>
       </c>
       <c r="H131" s="3" t="n">
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>00:31:02</t>
+          <t>18:41:17</t>
         </is>
       </c>
       <c r="J131" t="n">
         <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L131" t="b">
         <v>0</v>
@@ -7788,7 +7788,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553817757574349576', 'createTime': 1758760262, 'createTimeISO': '2025-09-25T00:31:02.000Z', 'text': 'Es cierto que debajo de la cabaña hay un tunel secreto?👀', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '6686398605715244037', 'uniqueId': 'carolina_serrano', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/79be4af25ec17f747428b28ea34a0231~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=78b09abf&amp;x-expires=1760792400&amp;x-signature=3CtOHc9t59kre6aiEHhUjxYxLKU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554469785704645384', 'createTime': 1758912077, 'createTimeISO': '2025-09-26T18:41:17.000Z', 'text': 'estando en etapa lectiva puedo aplicar gracias', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6964937358190445574', 'uniqueId': 'daneicy8', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a6e6af884aceb8af9c72174f73167f68~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=893bb551&amp;x-expires=1760878800&amp;x-signature=qOrHsN2cEyUqV4SNMflw2waqKVs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7814,25 +7814,25 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
         <is>
-          <t>una pregunta las personas del Sena pueden estar en Alpina</t>
+          <t>cuando llegan a Perú los Mochis 😭😭</t>
         </is>
       </c>
       <c r="G132" s="2" t="n">
-        <v>45925.33574074074</v>
+        <v>45927.6415625</v>
       </c>
       <c r="H132" s="3" t="n">
-        <v>45925</v>
+        <v>45927</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>08:03:28</t>
+          <t>15:23:51</t>
         </is>
       </c>
       <c r="J132" t="n">
         <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L132" t="b">
         <v>0</v>
@@ -7844,7 +7844,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553933847436772104', 'createTime': 1758787408, 'createTimeISO': '2025-09-25T08:03:28.000Z', 'text': 'una pregunta las personas del Sena pueden estar en Alpina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7378542037979644933', 'uniqueId': 'cristian.a_l', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a8d4f24a10c3ff1073ab57bc08de8478~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2d0fa576&amp;x-expires=1760792400&amp;x-signature=rCwXxVBrPRJyIOoIdpHGc7Sx0Gc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554790021015946005', 'createTime': 1758986631, 'createTimeISO': '2025-09-27T15:23:51.000Z', 'text': 'cuando llegan a Perú los Mochis 😭😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7093344759511532549', 'uniqueId': 'hanzel3075', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/e5fc427c21f18dd65a5d6366a919b2b8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7d60fd12&amp;x-expires=1760878800&amp;x-signature=DJvWyMIY3CBR%2Fq2qmk2bhBCwmuo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7900,7 +7900,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553834039527654152', 'createTime': 1758764053, 'createTimeISO': '2025-09-25T01:34:13.000Z', 'text': 'Pregunta cuantos minimochis tienes 💖 quiero tenerlos todos', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a0c7ceb2&amp;x-expires=1760792400&amp;x-signature=n8ULNXO7OSQPOUy1Ykxw4pMDmQc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553834039527654152', 'createTime': 1758764053, 'createTimeISO': '2025-09-25T01:34:13.000Z', 'text': 'Pregunta cuantos minimochis tienes 💖 quiero tenerlos todos', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f3c8a5c7&amp;x-expires=1760878800&amp;x-signature=a%2FIWjCHEIyz2OrlNwCKg0zCFZCI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7926,22 +7926,22 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Y los gatos de alpin?👀</t>
+          <t>Porque es la mejor ❤️❤️✨✨</t>
         </is>
       </c>
       <c r="G134" s="2" t="n">
-        <v>45926.9503587963</v>
+        <v>45925.67758101852</v>
       </c>
       <c r="H134" s="3" t="n">
-        <v>45926</v>
+        <v>45925</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>22:48:31</t>
+          <t>16:15:43</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K134" t="n">
         <v>0</v>
@@ -7956,7 +7956,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554533498993148680', 'createTime': 1758926911, 'createTimeISO': '2025-09-26T22:48:31.000Z', 'text': 'Y los gatos de alpin?👀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7414647256178230277', 'uniqueId': 'acetaminofenxd', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/94659e73261c442ff86af031e43a41f6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b0985580&amp;x-expires=1760792400&amp;x-signature=jRt%2BsR5BwDp9qBkRSTuixD1Ld3A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554061217602994962', 'createTime': 1758816943, 'createTimeISO': '2025-09-25T16:15:43.000Z', 'text': 'Porque es la mejor ❤️❤️✨✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6532067139480715266', 'uniqueId': 'irodriguez9', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/8934653b245a2db9d7ce7c5499232dd9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cc67f9a9&amp;x-expires=1760878800&amp;x-signature=aNYOzungRHMQ1PqNlVxdWPsGMzU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7982,25 +7982,25 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Alpina que pasó con los gatos de la leche alpina queremos que vuelvaaannnnnn</t>
+          <t>Es cierto que debajo de la cabaña hay un tunel secreto?👀</t>
         </is>
       </c>
       <c r="G135" s="2" t="n">
-        <v>45926.77142361111</v>
+        <v>45925.02155092593</v>
       </c>
       <c r="H135" s="3" t="n">
-        <v>45926</v>
+        <v>45925</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>18:30:51</t>
+          <t>00:31:02</t>
         </is>
       </c>
       <c r="J135" t="n">
         <v>0</v>
       </c>
       <c r="K135" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L135" t="b">
         <v>0</v>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554467116628640530', 'createTime': 1758911451, 'createTimeISO': '2025-09-26T18:30:51.000Z', 'text': 'Alpina que pasó con los gatos de la leche alpina queremos que vuelvaaannnnnn', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6865051063218439169', 'uniqueId': 'soy_sebass07', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d3ac239ee21a619bba014942d5f7587e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e31ff432&amp;x-expires=1760792400&amp;x-signature=CzE2cTpyIaYyNx8MSZDy%2FSC9Xes%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553817757574349576', 'createTime': 1758760262, 'createTimeISO': '2025-09-25T00:31:02.000Z', 'text': 'Es cierto que debajo de la cabaña hay un tunel secreto?👀', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '6686398605715244037', 'uniqueId': 'carolina_serrano', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/79be4af25ec17f747428b28ea34a0231~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3d2de81b&amp;x-expires=1760878800&amp;x-signature=%2Fbp%2FlY2AnEKXLKWF3QvCHh%2FpL3Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8038,26 +8038,26 @@
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
         <is>
-          <t>💙💙💙</t>
+          <t>una pregunta las personas del Sena pueden estar en Alpina</t>
         </is>
       </c>
       <c r="G136" s="2" t="n">
-        <v>45925.02996527778</v>
+        <v>45925.33574074074</v>
       </c>
       <c r="H136" s="3" t="n">
         <v>45925</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>00:43:09</t>
+          <t>08:03:28</t>
         </is>
       </c>
       <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
         <v>1</v>
       </c>
-      <c r="K136" t="n">
-        <v>0</v>
-      </c>
       <c r="L136" t="b">
         <v>0</v>
       </c>
@@ -8068,7 +8068,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553820808625439495', 'createTime': 1758760989, 'createTimeISO': '2025-09-25T00:43:09.000Z', 'text': '💙💙💙', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7046148050101109766', 'uniqueId': 'juanp846', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/cdf703b505ceb5a3cf5f7b216c352922~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=59c0ffbd&amp;x-expires=1760792400&amp;x-signature=%2FVTL6M5BXUFE0SOtprSegfVQx8w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553933847436772104', 'createTime': 1758787408, 'createTimeISO': '2025-09-25T08:03:28.000Z', 'text': 'una pregunta las personas del Sena pueden estar en Alpina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7378542037979644933', 'uniqueId': 'cristian.a_l', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a8d4f24a10c3ff1073ab57bc08de8478~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9c7ee420&amp;x-expires=1760878800&amp;x-signature=jQRihBCZgiYiJ7tyNcvuL3PDsmg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8094,22 +8094,22 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>Y los gatos de alpin?👀</t>
         </is>
       </c>
       <c r="G137" s="2" t="n">
-        <v>45940.88704861111</v>
+        <v>45926.9503587963</v>
       </c>
       <c r="H137" s="3" t="n">
-        <v>45940</v>
+        <v>45926</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>21:17:21</t>
+          <t>22:48:31</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K137" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7559705187091956488', 'createTime': 1760131041, 'createTimeISO': '2025-10-10T21:17:21.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7464357929971483649', 'uniqueId': 'aquiles.indriagol', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/72a6938f97ba8c0e50728d4cd7d182b4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=480d9d58&amp;x-expires=1760792400&amp;x-signature=daf%2F%2Fbrg0VNuDxpSxfEPyPh2f8s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554533498993148680', 'createTime': 1758926911, 'createTimeISO': '2025-09-26T22:48:31.000Z', 'text': 'Y los gatos de alpin?👀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7414647256178230277', 'uniqueId': 'acetaminofenxd', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/94659e73261c442ff86af031e43a41f6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b936f86c&amp;x-expires=1760878800&amp;x-signature=pKyBtuJn9ZfJO6rku%2B1lSKC%2F5ro%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8150,25 +8150,25 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Me encuentro en el departamento del Meta puedo hacer mis Pasantías del Sena Con Alpina?</t>
+          <t>Alpina que pasó con los gatos de la leche alpina queremos que vuelvaaannnnnn</t>
         </is>
       </c>
       <c r="G138" s="2" t="n">
-        <v>45928.8690625</v>
+        <v>45926.77142361111</v>
       </c>
       <c r="H138" s="3" t="n">
-        <v>45928</v>
+        <v>45926</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>20:51:27</t>
+          <t>18:30:51</t>
         </is>
       </c>
       <c r="J138" t="n">
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L138" t="b">
         <v>0</v>
@@ -8180,7 +8180,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7555245460417331986', 'createTime': 1759092687, 'createTimeISO': '2025-09-28T20:51:27.000Z', 'text': 'Me encuentro en el departamento del Meta puedo hacer mis Pasantías del Sena Con Alpina?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7400852594988827654', 'uniqueId': 'whoisandres37', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/317c580e71debf147810b74b93171a6f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8894cdba&amp;x-expires=1760792400&amp;x-signature=pHUGqdnTz1fbTg2lkGeMU09zqVk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554467116628640530', 'createTime': 1758911451, 'createTimeISO': '2025-09-26T18:30:51.000Z', 'text': 'Alpina que pasó con los gatos de la leche alpina queremos que vuelvaaannnnnn', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6865051063218439169', 'uniqueId': 'soy_sebass07', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d3ac239ee21a619bba014942d5f7587e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5a5396ef&amp;x-expires=1760878800&amp;x-signature=Cn5E35ZzJ5kPHwsB63dkZtFtOH8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8206,22 +8206,22 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Hola! Una pregunta ¿es normal qué los minis ilumimochis de conejito verde venga de a 2?</t>
+          <t>💙💙💙</t>
         </is>
       </c>
       <c r="G139" s="2" t="n">
-        <v>45925.04067129629</v>
+        <v>45925.02996527778</v>
       </c>
       <c r="H139" s="3" t="n">
         <v>45925</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>00:58:34</t>
+          <t>00:43:09</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K139" t="n">
         <v>0</v>
@@ -8236,7 +8236,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553824837010965266', 'createTime': 1758761914, 'createTimeISO': '2025-09-25T00:58:34.000Z', 'text': 'Hola! Una pregunta ¿es normal qué los minis ilumimochis de conejito verde venga de a 2?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7482894692960535570', 'uniqueId': 'eldiploo29', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e71b97d2782d93b9a10a9adec8349876~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3493dc3b&amp;x-expires=1760792400&amp;x-signature=bvQQCNzg8ehM%2FzC7MUBTnMMGRl4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553820808625439495', 'createTime': 1758760989, 'createTimeISO': '2025-09-25T00:43:09.000Z', 'text': '💙💙💙', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7046148050101109766', 'uniqueId': 'juanp846', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/cdf703b505ceb5a3cf5f7b216c352922~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=986afc3f&amp;x-expires=1760878800&amp;x-signature=I3IwzhqGHFFkEzx2RBtxdNtKLxE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8262,18 +8262,18 @@
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Alpina que paso con los gatos de la leche alpina?, si me contestas me voy a la cabaña alpina👀</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G140" s="2" t="n">
-        <v>45926.65694444445</v>
+        <v>45940.88704861111</v>
       </c>
       <c r="H140" s="3" t="n">
-        <v>45926</v>
+        <v>45940</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>15:46:00</t>
+          <t>21:17:21</t>
         </is>
       </c>
       <c r="J140" t="n">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554424648151941905', 'createTime': 1758901560, 'createTimeISO': '2025-09-26T15:46:00.000Z', 'text': 'Alpina que paso con los gatos de la leche alpina?, si me contestas me voy a la cabaña alpina👀', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7436539205088396344', 'uniqueId': 'isaac_mora1903', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bd074fbf9f61ee99fcea8ef5f350b2bf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=14ed57fc&amp;x-expires=1760792400&amp;x-signature=j4Jcq3I5%2BblC29XcwrZAW6ZBSKI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7559705187091956488', 'createTime': 1760131041, 'createTimeISO': '2025-10-10T21:17:21.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7464357929971483649', 'uniqueId': 'aquiles.indriagol', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/72a6938f97ba8c0e50728d4cd7d182b4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=802e0db1&amp;x-expires=1760878800&amp;x-signature=6t8lvtT8U0zxxVe59G5pri4YE6Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8318,25 +8318,25 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
-          <t>cuando llegan a Perú los Mochis 😭😭</t>
+          <t>Me encuentro en el departamento del Meta puedo hacer mis Pasantías del Sena Con Alpina?</t>
         </is>
       </c>
       <c r="G141" s="2" t="n">
-        <v>45927.6415625</v>
+        <v>45928.8690625</v>
       </c>
       <c r="H141" s="3" t="n">
-        <v>45927</v>
+        <v>45928</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>15:23:51</t>
+          <t>20:51:27</t>
         </is>
       </c>
       <c r="J141" t="n">
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L141" t="b">
         <v>0</v>
@@ -8348,7 +8348,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554790021015946005', 'createTime': 1758986631, 'createTimeISO': '2025-09-27T15:23:51.000Z', 'text': 'cuando llegan a Perú los Mochis 😭😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7093344759511532549', 'uniqueId': 'hanzel3075', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/e5fc427c21f18dd65a5d6366a919b2b8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0ea78ea1&amp;x-expires=1760792400&amp;x-signature=jmlV0rDD3drE0DtZM6UA15Re478%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7555245460417331986', 'createTime': 1759092687, 'createTimeISO': '2025-09-28T20:51:27.000Z', 'text': 'Me encuentro en el departamento del Meta puedo hacer mis Pasantías del Sena Con Alpina?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7400852594988827654', 'uniqueId': 'whoisandres37', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/317c580e71debf147810b74b93171a6f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fe31ac26&amp;x-expires=1760878800&amp;x-signature=%2Bt2TfjHobDUc4qrQABVIwIqvc8E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8374,22 +8374,22 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Gran historia jajajaja 🥳</t>
+          <t>Hola! Una pregunta ¿es normal qué los minis ilumimochis de conejito verde venga de a 2?</t>
         </is>
       </c>
       <c r="G142" s="2" t="n">
-        <v>45925.03746527778</v>
+        <v>45925.04067129629</v>
       </c>
       <c r="H142" s="3" t="n">
         <v>45925</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>00:53:57</t>
+          <t>00:58:34</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K142" t="n">
         <v>0</v>
@@ -8404,7 +8404,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553823647435178770', 'createTime': 1758761637, 'createTimeISO': '2025-09-25T00:53:57.000Z', 'text': 'Gran historia jajajaja 🥳', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781206829306807302', 'uniqueId': 'gaaaabs6', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/87a6fa6e1b0b9d03506eca068222ad5e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fe1edaff&amp;x-expires=1760792400&amp;x-signature=n1dKSJD%2FbQByiwKJja3MCj6V9Uc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553824837010965266', 'createTime': 1758761914, 'createTimeISO': '2025-09-25T00:58:34.000Z', 'text': 'Hola! Una pregunta ¿es normal qué los minis ilumimochis de conejito verde venga de a 2?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7482894692960535570', 'uniqueId': 'eldiploo29', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e71b97d2782d93b9a10a9adec8349876~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6a262d5a&amp;x-expires=1760878800&amp;x-signature=88yM7jTmB%2BW%2FEm8wZEoH%2FJrbz%2BY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8430,26 +8430,26 @@
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
         <is>
-          <t>alpina cuando vas a mostras las familias ya tenemos Los nombres solo faltan las familias[happy][yummy]</t>
+          <t>Alpinaaaaa xq quitaste los gatooooooos</t>
         </is>
       </c>
       <c r="G143" s="2" t="n">
-        <v>45927.49298611111</v>
+        <v>45927.06792824074</v>
       </c>
       <c r="H143" s="3" t="n">
         <v>45927</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>11:49:54</t>
+          <t>01:37:49</t>
         </is>
       </c>
       <c r="J143" t="n">
+        <v>11</v>
+      </c>
+      <c r="K143" t="n">
         <v>3</v>
       </c>
-      <c r="K143" t="n">
-        <v>0</v>
-      </c>
       <c r="L143" t="b">
         <v>0</v>
       </c>
@@ -8460,7 +8460,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554734892081922823', 'createTime': 1758973794, 'createTimeISO': '2025-09-27T11:49:54.000Z', 'text': 'alpina cuando vas a mostras las familias ya tenemos Los nombres solo faltan las familias[happy][yummy]', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2bedf748&amp;x-expires=1760792400&amp;x-signature=Dm8VTvPq7YQd8fCIPrDZIrk5YWY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554577111799137025', 'createTime': 1758937069, 'createTimeISO': '2025-09-27T01:37:49.000Z', 'text': 'Alpinaaaaa xq quitaste los gatooooooos', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7414238685522199557', 'uniqueId': 'vxshly_', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/955223d63991be75d91f367af8ee3962~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3930bc6b&amp;x-expires=1760878800&amp;x-signature=3TZOFrzzXDMCNp%2Fs22ifzohp7zI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8486,25 +8486,25 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Alpinaaaaa xq quitaste los gatooooooos</t>
+          <t>alpina cuando vas a mostras las familias ya tenemos Los nombres solo faltan las familias[happy][yummy]</t>
         </is>
       </c>
       <c r="G144" s="2" t="n">
-        <v>45927.06792824074</v>
+        <v>45927.49298611111</v>
       </c>
       <c r="H144" s="3" t="n">
         <v>45927</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>01:37:49</t>
+          <t>11:49:54</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L144" t="b">
         <v>0</v>
@@ -8516,7 +8516,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554577111799137025', 'createTime': 1758937069, 'createTimeISO': '2025-09-27T01:37:49.000Z', 'text': 'Alpinaaaaa xq quitaste los gatooooooos', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7414238685522199557', 'uniqueId': 'vxshly_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/955223d63991be75d91f367af8ee3962~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=06a9c1d5&amp;x-expires=1760792400&amp;x-signature=cSwNh2VfmfahrzQL5MCuA5%2BGN1k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554734892081922823', 'createTime': 1758973794, 'createTimeISO': '2025-09-27T11:49:54.000Z', 'text': 'alpina cuando vas a mostras las familias ya tenemos Los nombres solo faltan las familias[happy][yummy]', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7cb3e843&amp;x-expires=1760878800&amp;x-signature=mfjCwO7dn7AnyUgqOYQUsPIabeA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8542,25 +8542,25 @@
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr">
         <is>
-          <t>que paso con los gatos de alpin?</t>
+          <t>nuevas familias 😳</t>
         </is>
       </c>
       <c r="G145" s="2" t="n">
-        <v>45930.19638888889</v>
+        <v>45927.005</v>
       </c>
       <c r="H145" s="3" t="n">
-        <v>45930</v>
+        <v>45927</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>04:42:48</t>
+          <t>00:07:12</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L145" t="b">
         <v>0</v>
@@ -8572,7 +8572,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7555738077466821394', 'createTime': 1759207368, 'createTimeISO': '2025-09-30T04:42:48.000Z', 'text': 'que paso con los gatos de alpin?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6926927885060621317', 'uniqueId': 'josep3473', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7b4d804bf42cb385a0941a18bd8b1c5e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9a78157c&amp;x-expires=1760792400&amp;x-signature=7Lw3hyr0QOjL6HUkF7OmjwizCK4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554553739177624336', 'createTime': 1758931632, 'createTimeISO': '2025-09-27T00:07:12.000Z', 'text': 'nuevas familias 😳', 'diggCount': 5, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3c4d6890&amp;x-expires=1760878800&amp;x-signature=Ka8%2BkswozclbZ%2FKa4ibdrqreD18%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8598,22 +8598,22 @@
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Yo quiero arequipe vegano 🥺</t>
+          <t>¿alpina que paso con los gatos del alpin?</t>
         </is>
       </c>
       <c r="G146" s="2" t="n">
-        <v>45933.83266203704</v>
+        <v>45927.02045138889</v>
       </c>
       <c r="H146" s="3" t="n">
-        <v>45933</v>
+        <v>45927</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>19:59:02</t>
+          <t>00:29:27</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K146" t="n">
         <v>0</v>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7557087381695890193', 'createTime': 1759521542, 'createTimeISO': '2025-10-03T19:59:02.000Z', 'text': 'Yo quiero arequipe vegano 🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6903626505060189189', 'uniqueId': 'mafeocampor', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bc55178240ac3f97ce30d333a28a48a5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=402b4891&amp;x-expires=1760792400&amp;x-signature=2GJHYvEsjNkJyXRD%2FO8KPcOfPFg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554559487220663058', 'createTime': 1758932967, 'createTimeISO': '2025-09-27T00:29:27.000Z', 'text': '¿alpina que paso con los gatos del alpin?', 'diggCount': 8, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7384592401019339781', 'uniqueId': 'el.pepe.joel', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/340ccdf36a548c49ba15c1f1d4f94a5a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d2319772&amp;x-expires=1760878800&amp;x-signature=Hy4akZ3w76%2FYaetXsqIj5UfB1ho%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8654,22 +8654,22 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr">
         <is>
-          <t>sería super interesante que grabarán un vídeo de cómo alguien se convierte en un maestro quesero (soy fan del queso)</t>
+          <t>primerooo alpina me regalas mochisauros porfiss</t>
         </is>
       </c>
       <c r="G147" s="2" t="n">
-        <v>45932.08685185185</v>
+        <v>45926.99771990741</v>
       </c>
       <c r="H147" s="3" t="n">
-        <v>45932</v>
+        <v>45926</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>02:05:04</t>
+          <t>23:56:43</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K147" t="n">
         <v>0</v>
@@ -8684,7 +8684,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7556439567764472596', 'createTime': 1759370704, 'createTimeISO': '2025-10-02T02:05:04.000Z', 'text': 'sería super interesante que grabarán un vídeo de cómo alguien se convierte en un maestro quesero (soy fan del queso)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6809345648602350598', 'uniqueId': 'ginapaolae.j', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7326882581663334405~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ae00d9f2&amp;x-expires=1760792400&amp;x-signature=QD6SyhNnIA6KsnrvW1dOBDE5nhs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554551041196770066', 'createTime': 1758931003, 'createTimeISO': '2025-09-26T23:56:43.000Z', 'text': 'primerooo alpina me regalas mochisauros porfiss', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7547457761526137864', 'uniqueId': 'camisetas.de.futbol1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a6c21b0befe49f100b71b7cf8f2e5652~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3bd2e0ac&amp;x-expires=1760878800&amp;x-signature=Rs5Pyr1J6AS22QJD94Tmm66cvKQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8710,22 +8710,22 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr">
         <is>
-          <t>¿alpina que paso con los gatos del alpin?</t>
+          <t>que paso con los gatos de alpin?</t>
         </is>
       </c>
       <c r="G148" s="2" t="n">
-        <v>45927.02045138889</v>
+        <v>45930.19638888889</v>
       </c>
       <c r="H148" s="3" t="n">
-        <v>45927</v>
+        <v>45930</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>00:29:27</t>
+          <t>04:42:48</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K148" t="n">
         <v>0</v>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554559487220663058', 'createTime': 1758932967, 'createTimeISO': '2025-09-27T00:29:27.000Z', 'text': '¿alpina que paso con los gatos del alpin?', 'diggCount': 8, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7384592401019339781', 'uniqueId': 'el.pepe.joel', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/340ccdf36a548c49ba15c1f1d4f94a5a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8c946ab3&amp;x-expires=1760792400&amp;x-signature=bkHVxsUk5syvQUKNz%2Bp2LHYM4Dk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7555738077466821394', 'createTime': 1759207368, 'createTimeISO': '2025-09-30T04:42:48.000Z', 'text': 'que paso con los gatos de alpin?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6926927885060621317', 'uniqueId': 'josep3473', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7b4d804bf42cb385a0941a18bd8b1c5e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c7c422d0&amp;x-expires=1760878800&amp;x-signature=nGaV8DAaQwQuwV0UggouxYVdReI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8766,26 +8766,26 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Alpinaaaa esos gatos son mi infancia porfavor regresalos</t>
+          <t>sube otro video de mochiiss</t>
         </is>
       </c>
       <c r="G149" s="2" t="n">
-        <v>45930.58837962963</v>
+        <v>45927.45836805556</v>
       </c>
       <c r="H149" s="3" t="n">
-        <v>45930</v>
+        <v>45927</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>14:07:16</t>
+          <t>11:00:03</t>
         </is>
       </c>
       <c r="J149" t="n">
+        <v>4</v>
+      </c>
+      <c r="K149" t="n">
         <v>1</v>
       </c>
-      <c r="K149" t="n">
-        <v>0</v>
-      </c>
       <c r="L149" t="b">
         <v>0</v>
       </c>
@@ -8796,7 +8796,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7555883548419932948', 'createTime': 1759241236, 'createTimeISO': '2025-09-30T14:07:16.000Z', 'text': 'Alpinaaaa esos gatos son mi infancia porfavor regresalos', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7259921363220792325', 'uniqueId': 'migue_resurgido', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e6cea1ed6c965c8a6b67e0007f15f789~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=888e07c4&amp;x-expires=1760792400&amp;x-signature=swI7jyePw2MUCqKeRyQHYndS7Fo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554722020870521616', 'createTime': 1758970803, 'createTimeISO': '2025-09-27T11:00:03.000Z', 'text': 'sube otro video de mochiiss', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7405734042824066054', 'uniqueId': 'emmanuel130816', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a09b533779b756050279fc4f4ba0f5fc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c607547b&amp;x-expires=1760878800&amp;x-signature=R5Z4l2yO9SBTN%2BV72DXhatN6lak%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8822,22 +8822,22 @@
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr">
         <is>
-          <t>primerooo alpina me regalas mochisauros porfiss</t>
+          <t>Yo quiero arequipe vegano 🥺</t>
         </is>
       </c>
       <c r="G150" s="2" t="n">
-        <v>45926.99771990741</v>
+        <v>45933.83266203704</v>
       </c>
       <c r="H150" s="3" t="n">
-        <v>45926</v>
+        <v>45933</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>23:56:43</t>
+          <t>19:59:02</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K150" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554551041196770066', 'createTime': 1758931003, 'createTimeISO': '2025-09-26T23:56:43.000Z', 'text': 'primerooo alpina me regalas mochisauros porfiss', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7547457761526137864', 'uniqueId': 'camisetas.de.futbol1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a6c21b0befe49f100b71b7cf8f2e5652~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=49014bed&amp;x-expires=1760792400&amp;x-signature=a%2BLAVMFlLqXaosOPiUJyAywEKPY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7557087381695890193', 'createTime': 1759521542, 'createTimeISO': '2025-10-03T19:59:02.000Z', 'text': 'Yo quiero arequipe vegano 🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6903626505060189189', 'uniqueId': 'mafeocampor', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bc55178240ac3f97ce30d333a28a48a5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a422a3be&amp;x-expires=1760878800&amp;x-signature=LyBRdLexR0%2BuR0imgmB%2F%2Bh81Ohw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8878,25 +8878,25 @@
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr">
         <is>
-          <t>sube otro video de mochiiss</t>
+          <t>ya se me antojo un yogo yogo mochisaurios</t>
         </is>
       </c>
       <c r="G151" s="2" t="n">
-        <v>45927.45836805556</v>
+        <v>45927.02165509259</v>
       </c>
       <c r="H151" s="3" t="n">
         <v>45927</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>11:00:03</t>
+          <t>00:31:11</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L151" t="b">
         <v>0</v>
@@ -8908,7 +8908,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554722020870521616', 'createTime': 1758970803, 'createTimeISO': '2025-09-27T11:00:03.000Z', 'text': 'sube otro video de mochiiss', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7405734042824066054', 'uniqueId': 'emmanuel130816', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a09b533779b756050279fc4f4ba0f5fc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1bd08103&amp;x-expires=1760792400&amp;x-signature=LmCRKGkw9s9Jk0WnCJzRh%2FbxsWo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554559943006864136', 'createTime': 1758933071, 'createTimeISO': '2025-09-27T00:31:11.000Z', 'text': 'ya se me antojo un yogo yogo mochisaurios', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7283326063072642053', 'uniqueId': 'socorrito.lopez0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9007660a09caa09f7a749fc3a9a23c0e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5019def7&amp;x-expires=1760878800&amp;x-signature=jKOP7h0HV6Z7KAsIBHwm8CFTTC8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8934,22 +8934,22 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr">
         <is>
-          <t>ya se me antojo un yogo yogo mochisaurios</t>
+          <t>Alpinaaaa esos gatos son mi infancia porfavor regresalos</t>
         </is>
       </c>
       <c r="G152" s="2" t="n">
-        <v>45927.02165509259</v>
+        <v>45930.58837962963</v>
       </c>
       <c r="H152" s="3" t="n">
-        <v>45927</v>
+        <v>45930</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>00:31:11</t>
+          <t>14:07:16</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K152" t="n">
         <v>0</v>
@@ -8964,7 +8964,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554559943006864136', 'createTime': 1758933071, 'createTimeISO': '2025-09-27T00:31:11.000Z', 'text': 'ya se me antojo un yogo yogo mochisaurios', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7283326063072642053', 'uniqueId': 'socorrito.lopez0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9007660a09caa09f7a749fc3a9a23c0e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=afa62f79&amp;x-expires=1760792400&amp;x-signature=3EFH80ImZ8k2JPNzAgF3PI0XFhE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7555883548419932948', 'createTime': 1759241236, 'createTimeISO': '2025-09-30T14:07:16.000Z', 'text': 'Alpinaaaa esos gatos son mi infancia porfavor regresalos', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7259921363220792325', 'uniqueId': 'migue_resurgido', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e6cea1ed6c965c8a6b67e0007f15f789~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=38411f99&amp;x-expires=1760878800&amp;x-signature=divvh%2B5Pl%2F5%2FyZHEKF9VIBIOcwg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8990,25 +8990,25 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Gabi sube la segunda parte de los Mochi saurios plis🙏🙏🙏</t>
+          <t>sería super interesante que grabarán un vídeo de cómo alguien se convierte en un maestro quesero (soy fan del queso)</t>
         </is>
       </c>
       <c r="G153" s="2" t="n">
-        <v>45927.79994212963</v>
+        <v>45932.08685185185</v>
       </c>
       <c r="H153" s="3" t="n">
-        <v>45927</v>
+        <v>45932</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>19:11:55</t>
+          <t>02:05:04</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L153" t="b">
         <v>0</v>
@@ -9020,7 +9020,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554848766027121426', 'createTime': 1759000315, 'createTimeISO': '2025-09-27T19:11:55.000Z', 'text': 'Gabi sube la segunda parte de los Mochi saurios plis🙏🙏🙏', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7505793601163674642', 'uniqueId': 'mariangel6169', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/399d2e2b90810396c3ec41de01efcf36~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b8a1e8e4&amp;x-expires=1760792400&amp;x-signature=qUOf1TyuzyxKp5mnSyEWD5dg%2FQg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7556439567764472596', 'createTime': 1759370704, 'createTimeISO': '2025-10-02T02:05:04.000Z', 'text': 'sería super interesante que grabarán un vídeo de cómo alguien se convierte en un maestro quesero (soy fan del queso)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6809345648602350598', 'uniqueId': 'ginapaolae.j', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7326882581663334405~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e2456dad&amp;x-expires=1760878800&amp;x-signature=SgIZjbqM0QCoYCkfAc18xYzo2YA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9076,7 +9076,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554714387131745031', 'createTime': 1758969020, 'createTimeISO': '2025-09-27T10:30:20.000Z', 'text': 'Que tarea esa endulzada 😳🥰 la mejor 😇💖', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a0c7ceb2&amp;x-expires=1760792400&amp;x-signature=n8ULNXO7OSQPOUy1Ykxw4pMDmQc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554714387131745031', 'createTime': 1758969020, 'createTimeISO': '2025-09-27T10:30:20.000Z', 'text': 'Que tarea esa endulzada 😳🥰 la mejor 😇💖', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f3c8a5c7&amp;x-expires=1760878800&amp;x-signature=a%2FIWjCHEIyz2OrlNwCKg0zCFZCI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9102,25 +9102,25 @@
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr">
         <is>
-          <t>nuevas familias 😳</t>
+          <t>Gabi sube la segunda parte de los Mochi saurios plis🙏🙏🙏</t>
         </is>
       </c>
       <c r="G155" s="2" t="n">
-        <v>45927.005</v>
+        <v>45927.79994212963</v>
       </c>
       <c r="H155" s="3" t="n">
         <v>45927</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>00:07:12</t>
+          <t>19:11:55</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L155" t="b">
         <v>0</v>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554553739177624336', 'createTime': 1758931632, 'createTimeISO': '2025-09-27T00:07:12.000Z', 'text': 'nuevas familias 😳', 'diggCount': 5, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e7109759&amp;x-expires=1760792400&amp;x-signature=6np5PsSGRsgOWrfycwtS1A%2F9FUg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554848766027121426', 'createTime': 1759000315, 'createTimeISO': '2025-09-27T19:11:55.000Z', 'text': 'Gabi sube la segunda parte de los Mochi saurios plis🙏🙏🙏', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7505793601163674642', 'uniqueId': 'mariangel6169', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/399d2e2b90810396c3ec41de01efcf36~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=baf86c58&amp;x-expires=1760878800&amp;x-signature=AAqBFQKfdEp8IPjj0qu9I7t6Ccs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9188,7 +9188,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554552119991829255', 'createTime': 1758931250, 'createTimeISO': '2025-09-27T00:00:50.000Z', 'text': '😊😊😊', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7263510507210245125', 'uniqueId': 'anyela1p', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/388bda02c957db9a4a0d8b463d9fb749~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6afbbe5f&amp;x-expires=1760792400&amp;x-signature=QaO3r6uGdvV2aQYE%2FVjt5KlrvxQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554552119991829255', 'createTime': 1758931250, 'createTimeISO': '2025-09-27T00:00:50.000Z', 'text': '😊😊😊', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7263510507210245125', 'uniqueId': 'anyela1p', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/388bda02c957db9a4a0d8b463d9fb749~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2fbe24c2&amp;x-expires=1760878800&amp;x-signature=f12La4ErhkA4E7Nn5vdg4EBt13Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9244,7 +9244,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554556989701325580', 'createTime': 1758932388, 'createTimeISO': '2025-09-27T00:19:48.000Z', 'text': '🔝', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808343868984345606', 'uniqueId': 'isaacalejandrorueda', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/9521fa11b07506edc233d485d7408f43~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a82d869b&amp;x-expires=1760792400&amp;x-signature=8HKYJ%2FKu2Csjq0aBKqI7GBL3RHE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554556989701325580', 'createTime': 1758932388, 'createTimeISO': '2025-09-27T00:19:48.000Z', 'text': '🔝', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808343868984345606', 'uniqueId': 'isaacalejandrorueda', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/9521fa11b07506edc233d485d7408f43~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=93582f00&amp;x-expires=1760878800&amp;x-signature=DsgJi6sVKOuS7xIW4p9S6fcHl0M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9300,7 +9300,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907918385365768', 'createTime': 1760643901, 'createTimeISO': '2025-10-16T19:45:01.000Z', 'text': '♥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=45c58ff3&amp;x-expires=1760792400&amp;x-signature=6mXpdc7voc2by0N47YbD%2FQpj3zA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907918385365768', 'createTime': 1760643901, 'createTimeISO': '2025-10-16T19:45:01.000Z', 'text': '♥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7c3798dc&amp;x-expires=1760878800&amp;x-signature=2yXlPF7WXJw9A177VnOUS1ZP09s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9356,7 +9356,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907930460537607', 'createTime': 1760643903, 'createTimeISO': '2025-10-16T19:45:03.000Z', 'text': '♥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=45c58ff3&amp;x-expires=1760792400&amp;x-signature=6mXpdc7voc2by0N47YbD%2FQpj3zA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907930460537607', 'createTime': 1760643903, 'createTimeISO': '2025-10-16T19:45:03.000Z', 'text': '♥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7c3798dc&amp;x-expires=1760878800&amp;x-signature=2yXlPF7WXJw9A177VnOUS1ZP09s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9412,7 +9412,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7555946787841164050', 'createTime': 1759255961, 'createTimeISO': '2025-09-30T18:12:41.000Z', 'text': '@Alpina 🐮 hola necesito un favor suyo 🙏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7314724628953121797', 'uniqueId': 'jan.cityzens', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5d6f3dd82f6da2bcac787ef22cb28684~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c40b0004&amp;x-expires=1760792400&amp;x-signature=zu9ZRiPI9MtJe6phV7wQaRngGCo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7555946787841164050', 'createTime': 1759255961, 'createTimeISO': '2025-09-30T18:12:41.000Z', 'text': '@Alpina 🐮 hola necesito un favor suyo 🙏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7314724628953121797', 'uniqueId': 'jan.cityzens', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5d6f3dd82f6da2bcac787ef22cb28684~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=029fd203&amp;x-expires=1760878800&amp;x-signature=Zm%2BeQebd6k9zURXNmN7Byf7hetg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
         </is>
       </c>
     </row>
@@ -9468,7 +9468,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907940182098696', 'createTime': 1760643902, 'createTimeISO': '2025-10-16T19:45:02.000Z', 'text': '❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=45c58ff3&amp;x-expires=1760792400&amp;x-signature=6mXpdc7voc2by0N47YbD%2FQpj3zA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907940182098696', 'createTime': 1760643902, 'createTimeISO': '2025-10-16T19:45:02.000Z', 'text': '❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7c3798dc&amp;x-expires=1760878800&amp;x-signature=2yXlPF7WXJw9A177VnOUS1ZP09s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9524,7 +9524,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907925900821255', 'createTime': 1760643901, 'createTimeISO': '2025-10-16T19:45:01.000Z', 'text': '💚', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=45c58ff3&amp;x-expires=1760792400&amp;x-signature=6mXpdc7voc2by0N47YbD%2FQpj3zA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907925900821255', 'createTime': 1760643901, 'createTimeISO': '2025-10-16T19:45:01.000Z', 'text': '💚', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7c3798dc&amp;x-expires=1760878800&amp;x-signature=2yXlPF7WXJw9A177VnOUS1ZP09s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9580,7 +9580,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907909032067847', 'createTime': 1760643902, 'createTimeISO': '2025-10-16T19:45:02.000Z', 'text': '♥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=45c58ff3&amp;x-expires=1760792400&amp;x-signature=6mXpdc7voc2by0N47YbD%2FQpj3zA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907909032067847', 'createTime': 1760643902, 'createTimeISO': '2025-10-16T19:45:02.000Z', 'text': '♥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7c3798dc&amp;x-expires=1760878800&amp;x-signature=2yXlPF7WXJw9A177VnOUS1ZP09s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907924650574600', 'createTime': 1760643900, 'createTimeISO': '2025-10-16T19:45:00.000Z', 'text': '❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=45c58ff3&amp;x-expires=1760792400&amp;x-signature=6mXpdc7voc2by0N47YbD%2FQpj3zA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907924650574600', 'createTime': 1760643900, 'createTimeISO': '2025-10-16T19:45:00.000Z', 'text': '❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7c3798dc&amp;x-expires=1760878800&amp;x-signature=2yXlPF7WXJw9A177VnOUS1ZP09s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9692,7 +9692,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7557452880204202770', 'createTime': 1759606635, 'createTimeISO': '2025-10-04T19:37:15.000Z', 'text': 'mochisssssss', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7329726761418753029', 'uniqueId': 'pipi.potato35', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0d01dfa969f5266b98420f02248fc885~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e2bf14d3&amp;x-expires=1760792400&amp;x-signature=WeraceBkzGVW6v88HrXjUC8bbYM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7557452880204202770', 'createTime': 1759606635, 'createTimeISO': '2025-10-04T19:37:15.000Z', 'text': 'mochisssssss', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7329726761418753029', 'uniqueId': 'pipi.potato35', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0d01dfa969f5266b98420f02248fc885~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=da8528f9&amp;x-expires=1760878800&amp;x-signature=zrg7lv%2FvyVAVzwWjw%2F7FvOG3ZPY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9748,7 +9748,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7559844927899992849', 'createTime': 1760163571, 'createTimeISO': '2025-10-11T06:19:31.000Z', 'text': 'aquí esperando el video donde hablen de los gatos de alpin', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7001651876342055942', 'uniqueId': 'm1mundo_lu', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/1f167436074f22f5e92f6246fd53543d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=5ef33569&amp;x-expires=1760792400&amp;x-signature=Uj%2FWhleq0AeNhJ6NCCQMhhdw1xk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=sg1', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7559844927899992849', 'createTime': 1760163571, 'createTimeISO': '2025-10-11T06:19:31.000Z', 'text': 'aquí esperando el video donde hablen de los gatos de alpin', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7001651876342055942', 'uniqueId': 'm1mundo_lu', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/1f167436074f22f5e92f6246fd53543d~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=1c306494&amp;x-expires=1760878800&amp;x-signature=DuT%2BONr9XrH2gFbaAaxGovnchV4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -535,25 +535,26 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vaquita Kefir plus😊</t>
+          <t>primero
+ya casi es octubre que colección de Mochis van a sacar para halloween ✨✨✨?</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>45902.03216435185</v>
+        <v>45902.01054398148</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>45902</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>00:46:19</t>
+          <t>00:15:11</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -565,7 +566,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7545286715469792007', 'createTime': 1756773979, 'createTimeISO': '2025-09-02T00:46:19.000Z', 'text': 'Vaquita Kefir plus😊', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6686398605715244037', 'uniqueId': 'carolina_serrano', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/79be4af25ec17f747428b28ea34a0231~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3d2de81b&amp;x-expires=1760878800&amp;x-signature=%2Fbp%2FlY2AnEKXLKWF3QvCHh%2FpL3Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7545278675375244050', 'createTime': 1756772111, 'createTimeISO': '2025-09-02T00:15:11.000Z', 'text': 'primero\nya casi es octubre que colección de Mochis van a sacar para halloween ✨✨✨?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 10, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=939da670&amp;x-expires=1760965200&amp;x-signature=guj4I6pmbrBAebWWWnpAcDJMVjc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -591,27 +592,26 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>primero
-ya casi es octubre que colección de Mochis van a sacar para halloween ✨✨✨?</t>
+          <t>Mas videos asiiiii🔥🔥🔥🔥</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>45902.01054398148</v>
+        <v>45902.11331018519</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>45902</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>00:15:11</t>
+          <t>02:43:10</t>
         </is>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>1</v>
       </c>
-      <c r="K3" t="n">
-        <v>10</v>
-      </c>
       <c r="L3" t="b">
         <v>0</v>
       </c>
@@ -622,7 +622,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7545278675375244050', 'createTime': 1756772111, 'createTimeISO': '2025-09-02T00:15:11.000Z', 'text': 'primero\nya casi es octubre que colección de Mochis van a sacar para halloween ✨✨✨?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 10, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7cb3e843&amp;x-expires=1760878800&amp;x-signature=mfjCwO7dn7AnyUgqOYQUsPIabeA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7545316874159293192', 'createTime': 1756780990, 'createTimeISO': '2025-09-02T02:43:10.000Z', 'text': 'Mas videos asiiiii🔥🔥🔥🔥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '178030697805189120', 'uniqueId': 'nico5box', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5a97c5c648a6246f815739afc2a4dd5b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5edcce3a&amp;x-expires=1760965200&amp;x-signature=InupDQWDB9HbcuwfBIZfuAuRK3A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -648,25 +648,25 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mas videos asiiiii🔥🔥🔥🔥</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45902.11331018519</v>
+        <v>45914.95070601852</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>45902</v>
+        <v>45914</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>02:43:10</t>
+          <t>22:49:01</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -678,7 +678,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7545316874159293192', 'createTime': 1756780990, 'createTimeISO': '2025-09-02T02:43:10.000Z', 'text': 'Mas videos asiiiii🔥🔥🔥🔥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '178030697805189120', 'uniqueId': 'nico5box', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5a97c5c648a6246f815739afc2a4dd5b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dff8ae2b&amp;x-expires=1760878800&amp;x-signature=NcWdZzR%2FkBVup7RnwVcaA9AWA5g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7550080571285816082', 'createTime': 1757890141, 'createTimeISO': '2025-09-14T22:49:01.000Z', 'text': '😁', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7469966561530430471', 'uniqueId': 'juangmgm84i', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=51d04cd2&amp;x-expires=1760965200&amp;x-signature=8TjSN%2BmK3zIZo8AihOKtbP0NrMo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -704,22 +704,22 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>YO SOY FAN NUMERO UNO DEL KEFIR PLUS DE ALPINA. REALMENTE ES EFECTIVO Y MUY BUENO PARA EL ORGANISMO. Quería escribirles y decirles que el producto es un Hit absoluto. Yo consumo desde hace dos semanas el kefir, y en mi familia ya quedó instalado también 🥰🥰🥰. Y la versión pequeña personal es una maravilla para consumidoras como yo🥰🥰🥰. Bravooooooooooo ALPINA🩷</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45914.95070601852</v>
+        <v>45929.12273148148</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>45914</v>
+        <v>45929</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>22:49:01</t>
+          <t>02:56:44</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -734,7 +734,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7550080571285816082', 'createTime': 1757890141, 'createTimeISO': '2025-09-14T22:49:01.000Z', 'text': '😁', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7469966561530430471', 'uniqueId': 'juangmgm84i', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6b580be8&amp;x-expires=1760878800&amp;x-signature=FnV432vZGdh15k9rP2O%2BKbRKess%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7555339654096388871', 'createTime': 1759114604, 'createTimeISO': '2025-09-29T02:56:44.000Z', 'text': 'YO SOY FAN NUMERO UNO DEL KEFIR PLUS DE ALPINA. REALMENTE ES EFECTIVO Y MUY BUENO PARA EL ORGANISMO. Quería escribirles y decirles que el producto es un Hit absoluto. Yo consumo desde hace dos semanas el kefir, y en mi familia ya quedó instalado también 🥰🥰🥰. Y la versión pequeña personal es una maravilla para consumidoras como yo🥰🥰🥰. Bravooooooooooo ALPINA\U0001fa77', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6892758040694359046', 'uniqueId': 'yeriname7', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6c41967350ee22b8d1bcb851e47d28c2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fb416995&amp;x-expires=1760965200&amp;x-signature=WlgPQHCowt47TqJ6SoNaDe3i%2BnM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -760,25 +760,25 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>YO SOY FAN NUMERO UNO DEL KEFIR PLUS DE ALPINA. REALMENTE ES EFECTIVO Y MUY BUENO PARA EL ORGANISMO. Quería escribirles y decirles que el producto es un Hit absoluto. Yo consumo desde hace dos semanas el kefir, y en mi familia ya quedó instalado también 🥰🥰🥰. Y la versión pequeña personal es una maravilla para consumidoras como yo🥰🥰🥰. Bravooooooooooo ALPINA🩷</t>
+          <t>Vaquita Kefir plus😊</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>45929.12273148148</v>
+        <v>45902.03216435185</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>45929</v>
+        <v>45902</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>02:56:44</t>
+          <t>00:46:19</t>
         </is>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -790,7 +790,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7555339654096388871', 'createTime': 1759114604, 'createTimeISO': '2025-09-29T02:56:44.000Z', 'text': 'YO SOY FAN NUMERO UNO DEL KEFIR PLUS DE ALPINA. REALMENTE ES EFECTIVO Y MUY BUENO PARA EL ORGANISMO. Quería escribirles y decirles que el producto es un Hit absoluto. Yo consumo desde hace dos semanas el kefir, y en mi familia ya quedó instalado también 🥰🥰🥰. Y la versión pequeña personal es una maravilla para consumidoras como yo🥰🥰🥰. Bravooooooooooo ALPINA\U0001fa77', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6892758040694359046', 'uniqueId': 'yeriname7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6c41967350ee22b8d1bcb851e47d28c2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=38410dec&amp;x-expires=1760878800&amp;x-signature=mxdujJDexj9XnS1%2FskgTvaet0PQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7545286715469792007', 'createTime': 1756773979, 'createTimeISO': '2025-09-02T00:46:19.000Z', 'text': 'Vaquita Kefir plus😊', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6686398605715244037', 'uniqueId': 'carolina_serrano', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/79be4af25ec17f747428b28ea34a0231~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c98fd020&amp;x-expires=1760965200&amp;x-signature=AXaFECaaEgT5zme0fvJ9pzbzT8Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547697455086404360', 'createTime': 1757335263, 'createTimeISO': '2025-09-08T12:41:03.000Z', 'text': 'QUEE?? 😭\nYO YA ESTABA EMOCIONADO SI AVISABAN NUEVOS MOCHIS O SUS VIDEOS QUE ME ENTRETIENEN😭😭😭', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7cb3e843&amp;x-expires=1760878800&amp;x-signature=mfjCwO7dn7AnyUgqOYQUsPIabeA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547697455086404360', 'createTime': 1757335263, 'createTimeISO': '2025-09-08T12:41:03.000Z', 'text': 'QUEE?? 😭\nYO YA ESTABA EMOCIONADO SI AVISABAN NUEVOS MOCHIS O SUS VIDEOS QUE ME ENTRETIENEN😭😭😭', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7223039a&amp;x-expires=1760965200&amp;x-signature=TiTCp%2FNuZZduu9vmf2HKI8y8Bcw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -873,18 +873,18 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NOOO ALPINA XQQQ😭</t>
+          <t>Queee ?</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45932.70420138889</v>
+        <v>45905.84496527778</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>45932</v>
+        <v>45905</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>16:54:03</t>
+          <t>20:16:45</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -903,7 +903,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7556668683994727189', 'createTime': 1759424043, 'createTimeISO': '2025-10-02T16:54:03.000Z', 'text': 'NOOO ALPINA XQQQ😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7183010536447411205', 'uniqueId': 'isa._.325', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9df3fc21562bf9b98d25266752d554c8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3016841b&amp;x-expires=1760878800&amp;x-signature=%2ByOVfS4MGXBTL5%2FdDKHu3jqfg6A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546701614498087688', 'createTime': 1757103405, 'createTimeISO': '2025-09-05T20:16:45.000Z', 'text': 'Queee ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781206829306807302', 'uniqueId': 'gaaaabs6', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/87a6fa6e1b0b9d03506eca068222ad5e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=281292c1&amp;x-expires=1760965200&amp;x-signature=cdE8J5K0heZnYxvIrB9WLhloky8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -929,18 +929,18 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gaby alpinita que sucedio, vuelve vuelveeeeeeew💖</t>
+          <t>NOOO ALPINA XQQQ😭</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>45920.12734953704</v>
+        <v>45932.70420138889</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>45920</v>
+        <v>45932</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>03:03:23</t>
+          <t>16:54:03</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -959,7 +959,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7552001614913356551', 'createTime': 1758337403, 'createTimeISO': '2025-09-20T03:03:23.000Z', 'text': 'Gaby alpinita que sucedio, vuelve vuelveeeeeeew💖', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f3c8a5c7&amp;x-expires=1760878800&amp;x-signature=a%2FIWjCHEIyz2OrlNwCKg0zCFZCI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7556668683994727189', 'createTime': 1759424043, 'createTimeISO': '2025-10-02T16:54:03.000Z', 'text': 'NOOO ALPINA XQQQ😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7183010536447411205', 'uniqueId': 'isa._.325', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9df3fc21562bf9b98d25266752d554c8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e3353311&amp;x-expires=1760965200&amp;x-signature=wfuh2Isxyri%2FeWiB%2BijOuqc7xts%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -985,18 +985,18 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Queee ?</t>
+          <t>Gaby alpinita que sucedio, vuelve vuelveeeeeeew💖</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>45905.84496527778</v>
+        <v>45920.12734953704</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>45905</v>
+        <v>45920</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>20:16:45</t>
+          <t>03:03:23</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546701614498087688', 'createTime': 1757103405, 'createTimeISO': '2025-09-05T20:16:45.000Z', 'text': 'Queee ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781206829306807302', 'uniqueId': 'gaaaabs6', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/87a6fa6e1b0b9d03506eca068222ad5e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e4b6997d&amp;x-expires=1760878800&amp;x-signature=nkSkGwDHuKcXWjhITM1Z1pvDhlo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7552001614913356551', 'createTime': 1758337403, 'createTimeISO': '2025-09-20T03:03:23.000Z', 'text': 'Gaby alpinita que sucedio, vuelve vuelveeeeeeew💖', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=47a2209d&amp;x-expires=1760965200&amp;x-signature=cse0xr%2BjherRkbs8rM5V2LiIs%2Fk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547942977034617601', 'createTime': 1757392441, 'createTimeISO': '2025-09-09T04:34:01.000Z', 'text': 'volví, haber cuantos meses me fui, que??!!!, 4 meses 😱', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3c4d6890&amp;x-expires=1760878800&amp;x-signature=Ka8%2BkswozclbZ%2FKa4ibdrqreD18%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547942977034617601', 'createTime': 1757392441, 'createTimeISO': '2025-09-09T04:34:01.000Z', 'text': 'volví, haber cuantos meses me fui, que??!!!, 4 meses 😱', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bc29958f&amp;x-expires=1760965200&amp;x-signature=lq3UtwGN8vJqzezzKou9GHJcoN8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547344669736600338', 'createTime': 1757253295, 'createTimeISO': '2025-09-07T13:54:55.000Z', 'text': 'porqueeee??😭😭😭😭', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7467024639018468360', 'uniqueId': 'leidy_y22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/170467e038e889966ba7de820632ba9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7ae44a7a&amp;x-expires=1760878800&amp;x-signature=mLowcAa5O7IL19oxPbWYSXx5VMc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547344669736600338', 'createTime': 1757253295, 'createTimeISO': '2025-09-07T13:54:55.000Z', 'text': 'porqueeee??😭😭😭😭', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7467024639018468360', 'uniqueId': 'leidy_y22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/170467e038e889966ba7de820632ba9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8774a3be&amp;x-expires=1760965200&amp;x-signature=4JSyFE7DwiCrUlebjZ%2BXTVP1cfw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546676538382746376', 'createTime': 1757097568, 'createTimeISO': '2025-09-05T18:39:28.000Z', 'text': 'Qué? 😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6823366905291965446', 'uniqueId': 'jfelipegomez1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7329628384854736902~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0de9949a&amp;x-expires=1760878800&amp;x-signature=eAyHnCXR3LjG5w2p5gpHFzhUabk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546676538382746376', 'createTime': 1757097568, 'createTimeISO': '2025-09-05T18:39:28.000Z', 'text': 'Qué? 😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6823366905291965446', 'uniqueId': 'jfelipegomez1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7329628384854736902~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7fccea3e&amp;x-expires=1760965200&amp;x-signature=Tw3u6w0WRiuM0gVCUTXz4Pl0R%2BA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547741547535500049', 'createTime': 1757345532, 'createTimeISO': '2025-09-08T15:32:12.000Z', 'text': 'por Dios ahora que pasó. y yo etiquetando Alpina 😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6830280708298343430', 'uniqueId': 'andreifyt2025_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ca95b033b49845a0bbb72152f6a7fb22~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2ba9d54b&amp;x-expires=1760878800&amp;x-signature=CeBBclChUx9Iwwtz2%2Fa2UBimS4I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547741547535500049', 'createTime': 1757345532, 'createTimeISO': '2025-09-08T15:32:12.000Z', 'text': 'por Dios ahora que pasó. y yo etiquetando Alpina 😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6830280708298343430', 'uniqueId': 'andreifyt2025_', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ca95b033b49845a0bbb72152f6a7fb22~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=694c4e43&amp;x-expires=1760965200&amp;x-signature=70hz54G6hWLaS3ekbRvZFKce9hw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546705871947072276', 'createTime': 1757104397, 'createTimeISO': '2025-09-05T20:33:17.000Z', 'text': 'Wa hapen', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6786334206413177862', 'uniqueId': 'oscardavidaldana', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/bc48481fc572183ea9e26aa81964cf2b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8a74ccdc&amp;x-expires=1760878800&amp;x-signature=BP1%2FQucpVWUUZqosMyXCFKx3Dk4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546705871947072276', 'createTime': 1757104397, 'createTimeISO': '2025-09-05T20:33:17.000Z', 'text': 'Wa hapen', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6786334206413177862', 'uniqueId': 'oscardavidaldana', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/bc48481fc572183ea9e26aa81964cf2b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ea54c53d&amp;x-expires=1760965200&amp;x-signature=xakWXDUG1TqK2W0RHXkTP2tDyi8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546693261533659922', 'createTime': 1757101461, 'createTimeISO': '2025-09-05T19:44:21.000Z', 'text': '👀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808331911279903750', 'uniqueId': 'aleja.cardenas', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ae26428fddeb4cb0c608c71af324941d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b14c2970&amp;x-expires=1760878800&amp;x-signature=kxXNMe8jU2J4MyQENN%2BexqKiFKU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546693261533659922', 'createTime': 1757101461, 'createTimeISO': '2025-09-05T19:44:21.000Z', 'text': '👀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808331911279903750', 'uniqueId': 'aleja.cardenas', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ae26428fddeb4cb0c608c71af324941d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c02dd4e1&amp;x-expires=1760965200&amp;x-signature=PLlTcrdruK8pT1Nnf%2BX3MYDr8T8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546942799272411922', 'createTime': 1757159557, 'createTimeISO': '2025-09-06T11:52:37.000Z', 'text': '😭😰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7416452271041987590', 'uniqueId': 'saragutierrez9607', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2d50ff98a95e65e1155080427e14139e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7016b40c&amp;x-expires=1760878800&amp;x-signature=Lk1ycKGysOMCJzX9P5jKdiY6s1E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546942799272411922', 'createTime': 1757159557, 'createTimeISO': '2025-09-06T11:52:37.000Z', 'text': '😭😰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7416452271041987590', 'uniqueId': 'saragutierrez9607', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2d50ff98a95e65e1155080427e14139e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=685165ca&amp;x-expires=1760965200&amp;x-signature=mHkzFvKHdgcTlS3R7QLFdDDWBlc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7549569237565211409', 'createTime': 1757771074, 'createTimeISO': '2025-09-13T13:44:34.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7186369712568189957', 'uniqueId': 'luzadrianacanooro', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ba9035ed44089efdd68ad1a325c0409b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a0818233&amp;x-expires=1760878800&amp;x-signature=sKW8rGRzKxT0dhl3P4oOhguH2X8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7549569237565211409', 'createTime': 1757771074, 'createTimeISO': '2025-09-13T13:44:34.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7186369712568189957', 'uniqueId': 'luzadrianacanooro', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ba9035ed44089efdd68ad1a325c0409b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8fc1d874&amp;x-expires=1760965200&amp;x-signature=uAiWf%2BKP8cIT8BTGpJkql0ZVNYs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7557608767006114567', 'createTime': 1759642921, 'createTimeISO': '2025-10-05T05:42:01.000Z', 'text': 'Por qué están en problemas con el ministerio de trabajo @Ministerio de Trabajo -Bolivia por qué sus distribuidores en el país tienen a sus empleados con explotación laboral sobre carga laboral horarios que exceden las 15 horas y no les pagan extras ni recargos donde un empleado hace lo de 3 empleados', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6954818842602931205', 'uniqueId': 'fabiobedoya1504', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0533c8b2372d1c920dad7ae339c48a3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f6d70613&amp;x-expires=1760878800&amp;x-signature=aaHm7%2FRmx5Fuf8J9ZWg33ABF3pM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@Ministerio de Trabajo -Bolivia'], 'detailedMentions': [{'userId': '6817567040930497541', 'nickName': 'Ministerio de Trabajo -Bolivia', 'profileUrl': 'https://www.tiktok.com/@6817567040930497541', 'secUid': 'MS4wLjABAAAAVga5B9Md-oI5XuH5Ruk5ES1IympOnnPUKuurL6hWMHXQ6hzxZPUYisB2cnA5aPyh'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7557608767006114567', 'createTime': 1759642921, 'createTimeISO': '2025-10-05T05:42:01.000Z', 'text': 'Por qué están en problemas con el ministerio de trabajo @Ministerio de Trabajo -Bolivia por qué sus distribuidores en el país tienen a sus empleados con explotación laboral sobre carga laboral horarios que exceden las 15 horas y no les pagan extras ni recargos donde un empleado hace lo de 3 empleados', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6954818842602931205', 'uniqueId': 'fabiobedoya1504', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0533c8b2372d1c920dad7ae339c48a3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dfad9bba&amp;x-expires=1760965200&amp;x-signature=aRUc5XgQJozgCtHdgoNU3iwC3ic%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@Ministerio de Trabajo -Bolivia'], 'detailedMentions': [{'userId': '6817567040930497541', 'nickName': 'Ministerio de Trabajo -Bolivia', 'profileUrl': 'https://www.tiktok.com/@6817567040930497541', 'secUid': 'MS4wLjABAAAAVga5B9Md-oI5XuH5Ruk5ES1IympOnnPUKuurL6hWMHXQ6hzxZPUYisB2cnA5aPyh'}]}</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546679584475349768', 'createTime': 1757098279, 'createTimeISO': '2025-09-05T18:51:19.000Z', 'text': 'ay y por que alpinita', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7389831937894843398', 'uniqueId': 'un_emo_amigable', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37bc4cd15dd442f352783fdcce05dfb8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=765b86a9&amp;x-expires=1760878800&amp;x-signature=iAPgmntG7dFLx57jKPS9CpBKjxA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546679584475349768', 'createTime': 1757098279, 'createTimeISO': '2025-09-05T18:51:19.000Z', 'text': 'ay y por que alpinita', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7389831937894843398', 'uniqueId': 'un_emo_amigable', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37bc4cd15dd442f352783fdcce05dfb8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0d977c84&amp;x-expires=1760965200&amp;x-signature=FTPnjQlh%2FnEv5582444YpUEdf%2B4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7560323939830924039', 'createTime': 1760275093, 'createTimeISO': '2025-10-12T13:18:13.000Z', 'text': 'para mí alpina no nesecita mucha publicidad,Alpina es un producto que se vende solo....solo con escuchar Alpina en mi mente automáticamente es calidad y muy rico..todo', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7278338689078658054', 'uniqueId': 'aydaconsuelobedoy', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/055c3a3a8db8013e7b0d2d1a496bf1ac~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a2bb3004&amp;x-expires=1760878800&amp;x-signature=b89XV09HBSD3Na%2FMbZg9n1mp%2FtQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7560323939830924039', 'createTime': 1760275093, 'createTimeISO': '2025-10-12T13:18:13.000Z', 'text': 'para mí alpina no nesecita mucha publicidad,Alpina es un producto que se vende solo....solo con escuchar Alpina en mi mente automáticamente es calidad y muy rico..todo', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7278338689078658054', 'uniqueId': 'aydaconsuelobedoy', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/055c3a3a8db8013e7b0d2d1a496bf1ac~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5516876a&amp;x-expires=1760965200&amp;x-signature=LZ%2Fiy5gFDX5JBer27cF6wbz3mpY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1657,25 +1657,25 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>siiii ayudemosle!!!</t>
+          <t>jojojo</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>45912.8164699074</v>
+        <v>45935.64364583333</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>45912</v>
+        <v>45935</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>19:35:43</t>
+          <t>15:26:51</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549288639830721301', 'createTime': 1757705743, 'createTimeISO': '2025-09-12T19:35:43.000Z', 'text': 'siiii ayudemosle!!!', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6770401168398386182', 'uniqueId': 'gabrielaguerrero70', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a36d643d0a9ecc0cdaafc93b6200aa8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f39f71a8&amp;x-expires=1760878800&amp;x-signature=CMxSSLGQ%2FmT%2B5DUct6tCUwPWv4g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7557758733863387920', 'createTime': 1759678011, 'createTimeISO': '2025-10-05T15:26:51.000Z', 'text': 'jojojo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7554795739316306964', 'uniqueId': 'freydermurcia33', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/699d7f94c2d9a0694952663b219cc25f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=45d2b6f4&amp;x-expires=1760965200&amp;x-signature=5Il6Z2PNzoTBCFIGoPZJV9YK6u0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1713,25 +1713,25 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Siiiii! Ya quiero ver la nueva practicante🎉🎉🎉</t>
+          <t>Ay tan bonitaaaaa mañana nos vemos 🥺</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>45912.6234375</v>
+        <v>45912.17210648148</v>
       </c>
       <c r="H23" s="3" t="n">
         <v>45912</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>14:57:45</t>
+          <t>04:07:50</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549217011010044692', 'createTime': 1757689065, 'createTimeISO': '2025-09-12T14:57:45.000Z', 'text': 'Siiiii! Ya quiero ver la nueva practicante🎉🎉🎉', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6819089554679940101', 'uniqueId': 'julianavivasr03', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f3051c41eba0cedcc184a155cdd5fe57~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1602472f&amp;x-expires=1760878800&amp;x-signature=t%2Bjs1IKdoN0%2FQW%2FTRGUT%2FbTtW5k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549049533700277012', 'createTime': 1757650070, 'createTimeISO': '2025-09-12T04:07:50.000Z', 'text': 'Ay tan bonitaaaaa mañana nos vemos 🥺', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7355258637583844357', 'uniqueId': 'majitouuuuuu0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/dbc73978fd3f05b374910bef0e207b56~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=10511d68&amp;x-expires=1760965200&amp;x-signature=pbTx0WQKZr391dlxwVqbu3OCeOs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1769,18 +1769,18 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ay tan bonitaaaaa mañana nos vemos 🥺</t>
+          <t>siiii ayudemosle!!!</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>45912.17210648148</v>
+        <v>45912.8164699074</v>
       </c>
       <c r="H24" s="3" t="n">
         <v>45912</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>04:07:50</t>
+          <t>19:35:43</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549049533700277012', 'createTime': 1757650070, 'createTimeISO': '2025-09-12T04:07:50.000Z', 'text': 'Ay tan bonitaaaaa mañana nos vemos 🥺', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7355258637583844357', 'uniqueId': 'majitouuuuuu0', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/dbc73978fd3f05b374910bef0e207b56~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e1803c57&amp;x-expires=1760878800&amp;x-signature=Nmh3YIspIsI0GTxCUO1va9garbg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549288639830721301', 'createTime': 1757705743, 'createTimeISO': '2025-09-12T19:35:43.000Z', 'text': 'siiii ayudemosle!!!', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6770401168398386182', 'uniqueId': 'gabrielaguerrero70', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a36d643d0a9ecc0cdaafc93b6200aa8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dd85fceb&amp;x-expires=1760965200&amp;x-signature=NXO%2FOR0Ui0WQE%2BMmZG6ECuBr6bk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1825,22 +1825,22 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>jojojo</t>
+          <t>Siiiii! Ya quiero ver la nueva practicante🎉🎉🎉</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>45935.64364583333</v>
+        <v>45912.6234375</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>45935</v>
+        <v>45912</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>15:26:51</t>
+          <t>14:57:45</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7557758733863387920', 'createTime': 1759678011, 'createTimeISO': '2025-10-05T15:26:51.000Z', 'text': 'jojojo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7554795739316306964', 'uniqueId': 'freydermurcia33', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/699d7f94c2d9a0694952663b219cc25f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1786b78c&amp;x-expires=1760878800&amp;x-signature=9OTAg%2FfSnTzH6wYyzdvw%2B5cKnxc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549217011010044692', 'createTime': 1757689065, 'createTimeISO': '2025-09-12T14:57:45.000Z', 'text': 'Siiiii! Ya quiero ver la nueva practicante🎉🎉🎉', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6819089554679940101', 'uniqueId': 'julianavivasr03', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f3051c41eba0cedcc184a155cdd5fe57~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=77476be4&amp;x-expires=1760965200&amp;x-signature=nlar5avZTS4LOFniABiP1ZjOqSY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549289149077979912', 'createTime': 1757705862, 'createTimeISO': '2025-09-12T19:37:42.000Z', 'text': 'Quien esssss ? 👀', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7255348886041691141', 'uniqueId': 'jholainec21', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/205ba05ede21686eb806965cb40fd502~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bf0e5232&amp;x-expires=1760878800&amp;x-signature=p%2ByZ3yAj4tYLCXW3Yz4%2BEuAo2sQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549289149077979912', 'createTime': 1757705862, 'createTimeISO': '2025-09-12T19:37:42.000Z', 'text': 'Quien esssss ? 👀', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7255348886041691141', 'uniqueId': 'jholainec21', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/205ba05ede21686eb806965cb40fd502~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e598b1a6&amp;x-expires=1760965200&amp;x-signature=hIr8elQQ1QAD1kIt7LBYeqIm9Eg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549004192569525000', 'createTime': 1757639515, 'createTimeISO': '2025-09-12T01:11:55.000Z', 'text': 'holitaaaa', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6982722979595863046', 'uniqueId': 'mrbrawl69', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/38c613c8f3cea66a0a3bfeab34f76e58~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bbf62fab&amp;x-expires=1760878800&amp;x-signature=B7Zvaa9pEUQwwK4s53WQkReHc5Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549004192569525000', 'createTime': 1757639515, 'createTimeISO': '2025-09-12T01:11:55.000Z', 'text': 'holitaaaa', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6982722979595863046', 'uniqueId': 'mrbrawl69', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/38c613c8f3cea66a0a3bfeab34f76e58~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=192a82e4&amp;x-expires=1760965200&amp;x-signature=uapVV27YeXZngivsz060j4%2BCCqs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549596693055554311', 'createTime': 1757777462, 'createTimeISO': '2025-09-13T15:31:02.000Z', 'text': 'A AYUDAR A ALPINA\U0001fa77\U0001fa77\U0001fa77', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7cb3e843&amp;x-expires=1760878800&amp;x-signature=mfjCwO7dn7AnyUgqOYQUsPIabeA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549596693055554311', 'createTime': 1757777462, 'createTimeISO': '2025-09-13T15:31:02.000Z', 'text': 'A AYUDAR A ALPINA\U0001fa77\U0001fa77\U0001fa77', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7223039a&amp;x-expires=1760965200&amp;x-signature=TiTCp%2FNuZZduu9vmf2HKI8y8Bcw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549015309047710471', 'createTime': 1757642105, 'createTimeISO': '2025-09-12T01:55:05.000Z', 'text': 'Un concurso de cocina ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6790480840596358149', 'uniqueId': 'vivianaospina67', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/34082dcda72461c00ba3d59eb0cda82a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9f65c14a&amp;x-expires=1760878800&amp;x-signature=91bs6WNXjkAEZvun3HU%2BfI9lgxA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549015309047710471', 'createTime': 1757642105, 'createTimeISO': '2025-09-12T01:55:05.000Z', 'text': 'Un concurso de cocina ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6790480840596358149', 'uniqueId': 'vivianaospina67', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/34082dcda72461c00ba3d59eb0cda82a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=70c90d66&amp;x-expires=1760965200&amp;x-signature=samzA9s9TkHvZDrd544xN26FtAo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549000273060233991', 'createTime': 1757638613, 'createTimeISO': '2025-09-12T00:56:53.000Z', 'text': '💙💙💙', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7046148050101109766', 'uniqueId': 'juanp846', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/cdf703b505ceb5a3cf5f7b216c352922~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=986afc3f&amp;x-expires=1760878800&amp;x-signature=I3IwzhqGHFFkEzx2RBtxdNtKLxE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549000273060233991', 'createTime': 1757638613, 'createTimeISO': '2025-09-12T00:56:53.000Z', 'text': '💙💙💙', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7046148050101109766', 'uniqueId': 'juanp846', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/cdf703b505ceb5a3cf5f7b216c352922~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=319111d0&amp;x-expires=1760965200&amp;x-signature=wC8jZl5HiCXzx8teHr0Fr%2FiZdzQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549007617818559250', 'createTime': 1757640317, 'createTimeISO': '2025-09-12T01:25:17.000Z', 'text': '🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6710319884842337285', 'uniqueId': 'itssantiagocelis', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c17d4d00500c39eed015d9ab552b352a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=59ebec2e&amp;x-expires=1760878800&amp;x-signature=F4iVUpjmmuRW5jat10xaVPN%2FO%2F0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549007617818559250', 'createTime': 1757640317, 'createTimeISO': '2025-09-12T01:25:17.000Z', 'text': '🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6710319884842337285', 'uniqueId': 'itssantiagocelis', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c17d4d00500c39eed015d9ab552b352a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3e0b4e55&amp;x-expires=1760965200&amp;x-signature=p%2F%2BguXg%2Bic4fTmd8PS97anVE%2Fxk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549238211336487681', 'createTime': 1757693998, 'createTimeISO': '2025-09-12T16:19:58.000Z', 'text': '😮😮😮', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6778152010580509702', 'uniqueId': 'esteban_ocampov', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6a63d386d387123e4d61df4e994bb26d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=449fc35d&amp;x-expires=1760878800&amp;x-signature=xYiXo%2Fn8XrIsMY2QyDXDDRjVSHA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549238211336487681', 'createTime': 1757693998, 'createTimeISO': '2025-09-12T16:19:58.000Z', 'text': '😮😮😮', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6778152010580509702', 'uniqueId': 'esteban_ocampov', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6a63d386d387123e4d61df4e994bb26d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ec621a4b&amp;x-expires=1760965200&amp;x-signature=nYceAKWZIhtO5Ue%2FXXdbY1LZ2Cg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549310477420708629', 'createTime': 1757710837, 'createTimeISO': '2025-09-12T21:00:37.000Z', 'text': '🥰😳😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7509769410816705544', 'uniqueId': 'user749076194246', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6b580be8&amp;x-expires=1760878800&amp;x-signature=FnV432vZGdh15k9rP2O%2BKbRKess%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549310477420708629', 'createTime': 1757710837, 'createTimeISO': '2025-09-12T21:00:37.000Z', 'text': '🥰😳😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7509769410816705544', 'uniqueId': 'user749076194246', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=51d04cd2&amp;x-expires=1760965200&amp;x-signature=8TjSN%2BmK3zIZo8AihOKtbP0NrMo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549000221259399954', 'createTime': 1757638590, 'createTimeISO': '2025-09-12T00:56:30.000Z', 'text': '🗿🗿🗿', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7319745287890387973', 'uniqueId': 'matias_8595', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37f085e6cd1478b738e427953d05ecb8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=70510c36&amp;x-expires=1760878800&amp;x-signature=qMupPJjgjuzgFYHB5qrHLQiLhN0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549000221259399954', 'createTime': 1757638590, 'createTimeISO': '2025-09-12T00:56:30.000Z', 'text': '🗿🗿🗿', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7319745287890387973', 'uniqueId': 'matias_8595', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37f085e6cd1478b738e427953d05ecb8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e22b1123&amp;x-expires=1760965200&amp;x-signature=EhiH0dTLMobj1h%2Bx9A%2BBmFeEcBA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7557895538470322945', 'createTime': 1759709708, 'createTimeISO': '2025-10-06T00:15:08.000Z', 'text': 'rgcuhif', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6975369451886593029', 'uniqueId': 'noraortegom', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6b580be8&amp;x-expires=1760878800&amp;x-signature=FnV432vZGdh15k9rP2O%2BKbRKess%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7557895538470322945', 'createTime': 1759709708, 'createTimeISO': '2025-10-06T00:15:08.000Z', 'text': 'rgcuhif', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6975369451886593029', 'uniqueId': 'noraortegom', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4e760d8f&amp;x-expires=1760965200&amp;x-signature=UF7j3ISDIHb4Wes5pQU56zFTqAc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7559649133477823253', 'createTime': 1760117983, 'createTimeISO': '2025-10-10T17:39:43.000Z', 'text': 'que vuelvan los gatos porfiiii', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541238264298357778', 'uniqueId': 'invencible799', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/41228f33689b86eba8bd2b23e2173644~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c02c6515&amp;x-expires=1760878800&amp;x-signature=Jp%2BjraFveYTBEfzyK3kLVdWTBH0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7559649133477823253', 'createTime': 1760117983, 'createTimeISO': '2025-10-10T17:39:43.000Z', 'text': 'que vuelvan los gatos porfiiii', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541238264298357778', 'uniqueId': 'invencible799', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/41228f33689b86eba8bd2b23e2173644~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5e03f1b3&amp;x-expires=1760965200&amp;x-signature=HqUapxjwJDE%2BQk0g0MvAnLsRnKs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549191179351474951', 'createTime': 1757683161, 'createTimeISO': '2025-09-12T13:19:21.000Z', 'text': 'alpina yo quiero saber si¿la nueva colección de yogo premio se llama mochi saurios????@Alpina 🐮', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7467024639018468360', 'uniqueId': 'leidy_y22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/170467e038e889966ba7de820632ba9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7ae44a7a&amp;x-expires=1760878800&amp;x-signature=mLowcAa5O7IL19oxPbWYSXx5VMc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549191179351474951', 'createTime': 1757683161, 'createTimeISO': '2025-09-12T13:19:21.000Z', 'text': 'alpina yo quiero saber si¿la nueva colección de yogo premio se llama mochi saurios????@Alpina 🐮', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7467024639018468360', 'uniqueId': 'leidy_y22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/170467e038e889966ba7de820632ba9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8774a3be&amp;x-expires=1760965200&amp;x-signature=4JSyFE7DwiCrUlebjZ%2BXTVP1cfw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
         </is>
       </c>
     </row>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550850431720325905', 'createTime': 1758069395, 'createTimeISO': '2025-09-17T00:36:35.000Z', 'text': 'QUIERO MI MOCHISAURIOOOOO 😭🦕😩💗', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '282408726983028736', 'uniqueId': 'wanna_juana', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/17e1ad71c0265acba1716a4696601785~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bd8b3aed&amp;x-expires=1760878800&amp;x-signature=a4qATpgGmYVAY5InY5v6C%2FFEVQQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550850431720325905', 'createTime': 1758069395, 'createTimeISO': '2025-09-17T00:36:35.000Z', 'text': 'QUIERO MI MOCHISAURIOOOOO 😭🦕😩💗', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '282408726983028736', 'uniqueId': 'wanna_juana', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/17e1ad71c0265acba1716a4696601785~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4f719528&amp;x-expires=1760965200&amp;x-signature=2Z8E02UWP9bx6jq5tbm%2FgQ5NrcQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550838637400179464', 'createTime': 1758066634, 'createTimeISO': '2025-09-16T23:50:34.000Z', 'text': 'no soy practicante Pero quiero trabajar con ustedes 😭 soy admin, que puedo hacer? 😭', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6952624737991443462', 'uniqueId': 'valeria_noo2', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1a1431eb5fd2ec2b3db383b2b0e26ac9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ebd8d24f&amp;x-expires=1760878800&amp;x-signature=z9TFBIuBgy1LYoXBla1Lqo57%2BU8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550838637400179464', 'createTime': 1758066634, 'createTimeISO': '2025-09-16T23:50:34.000Z', 'text': 'no soy practicante Pero quiero trabajar con ustedes 😭 soy admin, que puedo hacer? 😭', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6952624737991443462', 'uniqueId': 'valeria_noo2', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1a1431eb5fd2ec2b3db383b2b0e26ac9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5f36777d&amp;x-expires=1760965200&amp;x-signature=YkYxNsNTKlZju2gD0MoRDHzwMVw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2665,25 +2665,25 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Me encantaaaa✨</t>
+          <t>Lo emocionada que estoy por hacer parte del equipo no tiene nombre 😩</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>45917.15711805555</v>
+        <v>45917.05436342592</v>
       </c>
       <c r="H40" s="3" t="n">
         <v>45917</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>03:46:15</t>
+          <t>01:18:17</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550899370625254165', 'createTime': 1758080775, 'createTimeISO': '2025-09-17T03:46:15.000Z', 'text': 'Me encantaaaa✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '6636032545857355782', 'uniqueId': 'amygonzal_', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bcf09f13282d39a21e796330dfd9b28d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e10213e0&amp;x-expires=1760878800&amp;x-signature=6OubIa1wuoUjGb2w0XT9x5h%2B%2B1k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550861226680648468', 'createTime': 1758071897, 'createTimeISO': '2025-09-17T01:18:17.000Z', 'text': 'Lo emocionada que estoy por hacer parte del equipo no tiene nombre 😩', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6561143503132540934', 'uniqueId': 'maaaarirg', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7324826520122785798~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d5db5fbf&amp;x-expires=1760965200&amp;x-signature=DqYrSBgwulhyuGmNE3YbRWssIbg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2721,25 +2721,25 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Buen día, aceptan pasantes en área administrativa?😳</t>
+          <t>Me encantaaaa✨</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>45924.54788194445</v>
+        <v>45917.15711805555</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>45924</v>
+        <v>45917</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>13:08:57</t>
+          <t>03:46:15</t>
         </is>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7553641991944602386', 'createTime': 1758719337, 'createTimeISO': '2025-09-24T13:08:57.000Z', 'text': 'Buen día, aceptan pasantes en área administrativa?😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6819016661686453254', 'uniqueId': 'scatalina15', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/65616505ecd12a1b5dd469d79ec8a719~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=25ff3a21&amp;x-expires=1760878800&amp;x-signature=02WdFTuL5%2FLKWDnJiwNYJ2n8MKE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550899370625254165', 'createTime': 1758080775, 'createTimeISO': '2025-09-17T03:46:15.000Z', 'text': 'Me encantaaaa✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '6636032545857355782', 'uniqueId': 'amygonzal_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bcf09f13282d39a21e796330dfd9b28d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f61a8c6f&amp;x-expires=1760965200&amp;x-signature=8LDBS9BOJVgGV%2F8mutUcdk%2FQ6dU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2777,25 +2777,25 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lo emocionada que estoy por hacer parte del equipo no tiene nombre 😩</t>
+          <t>como se puede conseguir el álbum de mochis</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>45917.05436342592</v>
+        <v>45928.17954861111</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>45917</v>
+        <v>45928</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>01:18:17</t>
+          <t>04:18:33</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550861226680648468', 'createTime': 1758071897, 'createTimeISO': '2025-09-17T01:18:17.000Z', 'text': 'Lo emocionada que estoy por hacer parte del equipo no tiene nombre 😩', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6561143503132540934', 'uniqueId': 'maaaarirg', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7324826520122785798~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4a8a55c0&amp;x-expires=1760878800&amp;x-signature=XIuQZ0K%2BbE3doqtIKC3QYkvKmJs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7554989643563205384', 'createTime': 1759033113, 'createTimeISO': '2025-09-28T04:18:33.000Z', 'text': 'como se puede conseguir el álbum de mochis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7340762611166299142', 'uniqueId': 'wilson.piraquive5', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/376f70562283aeaeeb98265a1fe54ae8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d1f1a787&amp;x-expires=1760965200&amp;x-signature=Myzf4v8jG2ZGoHoRi6aelurTANA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2833,18 +2833,18 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>como se puede conseguir el álbum de mochis</t>
+          <t>Hola alpina cambien el vasito de yogo yogo mochisaurio por qué es muy duro y me corte cambienlo por el de premio yogo yogo que se quita fácil se que no es del tema</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>45928.17954861111</v>
+        <v>45936.70731481481</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>45928</v>
+        <v>45936</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>04:18:33</t>
+          <t>16:58:32</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7554989643563205384', 'createTime': 1759033113, 'createTimeISO': '2025-09-28T04:18:33.000Z', 'text': 'como se puede conseguir el álbum de mochis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7340762611166299142', 'uniqueId': 'wilson.piraquive5', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/376f70562283aeaeeb98265a1fe54ae8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7e061268&amp;x-expires=1760878800&amp;x-signature=cdIySYIgFafb6%2FFgDFxsPyDm%2BLM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7558154185101247240', 'createTime': 1759769912, 'createTimeISO': '2025-10-06T16:58:32.000Z', 'text': 'Hola alpina cambien el vasito de yogo yogo mochisaurio por qué es muy duro y me corte cambienlo por el de premio yogo yogo que se quita fácil se que no es del tema', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7005260384655574022', 'uniqueId': 'diegoalejandropat3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7327286844337127429~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6452d55d&amp;x-expires=1760965200&amp;x-signature=5Zp3pgVFrYnffe5cckmdZysYPbQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2889,23 +2889,22 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1ro
-alpina te amo!!</t>
+          <t>Me salió tarde el vídeo 😟 yo quiero 🥹🙏🏻</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>45916.98658564815</v>
+        <v>45941.61577546296</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>45916</v>
+        <v>45941</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>23:40:41</t>
+          <t>14:46:43</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -2920,7 +2919,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550836019215958805', 'createTime': 1758066041, 'createTimeISO': '2025-09-16T23:40:41.000Z', 'text': '1ro\nalpina te amo!!', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452218782174446597', 'uniqueId': 'shidouxsae0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2865ac893335cccef6405d3bf354fedb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=21ca6177&amp;x-expires=1760878800&amp;x-signature=nBGMlVMw0wOYu5kyZou8uFtn6OE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7559975652176577288', 'createTime': 1760194003, 'createTimeISO': '2025-10-11T14:46:43.000Z', 'text': 'Me salió tarde el vídeo 😟 yo quiero \U0001f979🙏🏻', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6670638394765033478', 'uniqueId': 'lindanarino', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/873e52b20a774b09b73f0f0d565e6959~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=656fe79d&amp;x-expires=1760965200&amp;x-signature=tNWeUNU6feLAPUlIEZvpq83atf8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2946,25 +2945,26 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>AMAMOSSSS el contenido de Gabi</t>
+          <t>1ro
+alpina te amo!!</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>45917.09577546296</v>
+        <v>45916.98658564815</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>45917</v>
+        <v>45916</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>02:17:55</t>
+          <t>23:40:41</t>
         </is>
       </c>
       <c r="J45" t="n">
         <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550876642629944071', 'createTime': 1758075475, 'createTimeISO': '2025-09-17T02:17:55.000Z', 'text': 'AMAMOSSSS el contenido de Gabi', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7323823789984531462', 'uniqueId': 'chantal.thorin', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/5be5fbd7e28fb667d0d61e8de45fc752~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f8022896&amp;x-expires=1760878800&amp;x-signature=Gxcl54eYsW79hhltsu3oMk6Zajo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550836019215958805', 'createTime': 1758066041, 'createTimeISO': '2025-09-16T23:40:41.000Z', 'text': '1ro\nalpina te amo!!', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452218782174446597', 'uniqueId': 'shidouxsae0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2865ac893335cccef6405d3bf354fedb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a8568dc7&amp;x-expires=1760965200&amp;x-signature=zuEAiXIKmcX88PUqhNkduhtSbnU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3002,25 +3002,25 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Hola alpina cambien el vasito de yogo yogo mochisaurio por qué es muy duro y me corte cambienlo por el de premio yogo yogo que se quita fácil se que no es del tema</t>
+          <t>AMAMOSSSS el contenido de Gabi</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>45936.70731481481</v>
+        <v>45917.09577546296</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>45936</v>
+        <v>45917</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>16:58:32</t>
+          <t>02:17:55</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7558154185101247240', 'createTime': 1759769912, 'createTimeISO': '2025-10-06T16:58:32.000Z', 'text': 'Hola alpina cambien el vasito de yogo yogo mochisaurio por qué es muy duro y me corte cambienlo por el de premio yogo yogo que se quita fácil se que no es del tema', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7005260384655574022', 'uniqueId': 'diegoalejandropat3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7327286844337127429~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d9db916d&amp;x-expires=1760878800&amp;x-signature=UTlzcYsUIl8eOz9z6t%2FdExb2BLc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550876642629944071', 'createTime': 1758075475, 'createTimeISO': '2025-09-17T02:17:55.000Z', 'text': 'AMAMOSSSS el contenido de Gabi', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7323823789984531462', 'uniqueId': 'chantal.thorin', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/5be5fbd7e28fb667d0d61e8de45fc752~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5d065395&amp;x-expires=1760965200&amp;x-signature=L2AD0Wv%2F2vlnA3UKeXMnTlkfs8U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3058,25 +3058,25 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Amò este Alpina</t>
+          <t>pueden sacar en yogoyogolab lods puntos autorizados de oxxo para reclamar los mochisaurios plis</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>45919.13483796296</v>
+        <v>45917.87722222223</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>45919</v>
+        <v>45917</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>03:14:10</t>
+          <t>21:03:12</t>
         </is>
       </c>
       <c r="J47" t="n">
         <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551633311488082696', 'createTime': 1758251650, 'createTimeISO': '2025-09-19T03:14:10.000Z', 'text': 'Amò este Alpina', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6955254769972806662', 'uniqueId': 'santiwhosthat', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/72ed639d278a53a7ee891f25034e0d1a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a5417f56&amp;x-expires=1760878800&amp;x-signature=6AM%2FA7zXc%2FWLWZjtoWTxbSpeAHQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551166524197077767', 'createTime': 1758142992, 'createTimeISO': '2025-09-17T21:03:12.000Z', 'text': 'pueden sacar en yogoyogolab lods puntos autorizados de oxxo para reclamar los mochisaurios plis', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7283326063072642053', 'uniqueId': 'socorrito.lopez0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9007660a09caa09f7a749fc3a9a23c0e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f52515b1&amp;x-expires=1760965200&amp;x-signature=CP%2Fe6xsz1LbuLAJCmnlTQYVfaF4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3114,25 +3114,25 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>cuantos comentarios y reacciones para ganarme la nueva colección de Mochis de dinosaurios 🥺 (no me ignoren, ayuden personas a que lo vean🙏🏻)</t>
+          <t>Gaby! Quiero ver cómo hacen el arequipe! Deberías hacer un tour por la planta!</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45922.03340277778</v>
+        <v>45917.58866898148</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>45922</v>
+        <v>45917</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>00:48:06</t>
+          <t>14:07:41</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7552707780533863189', 'createTime': 1758502086, 'createTimeISO': '2025-09-22T00:48:06.000Z', 'text': 'cuantos comentarios y reacciones para ganarme la nueva colección de Mochis de dinosaurios 🥺 (no me ignoren, ayuden personas a que lo vean🙏🏻)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6915493889098187782', 'uniqueId': 'angel18mendoza', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/68f808039457cd87fd4d7b94e867d357~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=46c1cb32&amp;x-expires=1760878800&amp;x-signature=Sx30Yw1V1Zi2z5YYfgRV2jwg1zM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551059537588929298', 'createTime': 1758118061, 'createTimeISO': '2025-09-17T14:07:41.000Z', 'text': 'Gaby! Quiero ver cómo hacen el arequipe! Deberías hacer un tour por la planta!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6823366905291965446', 'uniqueId': 'jfelipegomez1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7329628384854736902~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7fccea3e&amp;x-expires=1760965200&amp;x-signature=Tw3u6w0WRiuM0gVCUTXz4Pl0R%2BA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551906649611830023', 'createTime': 1758315297, 'createTimeISO': '2025-09-19T20:54:57.000Z', 'text': 'Buenisimo!!!!!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7068293195050877957', 'uniqueId': 'mfzamarriego', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5891c8d97d65891a135a4f898bbe9dc6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3f5584b6&amp;x-expires=1760878800&amp;x-signature=MWB6ocNPC45NPVLzC783SxBVxVQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551906649611830023', 'createTime': 1758315297, 'createTimeISO': '2025-09-19T20:54:57.000Z', 'text': 'Buenisimo!!!!!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7068293195050877957', 'uniqueId': 'mfzamarriego', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5891c8d97d65891a135a4f898bbe9dc6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b7fbc2e8&amp;x-expires=1760965200&amp;x-signature=CIKRqmXmkQRF5Hs8Zw%2BkWgDizg8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3226,22 +3226,22 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>pueden sacar en yogoyogolab lods puntos autorizados de oxxo para reclamar los mochisaurios plis</t>
+          <t>cuantos comentarios y reacciones para ganarme la nueva colección de Mochis de dinosaurios 🥺 (no me ignoren, ayuden personas a que lo vean🙏🏻)</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>45917.87722222223</v>
+        <v>45922.03340277778</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>45917</v>
+        <v>45922</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>21:03:12</t>
+          <t>00:48:06</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551166524197077767', 'createTime': 1758142992, 'createTimeISO': '2025-09-17T21:03:12.000Z', 'text': 'pueden sacar en yogoyogolab lods puntos autorizados de oxxo para reclamar los mochisaurios plis', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7283326063072642053', 'uniqueId': 'socorrito.lopez0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9007660a09caa09f7a749fc3a9a23c0e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5019def7&amp;x-expires=1760878800&amp;x-signature=jKOP7h0HV6Z7KAsIBHwm8CFTTC8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7552707780533863189', 'createTime': 1758502086, 'createTimeISO': '2025-09-22T00:48:06.000Z', 'text': 'cuantos comentarios y reacciones para ganarme la nueva colección de Mochis de dinosaurios 🥺 (no me ignoren, ayuden personas a que lo vean🙏🏻)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6915493889098187782', 'uniqueId': 'angel18mendoza', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/68f808039457cd87fd4d7b94e867d357~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=71ad0083&amp;x-expires=1760965200&amp;x-signature=IvmaS9A76eXM0NiidygNrVql8qw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7552310929883448084', 'createTime': 1758409428, 'createTimeISO': '2025-09-20T23:03:48.000Z', 'text': '¿Qué tipo de contrato tienen?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6856891169080443909', 'uniqueId': 'lourdesbarragan_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/e377e28c29d509541307260e66fb275d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=75e7c347&amp;x-expires=1760878800&amp;x-signature=s08vR%2FgKJLya1n8J0uczaVA85D0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7552310929883448084', 'createTime': 1758409428, 'createTimeISO': '2025-09-20T23:03:48.000Z', 'text': '¿Qué tipo de contrato tienen?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6856891169080443909', 'uniqueId': 'lourdesbarragan_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/e377e28c29d509541307260e66fb275d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=19e2d794&amp;x-expires=1760965200&amp;x-signature=GDOoto5CGCTCaCFG8ox%2FeazewhY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3338,22 +3338,22 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Gaby! Quiero ver cómo hacen el arequipe! Deberías hacer un tour por la planta!</t>
+          <t>Estoy por graduarme de ingeniería industrial. Me encantaría hacer mis prácticas o trabajar en un futuro con ustedes. Me encanta la familia Alpina, creen que pueda hacer parte algún día? 🥹</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>45917.58866898148</v>
+        <v>45918.74025462963</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>14:07:41</t>
+          <t>17:45:58</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
         <v>1</v>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551059537588929298', 'createTime': 1758118061, 'createTimeISO': '2025-09-17T14:07:41.000Z', 'text': 'Gaby! Quiero ver cómo hacen el arequipe! Deberías hacer un tour por la planta!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6823366905291965446', 'uniqueId': 'jfelipegomez1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7329628384854736902~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0de9949a&amp;x-expires=1760878800&amp;x-signature=eAyHnCXR3LjG5w2p5gpHFzhUabk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551486875396948744', 'createTime': 1758217558, 'createTimeISO': '2025-09-18T17:45:58.000Z', 'text': 'Estoy por graduarme de ingeniería industrial. Me encantaría hacer mis prácticas o trabajar en un futuro con ustedes. Me encanta la familia Alpina, creen que pueda hacer parte algún día? \U0001f979', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6817806087653164037', 'uniqueId': 'brandontarcila_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e6b11bf080b10cd0207666b99c05d31b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=37aa374c&amp;x-expires=1760965200&amp;x-signature=GMgrUxxDGYhSUGkrQyVdMai5nhg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7554470184620000018', 'createTime': 1758912167, 'createTimeISO': '2025-09-26T18:42:47.000Z', 'text': 'estando en etapa lectiva puedo aplicar', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6964937358190445574', 'uniqueId': 'daneicy8', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a6e6af884aceb8af9c72174f73167f68~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=893bb551&amp;x-expires=1760878800&amp;x-signature=qOrHsN2cEyUqV4SNMflw2waqKVs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7554470184620000018', 'createTime': 1758912167, 'createTimeISO': '2025-09-26T18:42:47.000Z', 'text': 'estando en etapa lectiva puedo aplicar', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6964937358190445574', 'uniqueId': 'daneicy8', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a6e6af884aceb8af9c72174f73167f68~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cb5b0903&amp;x-expires=1760965200&amp;x-signature=scVNShO87E24AmjPdoBC5Q6Qtng%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550847978996859666', 'createTime': 1758068814, 'createTimeISO': '2025-09-17T00:26:54.000Z', 'text': 'Te amo me encanta Alpina 🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f3c8a5c7&amp;x-expires=1760878800&amp;x-signature=a%2FIWjCHEIyz2OrlNwCKg0zCFZCI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550847978996859666', 'createTime': 1758068814, 'createTimeISO': '2025-09-17T00:26:54.000Z', 'text': 'Te amo me encanta Alpina 🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=47a2209d&amp;x-expires=1760965200&amp;x-signature=cse0xr%2BjherRkbs8rM5V2LiIs%2Fk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3506,18 +3506,18 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Estoy por graduarme de ingeniería industrial. Me encantaría hacer mis prácticas o trabajar en un futuro con ustedes. Me encanta la familia Alpina, creen que pueda hacer parte algún día? 🥹</t>
+          <t>Mi sueño haciéndose realidad 🥰🥺</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>45918.74025462963</v>
+        <v>45918.62016203703</v>
       </c>
       <c r="H55" s="3" t="n">
         <v>45918</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>17:45:58</t>
+          <t>14:53:02</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551486875396948744', 'createTime': 1758217558, 'createTimeISO': '2025-09-18T17:45:58.000Z', 'text': 'Estoy por graduarme de ingeniería industrial. Me encantaría hacer mis prácticas o trabajar en un futuro con ustedes. Me encanta la familia Alpina, creen que pueda hacer parte algún día? \U0001f979', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6817806087653164037', 'uniqueId': 'brandontarcila_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e6b11bf080b10cd0207666b99c05d31b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=adab62bd&amp;x-expires=1760878800&amp;x-signature=gWcFDM9MFXxyEhyDRltj3Ob8bxg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551442303657116436', 'createTime': 1758207182, 'createTimeISO': '2025-09-18T14:53:02.000Z', 'text': 'Mi sueño haciéndose realidad 🥰🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6788284872554497030', 'uniqueId': 'anirivera_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a6c6e77f0d746b65b48a78e1205c8c82~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=39cd13ff&amp;x-expires=1760965200&amp;x-signature=uV2SsiPO19UFNzVpULMX5QPwNRU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551840682764829458', 'createTime': 1758299933, 'createTimeISO': '2025-09-19T16:38:53.000Z', 'text': 'si estudio narrativas en medios digitales y audiovisuales puedo aplicar? 😭', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6885505605576377345', 'uniqueId': 'spaaaak_4.m', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7324800281223364610~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=aaf75869&amp;x-expires=1760878800&amp;x-signature=0Ihk8m743fU8LHlxovanjiyBmZo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551840682764829458', 'createTime': 1758299933, 'createTimeISO': '2025-09-19T16:38:53.000Z', 'text': 'si estudio narrativas en medios digitales y audiovisuales puedo aplicar? 😭', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6885505605576377345', 'uniqueId': 'spaaaak_4.m', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7324800281223364610~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0b9417c7&amp;x-expires=1760965200&amp;x-signature=wm1mR4Aa0SUejnal0gLL7wkjfic%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3618,18 +3618,18 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Cuando comienzan a dar respuesta si ya apliqué?🥹</t>
+          <t>Yo quierooooo✨</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>45916.99778935185</v>
+        <v>45917.00403935185</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>23:56:49</t>
+          <t>00:05:49</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550840242002150162', 'createTime': 1758067009, 'createTimeISO': '2025-09-16T23:56:49.000Z', 'text': 'Cuando comienzan a dar respuesta si ya apliqué?\U0001f979', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6774446029552354309', 'uniqueId': 'its.bri_ugc', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/dfeff60de882b1c199e34cb77f9557be~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6b325bad&amp;x-expires=1760878800&amp;x-signature=jlHKOrr0kMRcRgJQJXXs3%2Bc2d4o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550842534529860370', 'createTime': 1758067549, 'createTimeISO': '2025-09-17T00:05:49.000Z', 'text': 'Yo quierooooo✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781227104677250053', 'uniqueId': 'lauraleguizamou', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/531608b6e17cc4fc3195774b040b1421~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cd46e6f5&amp;x-expires=1760965200&amp;x-signature=py2aJRMgCg4gaS%2FWWn%2BwQ6kHq50%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3674,18 +3674,18 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Mi sueño haciéndose realidad 🥰🥺</t>
+          <t>me enteré que ya subieron nuevo video 😍</t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>45918.62016203703</v>
+        <v>45917.08885416666</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>14:53:02</t>
+          <t>02:07:57</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -3704,7 +3704,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551442303657116436', 'createTime': 1758207182, 'createTimeISO': '2025-09-18T14:53:02.000Z', 'text': 'Mi sueño haciéndose realidad 🥰🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6788284872554497030', 'uniqueId': 'anirivera_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a6c6e77f0d746b65b48a78e1205c8c82~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0c22f29a&amp;x-expires=1760878800&amp;x-signature=%2BjWhqMhPBYtjh27pEcUddEvYkvk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550874055755203345', 'createTime': 1758074877, 'createTimeISO': '2025-09-17T02:07:57.000Z', 'text': 'me enteré que ya subieron nuevo video 😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bc29958f&amp;x-expires=1760965200&amp;x-signature=lq3UtwGN8vJqzezzKou9GHJcoN8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3730,18 +3730,18 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Yo quierooooo✨</t>
+          <t>Cuando comienzan a dar respuesta si ya apliqué?🥹</t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
-        <v>45917.00403935185</v>
+        <v>45916.99778935185</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>45917</v>
+        <v>45916</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>00:05:49</t>
+          <t>23:56:49</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550842534529860370', 'createTime': 1758067549, 'createTimeISO': '2025-09-17T00:05:49.000Z', 'text': 'Yo quierooooo✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781227104677250053', 'uniqueId': 'lauraleguizamou', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/531608b6e17cc4fc3195774b040b1421~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b4a90358&amp;x-expires=1760878800&amp;x-signature=qptWO0M8vKELslagJXjI1g9s0dI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550840242002150162', 'createTime': 1758067009, 'createTimeISO': '2025-09-16T23:56:49.000Z', 'text': 'Cuando comienzan a dar respuesta si ya apliqué?\U0001f979', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6774446029552354309', 'uniqueId': 'its.bri_ugc', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/dfeff60de882b1c199e34cb77f9557be~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fa2fe692&amp;x-expires=1760965200&amp;x-signature=Md1YUfcdxBxo0ExbJnDVHEWxszA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3786,22 +3786,22 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>me enteré que ya subieron nuevo video 😍</t>
+          <t>Amò este Alpina</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
-        <v>45917.08885416666</v>
+        <v>45919.13483796296</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>02:07:57</t>
+          <t>03:14:10</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
         <v>1</v>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550874055755203345', 'createTime': 1758074877, 'createTimeISO': '2025-09-17T02:07:57.000Z', 'text': 'me enteré que ya subieron nuevo video 😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3c4d6890&amp;x-expires=1760878800&amp;x-signature=Ka8%2BkswozclbZ%2FKa4ibdrqreD18%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551633311488082696', 'createTime': 1758251650, 'createTimeISO': '2025-09-19T03:14:10.000Z', 'text': 'Amò este Alpina', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6955254769972806662', 'uniqueId': 'santiwhosthat', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/72ed639d278a53a7ee891f25034e0d1a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=51d97aee&amp;x-expires=1760965200&amp;x-signature=wzDQjX1MzOBxBubRyhDXmc60w0M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3842,18 +3842,18 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Me salió tarde el vídeo 😟 yo quiero 🥹🙏🏻</t>
+          <t>hola alpina esta es mi colección de Mochis no es mucha molestia si me envías una caja de Mochisaurios gracias 😃😉</t>
         </is>
       </c>
       <c r="G61" s="2" t="n">
-        <v>45941.61577546296</v>
+        <v>45931.97782407407</v>
       </c>
       <c r="H61" s="3" t="n">
-        <v>45941</v>
+        <v>45931</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>14:46:43</t>
+          <t>23:28:04</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7559975652176577288', 'createTime': 1760194003, 'createTimeISO': '2025-10-11T14:46:43.000Z', 'text': 'Me salió tarde el vídeo 😟 yo quiero \U0001f979🙏🏻', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6670638394765033478', 'uniqueId': 'lindanarino', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/873e52b20a774b09b73f0f0d565e6959~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e1f8a8f7&amp;x-expires=1760878800&amp;x-signature=HnMbUMRHzgSxtybZLwciiUn16z0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556399100905341703', 'createTime': 1759361284, 'createTimeISO': '2025-10-01T23:28:04.000Z', 'text': 'hola alpina esta es mi colección de Mochis no es mucha molestia si me envías una caja de Mochisaurios gracias 😃😉', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7531368579791438866', 'uniqueId': 'damian.smith.mora', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3106fbebef557d53c4193c9474d4163c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=592203d3&amp;x-expires=1760965200&amp;x-signature=rt5F95jYkpuJNV1BdQl9NjbOIvQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3898,18 +3898,18 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>hola alpina esta es mi colección de Mochis no es mucha molestia si me envías una caja de Mochisaurios gracias 😃😉</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G62" s="2" t="n">
-        <v>45931.97782407407</v>
+        <v>45932.00375</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>45931</v>
+        <v>45932</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>23:28:04</t>
+          <t>00:05:24</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556399100905341703', 'createTime': 1759361284, 'createTimeISO': '2025-10-01T23:28:04.000Z', 'text': 'hola alpina esta es mi colección de Mochis no es mucha molestia si me envías una caja de Mochisaurios gracias 😃😉', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7531368579791438866', 'uniqueId': 'damian.smith.mora', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/162f5e8630c9e45cdeb3d8133dfd3630~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5ef031c6&amp;x-expires=1760878800&amp;x-signature=zu6wIV%2FQYgw%2FqD61guTBk%2FrxohA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556408658076435218', 'createTime': 1759363524, 'createTimeISO': '2025-10-02T00:05:24.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7280259132014806022', 'uniqueId': 'matilde.guerrero3', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7280259483488665606~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fcf53f11&amp;x-expires=1760965200&amp;x-signature=DmcCUTDTLqucKS4dZaMm06%2BPx%2F0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3954,18 +3954,18 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>👍</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G63" s="2" t="n">
-        <v>45936.8365625</v>
+        <v>45933.28815972222</v>
       </c>
       <c r="H63" s="3" t="n">
-        <v>45936</v>
+        <v>45933</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>20:04:39</t>
+          <t>06:54:57</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -3984,7 +3984,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7558202100607091476', 'createTime': 1759781079, 'createTimeISO': '2025-10-06T20:04:39.000Z', 'text': '👍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452056190890116114', 'uniqueId': 'sabeldani10', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4b19cfb39961d6a4eec67ddf6a71ac66~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=320d0e3f&amp;x-expires=1760878800&amp;x-signature=vwBs2ZIMFqLKGlPpDNrR%2F7mV6cY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556885364948173586', 'createTime': 1759474497, 'createTimeISO': '2025-10-03T06:54:57.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7444383176737113144', 'uniqueId': 'lirasa91', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=51d04cd2&amp;x-expires=1760965200&amp;x-signature=8TjSN%2BmK3zIZo8AihOKtbP0NrMo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4010,18 +4010,18 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>🫡🫡🫡</t>
+          <t>Buen día, aceptan pasantes en área administrativa?😳</t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
-        <v>45917.00991898148</v>
+        <v>45924.54788194445</v>
       </c>
       <c r="H64" s="3" t="n">
-        <v>45917</v>
+        <v>45924</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>00:14:17</t>
+          <t>13:08:57</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550844710467732242', 'createTime': 1758068057, 'createTimeISO': '2025-09-17T00:14:17.000Z', 'text': '\U0001fae1\U0001fae1\U0001fae1', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7323823789984531462', 'uniqueId': 'chantal.thorin', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/5be5fbd7e28fb667d0d61e8de45fc752~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f8022896&amp;x-expires=1760878800&amp;x-signature=Gxcl54eYsW79hhltsu3oMk6Zajo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7553641991944602386', 'createTime': 1758719337, 'createTimeISO': '2025-09-24T13:08:57.000Z', 'text': 'Buen día, aceptan pasantes en área administrativa?😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6819016661686453254', 'uniqueId': 'scatalina15', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/65616505ecd12a1b5dd469d79ec8a719~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e529dc5e&amp;x-expires=1760965200&amp;x-signature=XgKSt3lWusyjH%2BT9eWwQVa3mmzw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4066,18 +4066,18 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>@Chantal Thorin 😂</t>
         </is>
       </c>
       <c r="G65" s="2" t="n">
-        <v>45932.00375</v>
+        <v>45917.01428240741</v>
       </c>
       <c r="H65" s="3" t="n">
-        <v>45932</v>
+        <v>45917</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>00:05:24</t>
+          <t>00:20:34</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556408658076435218', 'createTime': 1759363524, 'createTimeISO': '2025-10-02T00:05:24.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7280259132014806022', 'uniqueId': 'matilde.guerrero3', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7280259483488665606~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=009cac37&amp;x-expires=1760878800&amp;x-signature=VB9nxgB97jf9uuvvAw1Nbwir150%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550846347324130055', 'createTime': 1758068434, 'createTimeISO': '2025-09-17T00:20:34.000Z', 'text': '@Chantal Thorin 😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6788904373575074822', 'uniqueId': 'juanolmos023', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/715053c66c983c3c1c50e1eb7df0c471~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=93473bf2&amp;x-expires=1760965200&amp;x-signature=V3HuK99iPLS6%2FavEZQcrBm9SFB4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@Chantal Thorin'], 'detailedMentions': [{'userId': '7323823789984531462', 'nickName': 'Chantal Thorin', 'profileUrl': 'https://www.tiktok.com/@7323823789984531462', 'secUid': 'MS4wLjABAAAAeVzy1YXMwyrURUZkWFufcDOQpRrR-rZvvbSNYGZdeSPQL7wiKvQELMaPx312In6i'}]}</t>
         </is>
       </c>
     </row>
@@ -4122,18 +4122,18 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>👍</t>
         </is>
       </c>
       <c r="G66" s="2" t="n">
-        <v>45933.28815972222</v>
+        <v>45936.8365625</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>45933</v>
+        <v>45936</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>06:54:57</t>
+          <t>20:04:39</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556885364948173586', 'createTime': 1759474497, 'createTimeISO': '2025-10-03T06:54:57.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7444383176737113144', 'uniqueId': 'lirasa91', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=e8a4f87c&amp;x-expires=1760878800&amp;x-signature=5qwlL0N72bHwShI4jCxYXbGPJe8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7558202100607091476', 'createTime': 1759781079, 'createTimeISO': '2025-10-06T20:04:39.000Z', 'text': '👍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452056190890116114', 'uniqueId': 'sabeldani10', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4b19cfb39961d6a4eec67ddf6a71ac66~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c3f6cc84&amp;x-expires=1760965200&amp;x-signature=p03265OgDAtLemyYOGw6MN%2BRVlw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4178,18 +4178,18 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>@Chantal Thorin 😂</t>
+          <t>🫡🫡🫡</t>
         </is>
       </c>
       <c r="G67" s="2" t="n">
-        <v>45917.01428240741</v>
+        <v>45917.00991898148</v>
       </c>
       <c r="H67" s="3" t="n">
         <v>45917</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>00:20:34</t>
+          <t>00:14:17</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550846347324130055', 'createTime': 1758068434, 'createTimeISO': '2025-09-17T00:20:34.000Z', 'text': '@Chantal Thorin 😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6788904373575074822', 'uniqueId': 'juanolmos023', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/715053c66c983c3c1c50e1eb7df0c471~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b8b1343f&amp;x-expires=1760878800&amp;x-signature=Oxwm3sZMTXA3NSCGoGgXNLt3aV0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@Chantal Thorin'], 'detailedMentions': [{'userId': '7323823789984531462', 'nickName': 'Chantal Thorin', 'profileUrl': 'https://www.tiktok.com/@7323823789984531462', 'secUid': 'MS4wLjABAAAAeVzy1YXMwyrURUZkWFufcDOQpRrR-rZvvbSNYGZdeSPQL7wiKvQELMaPx312In6i'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550844710467732242', 'createTime': 1758068057, 'createTimeISO': '2025-09-17T00:14:17.000Z', 'text': '\U0001fae1\U0001fae1\U0001fae1', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7323823789984531462', 'uniqueId': 'chantal.thorin', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/5be5fbd7e28fb667d0d61e8de45fc752~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5d065395&amp;x-expires=1760965200&amp;x-signature=L2AD0Wv%2F2vlnA3UKeXMnTlkfs8U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4234,18 +4234,18 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>@mochis_yogoyogo💗 ya quiero mochisss aaaa está es mi cuenta donde haré unboxings de los dinomochis y más cosas de alpina</t>
+          <t>😳</t>
         </is>
       </c>
       <c r="G68" s="2" t="n">
-        <v>45920.12986111111</v>
+        <v>45928.70622685185</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>45920</v>
+        <v>45928</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>03:07:00</t>
+          <t>16:56:58</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7552002528465699592', 'createTime': 1758337620, 'createTimeISO': '2025-09-20T03:07:00.000Z', 'text': '@mochis_yogoyogo💗 ya quiero mochisss aaaa está es mi cuenta donde haré unboxings de los dinomochis y más cosas de alpina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7382728939964548101', 'uniqueId': 'eve_watajai', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c9212056428da8609f48a989cd6e9170~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=31fe8a17&amp;x-expires=1760878800&amp;x-signature=GDjFE5h3h8xqIPi6Nih2RU3fitc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@mochis_yogoyogo💗'], 'detailedMentions': [{'userId': '7469144855873651730', 'nickName': 'mochis_yogoyogo💗', 'profileUrl': 'https://www.tiktok.com/@7469144855873651730', 'secUid': 'MS4wLjABAAAAfnDzVmGgNedG0asJ6YoXVgPkaL-69fpJq_hPO_uLHcj8SYDqMhAidX6vu-pf-BmB'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7555185101043680018', 'createTime': 1759078618, 'createTimeISO': '2025-09-28T16:56:58.000Z', 'text': '😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7475879249447666705', 'uniqueId': 'al454329', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/00eba74212b2c117219704065444145b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7ddf2f49&amp;x-expires=1760965200&amp;x-signature=KRHzY2NkQVrDoEyMLKqtNKPw0Iw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4290,18 +4290,18 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>😳</t>
+          <t>@mochis_yogoyogo💗 ya quiero mochisss aaaa está es mi cuenta donde haré unboxings de los dinomochis y más cosas de alpina</t>
         </is>
       </c>
       <c r="G69" s="2" t="n">
-        <v>45928.70622685185</v>
+        <v>45920.12986111111</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>45928</v>
+        <v>45920</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>16:56:58</t>
+          <t>03:07:00</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7555185101043680018', 'createTime': 1759078618, 'createTimeISO': '2025-09-28T16:56:58.000Z', 'text': '😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7475879249447666705', 'uniqueId': 'al454329', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/00eba74212b2c117219704065444145b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b9c3e091&amp;x-expires=1760878800&amp;x-signature=tezKHvHaw3SuY9aP9hb5hRPR2CY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7552002528465699592', 'createTime': 1758337620, 'createTimeISO': '2025-09-20T03:07:00.000Z', 'text': '@mochis_yogoyogo💗 ya quiero mochisss aaaa está es mi cuenta donde haré unboxings de los dinomochis y más cosas de alpina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7382728939964548101', 'uniqueId': 'eve_watajai', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c9212056428da8609f48a989cd6e9170~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dd10f381&amp;x-expires=1760965200&amp;x-signature=CJSbf2SXmi%2BquJShv4xUdtd9aec%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@mochis_yogoyogo💗'], 'detailedMentions': [{'userId': '7469144855873651730', 'nickName': 'mochis_yogoyogo💗', 'profileUrl': 'https://www.tiktok.com/@7469144855873651730', 'secUid': 'MS4wLjABAAAAfnDzVmGgNedG0asJ6YoXVgPkaL-69fpJq_hPO_uLHcj8SYDqMhAidX6vu-pf-BmB'}]}</t>
         </is>
       </c>
     </row>
@@ -4346,18 +4346,18 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Amooooo los mochisssssss</t>
+          <t>vuelvan a poner a la banda de gatos de alpin</t>
         </is>
       </c>
       <c r="G70" s="2" t="n">
-        <v>45919.10697916667</v>
+        <v>45932.98778935185</v>
       </c>
       <c r="H70" s="3" t="n">
-        <v>45919</v>
+        <v>45932</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>02:34:03</t>
+          <t>23:42:25</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -4376,7 +4376,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551622936564073224', 'createTime': 1758249243, 'createTimeISO': '2025-09-19T02:34:03.000Z', 'text': 'Amooooo los mochisssssss', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6775204820329579525', 'uniqueId': 'danivalenciaa', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/16f06ae19c05a3c06f041a0a4078e97e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8cd7a69d&amp;x-expires=1760878800&amp;x-signature=5147wTbFs6Zplg0g58xsv%2Fslfy0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556773829139677960', 'createTime': 1759448545, 'createTimeISO': '2025-10-02T23:42:25.000Z', 'text': 'vuelvan a poner a la banda de gatos de alpin', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7338967674703905797', 'uniqueId': 'xa.m25', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f18aaf30609d233d93d48aaec98bdc23~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0683469e&amp;x-expires=1760965200&amp;x-signature=SefHNWBZ2vSCZaI34PT%2BuK1RScA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7553359733933458194', 'createTime': 1758653626, 'createTimeISO': '2025-09-23T18:53:46.000Z', 'text': 'QUE VUELVA ALPILITRO 🙌🙏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7493133555746489351', 'uniqueId': 'andreykdy3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ffdb73d8f0b1bc3e2a3bf54e4492d457~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a3dbd3ac&amp;x-expires=1760878800&amp;x-signature=CqlZZ6330aCgchTthcffOb%2BcZ0s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7553359733933458194', 'createTime': 1758653626, 'createTimeISO': '2025-09-23T18:53:46.000Z', 'text': 'QUE VUELVA ALPILITRO 🙌🙏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7493133555746489351', 'uniqueId': 'andreykdy3', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ffdb73d8f0b1bc3e2a3bf54e4492d457~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=96b2a95f&amp;x-expires=1760965200&amp;x-signature=T%2FR7UPBTEZEi4l0k%2FLc2Mj569sc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4458,18 +4458,18 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>vuelvan a poner a la banda de gatos de alpin</t>
+          <t>Amooooo los mochisssssss</t>
         </is>
       </c>
       <c r="G72" s="2" t="n">
-        <v>45932.98778935185</v>
+        <v>45919.10697916667</v>
       </c>
       <c r="H72" s="3" t="n">
-        <v>45932</v>
+        <v>45919</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>23:42:25</t>
+          <t>02:34:03</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556773829139677960', 'createTime': 1759448545, 'createTimeISO': '2025-10-02T23:42:25.000Z', 'text': 'vuelvan a poner a la banda de gatos de alpin', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7338967674703905797', 'uniqueId': 'xa.m25', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f18aaf30609d233d93d48aaec98bdc23~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=013336bc&amp;x-expires=1760878800&amp;x-signature=fQfTazprlcPjcpohTmizfdv3rbU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551622936564073224', 'createTime': 1758249243, 'createTimeISO': '2025-09-19T02:34:03.000Z', 'text': 'Amooooo los mochisssssss', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6775204820329579525', 'uniqueId': 'danivalenciaa', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/16f06ae19c05a3c06f041a0a4078e97e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=eda7e863&amp;x-expires=1760965200&amp;x-signature=woYAnj1903HJ%2FLH1lh8toapmH7g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K73" t="n">
         <v>1</v>
@@ -4544,7 +4544,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551229830001885973', 'createTime': 1758157724, 'createTimeISO': '2025-09-18T01:08:44.000Z', 'text': 'Hmmm avena saladaaa gabsss?', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6819089554679940101', 'uniqueId': 'julianavivasr03', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f3051c41eba0cedcc184a155cdd5fe57~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1602472f&amp;x-expires=1760878800&amp;x-signature=t%2Bjs1IKdoN0%2FQW%2FTRGUT%2FbTtW5k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551229830001885973', 'createTime': 1758157724, 'createTimeISO': '2025-09-18T01:08:44.000Z', 'text': 'Hmmm avena saladaaa gabsss?', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6819089554679940101', 'uniqueId': 'julianavivasr03', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f3051c41eba0cedcc184a155cdd5fe57~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fe490622&amp;x-expires=1760965200&amp;x-signature=X92DlTBZ6ZolfqGgrSbRlM2O6JA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4570,25 +4570,25 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>jajajajajajajjajajajajajajaja eara miy bueno</t>
+          <t>quiero parte 2💙💙💙</t>
         </is>
       </c>
       <c r="G74" s="2" t="n">
-        <v>45918.76694444445</v>
+        <v>45918.02324074074</v>
       </c>
       <c r="H74" s="3" t="n">
         <v>45918</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>18:24:24</t>
+          <t>00:33:28</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K74" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L74" t="b">
         <v>0</v>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551496749665649415', 'createTime': 1758219864, 'createTimeISO': '2025-09-18T18:24:24.000Z', 'text': 'jajajajajajajjajajajajajajaja eara miy bueno', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '7337124256608732166', 'uniqueId': 'nathalye.cruz', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7337124473063407621~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d65358ac&amp;x-expires=1760878800&amp;x-signature=TZBao0DYEHu6r7%2BMHNWGpT6mSo4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551220050720670471', 'createTime': 1758155608, 'createTimeISO': '2025-09-18T00:33:28.000Z', 'text': 'quiero parte 2💙💙💙', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7467024639018468360', 'uniqueId': 'leidy_y22', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/170467e038e889966ba7de820632ba9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cfe01757&amp;x-expires=1760965200&amp;x-signature=PSdvs4qTMUTZBQT99mITjHCdlxI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4626,25 +4626,25 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>quiero parte 2💙💙💙</t>
+          <t>jajajajajajajjajajajajajajaja eara miy bueno</t>
         </is>
       </c>
       <c r="G75" s="2" t="n">
-        <v>45918.02324074074</v>
+        <v>45918.76694444445</v>
       </c>
       <c r="H75" s="3" t="n">
         <v>45918</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>00:33:28</t>
+          <t>18:24:24</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L75" t="b">
         <v>0</v>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551220050720670471', 'createTime': 1758155608, 'createTimeISO': '2025-09-18T00:33:28.000Z', 'text': 'quiero parte 2💙💙💙', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7467024639018468360', 'uniqueId': 'leidy_y22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/170467e038e889966ba7de820632ba9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7ae44a7a&amp;x-expires=1760878800&amp;x-signature=mLowcAa5O7IL19oxPbWYSXx5VMc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551496749665649415', 'createTime': 1758219864, 'createTimeISO': '2025-09-18T18:24:24.000Z', 'text': 'jajajajajajajjajajajajajajaja eara miy bueno', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '7337124256608732166', 'uniqueId': 'nathalye.cruz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7337124473063407621~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d448422c&amp;x-expires=1760965200&amp;x-signature=mOP9StUZWc8oQokOE%2BgLcRGX1i0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551629960492106503', 'createTime': 1758250879, 'createTimeISO': '2025-09-19T03:01:19.000Z', 'text': 'chevre el juego', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7428447431131857925', 'uniqueId': 'dario.bermudez.me', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e3f68c187a5bb898072670c79697373f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fb8da766&amp;x-expires=1760878800&amp;x-signature=59%2Blj3CBCcqsejs3W3qagJBzk0M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551629960492106503', 'createTime': 1758250879, 'createTimeISO': '2025-09-19T03:01:19.000Z', 'text': 'chevre el juego', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7428447431131857925', 'uniqueId': 'dario.bermudez.me', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e3f68c187a5bb898072670c79697373f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ac9c1c26&amp;x-expires=1760965200&amp;x-signature=u9Xu7kEukg8ZdxiuLcnBXNJ%2FZsk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551259447134585631', 'createTime': 1758164610, 'createTimeISO': '2025-09-18T03:03:30.000Z', 'text': 'Viene en varios sabores?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '125087857735528448', 'uniqueId': 'camilocc3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-useast8-avt-0068-tx2/24fcb4fdd0b5e8275182d605c3f58355~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d69efb2f&amp;x-expires=1760878800&amp;x-signature=q70vMEtazV6QGHQECFfuH%2FCX6vE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551259447134585631', 'createTime': 1758164610, 'createTimeISO': '2025-09-18T03:03:30.000Z', 'text': 'Viene en varios sabores?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '125087857735528448', 'uniqueId': 'camilocc3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-useast8-avt-0068-tx2/24fcb4fdd0b5e8275182d605c3f58355~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=875eb323&amp;x-expires=1760965200&amp;x-signature=UTGLhFGthxDHmCWS%2Fy%2FdD%2BnDgGw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4824,7 +4824,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551229700225778453', 'createTime': 1758157689, 'createTimeISO': '2025-09-18T01:08:09.000Z', 'text': 'Jajajjaajajajjaa buenísimo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6819089554679940101', 'uniqueId': 'julianavivasr03', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f3051c41eba0cedcc184a155cdd5fe57~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1602472f&amp;x-expires=1760878800&amp;x-signature=t%2Bjs1IKdoN0%2FQW%2FTRGUT%2FbTtW5k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551229700225778453', 'createTime': 1758157689, 'createTimeISO': '2025-09-18T01:08:09.000Z', 'text': 'Jajajjaajajajjaa buenísimo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6819089554679940101', 'uniqueId': 'julianavivasr03', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f3051c41eba0cedcc184a155cdd5fe57~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fe490622&amp;x-expires=1760965200&amp;x-signature=X92DlTBZ6ZolfqGgrSbRlM2O6JA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551227674766607120', 'createTime': 1758157221, 'createTimeISO': '2025-09-18T01:00:21.000Z', 'text': '', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3c4d6890&amp;x-expires=1760878800&amp;x-signature=Ka8%2BkswozclbZ%2FKa4ibdrqreD18%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551227674766607120', 'createTime': 1758157221, 'createTimeISO': '2025-09-18T01:00:21.000Z', 'text': '', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bc29958f&amp;x-expires=1760965200&amp;x-signature=lq3UtwGN8vJqzezzKou9GHJcoN8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551217905787978504', 'createTime': 1758155356, 'createTimeISO': '2025-09-18T00:29:16.000Z', 'text': '✨✨', 'diggCount': 2, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6933232569349653510', 'uniqueId': 'mariangel_alzate01', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e6bab063f1c64d97abedc28d75951cd7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=840ca331&amp;x-expires=1760878800&amp;x-signature=eoArXo%2FvvN9E7QpHU1piQ9hOM7Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551217905787978504', 'createTime': 1758155356, 'createTimeISO': '2025-09-18T00:29:16.000Z', 'text': '✨✨', 'diggCount': 2, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6933232569349653510', 'uniqueId': 'mariangel_alzate01', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e6bab063f1c64d97abedc28d75951cd7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1711e786&amp;x-expires=1760965200&amp;x-signature=R4Y0xcu5Q%2F8mlECz0vB7ij5C8oA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551220042781573895', 'createTime': 1758155443, 'createTimeISO': '2025-09-18T00:30:43.000Z', 'text': '💙💙💙', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7503357568275285010', 'uniqueId': 'mara.alejandra.va13', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b0e9c531aa12326c2c39b489de39faaf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=36a6830b&amp;x-expires=1760878800&amp;x-signature=nJMvVydrPXu3NZ9DD79pL7m9Sjo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551220042781573895', 'createTime': 1758155443, 'createTimeISO': '2025-09-18T00:30:43.000Z', 'text': '💙💙💙', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7503357568275285010', 'uniqueId': 'mara.alejandra.va13', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b0e9c531aa12326c2c39b489de39faaf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=435b08a0&amp;x-expires=1760965200&amp;x-signature=%2BlPi5msmhWHLMnq5AeH3Z1yatHk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7554935448256398088', 'createTime': 1759020501, 'createTimeISO': '2025-09-28T00:48:21.000Z', 'text': '💗', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452411908450108422', 'uniqueId': 'unatalgaby_17', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d31bb8b63795296e53c4901e56663b5d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2528b4fb&amp;x-expires=1760878800&amp;x-signature=NMlsI0JzGe0ifXsVX8Su%2B%2BD6N4s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7554935448256398088', 'createTime': 1759020501, 'createTimeISO': '2025-09-28T00:48:21.000Z', 'text': '💗', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452411908450108422', 'uniqueId': 'unatalgaby_17', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d31bb8b63795296e53c4901e56663b5d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0bb0f534&amp;x-expires=1760965200&amp;x-signature=B%2F8ktcbm4ztz0QqaSvICbAqSOno%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7553402143257854727', 'createTime': 1758663504, 'createTimeISO': '2025-09-23T21:38:24.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6979791991334077446', 'uniqueId': 'lala_garzon0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/54f52760d8466c8575be7ac4ca3c5627~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4430c559&amp;x-expires=1760878800&amp;x-signature=cqNCjzRNfBAzaH8gZSEBfmTIFwg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7553402143257854727', 'createTime': 1758663504, 'createTimeISO': '2025-09-23T21:38:24.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6979791991334077446', 'uniqueId': 'lala_garzon0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/54f52760d8466c8575be7ac4ca3c5627~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0a385dd9&amp;x-expires=1760965200&amp;x-signature=wIsQBzW6n%2FJZmknyoaQA38eC4cQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5156,7 +5156,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7557009575929938696', 'createTime': 1759503408, 'createTimeISO': '2025-10-03T14:56:48.000Z', 'text': '☺️☺️☺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808331911279903750', 'uniqueId': 'aleja.cardenas', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ae26428fddeb4cb0c608c71af324941d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b14c2970&amp;x-expires=1760878800&amp;x-signature=kxXNMe8jU2J4MyQENN%2BexqKiFKU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7557009575929938696', 'createTime': 1759503408, 'createTimeISO': '2025-10-03T14:56:48.000Z', 'text': '☺️☺️☺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808331911279903750', 'uniqueId': 'aleja.cardenas', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ae26428fddeb4cb0c608c71af324941d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c02dd4e1&amp;x-expires=1760965200&amp;x-signature=PLlTcrdruK8pT1Nnf%2BX3MYDr8T8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5212,7 +5212,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7557148031993807634', 'createTime': 1759535656, 'createTimeISO': '2025-10-03T23:54:16.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6927611184364356614', 'uniqueId': 'user0hhptpeva0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6b580be8&amp;x-expires=1760878800&amp;x-signature=FnV432vZGdh15k9rP2O%2BKbRKess%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7557148031993807634', 'createTime': 1759535656, 'createTimeISO': '2025-10-03T23:54:16.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6927611184364356614', 'uniqueId': 'user0hhptpeva0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=51d04cd2&amp;x-expires=1760965200&amp;x-signature=8TjSN%2BmK3zIZo8AihOKtbP0NrMo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7552707432578876180', 'createTime': 1758502001, 'createTimeISO': '2025-09-22T00:46:41.000Z', 'text': '@Alpina 🐮 cuantos comentarios y reacciones y me ayudan a completar la colección de Mochis e ilumimochis (ayuden gente a que lo vean🥺)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6915493889098187782', 'uniqueId': 'angel18mendoza', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/68f808039457cd87fd4d7b94e867d357~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=46c1cb32&amp;x-expires=1760878800&amp;x-signature=Sx30Yw1V1Zi2z5YYfgRV2jwg1zM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7552707432578876180', 'createTime': 1758502001, 'createTimeISO': '2025-09-22T00:46:41.000Z', 'text': '@Alpina 🐮 cuantos comentarios y reacciones y me ayudan a completar la colección de Mochis e ilumimochis (ayuden gente a que lo vean🥺)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6915493889098187782', 'uniqueId': 'angel18mendoza', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/68f808039457cd87fd4d7b94e867d357~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=68904c10&amp;x-expires=1760965200&amp;x-signature=ZT1fxSKoTTpDpoahQDwJOHTYfTE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
         </is>
       </c>
     </row>
@@ -5294,22 +5294,22 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Súper aprobado jajajaja</t>
+          <t>Mi primer mandato! Ajajjaa toda dictadora 😂😂</t>
         </is>
       </c>
       <c r="G87" s="2" t="n">
-        <v>45920.00429398148</v>
+        <v>45921.60706018518</v>
       </c>
       <c r="H87" s="3" t="n">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>00:06:11</t>
+          <t>14:34:10</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="K87" t="n">
         <v>1</v>
@@ -5324,7 +5324,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551955913683682055', 'createTime': 1758326771, 'createTimeISO': '2025-09-20T00:06:11.000Z', 'text': 'Súper aprobado jajajaja', 'diggCount': 32, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6774446029552354309', 'uniqueId': 'its.bri_ugc', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/dfeff60de882b1c199e34cb77f9557be~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a00e437d&amp;x-expires=1760878800&amp;x-signature=E1PoS8%2BfyntPojYyrRhkT%2FyIj2Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552550716473639700', 'createTime': 1758465250, 'createTimeISO': '2025-09-21T14:34:10.000Z', 'text': 'Mi primer mandato! Ajajjaa toda dictadora 😂😂', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7127494140724216838', 'uniqueId': 'marlinq23', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7127494903172923398~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=bfba5e69&amp;x-expires=1760965200&amp;x-signature=pIKtG6lDx8rMHy4VV7%2Fstmz48Q8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5380,7 +5380,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551979924456211207', 'createTime': 1758332359, 'createTimeISO': '2025-09-20T01:39:19.000Z', 'text': 'ME ENCANTA✨✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=5fcd192d&amp;x-expires=1760878800&amp;x-signature=MhUGGBU6cnuL0ORA6CZLp%2B3VaxM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551979924456211207', 'createTime': 1758332359, 'createTimeISO': '2025-09-20T01:39:19.000Z', 'text': 'ME ENCANTA✨✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=2486ace3&amp;x-expires=1760965200&amp;x-signature=1yVykyoGiiP%2BiV4ARXC66x%2BP2UI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5406,22 +5406,22 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Mi primer mandato! Ajajjaa toda dictadora 😂😂</t>
+          <t>Súper aprobado jajajaja</t>
         </is>
       </c>
       <c r="G89" s="2" t="n">
-        <v>45921.60706018518</v>
+        <v>45920.00429398148</v>
       </c>
       <c r="H89" s="3" t="n">
-        <v>45921</v>
+        <v>45920</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>14:34:10</t>
+          <t>00:06:11</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="K89" t="n">
         <v>1</v>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552550716473639700', 'createTime': 1758465250, 'createTimeISO': '2025-09-21T14:34:10.000Z', 'text': 'Mi primer mandato! Ajajjaa toda dictadora 😂😂', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7127494140724216838', 'uniqueId': 'marlinq23', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7127494903172923398~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=3f710cb9&amp;x-expires=1760878800&amp;x-signature=EFMO913DSRJt%2Fdivh82tnJzvwgo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551955913683682055', 'createTime': 1758326771, 'createTimeISO': '2025-09-20T00:06:11.000Z', 'text': 'Súper aprobado jajajaja', 'diggCount': 32, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6774446029552354309', 'uniqueId': 'its.bri_ugc', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/dfeff60de882b1c199e34cb77f9557be~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=de05398e&amp;x-expires=1760965200&amp;x-signature=XsusGYNkgnw%2BsrrCMOL8bZVJgFY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551983682992784136', 'createTime': 1758333239, 'createTimeISO': '2025-09-20T01:53:59.000Z', 'text': 'Apoyo muuuuuuuucho jajaja', 'diggCount': 5, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6577436033524727814', 'uniqueId': 'mafelovera', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7dea885196e9f4c245ffd2cb465a4c8a~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=3fe60701&amp;x-expires=1760878800&amp;x-signature=8akaquBammmndSObq1p330RWFMA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551983682992784136', 'createTime': 1758333239, 'createTimeISO': '2025-09-20T01:53:59.000Z', 'text': 'Apoyo muuuuuuuucho jajaja', 'diggCount': 5, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6577436033524727814', 'uniqueId': 'mafelovera', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7dea885196e9f4c245ffd2cb465a4c8a~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=81873c8e&amp;x-expires=1760965200&amp;x-signature=Nq28xd8l5sI2on6Vj01wxtTRijQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5548,7 +5548,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7553033945219810055', 'createTime': 1758577775, 'createTimeISO': '2025-09-22T21:49:35.000Z', 'text': 'Empezó mi novela favorita😭😍', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6686398605715244037', 'uniqueId': 'carolina_serrano', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/79be4af25ec17f747428b28ea34a0231~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=e9c7fb50&amp;x-expires=1760878800&amp;x-signature=XnWGQz4BCO21ImIP3BycTV5ZlkY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7553033945219810055', 'createTime': 1758577775, 'createTimeISO': '2025-09-22T21:49:35.000Z', 'text': 'Empezó mi novela favorita😭😍', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6686398605715244037', 'uniqueId': 'carolina_serrano', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/79be4af25ec17f747428b28ea34a0231~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c98fd020&amp;x-expires=1760965200&amp;x-signature=AXaFECaaEgT5zme0fvJ9pzbzT8Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5574,22 +5574,22 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Me encantaaa!!!!! Aprobadooo</t>
+          <t>aprobadooo, amooo</t>
         </is>
       </c>
       <c r="G92" s="2" t="n">
-        <v>45919.99805555555</v>
+        <v>45920.64584490741</v>
       </c>
       <c r="H92" s="3" t="n">
-        <v>45919</v>
+        <v>45920</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>23:57:12</t>
+          <t>15:30:01</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
         <v>1</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551953579881202440', 'createTime': 1758326232, 'createTimeISO': '2025-09-19T23:57:12.000Z', 'text': 'Me encantaaa!!!!! Aprobadooo', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6806474480425796614', 'uniqueId': 'lrendon11', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/65f278fccdfba09731ee15dda4e3cb13~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=4226e5ea&amp;x-expires=1760878800&amp;x-signature=IN2qx0YuBLBhkWt%2F9QyhtSjGcWg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552194010451477269', 'createTime': 1758382201, 'createTimeISO': '2025-09-20T15:30:01.000Z', 'text': 'aprobadooo, amooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6770401168398386182', 'uniqueId': 'gabrielaguerrero70', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/a36d643d0a9ecc0cdaafc93b6200aa8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=deaab90c&amp;x-expires=1760965200&amp;x-signature=KgGuJZxrcSO%2FC8eiUt3mgpzomSE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5630,22 +5630,22 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Wow! Que cracks</t>
+          <t>Me encantaaa!!!!! Aprobadooo</t>
         </is>
       </c>
       <c r="G93" s="2" t="n">
-        <v>45920.13050925926</v>
+        <v>45919.99805555555</v>
       </c>
       <c r="H93" s="3" t="n">
-        <v>45920</v>
+        <v>45919</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>03:07:56</t>
+          <t>23:57:12</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K93" t="n">
         <v>1</v>
@@ -5660,7 +5660,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552002771790136071', 'createTime': 1758337676, 'createTimeISO': '2025-09-20T03:07:56.000Z', 'text': 'Wow! Que cracks', 'diggCount': 4, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6761789459468403717', 'uniqueId': 'mariajimenadiaz5', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7334740815043887110~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=06477724&amp;x-expires=1760878800&amp;x-signature=ghKi8Fp5INj2jtgrzQJTui698q4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551953579881202440', 'createTime': 1758326232, 'createTimeISO': '2025-09-19T23:57:12.000Z', 'text': 'Me encantaaa!!!!! Aprobadooo', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6806474480425796614', 'uniqueId': 'lrendon11', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/65f278fccdfba09731ee15dda4e3cb13~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=14861681&amp;x-expires=1760965200&amp;x-signature=Mj0bHltiZtp%2BWzVKFix3681A53I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5686,22 +5686,22 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>aprobadooo, amooo</t>
+          <t>Wow! Que cracks</t>
         </is>
       </c>
       <c r="G94" s="2" t="n">
-        <v>45920.64584490741</v>
+        <v>45920.13050925926</v>
       </c>
       <c r="H94" s="3" t="n">
         <v>45920</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>15:30:01</t>
+          <t>03:07:56</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K94" t="n">
         <v>1</v>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552194010451477269', 'createTime': 1758382201, 'createTimeISO': '2025-09-20T15:30:01.000Z', 'text': 'aprobadooo, amooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6770401168398386182', 'uniqueId': 'gabrielaguerrero70', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/a36d643d0a9ecc0cdaafc93b6200aa8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=3b1fa57a&amp;x-expires=1760878800&amp;x-signature=JppprwBmi4gCAjCxyoJ0uDfERwU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552002771790136071', 'createTime': 1758337676, 'createTimeISO': '2025-09-20T03:07:56.000Z', 'text': 'Wow! Que cracks', 'diggCount': 4, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6761789459468403717', 'uniqueId': 'mariajimenadiaz5', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7334740815043887110~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=f325ccab&amp;x-expires=1760965200&amp;x-signature=PDUvfa9vCRIJlajuQ%2F8USca3DGU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5772,7 +5772,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552220543425413944', 'createTime': 1758388381, 'createTimeISO': '2025-09-20T17:13:01.000Z', 'text': 'JAJAJAJAJA muuuuu', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6808343868984345606', 'uniqueId': 'isaacalejandrorueda', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/9521fa11b07506edc233d485d7408f43~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=e12a4413&amp;x-expires=1760878800&amp;x-signature=04Ml8W2K7l1VXGcPNBeV08FekOM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552220543425413944', 'createTime': 1758388381, 'createTimeISO': '2025-09-20T17:13:01.000Z', 'text': 'JAJAJAJAJA muuuuu', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6808343868984345606', 'uniqueId': 'isaacalejandrorueda', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/9521fa11b07506edc233d485d7408f43~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=3747a422&amp;x-expires=1760965200&amp;x-signature=p7JiFAUS0CqlJZyUWrQZnLmhz50%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5798,25 +5798,25 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>hola 😘</t>
+          <t>QUE VUELVA EL ALPILITRO 😭😭🙌🙌🙌🙏🙏</t>
         </is>
       </c>
       <c r="G96" s="2" t="n">
-        <v>45919.98998842593</v>
+        <v>45923.78701388889</v>
       </c>
       <c r="H96" s="3" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>23:45:35</t>
+          <t>18:53:18</t>
         </is>
       </c>
       <c r="J96" t="n">
         <v>3</v>
       </c>
       <c r="K96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" t="b">
         <v>0</v>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551950541917881104', 'createTime': 1758325535, 'createTimeISO': '2025-09-19T23:45:35.000Z', 'text': 'hola 😘', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=7cb55926&amp;x-expires=1760878800&amp;x-signature=9gafz5elhhn9U3JyaDbV0%2FvmZzI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7553359647815484167', 'createTime': 1758653598, 'createTimeISO': '2025-09-23T18:53:18.000Z', 'text': 'QUE VUELVA EL ALPILITRO 😭😭🙌🙌🙌🙏🙏', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7493133555746489351', 'uniqueId': 'andreykdy3', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/ffdb73d8f0b1bc3e2a3bf54e4492d457~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=3110779d&amp;x-expires=1760965200&amp;x-signature=4r%2BWQePTFURMvucYp7asEUF42aE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5854,22 +5854,22 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Me gusta MUUUUUcho</t>
+          <t>hola 😘</t>
         </is>
       </c>
       <c r="G97" s="2" t="n">
-        <v>45920.63900462963</v>
+        <v>45919.98998842593</v>
       </c>
       <c r="H97" s="3" t="n">
-        <v>45920</v>
+        <v>45919</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>15:20:10</t>
+          <t>23:45:35</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K97" t="n">
         <v>1</v>
@@ -5884,7 +5884,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552191427935208203', 'createTime': 1758381610, 'createTimeISO': '2025-09-20T15:20:10.000Z', 'text': 'Me gusta MUUUUUcho', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6786345043017958405', 'uniqueId': 'rafaelladm_', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/73cfb3946b471a5575a9bd8db504145d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a05d5aff&amp;x-expires=1760878800&amp;x-signature=%2FEGYSC43j9oUh1JHwCwt0XhA5qc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551950541917881104', 'createTime': 1758325535, 'createTimeISO': '2025-09-19T23:45:35.000Z', 'text': 'hola 😘', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a9cd4441&amp;x-expires=1760965200&amp;x-signature=l8m7pSYFU%2Fi%2FYldX5ARQqAHJ4V0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5910,18 +5910,18 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>amo este muuuuuuundoo😏</t>
+          <t>Amooooooooo ✨❤</t>
         </is>
       </c>
       <c r="G98" s="2" t="n">
-        <v>45920.07972222222</v>
+        <v>45920.63488425926</v>
       </c>
       <c r="H98" s="3" t="n">
         <v>45920</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>01:54:48</t>
+          <t>15:14:14</t>
         </is>
       </c>
       <c r="J98" t="n">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551983930652689172', 'createTime': 1758333288, 'createTimeISO': '2025-09-20T01:54:48.000Z', 'text': 'amo este muuuuuuundoo😏', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6842674101811954693', 'uniqueId': 'lizz_fndz', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f5a7346c0b99528e0b975fc998230121~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=412494ff&amp;x-expires=1760878800&amp;x-signature=IuQ0UFI9viBpyMLCantbTYDgFnE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552189950164157202', 'createTime': 1758381254, 'createTimeISO': '2025-09-20T15:14:14.000Z', 'text': 'Amooooooooo ✨❤', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6775204820329579525', 'uniqueId': 'danivalenciaa', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/16f06ae19c05a3c06f041a0a4078e97e~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=3fa3e03a&amp;x-expires=1760965200&amp;x-signature=cqxkUs7vWGywUH8TLKKqnoIR988%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5966,18 +5966,18 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Amooooooooo ✨❤</t>
+          <t>amo este muuuuuuundoo😏</t>
         </is>
       </c>
       <c r="G99" s="2" t="n">
-        <v>45920.63488425926</v>
+        <v>45920.07972222222</v>
       </c>
       <c r="H99" s="3" t="n">
         <v>45920</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>15:14:14</t>
+          <t>01:54:48</t>
         </is>
       </c>
       <c r="J99" t="n">
@@ -5996,7 +5996,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552189950164157202', 'createTime': 1758381254, 'createTimeISO': '2025-09-20T15:14:14.000Z', 'text': 'Amooooooooo ✨❤', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6775204820329579525', 'uniqueId': 'danivalenciaa', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/16f06ae19c05a3c06f041a0a4078e97e~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=3dc162e4&amp;x-expires=1760878800&amp;x-signature=bVF3KelgpQzojOEgEBQW5gCTCi8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551983930652689172', 'createTime': 1758333288, 'createTimeISO': '2025-09-20T01:54:48.000Z', 'text': 'amo este muuuuuuundoo😏', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6842674101811954693', 'uniqueId': 'lizz_fndz', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f5a7346c0b99528e0b975fc998230121~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=3ca62d81&amp;x-expires=1760965200&amp;x-signature=5RP3g%2Fp7FvrENlhAQWZNDrLRfDE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6022,25 +6022,25 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Me encantaaaa</t>
+          <t>mi mami trabaja en alpina y me trajo Mochis 🥰</t>
         </is>
       </c>
       <c r="G100" s="2" t="n">
-        <v>45920.30841435185</v>
+        <v>45924.08138888889</v>
       </c>
       <c r="H100" s="3" t="n">
-        <v>45920</v>
+        <v>45924</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>07:24:07</t>
+          <t>01:57:12</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L100" t="b">
         <v>0</v>
@@ -6052,7 +6052,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552068707821749048', 'createTime': 1758353047, 'createTimeISO': '2025-09-20T07:24:07.000Z', 'text': 'Me encantaaaa', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6572155711261966341', 'uniqueId': 'renata.garces', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/0e4e281eab3b0fe02f45e37f8562c901~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=5f1d700c&amp;x-expires=1760878800&amp;x-signature=oI35IC%2BbbPfGXGk%2FDf7i%2Ftj3Mjo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7553468863707759377', 'createTime': 1758679032, 'createTimeISO': '2025-09-24T01:57:12.000Z', 'text': 'mi mami trabaja en alpina y me trajo Mochis 🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6796362843291354118', 'uniqueId': 'sampreds', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/6ab46faa73ba2a267e5c627e7857a09a~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=1f76ea2d&amp;x-expires=1760965200&amp;x-signature=7DRuGkotrxl%2BUMZu3KcRQX2HX38%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6078,25 +6078,25 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Me encanta el Muuuuuuu💖</t>
+          <t>Me encanta</t>
         </is>
       </c>
       <c r="G101" s="2" t="n">
-        <v>45920.03078703704</v>
+        <v>45925.74446759259</v>
       </c>
       <c r="H101" s="3" t="n">
-        <v>45920</v>
+        <v>45925</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>00:44:20</t>
+          <t>17:52:02</t>
         </is>
       </c>
       <c r="J101" t="n">
         <v>1</v>
       </c>
       <c r="K101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101" t="b">
         <v>0</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551965699524461330', 'createTime': 1758329060, 'createTimeISO': '2025-09-20T00:44:20.000Z', 'text': 'Me encanta el Muuuuuuu💖', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=3d404a26&amp;x-expires=1760878800&amp;x-signature=GpbtTr5OXbWLGXCFmmWSrBIe7EA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7554086009761415956', 'createTime': 1758822722, 'createTimeISO': '2025-09-25T17:52:02.000Z', 'text': 'Me encanta', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6824118381916079109', 'uniqueId': 'urg7348', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7333599963433140229~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=15c835a8&amp;x-expires=1760965200&amp;x-signature=9ZvrGnXeDu8wUK0o0dISqy4Cs6Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6134,25 +6134,25 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
-          <t>QUE VUELVA EL ALPILITRO 😭😭🙌🙌🙌🙏🙏</t>
+          <t>Me gusta MUUUUUcho</t>
         </is>
       </c>
       <c r="G102" s="2" t="n">
-        <v>45923.78701388889</v>
+        <v>45920.63900462963</v>
       </c>
       <c r="H102" s="3" t="n">
-        <v>45923</v>
+        <v>45920</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>18:53:18</t>
+          <t>15:20:10</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" t="b">
         <v>0</v>
@@ -6164,7 +6164,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7553359647815484167', 'createTime': 1758653598, 'createTimeISO': '2025-09-23T18:53:18.000Z', 'text': 'QUE VUELVA EL ALPILITRO 😭😭🙌🙌🙌🙏🙏', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7493133555746489351', 'uniqueId': 'andreykdy3', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/ffdb73d8f0b1bc3e2a3bf54e4492d457~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=2d6f8d54&amp;x-expires=1760878800&amp;x-signature=rrx%2FHVUQAsnGYKr8AOINBCPpvQ0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552191427935208203', 'createTime': 1758381610, 'createTimeISO': '2025-09-20T15:20:10.000Z', 'text': 'Me gusta MUUUUUcho', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6786345043017958405', 'uniqueId': 'rafaelladm_', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/73cfb3946b471a5575a9bd8db504145d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ceff2237&amp;x-expires=1760965200&amp;x-signature=qcmbTSl%2FLoiSZMbxWm0s8JGRzk8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6190,25 +6190,25 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Me encanta</t>
+          <t>Me encantaaaa</t>
         </is>
       </c>
       <c r="G103" s="2" t="n">
-        <v>45925.74446759259</v>
+        <v>45920.30841435185</v>
       </c>
       <c r="H103" s="3" t="n">
-        <v>45925</v>
+        <v>45920</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>17:52:02</t>
+          <t>07:24:07</t>
         </is>
       </c>
       <c r="J103" t="n">
         <v>1</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L103" t="b">
         <v>0</v>
@@ -6220,7 +6220,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7554086009761415956', 'createTime': 1758822722, 'createTimeISO': '2025-09-25T17:52:02.000Z', 'text': 'Me encanta', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6824118381916079109', 'uniqueId': 'urg7348', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7333599963433140229~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=7315c50f&amp;x-expires=1760878800&amp;x-signature=w6tVPbhXUMW11sLxtzvnlqFCnls%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552068707821749048', 'createTime': 1758353047, 'createTimeISO': '2025-09-20T07:24:07.000Z', 'text': 'Me encantaaaa', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6572155711261966341', 'uniqueId': 'renata.garces', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/0e4e281eab3b0fe02f45e37f8562c901~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a5c02f53&amp;x-expires=1760965200&amp;x-signature=sYSdSj3gz%2Ba%2BoohcItykzrsYMGM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6246,25 +6246,25 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Tooooooop✨</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="G104" s="2" t="n">
-        <v>45920.0344675926</v>
+        <v>45925.80569444445</v>
       </c>
       <c r="H104" s="3" t="n">
-        <v>45920</v>
+        <v>45925</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>00:49:38</t>
+          <t>19:20:12</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L104" t="b">
         <v>0</v>
@@ -6276,7 +6276,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551967111200572161', 'createTime': 1758329378, 'createTimeISO': '2025-09-20T00:49:38.000Z', 'text': 'Tooooooop✨', 'diggCount': 2, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6636032545857355782', 'uniqueId': 'amygonzal_', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/bcf09f13282d39a21e796330dfd9b28d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=57533ef2&amp;x-expires=1760878800&amp;x-signature=ZnZjvH3A4Y7wgNCNuFU9ilYW1c0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7554108742757827346', 'createTime': 1758828012, 'createTimeISO': '2025-09-25T19:20:12.000Z', 'text': 'Si', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7472435716635902996', 'uniqueId': 'saraisabellamolin21', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/a143062aac046151f845e8a7d43027c0~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=3743756c&amp;x-expires=1760965200&amp;x-signature=7fqYl%2Bojmk%2BkLr%2BzAqgj%2B%2Bf8KVA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6302,18 +6302,18 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
-          <t>está kiut</t>
+          <t>Me encanta el Muuuuuuu💖</t>
         </is>
       </c>
       <c r="G105" s="2" t="n">
-        <v>45920.7575</v>
+        <v>45920.03078703704</v>
       </c>
       <c r="H105" s="3" t="n">
         <v>45920</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>18:10:48</t>
+          <t>00:44:20</t>
         </is>
       </c>
       <c r="J105" t="n">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552235435209802503', 'createTime': 1758391848, 'createTimeISO': '2025-09-20T18:10:48.000Z', 'text': 'está kiut', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7406595235524690950', 'uniqueId': 'tatiana.r.rocha021328', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/65263d812577fe31cc1016cb79e1e113~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c3ff3dea&amp;x-expires=1760878800&amp;x-signature=nh9KEfRdiF8Z4slOOEfLcnM5Y2k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551965699524461330', 'createTime': 1758329060, 'createTimeISO': '2025-09-20T00:44:20.000Z', 'text': 'Me encanta el Muuuuuuu💖', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=69ff890c&amp;x-expires=1760965200&amp;x-signature=i1UjUovbPJjSqc9vSl%2Fe2VueQKw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6358,25 +6358,25 @@
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr">
         <is>
-          <t>hola</t>
+          <t>está kiut</t>
         </is>
       </c>
       <c r="G106" s="2" t="n">
-        <v>45919.99099537037</v>
+        <v>45920.7575</v>
       </c>
       <c r="H106" s="3" t="n">
-        <v>45919</v>
+        <v>45920</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>23:47:02</t>
+          <t>18:10:48</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L106" t="b">
         <v>0</v>
@@ -6388,7 +6388,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551950956708922130', 'createTime': 1758325622, 'createTimeISO': '2025-09-19T23:47:02.000Z', 'text': 'hola', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7416452271041987590', 'uniqueId': 'saragutierrez9607', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/2d50ff98a95e65e1155080427e14139e~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=dc77e0ec&amp;x-expires=1760878800&amp;x-signature=Q8dnv%2Fc8NUxlMn2CRaQ7yQIOwi4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552235435209802503', 'createTime': 1758391848, 'createTimeISO': '2025-09-20T18:10:48.000Z', 'text': 'está kiut', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7406595235524690950', 'uniqueId': 'tatiana.r.rocha021328', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/65263d812577fe31cc1016cb79e1e113~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=72a20d8d&amp;x-expires=1760965200&amp;x-signature=nWOZJ2%2BU1z9tm7oH%2Bb8exmz5lrk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6414,25 +6414,25 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Pero verídico</t>
+          <t>hola</t>
         </is>
       </c>
       <c r="G107" s="2" t="n">
-        <v>45921.13072916667</v>
+        <v>45919.99099537037</v>
       </c>
       <c r="H107" s="3" t="n">
-        <v>45921</v>
+        <v>45919</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>03:08:15</t>
+          <t>23:47:02</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L107" t="b">
         <v>0</v>
@@ -6444,7 +6444,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552373947406664455', 'createTime': 1758424095, 'createTimeISO': '2025-09-21T03:08:15.000Z', 'text': 'Pero verídico', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6916307664519742470', 'uniqueId': 'daniel_rojas.4', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/1b1931cd030125ddc18f8e0cba099651~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=d1aebeef&amp;x-expires=1760878800&amp;x-signature=9VY0IapySvr1%2BJZ3dEigyb1crTw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551950956708922130', 'createTime': 1758325622, 'createTimeISO': '2025-09-19T23:47:02.000Z', 'text': 'hola', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7416452271041987590', 'uniqueId': 'saragutierrez9607', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/2d50ff98a95e65e1155080427e14139e~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=f41a79f7&amp;x-expires=1760965200&amp;x-signature=mQSXM6V8zTGxwC4tOeINZuyPjmE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6500,7 +6500,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552051172909024016', 'createTime': 1758348947, 'createTimeISO': '2025-09-20T06:15:47.000Z', 'text': 'Siiii', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781933506022491142', 'uniqueId': 'carovelez_9', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/9bafd1d600cb2409f94c1df9050c163d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=9d00e658&amp;x-expires=1760878800&amp;x-signature=D1BuPjg16S5VTK6%2BdTePIFDeIRY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552051172909024016', 'createTime': 1758348947, 'createTimeISO': '2025-09-20T06:15:47.000Z', 'text': 'Siiii', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781933506022491142', 'uniqueId': 'carovelez_9', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/9bafd1d600cb2409f94c1df9050c163d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=8ec8e540&amp;x-expires=1760965200&amp;x-signature=lzCWG6ZEkqeNG91vA%2BuY7CvbukM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6526,18 +6526,18 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Increíbleeee</t>
+          <t>Pero verídico</t>
         </is>
       </c>
       <c r="G109" s="2" t="n">
-        <v>45922.29777777778</v>
+        <v>45921.13072916667</v>
       </c>
       <c r="H109" s="3" t="n">
-        <v>45922</v>
+        <v>45921</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>07:08:48</t>
+          <t>03:08:15</t>
         </is>
       </c>
       <c r="J109" t="n">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552806947365241622', 'createTime': 1758524928, 'createTimeISO': '2025-09-22T07:08:48.000Z', 'text': 'Increíbleeee', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7251571663123465243', 'uniqueId': 'barbaramayan', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/58ed5201d3060082de17047de0ec72f0~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6efc3d36&amp;x-expires=1760878800&amp;x-signature=qbt5BHgm2yLb6FsC9ej6qNeQL14%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552373947406664455', 'createTime': 1758424095, 'createTimeISO': '2025-09-21T03:08:15.000Z', 'text': 'Pero verídico', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6916307664519742470', 'uniqueId': 'daniel_rojas.4', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/1b1931cd030125ddc18f8e0cba099651~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=057de882&amp;x-expires=1760965200&amp;x-signature=E7AhQgEAgr0qtZrOJ61LT0MSD64%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6582,18 +6582,18 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Lindo</t>
+          <t>Increíbleeee</t>
         </is>
       </c>
       <c r="G110" s="2" t="n">
-        <v>45920.64417824074</v>
+        <v>45922.29777777778</v>
       </c>
       <c r="H110" s="3" t="n">
-        <v>45920</v>
+        <v>45922</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>15:27:37</t>
+          <t>07:08:48</t>
         </is>
       </c>
       <c r="J110" t="n">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552193394950685448', 'createTime': 1758382057, 'createTimeISO': '2025-09-20T15:27:37.000Z', 'text': 'Lindo', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6747056373932590086', 'uniqueId': 'monimarpor', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7327496776705933318~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6800b6ad&amp;x-expires=1760878800&amp;x-signature=5X1eG61WNL1DrcldyXR%2Buz%2BnIZw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552806947365241622', 'createTime': 1758524928, 'createTimeISO': '2025-09-22T07:08:48.000Z', 'text': 'Increíbleeee', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7251571663123465243', 'uniqueId': 'barbaramayan', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/58ed5201d3060082de17047de0ec72f0~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=32f5d86f&amp;x-expires=1760965200&amp;x-signature=Cuaz4qSdtp0uzlgDC9xOUO%2BcMPc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6638,22 +6638,22 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
-          <t>mi mami trabaja en alpina y me trajo Mochis 🥰</t>
+          <t>Me encanta!</t>
         </is>
       </c>
       <c r="G111" s="2" t="n">
-        <v>45924.08138888889</v>
+        <v>45927.95293981482</v>
       </c>
       <c r="H111" s="3" t="n">
-        <v>45924</v>
+        <v>45927</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>01:57:12</t>
+          <t>22:52:14</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7553468863707759377', 'createTime': 1758679032, 'createTimeISO': '2025-09-24T01:57:12.000Z', 'text': 'mi mami trabaja en alpina y me trajo Mochis 🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6796362843291354118', 'uniqueId': 'sampreds', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/6ab46faa73ba2a267e5c627e7857a09a~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=200b55e5&amp;x-expires=1760878800&amp;x-signature=nK9JGhFUUV5GaqbAb1Lh7OOkrbQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7554905527273751314', 'createTime': 1759013534, 'createTimeISO': '2025-09-27T22:52:14.000Z', 'text': 'Me encanta!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6817121247644124166', 'uniqueId': 'marsd195', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/1afb497a92aa0ea23b48a8a687a97094~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=cb951263&amp;x-expires=1760965200&amp;x-signature=kUr8%2FCC1uNy8bo4qTJTbfZy0M5Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6694,22 +6694,22 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Lindo</t>
         </is>
       </c>
       <c r="G112" s="2" t="n">
-        <v>45925.80569444445</v>
+        <v>45920.64417824074</v>
       </c>
       <c r="H112" s="3" t="n">
-        <v>45925</v>
+        <v>45920</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>19:20:12</t>
+          <t>15:27:37</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
@@ -6724,7 +6724,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7554108742757827346', 'createTime': 1758828012, 'createTimeISO': '2025-09-25T19:20:12.000Z', 'text': 'Si', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7472435716635902996', 'uniqueId': 'saraisabellamolin21', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/a143062aac046151f845e8a7d43027c0~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=e9626a85&amp;x-expires=1760878800&amp;x-signature=aBY63eEEsemNPIwp8XxWcX2l7yk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552193394950685448', 'createTime': 1758382057, 'createTimeISO': '2025-09-20T15:27:37.000Z', 'text': 'Lindo', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6747056373932590086', 'uniqueId': 'monimarpor', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7327496776705933318~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=fa051aa0&amp;x-expires=1760965200&amp;x-signature=2809vfq9uNh0u%2B9QGSw7dxniv5w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6750,26 +6750,26 @@
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Me encanta!</t>
+          <t>Tooooooop✨</t>
         </is>
       </c>
       <c r="G113" s="2" t="n">
-        <v>45927.95293981482</v>
+        <v>45920.0344675926</v>
       </c>
       <c r="H113" s="3" t="n">
-        <v>45927</v>
+        <v>45920</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>22:52:14</t>
+          <t>00:49:38</t>
         </is>
       </c>
       <c r="J113" t="n">
+        <v>2</v>
+      </c>
+      <c r="K113" t="n">
         <v>1</v>
       </c>
-      <c r="K113" t="n">
-        <v>0</v>
-      </c>
       <c r="L113" t="b">
         <v>0</v>
       </c>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7554905527273751314', 'createTime': 1759013534, 'createTimeISO': '2025-09-27T22:52:14.000Z', 'text': 'Me encanta!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6817121247644124166', 'uniqueId': 'marsd195', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/1afb497a92aa0ea23b48a8a687a97094~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ed58bb4d&amp;x-expires=1760878800&amp;x-signature=wzJQKygQLJM5avOBPZl%2B9EV%2B38U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551967111200572161', 'createTime': 1758329378, 'createTimeISO': '2025-09-20T00:49:38.000Z', 'text': 'Tooooooop✨', 'diggCount': 2, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6636032545857355782', 'uniqueId': 'amygonzal_', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/bcf09f13282d39a21e796330dfd9b28d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c205bd50&amp;x-expires=1760965200&amp;x-signature=99Py%2B6ZgpajNHEoFETCS1SkPPXs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6836,7 +6836,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552717306100761351', 'createTime': 1758504051, 'createTimeISO': '2025-09-22T01:20:51.000Z', 'text': 'Califiquen mi nuevo mochi saurio!!!💗', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7025228362498999301', 'uniqueId': 'krystelnavarrober', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/3da7823061496f0246300c1ee868876f~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=8f0646f3&amp;x-expires=1760878800&amp;x-signature=%2B1Mt8%2B6nEb6yEzOxdxfj6BCf%2FGA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552717306100761351', 'createTime': 1758504051, 'createTimeISO': '2025-09-22T01:20:51.000Z', 'text': 'Califiquen mi nuevo mochi saurio!!!💗', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7025228362498999301', 'uniqueId': 'krystelnavarrober', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/3da7823061496f0246300c1ee868876f~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=8363d983&amp;x-expires=1760965200&amp;x-signature=pcSj87BupAEG0f%2BO9Z4aMNJgNrw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6892,7 +6892,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7553431107175662354', 'createTime': 1758670261, 'createTimeISO': '2025-09-23T23:31:01.000Z', 'text': 'alpina q es esta hermosura', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7246183829702034437', 'uniqueId': '2s_sarah', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/a9bc5c82ba1c64cdd2810f102faf0c8f~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=075aa7d1&amp;x-expires=1760878800&amp;x-signature=S8j4s3f3CM5lCT4CF4etgSr308w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7553431107175662354', 'createTime': 1758670261, 'createTimeISO': '2025-09-23T23:31:01.000Z', 'text': 'alpina q es esta hermosura', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7246183829702034437', 'uniqueId': '2s_sarah', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/a9bc5c82ba1c64cdd2810f102faf0c8f~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=473db9b7&amp;x-expires=1760965200&amp;x-signature=exdceZ9rux2cRxTmZQOtN50hYDI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6948,7 +6948,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551950414629061394', 'createTime': 1758325506, 'createTimeISO': '2025-09-19T23:45:06.000Z', 'text': '🥰🥰🥰', 'diggCount': 2, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6830514363565278214', 'uniqueId': 'mariafernandasalc02', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/f48ef1c788191659fa2e09d032706b87~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=38adc9b9&amp;x-expires=1760878800&amp;x-signature=YSiRTykankKxBKnmKcgtbR8R17o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551950414629061394', 'createTime': 1758325506, 'createTimeISO': '2025-09-19T23:45:06.000Z', 'text': '🥰🥰🥰', 'diggCount': 2, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6830514363565278214', 'uniqueId': 'mariafernandasalc02', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/f48ef1c788191659fa2e09d032706b87~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=89a2c6a5&amp;x-expires=1760965200&amp;x-signature=4DbrLQxEQwxT5%2FOzn4AtFTc32%2Bc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6974,25 +6974,25 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Holaaa!! ¿Cuánto tiempo tarda en finalizar los filtros de la convocatoria? @Alpina 🐮 ✨✨✨</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G117" s="2" t="n">
-        <v>45937.91074074074</v>
+        <v>45920.60407407407</v>
       </c>
       <c r="H117" s="3" t="n">
-        <v>45937</v>
+        <v>45920</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>21:51:28</t>
+          <t>14:29:52</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L117" t="b">
         <v>0</v>
@@ -7004,7 +7004,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7558600728525275934', 'createTime': 1759873888, 'createTimeISO': '2025-10-07T21:51:28.000Z', 'text': 'Holaaa!! ¿Cuánto tiempo tarda en finalizar los filtros de la convocatoria? @Alpina 🐮 ✨✨✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '130977736172539904', 'uniqueId': 'giraldotogaby', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/a2c5a1fbbbc85ff0c2c73bd1842eb1cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=41dc96a8&amp;x-expires=1760878800&amp;x-signature=9BCmB4UbfkB4Ho42OPDOzTjhiSo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552178343107592961', 'createTime': 1758378592, 'createTimeISO': '2025-09-20T14:29:52.000Z', 'text': '🥰', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6806405540710351877', 'uniqueId': 'karenmarcelagarzo', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7326838454582460422~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bffdd732&amp;x-expires=1760965200&amp;x-signature=E5wwsxtsZRRHIseIFL4NVCqf4lQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7030,22 +7030,22 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
         <is>
-          <t>✅✅✅</t>
+          <t>🥰🥰🥰</t>
         </is>
       </c>
       <c r="G118" s="2" t="n">
-        <v>45920.11243055556</v>
+        <v>45934.13739583334</v>
       </c>
       <c r="H118" s="3" t="n">
-        <v>45920</v>
+        <v>45934</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>02:41:54</t>
+          <t>03:17:51</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
@@ -7060,7 +7060,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551996069400838930', 'createTime': 1758336114, 'createTimeISO': '2025-09-20T02:41:54.000Z', 'text': '✅✅✅', 'diggCount': 2, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6775228984448959493', 'uniqueId': 'francescalvarezr_', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/2e5e4150ee1705a086acc14bc21b08d4~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=5374d3e2&amp;x-expires=1760878800&amp;x-signature=Lff7suEsEDq6lSr%2BUlhLARpfGTM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7557200531950256903', 'createTime': 1759547871, 'createTimeISO': '2025-10-04T03:17:51.000Z', 'text': '🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7368157374302946309', 'uniqueId': 'jeronimoo334', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4853e0d53cbeb9e2a1c9346cf5e1b179~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4c9065eb&amp;x-expires=1760965200&amp;x-signature=7QiqEQJVcWrceIbkpbK6%2BgTIWDM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7086,22 +7086,22 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>😅</t>
         </is>
       </c>
       <c r="G119" s="2" t="n">
-        <v>45920.60407407407</v>
+        <v>45937.14810185185</v>
       </c>
       <c r="H119" s="3" t="n">
-        <v>45920</v>
+        <v>45937</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>14:29:52</t>
+          <t>03:33:16</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K119" t="n">
         <v>0</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552178343107592961', 'createTime': 1758378592, 'createTimeISO': '2025-09-20T14:29:52.000Z', 'text': '🥰', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6806405540710351877', 'uniqueId': 'karenmarcelagarzo', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7326838454582460422~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ae464569&amp;x-expires=1760878800&amp;x-signature=Lee5d6lQp4o6x9grwSx8ZmfJd28%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7558317759676121874', 'createTime': 1759807996, 'createTimeISO': '2025-10-07T03:33:16.000Z', 'text': '😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6842107016141751301', 'uniqueId': 'pandrea9610', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7325541937888952325~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=67390b55&amp;x-expires=1760965200&amp;x-signature=y9is7MVNMSCJ7KhHF9pb5HXp3YU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7142,25 +7142,25 @@
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr">
         <is>
-          <t>😅</t>
+          <t>Holaaa!! ¿Cuánto tiempo tarda en finalizar los filtros de la convocatoria? @Alpina 🐮 ✨✨✨</t>
         </is>
       </c>
       <c r="G120" s="2" t="n">
-        <v>45937.14810185185</v>
+        <v>45937.91074074074</v>
       </c>
       <c r="H120" s="3" t="n">
         <v>45937</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>03:33:16</t>
+          <t>21:51:28</t>
         </is>
       </c>
       <c r="J120" t="n">
         <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L120" t="b">
         <v>0</v>
@@ -7172,7 +7172,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7558317759676121874', 'createTime': 1759807996, 'createTimeISO': '2025-10-07T03:33:16.000Z', 'text': '😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6842107016141751301', 'uniqueId': 'pandrea9610', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7325541937888952325~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c5342fe6&amp;x-expires=1760878800&amp;x-signature=q%2BsKeRU4AjQ%2FISdyZ1gRV757NeA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7558600728525275934', 'createTime': 1759873888, 'createTimeISO': '2025-10-07T21:51:28.000Z', 'text': 'Holaaa!! ¿Cuánto tiempo tarda en finalizar los filtros de la convocatoria? @Alpina 🐮 ✨✨✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '130977736172539904', 'uniqueId': 'giraldotogaby', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-useast5-avt-0068-tx/a2c5a1fbbbc85ff0c2c73bd1842eb1cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ba832eb0&amp;x-expires=1760965200&amp;x-signature=3q8mSJ7WgDFrBhhLY7DN4FNNQnc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
         </is>
       </c>
     </row>
@@ -7198,18 +7198,18 @@
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr">
         <is>
-          <t>🥰🥰🥰</t>
+          <t>🥺</t>
         </is>
       </c>
       <c r="G121" s="2" t="n">
-        <v>45934.13739583334</v>
+        <v>45928.61208333333</v>
       </c>
       <c r="H121" s="3" t="n">
-        <v>45934</v>
+        <v>45928</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>03:17:51</t>
+          <t>14:41:24</t>
         </is>
       </c>
       <c r="J121" t="n">
@@ -7228,7 +7228,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7557200531950256903', 'createTime': 1759547871, 'createTimeISO': '2025-10-04T03:17:51.000Z', 'text': '🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7368157374302946309', 'uniqueId': 'jeronimoo334', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/4853e0d53cbeb9e2a1c9346cf5e1b179~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=5aae3b6a&amp;x-expires=1760878800&amp;x-signature=x2kzHZBb0U8U1v1rwq9aIKqe6Mg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7555150174504469266', 'createTime': 1759070484, 'createTimeISO': '2025-09-28T14:41:24.000Z', 'text': '🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6891441655778624518', 'uniqueId': 'kris_salazar23', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/76c1e9d5f762548bf55f86a2eeb72fa3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e750c9ce&amp;x-expires=1760965200&amp;x-signature=4uf6atsyAUipQJiqLEfqK%2BPHAgw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7254,22 +7254,22 @@
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr">
         <is>
-          <t>🥺</t>
+          <t>@Alpina 🐮 cuantos comentarios y reacciones acá en el vídeo y me mandasla nueva colección de los mochis dinosaurios (ayuden que lo vean🙊)</t>
         </is>
       </c>
       <c r="G122" s="2" t="n">
-        <v>45928.61208333333</v>
+        <v>45922.03018518518</v>
       </c>
       <c r="H122" s="3" t="n">
-        <v>45928</v>
+        <v>45922</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>14:41:24</t>
+          <t>00:43:28</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122" t="n">
         <v>0</v>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7555150174504469266', 'createTime': 1759070484, 'createTimeISO': '2025-09-28T14:41:24.000Z', 'text': '🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6891441655778624518', 'uniqueId': 'kris_salazar23', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/76c1e9d5f762548bf55f86a2eeb72fa3~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=1c04a7ff&amp;x-expires=1760878800&amp;x-signature=wiQ1C9sKgWy9egqsWMk2u2JzZmc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552706319259435783', 'createTime': 1758501808, 'createTimeISO': '2025-09-22T00:43:28.000Z', 'text': '@Alpina 🐮 cuantos comentarios y reacciones acá en el vídeo y me mandasla nueva colección de los mochis dinosaurios (ayuden que lo vean🙊)', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6915493889098187782', 'uniqueId': 'angel18mendoza', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/68f808039457cd87fd4d7b94e867d357~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=68904c10&amp;x-expires=1760965200&amp;x-signature=ZT1fxSKoTTpDpoahQDwJOHTYfTE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
         </is>
       </c>
     </row>
@@ -7310,22 +7310,22 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr">
         <is>
-          <t>@Alpina 🐮 cuantos comentarios y reacciones acá en el vídeo y me mandasla nueva colección de los mochis dinosaurios (ayuden que lo vean🙊)</t>
+          <t>✅✅✅</t>
         </is>
       </c>
       <c r="G123" s="2" t="n">
-        <v>45922.03018518518</v>
+        <v>45920.11243055556</v>
       </c>
       <c r="H123" s="3" t="n">
-        <v>45922</v>
+        <v>45920</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>00:43:28</t>
+          <t>02:41:54</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K123" t="n">
         <v>0</v>
@@ -7340,7 +7340,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7552706319259435783', 'createTime': 1758501808, 'createTimeISO': '2025-09-22T00:43:28.000Z', 'text': '@Alpina 🐮 cuantos comentarios y reacciones acá en el vídeo y me mandasla nueva colección de los mochis dinosaurios (ayuden que lo vean🙊)', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6915493889098187782', 'uniqueId': 'angel18mendoza', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/68f808039457cd87fd4d7b94e867d357~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=9bf3e4fb&amp;x-expires=1760878800&amp;x-signature=l950QpCE2eUaQCckShZdLvf3mfA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'input': 'https://www.tiktok.com/@alpinacol/video/7551949227333635339', 'cid': '7551996069400838930', 'createTime': 1758336114, 'createTimeISO': '2025-09-20T02:41:54.000Z', 'text': '✅✅✅', 'diggCount': 2, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6775228984448959493', 'uniqueId': 'francescalvarezr_', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2e5e4150ee1705a086acc14bc21b08d4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2bb57aaa&amp;x-expires=1760965200&amp;x-signature=usOpeNwKp9%2FXtW%2FQiepq5%2Fq1eiU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7396,7 +7396,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553840238716945153', 'createTime': 1758765496, 'createTimeISO': '2025-09-25T01:58:16.000Z', 'text': 'Mi sueñoooo 😩 ya quiero hacer parte de ustedes', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '6561143503132540934', 'uniqueId': 'maaaarirg', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7324826520122785798~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=55786e37&amp;x-expires=1760878800&amp;x-signature=JnsyqYTnIIlF%2FYMIthamG5PUImM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553840238716945153', 'createTime': 1758765496, 'createTimeISO': '2025-09-25T01:58:16.000Z', 'text': 'Mi sueñoooo 😩 ya quiero hacer parte de ustedes', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '6561143503132540934', 'uniqueId': 'maaaarirg', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7324826520122785798~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=43c82f0d&amp;x-expires=1760965200&amp;x-signature=6NrYy9XC7zt3nRvKzB4eMoR4stI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7422,25 +7422,25 @@
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Gran historia jajajaja 🥳</t>
+          <t>una pregunta las personas del Sena pueden estar en Alpina</t>
         </is>
       </c>
       <c r="G125" s="2" t="n">
-        <v>45925.03746527778</v>
+        <v>45925.33574074074</v>
       </c>
       <c r="H125" s="3" t="n">
         <v>45925</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>00:53:57</t>
+          <t>08:03:28</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L125" t="b">
         <v>0</v>
@@ -7452,7 +7452,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553823647435178770', 'createTime': 1758761637, 'createTimeISO': '2025-09-25T00:53:57.000Z', 'text': 'Gran historia jajajaja 🥳', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781206829306807302', 'uniqueId': 'gaaaabs6', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/87a6fa6e1b0b9d03506eca068222ad5e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e4b6997d&amp;x-expires=1760878800&amp;x-signature=nkSkGwDHuKcXWjhITM1Z1pvDhlo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553933847436772104', 'createTime': 1758787408, 'createTimeISO': '2025-09-25T08:03:28.000Z', 'text': 'una pregunta las personas del Sena pueden estar en Alpina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7378542037979644933', 'uniqueId': 'cristian.a_l', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/a8d4f24a10c3ff1073ab57bc08de8478~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=1d454c4d&amp;x-expires=1760965200&amp;x-signature=ms0syLLC0H4LDeC%2Bz3WCLzrT9QU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7478,25 +7478,25 @@
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Alpina que paso con los gatos de la leche alpina?, si me contestas me voy a la cabaña alpina👀</t>
+          <t>Pregunta cuantos minimochis tienes 💖 quiero tenerlos todos</t>
         </is>
       </c>
       <c r="G126" s="2" t="n">
-        <v>45926.65694444445</v>
+        <v>45925.06542824074</v>
       </c>
       <c r="H126" s="3" t="n">
-        <v>45926</v>
+        <v>45925</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>15:46:00</t>
+          <t>01:34:13</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L126" t="b">
         <v>0</v>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554424648151941905', 'createTime': 1758901560, 'createTimeISO': '2025-09-26T15:46:00.000Z', 'text': 'Alpina que paso con los gatos de la leche alpina?, si me contestas me voy a la cabaña alpina👀', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7436539205088396344', 'uniqueId': 'isaac_mora1903', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bd074fbf9f61ee99fcea8ef5f350b2bf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=02a973fd&amp;x-expires=1760878800&amp;x-signature=ld1ZxGQcXJnZ7hZFsQhed1ntPNU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553834039527654152', 'createTime': 1758764053, 'createTimeISO': '2025-09-25T01:34:13.000Z', 'text': 'Pregunta cuantos minimochis tienes 💖 quiero tenerlos todos', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=69ff890c&amp;x-expires=1760965200&amp;x-signature=i1UjUovbPJjSqc9vSl%2Fe2VueQKw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7534,18 +7534,18 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr">
         <is>
-          <t>alpina por favor me puedes mandar la lavadora de mochis pls🥰🥰🥰</t>
+          <t>Alpina que paso con los gatos de la leche alpina?, si me contestas me voy a la cabaña alpina👀</t>
         </is>
       </c>
       <c r="G127" s="2" t="n">
-        <v>45931.09893518518</v>
+        <v>45926.65694444445</v>
       </c>
       <c r="H127" s="3" t="n">
-        <v>45931</v>
+        <v>45926</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>02:22:28</t>
+          <t>15:46:00</t>
         </is>
       </c>
       <c r="J127" t="n">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7556072986438107912', 'createTime': 1759285348, 'createTimeISO': '2025-10-01T02:22:28.000Z', 'text': 'alpina por favor me puedes mandar la lavadora de mochis pls🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7555531729910694930', 'uniqueId': 'danna.isabella.sa2', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/33f27490f5d982fb6410362608e53e39~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=96701966&amp;x-expires=1760878800&amp;x-signature=4yawIuZrkd8HabA6R5KrkHC80lI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554424648151941905', 'createTime': 1758901560, 'createTimeISO': '2025-09-26T15:46:00.000Z', 'text': 'Alpina que paso con los gatos de la leche alpina?, si me contestas me voy a la cabaña alpina👀', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7436539205088396344', 'uniqueId': 'isaac_mora1903', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/bd074fbf9f61ee99fcea8ef5f350b2bf~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ef45f03a&amp;x-expires=1760965200&amp;x-signature=YNhCcIAAxEnxM58L1EqIqb1dlck%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7590,18 +7590,18 @@
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
         <is>
-          <t>nueva presentación 😳!</t>
+          <t>cuando llegan a Perú los Mochis 😭😭</t>
         </is>
       </c>
       <c r="G128" s="2" t="n">
-        <v>45925.20309027778</v>
+        <v>45927.6415625</v>
       </c>
       <c r="H128" s="3" t="n">
-        <v>45925</v>
+        <v>45927</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>04:52:27</t>
+          <t>15:23:51</t>
         </is>
       </c>
       <c r="J128" t="n">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553885128557478672', 'createTime': 1758775947, 'createTimeISO': '2025-09-25T04:52:27.000Z', 'text': 'nueva presentación 😳!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3c4d6890&amp;x-expires=1760878800&amp;x-signature=Ka8%2BkswozclbZ%2FKa4ibdrqreD18%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554790021015946005', 'createTime': 1758986631, 'createTimeISO': '2025-09-27T15:23:51.000Z', 'text': 'cuando llegan a Perú los Mochis 😭😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7093344759511532549', 'uniqueId': 'hanzel3075', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/e5fc427c21f18dd65a5d6366a919b2b8~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6b1974e6&amp;x-expires=1760965200&amp;x-signature=Zc9D3wnu7ymH9jY%2BZy0M5v54j%2Bc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7646,18 +7646,18 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Alpinaa salúdame</t>
+          <t>alpina por favor me puedes mandar la lavadora de mochis pls🥰🥰🥰</t>
         </is>
       </c>
       <c r="G129" s="2" t="n">
-        <v>45932.13111111111</v>
+        <v>45931.09893518518</v>
       </c>
       <c r="H129" s="3" t="n">
-        <v>45932</v>
+        <v>45931</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>03:08:48</t>
+          <t>02:22:28</t>
         </is>
       </c>
       <c r="J129" t="n">
@@ -7676,7 +7676,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7556456003958588178', 'createTime': 1759374528, 'createTimeISO': '2025-10-02T03:08:48.000Z', 'text': 'Alpinaa salúdame', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6783863549585867782', 'uniqueId': 'ciro_492', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ba6e671d98bb7d6703462ff22e1c8081~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=46306278&amp;x-expires=1760878800&amp;x-signature=Oc2CexmGrgAGYRw%2BcwkDGZ0rxZg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7556072986438107912', 'createTime': 1759285348, 'createTimeISO': '2025-10-01T02:22:28.000Z', 'text': 'alpina por favor me puedes mandar la lavadora de mochis pls🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7555531729910694930', 'uniqueId': 'danna.isabella.sa2', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/33f27490f5d982fb6410362608e53e39~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=e84db8e9&amp;x-expires=1760965200&amp;x-signature=f%2BcjnQnma3tHDLJ2p32XPP%2FHalQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7732,7 +7732,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553827220982170386', 'createTime': 1758762474, 'createTimeISO': '2025-09-25T01:07:54.000Z', 'text': 'Yo abría amado que mis prácticas hubiesen sido en alpina ☹', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6760311129178735621', 'uniqueId': 'dosydosdoss', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4de63d002c8153b317e435b8b677488d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=19e30009&amp;x-expires=1760878800&amp;x-signature=%2Fcx%2BFxwCSiw%2Bjvyc4BILXoUukew%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553827220982170386', 'createTime': 1758762474, 'createTimeISO': '2025-09-25T01:07:54.000Z', 'text': 'Yo abría amado que mis prácticas hubiesen sido en alpina ☹', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6760311129178735621', 'uniqueId': 'dosydosdoss', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/4de63d002c8153b317e435b8b677488d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=3eebe3ef&amp;x-expires=1760965200&amp;x-signature=C2D5KYyQD%2FIpkRxX9ckx5s4hTOc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7758,18 +7758,18 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
         <is>
-          <t>estando en etapa lectiva puedo aplicar gracias</t>
+          <t>Alpinaa salúdame</t>
         </is>
       </c>
       <c r="G131" s="2" t="n">
-        <v>45926.77866898148</v>
+        <v>45932.13111111111</v>
       </c>
       <c r="H131" s="3" t="n">
-        <v>45926</v>
+        <v>45932</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>18:41:17</t>
+          <t>03:08:48</t>
         </is>
       </c>
       <c r="J131" t="n">
@@ -7788,7 +7788,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554469785704645384', 'createTime': 1758912077, 'createTimeISO': '2025-09-26T18:41:17.000Z', 'text': 'estando en etapa lectiva puedo aplicar gracias', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6964937358190445574', 'uniqueId': 'daneicy8', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a6e6af884aceb8af9c72174f73167f68~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=893bb551&amp;x-expires=1760878800&amp;x-signature=qOrHsN2cEyUqV4SNMflw2waqKVs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7556456003958588178', 'createTime': 1759374528, 'createTimeISO': '2025-10-02T03:08:48.000Z', 'text': 'Alpinaa salúdame', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6783863549585867782', 'uniqueId': 'ciro_492', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/ba6e671d98bb7d6703462ff22e1c8081~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=2aff28e5&amp;x-expires=1760965200&amp;x-signature=sbDM%2BbzHdLSuMq2qrXqiEbmKVJc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7814,25 +7814,25 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
         <is>
-          <t>cuando llegan a Perú los Mochis 😭😭</t>
+          <t>Es cierto que debajo de la cabaña hay un tunel secreto?👀</t>
         </is>
       </c>
       <c r="G132" s="2" t="n">
-        <v>45927.6415625</v>
+        <v>45925.02155092593</v>
       </c>
       <c r="H132" s="3" t="n">
-        <v>45927</v>
+        <v>45925</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>15:23:51</t>
+          <t>00:31:02</t>
         </is>
       </c>
       <c r="J132" t="n">
         <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L132" t="b">
         <v>0</v>
@@ -7844,7 +7844,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554790021015946005', 'createTime': 1758986631, 'createTimeISO': '2025-09-27T15:23:51.000Z', 'text': 'cuando llegan a Perú los Mochis 😭😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7093344759511532549', 'uniqueId': 'hanzel3075', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/e5fc427c21f18dd65a5d6366a919b2b8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7d60fd12&amp;x-expires=1760878800&amp;x-signature=DJvWyMIY3CBR%2Fq2qmk2bhBCwmuo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553817757574349576', 'createTime': 1758760262, 'createTimeISO': '2025-09-25T00:31:02.000Z', 'text': 'Es cierto que debajo de la cabaña hay un tunel secreto?👀', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '6686398605715244037', 'uniqueId': 'carolina_serrano', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/79be4af25ec17f747428b28ea34a0231~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c98fd020&amp;x-expires=1760965200&amp;x-signature=AXaFECaaEgT5zme0fvJ9pzbzT8Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7870,25 +7870,25 @@
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Pregunta cuantos minimochis tienes 💖 quiero tenerlos todos</t>
+          <t>Gran historia jajajaja 🥳</t>
         </is>
       </c>
       <c r="G133" s="2" t="n">
-        <v>45925.06542824074</v>
+        <v>45925.03746527778</v>
       </c>
       <c r="H133" s="3" t="n">
         <v>45925</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>01:34:13</t>
+          <t>00:53:57</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L133" t="b">
         <v>0</v>
@@ -7900,7 +7900,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553834039527654152', 'createTime': 1758764053, 'createTimeISO': '2025-09-25T01:34:13.000Z', 'text': 'Pregunta cuantos minimochis tienes 💖 quiero tenerlos todos', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f3c8a5c7&amp;x-expires=1760878800&amp;x-signature=a%2FIWjCHEIyz2OrlNwCKg0zCFZCI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553823647435178770', 'createTime': 1758761637, 'createTimeISO': '2025-09-25T00:53:57.000Z', 'text': 'Gran historia jajajaja 🥳', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781206829306807302', 'uniqueId': 'gaaaabs6', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/87a6fa6e1b0b9d03506eca068222ad5e~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=90808122&amp;x-expires=1760965200&amp;x-signature=K%2BQakfM3JsAswG8DceFwlU9Vdqw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7956,7 +7956,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554061217602994962', 'createTime': 1758816943, 'createTimeISO': '2025-09-25T16:15:43.000Z', 'text': 'Porque es la mejor ❤️❤️✨✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6532067139480715266', 'uniqueId': 'irodriguez9', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/8934653b245a2db9d7ce7c5499232dd9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cc67f9a9&amp;x-expires=1760878800&amp;x-signature=aNYOzungRHMQ1PqNlVxdWPsGMzU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554061217602994962', 'createTime': 1758816943, 'createTimeISO': '2025-09-25T16:15:43.000Z', 'text': 'Porque es la mejor ❤️❤️✨✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6532067139480715266', 'uniqueId': 'irodriguez9', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/8934653b245a2db9d7ce7c5499232dd9~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6567895a&amp;x-expires=1760965200&amp;x-signature=YEn%2FIeobEjYVToicxQgPW%2FNkN90%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7982,25 +7982,25 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Es cierto que debajo de la cabaña hay un tunel secreto?👀</t>
+          <t>estando en etapa lectiva puedo aplicar gracias</t>
         </is>
       </c>
       <c r="G135" s="2" t="n">
-        <v>45925.02155092593</v>
+        <v>45926.77866898148</v>
       </c>
       <c r="H135" s="3" t="n">
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>00:31:02</t>
+          <t>18:41:17</t>
         </is>
       </c>
       <c r="J135" t="n">
         <v>0</v>
       </c>
       <c r="K135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L135" t="b">
         <v>0</v>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553817757574349576', 'createTime': 1758760262, 'createTimeISO': '2025-09-25T00:31:02.000Z', 'text': 'Es cierto que debajo de la cabaña hay un tunel secreto?👀', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '6686398605715244037', 'uniqueId': 'carolina_serrano', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/79be4af25ec17f747428b28ea34a0231~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3d2de81b&amp;x-expires=1760878800&amp;x-signature=%2Fbp%2FlY2AnEKXLKWF3QvCHh%2FpL3Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554469785704645384', 'createTime': 1758912077, 'createTimeISO': '2025-09-26T18:41:17.000Z', 'text': 'estando en etapa lectiva puedo aplicar gracias', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6964937358190445574', 'uniqueId': 'daneicy8', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/a6e6af884aceb8af9c72174f73167f68~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=fda2eab8&amp;x-expires=1760965200&amp;x-signature=im%2Fl2uPn1PZmSvUDGjfv5lwdFco%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8038,25 +8038,25 @@
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
         <is>
-          <t>una pregunta las personas del Sena pueden estar en Alpina</t>
+          <t>nueva presentación 😳!</t>
         </is>
       </c>
       <c r="G136" s="2" t="n">
-        <v>45925.33574074074</v>
+        <v>45925.20309027778</v>
       </c>
       <c r="H136" s="3" t="n">
         <v>45925</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>08:03:28</t>
+          <t>04:52:27</t>
         </is>
       </c>
       <c r="J136" t="n">
         <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L136" t="b">
         <v>0</v>
@@ -8068,7 +8068,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553933847436772104', 'createTime': 1758787408, 'createTimeISO': '2025-09-25T08:03:28.000Z', 'text': 'una pregunta las personas del Sena pueden estar en Alpina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7378542037979644933', 'uniqueId': 'cristian.a_l', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a8d4f24a10c3ff1073ab57bc08de8478~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9c7ee420&amp;x-expires=1760878800&amp;x-signature=jQRihBCZgiYiJ7tyNcvuL3PDsmg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553885128557478672', 'createTime': 1758775947, 'createTimeISO': '2025-09-25T04:52:27.000Z', 'text': 'nueva presentación 😳!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a9cd4441&amp;x-expires=1760965200&amp;x-signature=l8m7pSYFU%2Fi%2FYldX5ARQqAHJ4V0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554533498993148680', 'createTime': 1758926911, 'createTimeISO': '2025-09-26T22:48:31.000Z', 'text': 'Y los gatos de alpin?👀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7414647256178230277', 'uniqueId': 'acetaminofenxd', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/94659e73261c442ff86af031e43a41f6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b936f86c&amp;x-expires=1760878800&amp;x-signature=pKyBtuJn9ZfJO6rku%2B1lSKC%2F5ro%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554533498993148680', 'createTime': 1758926911, 'createTimeISO': '2025-09-26T22:48:31.000Z', 'text': 'Y los gatos de alpin?👀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7414647256178230277', 'uniqueId': 'acetaminofenxd', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/94659e73261c442ff86af031e43a41f6~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=f03cdaab&amp;x-expires=1760965200&amp;x-signature=NU0PdnUvZUbsj%2FXu24fnfy7Bz28%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8180,7 +8180,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554467116628640530', 'createTime': 1758911451, 'createTimeISO': '2025-09-26T18:30:51.000Z', 'text': 'Alpina que pasó con los gatos de la leche alpina queremos que vuelvaaannnnnn', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6865051063218439169', 'uniqueId': 'soy_sebass07', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d3ac239ee21a619bba014942d5f7587e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5a5396ef&amp;x-expires=1760878800&amp;x-signature=Cn5E35ZzJ5kPHwsB63dkZtFtOH8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7554467116628640530', 'createTime': 1758911451, 'createTimeISO': '2025-09-26T18:30:51.000Z', 'text': 'Alpina que pasó con los gatos de la leche alpina queremos que vuelvaaannnnnn', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6865051063218439169', 'uniqueId': 'soy_sebass07', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/d3ac239ee21a619bba014942d5f7587e~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=79c8162b&amp;x-expires=1760965200&amp;x-signature=UsyOnjo6Siw7D1IiJRqz3q9Eo9c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8236,7 +8236,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553820808625439495', 'createTime': 1758760989, 'createTimeISO': '2025-09-25T00:43:09.000Z', 'text': '💙💙💙', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7046148050101109766', 'uniqueId': 'juanp846', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/cdf703b505ceb5a3cf5f7b216c352922~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=986afc3f&amp;x-expires=1760878800&amp;x-signature=I3IwzhqGHFFkEzx2RBtxdNtKLxE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553820808625439495', 'createTime': 1758760989, 'createTimeISO': '2025-09-25T00:43:09.000Z', 'text': '💙💙💙', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7046148050101109766', 'uniqueId': 'juanp846', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/cdf703b505ceb5a3cf5f7b216c352922~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=8654d9e0&amp;x-expires=1760965200&amp;x-signature=lpPjTLNiVHMfQy%2Fh83rmvF%2Bh2xw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8292,7 +8292,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7559705187091956488', 'createTime': 1760131041, 'createTimeISO': '2025-10-10T21:17:21.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7464357929971483649', 'uniqueId': 'aquiles.indriagol', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/72a6938f97ba8c0e50728d4cd7d182b4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=802e0db1&amp;x-expires=1760878800&amp;x-signature=6t8lvtT8U0zxxVe59G5pri4YE6Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7559705187091956488', 'createTime': 1760131041, 'createTimeISO': '2025-10-10T21:17:21.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7464357929971483649', 'uniqueId': 'aquiles.indriagol', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/72a6938f97ba8c0e50728d4cd7d182b4~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=781ba7e2&amp;x-expires=1760965200&amp;x-signature=6XYRS7xBxqzHJgJYUyAD8t%2B5jys%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8348,7 +8348,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7555245460417331986', 'createTime': 1759092687, 'createTimeISO': '2025-09-28T20:51:27.000Z', 'text': 'Me encuentro en el departamento del Meta puedo hacer mis Pasantías del Sena Con Alpina?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7400852594988827654', 'uniqueId': 'whoisandres37', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/317c580e71debf147810b74b93171a6f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fe31ac26&amp;x-expires=1760878800&amp;x-signature=%2Bt2TfjHobDUc4qrQABVIwIqvc8E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7555245460417331986', 'createTime': 1759092687, 'createTimeISO': '2025-09-28T20:51:27.000Z', 'text': 'Me encuentro en el departamento del Meta puedo hacer mis Pasantías del Sena Con Alpina?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7400852594988827654', 'uniqueId': 'whoisandres37', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/317c580e71debf147810b74b93171a6f~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=0f130218&amp;x-expires=1760965200&amp;x-signature=wQWre9g1aZUksyw2pqytJdRF1DA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8404,7 +8404,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553824837010965266', 'createTime': 1758761914, 'createTimeISO': '2025-09-25T00:58:34.000Z', 'text': 'Hola! Una pregunta ¿es normal qué los minis ilumimochis de conejito verde venga de a 2?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7482894692960535570', 'uniqueId': 'eldiploo29', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e71b97d2782d93b9a10a9adec8349876~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6a262d5a&amp;x-expires=1760878800&amp;x-signature=88yM7jTmB%2BW%2FEm8wZEoH%2FJrbz%2BY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'input': 'https://www.tiktok.com/@alpinacol/video/7553815390661463308', 'cid': '7553824837010965266', 'createTime': 1758761914, 'createTimeISO': '2025-09-25T00:58:34.000Z', 'text': 'Hola! Una pregunta ¿es normal qué los minis ilumimochis de conejito verde venga de a 2?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7482894692960535570', 'uniqueId': 'eldiploo29', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/e71b97d2782d93b9a10a9adec8349876~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=d2372b4e&amp;x-expires=1760965200&amp;x-signature=ToUTt7MyQrdqZcplvrhX6yN3SUY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8460,7 +8460,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554577111799137025', 'createTime': 1758937069, 'createTimeISO': '2025-09-27T01:37:49.000Z', 'text': 'Alpinaaaaa xq quitaste los gatooooooos', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7414238685522199557', 'uniqueId': 'vxshly_', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/955223d63991be75d91f367af8ee3962~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3930bc6b&amp;x-expires=1760878800&amp;x-signature=3TZOFrzzXDMCNp%2Fs22ifzohp7zI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554577111799137025', 'createTime': 1758937069, 'createTimeISO': '2025-09-27T01:37:49.000Z', 'text': 'Alpinaaaaa xq quitaste los gatooooooos', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7414238685522199557', 'uniqueId': 'vxshly_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/955223d63991be75d91f367af8ee3962~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=909184a5&amp;x-expires=1760965200&amp;x-signature=9pp0SM3VVkfXBDv8NxgeyJZPcTc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8486,25 +8486,25 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
         <is>
-          <t>alpina cuando vas a mostras las familias ya tenemos Los nombres solo faltan las familias[happy][yummy]</t>
+          <t>nuevas familias 😳</t>
         </is>
       </c>
       <c r="G144" s="2" t="n">
-        <v>45927.49298611111</v>
+        <v>45927.005</v>
       </c>
       <c r="H144" s="3" t="n">
         <v>45927</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>11:49:54</t>
+          <t>00:07:12</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L144" t="b">
         <v>0</v>
@@ -8516,7 +8516,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554734892081922823', 'createTime': 1758973794, 'createTimeISO': '2025-09-27T11:49:54.000Z', 'text': 'alpina cuando vas a mostras las familias ya tenemos Los nombres solo faltan las familias[happy][yummy]', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7cb3e843&amp;x-expires=1760878800&amp;x-signature=mfjCwO7dn7AnyUgqOYQUsPIabeA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554553739177624336', 'createTime': 1758931632, 'createTimeISO': '2025-09-27T00:07:12.000Z', 'text': 'nuevas familias 😳', 'diggCount': 5, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bc29958f&amp;x-expires=1760965200&amp;x-signature=lq3UtwGN8vJqzezzKou9GHJcoN8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8542,25 +8542,25 @@
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr">
         <is>
-          <t>nuevas familias 😳</t>
+          <t>alpina cuando vas a mostras las familias ya tenemos Los nombres solo faltan las familias[happy][yummy]</t>
         </is>
       </c>
       <c r="G145" s="2" t="n">
-        <v>45927.005</v>
+        <v>45927.49298611111</v>
       </c>
       <c r="H145" s="3" t="n">
         <v>45927</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>00:07:12</t>
+          <t>11:49:54</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L145" t="b">
         <v>0</v>
@@ -8572,7 +8572,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554553739177624336', 'createTime': 1758931632, 'createTimeISO': '2025-09-27T00:07:12.000Z', 'text': 'nuevas familias 😳', 'diggCount': 5, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3c4d6890&amp;x-expires=1760878800&amp;x-signature=Ka8%2BkswozclbZ%2FKa4ibdrqreD18%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554734892081922823', 'createTime': 1758973794, 'createTimeISO': '2025-09-27T11:49:54.000Z', 'text': 'alpina cuando vas a mostras las familias ya tenemos Los nombres solo faltan las familias[happy][yummy]', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7223039a&amp;x-expires=1760965200&amp;x-signature=TiTCp%2FNuZZduu9vmf2HKI8y8Bcw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554559487220663058', 'createTime': 1758932967, 'createTimeISO': '2025-09-27T00:29:27.000Z', 'text': '¿alpina que paso con los gatos del alpin?', 'diggCount': 8, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7384592401019339781', 'uniqueId': 'el.pepe.joel', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/340ccdf36a548c49ba15c1f1d4f94a5a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d2319772&amp;x-expires=1760878800&amp;x-signature=Hy4akZ3w76%2FYaetXsqIj5UfB1ho%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554559487220663058', 'createTime': 1758932967, 'createTimeISO': '2025-09-27T00:29:27.000Z', 'text': '¿alpina que paso con los gatos del alpin?', 'diggCount': 8, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7384592401019339781', 'uniqueId': 'el.pepe.joel', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/340ccdf36a548c49ba15c1f1d4f94a5a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ce4f071d&amp;x-expires=1760965200&amp;x-signature=PebshWlcV%2FFNShr67e7x7EI7DBc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8684,7 +8684,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554551041196770066', 'createTime': 1758931003, 'createTimeISO': '2025-09-26T23:56:43.000Z', 'text': 'primerooo alpina me regalas mochisauros porfiss', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7547457761526137864', 'uniqueId': 'camisetas.de.futbol1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a6c21b0befe49f100b71b7cf8f2e5652~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3bd2e0ac&amp;x-expires=1760878800&amp;x-signature=Rs5Pyr1J6AS22QJD94Tmm66cvKQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554551041196770066', 'createTime': 1758931003, 'createTimeISO': '2025-09-26T23:56:43.000Z', 'text': 'primerooo alpina me regalas mochisauros porfiss', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7547457761526137864', 'uniqueId': 'camisetas.de.futbol1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a6c21b0befe49f100b71b7cf8f2e5652~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b5e1efb9&amp;x-expires=1760965200&amp;x-signature=dKebVj66ptDXBoGw2VCWSFrVLb0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8710,25 +8710,25 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr">
         <is>
-          <t>que paso con los gatos de alpin?</t>
+          <t>sube otro video de mochiiss</t>
         </is>
       </c>
       <c r="G148" s="2" t="n">
-        <v>45930.19638888889</v>
+        <v>45927.45836805556</v>
       </c>
       <c r="H148" s="3" t="n">
-        <v>45930</v>
+        <v>45927</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>04:42:48</t>
+          <t>11:00:03</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L148" t="b">
         <v>0</v>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7555738077466821394', 'createTime': 1759207368, 'createTimeISO': '2025-09-30T04:42:48.000Z', 'text': 'que paso con los gatos de alpin?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6926927885060621317', 'uniqueId': 'josep3473', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7b4d804bf42cb385a0941a18bd8b1c5e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c7c422d0&amp;x-expires=1760878800&amp;x-signature=nGaV8DAaQwQuwV0UggouxYVdReI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554722020870521616', 'createTime': 1758970803, 'createTimeISO': '2025-09-27T11:00:03.000Z', 'text': 'sube otro video de mochiiss', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7405734042824066054', 'uniqueId': 'emmanuel130816', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a09b533779b756050279fc4f4ba0f5fc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=20e39bba&amp;x-expires=1760965200&amp;x-signature=Z3oPKJkf%2FC4S8fzGriSWwX6mpkI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8766,25 +8766,25 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr">
         <is>
-          <t>sube otro video de mochiiss</t>
+          <t>Yo quiero arequipe vegano 🥺</t>
         </is>
       </c>
       <c r="G149" s="2" t="n">
-        <v>45927.45836805556</v>
+        <v>45933.83266203704</v>
       </c>
       <c r="H149" s="3" t="n">
-        <v>45927</v>
+        <v>45933</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>11:00:03</t>
+          <t>19:59:02</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L149" t="b">
         <v>0</v>
@@ -8796,7 +8796,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554722020870521616', 'createTime': 1758970803, 'createTimeISO': '2025-09-27T11:00:03.000Z', 'text': 'sube otro video de mochiiss', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7405734042824066054', 'uniqueId': 'emmanuel130816', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a09b533779b756050279fc4f4ba0f5fc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c607547b&amp;x-expires=1760878800&amp;x-signature=R5Z4l2yO9SBTN%2BV72DXhatN6lak%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7557087381695890193', 'createTime': 1759521542, 'createTimeISO': '2025-10-03T19:59:02.000Z', 'text': 'Yo quiero arequipe vegano 🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6903626505060189189', 'uniqueId': 'mafeocampor', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bc55178240ac3f97ce30d333a28a48a5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e123fbdf&amp;x-expires=1760965200&amp;x-signature=MiI8qE5Nz9bjpwHOcn9SoLAXT9w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8822,22 +8822,22 @@
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Yo quiero arequipe vegano 🥺</t>
+          <t>Alpinaaaa esos gatos son mi infancia porfavor regresalos</t>
         </is>
       </c>
       <c r="G150" s="2" t="n">
-        <v>45933.83266203704</v>
+        <v>45930.58837962963</v>
       </c>
       <c r="H150" s="3" t="n">
-        <v>45933</v>
+        <v>45930</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>19:59:02</t>
+          <t>14:07:16</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7557087381695890193', 'createTime': 1759521542, 'createTimeISO': '2025-10-03T19:59:02.000Z', 'text': 'Yo quiero arequipe vegano 🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6903626505060189189', 'uniqueId': 'mafeocampor', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bc55178240ac3f97ce30d333a28a48a5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a422a3be&amp;x-expires=1760878800&amp;x-signature=LyBRdLexR0%2BuR0imgmB%2F%2Bh81Ohw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7555883548419932948', 'createTime': 1759241236, 'createTimeISO': '2025-09-30T14:07:16.000Z', 'text': 'Alpinaaaa esos gatos son mi infancia porfavor regresalos', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7259921363220792325', 'uniqueId': 'migue_resurgido', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e6cea1ed6c965c8a6b67e0007f15f789~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=276c6caa&amp;x-expires=1760965200&amp;x-signature=nffUdxvCA7xXviTFJWbpdKU0l14%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8908,7 +8908,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554559943006864136', 'createTime': 1758933071, 'createTimeISO': '2025-09-27T00:31:11.000Z', 'text': 'ya se me antojo un yogo yogo mochisaurios', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7283326063072642053', 'uniqueId': 'socorrito.lopez0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9007660a09caa09f7a749fc3a9a23c0e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5019def7&amp;x-expires=1760878800&amp;x-signature=jKOP7h0HV6Z7KAsIBHwm8CFTTC8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554559943006864136', 'createTime': 1758933071, 'createTimeISO': '2025-09-27T00:31:11.000Z', 'text': 'ya se me antojo un yogo yogo mochisaurios', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7283326063072642053', 'uniqueId': 'socorrito.lopez0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9007660a09caa09f7a749fc3a9a23c0e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f52515b1&amp;x-expires=1760965200&amp;x-signature=CP%2Fe6xsz1LbuLAJCmnlTQYVfaF4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8934,22 +8934,22 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Alpinaaaa esos gatos son mi infancia porfavor regresalos</t>
+          <t>sería super interesante que grabarán un vídeo de cómo alguien se convierte en un maestro quesero (soy fan del queso)</t>
         </is>
       </c>
       <c r="G152" s="2" t="n">
-        <v>45930.58837962963</v>
+        <v>45932.08685185185</v>
       </c>
       <c r="H152" s="3" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>14:07:16</t>
+          <t>02:05:04</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K152" t="n">
         <v>0</v>
@@ -8964,7 +8964,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7555883548419932948', 'createTime': 1759241236, 'createTimeISO': '2025-09-30T14:07:16.000Z', 'text': 'Alpinaaaa esos gatos son mi infancia porfavor regresalos', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7259921363220792325', 'uniqueId': 'migue_resurgido', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e6cea1ed6c965c8a6b67e0007f15f789~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=38411f99&amp;x-expires=1760878800&amp;x-signature=divvh%2B5Pl%2F5%2FyZHEKF9VIBIOcwg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7556439567764472596', 'createTime': 1759370704, 'createTimeISO': '2025-10-02T02:05:04.000Z', 'text': 'sería super interesante que grabarán un vídeo de cómo alguien se convierte en un maestro quesero (soy fan del queso)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6809345648602350598', 'uniqueId': 'ginapaolae.j', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7326882581663334405~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6be832e1&amp;x-expires=1760965200&amp;x-signature=ZYX1FY9t%2BbdU2aE1f7%2BNKBRyw7U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8990,25 +8990,25 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr">
         <is>
-          <t>sería super interesante que grabarán un vídeo de cómo alguien se convierte en un maestro quesero (soy fan del queso)</t>
+          <t>Que tarea esa endulzada 😳🥰 la mejor 😇💖</t>
         </is>
       </c>
       <c r="G153" s="2" t="n">
-        <v>45932.08685185185</v>
+        <v>45927.43773148148</v>
       </c>
       <c r="H153" s="3" t="n">
-        <v>45932</v>
+        <v>45927</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>02:05:04</t>
+          <t>10:30:20</t>
         </is>
       </c>
       <c r="J153" t="n">
         <v>0</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L153" t="b">
         <v>0</v>
@@ -9020,7 +9020,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7556439567764472596', 'createTime': 1759370704, 'createTimeISO': '2025-10-02T02:05:04.000Z', 'text': 'sería super interesante que grabarán un vídeo de cómo alguien se convierte en un maestro quesero (soy fan del queso)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6809345648602350598', 'uniqueId': 'ginapaolae.j', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7326882581663334405~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e2456dad&amp;x-expires=1760878800&amp;x-signature=SgIZjbqM0QCoYCkfAc18xYzo2YA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554714387131745031', 'createTime': 1758969020, 'createTimeISO': '2025-09-27T10:30:20.000Z', 'text': 'Que tarea esa endulzada 😳🥰 la mejor 😇💖', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=47a2209d&amp;x-expires=1760965200&amp;x-signature=cse0xr%2BjherRkbs8rM5V2LiIs%2Fk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9046,25 +9046,25 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Que tarea esa endulzada 😳🥰 la mejor 😇💖</t>
+          <t>Gabi sube la segunda parte de los Mochi saurios plis🙏🙏🙏</t>
         </is>
       </c>
       <c r="G154" s="2" t="n">
-        <v>45927.43773148148</v>
+        <v>45927.79994212963</v>
       </c>
       <c r="H154" s="3" t="n">
         <v>45927</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>10:30:20</t>
+          <t>19:11:55</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L154" t="b">
         <v>0</v>
@@ -9076,7 +9076,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554714387131745031', 'createTime': 1758969020, 'createTimeISO': '2025-09-27T10:30:20.000Z', 'text': 'Que tarea esa endulzada 😳🥰 la mejor 😇💖', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f3c8a5c7&amp;x-expires=1760878800&amp;x-signature=a%2FIWjCHEIyz2OrlNwCKg0zCFZCI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554848766027121426', 'createTime': 1759000315, 'createTimeISO': '2025-09-27T19:11:55.000Z', 'text': 'Gabi sube la segunda parte de los Mochi saurios plis🙏🙏🙏', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7505793601163674642', 'uniqueId': 'mariangel6169', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/399d2e2b90810396c3ec41de01efcf36~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ed9519a4&amp;x-expires=1760965200&amp;x-signature=R%2FfDxEoxBRU%2FxLVc8iqci1Dcaww%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9102,25 +9102,25 @@
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Gabi sube la segunda parte de los Mochi saurios plis🙏🙏🙏</t>
+          <t>😊😊😊</t>
         </is>
       </c>
       <c r="G155" s="2" t="n">
-        <v>45927.79994212963</v>
+        <v>45927.0005787037</v>
       </c>
       <c r="H155" s="3" t="n">
         <v>45927</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>19:11:55</t>
+          <t>00:00:50</t>
         </is>
       </c>
       <c r="J155" t="n">
         <v>1</v>
       </c>
       <c r="K155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L155" t="b">
         <v>0</v>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554848766027121426', 'createTime': 1759000315, 'createTimeISO': '2025-09-27T19:11:55.000Z', 'text': 'Gabi sube la segunda parte de los Mochi saurios plis🙏🙏🙏', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7505793601163674642', 'uniqueId': 'mariangel6169', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/399d2e2b90810396c3ec41de01efcf36~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=baf86c58&amp;x-expires=1760878800&amp;x-signature=AAqBFQKfdEp8IPjj0qu9I7t6Ccs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554552119991829255', 'createTime': 1758931250, 'createTimeISO': '2025-09-27T00:00:50.000Z', 'text': '😊😊😊', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7263510507210245125', 'uniqueId': 'anyela1p', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/388bda02c957db9a4a0d8b463d9fb749~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3682deff&amp;x-expires=1760965200&amp;x-signature=2EL8hpRGQlaAzR8mR8P2FtRLD9Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9158,18 +9158,18 @@
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
         <is>
-          <t>😊😊😊</t>
+          <t>🔝</t>
         </is>
       </c>
       <c r="G156" s="2" t="n">
-        <v>45927.0005787037</v>
+        <v>45927.01375</v>
       </c>
       <c r="H156" s="3" t="n">
         <v>45927</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>00:00:50</t>
+          <t>00:19:48</t>
         </is>
       </c>
       <c r="J156" t="n">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554552119991829255', 'createTime': 1758931250, 'createTimeISO': '2025-09-27T00:00:50.000Z', 'text': '😊😊😊', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7263510507210245125', 'uniqueId': 'anyela1p', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/388bda02c957db9a4a0d8b463d9fb749~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2fbe24c2&amp;x-expires=1760878800&amp;x-signature=f12La4ErhkA4E7Nn5vdg4EBt13Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554556989701325580', 'createTime': 1758932388, 'createTimeISO': '2025-09-27T00:19:48.000Z', 'text': '🔝', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808343868984345606', 'uniqueId': 'isaacalejandrorueda', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/9521fa11b07506edc233d485d7408f43~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ad934c12&amp;x-expires=1760965200&amp;x-signature=xg4k7yKZ5sEkgPXTIlgHeQm0ek0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9214,22 +9214,22 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr">
         <is>
-          <t>🔝</t>
+          <t>♥</t>
         </is>
       </c>
       <c r="G157" s="2" t="n">
-        <v>45927.01375</v>
+        <v>45946.82292824074</v>
       </c>
       <c r="H157" s="3" t="n">
-        <v>45927</v>
+        <v>45946</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>00:19:48</t>
+          <t>19:45:01</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K157" t="n">
         <v>0</v>
@@ -9244,7 +9244,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7554556989701325580', 'createTime': 1758932388, 'createTimeISO': '2025-09-27T00:19:48.000Z', 'text': '🔝', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808343868984345606', 'uniqueId': 'isaacalejandrorueda', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/9521fa11b07506edc233d485d7408f43~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=93582f00&amp;x-expires=1760878800&amp;x-signature=DsgJi6sVKOuS7xIW4p9S6fcHl0M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907918385365768', 'createTime': 1760643901, 'createTimeISO': '2025-10-16T19:45:01.000Z', 'text': '♥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9a859556&amp;x-expires=1760965200&amp;x-signature=%2Bsfcl7U7k3dLQDgshIuR%2BWoB6NQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9274,14 +9274,14 @@
         </is>
       </c>
       <c r="G158" s="2" t="n">
-        <v>45946.82292824074</v>
+        <v>45946.82295138889</v>
       </c>
       <c r="H158" s="3" t="n">
         <v>45946</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>19:45:01</t>
+          <t>19:45:03</t>
         </is>
       </c>
       <c r="J158" t="n">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907918385365768', 'createTime': 1760643901, 'createTimeISO': '2025-10-16T19:45:01.000Z', 'text': '♥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7c3798dc&amp;x-expires=1760878800&amp;x-signature=2yXlPF7WXJw9A177VnOUS1ZP09s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907930460537607', 'createTime': 1760643903, 'createTimeISO': '2025-10-16T19:45:03.000Z', 'text': '♥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9a859556&amp;x-expires=1760965200&amp;x-signature=%2Bsfcl7U7k3dLQDgshIuR%2BWoB6NQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9326,18 +9326,18 @@
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr">
         <is>
-          <t>♥</t>
+          <t>💚</t>
         </is>
       </c>
       <c r="G159" s="2" t="n">
-        <v>45946.82295138889</v>
+        <v>45946.82292824074</v>
       </c>
       <c r="H159" s="3" t="n">
         <v>45946</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>19:45:03</t>
+          <t>19:45:01</t>
         </is>
       </c>
       <c r="J159" t="n">
@@ -9356,7 +9356,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907930460537607', 'createTime': 1760643903, 'createTimeISO': '2025-10-16T19:45:03.000Z', 'text': '♥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7c3798dc&amp;x-expires=1760878800&amp;x-signature=2yXlPF7WXJw9A177VnOUS1ZP09s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907925900821255', 'createTime': 1760643901, 'createTimeISO': '2025-10-16T19:45:01.000Z', 'text': '💚', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9a859556&amp;x-expires=1760965200&amp;x-signature=%2Bsfcl7U7k3dLQDgshIuR%2BWoB6NQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9412,7 +9412,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7555946787841164050', 'createTime': 1759255961, 'createTimeISO': '2025-09-30T18:12:41.000Z', 'text': '@Alpina 🐮 hola necesito un favor suyo 🙏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7314724628953121797', 'uniqueId': 'jan.cityzens', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5d6f3dd82f6da2bcac787ef22cb28684~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=029fd203&amp;x-expires=1760878800&amp;x-signature=Zm%2BeQebd6k9zURXNmN7Byf7hetg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7555946787841164050', 'createTime': 1759255961, 'createTimeISO': '2025-09-30T18:12:41.000Z', 'text': '@Alpina 🐮 hola necesito un favor suyo 🙏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7314724628953121797', 'uniqueId': 'jan.cityzens', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5d6f3dd82f6da2bcac787ef22cb28684~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=10e4a9d3&amp;x-expires=1760965200&amp;x-signature=m%2B7fE8faPsmlCaZiD6YsqtrUdcs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
         </is>
       </c>
     </row>
@@ -9468,7 +9468,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907940182098696', 'createTime': 1760643902, 'createTimeISO': '2025-10-16T19:45:02.000Z', 'text': '❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7c3798dc&amp;x-expires=1760878800&amp;x-signature=2yXlPF7WXJw9A177VnOUS1ZP09s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907940182098696', 'createTime': 1760643902, 'createTimeISO': '2025-10-16T19:45:02.000Z', 'text': '❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9a859556&amp;x-expires=1760965200&amp;x-signature=%2Bsfcl7U7k3dLQDgshIuR%2BWoB6NQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9494,18 +9494,18 @@
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr">
         <is>
-          <t>💚</t>
+          <t>♥</t>
         </is>
       </c>
       <c r="G162" s="2" t="n">
-        <v>45946.82292824074</v>
+        <v>45946.82293981482</v>
       </c>
       <c r="H162" s="3" t="n">
         <v>45946</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>19:45:01</t>
+          <t>19:45:02</t>
         </is>
       </c>
       <c r="J162" t="n">
@@ -9524,7 +9524,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907925900821255', 'createTime': 1760643901, 'createTimeISO': '2025-10-16T19:45:01.000Z', 'text': '💚', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7c3798dc&amp;x-expires=1760878800&amp;x-signature=2yXlPF7WXJw9A177VnOUS1ZP09s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907909032067847', 'createTime': 1760643902, 'createTimeISO': '2025-10-16T19:45:02.000Z', 'text': '♥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9a859556&amp;x-expires=1760965200&amp;x-signature=%2Bsfcl7U7k3dLQDgshIuR%2BWoB6NQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9550,18 +9550,18 @@
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr">
         <is>
-          <t>♥</t>
+          <t>❤</t>
         </is>
       </c>
       <c r="G163" s="2" t="n">
-        <v>45946.82293981482</v>
+        <v>45946.82291666666</v>
       </c>
       <c r="H163" s="3" t="n">
         <v>45946</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>19:45:02</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="J163" t="n">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907909032067847', 'createTime': 1760643902, 'createTimeISO': '2025-10-16T19:45:02.000Z', 'text': '♥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7c3798dc&amp;x-expires=1760878800&amp;x-signature=2yXlPF7WXJw9A177VnOUS1ZP09s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907924650574600', 'createTime': 1760643900, 'createTimeISO': '2025-10-16T19:45:00.000Z', 'text': '❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9a859556&amp;x-expires=1760965200&amp;x-signature=%2Bsfcl7U7k3dLQDgshIuR%2BWoB6NQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9606,18 +9606,18 @@
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr">
         <is>
-          <t>❤</t>
+          <t>mochisssssss</t>
         </is>
       </c>
       <c r="G164" s="2" t="n">
-        <v>45946.82291666666</v>
+        <v>45934.81753472222</v>
       </c>
       <c r="H164" s="3" t="n">
-        <v>45946</v>
+        <v>45934</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:37:15</t>
         </is>
       </c>
       <c r="J164" t="n">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7561907924650574600', 'createTime': 1760643900, 'createTimeISO': '2025-10-16T19:45:00.000Z', 'text': '❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157738821881988102', 'uniqueId': 'milvia575', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330866131660046341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7c3798dc&amp;x-expires=1760878800&amp;x-signature=2yXlPF7WXJw9A177VnOUS1ZP09s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7557452880204202770', 'createTime': 1759606635, 'createTimeISO': '2025-10-04T19:37:15.000Z', 'text': 'mochisssssss', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7329726761418753029', 'uniqueId': 'pipi.potato35', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0d01dfa969f5266b98420f02248fc885~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6cb1b4fb&amp;x-expires=1760965200&amp;x-signature=4yy4aW8FneJPJ5BRzrBmBv%2FYTZM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9662,18 +9662,18 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr">
         <is>
-          <t>mochisssssss</t>
+          <t>que paso con los gatos de alpin?</t>
         </is>
       </c>
       <c r="G165" s="2" t="n">
-        <v>45934.81753472222</v>
+        <v>45930.19638888889</v>
       </c>
       <c r="H165" s="3" t="n">
-        <v>45934</v>
+        <v>45930</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>19:37:15</t>
+          <t>04:42:48</t>
         </is>
       </c>
       <c r="J165" t="n">
@@ -9692,7 +9692,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7557452880204202770', 'createTime': 1759606635, 'createTimeISO': '2025-10-04T19:37:15.000Z', 'text': 'mochisssssss', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7329726761418753029', 'uniqueId': 'pipi.potato35', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0d01dfa969f5266b98420f02248fc885~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=da8528f9&amp;x-expires=1760878800&amp;x-signature=zrg7lv%2FvyVAVzwWjw%2F7FvOG3ZPY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7555738077466821394', 'createTime': 1759207368, 'createTimeISO': '2025-09-30T04:42:48.000Z', 'text': 'que paso con los gatos de alpin?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6926927885060621317', 'uniqueId': 'josep3473', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7b4d804bf42cb385a0941a18bd8b1c5e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c87af475&amp;x-expires=1760965200&amp;x-signature=pHK5ZDdrW%2Fa%2FZKfmtufzAdsld2E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9748,7 +9748,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7559844927899992849', 'createTime': 1760163571, 'createTimeISO': '2025-10-11T06:19:31.000Z', 'text': 'aquí esperando el video donde hablen de los gatos de alpin', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7001651876342055942', 'uniqueId': 'm1mundo_lu', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/1f167436074f22f5e92f6246fd53543d~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=1c306494&amp;x-expires=1760878800&amp;x-signature=DuT%2BONr9XrH2gFbaAaxGovnchV4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'input': 'https://www.tiktok.com/@alpinacol/video/7554549968778825016', 'cid': '7559844927899992849', 'createTime': 1760163571, 'createTimeISO': '2025-10-11T06:19:31.000Z', 'text': 'aquí esperando el video donde hablen de los gatos de alpin', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7001651876342055942', 'uniqueId': 'm1mundo_lu', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/1f167436074f22f5e92f6246fd53543d~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=6d32f414&amp;x-expires=1760965200&amp;x-signature=tFe%2BH3CDLhsBLjtAyxpWJvFV80A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9900,7 +9900,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N166"/>
+  <dimension ref="A1:N168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,27 +535,26 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>primero
-ya casi es octubre que colección de Mochis van a sacar para halloween ✨✨✨?</t>
+          <t>Mas videos asiiiii🔥🔥🔥🔥</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>45902.01054398148</v>
+        <v>45902.11331018519</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>45902</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>00:15:11</t>
+          <t>02:43:10</t>
         </is>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>1</v>
       </c>
-      <c r="K2" t="n">
-        <v>10</v>
-      </c>
       <c r="L2" t="b">
         <v>0</v>
       </c>
@@ -566,7 +565,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7545278675375244050', 'createTime': 1756772111, 'createTimeISO': '2025-09-02T00:15:11.000Z', 'text': 'primero\nya casi es octubre que colección de Mochis van a sacar para halloween ✨✨✨?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 10, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=939da670&amp;x-expires=1760965200&amp;x-signature=guj4I6pmbrBAebWWWnpAcDJMVjc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7545316874159293192', 'createTime': 1756780990, 'createTimeISO': '2025-09-02T02:43:10.000Z', 'text': 'Mas videos asiiiii🔥🔥🔥🔥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '178030697805189120', 'uniqueId': 'nico5box', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5a97c5c648a6246f815739afc2a4dd5b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=782ce213&amp;x-expires=1761051600&amp;x-signature=XMN8td8NDph%2FTg5iz0v7TsGvOhs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -592,25 +591,26 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mas videos asiiiii🔥🔥🔥🔥</t>
+          <t>primero
+ya casi es octubre que colección de Mochis van a sacar para halloween ✨✨✨?</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>45902.11331018519</v>
+        <v>45902.01054398148</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>45902</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>02:43:10</t>
+          <t>00:15:11</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7545316874159293192', 'createTime': 1756780990, 'createTimeISO': '2025-09-02T02:43:10.000Z', 'text': 'Mas videos asiiiii🔥🔥🔥🔥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '178030697805189120', 'uniqueId': 'nico5box', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5a97c5c648a6246f815739afc2a4dd5b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5edcce3a&amp;x-expires=1760965200&amp;x-signature=InupDQWDB9HbcuwfBIZfuAuRK3A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7545278675375244050', 'createTime': 1756772111, 'createTimeISO': '2025-09-02T00:15:11.000Z', 'text': 'primero\nya casi es octubre que colección de Mochis van a sacar para halloween ✨✨✨?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 10, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6a4461c7f1a05c313c396993081c21d8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dd4658b6&amp;x-expires=1761051600&amp;x-signature=%2BymdlDPmuioUrPvmqydTK47K1V8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7550080571285816082', 'createTime': 1757890141, 'createTimeISO': '2025-09-14T22:49:01.000Z', 'text': '😁', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7469966561530430471', 'uniqueId': 'juangmgm84i', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=51d04cd2&amp;x-expires=1760965200&amp;x-signature=8TjSN%2BmK3zIZo8AihOKtbP0NrMo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7550080571285816082', 'createTime': 1757890141, 'createTimeISO': '2025-09-14T22:49:01.000Z', 'text': '😁', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7469966561530430471', 'uniqueId': 'juangmgm84i', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f3381a08&amp;x-expires=1761051600&amp;x-signature=CFXVCDalptEFU2sFHkpAtwLWYb8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7555339654096388871', 'createTime': 1759114604, 'createTimeISO': '2025-09-29T02:56:44.000Z', 'text': 'YO SOY FAN NUMERO UNO DEL KEFIR PLUS DE ALPINA. REALMENTE ES EFECTIVO Y MUY BUENO PARA EL ORGANISMO. Quería escribirles y decirles que el producto es un Hit absoluto. Yo consumo desde hace dos semanas el kefir, y en mi familia ya quedó instalado también 🥰🥰🥰. Y la versión pequeña personal es una maravilla para consumidoras como yo🥰🥰🥰. Bravooooooooooo ALPINA\U0001fa77', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6892758040694359046', 'uniqueId': 'yeriname7', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6c41967350ee22b8d1bcb851e47d28c2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fb416995&amp;x-expires=1760965200&amp;x-signature=WlgPQHCowt47TqJ6SoNaDe3i%2BnM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7555339654096388871', 'createTime': 1759114604, 'createTimeISO': '2025-09-29T02:56:44.000Z', 'text': 'YO SOY FAN NUMERO UNO DEL KEFIR PLUS DE ALPINA. REALMENTE ES EFECTIVO Y MUY BUENO PARA EL ORGANISMO. Quería escribirles y decirles que el producto es un Hit absoluto. Yo consumo desde hace dos semanas el kefir, y en mi familia ya quedó instalado también 🥰🥰🥰. Y la versión pequeña personal es una maravilla para consumidoras como yo🥰🥰🥰. Bravooooooooooo ALPINA\U0001fa77', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6892758040694359046', 'uniqueId': 'yeriname7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6c41967350ee22b8d1bcb851e47d28c2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b42adc8c&amp;x-expires=1761051600&amp;x-signature=jL4nocare0hEG4qz4tbEYNFw6G0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -790,7 +790,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7545286715469792007', 'createTime': 1756773979, 'createTimeISO': '2025-09-02T00:46:19.000Z', 'text': 'Vaquita Kefir plus😊', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6686398605715244037', 'uniqueId': 'carolina_serrano', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/79be4af25ec17f747428b28ea34a0231~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c98fd020&amp;x-expires=1760965200&amp;x-signature=AXaFECaaEgT5zme0fvJ9pzbzT8Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545277103156071736', 'cid': '7545286715469792007', 'createTime': 1756773979, 'createTimeISO': '2025-09-02T00:46:19.000Z', 'text': 'Vaquita Kefir plus😊', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6686398605715244037', 'uniqueId': 'carolina_serrano', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/79be4af25ec17f747428b28ea34a0231~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=e9e301da&amp;x-expires=1761051600&amp;x-signature=%2BzeQnZh7%2B%2B1u59gFis1exuaQbDg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547697455086404360', 'createTime': 1757335263, 'createTimeISO': '2025-09-08T12:41:03.000Z', 'text': 'QUEE?? 😭\nYO YA ESTABA EMOCIONADO SI AVISABAN NUEVOS MOCHIS O SUS VIDEOS QUE ME ENTRETIENEN😭😭😭', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7223039a&amp;x-expires=1760965200&amp;x-signature=TiTCp%2FNuZZduu9vmf2HKI8y8Bcw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547697455086404360', 'createTime': 1757335263, 'createTimeISO': '2025-09-08T12:41:03.000Z', 'text': 'QUEE?? 😭\nYO YA ESTABA EMOCIONADO SI AVISABAN NUEVOS MOCHIS O SUS VIDEOS QUE ME ENTRETIENEN😭😭😭', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6a4461c7f1a05c313c396993081c21d8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dd4658b6&amp;x-expires=1761051600&amp;x-signature=%2BymdlDPmuioUrPvmqydTK47K1V8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -873,18 +873,18 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Queee ?</t>
+          <t>NOOO ALPINA XQQQ😭</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45905.84496527778</v>
+        <v>45932.70420138889</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>45905</v>
+        <v>45932</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>20:16:45</t>
+          <t>16:54:03</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -903,7 +903,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546701614498087688', 'createTime': 1757103405, 'createTimeISO': '2025-09-05T20:16:45.000Z', 'text': 'Queee ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781206829306807302', 'uniqueId': 'gaaaabs6', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/87a6fa6e1b0b9d03506eca068222ad5e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=281292c1&amp;x-expires=1760965200&amp;x-signature=cdE8J5K0heZnYxvIrB9WLhloky8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7556668683994727189', 'createTime': 1759424043, 'createTimeISO': '2025-10-02T16:54:03.000Z', 'text': 'NOOO ALPINA XQQQ😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7183010536447411205', 'uniqueId': 'isa._.325', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9df3fc21562bf9b98d25266752d554c8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0ff2f245&amp;x-expires=1761051600&amp;x-signature=%2F%2BLJ8Sy06NyD5Do0k2mPZM0Pghs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -929,18 +929,18 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NOOO ALPINA XQQQ😭</t>
+          <t>Gaby alpinita que sucedio, vuelve vuelveeeeeeew💖</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>45932.70420138889</v>
+        <v>45920.12734953704</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>45932</v>
+        <v>45920</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>16:54:03</t>
+          <t>03:03:23</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -959,7 +959,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7556668683994727189', 'createTime': 1759424043, 'createTimeISO': '2025-10-02T16:54:03.000Z', 'text': 'NOOO ALPINA XQQQ😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7183010536447411205', 'uniqueId': 'isa._.325', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9df3fc21562bf9b98d25266752d554c8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e3353311&amp;x-expires=1760965200&amp;x-signature=wfuh2Isxyri%2FeWiB%2BijOuqc7xts%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7552001614913356551', 'createTime': 1758337403, 'createTimeISO': '2025-09-20T03:03:23.000Z', 'text': 'Gaby alpinita que sucedio, vuelve vuelveeeeeeew💖', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fef8fbd2&amp;x-expires=1761051600&amp;x-signature=AX2AyDDN%2FZcWBW096p8CPubicDQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -985,18 +985,18 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gaby alpinita que sucedio, vuelve vuelveeeeeeew💖</t>
+          <t>Queee ?</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>45920.12734953704</v>
+        <v>45905.84496527778</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>45920</v>
+        <v>45905</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>03:03:23</t>
+          <t>20:16:45</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7552001614913356551', 'createTime': 1758337403, 'createTimeISO': '2025-09-20T03:03:23.000Z', 'text': 'Gaby alpinita que sucedio, vuelve vuelveeeeeeew💖', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=47a2209d&amp;x-expires=1760965200&amp;x-signature=cse0xr%2BjherRkbs8rM5V2LiIs%2Fk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546701614498087688', 'createTime': 1757103405, 'createTimeISO': '2025-09-05T20:16:45.000Z', 'text': 'Queee ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781206829306807302', 'uniqueId': 'gaaaabs6', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/87a6fa6e1b0b9d03506eca068222ad5e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a3ad56e6&amp;x-expires=1761051600&amp;x-signature=hwoLRsolgpNTYkID6bqrlWWxItI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547942977034617601', 'createTime': 1757392441, 'createTimeISO': '2025-09-09T04:34:01.000Z', 'text': 'volví, haber cuantos meses me fui, que??!!!, 4 meses 😱', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bc29958f&amp;x-expires=1760965200&amp;x-signature=lq3UtwGN8vJqzezzKou9GHJcoN8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547942977034617601', 'createTime': 1757392441, 'createTimeISO': '2025-09-09T04:34:01.000Z', 'text': 'volví, haber cuantos meses me fui, que??!!!, 4 meses 😱', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=570ec804&amp;x-expires=1761051600&amp;x-signature=wYikgndLqPDLtxvPJ5O0WHnQjg4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547344669736600338', 'createTime': 1757253295, 'createTimeISO': '2025-09-07T13:54:55.000Z', 'text': 'porqueeee??😭😭😭😭', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7467024639018468360', 'uniqueId': 'leidy_y22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/170467e038e889966ba7de820632ba9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8774a3be&amp;x-expires=1760965200&amp;x-signature=4JSyFE7DwiCrUlebjZ%2BXTVP1cfw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547344669736600338', 'createTime': 1757253295, 'createTimeISO': '2025-09-07T13:54:55.000Z', 'text': 'porqueeee??😭😭😭😭', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7467024639018468360', 'uniqueId': 'leidy_y22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/170467e038e889966ba7de820632ba9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=296bcd34&amp;x-expires=1761051600&amp;x-signature=2nqhRgNGOWKS53J%2FXzvaANqxjUs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546676538382746376', 'createTime': 1757097568, 'createTimeISO': '2025-09-05T18:39:28.000Z', 'text': 'Qué? 😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6823366905291965446', 'uniqueId': 'jfelipegomez1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7329628384854736902~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7fccea3e&amp;x-expires=1760965200&amp;x-signature=Tw3u6w0WRiuM0gVCUTXz4Pl0R%2BA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546676538382746376', 'createTime': 1757097568, 'createTimeISO': '2025-09-05T18:39:28.000Z', 'text': 'Qué? 😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6823366905291965446', 'uniqueId': 'jfelipegomez1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7329628384854736902~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=711fd735&amp;x-expires=1761051600&amp;x-signature=NrrfRGRdqPLPY5JwIOGu8G94VdE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547741547535500049', 'createTime': 1757345532, 'createTimeISO': '2025-09-08T15:32:12.000Z', 'text': 'por Dios ahora que pasó. y yo etiquetando Alpina 😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6830280708298343430', 'uniqueId': 'andreifyt2025_', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ca95b033b49845a0bbb72152f6a7fb22~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=694c4e43&amp;x-expires=1760965200&amp;x-signature=70hz54G6hWLaS3ekbRvZFKce9hw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7547741547535500049', 'createTime': 1757345532, 'createTimeISO': '2025-09-08T15:32:12.000Z', 'text': 'por Dios ahora que pasó. y yo etiquetando Alpina 😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6830280708298343430', 'uniqueId': 'andreifyt2025_', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ca95b033b49845a0bbb72152f6a7fb22~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d821f335&amp;x-expires=1761051600&amp;x-signature=HFBqhbxTw7lwHKvZsenv1RjsGQU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546705871947072276', 'createTime': 1757104397, 'createTimeISO': '2025-09-05T20:33:17.000Z', 'text': 'Wa hapen', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6786334206413177862', 'uniqueId': 'oscardavidaldana', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/bc48481fc572183ea9e26aa81964cf2b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ea54c53d&amp;x-expires=1760965200&amp;x-signature=xakWXDUG1TqK2W0RHXkTP2tDyi8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546705871947072276', 'createTime': 1757104397, 'createTimeISO': '2025-09-05T20:33:17.000Z', 'text': 'Wa hapen', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6786334206413177862', 'uniqueId': 'oscardavidaldana', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/bc48481fc572183ea9e26aa81964cf2b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f44b546c&amp;x-expires=1761051600&amp;x-signature=k8VzpqF9lBBmX3ZJlxYI1HmRsZk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546693261533659922', 'createTime': 1757101461, 'createTimeISO': '2025-09-05T19:44:21.000Z', 'text': '👀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808331911279903750', 'uniqueId': 'aleja.cardenas', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ae26428fddeb4cb0c608c71af324941d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c02dd4e1&amp;x-expires=1760965200&amp;x-signature=PLlTcrdruK8pT1Nnf%2BX3MYDr8T8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546693261533659922', 'createTime': 1757101461, 'createTimeISO': '2025-09-05T19:44:21.000Z', 'text': '👀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808331911279903750', 'uniqueId': 'aleja.cardenas', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ae26428fddeb4cb0c608c71af324941d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=57550e80&amp;x-expires=1761051600&amp;x-signature=%2ByiUqz5bJu9%2B%2BxRg9wHxLrPGhNc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546942799272411922', 'createTime': 1757159557, 'createTimeISO': '2025-09-06T11:52:37.000Z', 'text': '😭😰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7416452271041987590', 'uniqueId': 'saragutierrez9607', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2d50ff98a95e65e1155080427e14139e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=685165ca&amp;x-expires=1760965200&amp;x-signature=mHkzFvKHdgcTlS3R7QLFdDDWBlc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546942799272411922', 'createTime': 1757159557, 'createTimeISO': '2025-09-06T11:52:37.000Z', 'text': '😭😰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7416452271041987590', 'uniqueId': 'saragutierrez9607', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2d50ff98a95e65e1155080427e14139e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ee1931f7&amp;x-expires=1761051600&amp;x-signature=EWpQwW%2Bd48ikCFeXmpuy5uzaYI8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7549569237565211409', 'createTime': 1757771074, 'createTimeISO': '2025-09-13T13:44:34.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7186369712568189957', 'uniqueId': 'luzadrianacanooro', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ba9035ed44089efdd68ad1a325c0409b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8fc1d874&amp;x-expires=1760965200&amp;x-signature=uAiWf%2BKP8cIT8BTGpJkql0ZVNYs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7549569237565211409', 'createTime': 1757771074, 'createTimeISO': '2025-09-13T13:44:34.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7186369712568189957', 'uniqueId': 'luzadrianacanooro', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ba9035ed44089efdd68ad1a325c0409b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c54a391b&amp;x-expires=1761051600&amp;x-signature=Q9djf0eWjcfnr72LCHVOuwxrB%2FQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7557608767006114567', 'createTime': 1759642921, 'createTimeISO': '2025-10-05T05:42:01.000Z', 'text': 'Por qué están en problemas con el ministerio de trabajo @Ministerio de Trabajo -Bolivia por qué sus distribuidores en el país tienen a sus empleados con explotación laboral sobre carga laboral horarios que exceden las 15 horas y no les pagan extras ni recargos donde un empleado hace lo de 3 empleados', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6954818842602931205', 'uniqueId': 'fabiobedoya1504', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0533c8b2372d1c920dad7ae339c48a3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dfad9bba&amp;x-expires=1760965200&amp;x-signature=aRUc5XgQJozgCtHdgoNU3iwC3ic%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@Ministerio de Trabajo -Bolivia'], 'detailedMentions': [{'userId': '6817567040930497541', 'nickName': 'Ministerio de Trabajo -Bolivia', 'profileUrl': 'https://www.tiktok.com/@6817567040930497541', 'secUid': 'MS4wLjABAAAAVga5B9Md-oI5XuH5Ruk5ES1IympOnnPUKuurL6hWMHXQ6hzxZPUYisB2cnA5aPyh'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7557608767006114567', 'createTime': 1759642921, 'createTimeISO': '2025-10-05T05:42:01.000Z', 'text': 'Por qué están en problemas con el ministerio de trabajo @Ministerio de Trabajo -Bolivia por qué sus distribuidores en el país tienen a sus empleados con explotación laboral sobre carga laboral horarios que exceden las 15 horas y no les pagan extras ni recargos donde un empleado hace lo de 3 empleados', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6954818842602931205', 'uniqueId': 'fabiobedoya1504', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0533c8b2372d1c920dad7ae339c48a3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9e4b605b&amp;x-expires=1761051600&amp;x-signature=%2BoZ6IXuWmssEU3haYWfUgLJ3dhU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@Ministerio de Trabajo -Bolivia'], 'detailedMentions': [{'userId': '6817567040930497541', 'nickName': 'Ministerio de Trabajo -Bolivia', 'profileUrl': 'https://www.tiktok.com/@6817567040930497541', 'secUid': 'MS4wLjABAAAAVga5B9Md-oI5XuH5Ruk5ES1IympOnnPUKuurL6hWMHXQ6hzxZPUYisB2cnA5aPyh'}]}</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546679584475349768', 'createTime': 1757098279, 'createTimeISO': '2025-09-05T18:51:19.000Z', 'text': 'ay y por que alpinita', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7389831937894843398', 'uniqueId': 'un_emo_amigable', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37bc4cd15dd442f352783fdcce05dfb8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0d977c84&amp;x-expires=1760965200&amp;x-signature=FTPnjQlh%2FnEv5582444YpUEdf%2B4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'input': 'https://www.tiktok.com/@alpinacol/video/7546652098490797368', 'cid': '7546679584475349768', 'createTime': 1757098279, 'createTimeISO': '2025-09-05T18:51:19.000Z', 'text': 'ay y por que alpinita', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7389831937894843398', 'uniqueId': 'un_emo_amigable', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37bc4cd15dd442f352783fdcce05dfb8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b4836dd0&amp;x-expires=1761051600&amp;x-signature=g39pfv93dAHw7HYNdYJRC8DZojw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7560323939830924039', 'createTime': 1760275093, 'createTimeISO': '2025-10-12T13:18:13.000Z', 'text': 'para mí alpina no nesecita mucha publicidad,Alpina es un producto que se vende solo....solo con escuchar Alpina en mi mente automáticamente es calidad y muy rico..todo', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7278338689078658054', 'uniqueId': 'aydaconsuelobedoy', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/055c3a3a8db8013e7b0d2d1a496bf1ac~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5516876a&amp;x-expires=1760965200&amp;x-signature=LZ%2Fiy5gFDX5JBer27cF6wbz3mpY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7560323939830924039', 'createTime': 1760275093, 'createTimeISO': '2025-10-12T13:18:13.000Z', 'text': 'para mí alpina no nesecita mucha publicidad,Alpina es un producto que se vende solo....solo con escuchar Alpina en mi mente automáticamente es calidad y muy rico..todo', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7278338689078658054', 'uniqueId': 'chelo_velez', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/66a0861aa54c87fafc40a21878c5a064~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=24db7e61&amp;x-expires=1761051600&amp;x-signature=2SLFunHOI7qyGb3kasZKNWSZe5s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1657,25 +1657,25 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>jojojo</t>
+          <t>Ay tan bonitaaaaa mañana nos vemos 🥺</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>45935.64364583333</v>
+        <v>45912.17210648148</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>45935</v>
+        <v>45912</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>15:26:51</t>
+          <t>04:07:50</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7557758733863387920', 'createTime': 1759678011, 'createTimeISO': '2025-10-05T15:26:51.000Z', 'text': 'jojojo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7554795739316306964', 'uniqueId': 'freydermurcia33', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/699d7f94c2d9a0694952663b219cc25f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=45d2b6f4&amp;x-expires=1760965200&amp;x-signature=5Il6Z2PNzoTBCFIGoPZJV9YK6u0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549049533700277012', 'createTime': 1757650070, 'createTimeISO': '2025-09-12T04:07:50.000Z', 'text': 'Ay tan bonitaaaaa mañana nos vemos 🥺', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7355258637583844357', 'uniqueId': 'majitouuuuuu0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/dbc73978fd3f05b374910bef0e207b56~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=78300d2e&amp;x-expires=1761051600&amp;x-signature=7UHuSUagfCFthUXY1nqB6qzFuO8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1713,25 +1713,25 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ay tan bonitaaaaa mañana nos vemos 🥺</t>
+          <t>Siiiii! Ya quiero ver la nueva practicante🎉🎉🎉</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>45912.17210648148</v>
+        <v>45912.6234375</v>
       </c>
       <c r="H23" s="3" t="n">
         <v>45912</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>04:07:50</t>
+          <t>14:57:45</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549049533700277012', 'createTime': 1757650070, 'createTimeISO': '2025-09-12T04:07:50.000Z', 'text': 'Ay tan bonitaaaaa mañana nos vemos 🥺', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7355258637583844357', 'uniqueId': 'majitouuuuuu0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/dbc73978fd3f05b374910bef0e207b56~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=10511d68&amp;x-expires=1760965200&amp;x-signature=pbTx0WQKZr391dlxwVqbu3OCeOs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549217011010044692', 'createTime': 1757689065, 'createTimeISO': '2025-09-12T14:57:45.000Z', 'text': 'Siiiii! Ya quiero ver la nueva practicante🎉🎉🎉', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6819089554679940101', 'uniqueId': 'julianavivasr03', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f3051c41eba0cedcc184a155cdd5fe57~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=db19a167&amp;x-expires=1761051600&amp;x-signature=U7MCi9J1h0VkAZkFgGvmBlAnm%2B4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549288639830721301', 'createTime': 1757705743, 'createTimeISO': '2025-09-12T19:35:43.000Z', 'text': 'siiii ayudemosle!!!', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6770401168398386182', 'uniqueId': 'gabrielaguerrero70', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a36d643d0a9ecc0cdaafc93b6200aa8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dd85fceb&amp;x-expires=1760965200&amp;x-signature=NXO%2FOR0Ui0WQE%2BMmZG6ECuBr6bk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549288639830721301', 'createTime': 1757705743, 'createTimeISO': '2025-09-12T19:35:43.000Z', 'text': 'siiii ayudemosle!!!', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6770401168398386182', 'uniqueId': 'gabrielaguerrero70', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a36d643d0a9ecc0cdaafc93b6200aa8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2fc9176d&amp;x-expires=1761051600&amp;x-signature=MambfQaE50uGu9SJOXMZl9HYGBs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1825,22 +1825,22 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Siiiii! Ya quiero ver la nueva practicante🎉🎉🎉</t>
+          <t>jojojo</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>45912.6234375</v>
+        <v>45935.64364583333</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>45912</v>
+        <v>45935</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>14:57:45</t>
+          <t>15:26:51</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549217011010044692', 'createTime': 1757689065, 'createTimeISO': '2025-09-12T14:57:45.000Z', 'text': 'Siiiii! Ya quiero ver la nueva practicante🎉🎉🎉', 'diggCount': 3, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6819089554679940101', 'uniqueId': 'julianavivasr03', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f3051c41eba0cedcc184a155cdd5fe57~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=77476be4&amp;x-expires=1760965200&amp;x-signature=nlar5avZTS4LOFniABiP1ZjOqSY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7557758733863387920', 'createTime': 1759678011, 'createTimeISO': '2025-10-05T15:26:51.000Z', 'text': 'jojojo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7554795739316306964', 'uniqueId': 'freydermurcia33', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/699d7f94c2d9a0694952663b219cc25f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=67de6309&amp;x-expires=1761051600&amp;x-signature=JsPUZk6QZs2XaGQ76z80AxQjDvQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1881,25 +1881,25 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Quien esssss ? 👀</t>
+          <t>A AYUDAR A ALPINA🩷🩷🩷</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>45912.81784722222</v>
+        <v>45913.64655092593</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>19:37:42</t>
+          <t>15:31:02</t>
         </is>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549289149077979912', 'createTime': 1757705862, 'createTimeISO': '2025-09-12T19:37:42.000Z', 'text': 'Quien esssss ? 👀', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7255348886041691141', 'uniqueId': 'jholainec21', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/205ba05ede21686eb806965cb40fd502~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e598b1a6&amp;x-expires=1760965200&amp;x-signature=hIr8elQQ1QAD1kIt7LBYeqIm9Eg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549596693055554311', 'createTime': 1757777462, 'createTimeISO': '2025-09-13T15:31:02.000Z', 'text': 'A AYUDAR A ALPINA\U0001fa77\U0001fa77\U0001fa77', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6a4461c7f1a05c313c396993081c21d8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dd4658b6&amp;x-expires=1761051600&amp;x-signature=%2BymdlDPmuioUrPvmqydTK47K1V8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1937,18 +1937,18 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>holitaaaa</t>
+          <t>Quien esssss ? 👀</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>45912.04994212963</v>
+        <v>45912.81784722222</v>
       </c>
       <c r="H27" s="3" t="n">
         <v>45912</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>01:11:55</t>
+          <t>19:37:42</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549004192569525000', 'createTime': 1757639515, 'createTimeISO': '2025-09-12T01:11:55.000Z', 'text': 'holitaaaa', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6982722979595863046', 'uniqueId': 'mrbrawl69', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/38c613c8f3cea66a0a3bfeab34f76e58~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=192a82e4&amp;x-expires=1760965200&amp;x-signature=uapVV27YeXZngivsz060j4%2BCCqs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549289149077979912', 'createTime': 1757705862, 'createTimeISO': '2025-09-12T19:37:42.000Z', 'text': 'Quien esssss ? 👀', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7255348886041691141', 'uniqueId': 'jholainec21', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/205ba05ede21686eb806965cb40fd502~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0bb9e8f5&amp;x-expires=1761051600&amp;x-signature=%2F%2BwIqFX%2BG4Meh71XR3DnGGls1wY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1993,25 +1993,25 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>A AYUDAR A ALPINA🩷🩷🩷</t>
+          <t>holitaaaa</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>45913.64655092593</v>
+        <v>45912.04994212963</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>45913</v>
+        <v>45912</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>15:31:02</t>
+          <t>01:11:55</t>
         </is>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549596693055554311', 'createTime': 1757777462, 'createTimeISO': '2025-09-13T15:31:02.000Z', 'text': 'A AYUDAR A ALPINA\U0001fa77\U0001fa77\U0001fa77', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7477553551649506320', 'uniqueId': 'tailsmilespower44', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0b8ba7906b4889da3285abbe2c848227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7223039a&amp;x-expires=1760965200&amp;x-signature=TiTCp%2FNuZZduu9vmf2HKI8y8Bcw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549004192569525000', 'createTime': 1757639515, 'createTimeISO': '2025-09-12T01:11:55.000Z', 'text': 'holitaaaa', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6982722979595863046', 'uniqueId': 'mrbrawl69', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/38c613c8f3cea66a0a3bfeab34f76e58~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b5e650ae&amp;x-expires=1761051600&amp;x-signature=ZzV7PIP%2FJE1Jqp8hUuZSf2w7d%2Fs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549015309047710471', 'createTime': 1757642105, 'createTimeISO': '2025-09-12T01:55:05.000Z', 'text': 'Un concurso de cocina ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6790480840596358149', 'uniqueId': 'vivianaospina67', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/34082dcda72461c00ba3d59eb0cda82a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=70c90d66&amp;x-expires=1760965200&amp;x-signature=samzA9s9TkHvZDrd544xN26FtAo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549015309047710471', 'createTime': 1757642105, 'createTimeISO': '2025-09-12T01:55:05.000Z', 'text': 'Un concurso de cocina ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6790480840596358149', 'uniqueId': 'vivianaospina67', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/34082dcda72461c00ba3d59eb0cda82a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0db80ebd&amp;x-expires=1761051600&amp;x-signature=iHjsrk6F38X6z5Rtbly1RA1zTTc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549000273060233991', 'createTime': 1757638613, 'createTimeISO': '2025-09-12T00:56:53.000Z', 'text': '💙💙💙', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7046148050101109766', 'uniqueId': 'juanp846', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/cdf703b505ceb5a3cf5f7b216c352922~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=319111d0&amp;x-expires=1760965200&amp;x-signature=wC8jZl5HiCXzx8teHr0Fr%2FiZdzQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549000273060233991', 'createTime': 1757638613, 'createTimeISO': '2025-09-12T00:56:53.000Z', 'text': '💙💙💙', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7046148050101109766', 'uniqueId': 'juanp846', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/cdf703b505ceb5a3cf5f7b216c352922~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a3320188&amp;x-expires=1761051600&amp;x-signature=hFfH8k29k%2FvlCOsEWTz1z%2B5Irv0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549007617818559250', 'createTime': 1757640317, 'createTimeISO': '2025-09-12T01:25:17.000Z', 'text': '🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6710319884842337285', 'uniqueId': 'itssantiagocelis', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c17d4d00500c39eed015d9ab552b352a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3e0b4e55&amp;x-expires=1760965200&amp;x-signature=p%2F%2BguXg%2Bic4fTmd8PS97anVE%2Fxk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549007617818559250', 'createTime': 1757640317, 'createTimeISO': '2025-09-12T01:25:17.000Z', 'text': '🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6710319884842337285', 'uniqueId': 'itssantiagocelis', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c17d4d00500c39eed015d9ab552b352a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=638ed1c2&amp;x-expires=1761051600&amp;x-signature=QbnICokcmwCEwL0T1lWxZPK6EYY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549238211336487681', 'createTime': 1757693998, 'createTimeISO': '2025-09-12T16:19:58.000Z', 'text': '😮😮😮', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6778152010580509702', 'uniqueId': 'esteban_ocampov', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6a63d386d387123e4d61df4e994bb26d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ec621a4b&amp;x-expires=1760965200&amp;x-signature=nYceAKWZIhtO5Ue%2FXXdbY1LZ2Cg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549238211336487681', 'createTime': 1757693998, 'createTimeISO': '2025-09-12T16:19:58.000Z', 'text': '😮😮😮', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6778152010580509702', 'uniqueId': 'esteban_ocampov', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6a63d386d387123e4d61df4e994bb26d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b208e733&amp;x-expires=1761051600&amp;x-signature=cuwfNmidCgZuOtpmdqCvHegWGiY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549310477420708629', 'createTime': 1757710837, 'createTimeISO': '2025-09-12T21:00:37.000Z', 'text': '🥰😳😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7509769410816705544', 'uniqueId': 'user749076194246', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=51d04cd2&amp;x-expires=1760965200&amp;x-signature=8TjSN%2BmK3zIZo8AihOKtbP0NrMo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549310477420708629', 'createTime': 1757710837, 'createTimeISO': '2025-09-12T21:00:37.000Z', 'text': '🥰😳😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7509769410816705544', 'uniqueId': 'user749076194246', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f3381a08&amp;x-expires=1761051600&amp;x-signature=CFXVCDalptEFU2sFHkpAtwLWYb8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549000221259399954', 'createTime': 1757638590, 'createTimeISO': '2025-09-12T00:56:30.000Z', 'text': '🗿🗿🗿', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7319745287890387973', 'uniqueId': 'matias_8595', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37f085e6cd1478b738e427953d05ecb8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e22b1123&amp;x-expires=1760965200&amp;x-signature=EhiH0dTLMobj1h%2Bx9A%2BBmFeEcBA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549000221259399954', 'createTime': 1757638590, 'createTimeISO': '2025-09-12T00:56:30.000Z', 'text': '🗿🗿🗿', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7319745287890387973', 'uniqueId': 'matias_8595', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37f085e6cd1478b738e427953d05ecb8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=63626b18&amp;x-expires=1761051600&amp;x-signature=3PWSqHlmtYxGoH9TJuxc4h46H3Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7557895538470322945', 'createTime': 1759709708, 'createTimeISO': '2025-10-06T00:15:08.000Z', 'text': 'rgcuhif', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6975369451886593029', 'uniqueId': 'noraortegom', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4e760d8f&amp;x-expires=1760965200&amp;x-signature=UF7j3ISDIHb4Wes5pQU56zFTqAc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7557895538470322945', 'createTime': 1759709708, 'createTimeISO': '2025-10-06T00:15:08.000Z', 'text': 'rgcuhif', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6975369451886593029', 'uniqueId': 'noraortegom', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f3381a08&amp;x-expires=1761051600&amp;x-signature=CFXVCDalptEFU2sFHkpAtwLWYb8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7559649133477823253', 'createTime': 1760117983, 'createTimeISO': '2025-10-10T17:39:43.000Z', 'text': 'que vuelvan los gatos porfiiii', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541238264298357778', 'uniqueId': 'invencible799', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/41228f33689b86eba8bd2b23e2173644~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5e03f1b3&amp;x-expires=1760965200&amp;x-signature=HqUapxjwJDE%2BQk0g0MvAnLsRnKs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7559649133477823253', 'createTime': 1760117983, 'createTimeISO': '2025-10-10T17:39:43.000Z', 'text': 'que vuelvan los gatos porfiiii', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541238264298357778', 'uniqueId': 'invencible799', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/41228f33689b86eba8bd2b23e2173644~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=243c697a&amp;x-expires=1761051600&amp;x-signature=ROCUrkMaHzu%2FcXlu4OySlon4BLc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549191179351474951', 'createTime': 1757683161, 'createTimeISO': '2025-09-12T13:19:21.000Z', 'text': 'alpina yo quiero saber si¿la nueva colección de yogo premio se llama mochi saurios????@Alpina 🐮', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7467024639018468360', 'uniqueId': 'leidy_y22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/170467e038e889966ba7de820632ba9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8774a3be&amp;x-expires=1760965200&amp;x-signature=4JSyFE7DwiCrUlebjZ%2BXTVP1cfw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'input': 'https://www.tiktok.com/@alpinacol/video/7548999291960823096', 'cid': '7549191179351474951', 'createTime': 1757683161, 'createTimeISO': '2025-09-12T13:19:21.000Z', 'text': 'alpina yo quiero saber si¿la nueva colección de yogo premio se llama mochi saurios????@Alpina 🐮', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7467024639018468360', 'uniqueId': 'leidy_y22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/170467e038e889966ba7de820632ba9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=296bcd34&amp;x-expires=1761051600&amp;x-signature=2nqhRgNGOWKS53J%2FXzvaANqxjUs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
         </is>
       </c>
     </row>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550850431720325905', 'createTime': 1758069395, 'createTimeISO': '2025-09-17T00:36:35.000Z', 'text': 'QUIERO MI MOCHISAURIOOOOO 😭🦕😩💗', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '282408726983028736', 'uniqueId': 'wanna_juana', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/17e1ad71c0265acba1716a4696601785~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4f719528&amp;x-expires=1760965200&amp;x-signature=2Z8E02UWP9bx6jq5tbm%2FgQ5NrcQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550850431720325905', 'createTime': 1758069395, 'createTimeISO': '2025-09-17T00:36:35.000Z', 'text': 'QUIERO MI MOCHISAURIOOOOO 😭🦕😩💗', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '282408726983028736', 'uniqueId': 'wanna_juana', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/17e1ad71c0265acba1716a4696601785~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=36343713&amp;x-expires=1761051600&amp;x-signature=3S6DUnSoAbYa6U5FdXJKjWDkSx4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550838637400179464', 'createTime': 1758066634, 'createTimeISO': '2025-09-16T23:50:34.000Z', 'text': 'no soy practicante Pero quiero trabajar con ustedes 😭 soy admin, que puedo hacer? 😭', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6952624737991443462', 'uniqueId': 'valeria_noo2', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1a1431eb5fd2ec2b3db383b2b0e26ac9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5f36777d&amp;x-expires=1760965200&amp;x-signature=YkYxNsNTKlZju2gD0MoRDHzwMVw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550838637400179464', 'createTime': 1758066634, 'createTimeISO': '2025-09-16T23:50:34.000Z', 'text': 'no soy practicante Pero quiero trabajar con ustedes 😭 soy admin, que puedo hacer? 😭', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6952624737991443462', 'uniqueId': 'valeria_noo2', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1a1431eb5fd2ec2b3db383b2b0e26ac9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c06b93d0&amp;x-expires=1761051600&amp;x-signature=%2B67F7jvsIV54nEBJSbU6EuKH8Dk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2665,22 +2665,22 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lo emocionada que estoy por hacer parte del equipo no tiene nombre 😩</t>
+          <t>AMAMOSSSS el contenido de Gabi</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>45917.05436342592</v>
+        <v>45917.09577546296</v>
       </c>
       <c r="H40" s="3" t="n">
         <v>45917</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>01:18:17</t>
+          <t>02:17:55</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550861226680648468', 'createTime': 1758071897, 'createTimeISO': '2025-09-17T01:18:17.000Z', 'text': 'Lo emocionada que estoy por hacer parte del equipo no tiene nombre 😩', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6561143503132540934', 'uniqueId': 'maaaarirg', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7324826520122785798~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d5db5fbf&amp;x-expires=1760965200&amp;x-signature=DqYrSBgwulhyuGmNE3YbRWssIbg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550876642629944071', 'createTime': 1758075475, 'createTimeISO': '2025-09-17T02:17:55.000Z', 'text': 'AMAMOSSSS el contenido de Gabi', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7323823789984531462', 'uniqueId': 'chantal.thorin', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/5be5fbd7e28fb667d0d61e8de45fc752~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a114ba59&amp;x-expires=1761051600&amp;x-signature=lKKNfSWp1rkrv3TsApBXwTn7xjo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2721,25 +2721,25 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Me encantaaaa✨</t>
+          <t>Lo emocionada que estoy por hacer parte del equipo no tiene nombre 😩</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>45917.15711805555</v>
+        <v>45917.05436342592</v>
       </c>
       <c r="H41" s="3" t="n">
         <v>45917</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>03:46:15</t>
+          <t>01:18:17</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550899370625254165', 'createTime': 1758080775, 'createTimeISO': '2025-09-17T03:46:15.000Z', 'text': 'Me encantaaaa✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '6636032545857355782', 'uniqueId': 'amygonzal_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bcf09f13282d39a21e796330dfd9b28d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f61a8c6f&amp;x-expires=1760965200&amp;x-signature=8LDBS9BOJVgGV%2F8mutUcdk%2FQ6dU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550861226680648468', 'createTime': 1758071897, 'createTimeISO': '2025-09-17T01:18:17.000Z', 'text': 'Lo emocionada que estoy por hacer parte del equipo no tiene nombre 😩', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6561143503132540934', 'uniqueId': 'maaaarirg', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7324826520122785798~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cfbebedc&amp;x-expires=1761051600&amp;x-signature=onEANAdOVCtUCTbyRB7ZHpX72qQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2777,18 +2777,18 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>como se puede conseguir el álbum de mochis</t>
+          <t>Hola alpina cambien el vasito de yogo yogo mochisaurio por qué es muy duro y me corte cambienlo por el de premio yogo yogo que se quita fácil se que no es del tema</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>45928.17954861111</v>
+        <v>45936.70731481481</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>45928</v>
+        <v>45936</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>04:18:33</t>
+          <t>16:58:32</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7554989643563205384', 'createTime': 1759033113, 'createTimeISO': '2025-09-28T04:18:33.000Z', 'text': 'como se puede conseguir el álbum de mochis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7340762611166299142', 'uniqueId': 'wilson.piraquive5', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/376f70562283aeaeeb98265a1fe54ae8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d1f1a787&amp;x-expires=1760965200&amp;x-signature=Myzf4v8jG2ZGoHoRi6aelurTANA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7558154185101247240', 'createTime': 1759769912, 'createTimeISO': '2025-10-06T16:58:32.000Z', 'text': 'Hola alpina cambien el vasito de yogo yogo mochisaurio por qué es muy duro y me corte cambienlo por el de premio yogo yogo que se quita fácil se que no es del tema', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7005260384655574022', 'uniqueId': 'diegoalejandropat3', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7327286844337127429~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5d0d73cf&amp;x-expires=1761051600&amp;x-signature=YjkhgU3%2B1BA7QhOge7ghg%2BxKr9g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2833,22 +2833,23 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Hola alpina cambien el vasito de yogo yogo mochisaurio por qué es muy duro y me corte cambienlo por el de premio yogo yogo que se quita fácil se que no es del tema</t>
+          <t>1ro
+alpina te amo!!</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>45936.70731481481</v>
+        <v>45916.98658564815</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>45936</v>
+        <v>45916</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>16:58:32</t>
+          <t>23:40:41</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -2863,7 +2864,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7558154185101247240', 'createTime': 1759769912, 'createTimeISO': '2025-10-06T16:58:32.000Z', 'text': 'Hola alpina cambien el vasito de yogo yogo mochisaurio por qué es muy duro y me corte cambienlo por el de premio yogo yogo que se quita fácil se que no es del tema', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7005260384655574022', 'uniqueId': 'diegoalejandropat3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7327286844337127429~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6452d55d&amp;x-expires=1760965200&amp;x-signature=5Zp3pgVFrYnffe5cckmdZysYPbQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550836019215958805', 'createTime': 1758066041, 'createTimeISO': '2025-09-16T23:40:41.000Z', 'text': '1ro\nalpina te amo!!', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452218782174446597', 'uniqueId': 'shidouxsae0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2865ac893335cccef6405d3bf354fedb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7fe1c155&amp;x-expires=1761051600&amp;x-signature=8JkMATmHII9CTVeJOGPWU3Eu0YM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2919,7 +2920,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7559975652176577288', 'createTime': 1760194003, 'createTimeISO': '2025-10-11T14:46:43.000Z', 'text': 'Me salió tarde el vídeo 😟 yo quiero \U0001f979🙏🏻', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6670638394765033478', 'uniqueId': 'lindanarino', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/873e52b20a774b09b73f0f0d565e6959~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=656fe79d&amp;x-expires=1760965200&amp;x-signature=tNWeUNU6feLAPUlIEZvpq83atf8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7559975652176577288', 'createTime': 1760194003, 'createTimeISO': '2025-10-11T14:46:43.000Z', 'text': 'Me salió tarde el vídeo 😟 yo quiero \U0001f979🙏🏻', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6670638394765033478', 'uniqueId': 'lindanarino', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/873e52b20a774b09b73f0f0d565e6959~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=21062c5e&amp;x-expires=1761051600&amp;x-signature=U01aDcVAX%2B7ruz5wksS3d2edkBQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2945,23 +2946,22 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1ro
-alpina te amo!!</t>
+          <t>como se puede conseguir el álbum de mochis</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>45916.98658564815</v>
+        <v>45928.17954861111</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>45916</v>
+        <v>45928</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>23:40:41</t>
+          <t>04:18:33</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550836019215958805', 'createTime': 1758066041, 'createTimeISO': '2025-09-16T23:40:41.000Z', 'text': '1ro\nalpina te amo!!', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452218782174446597', 'uniqueId': 'shidouxsae0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2865ac893335cccef6405d3bf354fedb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a8568dc7&amp;x-expires=1760965200&amp;x-signature=zuEAiXIKmcX88PUqhNkduhtSbnU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7554989643563205384', 'createTime': 1759033113, 'createTimeISO': '2025-09-28T04:18:33.000Z', 'text': 'como se puede conseguir el álbum de mochis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7340762611166299142', 'uniqueId': 'wilson.piraquive5', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/376f70562283aeaeeb98265a1fe54ae8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=18f9c45e&amp;x-expires=1761051600&amp;x-signature=97TmzfFe9hZt5rM4TYmbfxuTymY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3002,25 +3002,25 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>AMAMOSSSS el contenido de Gabi</t>
+          <t>Buen día, aceptan pasantes en área administrativa?😳</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>45917.09577546296</v>
+        <v>45924.54788194445</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>45917</v>
+        <v>45924</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>02:17:55</t>
+          <t>13:08:57</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550876642629944071', 'createTime': 1758075475, 'createTimeISO': '2025-09-17T02:17:55.000Z', 'text': 'AMAMOSSSS el contenido de Gabi', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7323823789984531462', 'uniqueId': 'chantal.thorin', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/5be5fbd7e28fb667d0d61e8de45fc752~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5d065395&amp;x-expires=1760965200&amp;x-signature=L2AD0Wv%2F2vlnA3UKeXMnTlkfs8U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7553641991944602386', 'createTime': 1758719337, 'createTimeISO': '2025-09-24T13:08:57.000Z', 'text': 'Buen día, aceptan pasantes en área administrativa?😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6819016661686453254', 'uniqueId': 'scatalina15', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/65616505ecd12a1b5dd469d79ec8a719~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b2e4a4f8&amp;x-expires=1761051600&amp;x-signature=Y2i%2BPXw5VTMlA2VlGGC5yFU8xew%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3058,25 +3058,25 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>pueden sacar en yogoyogolab lods puntos autorizados de oxxo para reclamar los mochisaurios plis</t>
+          <t>Gaby! Quiero ver cómo hacen el arequipe! Deberías hacer un tour por la planta!</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>45917.87722222223</v>
+        <v>45917.58866898148</v>
       </c>
       <c r="H47" s="3" t="n">
         <v>45917</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>21:03:12</t>
+          <t>14:07:41</t>
         </is>
       </c>
       <c r="J47" t="n">
         <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551166524197077767', 'createTime': 1758142992, 'createTimeISO': '2025-09-17T21:03:12.000Z', 'text': 'pueden sacar en yogoyogolab lods puntos autorizados de oxxo para reclamar los mochisaurios plis', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7283326063072642053', 'uniqueId': 'socorrito.lopez0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9007660a09caa09f7a749fc3a9a23c0e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f52515b1&amp;x-expires=1760965200&amp;x-signature=CP%2Fe6xsz1LbuLAJCmnlTQYVfaF4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551059537588929298', 'createTime': 1758118061, 'createTimeISO': '2025-09-17T14:07:41.000Z', 'text': 'Gaby! Quiero ver cómo hacen el arequipe! Deberías hacer un tour por la planta!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6823366905291965446', 'uniqueId': 'jfelipegomez1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7329628384854736902~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=711fd735&amp;x-expires=1761051600&amp;x-signature=NrrfRGRdqPLPY5JwIOGu8G94VdE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3114,25 +3114,25 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Gaby! Quiero ver cómo hacen el arequipe! Deberías hacer un tour por la planta!</t>
+          <t>pueden sacar en yogoyogolab lods puntos autorizados de oxxo para reclamar los mochisaurios plis</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45917.58866898148</v>
+        <v>45917.87722222223</v>
       </c>
       <c r="H48" s="3" t="n">
         <v>45917</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>14:07:41</t>
+          <t>21:03:12</t>
         </is>
       </c>
       <c r="J48" t="n">
         <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551059537588929298', 'createTime': 1758118061, 'createTimeISO': '2025-09-17T14:07:41.000Z', 'text': 'Gaby! Quiero ver cómo hacen el arequipe! Deberías hacer un tour por la planta!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6823366905291965446', 'uniqueId': 'jfelipegomez1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7329628384854736902~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7fccea3e&amp;x-expires=1760965200&amp;x-signature=Tw3u6w0WRiuM0gVCUTXz4Pl0R%2BA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551166524197077767', 'createTime': 1758142992, 'createTimeISO': '2025-09-17T21:03:12.000Z', 'text': 'pueden sacar en yogoyogolab lods puntos autorizados de oxxo para reclamar los mochisaurios plis', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7283326063072642053', 'uniqueId': 'socorrito.lopez0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9007660a09caa09f7a749fc3a9a23c0e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=df1b621f&amp;x-expires=1761051600&amp;x-signature=Gp8yfjGm9zlVKjeeA8x5%2FbmpmJs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3170,25 +3170,25 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Buenisimo!!!!!</t>
+          <t>Estoy por graduarme de ingeniería industrial. Me encantaría hacer mis prácticas o trabajar en un futuro con ustedes. Me encanta la familia Alpina, creen que pueda hacer parte algún día? 🥹</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>45919.87149305556</v>
+        <v>45918.74025462963</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>45919</v>
+        <v>45918</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>20:54:57</t>
+          <t>17:45:58</t>
         </is>
       </c>
       <c r="J49" t="n">
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551906649611830023', 'createTime': 1758315297, 'createTimeISO': '2025-09-19T20:54:57.000Z', 'text': 'Buenisimo!!!!!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7068293195050877957', 'uniqueId': 'mfzamarriego', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5891c8d97d65891a135a4f898bbe9dc6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b7fbc2e8&amp;x-expires=1760965200&amp;x-signature=CIKRqmXmkQRF5Hs8Zw%2BkWgDizg8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551486875396948744', 'createTime': 1758217558, 'createTimeISO': '2025-09-18T17:45:58.000Z', 'text': 'Estoy por graduarme de ingeniería industrial. Me encantaría hacer mis prácticas o trabajar en un futuro con ustedes. Me encanta la familia Alpina, creen que pueda hacer parte algún día? \U0001f979', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6817806087653164037', 'uniqueId': 'brandontarcila_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e6b11bf080b10cd0207666b99c05d31b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3af90448&amp;x-expires=1761051600&amp;x-signature=SvRJ9GD2RKe2QUXOhpZZWJAilCs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7552707780533863189', 'createTime': 1758502086, 'createTimeISO': '2025-09-22T00:48:06.000Z', 'text': 'cuantos comentarios y reacciones para ganarme la nueva colección de Mochis de dinosaurios 🥺 (no me ignoren, ayuden personas a que lo vean🙏🏻)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6915493889098187782', 'uniqueId': 'angel18mendoza', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/68f808039457cd87fd4d7b94e867d357~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=71ad0083&amp;x-expires=1760965200&amp;x-signature=IvmaS9A76eXM0NiidygNrVql8qw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7552707780533863189', 'createTime': 1758502086, 'createTimeISO': '2025-09-22T00:48:06.000Z', 'text': 'cuantos comentarios y reacciones para ganarme la nueva colección de Mochis de dinosaurios 🥺 (no me ignoren, ayuden personas a que lo vean🙏🏻)', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6915493889098187782', 'uniqueId': 'angel18mendoza', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/68f808039457cd87fd4d7b94e867d357~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a591da87&amp;x-expires=1761051600&amp;x-signature=Kbtyq4oHY2w4BpkyzNxJW24Ud7c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3282,25 +3282,25 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>¿Qué tipo de contrato tienen?</t>
+          <t>Mi sueño haciéndose realidad 🥰🥺</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>45920.96097222222</v>
+        <v>45918.62016203703</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>45920</v>
+        <v>45918</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>23:03:48</t>
+          <t>14:53:02</t>
         </is>
       </c>
       <c r="J51" t="n">
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7552310929883448084', 'createTime': 1758409428, 'createTimeISO': '2025-09-20T23:03:48.000Z', 'text': '¿Qué tipo de contrato tienen?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6856891169080443909', 'uniqueId': 'lourdesbarragan_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/e377e28c29d509541307260e66fb275d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=19e2d794&amp;x-expires=1760965200&amp;x-signature=GDOoto5CGCTCaCFG8ox%2FeazewhY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551442303657116436', 'createTime': 1758207182, 'createTimeISO': '2025-09-18T14:53:02.000Z', 'text': 'Mi sueño haciéndose realidad 🥰🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6788284872554497030', 'uniqueId': 'anirivera_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a6c6e77f0d746b65b48a78e1205c8c82~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=52f39731&amp;x-expires=1761051600&amp;x-signature=yaA5UB2YpGOwmDpNI%2BTuhQnb8WY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3338,25 +3338,25 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Estoy por graduarme de ingeniería industrial. Me encantaría hacer mis prácticas o trabajar en un futuro con ustedes. Me encanta la familia Alpina, creen que pueda hacer parte algún día? 🥹</t>
+          <t>Buenisimo!!!!!</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>45918.74025462963</v>
+        <v>45919.87149305556</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>17:45:58</t>
+          <t>20:54:57</t>
         </is>
       </c>
       <c r="J52" t="n">
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551486875396948744', 'createTime': 1758217558, 'createTimeISO': '2025-09-18T17:45:58.000Z', 'text': 'Estoy por graduarme de ingeniería industrial. Me encantaría hacer mis prácticas o trabajar en un futuro con ustedes. Me encanta la familia Alpina, creen que pueda hacer parte algún día? \U0001f979', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6817806087653164037', 'uniqueId': 'brandontarcila_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e6b11bf080b10cd0207666b99c05d31b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=37aa374c&amp;x-expires=1760965200&amp;x-signature=GMgrUxxDGYhSUGkrQyVdMai5nhg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551906649611830023', 'createTime': 1758315297, 'createTimeISO': '2025-09-19T20:54:57.000Z', 'text': 'Buenisimo!!!!!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7068293195050877957', 'uniqueId': 'mfzamarriego', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5891c8d97d65891a135a4f898bbe9dc6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0ca22d0d&amp;x-expires=1761051600&amp;x-signature=c8tepgeomdQkz3xLfVoN9GoWBSQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3394,18 +3394,18 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>estando en etapa lectiva puedo aplicar</t>
+          <t>¿Qué tipo de contrato tienen?</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>45926.77971064814</v>
+        <v>45920.96097222222</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>45926</v>
+        <v>45920</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>18:42:47</t>
+          <t>23:03:48</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -3424,7 +3424,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7554470184620000018', 'createTime': 1758912167, 'createTimeISO': '2025-09-26T18:42:47.000Z', 'text': 'estando en etapa lectiva puedo aplicar', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6964937358190445574', 'uniqueId': 'daneicy8', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a6e6af884aceb8af9c72174f73167f68~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cb5b0903&amp;x-expires=1760965200&amp;x-signature=scVNShO87E24AmjPdoBC5Q6Qtng%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7552310929883448084', 'createTime': 1758409428, 'createTimeISO': '2025-09-20T23:03:48.000Z', 'text': '¿Qué tipo de contrato tienen?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6856891169080443909', 'uniqueId': 'lourdesbarragan_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/e377e28c29d509541307260e66fb275d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f9cf0027&amp;x-expires=1761051600&amp;x-signature=xIaIgFf2sr6xkcZzw5CxySmvB6Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3450,25 +3450,25 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Te amo me encanta Alpina 🥰</t>
+          <t>estando en etapa lectiva puedo aplicar</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>45917.01868055556</v>
+        <v>45926.77971064814</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>45917</v>
+        <v>45926</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>00:26:54</t>
+          <t>18:42:47</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550847978996859666', 'createTime': 1758068814, 'createTimeISO': '2025-09-17T00:26:54.000Z', 'text': 'Te amo me encanta Alpina 🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=47a2209d&amp;x-expires=1760965200&amp;x-signature=cse0xr%2BjherRkbs8rM5V2LiIs%2Fk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7554470184620000018', 'createTime': 1758912167, 'createTimeISO': '2025-09-26T18:42:47.000Z', 'text': 'estando en etapa lectiva puedo aplicar', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6964937358190445574', 'uniqueId': 'daneicy8', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a6e6af884aceb8af9c72174f73167f68~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6591ce18&amp;x-expires=1761051600&amp;x-signature=q4LGs%2BSPDAtBVLEdCO%2FPqwxKxCo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3506,22 +3506,22 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Mi sueño haciéndose realidad 🥰🥺</t>
+          <t>Te amo me encanta Alpina 🥰</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>45918.62016203703</v>
+        <v>45917.01868055556</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>14:53:02</t>
+          <t>00:26:54</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
         <v>1</v>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551442303657116436', 'createTime': 1758207182, 'createTimeISO': '2025-09-18T14:53:02.000Z', 'text': 'Mi sueño haciéndose realidad 🥰🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6788284872554497030', 'uniqueId': 'anirivera_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a6c6e77f0d746b65b48a78e1205c8c82~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=39cd13ff&amp;x-expires=1760965200&amp;x-signature=uV2SsiPO19UFNzVpULMX5QPwNRU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550847978996859666', 'createTime': 1758068814, 'createTimeISO': '2025-09-17T00:26:54.000Z', 'text': 'Te amo me encanta Alpina 🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781208974266188805', 'uniqueId': 'andregg077', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0c493aa7c5dae089ff639650c6b17a8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fef8fbd2&amp;x-expires=1761051600&amp;x-signature=AX2AyDDN%2FZcWBW096p8CPubicDQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551840682764829458', 'createTime': 1758299933, 'createTimeISO': '2025-09-19T16:38:53.000Z', 'text': 'si estudio narrativas en medios digitales y audiovisuales puedo aplicar? 😭', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6885505605576377345', 'uniqueId': 'spaaaak_4.m', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7324800281223364610~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0b9417c7&amp;x-expires=1760965200&amp;x-signature=wm1mR4Aa0SUejnal0gLL7wkjfic%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551840682764829458', 'createTime': 1758299933, 'createTimeISO': '2025-09-19T16:38:53.000Z', 'text': 'si estudio narrativas en medios digitales y audiovisuales puedo aplicar? 😭', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6885505605576377345', 'uniqueId': 'spaaaak_4.m', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7324800281223364610~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=38586167&amp;x-expires=1761051600&amp;x-signature=83PubUrz%2BnGzOtoHiBn0rUuP56I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3618,18 +3618,18 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Yo quierooooo✨</t>
+          <t>Cuando comienzan a dar respuesta si ya apliqué?🥹</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>45917.00403935185</v>
+        <v>45916.99778935185</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>45917</v>
+        <v>45916</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>00:05:49</t>
+          <t>23:56:49</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550842534529860370', 'createTime': 1758067549, 'createTimeISO': '2025-09-17T00:05:49.000Z', 'text': 'Yo quierooooo✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781227104677250053', 'uniqueId': 'lauraleguizamou', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/531608b6e17cc4fc3195774b040b1421~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cd46e6f5&amp;x-expires=1760965200&amp;x-signature=py2aJRMgCg4gaS%2FWWn%2BwQ6kHq50%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550840242002150162', 'createTime': 1758067009, 'createTimeISO': '2025-09-16T23:56:49.000Z', 'text': 'Cuando comienzan a dar respuesta si ya apliqué?\U0001f979', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6774446029552354309', 'uniqueId': 'its.bri_ugc', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/dfeff60de882b1c199e34cb77f9557be~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b13a5728&amp;x-expires=1761051600&amp;x-signature=lG046KGdjd4zLSmnkBeyRQgRNPo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3674,25 +3674,25 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>me enteré que ya subieron nuevo video 😍</t>
+          <t>Me encantaaaa✨</t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>45917.08885416666</v>
+        <v>45917.15711805555</v>
       </c>
       <c r="H58" s="3" t="n">
         <v>45917</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>02:07:57</t>
+          <t>03:46:15</t>
         </is>
       </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550874055755203345', 'createTime': 1758074877, 'createTimeISO': '2025-09-17T02:07:57.000Z', 'text': 'me enteré que ya subieron nuevo video 😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bc29958f&amp;x-expires=1760965200&amp;x-signature=lq3UtwGN8vJqzezzKou9GHJcoN8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550899370625254165', 'createTime': 1758080775, 'createTimeISO': '2025-09-17T03:46:15.000Z', 'text': 'Me encantaaaa✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '6636032545857355782', 'uniqueId': 'amygonzal_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bcf09f13282d39a21e796330dfd9b28d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=53ca5688&amp;x-expires=1761051600&amp;x-signature=SONGnG1iXuwNaV0RFzryAM7TQhc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3730,18 +3730,18 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Cuando comienzan a dar respuesta si ya apliqué?🥹</t>
+          <t>Yo quierooooo✨</t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
-        <v>45916.99778935185</v>
+        <v>45917.00403935185</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>23:56:49</t>
+          <t>00:05:49</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550840242002150162', 'createTime': 1758067009, 'createTimeISO': '2025-09-16T23:56:49.000Z', 'text': 'Cuando comienzan a dar respuesta si ya apliqué?\U0001f979', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6774446029552354309', 'uniqueId': 'its.bri_ugc', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/dfeff60de882b1c199e34cb77f9557be~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fa2fe692&amp;x-expires=1760965200&amp;x-signature=Md1YUfcdxBxo0ExbJnDVHEWxszA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550842534529860370', 'createTime': 1758067549, 'createTimeISO': '2025-09-17T00:05:49.000Z', 'text': 'Yo quierooooo✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781227104677250053', 'uniqueId': 'lauraleguizamou', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/531608b6e17cc4fc3195774b040b1421~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6dff3880&amp;x-expires=1761051600&amp;x-signature=QMlgfLRHafb4MKolSI%2FiZa04Z2Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3786,25 +3786,25 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Amò este Alpina</t>
+          <t>Hola, debo estar en la universidad para entrar? Quisiera entrar el próximo año pero me graduó este año</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
-        <v>45919.13483796296</v>
+        <v>45950.08646990741</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>45919</v>
+        <v>45950</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>03:14:10</t>
+          <t>02:04:31</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551633311488082696', 'createTime': 1758251650, 'createTimeISO': '2025-09-19T03:14:10.000Z', 'text': 'Amò este Alpina', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6955254769972806662', 'uniqueId': 'santiwhosthat', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/72ed639d278a53a7ee891f25034e0d1a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=51d97aee&amp;x-expires=1760965200&amp;x-signature=wzDQjX1MzOBxBubRyhDXmc60w0M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7563119000310334226', 'createTime': 1760925871, 'createTimeISO': '2025-10-20T02:04:31.000Z', 'text': 'Hola, debo estar en la universidad para entrar? Quisiera entrar el próximo año pero me graduó este año', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6532073308303660032', 'uniqueId': 'marimar1707_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ecab724fac1b9a8b98bef5bad85fbad2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e4d75dad&amp;x-expires=1761051600&amp;x-signature=%2FuN77R8bekZpy95AlUse9%2BS55F0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3842,25 +3842,25 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>hola alpina esta es mi colección de Mochis no es mucha molestia si me envías una caja de Mochisaurios gracias 😃😉</t>
+          <t>me enteré que ya subieron nuevo video 😍</t>
         </is>
       </c>
       <c r="G61" s="2" t="n">
-        <v>45931.97782407407</v>
+        <v>45917.08885416666</v>
       </c>
       <c r="H61" s="3" t="n">
-        <v>45931</v>
+        <v>45917</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>23:28:04</t>
+          <t>02:07:57</t>
         </is>
       </c>
       <c r="J61" t="n">
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" t="b">
         <v>0</v>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556399100905341703', 'createTime': 1759361284, 'createTimeISO': '2025-10-01T23:28:04.000Z', 'text': 'hola alpina esta es mi colección de Mochis no es mucha molestia si me envías una caja de Mochisaurios gracias 😃😉', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7531368579791438866', 'uniqueId': 'damian.smith.mora', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3106fbebef557d53c4193c9474d4163c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=592203d3&amp;x-expires=1760965200&amp;x-signature=rt5F95jYkpuJNV1BdQl9NjbOIvQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550874055755203345', 'createTime': 1758074877, 'createTimeISO': '2025-09-17T02:07:57.000Z', 'text': 'me enteré que ya subieron nuevo video 😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7155964557461144581', 'uniqueId': 'marilincastillo46', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e0ba4723b994319985b1ee959919edbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e870b010&amp;x-expires=1761051600&amp;x-signature=c6D2W85edJ3TQz56Al7GVpb0awQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3898,25 +3898,25 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>Amò este Alpina</t>
         </is>
       </c>
       <c r="G62" s="2" t="n">
-        <v>45932.00375</v>
+        <v>45919.13483796296</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>45932</v>
+        <v>45919</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>00:05:24</t>
+          <t>03:14:10</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" t="b">
         <v>0</v>
@@ -3928,7 +3928,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556408658076435218', 'createTime': 1759363524, 'createTimeISO': '2025-10-02T00:05:24.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7280259132014806022', 'uniqueId': 'matilde.guerrero3', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7280259483488665606~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fcf53f11&amp;x-expires=1760965200&amp;x-signature=DmcCUTDTLqucKS4dZaMm06%2BPx%2F0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551633311488082696', 'createTime': 1758251650, 'createTimeISO': '2025-09-19T03:14:10.000Z', 'text': 'Amò este Alpina', 'diggCount': 1, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6955254769972806662', 'uniqueId': 'santiwhosthat', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/72ed639d278a53a7ee891f25034e0d1a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=14fc3d9a&amp;x-expires=1761051600&amp;x-signature=650tcVPIo3kV8TIbmBfSOmriTbw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3954,18 +3954,18 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>hola alpina esta es mi colección de Mochis no es mucha molestia si me envías una caja de Mochisaurios gracias 😃😉</t>
         </is>
       </c>
       <c r="G63" s="2" t="n">
-        <v>45933.28815972222</v>
+        <v>45931.97782407407</v>
       </c>
       <c r="H63" s="3" t="n">
-        <v>45933</v>
+        <v>45931</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>06:54:57</t>
+          <t>23:28:04</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -3984,7 +3984,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556885364948173586', 'createTime': 1759474497, 'createTimeISO': '2025-10-03T06:54:57.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7444383176737113144', 'uniqueId': 'lirasa91', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=51d04cd2&amp;x-expires=1760965200&amp;x-signature=8TjSN%2BmK3zIZo8AihOKtbP0NrMo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556399100905341703', 'createTime': 1759361284, 'createTimeISO': '2025-10-01T23:28:04.000Z', 'text': 'hola alpina esta es mi colección de Mochis no es mucha molestia si me envías una caja de Mochisaurios gracias 😃😉', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7531368579791438866', 'uniqueId': 'damian.smith.mora', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3106fbebef557d53c4193c9474d4163c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=efaac3ad&amp;x-expires=1761051600&amp;x-signature=V8Mz8kr8TcPXXx6EOkgGsDUCNo8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4010,18 +4010,18 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Buen día, aceptan pasantes en área administrativa?😳</t>
+          <t>@Chantal Thorin 😂</t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
-        <v>45924.54788194445</v>
+        <v>45917.01428240741</v>
       </c>
       <c r="H64" s="3" t="n">
-        <v>45924</v>
+        <v>45917</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>13:08:57</t>
+          <t>00:20:34</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7553641991944602386', 'createTime': 1758719337, 'createTimeISO': '2025-09-24T13:08:57.000Z', 'text': 'Buen día, aceptan pasantes en área administrativa?😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6819016661686453254', 'uniqueId': 'scatalina15', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/65616505ecd12a1b5dd469d79ec8a719~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e529dc5e&amp;x-expires=1760965200&amp;x-signature=XgKSt3lWusyjH%2BT9eWwQVa3mmzw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550846347324130055', 'createTime': 1758068434, 'createTimeISO': '2025-09-17T00:20:34.000Z', 'text': '@Chantal Thorin 😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6788904373575074822', 'uniqueId': 'juanolmos023', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/715053c66c983c3c1c50e1eb7df0c471~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c432670b&amp;x-expires=1761051600&amp;x-signature=Jq2CnFg26uAHI7qKPzGragNo9cg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@Chantal Thorin'], 'detailedMentions': [{'userId': '7323823789984531462', 'nickName': 'Chantal Thorin', 'profileUrl': 'https://www.tiktok.com/@7323823789984531462', 'secUid': 'MS4wLjABAAAAeVzy1YXMwyrURUZkWFufcDOQpRrR-rZvvbSNYGZdeSPQL7wiKvQELMaPx312In6i'}]}</t>
         </is>
       </c>
     </row>
@@ -4066,18 +4066,18 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>@Chantal Thorin 😂</t>
+          <t>@mochis_yogoyogo💗 ya quiero mochisss aaaa está es mi cuenta donde haré unboxings de los dinomochis y más cosas de alpina</t>
         </is>
       </c>
       <c r="G65" s="2" t="n">
-        <v>45917.01428240741</v>
+        <v>45920.12986111111</v>
       </c>
       <c r="H65" s="3" t="n">
-        <v>45917</v>
+        <v>45920</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>00:20:34</t>
+          <t>03:07:00</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550846347324130055', 'createTime': 1758068434, 'createTimeISO': '2025-09-17T00:20:34.000Z', 'text': '@Chantal Thorin 😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6788904373575074822', 'uniqueId': 'juanolmos023', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/715053c66c983c3c1c50e1eb7df0c471~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=93473bf2&amp;x-expires=1760965200&amp;x-signature=V3HuK99iPLS6%2FavEZQcrBm9SFB4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@Chantal Thorin'], 'detailedMentions': [{'userId': '7323823789984531462', 'nickName': 'Chantal Thorin', 'profileUrl': 'https://www.tiktok.com/@7323823789984531462', 'secUid': 'MS4wLjABAAAAeVzy1YXMwyrURUZkWFufcDOQpRrR-rZvvbSNYGZdeSPQL7wiKvQELMaPx312In6i'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7552002528465699592', 'createTime': 1758337620, 'createTimeISO': '2025-09-20T03:07:00.000Z', 'text': '@mochis_yogoyogo💗 ya quiero mochisss aaaa está es mi cuenta donde haré unboxings de los dinomochis y más cosas de alpina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7382728939964548101', 'uniqueId': 'eve_watajai', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/c9212056428da8609f48a989cd6e9170~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=b615e00c&amp;x-expires=1761051600&amp;x-signature=otoFGjRruM4U5H%2F5ZjrCfNb6v0s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': ['@mochis_yogoyogo💗'], 'detailedMentions': [{'userId': '7469144855873651730', 'nickName': 'mochis_yogoyogo💗', 'profileUrl': 'https://www.tiktok.com/@7469144855873651730', 'secUid': 'MS4wLjABAAAAfnDzVmGgNedG0asJ6YoXVgPkaL-69fpJq_hPO_uLHcj8SYDqMhAidX6vu-pf-BmB'}]}</t>
         </is>
       </c>
     </row>
@@ -4122,18 +4122,18 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>👍</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G66" s="2" t="n">
-        <v>45936.8365625</v>
+        <v>45933.28815972222</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>45936</v>
+        <v>45933</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>20:04:39</t>
+          <t>06:54:57</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7558202100607091476', 'createTime': 1759781079, 'createTimeISO': '2025-10-06T20:04:39.000Z', 'text': '👍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452056190890116114', 'uniqueId': 'sabeldani10', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4b19cfb39961d6a4eec67ddf6a71ac66~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c3f6cc84&amp;x-expires=1760965200&amp;x-signature=p03265OgDAtLemyYOGw6MN%2BRVlw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556885364948173586', 'createTime': 1759474497, 'createTimeISO': '2025-10-03T06:54:57.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7444383176737113144', 'uniqueId': 'lirasa91', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=488046ac&amp;x-expires=1761051600&amp;x-signature=TdhB00ECb6l8FrQ9pC3EHYwUPho%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550844710467732242', 'createTime': 1758068057, 'createTimeISO': '2025-09-17T00:14:17.000Z', 'text': '\U0001fae1\U0001fae1\U0001fae1', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7323823789984531462', 'uniqueId': 'chantal.thorin', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/5be5fbd7e28fb667d0d61e8de45fc752~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5d065395&amp;x-expires=1760965200&amp;x-signature=L2AD0Wv%2F2vlnA3UKeXMnTlkfs8U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7550844710467732242', 'createTime': 1758068057, 'createTimeISO': '2025-09-17T00:14:17.000Z', 'text': '\U0001fae1\U0001fae1\U0001fae1', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7323823789984531462', 'uniqueId': 'chantal.thorin', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/5be5fbd7e28fb667d0d61e8de45fc752~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=5636d6b9&amp;x-expires=1761051600&amp;x-signature=NJGU3SJj60JOV%2BEkm46fwcy17KA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7555185101043680018', 'createTime': 1759078618, 'createTimeISO': '2025-09-28T16:56:58.000Z', 'text': '😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7475879249447666705', 'uniqueId': 'al454329', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/00eba74212b2c117219704065444145b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7ddf2f49&amp;x-expires=1760965200&amp;x-signature=KRHzY2NkQVrDoEyMLKqtNKPw0Iw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7555185101043680018', 'createTime': 1759078618, 'createTimeISO': '2025-09-28T16:56:58.000Z', 'text': '😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7475879249447666705', 'uniqueId': 'al454329', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/00eba74212b2c117219704065444145b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=92b8572b&amp;x-expires=1761051600&amp;x-signature=RhDtjUPAUqIyeuSKi%2BZeS5%2BMML0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4290,18 +4290,18 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>@mochis_yogoyogo💗 ya quiero mochisss aaaa está es mi cuenta donde haré unboxings de los dinomochis y más cosas de alpina</t>
+          <t>👍</t>
         </is>
       </c>
       <c r="G69" s="2" t="n">
-        <v>45920.12986111111</v>
+        <v>45936.8365625</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>45920</v>
+        <v>45936</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>03:07:00</t>
+          <t>20:04:39</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7552002528465699592', 'createTime': 1758337620, 'createTimeISO': '2025-09-20T03:07:00.000Z', 'text': '@mochis_yogoyogo💗 ya quiero mochisss aaaa está es mi cuenta donde haré unboxings de los dinomochis y más cosas de alpina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7382728939964548101', 'uniqueId': 'eve_watajai', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c9212056428da8609f48a989cd6e9170~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dd10f381&amp;x-expires=1760965200&amp;x-signature=CJSbf2SXmi%2BquJShv4xUdtd9aec%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@mochis_yogoyogo💗'], 'detailedMentions': [{'userId': '7469144855873651730', 'nickName': 'mochis_yogoyogo💗', 'profileUrl': 'https://www.tiktok.com/@7469144855873651730', 'secUid': 'MS4wLjABAAAAfnDzVmGgNedG0asJ6YoXVgPkaL-69fpJq_hPO_uLHcj8SYDqMhAidX6vu-pf-BmB'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7558202100607091476', 'createTime': 1759781079, 'createTimeISO': '2025-10-06T20:04:39.000Z', 'text': '👍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452056190890116114', 'uniqueId': 'sabeldani10', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4b19cfb39961d6a4eec67ddf6a71ac66~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8e924b9e&amp;x-expires=1761051600&amp;x-signature=txx2tXZtFhLBEccQqmT%2FiDW7%2Bx0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4346,18 +4346,18 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>vuelvan a poner a la banda de gatos de alpin</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G70" s="2" t="n">
-        <v>45932.98778935185</v>
+        <v>45932.00375</v>
       </c>
       <c r="H70" s="3" t="n">
         <v>45932</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>23:42:25</t>
+          <t>00:05:24</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -4376,7 +4376,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556773829139677960', 'createTime': 1759448545, 'createTimeISO': '2025-10-02T23:42:25.000Z', 'text': 'vuelvan a poner a la banda de gatos de alpin', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7338967674703905797', 'uniqueId': 'xa.m25', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f18aaf30609d233d93d48aaec98bdc23~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0683469e&amp;x-expires=1760965200&amp;x-signature=SefHNWBZ2vSCZaI34PT%2BuK1RScA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556408658076435218', 'createTime': 1759363524, 'createTimeISO': '2025-10-02T00:05:24.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7280259132014806022', 'uniqueId': 'matilde.guerrero3', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7280259483488665606~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=31157f8c&amp;x-expires=1761051600&amp;x-signature=849kRczYdA7gThSI7N1pMZWFAfg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7553359733933458194', 'createTime': 1758653626, 'createTimeISO': '2025-09-23T18:53:46.000Z', 'text': 'QUE VUELVA ALPILITRO 🙌🙏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7493133555746489351', 'uniqueId': 'andreykdy3', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ffdb73d8f0b1bc3e2a3bf54e4492d457~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=96b2a95f&amp;x-expires=1760965200&amp;x-signature=T%2FR7UPBTEZEi4l0k%2FLc2Mj569sc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7553359733933458194', 'createTime': 1758653626, 'createTimeISO': '2025-09-23T18:53:46.000Z', 'text': 'QUE VUELVA ALPILITRO 🙌🙏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7493133555746489351', 'uniqueId': 'andreykdy3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ffdb73d8f0b1bc3e2a3bf54e4492d457~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b45f2b8c&amp;x-expires=1761051600&amp;x-signature=pvFYsb8sXZtroiuGZIKsQSBli9I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4458,18 +4458,18 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Amooooo los mochisssssss</t>
+          <t>vuelvan a poner a la banda de gatos de alpin</t>
         </is>
       </c>
       <c r="G72" s="2" t="n">
-        <v>45919.10697916667</v>
+        <v>45932.98778935185</v>
       </c>
       <c r="H72" s="3" t="n">
-        <v>45919</v>
+        <v>45932</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>02:34:03</t>
+          <t>23:42:25</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -4488,13 +4488,13 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7551622936564073224', 'createTime': 1758249243, 'createTimeISO': '2025-09-19T02:34:03.000Z', 'text': 'Amooooo los mochisssssss', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6775204820329579525', 'uniqueId': 'danivalenciaa', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/16f06ae19c05a3c06f041a0a4078e97e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=eda7e863&amp;x-expires=1760965200&amp;x-signature=woYAnj1903HJ%2FLH1lh8toapmH7g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'input': 'https://www.tiktok.com/@alpinacol/video/7550835075697462533', 'cid': '7556773829139677960', 'createTime': 1759448545, 'createTimeISO': '2025-10-02T23:42:25.000Z', 'text': 'vuelvan a poner a la banda de gatos de alpin', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7338967674703905797', 'uniqueId': 'xa.m25', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f18aaf30609d233d93d48aaec98bdc23~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9348d3fa&amp;x-expires=1761051600&amp;x-signature=sHN0JvCc2wpS5MGKOVJixIW0STI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -4508,31 +4508,31 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7551218859919822086?is_from_webapp=1&amp;sender_device=pc&amp;web_id=7530638001644029446</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7550835075697462533?is_from_webapp=1&amp;sender_device=pc&amp;web_id=7530638001644029446</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Hmmm avena saladaaa gabsss?</t>
+          <t>Amooooo los mochisssssss</t>
         </is>
       </c>
       <c r="G73" s="2" t="n">
-        <v>45918.04773148148</v>
+        <v>45919.10697916667</v>
       </c>
       <c r="H73" s="3" t="n">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>01:08:44</t>
+          <t>02:34:03</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" t="b">
         <v>0</v>
@@ -4544,7 +4544,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'input': 'https://www.tiktok.com/@alpinacol/video/7551218859919822086', 'cid': '7551229830001885973', 'createTime': 1758157724, 'createTimeISO': '2025-09-18T01:08:44.000Z', 'text': 'Hmmm avena saladaaa gabsss?', 'diggCount': 12, 'likedByAuthor': Fals